--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42C776E-0D81-4067-9FCE-2EE07DA52765}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174A8DF-8EF4-41B6-A5BD-4AAEE5B9D116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>$EBAY</t>
   </si>
@@ -236,16 +236,179 @@
   </si>
   <si>
     <t>ROCE</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>Product Development</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Provision for Transactions</t>
+  </si>
+  <si>
+    <t>Amortization of Intangibles</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest &amp; Other, Net</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Income Tax Benefit</t>
+  </si>
+  <si>
+    <t>Income from Continuing</t>
+  </si>
+  <si>
+    <t>Income from Discontinuing</t>
+  </si>
+  <si>
+    <t>Gain/Loss on Equity &amp; Warrants</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Short Term Investments</t>
+  </si>
+  <si>
+    <t>Customer Accounts &amp; Receivable</t>
+  </si>
+  <si>
+    <t>Other Current Assets</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>Long-Term Investments</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Operating Lease ROU</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Equity Investment in Adevinta</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Short-Term Debt</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>Customer Accounts &amp; Payables</t>
+  </si>
+  <si>
+    <t>Accrued Expenses &amp; OCL</t>
+  </si>
+  <si>
+    <t>Income Taxes Payable</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Operating Lease Liabilities</t>
+  </si>
+  <si>
+    <t>Deferred Tax Liabilities</t>
+  </si>
+  <si>
+    <t>Long-Term Debt</t>
+  </si>
+  <si>
+    <t>Other Liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +442,42 @@
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Airal"/>
     </font>
   </fonts>
   <fills count="5">
@@ -396,10 +595,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,6 +653,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -468,8 +671,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,6 +787,111 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677B9753-712E-4B0C-BA25-E6756199EB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13744575" y="9525"/>
+          <a:ext cx="0" cy="13696950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBD2E53-A5E3-4F74-B5BC-7A1D7DEFC3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19221450" y="0"/>
+          <a:ext cx="0" cy="13696950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -850,26 +1196,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B353D84-D285-44E7-B4A8-68B201033445}">
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -887,14 +1233,14 @@
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>40.78</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="G6" s="17"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -905,14 +1251,15 @@
       <c r="N6" s="15"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9">
-        <v>542.66</v>
-      </c>
-      <c r="D7" s="30"/>
+        <f>'Financial Model'!U22</f>
+        <v>542.659087</v>
+      </c>
+      <c r="D7" s="31"/>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -923,15 +1270,15 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>22129.674800000001</v>
-      </c>
-      <c r="D8" s="30"/>
+        <v>22129.637567860002</v>
+      </c>
+      <c r="D8" s="31"/>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -942,12 +1289,15 @@
       <c r="N8" s="15"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="9">
+        <f>'Financial Model'!U67</f>
+        <v>3494</v>
+      </c>
+      <c r="D9" s="31"/>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -958,12 +1308,15 @@
       <c r="N9" s="15"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="9">
+        <f>'Financial Model'!U68</f>
+        <v>7729</v>
+      </c>
+      <c r="D10" s="31"/>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -974,15 +1327,15 @@
       <c r="N10" s="15"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="30"/>
+        <v>-4235</v>
+      </c>
+      <c r="D11" s="31"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -993,15 +1346,15 @@
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="10">
         <f>C8-C11</f>
-        <v>22129.674800000001</v>
-      </c>
-      <c r="D12" s="31"/>
+        <v>26364.637567860002</v>
+      </c>
+      <c r="D12" s="32"/>
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -1012,7 +1365,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -1023,7 +1376,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15">
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -1034,7 +1387,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1403,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1421,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1439,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="11"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -1100,7 +1453,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1471,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -1129,7 +1482,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="G21" s="17"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -1140,7 +1493,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1509,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
@@ -1174,7 +1527,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1545,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1563,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="13"/>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
@@ -1224,7 +1577,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="13"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
@@ -1238,12 +1591,17 @@
       <c r="N27" s="15"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="47">
+        <f>'Financial Model'!U3</f>
+        <v>37561</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -1254,14 +1612,14 @@
       <c r="N28" s="15"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="34"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1272,49 +1630,52 @@
       <c r="N29" s="19"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4">
       <c r="B33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="50">
+        <f>C6/'Financial Model'!U65</f>
+        <v>4.5599912565134968</v>
+      </c>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4">
       <c r="B35" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4">
       <c r="B36" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4">
       <c r="B37" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4">
       <c r="B38" s="14" t="s">
         <v>69</v>
       </c>
@@ -1344,149 +1705,2717 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{D9973FEA-B39E-4DD3-8417-80042015C44B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DA9FF5-18B2-4F1B-8BED-7AF64467FA45}">
-  <dimension ref="B1:AO3"/>
+  <dimension ref="B1:AO80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="AD77" sqref="AD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="27" t="s">
+    <row r="1" spans="2:41" s="28" customFormat="1">
+      <c r="C1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AM1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AN1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AO1" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="2:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
+    <row r="2" spans="2:41" s="30" customFormat="1">
+      <c r="B2" s="29"/>
+      <c r="N2" s="38">
+        <v>44196</v>
+      </c>
+      <c r="O2" s="38">
+        <v>44286</v>
+      </c>
+      <c r="P2" s="38">
+        <v>44377</v>
+      </c>
+      <c r="Q2" s="38">
+        <v>44469</v>
+      </c>
+      <c r="R2" s="38">
+        <v>44561</v>
+      </c>
+      <c r="S2" s="38">
+        <v>44651</v>
+      </c>
+      <c r="T2" s="38">
+        <v>44742</v>
+      </c>
+      <c r="U2" s="38">
+        <v>44834</v>
+      </c>
+      <c r="AD2" s="38">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="3" spans="2:41" s="30" customFormat="1">
+      <c r="B3" s="29"/>
+      <c r="R3" s="36">
+        <v>44958</v>
+      </c>
+      <c r="S3" s="36">
+        <v>38108</v>
+      </c>
+      <c r="T3" s="36">
+        <v>37834</v>
+      </c>
+      <c r="U3" s="36">
+        <v>37561</v>
+      </c>
+      <c r="AD3" s="36">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41" s="2" customFormat="1">
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
+        <v>2638</v>
+      </c>
+      <c r="P4" s="39">
+        <v>2668</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>2501</v>
+      </c>
+      <c r="R4" s="39">
+        <v>2613</v>
+      </c>
+      <c r="S4" s="39">
+        <v>2483</v>
+      </c>
+      <c r="T4" s="39">
+        <v>2422</v>
+      </c>
+      <c r="U4" s="39">
+        <v>2380</v>
+      </c>
+      <c r="AD4" s="39">
+        <f>SUM(O4:R4)</f>
+        <v>10420</v>
+      </c>
+    </row>
+    <row r="5" spans="2:41">
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40">
+        <v>606</v>
+      </c>
+      <c r="P5" s="40">
+        <v>672</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>678</v>
+      </c>
+      <c r="R5" s="40">
+        <v>694</v>
+      </c>
+      <c r="S5" s="40">
+        <v>689</v>
+      </c>
+      <c r="T5" s="40">
+        <v>663</v>
+      </c>
+      <c r="U5" s="40">
+        <v>647</v>
+      </c>
+      <c r="AD5" s="40">
+        <f>SUM(O5:R5)</f>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41" s="2" customFormat="1">
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="39">
+        <f t="shared" ref="C6:T6" si="0">C4-C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="39">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="P6" s="39">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="Q6" s="39">
+        <f t="shared" si="0"/>
+        <v>1823</v>
+      </c>
+      <c r="R6" s="39">
+        <f t="shared" si="0"/>
+        <v>1919</v>
+      </c>
+      <c r="S6" s="39">
+        <f t="shared" si="0"/>
+        <v>1794</v>
+      </c>
+      <c r="T6" s="39">
+        <f t="shared" si="0"/>
+        <v>1759</v>
+      </c>
+      <c r="U6" s="39">
+        <f>U4-U5</f>
+        <v>1733</v>
+      </c>
+      <c r="AD6" s="39">
+        <f>AD4-AD5</f>
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="7" spans="2:41">
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40">
+        <v>546</v>
+      </c>
+      <c r="P7" s="40">
+        <v>559</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>496</v>
+      </c>
+      <c r="R7" s="40">
+        <v>569</v>
+      </c>
+      <c r="S7" s="40">
+        <v>478</v>
+      </c>
+      <c r="T7" s="40">
+        <v>566</v>
+      </c>
+      <c r="U7" s="40">
+        <v>538</v>
+      </c>
+      <c r="AD7" s="40">
+        <f>SUM(O7:R7)</f>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41">
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40">
+        <v>304</v>
+      </c>
+      <c r="P8" s="40">
+        <v>350</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>334</v>
+      </c>
+      <c r="R8" s="40">
+        <v>337</v>
+      </c>
+      <c r="S8" s="40">
+        <v>301</v>
+      </c>
+      <c r="T8" s="40">
+        <v>344</v>
+      </c>
+      <c r="U8" s="40">
+        <v>345</v>
+      </c>
+      <c r="AD8" s="40">
+        <f t="shared" ref="AD8:AD11" si="1">SUM(O8:R8)</f>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="9" spans="2:41">
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40">
+        <v>246</v>
+      </c>
+      <c r="P9" s="40">
+        <v>250</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>219</v>
+      </c>
+      <c r="R9" s="40">
+        <v>206</v>
+      </c>
+      <c r="S9" s="40">
+        <v>226</v>
+      </c>
+      <c r="T9" s="40">
+        <v>237</v>
+      </c>
+      <c r="U9" s="40">
+        <v>212</v>
+      </c>
+      <c r="AD9" s="40">
+        <f t="shared" si="1"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="10" spans="2:41">
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40">
+        <v>88</v>
+      </c>
+      <c r="P10" s="40">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>112</v>
+      </c>
+      <c r="R10" s="40">
+        <v>119</v>
+      </c>
+      <c r="S10" s="40">
+        <v>96</v>
+      </c>
+      <c r="T10" s="40">
+        <v>86</v>
+      </c>
+      <c r="U10" s="40">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="40">
+        <f t="shared" si="1"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="2:41">
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40">
+        <v>7</v>
+      </c>
+      <c r="P11" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>0</v>
+      </c>
+      <c r="R11" s="40">
+        <v>0</v>
+      </c>
+      <c r="S11" s="40">
+        <v>1</v>
+      </c>
+      <c r="T11" s="40">
+        <v>1</v>
+      </c>
+      <c r="U11" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="40">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="40">
+        <f t="shared" ref="C12:T12" si="2">SUM(C7:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="40">
+        <f t="shared" si="2"/>
+        <v>1191</v>
+      </c>
+      <c r="P12" s="40">
+        <f t="shared" si="2"/>
+        <v>1264</v>
+      </c>
+      <c r="Q12" s="40">
+        <f t="shared" si="2"/>
+        <v>1161</v>
+      </c>
+      <c r="R12" s="40">
+        <f t="shared" si="2"/>
+        <v>1231</v>
+      </c>
+      <c r="S12" s="40">
+        <f t="shared" si="2"/>
+        <v>1102</v>
+      </c>
+      <c r="T12" s="40">
+        <f t="shared" si="2"/>
+        <v>1234</v>
+      </c>
+      <c r="U12" s="40">
+        <f>SUM(U7:U11)</f>
+        <v>1165</v>
+      </c>
+      <c r="AD12" s="40">
+        <f>SUM(AD7:AD11)</f>
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41" s="2" customFormat="1">
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="39">
+        <f t="shared" ref="C13:T13" si="3">C6-C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="39">
+        <f t="shared" si="3"/>
+        <v>841</v>
+      </c>
+      <c r="P13" s="39">
+        <f t="shared" si="3"/>
+        <v>732</v>
+      </c>
+      <c r="Q13" s="39">
+        <f t="shared" si="3"/>
+        <v>662</v>
+      </c>
+      <c r="R13" s="39">
+        <f t="shared" si="3"/>
+        <v>688</v>
+      </c>
+      <c r="S13" s="39">
+        <f t="shared" si="3"/>
+        <v>692</v>
+      </c>
+      <c r="T13" s="39">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="U13" s="39">
+        <f>U6-U12</f>
+        <v>568</v>
+      </c>
+      <c r="AD13" s="39">
+        <f>AD6-AD12</f>
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41">
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40">
+        <v>-36</v>
+      </c>
+      <c r="P14" s="40">
+        <v>-273</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>-181</v>
+      </c>
+      <c r="R14" s="40">
+        <v>-1875</v>
+      </c>
+      <c r="S14" s="40">
+        <v>-2291</v>
+      </c>
+      <c r="T14" s="40">
+        <v>-1221</v>
+      </c>
+      <c r="U14" s="40">
+        <v>-593</v>
+      </c>
+      <c r="AD14" s="40">
+        <f t="shared" ref="AD14:AD15" si="4">SUM(O14:R14)</f>
+        <v>-2365</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41">
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40">
+        <v>-81</v>
+      </c>
+      <c r="P15" s="40">
+        <v>-58</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>-47</v>
+      </c>
+      <c r="R15" s="40">
+        <v>26</v>
+      </c>
+      <c r="S15" s="40">
+        <v>-50</v>
+      </c>
+      <c r="T15" s="40">
+        <v>-31</v>
+      </c>
+      <c r="U15" s="40">
+        <v>-29</v>
+      </c>
+      <c r="AD15" s="40">
+        <f t="shared" si="4"/>
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41">
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="40">
+        <f t="shared" ref="C16:T16" si="5">C13+C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="40">
+        <f t="shared" si="5"/>
+        <v>724</v>
+      </c>
+      <c r="P16" s="40">
+        <f t="shared" si="5"/>
+        <v>401</v>
+      </c>
+      <c r="Q16" s="40">
+        <f t="shared" si="5"/>
+        <v>434</v>
+      </c>
+      <c r="R16" s="40">
+        <f t="shared" si="5"/>
+        <v>-1161</v>
+      </c>
+      <c r="S16" s="40">
+        <f t="shared" si="5"/>
+        <v>-1649</v>
+      </c>
+      <c r="T16" s="40">
+        <f t="shared" si="5"/>
+        <v>-727</v>
+      </c>
+      <c r="U16" s="40">
+        <f>U13+U14+U15</f>
+        <v>-54</v>
+      </c>
+      <c r="AD16" s="40">
+        <f>AD13+AD14+AD15</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40">
+        <v>-156</v>
+      </c>
+      <c r="P17" s="40">
+        <v>-107</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>-151</v>
+      </c>
+      <c r="R17" s="40">
+        <v>268</v>
+      </c>
+      <c r="S17" s="40">
+        <v>310</v>
+      </c>
+      <c r="T17" s="40">
+        <v>191</v>
+      </c>
+      <c r="U17" s="40">
+        <v>-16</v>
+      </c>
+      <c r="AD17" s="40">
+        <f t="shared" ref="AD17" si="6">SUM(O17:R17)</f>
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" ref="C18:T18" si="7">C16+C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="40">
+        <f t="shared" si="7"/>
+        <v>568</v>
+      </c>
+      <c r="P18" s="40">
+        <f t="shared" si="7"/>
+        <v>294</v>
+      </c>
+      <c r="Q18" s="40">
+        <f t="shared" si="7"/>
+        <v>283</v>
+      </c>
+      <c r="R18" s="40">
+        <f t="shared" si="7"/>
+        <v>-893</v>
+      </c>
+      <c r="S18" s="40">
+        <f t="shared" si="7"/>
+        <v>-1339</v>
+      </c>
+      <c r="T18" s="40">
+        <f t="shared" si="7"/>
+        <v>-536</v>
+      </c>
+      <c r="U18" s="40">
+        <f>U16+U17</f>
+        <v>-70</v>
+      </c>
+      <c r="AD18" s="40">
+        <f>AD16+AD17</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40">
+        <v>73</v>
+      </c>
+      <c r="P19" s="40">
+        <v>10440</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>-19</v>
+      </c>
+      <c r="R19" s="40">
+        <v>2862</v>
+      </c>
+      <c r="S19" s="40">
+        <v>-2</v>
+      </c>
+      <c r="T19" s="40">
+        <v>5</v>
+      </c>
+      <c r="U19" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="40">
+        <f t="shared" ref="AD19" si="8">SUM(O19:R19)</f>
+        <v>13356</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" s="2" customFormat="1">
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="39">
+        <f t="shared" ref="C20:T20" si="9">C18+C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="39">
+        <f t="shared" si="9"/>
+        <v>641</v>
+      </c>
+      <c r="P20" s="39">
+        <f t="shared" si="9"/>
+        <v>10734</v>
+      </c>
+      <c r="Q20" s="39">
+        <f t="shared" si="9"/>
+        <v>264</v>
+      </c>
+      <c r="R20" s="39">
+        <f t="shared" si="9"/>
+        <v>1969</v>
+      </c>
+      <c r="S20" s="39">
+        <f t="shared" si="9"/>
+        <v>-1341</v>
+      </c>
+      <c r="T20" s="39">
+        <f t="shared" si="9"/>
+        <v>-531</v>
+      </c>
+      <c r="U20" s="39">
+        <f>U18+U19</f>
+        <v>-69</v>
+      </c>
+      <c r="AD20" s="39">
+        <f>AD18+AD19</f>
+        <v>13608</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41">
+        <f>O20/O22</f>
+        <v>0.94126284875183552</v>
+      </c>
+      <c r="P21" s="41">
+        <f>P20/P22</f>
+        <v>15.925816023738873</v>
+      </c>
+      <c r="Q21" s="41">
+        <f>Q20/Q22</f>
+        <v>0.40121580547112462</v>
+      </c>
+      <c r="R21" s="41">
+        <f>R20/R22</f>
+        <v>3.2491749174917492</v>
+      </c>
+      <c r="S21" s="41">
+        <f>S20/S22</f>
+        <v>-2.2844974446337307</v>
+      </c>
+      <c r="T21" s="41">
+        <f>T20/T22</f>
+        <v>-0.95503597122302153</v>
+      </c>
+      <c r="U21" s="41">
+        <f>U20/U22</f>
+        <v>-0.12715165313356303</v>
+      </c>
+      <c r="AD21" s="41">
+        <f>AD20/AD22</f>
+        <v>20.871165644171779</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" s="37" customFormat="1">
+      <c r="B22" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="37">
+        <v>681</v>
+      </c>
+      <c r="P22" s="37">
+        <v>674</v>
+      </c>
+      <c r="Q22" s="37">
+        <v>658</v>
+      </c>
+      <c r="R22" s="37">
+        <v>606</v>
+      </c>
+      <c r="S22" s="37">
+        <v>587</v>
+      </c>
+      <c r="T22" s="37">
+        <v>556</v>
+      </c>
+      <c r="U22" s="37">
+        <v>542.659087</v>
+      </c>
+      <c r="AD22" s="37">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" s="2" customFormat="1">
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S24" s="42">
+        <f>S4/O4-1</f>
+        <v>-5.8756633813495052E-2</v>
+      </c>
+      <c r="T24" s="42">
+        <f>T4/P4-1</f>
+        <v>-9.2203898050974509E-2</v>
+      </c>
+      <c r="U24" s="42">
+        <f>U4/Q4-1</f>
+        <v>-4.8380647740903671E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" s="43">
+        <f>T4/S4-1</f>
+        <v>-2.4567055980668551E-2</v>
+      </c>
+      <c r="U25" s="43">
+        <f>U4/T4-1</f>
+        <v>-1.7341040462427793E-2</v>
+      </c>
+      <c r="Y25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD25" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="43">
+        <f t="shared" ref="O27:P27" si="10">O6/O4</f>
+        <v>0.77028051554207733</v>
+      </c>
+      <c r="P27" s="43">
+        <f>P6/P4</f>
+        <v>0.74812593703148422</v>
+      </c>
+      <c r="Q27" s="43">
+        <f>Q6/Q4</f>
+        <v>0.72890843662534988</v>
+      </c>
+      <c r="R27" s="43">
+        <f t="shared" ref="R27" si="11">R6/R4</f>
+        <v>0.73440489858400304</v>
+      </c>
+      <c r="S27" s="43">
+        <f t="shared" ref="S27:T27" si="12">S6/S4</f>
+        <v>0.72251308900523559</v>
+      </c>
+      <c r="T27" s="43">
+        <f>T6/T4</f>
+        <v>0.72625928984310484</v>
+      </c>
+      <c r="U27" s="43">
+        <f>U6/U4</f>
+        <v>0.72815126050420165</v>
+      </c>
+      <c r="AD27" s="43">
+        <f>AD6/AD4</f>
+        <v>0.74568138195777356</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="43">
+        <f t="shared" ref="O28:P28" si="13">O13/O4</f>
+        <v>0.31880212282031845</v>
+      </c>
+      <c r="P28" s="43">
+        <f>P13/P4</f>
+        <v>0.27436281859070466</v>
+      </c>
+      <c r="Q28" s="43">
+        <f>Q13/Q4</f>
+        <v>0.2646941223510596</v>
+      </c>
+      <c r="R28" s="43">
+        <f t="shared" ref="R28" si="14">R13/R4</f>
+        <v>0.26329889016456182</v>
+      </c>
+      <c r="S28" s="43">
+        <f t="shared" ref="S28:T28" si="15">S13/S4</f>
+        <v>0.27869512686266612</v>
+      </c>
+      <c r="T28" s="43">
+        <f>T13/T4</f>
+        <v>0.21676300578034682</v>
+      </c>
+      <c r="U28" s="43">
+        <f>U13/U4</f>
+        <v>0.23865546218487396</v>
+      </c>
+      <c r="AD28" s="43">
+        <f>AD13/AD4</f>
+        <v>0.28051823416506716</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="43">
+        <f t="shared" ref="O29:P29" si="16">O20/O4</f>
+        <v>0.24298711144806673</v>
+      </c>
+      <c r="P29" s="43">
+        <f>P20/P4</f>
+        <v>4.0232383808095955</v>
+      </c>
+      <c r="Q29" s="43">
+        <f>Q20/Q4</f>
+        <v>0.10555777688924431</v>
+      </c>
+      <c r="R29" s="43">
+        <f t="shared" ref="R29" si="17">R20/R4</f>
+        <v>0.75353999234596247</v>
+      </c>
+      <c r="S29" s="43">
+        <f t="shared" ref="S29:T29" si="18">S20/S4</f>
+        <v>-0.54007249295207416</v>
+      </c>
+      <c r="T29" s="43">
+        <f>T20/T4</f>
+        <v>-0.21924029727497935</v>
+      </c>
+      <c r="U29" s="43">
+        <f>U20/U4</f>
+        <v>-2.8991596638655463E-2</v>
+      </c>
+      <c r="AD29" s="43">
+        <f>AD20/AD4</f>
+        <v>1.3059500959692898</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O30" s="43">
+        <f t="shared" ref="O30:P30" si="19">ABS(O17)/ABS(O16)</f>
+        <v>0.21546961325966851</v>
+      </c>
+      <c r="P30" s="43">
+        <f>ABS(P17)/ABS(P16)</f>
+        <v>0.26683291770573564</v>
+      </c>
+      <c r="Q30" s="43">
+        <f>ABS(Q17)/ABS(Q16)</f>
+        <v>0.34792626728110598</v>
+      </c>
+      <c r="R30" s="43">
+        <f t="shared" ref="R30" si="20">ABS(R17)/ABS(R16)</f>
+        <v>0.23083548664944015</v>
+      </c>
+      <c r="S30" s="43">
+        <f t="shared" ref="S30:T30" si="21">ABS(S17)/ABS(S16)</f>
+        <v>0.18799272286234081</v>
+      </c>
+      <c r="T30" s="43">
+        <f>ABS(T17)/ABS(T16)</f>
+        <v>0.2627235213204952</v>
+      </c>
+      <c r="U30" s="43">
+        <f>ABS(U17)/ABS(U16)</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="AD30" s="43">
+        <f>ABS(AD17)/ABS(AD16)</f>
+        <v>0.36683417085427134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="Q32" s="40"/>
+    </row>
+    <row r="34" spans="2:30">
+      <c r="B34" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" s="2" customFormat="1">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="39">
+        <v>1379</v>
+      </c>
+      <c r="S35" s="39">
+        <v>1798</v>
+      </c>
+      <c r="T35" s="39">
+        <v>1742</v>
+      </c>
+      <c r="U35" s="39">
+        <v>2037</v>
+      </c>
+      <c r="AD35" s="39">
+        <f>R35</f>
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" s="2" customFormat="1">
+      <c r="B36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R36" s="39">
+        <v>5944</v>
+      </c>
+      <c r="S36" s="39">
+        <v>3771</v>
+      </c>
+      <c r="T36" s="39">
+        <v>1483</v>
+      </c>
+      <c r="U36" s="39">
+        <v>1457</v>
+      </c>
+      <c r="AD36" s="39">
+        <f>R36</f>
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30">
+      <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R37" s="40">
+        <v>681</v>
+      </c>
+      <c r="S37" s="40">
+        <v>626</v>
+      </c>
+      <c r="T37" s="40">
+        <v>605</v>
+      </c>
+      <c r="U37" s="40">
+        <v>633</v>
+      </c>
+      <c r="AD37" s="40">
+        <f>R37</f>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30">
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R38" s="40">
+        <v>1107</v>
+      </c>
+      <c r="S38" s="40">
+        <v>1154</v>
+      </c>
+      <c r="T38" s="40">
+        <v>1237</v>
+      </c>
+      <c r="U38" s="40">
+        <v>1162</v>
+      </c>
+      <c r="AD38" s="40">
+        <f>R38</f>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30">
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="40">
+        <f t="shared" ref="C39:T39" si="22">SUM(C35:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="40">
+        <f t="shared" si="22"/>
+        <v>9111</v>
+      </c>
+      <c r="S39" s="40">
+        <f t="shared" si="22"/>
+        <v>7349</v>
+      </c>
+      <c r="T39" s="40">
+        <f t="shared" si="22"/>
+        <v>5067</v>
+      </c>
+      <c r="U39" s="40">
+        <f>SUM(U35:U38)</f>
+        <v>5289</v>
+      </c>
+      <c r="Y39" s="40">
+        <f t="shared" ref="Y39" si="23">SUM(Y35:Y38)</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="40">
+        <f t="shared" ref="Z39" si="24">SUM(Z35:Z38)</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="40">
+        <f t="shared" ref="AA39" si="25">SUM(AA35:AA38)</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="40">
+        <f t="shared" ref="AB39" si="26">SUM(AB35:AB38)</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="40">
+        <f t="shared" ref="AC39" si="27">SUM(AC35:AC38)</f>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="40">
+        <f t="shared" ref="AD39" si="28">SUM(AD35:AD38)</f>
+        <v>9111</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30">
+      <c r="B40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R40" s="40">
+        <v>2575</v>
+      </c>
+      <c r="S40" s="40">
+        <v>2213</v>
+      </c>
+      <c r="T40" s="40">
+        <v>2146</v>
+      </c>
+      <c r="U40" s="40">
+        <v>1971</v>
+      </c>
+      <c r="AD40" s="40">
+        <f t="shared" ref="AD40:AD58" si="29">R40</f>
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30">
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R41" s="40">
+        <v>1236</v>
+      </c>
+      <c r="S41" s="40">
+        <v>1192</v>
+      </c>
+      <c r="T41" s="40">
+        <v>1173</v>
+      </c>
+      <c r="U41" s="40">
+        <v>1194</v>
+      </c>
+      <c r="AD41" s="40">
+        <f t="shared" si="29"/>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30">
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R42" s="40">
+        <v>4178</v>
+      </c>
+      <c r="S42" s="40">
+        <v>4141</v>
+      </c>
+      <c r="T42" s="40">
+        <v>4113</v>
+      </c>
+      <c r="U42" s="40">
+        <v>4058</v>
+      </c>
+      <c r="AD42" s="40">
+        <f t="shared" si="29"/>
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30">
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R43" s="40">
+        <v>289</v>
+      </c>
+      <c r="S43" s="40">
+        <v>570</v>
+      </c>
+      <c r="T43" s="40">
+        <v>541</v>
+      </c>
+      <c r="U43" s="40">
+        <v>527</v>
+      </c>
+      <c r="AD43" s="40">
+        <f t="shared" si="29"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30">
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R44" s="40">
+        <v>3255</v>
+      </c>
+      <c r="S44" s="40">
+        <v>3224</v>
+      </c>
+      <c r="T44" s="40">
+        <v>3227</v>
+      </c>
+      <c r="U44" s="40">
+        <v>3144</v>
+      </c>
+      <c r="AD44" s="40">
+        <f t="shared" si="29"/>
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30">
+      <c r="B45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R45" s="40">
+        <v>5391</v>
+      </c>
+      <c r="S45" s="40">
+        <v>3748</v>
+      </c>
+      <c r="T45" s="40">
+        <v>2919</v>
+      </c>
+      <c r="U45" s="40">
+        <v>2417</v>
+      </c>
+      <c r="AD45" s="40">
+        <f t="shared" si="29"/>
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30">
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R46" s="40">
+        <v>591</v>
+      </c>
+      <c r="S46" s="40">
+        <v>543</v>
+      </c>
+      <c r="T46" s="40">
+        <v>467</v>
+      </c>
+      <c r="U46" s="40">
+        <v>497</v>
+      </c>
+      <c r="AD46" s="40">
+        <f t="shared" si="29"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30">
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="40">
+        <f t="shared" ref="C47:T47" si="30">C39+SUM(C40:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="40">
+        <f t="shared" si="30"/>
+        <v>26626</v>
+      </c>
+      <c r="S47" s="40">
+        <f t="shared" si="30"/>
+        <v>22980</v>
+      </c>
+      <c r="T47" s="40">
+        <f t="shared" si="30"/>
+        <v>19653</v>
+      </c>
+      <c r="U47" s="40">
+        <f>U39+SUM(U40:U46)</f>
+        <v>19097</v>
+      </c>
+      <c r="Y47" s="40">
+        <f t="shared" ref="Y47" si="31">Y39+SUM(Y40:Y46)</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="40">
+        <f t="shared" ref="Z47" si="32">Z39+SUM(Z40:Z46)</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="40">
+        <f t="shared" ref="AA47" si="33">AA39+SUM(AA40:AA46)</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="40">
+        <f t="shared" ref="AB47" si="34">AB39+SUM(AB40:AB46)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="40">
+        <f t="shared" ref="AC47" si="35">AC39+SUM(AC40:AC46)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="40">
+        <f t="shared" ref="AD47" si="36">AD39+SUM(AD40:AD46)</f>
+        <v>26626</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30">
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="AD48" s="40"/>
+    </row>
+    <row r="49" spans="2:30" s="2" customFormat="1">
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R49" s="39">
+        <v>1355</v>
+      </c>
+      <c r="S49" s="39">
+        <v>1755</v>
+      </c>
+      <c r="T49" s="39">
+        <v>1149</v>
+      </c>
+      <c r="U49" s="39">
+        <v>1150</v>
+      </c>
+      <c r="AD49" s="39">
+        <f>R49</f>
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30">
+      <c r="B50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R50" s="40">
+        <v>262</v>
+      </c>
+      <c r="S50" s="40">
+        <v>245</v>
+      </c>
+      <c r="T50" s="40">
+        <v>249</v>
+      </c>
+      <c r="U50" s="40">
+        <v>224</v>
+      </c>
+      <c r="AD50" s="40">
+        <f t="shared" si="29"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30">
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R51" s="40">
+        <v>707</v>
+      </c>
+      <c r="S51" s="40">
+        <v>652</v>
+      </c>
+      <c r="T51" s="40">
+        <v>604</v>
+      </c>
+      <c r="U51" s="40">
+        <v>649</v>
+      </c>
+      <c r="AD51" s="40">
+        <f t="shared" si="29"/>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30">
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R52" s="40">
+        <v>1927</v>
+      </c>
+      <c r="S52" s="40">
+        <v>1851</v>
+      </c>
+      <c r="T52" s="40">
+        <v>1735</v>
+      </c>
+      <c r="U52" s="40">
+        <v>1765</v>
+      </c>
+      <c r="AD52" s="40">
+        <f t="shared" si="29"/>
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30">
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R53" s="40">
+        <v>371</v>
+      </c>
+      <c r="S53" s="40">
+        <v>479</v>
+      </c>
+      <c r="T53" s="40">
+        <v>235</v>
+      </c>
+      <c r="U53" s="40">
+        <v>186</v>
+      </c>
+      <c r="AD53" s="40">
+        <f t="shared" si="29"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30">
+      <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="40">
+        <f t="shared" ref="C54:T54" si="37">SUM(C49:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="40">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="40">
+        <f t="shared" si="37"/>
+        <v>4622</v>
+      </c>
+      <c r="S54" s="40">
+        <f t="shared" si="37"/>
+        <v>4982</v>
+      </c>
+      <c r="T54" s="40">
+        <f t="shared" si="37"/>
+        <v>3972</v>
+      </c>
+      <c r="U54" s="40">
+        <f>SUM(U49:U53)</f>
+        <v>3974</v>
+      </c>
+      <c r="Y54" s="40">
+        <f t="shared" ref="Y54" si="38">SUM(Y49:Y53)</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="40">
+        <f t="shared" ref="Z54" si="39">SUM(Z49:Z53)</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="40">
+        <f t="shared" ref="AA54" si="40">SUM(AA49:AA53)</f>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="40">
+        <f t="shared" ref="AB54" si="41">SUM(AB49:AB53)</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="40">
+        <f t="shared" ref="AC54" si="42">SUM(AC49:AC53)</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="40">
+        <f t="shared" ref="AD54" si="43">SUM(AD49:AD53)</f>
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30">
+      <c r="B55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R55" s="40">
+        <v>200</v>
+      </c>
+      <c r="S55" s="40">
+        <v>481</v>
+      </c>
+      <c r="T55" s="40">
+        <v>448</v>
+      </c>
+      <c r="U55" s="40">
+        <v>432</v>
+      </c>
+      <c r="AD55" s="40">
+        <f t="shared" si="29"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30">
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R56" s="40">
+        <v>3116</v>
+      </c>
+      <c r="S56" s="40">
+        <v>2701</v>
+      </c>
+      <c r="T56" s="40">
+        <v>2400</v>
+      </c>
+      <c r="U56" s="40">
+        <v>2231</v>
+      </c>
+      <c r="AD56" s="40">
+        <f t="shared" si="29"/>
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" s="2" customFormat="1">
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R57" s="39">
+        <v>7727</v>
+      </c>
+      <c r="S57" s="39">
+        <v>6578</v>
+      </c>
+      <c r="T57" s="39">
+        <v>6579</v>
+      </c>
+      <c r="U57" s="39">
+        <v>6579</v>
+      </c>
+      <c r="AD57" s="39">
+        <f>R57</f>
+        <v>7727</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30">
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R58" s="40">
+        <v>1183</v>
+      </c>
+      <c r="S58" s="40">
+        <v>1184</v>
+      </c>
+      <c r="T58" s="40">
+        <v>1011</v>
+      </c>
+      <c r="U58" s="40">
+        <v>1028</v>
+      </c>
+      <c r="AD58" s="40">
+        <f t="shared" si="29"/>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30">
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="40">
+        <f t="shared" ref="C59:T59" si="44">C54+SUM(C55:C58)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="40">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="40">
+        <f t="shared" si="44"/>
+        <v>16848</v>
+      </c>
+      <c r="S59" s="40">
+        <f t="shared" si="44"/>
+        <v>15926</v>
+      </c>
+      <c r="T59" s="40">
+        <f t="shared" si="44"/>
+        <v>14410</v>
+      </c>
+      <c r="U59" s="40">
+        <f>U54+SUM(U55:U58)</f>
+        <v>14244</v>
+      </c>
+      <c r="Y59" s="40">
+        <f t="shared" ref="Y59" si="45">Y54+SUM(Y55:Y58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="40">
+        <f t="shared" ref="Z59" si="46">Z54+SUM(Z55:Z58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="40">
+        <f t="shared" ref="AA59" si="47">AA54+SUM(AA55:AA58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="40">
+        <f t="shared" ref="AB59" si="48">AB54+SUM(AB55:AB58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="40">
+        <f t="shared" ref="AC59" si="49">AC54+SUM(AC55:AC58)</f>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="40">
+        <f t="shared" ref="AD59" si="50">AD54+SUM(AD55:AD58)</f>
+        <v>16848</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30">
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+    </row>
+    <row r="61" spans="2:30">
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R61" s="40">
+        <v>9778</v>
+      </c>
+      <c r="S61" s="40">
+        <v>7054</v>
+      </c>
+      <c r="T61" s="40">
+        <v>5243</v>
+      </c>
+      <c r="U61" s="40">
+        <v>4853</v>
+      </c>
+      <c r="AD61" s="40">
+        <f>R61</f>
+        <v>9778</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30">
+      <c r="B62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="40">
+        <f t="shared" ref="C62:T62" si="51">C61+C59</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="40">
+        <f t="shared" si="51"/>
+        <v>26626</v>
+      </c>
+      <c r="S62" s="40">
+        <f t="shared" si="51"/>
+        <v>22980</v>
+      </c>
+      <c r="T62" s="40">
+        <f t="shared" si="51"/>
+        <v>19653</v>
+      </c>
+      <c r="U62" s="40">
+        <f>U61+U59</f>
+        <v>19097</v>
+      </c>
+      <c r="Y62" s="40">
+        <f t="shared" ref="Y62" si="52">Y61+Y59</f>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="40">
+        <f t="shared" ref="Z62" si="53">Z61+Z59</f>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="40">
+        <f t="shared" ref="AA62" si="54">AA61+AA59</f>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="40">
+        <f t="shared" ref="AB62" si="55">AB61+AB59</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="40">
+        <f t="shared" ref="AC62" si="56">AC61+AC59</f>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="40">
+        <f t="shared" ref="AD62" si="57">AD61+AD59</f>
+        <v>26626</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30">
+      <c r="U63" s="40"/>
+    </row>
+    <row r="64" spans="2:30">
+      <c r="B64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R64" s="40">
+        <f>R47-R59</f>
+        <v>9778</v>
+      </c>
+      <c r="S64" s="40">
+        <f>S47-S59</f>
+        <v>7054</v>
+      </c>
+      <c r="T64" s="40">
+        <f>T47-T59</f>
+        <v>5243</v>
+      </c>
+      <c r="U64" s="40">
+        <f>U47-U59</f>
+        <v>4853</v>
+      </c>
+      <c r="AD64" s="40">
+        <f>AD47-AD59</f>
+        <v>9778</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30">
+      <c r="B65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R65" s="1">
+        <f>R64/R22</f>
+        <v>16.135313531353134</v>
+      </c>
+      <c r="S65" s="1">
+        <f>S64/S22</f>
+        <v>12.017035775127768</v>
+      </c>
+      <c r="T65" s="1">
+        <f>T64/T22</f>
+        <v>9.4298561151079134</v>
+      </c>
+      <c r="U65" s="1">
+        <f>U64/U22</f>
+        <v>8.9429996037272659</v>
+      </c>
+      <c r="AD65" s="1">
+        <f>AD64/AD22</f>
+        <v>14.996932515337424</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" s="45" customFormat="1">
+      <c r="B67" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="R67" s="46">
+        <f>R35+R36</f>
+        <v>7323</v>
+      </c>
+      <c r="S67" s="46">
+        <f t="shared" ref="S67:T67" si="58">S35+S36</f>
+        <v>5569</v>
+      </c>
+      <c r="T67" s="46">
+        <f t="shared" ref="T67:U67" si="59">T35+T36</f>
+        <v>3225</v>
+      </c>
+      <c r="U67" s="46">
+        <f>U35+U36</f>
+        <v>3494</v>
+      </c>
+      <c r="AD67" s="46">
+        <f>AD35+AD36</f>
+        <v>7323</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" s="45" customFormat="1">
+      <c r="B68" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="R68" s="46">
+        <f>R49+R57</f>
+        <v>9082</v>
+      </c>
+      <c r="S68" s="46">
+        <f t="shared" ref="S68:T68" si="60">S49+S57</f>
+        <v>8333</v>
+      </c>
+      <c r="T68" s="46">
+        <f t="shared" ref="T68:U68" si="61">T49+T57</f>
+        <v>7728</v>
+      </c>
+      <c r="U68" s="46">
+        <f>U49+U57</f>
+        <v>7729</v>
+      </c>
+      <c r="AD68" s="46">
+        <f>AD49+AD57</f>
+        <v>9082</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30">
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R69" s="40">
+        <f>R67-R68</f>
+        <v>-1759</v>
+      </c>
+      <c r="S69" s="40">
+        <f t="shared" ref="S69" si="62">S67-S68</f>
+        <v>-2764</v>
+      </c>
+      <c r="T69" s="40">
+        <f t="shared" ref="T69" si="63">T67-T68</f>
+        <v>-4503</v>
+      </c>
+      <c r="U69" s="40">
+        <f>U67-U68</f>
+        <v>-4235</v>
+      </c>
+      <c r="AD69" s="40">
+        <f>AD67-AD68</f>
+        <v>-1759</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30">
+      <c r="B71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="R71" s="1">
+        <v>65.27</v>
+      </c>
+      <c r="S71" s="1">
+        <v>56.43</v>
+      </c>
+      <c r="T71" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="U71" s="1">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="AD71" s="1">
+        <f>R71</f>
+        <v>65.27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30">
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="37">
+        <f>Q71*Q22</f>
+        <v>44882.179999999993</v>
+      </c>
+      <c r="R72" s="37">
+        <f>R71*R22</f>
+        <v>39553.619999999995</v>
+      </c>
+      <c r="S72" s="37">
+        <f t="shared" ref="S72:T72" si="64">S71*S22</f>
+        <v>33124.409999999996</v>
+      </c>
+      <c r="T72" s="37">
+        <f t="shared" si="64"/>
+        <v>22940.559999999998</v>
+      </c>
+      <c r="U72" s="37">
+        <f>U71*U22</f>
+        <v>19872.175765939999</v>
+      </c>
+      <c r="AD72" s="37">
+        <f>AD71*AD22</f>
+        <v>42556.04</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30">
+      <c r="B73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q73" s="37">
+        <f>Q72-Q69</f>
+        <v>44882.179999999993</v>
+      </c>
+      <c r="R73" s="37">
+        <f>R72-R69</f>
+        <v>41312.619999999995</v>
+      </c>
+      <c r="S73" s="37">
+        <f t="shared" ref="S73:T73" si="65">S72-S69</f>
+        <v>35888.409999999996</v>
+      </c>
+      <c r="T73" s="37">
+        <f t="shared" si="65"/>
+        <v>27443.559999999998</v>
+      </c>
+      <c r="U73" s="37">
+        <f>U72-U69</f>
+        <v>24107.175765939999</v>
+      </c>
+      <c r="AD73" s="37">
+        <f>AD72-AD69</f>
+        <v>44315.040000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" s="49" customFormat="1">
+      <c r="B75" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="R75" s="49">
+        <f>R71/R65</f>
+        <v>4.0451646553487421</v>
+      </c>
+      <c r="S75" s="49">
+        <f>S71/S65</f>
+        <v>4.695833569605897</v>
+      </c>
+      <c r="T75" s="49">
+        <f>T71/T65</f>
+        <v>4.3754644287621591</v>
+      </c>
+      <c r="U75" s="49">
+        <f>U71/U65</f>
+        <v>4.0948229478549347</v>
+      </c>
+      <c r="AD75" s="49">
+        <f>AD71/AD65</f>
+        <v>4.3522233585600327</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30">
+      <c r="B76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD76" s="49">
+        <f>AD72/AD4</f>
+        <v>4.0840729366602684</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30">
+      <c r="B77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD77" s="49">
+        <f>AD73/AD4</f>
+        <v>4.2528829174664109</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30">
+      <c r="B78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD78" s="49">
+        <f>AD71/AD21</f>
+        <v>3.1272810111699001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30">
+      <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD79" s="49">
+        <f>AD73/AD20</f>
+        <v>3.2565432098765434</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30">
+      <c r="B80" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" r:id="rId1" xr:uid="{49F1DD79-8698-4944-99B0-7BC1D2FB2359}"/>
+    <hyperlink ref="T1" r:id="rId2" xr:uid="{6A192FE3-6C0F-4DBB-A224-38F31257B5EE}"/>
+    <hyperlink ref="S1" r:id="rId3" xr:uid="{5ED5459B-BD86-4BA7-A2DC-F8B34520EBBD}"/>
+    <hyperlink ref="R1" r:id="rId4" xr:uid="{C4C49680-5B89-411F-8EB7-99308651B6F0}"/>
+    <hyperlink ref="AD1" r:id="rId5" xr:uid="{02AA5235-6A5F-4EFE-9939-09C66FA4C968}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AD4" formulaRange="1"/>
+    <ignoredError sqref="AD5:AD19" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AD54 AD39" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174A8DF-8EF4-41B6-A5BD-4AAEE5B9D116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFAB581-5E9C-43B7-9625-C6D51BEB2525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B353D84-D285-44E7-B4A8-68B201033445}">
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1651,8 +1651,11 @@
       <c r="B34" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="50">
+        <f>C8/SUM('Financial Model'!R4:U4)</f>
+        <v>2.235768596469994</v>
+      </c>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="13" t="s">
@@ -1710,6 +1713,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="C34" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -1718,11 +1724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DA9FF5-18B2-4F1B-8BED-7AF64467FA45}">
   <dimension ref="B1:AO80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD77" sqref="AD77"/>
+      <selection pane="bottomRight" activeCell="X76" sqref="X76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFAB581-5E9C-43B7-9625-C6D51BEB2525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39854FD0-ACC5-5D45-8CE2-558BE3BDFEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="127">
   <si>
     <t>$EBAY</t>
   </si>
@@ -398,6 +408,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Current Discontinued Operations</t>
+  </si>
+  <si>
+    <t>Current Held-for-Sale</t>
+  </si>
+  <si>
+    <t>FY15</t>
   </si>
 </sst>
 </file>
@@ -405,10 +424,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0\x"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +497,13 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Airal"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -599,24 +625,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,28 +645,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -671,19 +675,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -701,11 +698,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,7 +829,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -846,15 +871,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -898,7 +923,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1186,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1196,13 +1221,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B353D84-D285-44E7-B4A8-68B201033445}">
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -1216,474 +1241,483 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="G5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>40.78</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
+      <c r="D6" s="23"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <f>'Financial Model'!U22</f>
         <v>542.659087</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
+      <c r="D7" s="23"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <f>C6*C7</f>
         <v>22129.637567860002</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="D8" s="23"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
-        <f>'Financial Model'!U67</f>
+      <c r="C9" s="5">
+        <f>'Financial Model'!U69</f>
         <v>3494</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
+      <c r="D9" s="23"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
-        <f>'Financial Model'!U68</f>
+      <c r="C10" s="5">
+        <f>'Financial Model'!U70</f>
         <v>7729</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
+      <c r="D10" s="23"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <f>C9-C10</f>
         <v>-4235</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
+      <c r="D11" s="23"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <f>C8-C11</f>
         <v>26364.637567860002</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="D12" s="24"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="D16" s="46"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
+      <c r="D17" s="46"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="11"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
+      <c r="D19" s="48"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="G21" s="17"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="16"/>
+      <c r="D23" s="46"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="45">
         <v>1995</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
+      <c r="D24" s="46"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="45">
         <v>1998</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
+      <c r="D25" s="46"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="13"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="13"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="36">
         <f>'Financial Model'!U3</f>
         <v>37561</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
+      <c r="D29" s="50"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="50">
-        <f>C6/'Financial Model'!U65</f>
+      <c r="C33" s="43">
+        <f>C6/'Financial Model'!U67</f>
         <v>4.5599912565134968</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="43">
         <f>C8/SUM('Financial Model'!R4:U4)</f>
         <v>2.235768596469994</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="44"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="43">
+        <f>C12/SUM('Financial Model'!R4:U4)</f>
+        <v>2.663632811462922</v>
+      </c>
+      <c r="D35" s="44"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="43">
+        <f>C6/SUM('Financial Model'!R21:U21)</f>
+        <v>-347.03384754378123</v>
+      </c>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="43">
+        <f>C12/SUM('Financial Model'!R20:U20)</f>
+        <v>941.59419885214288</v>
+      </c>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1714,7 +1748,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="C34" formulaRange="1"/>
+    <ignoredError sqref="C34:C35" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -1722,2689 +1756,4478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DA9FF5-18B2-4F1B-8BED-7AF64467FA45}">
-  <dimension ref="B1:AO80"/>
+  <dimension ref="A1:AP82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X76" sqref="X76"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="28" customFormat="1">
-      <c r="C1" s="28" t="s">
+    <row r="1" spans="2:42" s="20" customFormat="1">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AE1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AO1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AP1" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:41" s="30" customFormat="1">
-      <c r="B2" s="29"/>
-      <c r="N2" s="38">
+    <row r="2" spans="2:42" s="22" customFormat="1">
+      <c r="B2" s="21"/>
+      <c r="G2" s="27">
+        <v>43555</v>
+      </c>
+      <c r="H2" s="27">
+        <v>43646</v>
+      </c>
+      <c r="I2" s="27">
+        <v>43738</v>
+      </c>
+      <c r="J2" s="27">
+        <v>43830</v>
+      </c>
+      <c r="K2" s="27">
+        <v>43921</v>
+      </c>
+      <c r="L2" s="27">
+        <v>44012</v>
+      </c>
+      <c r="M2" s="27">
+        <v>44104</v>
+      </c>
+      <c r="N2" s="27">
         <v>44196</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="27">
         <v>44286</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="27">
         <v>44377</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="27">
         <v>44469</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="27">
         <v>44561</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="27">
         <v>44651</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="27">
         <v>44742</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="27">
         <v>44834</v>
       </c>
-      <c r="AD2" s="38">
+      <c r="AC2" s="27">
+        <f>J2</f>
+        <v>43830</v>
+      </c>
+      <c r="AD2" s="27">
+        <f>N2</f>
+        <v>44196</v>
+      </c>
+      <c r="AE2" s="27">
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="2:41" s="30" customFormat="1">
-      <c r="B3" s="29"/>
-      <c r="R3" s="36">
+    <row r="3" spans="2:42" s="22" customFormat="1">
+      <c r="B3" s="21"/>
+      <c r="K3" s="26">
+        <v>47209</v>
+      </c>
+      <c r="L3" s="26">
+        <v>46935</v>
+      </c>
+      <c r="M3" s="26">
+        <v>47027</v>
+      </c>
+      <c r="N3" s="26">
+        <v>37653</v>
+      </c>
+      <c r="R3" s="26">
         <v>44958</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="26">
         <v>38108</v>
       </c>
-      <c r="T3" s="36">
+      <c r="T3" s="26">
         <v>37834</v>
       </c>
-      <c r="U3" s="36">
+      <c r="U3" s="26">
         <v>37561</v>
       </c>
-      <c r="AD3" s="36">
+      <c r="AD3" s="26">
+        <f>N3</f>
+        <v>37653</v>
+      </c>
+      <c r="AE3" s="26">
         <v>44958</v>
       </c>
     </row>
-    <row r="4" spans="2:41" s="2" customFormat="1">
+    <row r="4" spans="2:42" s="2" customFormat="1">
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28">
+        <v>2413</v>
+      </c>
+      <c r="H4" s="28">
+        <v>2423</v>
+      </c>
+      <c r="I4" s="28">
+        <v>2083</v>
+      </c>
+      <c r="J4" s="28">
+        <v>2236</v>
+      </c>
+      <c r="K4" s="28">
+        <v>2374</v>
+      </c>
+      <c r="L4" s="28">
+        <v>2865</v>
+      </c>
+      <c r="M4" s="28">
+        <v>2606</v>
+      </c>
+      <c r="N4" s="28">
+        <v>2868</v>
+      </c>
+      <c r="O4" s="28">
         <v>2638</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="28">
         <v>2668</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="28">
         <v>2501</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="28">
         <v>2613</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="28">
         <v>2483</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="28">
         <v>2422</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U4" s="28">
         <v>2380</v>
       </c>
-      <c r="AD4" s="39">
+      <c r="AC4" s="28">
+        <f>SUM(G4:J4)</f>
+        <v>9155</v>
+      </c>
+      <c r="AD4" s="28">
+        <f>SUM(K4:N4)</f>
+        <v>10713</v>
+      </c>
+      <c r="AE4" s="28">
         <f>SUM(O4:R4)</f>
         <v>10420</v>
       </c>
     </row>
-    <row r="5" spans="2:41">
+    <row r="5" spans="2:42">
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29">
+        <v>539</v>
+      </c>
+      <c r="H5" s="29">
+        <v>553</v>
+      </c>
+      <c r="I5" s="29">
+        <v>530</v>
+      </c>
+      <c r="J5" s="29">
+        <v>556</v>
+      </c>
+      <c r="K5" s="29">
+        <v>526</v>
+      </c>
+      <c r="L5" s="29">
+        <v>598</v>
+      </c>
+      <c r="M5" s="29">
+        <v>656</v>
+      </c>
+      <c r="N5" s="29">
+        <v>742</v>
+      </c>
+      <c r="O5" s="29">
         <v>606</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="29">
         <v>672</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="29">
         <v>678</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="29">
         <v>694</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="29">
         <v>689</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T5" s="29">
         <v>663</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="29">
         <v>647</v>
       </c>
-      <c r="AD5" s="40">
+      <c r="AC5" s="29">
+        <f>SUM(G5:J5)</f>
+        <v>2178</v>
+      </c>
+      <c r="AD5" s="29">
+        <f>SUM(K5:N5)</f>
+        <v>2522</v>
+      </c>
+      <c r="AE5" s="29">
         <f>SUM(O5:R5)</f>
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="2:41" s="2" customFormat="1">
+    <row r="6" spans="2:42" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="28">
         <f t="shared" ref="C6:T6" si="0">C4-C5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="39">
+        <v>1874</v>
+      </c>
+      <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="39">
+        <v>1870</v>
+      </c>
+      <c r="I6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="39">
+        <v>1553</v>
+      </c>
+      <c r="J6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="39">
+        <v>1680</v>
+      </c>
+      <c r="K6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="39">
+        <v>1848</v>
+      </c>
+      <c r="L6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="39">
+        <v>2267</v>
+      </c>
+      <c r="M6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="39">
+        <v>1950</v>
+      </c>
+      <c r="N6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="39">
+        <v>2126</v>
+      </c>
+      <c r="O6" s="28">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="28">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="28">
         <f t="shared" si="0"/>
         <v>1823</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="28">
         <f t="shared" si="0"/>
         <v>1919</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="28">
         <f t="shared" si="0"/>
         <v>1794</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="28">
         <f t="shared" si="0"/>
         <v>1759</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="28">
         <f>U4-U5</f>
         <v>1733</v>
       </c>
-      <c r="AD6" s="39">
+      <c r="AC6" s="28">
+        <f>AC4-AC5</f>
+        <v>6977</v>
+      </c>
+      <c r="AD6" s="28">
         <f>AD4-AD5</f>
+        <v>8191</v>
+      </c>
+      <c r="AE6" s="28">
+        <f>AE4-AE5</f>
         <v>7770</v>
       </c>
     </row>
-    <row r="7" spans="2:41">
+    <row r="7" spans="2:42">
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29">
+        <v>647</v>
+      </c>
+      <c r="H7" s="29">
+        <v>688</v>
+      </c>
+      <c r="I7" s="29">
+        <v>577</v>
+      </c>
+      <c r="J7" s="29">
+        <v>637</v>
+      </c>
+      <c r="K7" s="29">
+        <v>607</v>
+      </c>
+      <c r="L7" s="29">
+        <v>716</v>
+      </c>
+      <c r="M7" s="29">
+        <v>660</v>
+      </c>
+      <c r="N7" s="29">
+        <v>804</v>
+      </c>
+      <c r="O7" s="29">
         <v>546</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="29">
         <v>559</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="29">
         <v>496</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="29">
         <v>569</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="29">
         <v>478</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="29">
         <v>566</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="29">
         <v>538</v>
       </c>
-      <c r="AD7" s="40">
+      <c r="AC7" s="29">
+        <f t="shared" ref="AC7:AC11" si="1">SUM(G7:J7)</f>
+        <v>2549</v>
+      </c>
+      <c r="AD7" s="29">
+        <f t="shared" ref="AD7:AD11" si="2">SUM(K7:N7)</f>
+        <v>2787</v>
+      </c>
+      <c r="AE7" s="29">
         <f>SUM(O7:R7)</f>
         <v>2170</v>
       </c>
     </row>
-    <row r="8" spans="2:41">
+    <row r="8" spans="2:42">
       <c r="B8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29">
+        <v>272</v>
+      </c>
+      <c r="H8" s="29">
+        <v>295</v>
+      </c>
+      <c r="I8" s="29">
+        <v>243</v>
+      </c>
+      <c r="J8" s="29">
+        <v>241</v>
+      </c>
+      <c r="K8" s="29">
+        <v>267</v>
+      </c>
+      <c r="L8" s="29">
+        <v>308</v>
+      </c>
+      <c r="M8" s="29">
+        <v>287</v>
+      </c>
+      <c r="N8" s="29">
+        <v>299</v>
+      </c>
+      <c r="O8" s="29">
         <v>304</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="29">
         <v>350</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="29">
         <v>334</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="29">
         <v>337</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="29">
         <v>301</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="29">
         <v>344</v>
       </c>
-      <c r="U8" s="40">
+      <c r="U8" s="29">
         <v>345</v>
       </c>
-      <c r="AD8" s="40">
-        <f t="shared" ref="AD8:AD11" si="1">SUM(O8:R8)</f>
+      <c r="AC8" s="29">
+        <f t="shared" si="1"/>
+        <v>1051</v>
+      </c>
+      <c r="AD8" s="29">
+        <f t="shared" si="2"/>
+        <v>1161</v>
+      </c>
+      <c r="AE8" s="29">
+        <f t="shared" ref="AE8:AE11" si="3">SUM(O8:R8)</f>
         <v>1325</v>
       </c>
     </row>
-    <row r="9" spans="2:41">
+    <row r="9" spans="2:42">
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
+        <v>284</v>
+      </c>
+      <c r="H9" s="29">
+        <v>256</v>
+      </c>
+      <c r="I9" s="29">
+        <v>250</v>
+      </c>
+      <c r="J9" s="29">
+        <v>249</v>
+      </c>
+      <c r="K9" s="29">
+        <v>234</v>
+      </c>
+      <c r="L9" s="29">
+        <v>320</v>
+      </c>
+      <c r="M9" s="29">
+        <v>258</v>
+      </c>
+      <c r="N9" s="29">
+        <v>253</v>
+      </c>
+      <c r="O9" s="29">
         <v>246</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="29">
         <v>250</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="29">
         <v>219</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="29">
         <v>206</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="29">
         <v>226</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="29">
         <v>237</v>
       </c>
-      <c r="U9" s="40">
+      <c r="U9" s="29">
         <v>212</v>
       </c>
-      <c r="AD9" s="40">
+      <c r="AC9" s="29">
         <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="AD9" s="29">
+        <f t="shared" si="2"/>
+        <v>1065</v>
+      </c>
+      <c r="AE9" s="29">
+        <f t="shared" si="3"/>
         <v>921</v>
       </c>
     </row>
-    <row r="10" spans="2:41">
+    <row r="10" spans="2:42">
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
+        <v>67</v>
+      </c>
+      <c r="H10" s="29">
+        <v>63</v>
+      </c>
+      <c r="I10" s="29">
+        <v>68</v>
+      </c>
+      <c r="J10" s="29">
+        <v>68</v>
+      </c>
+      <c r="K10" s="29">
+        <v>102</v>
+      </c>
+      <c r="L10" s="29">
+        <v>93</v>
+      </c>
+      <c r="M10" s="29">
+        <v>60</v>
+      </c>
+      <c r="N10" s="29">
+        <v>86</v>
+      </c>
+      <c r="O10" s="29">
         <v>88</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="29">
         <v>103</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="29">
         <v>112</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="29">
         <v>119</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="29">
         <v>96</v>
       </c>
-      <c r="T10" s="40">
+      <c r="T10" s="29">
         <v>86</v>
       </c>
-      <c r="U10" s="40">
+      <c r="U10" s="29">
         <v>69</v>
       </c>
-      <c r="AD10" s="40">
+      <c r="AC10" s="29">
         <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="AD10" s="29">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="AE10" s="29">
+        <f t="shared" si="3"/>
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="2:41">
+    <row r="11" spans="2:42">
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29">
+        <v>11</v>
+      </c>
+      <c r="H11" s="29">
+        <v>10</v>
+      </c>
+      <c r="I11" s="29">
         <v>7</v>
       </c>
-      <c r="P11" s="40">
+      <c r="J11" s="29">
+        <v>7</v>
+      </c>
+      <c r="K11" s="29">
+        <v>9</v>
+      </c>
+      <c r="L11" s="29">
+        <v>9</v>
+      </c>
+      <c r="M11" s="29">
+        <v>6</v>
+      </c>
+      <c r="N11" s="29">
+        <v>7</v>
+      </c>
+      <c r="O11" s="29">
+        <v>7</v>
+      </c>
+      <c r="P11" s="29">
         <v>2</v>
       </c>
-      <c r="Q11" s="40">
-        <v>0</v>
-      </c>
-      <c r="R11" s="40">
-        <v>0</v>
-      </c>
-      <c r="S11" s="40">
+      <c r="Q11" s="29">
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <v>0</v>
+      </c>
+      <c r="S11" s="29">
         <v>1</v>
       </c>
-      <c r="T11" s="40">
+      <c r="T11" s="29">
         <v>1</v>
       </c>
-      <c r="U11" s="40">
+      <c r="U11" s="29">
         <v>1</v>
       </c>
-      <c r="AD11" s="40">
+      <c r="AC11" s="29">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AD11" s="29">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AE11" s="29">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:41">
+    <row r="12" spans="2:42">
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="40">
-        <f t="shared" ref="C12:T12" si="2">SUM(C7:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="40">
-        <f t="shared" si="2"/>
+      <c r="C12" s="29">
+        <f t="shared" ref="C12:T12" si="4">SUM(C7:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="4"/>
+        <v>1281</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="4"/>
+        <v>1312</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="4"/>
+        <v>1145</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="4"/>
+        <v>1202</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="4"/>
+        <v>1219</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" si="4"/>
+        <v>1446</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" si="4"/>
+        <v>1271</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" si="4"/>
+        <v>1449</v>
+      </c>
+      <c r="O12" s="29">
+        <f t="shared" si="4"/>
         <v>1191</v>
       </c>
-      <c r="P12" s="40">
-        <f t="shared" si="2"/>
+      <c r="P12" s="29">
+        <f t="shared" si="4"/>
         <v>1264</v>
       </c>
-      <c r="Q12" s="40">
-        <f t="shared" si="2"/>
+      <c r="Q12" s="29">
+        <f t="shared" si="4"/>
         <v>1161</v>
       </c>
-      <c r="R12" s="40">
-        <f t="shared" si="2"/>
+      <c r="R12" s="29">
+        <f t="shared" si="4"/>
         <v>1231</v>
       </c>
-      <c r="S12" s="40">
-        <f t="shared" si="2"/>
+      <c r="S12" s="29">
+        <f t="shared" si="4"/>
         <v>1102</v>
       </c>
-      <c r="T12" s="40">
-        <f t="shared" si="2"/>
+      <c r="T12" s="29">
+        <f t="shared" si="4"/>
         <v>1234</v>
       </c>
-      <c r="U12" s="40">
+      <c r="U12" s="29">
         <f>SUM(U7:U11)</f>
         <v>1165</v>
       </c>
-      <c r="AD12" s="40">
-        <f>SUM(AD7:AD11)</f>
+      <c r="AC12" s="29">
+        <f t="shared" ref="AC12" si="5">SUM(AC7:AC11)</f>
+        <v>4940</v>
+      </c>
+      <c r="AD12" s="29">
+        <f t="shared" ref="AD12" si="6">SUM(AD7:AD11)</f>
+        <v>5385</v>
+      </c>
+      <c r="AE12" s="29">
+        <f>SUM(AE7:AE11)</f>
         <v>4847</v>
       </c>
     </row>
-    <row r="13" spans="2:41" s="2" customFormat="1">
+    <row r="13" spans="2:42" s="2" customFormat="1">
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="39">
-        <f t="shared" ref="C13:T13" si="3">C6-C12</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="39">
-        <f t="shared" si="3"/>
+      <c r="C13" s="28">
+        <f t="shared" ref="C13:T13" si="7">C6-C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="7"/>
+        <v>593</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="7"/>
+        <v>558</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="7"/>
+        <v>408</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="7"/>
+        <v>478</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="7"/>
+        <v>629</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" si="7"/>
+        <v>821</v>
+      </c>
+      <c r="M13" s="28">
+        <f t="shared" si="7"/>
+        <v>679</v>
+      </c>
+      <c r="N13" s="28">
+        <f t="shared" si="7"/>
+        <v>677</v>
+      </c>
+      <c r="O13" s="28">
+        <f t="shared" si="7"/>
         <v>841</v>
       </c>
-      <c r="P13" s="39">
-        <f t="shared" si="3"/>
+      <c r="P13" s="28">
+        <f t="shared" si="7"/>
         <v>732</v>
       </c>
-      <c r="Q13" s="39">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="28">
+        <f t="shared" si="7"/>
         <v>662</v>
       </c>
-      <c r="R13" s="39">
-        <f t="shared" si="3"/>
+      <c r="R13" s="28">
+        <f t="shared" si="7"/>
         <v>688</v>
       </c>
-      <c r="S13" s="39">
-        <f t="shared" si="3"/>
+      <c r="S13" s="28">
+        <f t="shared" si="7"/>
         <v>692</v>
       </c>
-      <c r="T13" s="39">
-        <f t="shared" si="3"/>
+      <c r="T13" s="28">
+        <f t="shared" si="7"/>
         <v>525</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="28">
         <f>U6-U12</f>
         <v>568</v>
       </c>
-      <c r="AD13" s="39">
-        <f>AD6-AD12</f>
+      <c r="AC13" s="28">
+        <f t="shared" ref="AC13" si="8">AC6-AC12</f>
+        <v>2037</v>
+      </c>
+      <c r="AD13" s="28">
+        <f t="shared" ref="AD13" si="9">AD6-AD12</f>
+        <v>2806</v>
+      </c>
+      <c r="AE13" s="28">
+        <f>AE6-AE12</f>
         <v>2923</v>
       </c>
     </row>
-    <row r="14" spans="2:41">
+    <row r="14" spans="2:42">
       <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29">
         <v>-36</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="29">
         <v>-273</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="29">
         <v>-181</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="29">
         <v>-1875</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="29">
         <v>-2291</v>
       </c>
-      <c r="T14" s="40">
+      <c r="T14" s="29">
         <v>-1221</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="29">
         <v>-593</v>
       </c>
-      <c r="AD14" s="40">
-        <f t="shared" ref="AD14:AD15" si="4">SUM(O14:R14)</f>
+      <c r="AC14" s="29">
+        <f t="shared" ref="AC14:AC15" si="10">SUM(G14:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="29">
+        <f t="shared" ref="AD14:AD19" si="11">SUM(K14:N14)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="29">
+        <f t="shared" ref="AE14:AE15" si="12">SUM(O14:R14)</f>
         <v>-2365</v>
       </c>
     </row>
-    <row r="15" spans="2:41">
+    <row r="15" spans="2:42">
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29">
+        <v>64</v>
+      </c>
+      <c r="H15" s="29">
+        <v>-51</v>
+      </c>
+      <c r="I15" s="29">
+        <v>-142</v>
+      </c>
+      <c r="J15" s="29">
+        <v>16</v>
+      </c>
+      <c r="K15" s="29">
+        <v>2</v>
+      </c>
+      <c r="L15" s="29">
+        <v>182</v>
+      </c>
+      <c r="M15" s="29">
+        <v>95</v>
+      </c>
+      <c r="N15" s="29">
+        <v>432</v>
+      </c>
+      <c r="O15" s="29">
         <v>-81</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="29">
         <v>-58</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="29">
         <v>-47</v>
       </c>
-      <c r="R15" s="40">
+      <c r="R15" s="29">
         <v>26</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="29">
         <v>-50</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="29">
         <v>-31</v>
       </c>
-      <c r="U15" s="40">
+      <c r="U15" s="29">
         <v>-29</v>
       </c>
-      <c r="AD15" s="40">
-        <f t="shared" si="4"/>
+      <c r="AC15" s="29">
+        <f t="shared" si="10"/>
+        <v>-113</v>
+      </c>
+      <c r="AD15" s="29">
+        <f t="shared" si="11"/>
+        <v>711</v>
+      </c>
+      <c r="AE15" s="29">
+        <f t="shared" si="12"/>
         <v>-160</v>
       </c>
     </row>
-    <row r="16" spans="2:41">
+    <row r="16" spans="2:42">
       <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="40">
-        <f t="shared" ref="C16:T16" si="5">C13+C14+C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="40">
-        <f t="shared" si="5"/>
+      <c r="C16" s="29">
+        <f t="shared" ref="C16:T16" si="13">C13+C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="13"/>
+        <v>657</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="13"/>
+        <v>507</v>
+      </c>
+      <c r="I16" s="29">
+        <f t="shared" si="13"/>
+        <v>266</v>
+      </c>
+      <c r="J16" s="29">
+        <f t="shared" si="13"/>
+        <v>494</v>
+      </c>
+      <c r="K16" s="29">
+        <f t="shared" si="13"/>
+        <v>631</v>
+      </c>
+      <c r="L16" s="29">
+        <f t="shared" si="13"/>
+        <v>1003</v>
+      </c>
+      <c r="M16" s="29">
+        <f>M13+M14+M15</f>
+        <v>774</v>
+      </c>
+      <c r="N16" s="29">
+        <f t="shared" si="13"/>
+        <v>1109</v>
+      </c>
+      <c r="O16" s="29">
+        <f t="shared" si="13"/>
         <v>724</v>
       </c>
-      <c r="P16" s="40">
-        <f t="shared" si="5"/>
+      <c r="P16" s="29">
+        <f t="shared" si="13"/>
         <v>401</v>
       </c>
-      <c r="Q16" s="40">
-        <f t="shared" si="5"/>
+      <c r="Q16" s="29">
+        <f t="shared" si="13"/>
         <v>434</v>
       </c>
-      <c r="R16" s="40">
-        <f t="shared" si="5"/>
+      <c r="R16" s="29">
+        <f t="shared" si="13"/>
         <v>-1161</v>
       </c>
-      <c r="S16" s="40">
-        <f t="shared" si="5"/>
+      <c r="S16" s="29">
+        <f t="shared" si="13"/>
         <v>-1649</v>
       </c>
-      <c r="T16" s="40">
-        <f t="shared" si="5"/>
+      <c r="T16" s="29">
+        <f t="shared" si="13"/>
         <v>-727</v>
       </c>
-      <c r="U16" s="40">
+      <c r="U16" s="29">
         <f>U13+U14+U15</f>
         <v>-54</v>
       </c>
-      <c r="AD16" s="40">
-        <f>AD13+AD14+AD15</f>
+      <c r="AC16" s="29">
+        <f t="shared" ref="AC16:AD16" si="14">AC13+AC14+AC15</f>
+        <v>1924</v>
+      </c>
+      <c r="AD16" s="29">
+        <f t="shared" si="14"/>
+        <v>3517</v>
+      </c>
+      <c r="AE16" s="29">
+        <f>AE13+AE14+AE15</f>
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="2:31">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29">
+        <v>-141</v>
+      </c>
+      <c r="H17" s="29">
+        <v>-107</v>
+      </c>
+      <c r="I17" s="29">
+        <v>-56</v>
+      </c>
+      <c r="J17" s="29">
+        <v>-25</v>
+      </c>
+      <c r="K17" s="29">
+        <v>-146</v>
+      </c>
+      <c r="L17" s="29">
+        <v>-263</v>
+      </c>
+      <c r="M17" s="29">
+        <v>-153</v>
+      </c>
+      <c r="N17" s="29">
+        <v>-328</v>
+      </c>
+      <c r="O17" s="29">
         <v>-156</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="29">
         <v>-107</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="29">
         <v>-151</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="29">
         <v>268</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="29">
         <v>310</v>
       </c>
-      <c r="T17" s="40">
+      <c r="T17" s="29">
         <v>191</v>
       </c>
-      <c r="U17" s="40">
+      <c r="U17" s="29">
         <v>-16</v>
       </c>
-      <c r="AD17" s="40">
-        <f t="shared" ref="AD17" si="6">SUM(O17:R17)</f>
+      <c r="AC17" s="29">
+        <f t="shared" ref="AC17" si="15">SUM(G17:J17)</f>
+        <v>-329</v>
+      </c>
+      <c r="AD17" s="29">
+        <f t="shared" si="11"/>
+        <v>-890</v>
+      </c>
+      <c r="AE17" s="29">
+        <f t="shared" ref="AE17" si="16">SUM(O17:R17)</f>
         <v>-146</v>
       </c>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:31">
       <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="40">
-        <f t="shared" ref="C18:T18" si="7">C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="40">
-        <f t="shared" si="7"/>
+      <c r="C18" s="29">
+        <f t="shared" ref="C18:T18" si="17">C16+C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="17"/>
+        <v>516</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="17"/>
+        <v>210</v>
+      </c>
+      <c r="J18" s="29">
+        <f t="shared" si="17"/>
+        <v>469</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="17"/>
+        <v>485</v>
+      </c>
+      <c r="L18" s="29">
+        <f t="shared" si="17"/>
+        <v>740</v>
+      </c>
+      <c r="M18" s="29">
+        <f t="shared" si="17"/>
+        <v>621</v>
+      </c>
+      <c r="N18" s="29">
+        <f t="shared" si="17"/>
+        <v>781</v>
+      </c>
+      <c r="O18" s="29">
+        <f t="shared" si="17"/>
         <v>568</v>
       </c>
-      <c r="P18" s="40">
-        <f t="shared" si="7"/>
+      <c r="P18" s="29">
+        <f t="shared" si="17"/>
         <v>294</v>
       </c>
-      <c r="Q18" s="40">
-        <f t="shared" si="7"/>
+      <c r="Q18" s="29">
+        <f t="shared" si="17"/>
         <v>283</v>
       </c>
-      <c r="R18" s="40">
-        <f t="shared" si="7"/>
+      <c r="R18" s="29">
+        <f t="shared" si="17"/>
         <v>-893</v>
       </c>
-      <c r="S18" s="40">
-        <f t="shared" si="7"/>
+      <c r="S18" s="29">
+        <f t="shared" si="17"/>
         <v>-1339</v>
       </c>
-      <c r="T18" s="40">
-        <f t="shared" si="7"/>
+      <c r="T18" s="29">
+        <f t="shared" si="17"/>
         <v>-536</v>
       </c>
-      <c r="U18" s="40">
+      <c r="U18" s="29">
         <f>U16+U17</f>
         <v>-70</v>
       </c>
-      <c r="AD18" s="40">
-        <f>AD16+AD17</f>
+      <c r="AC18" s="29">
+        <f t="shared" ref="AC18:AD18" si="18">AC16+AC17</f>
+        <v>1595</v>
+      </c>
+      <c r="AD18" s="29">
+        <f t="shared" si="18"/>
+        <v>2627</v>
+      </c>
+      <c r="AE18" s="29">
+        <f>AE16+AE17</f>
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="2:31">
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29">
+        <v>2</v>
+      </c>
+      <c r="H19" s="29">
+        <v>2</v>
+      </c>
+      <c r="I19" s="29">
+        <v>100</v>
+      </c>
+      <c r="J19" s="29">
+        <v>87</v>
+      </c>
+      <c r="K19" s="29">
+        <v>2927</v>
+      </c>
+      <c r="L19" s="29">
+        <v>6</v>
+      </c>
+      <c r="M19" s="29">
+        <v>43</v>
+      </c>
+      <c r="N19" s="29">
+        <v>64</v>
+      </c>
+      <c r="O19" s="29">
         <v>73</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="29">
         <v>10440</v>
       </c>
-      <c r="Q19" s="40">
+      <c r="Q19" s="29">
         <v>-19</v>
       </c>
-      <c r="R19" s="40">
+      <c r="R19" s="29">
         <v>2862</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="29">
         <v>-2</v>
       </c>
-      <c r="T19" s="40">
+      <c r="T19" s="29">
         <v>5</v>
       </c>
-      <c r="U19" s="40">
+      <c r="U19" s="29">
         <v>1</v>
       </c>
-      <c r="AD19" s="40">
-        <f t="shared" ref="AD19" si="8">SUM(O19:R19)</f>
+      <c r="AC19" s="29">
+        <f t="shared" ref="AC19" si="19">SUM(G19:J19)</f>
+        <v>191</v>
+      </c>
+      <c r="AD19" s="29">
+        <f t="shared" si="11"/>
+        <v>3040</v>
+      </c>
+      <c r="AE19" s="29">
+        <f t="shared" ref="AE19" si="20">SUM(O19:R19)</f>
         <v>13356</v>
       </c>
     </row>
-    <row r="20" spans="2:30" s="2" customFormat="1">
+    <row r="20" spans="2:31" s="2" customFormat="1">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="39">
-        <f t="shared" ref="C20:T20" si="9">C18+C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="39">
-        <f t="shared" si="9"/>
+      <c r="C20" s="28">
+        <f t="shared" ref="C20:T20" si="21">C18+C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="21"/>
+        <v>518</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="21"/>
+        <v>402</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="21"/>
+        <v>310</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="21"/>
+        <v>556</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="21"/>
+        <v>3412</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="21"/>
+        <v>746</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="21"/>
+        <v>664</v>
+      </c>
+      <c r="N20" s="28">
+        <f t="shared" si="21"/>
+        <v>845</v>
+      </c>
+      <c r="O20" s="28">
+        <f t="shared" si="21"/>
         <v>641</v>
       </c>
-      <c r="P20" s="39">
-        <f t="shared" si="9"/>
+      <c r="P20" s="28">
+        <f t="shared" si="21"/>
         <v>10734</v>
       </c>
-      <c r="Q20" s="39">
-        <f t="shared" si="9"/>
+      <c r="Q20" s="28">
+        <f t="shared" si="21"/>
         <v>264</v>
       </c>
-      <c r="R20" s="39">
-        <f t="shared" si="9"/>
+      <c r="R20" s="28">
+        <f t="shared" si="21"/>
         <v>1969</v>
       </c>
-      <c r="S20" s="39">
-        <f t="shared" si="9"/>
+      <c r="S20" s="28">
+        <f t="shared" si="21"/>
         <v>-1341</v>
       </c>
-      <c r="T20" s="39">
-        <f t="shared" si="9"/>
+      <c r="T20" s="28">
+        <f t="shared" si="21"/>
         <v>-531</v>
       </c>
-      <c r="U20" s="39">
+      <c r="U20" s="28">
         <f>U18+U19</f>
         <v>-69</v>
       </c>
-      <c r="AD20" s="39">
-        <f>AD18+AD19</f>
+      <c r="AC20" s="28">
+        <f t="shared" ref="AC20:AD20" si="22">AC18+AC19</f>
+        <v>1786</v>
+      </c>
+      <c r="AD20" s="28">
+        <f t="shared" si="22"/>
+        <v>5667</v>
+      </c>
+      <c r="AE20" s="28">
+        <f>AE18+AE19</f>
         <v>13608</v>
       </c>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="2:31">
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41">
-        <f>O20/O22</f>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30">
+        <f t="shared" ref="G21:J21" si="23">G20/G22</f>
+        <v>0.5755555555555556</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="23"/>
+        <v>0.46744186046511627</v>
+      </c>
+      <c r="I21" s="30">
+        <f t="shared" si="23"/>
+        <v>0.37349397590361444</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="23"/>
+        <v>0.68897149938042135</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" ref="K21:U21" si="24">K20/K22</f>
+        <v>4.5312084993359898</v>
+      </c>
+      <c r="L21" s="30">
+        <f t="shared" si="24"/>
+        <v>1.0611664295874823</v>
+      </c>
+      <c r="M21" s="30">
+        <f t="shared" si="24"/>
+        <v>0.95402298850574707</v>
+      </c>
+      <c r="N21" s="30">
+        <f t="shared" si="24"/>
+        <v>1.2281976744186047</v>
+      </c>
+      <c r="O21" s="30">
+        <f t="shared" si="24"/>
         <v>0.94126284875183552</v>
       </c>
-      <c r="P21" s="41">
-        <f>P20/P22</f>
+      <c r="P21" s="30">
+        <f t="shared" si="24"/>
         <v>15.925816023738873</v>
       </c>
-      <c r="Q21" s="41">
-        <f>Q20/Q22</f>
+      <c r="Q21" s="30">
+        <f t="shared" si="24"/>
         <v>0.40121580547112462</v>
       </c>
-      <c r="R21" s="41">
-        <f>R20/R22</f>
+      <c r="R21" s="30">
+        <f t="shared" si="24"/>
         <v>3.2491749174917492</v>
       </c>
-      <c r="S21" s="41">
-        <f>S20/S22</f>
+      <c r="S21" s="30">
+        <f t="shared" si="24"/>
         <v>-2.2844974446337307</v>
       </c>
-      <c r="T21" s="41">
-        <f>T20/T22</f>
+      <c r="T21" s="30">
+        <f t="shared" si="24"/>
         <v>-0.95503597122302153</v>
       </c>
-      <c r="U21" s="41">
-        <f>U20/U22</f>
+      <c r="U21" s="30">
+        <f t="shared" si="24"/>
         <v>-0.12715165313356303</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AC21" s="30">
+        <f>AC20/AC22</f>
+        <v>2.1036513545347466</v>
+      </c>
+      <c r="AD21" s="30">
         <f>AD20/AD22</f>
+        <v>7.9816901408450702</v>
+      </c>
+      <c r="AE21" s="30">
+        <f>AE20/AE22</f>
         <v>20.871165644171779</v>
       </c>
     </row>
-    <row r="22" spans="2:30" s="37" customFormat="1">
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="2:31" s="29" customFormat="1">
+      <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="37">
+      <c r="G22" s="29">
+        <v>900</v>
+      </c>
+      <c r="H22" s="29">
+        <v>860</v>
+      </c>
+      <c r="I22" s="29">
+        <v>830</v>
+      </c>
+      <c r="J22" s="29">
+        <v>807</v>
+      </c>
+      <c r="K22" s="29">
+        <v>753</v>
+      </c>
+      <c r="L22" s="29">
+        <v>703</v>
+      </c>
+      <c r="M22" s="29">
+        <v>696</v>
+      </c>
+      <c r="N22" s="29">
+        <v>688</v>
+      </c>
+      <c r="O22" s="29">
         <v>681</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="29">
         <v>674</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="29">
         <v>658</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="29">
         <v>606</v>
       </c>
-      <c r="S22" s="37">
+      <c r="S22" s="29">
         <v>587</v>
       </c>
-      <c r="T22" s="37">
+      <c r="T22" s="29">
         <v>556</v>
       </c>
-      <c r="U22" s="37">
+      <c r="U22" s="29">
         <v>542.659087</v>
       </c>
-      <c r="AD22" s="37">
+      <c r="AC22" s="29">
+        <v>849</v>
+      </c>
+      <c r="AD22" s="29">
+        <v>710</v>
+      </c>
+      <c r="AE22" s="29">
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="2:30" s="2" customFormat="1">
+    <row r="24" spans="2:31" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S24" s="42">
+      <c r="K24" s="31">
+        <f>K4/G4-1</f>
+        <v>-1.6162453377538299E-2</v>
+      </c>
+      <c r="L24" s="31">
+        <f>L4/H4-1</f>
+        <v>0.18241848947585648</v>
+      </c>
+      <c r="M24" s="31">
+        <f>M4/I4-1</f>
+        <v>0.25108017282765238</v>
+      </c>
+      <c r="N24" s="31">
+        <f>N4/J4-1</f>
+        <v>0.28264758497316644</v>
+      </c>
+      <c r="O24" s="31">
+        <f t="shared" ref="O24:P24" si="25">O4/K4-1</f>
+        <v>0.11120471777590568</v>
+      </c>
+      <c r="P24" s="31">
+        <f t="shared" si="25"/>
+        <v>-6.8760907504363034E-2</v>
+      </c>
+      <c r="Q24" s="31">
+        <f>Q4/M4-1</f>
+        <v>-4.0291634689178846E-2</v>
+      </c>
+      <c r="R24" s="31">
+        <f>R4/N4-1</f>
+        <v>-8.8912133891213441E-2</v>
+      </c>
+      <c r="S24" s="31">
         <f>S4/O4-1</f>
         <v>-5.8756633813495052E-2</v>
       </c>
-      <c r="T24" s="42">
+      <c r="T24" s="31">
         <f>T4/P4-1</f>
         <v>-9.2203898050974509E-2</v>
       </c>
-      <c r="U24" s="42">
+      <c r="U24" s="31">
         <f>U4/Q4-1</f>
         <v>-4.8380647740903671E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:30">
+      <c r="AD24" s="31">
+        <f>AD4/AC4-1</f>
+        <v>0.17018022938285093</v>
+      </c>
+      <c r="AE24" s="31">
+        <f>AE4/AD4-1</f>
+        <v>-2.7349948660505885E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T25" s="43">
+      <c r="H25" s="32">
+        <f t="shared" ref="H25:J25" si="26">H4/G4-1</f>
+        <v>4.1442188147533532E-3</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" si="26"/>
+        <v>-0.14032191498142799</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" si="26"/>
+        <v>7.3451752280364824E-2</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" ref="K25:L25" si="27">K4/J4-1</f>
+        <v>6.1717352415026738E-2</v>
+      </c>
+      <c r="L25" s="32">
+        <f t="shared" si="27"/>
+        <v>0.20682392586352139</v>
+      </c>
+      <c r="M25" s="32">
+        <f t="shared" ref="M25:S25" si="28">M4/L4-1</f>
+        <v>-9.0401396160558423E-2</v>
+      </c>
+      <c r="N25" s="32">
+        <f t="shared" si="28"/>
+        <v>0.10053722179585578</v>
+      </c>
+      <c r="O25" s="32">
+        <f t="shared" si="28"/>
+        <v>-8.0195258019525761E-2</v>
+      </c>
+      <c r="P25" s="32">
+        <f t="shared" si="28"/>
+        <v>1.1372251705837666E-2</v>
+      </c>
+      <c r="Q25" s="32">
+        <f t="shared" si="28"/>
+        <v>-6.2593703148425828E-2</v>
+      </c>
+      <c r="R25" s="32">
+        <f t="shared" si="28"/>
+        <v>4.4782087165133877E-2</v>
+      </c>
+      <c r="S25" s="32">
+        <f t="shared" si="28"/>
+        <v>-4.9751243781094523E-2</v>
+      </c>
+      <c r="T25" s="32">
         <f>T4/S4-1</f>
         <v>-2.4567055980668551E-2</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="32">
         <f>U4/T4-1</f>
         <v>-1.7341040462427793E-2</v>
       </c>
-      <c r="Y25" s="27" t="s">
+      <c r="Z25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Z25" s="27" t="s">
+      <c r="AA25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AA25" s="27" t="s">
+      <c r="AB25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AB25" s="27" t="s">
+      <c r="AC25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AC25" s="27" t="s">
+      <c r="AD25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AD25" s="27" t="s">
+      <c r="AE25" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="2:31">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O27" s="43">
-        <f t="shared" ref="O27:P27" si="10">O6/O4</f>
+      <c r="G27" s="32">
+        <f t="shared" ref="G27" si="29">G6/G4</f>
+        <v>0.77662660588479071</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" ref="H27" si="30">H6/H4</f>
+        <v>0.77177053239785387</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" ref="I27:J27" si="31">I6/I4</f>
+        <v>0.74555928948631778</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" si="31"/>
+        <v>0.75134168157423975</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" ref="K27" si="32">K6/K4</f>
+        <v>0.77843302443133955</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" ref="L27" si="33">L6/L4</f>
+        <v>0.79127399650959862</v>
+      </c>
+      <c r="M27" s="32">
+        <f t="shared" ref="M27" si="34">M6/M4</f>
+        <v>0.7482732156561781</v>
+      </c>
+      <c r="N27" s="32">
+        <f t="shared" ref="N27:O27" si="35">N6/N4</f>
+        <v>0.74128312412831243</v>
+      </c>
+      <c r="O27" s="32">
+        <f t="shared" si="35"/>
         <v>0.77028051554207733</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="32">
         <f>P6/P4</f>
         <v>0.74812593703148422</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="32">
         <f>Q6/Q4</f>
         <v>0.72890843662534988</v>
       </c>
-      <c r="R27" s="43">
-        <f t="shared" ref="R27" si="11">R6/R4</f>
+      <c r="R27" s="32">
+        <f t="shared" ref="R27" si="36">R6/R4</f>
         <v>0.73440489858400304</v>
       </c>
-      <c r="S27" s="43">
-        <f t="shared" ref="S27:T27" si="12">S6/S4</f>
+      <c r="S27" s="32">
+        <f t="shared" ref="S27" si="37">S6/S4</f>
         <v>0.72251308900523559</v>
       </c>
-      <c r="T27" s="43">
+      <c r="T27" s="32">
         <f>T6/T4</f>
         <v>0.72625928984310484</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="32">
         <f>U6/U4</f>
         <v>0.72815126050420165</v>
       </c>
-      <c r="AD27" s="43">
-        <f>AD6/AD4</f>
+      <c r="AC27" s="32">
+        <f t="shared" ref="AC27:AD27" si="38">AC6/AC4</f>
+        <v>0.76209721463681046</v>
+      </c>
+      <c r="AD27" s="32">
+        <f t="shared" ref="AD27:AE27" si="39">AD6/AD4</f>
+        <v>0.76458508354335852</v>
+      </c>
+      <c r="AE27" s="32">
+        <f>AE6/AE4</f>
         <v>0.74568138195777356</v>
       </c>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="2:31">
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="43">
-        <f t="shared" ref="O28:P28" si="13">O13/O4</f>
+      <c r="G28" s="32">
+        <f t="shared" ref="G28" si="40">G13/G4</f>
+        <v>0.24575217571487776</v>
+      </c>
+      <c r="H28" s="32">
+        <f t="shared" ref="H28" si="41">H13/H4</f>
+        <v>0.2302930251754024</v>
+      </c>
+      <c r="I28" s="32">
+        <f t="shared" ref="I28:J28" si="42">I13/I4</f>
+        <v>0.19587133941430629</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" si="42"/>
+        <v>0.21377459749552774</v>
+      </c>
+      <c r="K28" s="32">
+        <f t="shared" ref="K28" si="43">K13/K4</f>
+        <v>0.26495366470092668</v>
+      </c>
+      <c r="L28" s="32">
+        <f t="shared" ref="L28" si="44">L13/L4</f>
+        <v>0.28656195462478184</v>
+      </c>
+      <c r="M28" s="32">
+        <f t="shared" ref="M28" si="45">M13/M4</f>
+        <v>0.26055257099002305</v>
+      </c>
+      <c r="N28" s="32">
+        <f t="shared" ref="N28:O28" si="46">N13/N4</f>
+        <v>0.23605299860529985</v>
+      </c>
+      <c r="O28" s="32">
+        <f t="shared" si="46"/>
         <v>0.31880212282031845</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="32">
         <f>P13/P4</f>
         <v>0.27436281859070466</v>
       </c>
-      <c r="Q28" s="43">
+      <c r="Q28" s="32">
         <f>Q13/Q4</f>
         <v>0.2646941223510596</v>
       </c>
-      <c r="R28" s="43">
-        <f t="shared" ref="R28" si="14">R13/R4</f>
+      <c r="R28" s="32">
+        <f t="shared" ref="R28" si="47">R13/R4</f>
         <v>0.26329889016456182</v>
       </c>
-      <c r="S28" s="43">
-        <f t="shared" ref="S28:T28" si="15">S13/S4</f>
+      <c r="S28" s="32">
+        <f t="shared" ref="S28" si="48">S13/S4</f>
         <v>0.27869512686266612</v>
       </c>
-      <c r="T28" s="43">
+      <c r="T28" s="32">
         <f>T13/T4</f>
         <v>0.21676300578034682</v>
       </c>
-      <c r="U28" s="43">
+      <c r="U28" s="32">
         <f>U13/U4</f>
         <v>0.23865546218487396</v>
       </c>
-      <c r="AD28" s="43">
-        <f>AD13/AD4</f>
+      <c r="AC28" s="32">
+        <f t="shared" ref="AC28:AD28" si="49">AC13/AC4</f>
+        <v>0.2225013653741125</v>
+      </c>
+      <c r="AD28" s="32">
+        <f t="shared" ref="AD28:AE28" si="50">AD13/AD4</f>
+        <v>0.26192476430504996</v>
+      </c>
+      <c r="AE28" s="32">
+        <f>AE13/AE4</f>
         <v>0.28051823416506716</v>
       </c>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="2:31">
       <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O29" s="43">
-        <f t="shared" ref="O29:P29" si="16">O20/O4</f>
+      <c r="G29" s="32">
+        <f t="shared" ref="G29" si="51">G20/G4</f>
+        <v>0.21467053460422711</v>
+      </c>
+      <c r="H29" s="32">
+        <f t="shared" ref="H29" si="52">H20/H4</f>
+        <v>0.16591002888980602</v>
+      </c>
+      <c r="I29" s="32">
+        <f t="shared" ref="I29:J29" si="53">I20/I4</f>
+        <v>0.14882381180988957</v>
+      </c>
+      <c r="J29" s="32">
+        <f t="shared" si="53"/>
+        <v>0.24865831842576028</v>
+      </c>
+      <c r="K29" s="32">
+        <f t="shared" ref="K29" si="54">K20/K4</f>
+        <v>1.4372367312552654</v>
+      </c>
+      <c r="L29" s="32">
+        <f t="shared" ref="L29" si="55">L20/L4</f>
+        <v>0.26038394415357768</v>
+      </c>
+      <c r="M29" s="32">
+        <f t="shared" ref="M29" si="56">M20/M4</f>
+        <v>0.25479662317728319</v>
+      </c>
+      <c r="N29" s="32">
+        <f t="shared" ref="N29:O29" si="57">N20/N4</f>
+        <v>0.29463040446304045</v>
+      </c>
+      <c r="O29" s="32">
+        <f t="shared" si="57"/>
         <v>0.24298711144806673</v>
       </c>
-      <c r="P29" s="43">
+      <c r="P29" s="32">
         <f>P20/P4</f>
         <v>4.0232383808095955</v>
       </c>
-      <c r="Q29" s="43">
+      <c r="Q29" s="32">
         <f>Q20/Q4</f>
         <v>0.10555777688924431</v>
       </c>
-      <c r="R29" s="43">
-        <f t="shared" ref="R29" si="17">R20/R4</f>
+      <c r="R29" s="32">
+        <f t="shared" ref="R29" si="58">R20/R4</f>
         <v>0.75353999234596247</v>
       </c>
-      <c r="S29" s="43">
-        <f t="shared" ref="S29:T29" si="18">S20/S4</f>
+      <c r="S29" s="32">
+        <f t="shared" ref="S29" si="59">S20/S4</f>
         <v>-0.54007249295207416</v>
       </c>
-      <c r="T29" s="43">
+      <c r="T29" s="32">
         <f>T20/T4</f>
         <v>-0.21924029727497935</v>
       </c>
-      <c r="U29" s="43">
+      <c r="U29" s="32">
         <f>U20/U4</f>
         <v>-2.8991596638655463E-2</v>
       </c>
-      <c r="AD29" s="43">
-        <f>AD20/AD4</f>
+      <c r="AC29" s="32">
+        <f t="shared" ref="AC29:AD29" si="60">AC20/AC4</f>
+        <v>0.19508465319497542</v>
+      </c>
+      <c r="AD29" s="32">
+        <f t="shared" ref="AD29:AE29" si="61">AD20/AD4</f>
+        <v>0.52898347801736212</v>
+      </c>
+      <c r="AE29" s="32">
+        <f>AE20/AE4</f>
         <v>1.3059500959692898</v>
       </c>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="2:31">
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="43">
-        <f t="shared" ref="O30:P30" si="19">ABS(O17)/ABS(O16)</f>
+      <c r="G30" s="32">
+        <f t="shared" ref="G30" si="62">ABS(G17)/ABS(G16)</f>
+        <v>0.21461187214611871</v>
+      </c>
+      <c r="H30" s="32">
+        <f t="shared" ref="H30" si="63">ABS(H17)/ABS(H16)</f>
+        <v>0.21104536489151873</v>
+      </c>
+      <c r="I30" s="32">
+        <f t="shared" ref="I30:J30" si="64">ABS(I17)/ABS(I16)</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="J30" s="32">
+        <f t="shared" si="64"/>
+        <v>5.0607287449392711E-2</v>
+      </c>
+      <c r="K30" s="32">
+        <f t="shared" ref="K30" si="65">ABS(K17)/ABS(K16)</f>
+        <v>0.23137876386687797</v>
+      </c>
+      <c r="L30" s="32">
+        <f t="shared" ref="L30" si="66">ABS(L17)/ABS(L16)</f>
+        <v>0.26221335992023931</v>
+      </c>
+      <c r="M30" s="32">
+        <f t="shared" ref="M30" si="67">ABS(M17)/ABS(M16)</f>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="N30" s="32">
+        <f t="shared" ref="N30:O30" si="68">ABS(N17)/ABS(N16)</f>
+        <v>0.29576194770063119</v>
+      </c>
+      <c r="O30" s="32">
+        <f t="shared" si="68"/>
         <v>0.21546961325966851</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="32">
         <f>ABS(P17)/ABS(P16)</f>
         <v>0.26683291770573564</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="32">
         <f>ABS(Q17)/ABS(Q16)</f>
         <v>0.34792626728110598</v>
       </c>
-      <c r="R30" s="43">
-        <f t="shared" ref="R30" si="20">ABS(R17)/ABS(R16)</f>
+      <c r="R30" s="32">
+        <f t="shared" ref="R30" si="69">ABS(R17)/ABS(R16)</f>
         <v>0.23083548664944015</v>
       </c>
-      <c r="S30" s="43">
-        <f t="shared" ref="S30:T30" si="21">ABS(S17)/ABS(S16)</f>
+      <c r="S30" s="32">
+        <f t="shared" ref="S30" si="70">ABS(S17)/ABS(S16)</f>
         <v>0.18799272286234081</v>
       </c>
-      <c r="T30" s="43">
+      <c r="T30" s="32">
         <f>ABS(T17)/ABS(T16)</f>
         <v>0.2627235213204952</v>
       </c>
-      <c r="U30" s="43">
+      <c r="U30" s="32">
         <f>ABS(U17)/ABS(U16)</f>
         <v>0.29629629629629628</v>
       </c>
-      <c r="AD30" s="43">
-        <f>ABS(AD17)/ABS(AD16)</f>
+      <c r="AC30" s="32">
+        <f t="shared" ref="AC30:AD30" si="71">ABS(AC17)/ABS(AC16)</f>
+        <v>0.17099792099792099</v>
+      </c>
+      <c r="AD30" s="32">
+        <f t="shared" ref="AD30:AE30" si="72">ABS(AD17)/ABS(AD16)</f>
+        <v>0.25305658231447259</v>
+      </c>
+      <c r="AE30" s="32">
+        <f>ABS(AE17)/ABS(AE16)</f>
         <v>0.36683417085427134</v>
       </c>
     </row>
-    <row r="32" spans="2:30">
-      <c r="Q32" s="40"/>
-    </row>
-    <row r="34" spans="2:30">
-      <c r="B34" s="44" t="s">
+    <row r="32" spans="2:31">
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="34" spans="2:31">
+      <c r="B34" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:30" s="2" customFormat="1">
+    <row r="35" spans="2:31" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R35" s="39">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28">
+        <v>901</v>
+      </c>
+      <c r="K35" s="28">
+        <v>880</v>
+      </c>
+      <c r="L35" s="28">
+        <v>1006</v>
+      </c>
+      <c r="M35" s="28">
+        <v>963</v>
+      </c>
+      <c r="N35" s="28">
+        <v>1428</v>
+      </c>
+      <c r="R35" s="28">
         <v>1379</v>
       </c>
-      <c r="S35" s="39">
+      <c r="S35" s="28">
         <v>1798</v>
       </c>
-      <c r="T35" s="39">
+      <c r="T35" s="28">
         <v>1742</v>
       </c>
-      <c r="U35" s="39">
+      <c r="U35" s="28">
         <v>2037</v>
       </c>
-      <c r="AD35" s="39">
+      <c r="AC35" s="28">
+        <f>J35</f>
+        <v>901</v>
+      </c>
+      <c r="AD35" s="28">
+        <f>N35</f>
+        <v>1428</v>
+      </c>
+      <c r="AE35" s="28">
         <f>R35</f>
         <v>1379</v>
       </c>
     </row>
-    <row r="36" spans="2:30" s="2" customFormat="1">
+    <row r="36" spans="2:31" s="2" customFormat="1">
       <c r="B36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="R36" s="39">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28">
+        <v>1850</v>
+      </c>
+      <c r="K36" s="28">
+        <v>3550</v>
+      </c>
+      <c r="L36" s="28">
+        <v>4297</v>
+      </c>
+      <c r="M36" s="28">
+        <v>2697</v>
+      </c>
+      <c r="N36" s="28">
+        <v>2398</v>
+      </c>
+      <c r="R36" s="28">
         <v>5944</v>
       </c>
-      <c r="S36" s="39">
+      <c r="S36" s="28">
         <v>3771</v>
       </c>
-      <c r="T36" s="39">
+      <c r="T36" s="28">
         <v>1483</v>
       </c>
-      <c r="U36" s="39">
+      <c r="U36" s="28">
         <v>1457</v>
       </c>
-      <c r="AD36" s="39">
+      <c r="AC36" s="28">
+        <f>J36</f>
+        <v>1850</v>
+      </c>
+      <c r="AD36" s="28">
+        <f>N36</f>
+        <v>2398</v>
+      </c>
+      <c r="AE36" s="28">
         <f>R36</f>
         <v>5944</v>
       </c>
     </row>
-    <row r="37" spans="2:30">
+    <row r="37" spans="2:31">
       <c r="B37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R37" s="40">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29">
+        <v>555</v>
+      </c>
+      <c r="K37" s="29">
+        <v>635</v>
+      </c>
+      <c r="L37" s="29">
+        <v>845</v>
+      </c>
+      <c r="M37" s="29">
+        <v>477</v>
+      </c>
+      <c r="N37" s="29">
+        <v>412</v>
+      </c>
+      <c r="R37" s="29">
         <v>681</v>
       </c>
-      <c r="S37" s="40">
+      <c r="S37" s="29">
         <v>626</v>
       </c>
-      <c r="T37" s="40">
+      <c r="T37" s="29">
         <v>605</v>
       </c>
-      <c r="U37" s="40">
+      <c r="U37" s="29">
         <v>633</v>
       </c>
-      <c r="AD37" s="40">
+      <c r="AC37" s="29">
+        <f>J37</f>
+        <v>555</v>
+      </c>
+      <c r="AD37" s="29">
+        <f>AC37+N37</f>
+        <v>967</v>
+      </c>
+      <c r="AE37" s="29">
         <f>R37</f>
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="2:30">
+    <row r="38" spans="2:31">
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R38" s="40">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29">
+        <f>1064+141+195</f>
+        <v>1400</v>
+      </c>
+      <c r="K38" s="29">
+        <v>1183</v>
+      </c>
+      <c r="L38" s="29">
+        <v>1246</v>
+      </c>
+      <c r="M38" s="29">
+        <f>1486+1116</f>
+        <v>2602</v>
+      </c>
+      <c r="N38" s="29">
+        <f>1764+1188</f>
+        <v>2952</v>
+      </c>
+      <c r="R38" s="29">
         <v>1107</v>
       </c>
-      <c r="S38" s="40">
+      <c r="S38" s="29">
         <v>1154</v>
       </c>
-      <c r="T38" s="40">
+      <c r="T38" s="29">
         <v>1237</v>
       </c>
-      <c r="U38" s="40">
+      <c r="U38" s="29">
         <v>1162</v>
       </c>
-      <c r="AD38" s="40">
+      <c r="AC38" s="29">
+        <f>J38</f>
+        <v>1400</v>
+      </c>
+      <c r="AD38" s="29">
+        <f t="shared" ref="AD38:AD46" si="73">AC38+N38</f>
+        <v>4352</v>
+      </c>
+      <c r="AE38" s="29">
         <f>R38</f>
         <v>1107</v>
       </c>
     </row>
-    <row r="39" spans="2:30">
+    <row r="39" spans="2:31">
       <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="40">
-        <f t="shared" ref="C39:T39" si="22">SUM(C35:C38)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="40">
-        <f t="shared" si="22"/>
+      <c r="C39" s="29">
+        <f t="shared" ref="C39:T39" si="74">SUM(C35:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="29">
+        <f t="shared" si="74"/>
+        <v>4706</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" si="74"/>
+        <v>6248</v>
+      </c>
+      <c r="L39" s="29">
+        <f t="shared" si="74"/>
+        <v>7394</v>
+      </c>
+      <c r="M39" s="29">
+        <f t="shared" si="74"/>
+        <v>6739</v>
+      </c>
+      <c r="N39" s="29">
+        <f t="shared" si="74"/>
+        <v>7190</v>
+      </c>
+      <c r="O39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="29">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="29">
+        <f t="shared" si="74"/>
         <v>9111</v>
       </c>
-      <c r="S39" s="40">
-        <f t="shared" si="22"/>
+      <c r="S39" s="29">
+        <f t="shared" si="74"/>
         <v>7349</v>
       </c>
-      <c r="T39" s="40">
-        <f t="shared" si="22"/>
+      <c r="T39" s="29">
+        <f t="shared" si="74"/>
         <v>5067</v>
       </c>
-      <c r="U39" s="40">
+      <c r="U39" s="29">
         <f>SUM(U35:U38)</f>
         <v>5289</v>
       </c>
-      <c r="Y39" s="40">
-        <f t="shared" ref="Y39" si="23">SUM(Y35:Y38)</f>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="40">
-        <f t="shared" ref="Z39" si="24">SUM(Z35:Z38)</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="40">
-        <f t="shared" ref="AA39" si="25">SUM(AA35:AA38)</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="40">
-        <f t="shared" ref="AB39" si="26">SUM(AB35:AB38)</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="40">
-        <f t="shared" ref="AC39" si="27">SUM(AC35:AC38)</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="40">
-        <f t="shared" ref="AD39" si="28">SUM(AD35:AD38)</f>
+      <c r="Z39" s="29">
+        <f t="shared" ref="Z39" si="75">SUM(Z35:Z38)</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="29">
+        <f t="shared" ref="AA39" si="76">SUM(AA35:AA38)</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="29">
+        <f t="shared" ref="AB39" si="77">SUM(AB35:AB38)</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="29">
+        <f t="shared" ref="AC39" si="78">SUM(AC35:AC38)</f>
+        <v>4706</v>
+      </c>
+      <c r="AD39" s="29">
+        <f t="shared" ref="AD39" si="79">SUM(AD35:AD38)</f>
+        <v>9145</v>
+      </c>
+      <c r="AE39" s="29">
+        <f t="shared" ref="AE39" si="80">SUM(AE35:AE38)</f>
         <v>9111</v>
       </c>
     </row>
-    <row r="40" spans="2:30">
+    <row r="40" spans="2:31">
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R40" s="40">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29">
+        <v>1275</v>
+      </c>
+      <c r="K40" s="29">
+        <v>1077</v>
+      </c>
+      <c r="L40" s="29">
+        <v>832</v>
+      </c>
+      <c r="M40" s="29">
+        <v>663</v>
+      </c>
+      <c r="N40" s="29">
+        <v>833</v>
+      </c>
+      <c r="R40" s="29">
         <v>2575</v>
       </c>
-      <c r="S40" s="40">
+      <c r="S40" s="29">
         <v>2213</v>
       </c>
-      <c r="T40" s="40">
+      <c r="T40" s="29">
         <v>2146</v>
       </c>
-      <c r="U40" s="40">
+      <c r="U40" s="29">
         <v>1971</v>
       </c>
-      <c r="AD40" s="40">
-        <f t="shared" ref="AD40:AD58" si="29">R40</f>
+      <c r="AC40" s="29">
+        <f t="shared" ref="AC40:AC46" si="81">J40</f>
+        <v>1275</v>
+      </c>
+      <c r="AD40" s="29">
+        <f t="shared" si="73"/>
+        <v>2108</v>
+      </c>
+      <c r="AE40" s="29">
+        <f t="shared" ref="AE40:AE60" si="82">R40</f>
         <v>2575</v>
       </c>
     </row>
-    <row r="41" spans="2:30">
+    <row r="41" spans="2:31">
       <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R41" s="40">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29">
+        <v>1460</v>
+      </c>
+      <c r="K41" s="29">
+        <v>1409</v>
+      </c>
+      <c r="L41" s="29">
+        <v>1364</v>
+      </c>
+      <c r="M41" s="29">
+        <v>1301</v>
+      </c>
+      <c r="N41" s="29">
+        <v>1358</v>
+      </c>
+      <c r="R41" s="29">
         <v>1236</v>
       </c>
-      <c r="S41" s="40">
+      <c r="S41" s="29">
         <v>1192</v>
       </c>
-      <c r="T41" s="40">
+      <c r="T41" s="29">
         <v>1173</v>
       </c>
-      <c r="U41" s="40">
+      <c r="U41" s="29">
         <v>1194</v>
       </c>
-      <c r="AD41" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC41" s="29">
+        <f t="shared" si="81"/>
+        <v>1460</v>
+      </c>
+      <c r="AD41" s="29">
+        <f t="shared" si="73"/>
+        <v>2818</v>
+      </c>
+      <c r="AE41" s="29">
+        <f t="shared" si="82"/>
         <v>1236</v>
       </c>
     </row>
-    <row r="42" spans="2:30">
+    <row r="42" spans="2:31">
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R42" s="40">
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29">
+        <f>39+4533</f>
+        <v>4572</v>
+      </c>
+      <c r="K42" s="29">
+        <f>50+4850</f>
+        <v>4900</v>
+      </c>
+      <c r="L42" s="29">
+        <f>4910+56</f>
+        <v>4966</v>
+      </c>
+      <c r="M42" s="29">
+        <f>19+4357</f>
+        <v>4376</v>
+      </c>
+      <c r="N42" s="29">
+        <f>12+4675</f>
+        <v>4687</v>
+      </c>
+      <c r="R42" s="29">
         <v>4178</v>
       </c>
-      <c r="S42" s="40">
+      <c r="S42" s="29">
         <v>4141</v>
       </c>
-      <c r="T42" s="40">
+      <c r="T42" s="29">
         <v>4113</v>
       </c>
-      <c r="U42" s="40">
+      <c r="U42" s="29">
         <v>4058</v>
       </c>
-      <c r="AD42" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC42" s="29">
+        <f t="shared" si="81"/>
+        <v>4572</v>
+      </c>
+      <c r="AD42" s="29">
+        <f t="shared" si="73"/>
+        <v>9259</v>
+      </c>
+      <c r="AE42" s="29">
+        <f t="shared" si="82"/>
         <v>4178</v>
       </c>
     </row>
-    <row r="43" spans="2:30">
+    <row r="43" spans="2:31">
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R43" s="40">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29">
+        <v>583</v>
+      </c>
+      <c r="K43" s="29">
+        <v>598</v>
+      </c>
+      <c r="L43" s="29">
+        <v>536</v>
+      </c>
+      <c r="M43" s="29">
+        <v>499</v>
+      </c>
+      <c r="N43" s="29">
+        <v>509</v>
+      </c>
+      <c r="R43" s="29">
         <v>289</v>
       </c>
-      <c r="S43" s="40">
+      <c r="S43" s="29">
         <v>570</v>
       </c>
-      <c r="T43" s="40">
+      <c r="T43" s="29">
         <v>541</v>
       </c>
-      <c r="U43" s="40">
+      <c r="U43" s="29">
         <v>527</v>
       </c>
-      <c r="AD43" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC43" s="29">
+        <f t="shared" si="81"/>
+        <v>583</v>
+      </c>
+      <c r="AD43" s="29">
+        <f t="shared" si="73"/>
+        <v>1092</v>
+      </c>
+      <c r="AE43" s="29">
+        <f t="shared" si="82"/>
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="2:30">
+    <row r="44" spans="2:31">
       <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R44" s="40">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29">
+        <v>3980</v>
+      </c>
+      <c r="K44" s="29">
+        <v>4287</v>
+      </c>
+      <c r="L44" s="29">
+        <v>4203</v>
+      </c>
+      <c r="M44" s="29">
+        <v>3749</v>
+      </c>
+      <c r="N44" s="29">
+        <v>3537</v>
+      </c>
+      <c r="R44" s="29">
         <v>3255</v>
       </c>
-      <c r="S44" s="40">
+      <c r="S44" s="29">
         <v>3224</v>
       </c>
-      <c r="T44" s="40">
+      <c r="T44" s="29">
         <v>3227</v>
       </c>
-      <c r="U44" s="40">
+      <c r="U44" s="29">
         <v>3144</v>
       </c>
-      <c r="AD44" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC44" s="29">
+        <f t="shared" si="81"/>
+        <v>3980</v>
+      </c>
+      <c r="AD44" s="29">
+        <f t="shared" si="73"/>
+        <v>7517</v>
+      </c>
+      <c r="AE44" s="29">
+        <f t="shared" si="82"/>
         <v>3255</v>
       </c>
     </row>
-    <row r="45" spans="2:30">
+    <row r="45" spans="2:31">
       <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R45" s="40">
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="29">
+        <v>0</v>
+      </c>
+      <c r="L45" s="29">
+        <v>0</v>
+      </c>
+      <c r="M45" s="29">
+        <v>0</v>
+      </c>
+      <c r="N45" s="29">
+        <v>0</v>
+      </c>
+      <c r="R45" s="29">
         <v>5391</v>
       </c>
-      <c r="S45" s="40">
+      <c r="S45" s="29">
         <v>3748</v>
       </c>
-      <c r="T45" s="40">
+      <c r="T45" s="29">
         <v>2919</v>
       </c>
-      <c r="U45" s="40">
+      <c r="U45" s="29">
         <v>2417</v>
       </c>
-      <c r="AD45" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC45" s="29">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="29">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="29">
+        <f t="shared" si="82"/>
         <v>5391</v>
       </c>
     </row>
-    <row r="46" spans="2:30">
+    <row r="46" spans="2:31">
       <c r="B46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R46" s="40">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29">
+        <f>133+306+878+281</f>
+        <v>1598</v>
+      </c>
+      <c r="K46" s="29">
+        <v>410</v>
+      </c>
+      <c r="L46" s="29">
+        <v>719</v>
+      </c>
+      <c r="M46" s="29">
+        <v>914</v>
+      </c>
+      <c r="N46" s="29">
+        <f>1051+145</f>
+        <v>1196</v>
+      </c>
+      <c r="R46" s="29">
         <v>591</v>
       </c>
-      <c r="S46" s="40">
+      <c r="S46" s="29">
         <v>543</v>
       </c>
-      <c r="T46" s="40">
+      <c r="T46" s="29">
         <v>467</v>
       </c>
-      <c r="U46" s="40">
+      <c r="U46" s="29">
         <v>497</v>
       </c>
-      <c r="AD46" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC46" s="29">
+        <f t="shared" si="81"/>
+        <v>1598</v>
+      </c>
+      <c r="AD46" s="29">
+        <f t="shared" si="73"/>
+        <v>2794</v>
+      </c>
+      <c r="AE46" s="29">
+        <f t="shared" si="82"/>
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="2:30">
+    <row r="47" spans="2:31">
       <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="40">
-        <f t="shared" ref="C47:T47" si="30">C39+SUM(C40:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="40">
-        <f t="shared" si="30"/>
+      <c r="C47" s="29">
+        <f t="shared" ref="C47:T47" si="83">C39+SUM(C40:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="29">
+        <f t="shared" si="83"/>
+        <v>18174</v>
+      </c>
+      <c r="K47" s="29">
+        <f t="shared" si="83"/>
+        <v>18929</v>
+      </c>
+      <c r="L47" s="29">
+        <f t="shared" si="83"/>
+        <v>20014</v>
+      </c>
+      <c r="M47" s="29">
+        <f t="shared" si="83"/>
+        <v>18241</v>
+      </c>
+      <c r="N47" s="29">
+        <f t="shared" si="83"/>
+        <v>19310</v>
+      </c>
+      <c r="O47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="29">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="29">
+        <f t="shared" si="83"/>
         <v>26626</v>
       </c>
-      <c r="S47" s="40">
-        <f t="shared" si="30"/>
+      <c r="S47" s="29">
+        <f t="shared" si="83"/>
         <v>22980</v>
       </c>
-      <c r="T47" s="40">
-        <f t="shared" si="30"/>
+      <c r="T47" s="29">
+        <f t="shared" si="83"/>
         <v>19653</v>
       </c>
-      <c r="U47" s="40">
+      <c r="U47" s="29">
         <f>U39+SUM(U40:U46)</f>
         <v>19097</v>
       </c>
-      <c r="Y47" s="40">
-        <f t="shared" ref="Y47" si="31">Y39+SUM(Y40:Y46)</f>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="40">
-        <f t="shared" ref="Z47" si="32">Z39+SUM(Z40:Z46)</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="40">
-        <f t="shared" ref="AA47" si="33">AA39+SUM(AA40:AA46)</f>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="40">
-        <f t="shared" ref="AB47" si="34">AB39+SUM(AB40:AB46)</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="40">
-        <f t="shared" ref="AC47" si="35">AC39+SUM(AC40:AC46)</f>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="40">
-        <f t="shared" ref="AD47" si="36">AD39+SUM(AD40:AD46)</f>
+      <c r="Z47" s="29">
+        <f t="shared" ref="Z47" si="84">Z39+SUM(Z40:Z46)</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="29">
+        <f t="shared" ref="AA47" si="85">AA39+SUM(AA40:AA46)</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="29">
+        <f t="shared" ref="AB47" si="86">AB39+SUM(AB40:AB46)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="29">
+        <f t="shared" ref="AC47" si="87">AC39+SUM(AC40:AC46)</f>
+        <v>18174</v>
+      </c>
+      <c r="AD47" s="29">
+        <f t="shared" ref="AD47" si="88">AD39+SUM(AD40:AD46)</f>
+        <v>34733</v>
+      </c>
+      <c r="AE47" s="29">
+        <f t="shared" ref="AE47" si="89">AE39+SUM(AE40:AE46)</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="48" spans="2:30">
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="AD48" s="40"/>
-    </row>
-    <row r="49" spans="2:30" s="2" customFormat="1">
+    <row r="48" spans="2:31">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="AE48" s="29"/>
+    </row>
+    <row r="49" spans="2:31" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R49" s="39">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28">
+        <v>1020</v>
+      </c>
+      <c r="K49" s="28">
+        <v>1015</v>
+      </c>
+      <c r="L49" s="28">
+        <v>516</v>
+      </c>
+      <c r="M49" s="28">
+        <v>17</v>
+      </c>
+      <c r="N49" s="28">
+        <v>18</v>
+      </c>
+      <c r="R49" s="28">
         <v>1355</v>
       </c>
-      <c r="S49" s="39">
+      <c r="S49" s="28">
         <v>1755</v>
       </c>
-      <c r="T49" s="39">
+      <c r="T49" s="28">
         <v>1149</v>
       </c>
-      <c r="U49" s="39">
+      <c r="U49" s="28">
         <v>1150</v>
       </c>
-      <c r="AD49" s="39">
+      <c r="AC49" s="28">
+        <f>J49</f>
+        <v>1020</v>
+      </c>
+      <c r="AD49" s="28">
+        <f>N49</f>
+        <v>18</v>
+      </c>
+      <c r="AE49" s="28">
         <f>R49</f>
         <v>1355</v>
       </c>
     </row>
-    <row r="50" spans="2:30">
+    <row r="50" spans="2:31">
       <c r="B50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R50" s="40">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29">
+        <v>229</v>
+      </c>
+      <c r="K50" s="29">
+        <v>268</v>
+      </c>
+      <c r="L50" s="29">
+        <v>305</v>
+      </c>
+      <c r="M50" s="29">
+        <v>307</v>
+      </c>
+      <c r="N50" s="29">
+        <v>332</v>
+      </c>
+      <c r="R50" s="29">
         <v>262</v>
       </c>
-      <c r="S50" s="40">
+      <c r="S50" s="29">
         <v>245</v>
       </c>
-      <c r="T50" s="40">
+      <c r="T50" s="29">
         <v>249</v>
       </c>
-      <c r="U50" s="40">
+      <c r="U50" s="29">
         <v>224</v>
       </c>
-      <c r="AD50" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC50" s="29">
+        <f t="shared" ref="AC50:AC60" si="90">J50</f>
+        <v>229</v>
+      </c>
+      <c r="AD50" s="29">
+        <f>AC50+N50</f>
+        <v>561</v>
+      </c>
+      <c r="AE50" s="29">
+        <f t="shared" si="82"/>
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:30">
+    <row r="51" spans="2:31">
       <c r="B51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R51" s="40">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29">
+        <v>2097</v>
+      </c>
+      <c r="K51" s="29">
+        <v>2175</v>
+      </c>
+      <c r="L51" s="29">
+        <v>2440</v>
+      </c>
+      <c r="M51" s="1">
+        <v>105</v>
+      </c>
+      <c r="N51" s="29">
+        <v>2910</v>
+      </c>
+      <c r="R51" s="29">
         <v>707</v>
       </c>
-      <c r="S51" s="40">
+      <c r="S51" s="29">
         <v>652</v>
       </c>
-      <c r="T51" s="40">
+      <c r="T51" s="29">
         <v>604</v>
       </c>
-      <c r="U51" s="40">
+      <c r="U51" s="29">
         <v>649</v>
       </c>
-      <c r="AD51" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC51" s="29">
+        <f t="shared" si="90"/>
+        <v>2097</v>
+      </c>
+      <c r="AD51" s="29">
+        <f>AC51+N51</f>
+        <v>5007</v>
+      </c>
+      <c r="AE51" s="29">
+        <f t="shared" si="82"/>
         <v>707</v>
       </c>
     </row>
-    <row r="52" spans="2:30">
+    <row r="52" spans="2:31">
       <c r="B52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R52" s="40">
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29">
+        <v>129</v>
+      </c>
+      <c r="K52" s="29">
+        <v>108</v>
+      </c>
+      <c r="L52" s="29">
+        <v>103</v>
+      </c>
+      <c r="M52" s="29">
+        <v>2536</v>
+      </c>
+      <c r="N52" s="29">
+        <v>110</v>
+      </c>
+      <c r="R52" s="29">
         <v>1927</v>
       </c>
-      <c r="S52" s="40">
+      <c r="S52" s="29">
         <v>1851</v>
       </c>
-      <c r="T52" s="40">
+      <c r="T52" s="29">
         <v>1735</v>
       </c>
-      <c r="U52" s="40">
+      <c r="U52" s="29">
         <v>1765</v>
       </c>
-      <c r="AD52" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC52" s="29">
+        <f t="shared" si="90"/>
+        <v>129</v>
+      </c>
+      <c r="AD52" s="29">
+        <f>AC52+N52</f>
+        <v>239</v>
+      </c>
+      <c r="AE52" s="29">
+        <f t="shared" si="82"/>
         <v>1927</v>
       </c>
     </row>
-    <row r="53" spans="2:30">
+    <row r="53" spans="2:31">
       <c r="B53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R53" s="40">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29">
+        <v>169</v>
+      </c>
+      <c r="K53" s="29">
+        <v>1107</v>
+      </c>
+      <c r="L53" s="29">
+        <v>1328</v>
+      </c>
+      <c r="M53" s="29">
+        <v>379</v>
+      </c>
+      <c r="N53" s="29">
+        <v>180</v>
+      </c>
+      <c r="R53" s="29">
         <v>371</v>
       </c>
-      <c r="S53" s="40">
+      <c r="S53" s="29">
         <v>479</v>
       </c>
-      <c r="T53" s="40">
+      <c r="T53" s="29">
         <v>235</v>
       </c>
-      <c r="U53" s="40">
+      <c r="U53" s="29">
         <v>186</v>
       </c>
-      <c r="AD53" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC53" s="29">
+        <f t="shared" si="90"/>
+        <v>169</v>
+      </c>
+      <c r="AD53" s="29">
+        <f>AC53+N53</f>
+        <v>349</v>
+      </c>
+      <c r="AE53" s="29">
+        <f t="shared" si="82"/>
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:30">
+    <row r="54" spans="2:31">
       <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29">
+        <v>259</v>
+      </c>
+      <c r="K54" s="29">
+        <v>0</v>
+      </c>
+      <c r="L54" s="29">
+        <v>0</v>
+      </c>
+      <c r="M54" s="29">
+        <v>0</v>
+      </c>
+      <c r="N54" s="29">
+        <v>0</v>
+      </c>
+      <c r="R54" s="29">
+        <v>0</v>
+      </c>
+      <c r="S54" s="29">
+        <v>0</v>
+      </c>
+      <c r="T54" s="29">
+        <v>0</v>
+      </c>
+      <c r="U54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="29">
+        <f t="shared" si="90"/>
+        <v>259</v>
+      </c>
+      <c r="AD54" s="29">
+        <f>AC54+N54</f>
+        <v>259</v>
+      </c>
+      <c r="AE54" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31">
+      <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29">
+        <v>163</v>
+      </c>
+      <c r="K55" s="29">
+        <v>0</v>
+      </c>
+      <c r="L55" s="29">
+        <v>0</v>
+      </c>
+      <c r="M55" s="29">
+        <v>496</v>
+      </c>
+      <c r="N55" s="29">
+        <v>452</v>
+      </c>
+      <c r="R55" s="29">
+        <v>0</v>
+      </c>
+      <c r="S55" s="29">
+        <v>0</v>
+      </c>
+      <c r="T55" s="29">
+        <v>0</v>
+      </c>
+      <c r="U55" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="29">
+        <f t="shared" si="90"/>
+        <v>163</v>
+      </c>
+      <c r="AD55" s="29">
+        <f>AC55+N55</f>
+        <v>615</v>
+      </c>
+      <c r="AE55" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31">
+      <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="40">
-        <f t="shared" ref="C54:T54" si="37">SUM(C49:C53)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="40">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="40">
-        <f t="shared" si="37"/>
+      <c r="C56" s="29">
+        <f>SUM(C49:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="29">
+        <f t="shared" ref="D56:U56" si="91">SUM(D49:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="29">
+        <f t="shared" si="91"/>
+        <v>4066</v>
+      </c>
+      <c r="K56" s="29">
+        <f t="shared" si="91"/>
+        <v>4673</v>
+      </c>
+      <c r="L56" s="29">
+        <f t="shared" si="91"/>
+        <v>4692</v>
+      </c>
+      <c r="M56" s="29">
+        <f t="shared" si="91"/>
+        <v>3840</v>
+      </c>
+      <c r="N56" s="29">
+        <f t="shared" si="91"/>
+        <v>4002</v>
+      </c>
+      <c r="O56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="29">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="29">
+        <f t="shared" si="91"/>
         <v>4622</v>
       </c>
-      <c r="S54" s="40">
-        <f t="shared" si="37"/>
+      <c r="S56" s="29">
+        <f t="shared" si="91"/>
         <v>4982</v>
       </c>
-      <c r="T54" s="40">
-        <f t="shared" si="37"/>
+      <c r="T56" s="29">
+        <f t="shared" si="91"/>
         <v>3972</v>
       </c>
-      <c r="U54" s="40">
-        <f>SUM(U49:U53)</f>
+      <c r="U56" s="29">
+        <f t="shared" si="91"/>
         <v>3974</v>
       </c>
-      <c r="Y54" s="40">
-        <f t="shared" ref="Y54" si="38">SUM(Y49:Y53)</f>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="40">
-        <f t="shared" ref="Z54" si="39">SUM(Z49:Z53)</f>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="40">
-        <f t="shared" ref="AA54" si="40">SUM(AA49:AA53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB54" s="40">
-        <f t="shared" ref="AB54" si="41">SUM(AB49:AB53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="40">
-        <f t="shared" ref="AC54" si="42">SUM(AC49:AC53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD54" s="40">
-        <f t="shared" ref="AD54" si="43">SUM(AD49:AD53)</f>
+      <c r="Z56" s="29">
+        <f t="shared" ref="Z56" si="92">SUM(Z49:Z55)</f>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="29">
+        <f t="shared" ref="AA56" si="93">SUM(AA49:AA55)</f>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="29">
+        <f t="shared" ref="AB56" si="94">SUM(AB49:AB55)</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="29">
+        <f t="shared" ref="AC56" si="95">SUM(AC49:AC55)</f>
+        <v>4066</v>
+      </c>
+      <c r="AD56" s="29">
+        <f t="shared" ref="AD56" si="96">SUM(AD49:AD55)</f>
+        <v>7048</v>
+      </c>
+      <c r="AE56" s="29">
+        <f t="shared" ref="AE56" si="97">SUM(AE49:AE55)</f>
         <v>4622</v>
       </c>
     </row>
-    <row r="55" spans="2:30">
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="2:31">
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R55" s="40">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29">
+        <v>461</v>
+      </c>
+      <c r="K57" s="29">
+        <v>456</v>
+      </c>
+      <c r="L57" s="29">
+        <v>411</v>
+      </c>
+      <c r="M57" s="29">
+        <v>379</v>
+      </c>
+      <c r="N57" s="29">
+        <v>380</v>
+      </c>
+      <c r="R57" s="29">
         <v>200</v>
       </c>
-      <c r="S55" s="40">
+      <c r="S57" s="29">
         <v>481</v>
       </c>
-      <c r="T55" s="40">
+      <c r="T57" s="29">
         <v>448</v>
       </c>
-      <c r="U55" s="40">
+      <c r="U57" s="29">
         <v>432</v>
       </c>
-      <c r="AD55" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC57" s="29">
+        <f t="shared" si="90"/>
+        <v>461</v>
+      </c>
+      <c r="AD57" s="29">
+        <f>AC57+N57</f>
+        <v>841</v>
+      </c>
+      <c r="AE57" s="29">
+        <f t="shared" si="82"/>
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:30">
-      <c r="B56" s="1" t="s">
+    <row r="58" spans="2:31">
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R56" s="40">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29">
+        <v>2355</v>
+      </c>
+      <c r="K58" s="29">
+        <v>2619</v>
+      </c>
+      <c r="L58" s="29">
+        <v>2584</v>
+      </c>
+      <c r="M58" s="29">
+        <v>2280</v>
+      </c>
+      <c r="N58" s="29">
+        <v>2359</v>
+      </c>
+      <c r="R58" s="29">
         <v>3116</v>
       </c>
-      <c r="S56" s="40">
+      <c r="S58" s="29">
         <v>2701</v>
       </c>
-      <c r="T56" s="40">
+      <c r="T58" s="29">
         <v>2400</v>
       </c>
-      <c r="U56" s="40">
+      <c r="U58" s="29">
         <v>2231</v>
       </c>
-      <c r="AD56" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC58" s="29">
+        <f t="shared" si="90"/>
+        <v>2355</v>
+      </c>
+      <c r="AD58" s="29">
+        <f>AC58+N58</f>
+        <v>4714</v>
+      </c>
+      <c r="AE58" s="29">
+        <f t="shared" si="82"/>
         <v>3116</v>
       </c>
     </row>
-    <row r="57" spans="2:30" s="2" customFormat="1">
-      <c r="B57" s="2" t="s">
+    <row r="59" spans="2:31" s="2" customFormat="1">
+      <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="R57" s="39">
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28">
+        <v>6738</v>
+      </c>
+      <c r="K59" s="28">
+        <v>7724</v>
+      </c>
+      <c r="L59" s="28">
+        <v>8161</v>
+      </c>
+      <c r="M59" s="28">
+        <v>7738</v>
+      </c>
+      <c r="N59" s="28">
+        <v>7745</v>
+      </c>
+      <c r="R59" s="28">
         <v>7727</v>
       </c>
-      <c r="S57" s="39">
+      <c r="S59" s="28">
         <v>6578</v>
       </c>
-      <c r="T57" s="39">
+      <c r="T59" s="28">
         <v>6579</v>
       </c>
-      <c r="U57" s="39">
+      <c r="U59" s="28">
         <v>6579</v>
       </c>
-      <c r="AD57" s="39">
-        <f>R57</f>
+      <c r="AC59" s="28">
+        <f>J59</f>
+        <v>6738</v>
+      </c>
+      <c r="AD59" s="28">
+        <f>N59</f>
+        <v>7745</v>
+      </c>
+      <c r="AE59" s="28">
+        <f>R59</f>
         <v>7727</v>
       </c>
     </row>
-    <row r="58" spans="2:30">
-      <c r="B58" s="1" t="s">
+    <row r="60" spans="2:31">
+      <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R58" s="40">
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29">
+        <f>26+305+1353</f>
+        <v>1684</v>
+      </c>
+      <c r="K60" s="29">
+        <v>1342</v>
+      </c>
+      <c r="L60" s="29">
+        <v>1264</v>
+      </c>
+      <c r="M60" s="29">
+        <v>1264</v>
+      </c>
+      <c r="N60" s="29">
+        <v>1263</v>
+      </c>
+      <c r="R60" s="29">
         <v>1183</v>
       </c>
-      <c r="S58" s="40">
+      <c r="S60" s="29">
         <v>1184</v>
       </c>
-      <c r="T58" s="40">
+      <c r="T60" s="29">
         <v>1011</v>
       </c>
-      <c r="U58" s="40">
+      <c r="U60" s="29">
         <v>1028</v>
       </c>
-      <c r="AD58" s="40">
-        <f t="shared" si="29"/>
+      <c r="AC60" s="29">
+        <f t="shared" si="90"/>
+        <v>1684</v>
+      </c>
+      <c r="AD60" s="29">
+        <f>AC60+N60</f>
+        <v>2947</v>
+      </c>
+      <c r="AE60" s="29">
+        <f t="shared" si="82"/>
         <v>1183</v>
       </c>
     </row>
-    <row r="59" spans="2:30">
-      <c r="B59" s="1" t="s">
+    <row r="61" spans="2:31">
+      <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="40">
-        <f t="shared" ref="C59:T59" si="44">C54+SUM(C55:C58)</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="40">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="40">
-        <f t="shared" si="44"/>
+      <c r="C61" s="29">
+        <f t="shared" ref="C61:T61" si="98">C56+SUM(C57:C60)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="29">
+        <f t="shared" si="98"/>
+        <v>15304</v>
+      </c>
+      <c r="K61" s="29">
+        <f t="shared" si="98"/>
+        <v>16814</v>
+      </c>
+      <c r="L61" s="29">
+        <f t="shared" si="98"/>
+        <v>17112</v>
+      </c>
+      <c r="M61" s="29">
+        <f t="shared" si="98"/>
+        <v>15501</v>
+      </c>
+      <c r="N61" s="29">
+        <f t="shared" si="98"/>
+        <v>15749</v>
+      </c>
+      <c r="O61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="29">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="29">
+        <f t="shared" si="98"/>
         <v>16848</v>
       </c>
-      <c r="S59" s="40">
-        <f t="shared" si="44"/>
+      <c r="S61" s="29">
+        <f t="shared" si="98"/>
         <v>15926</v>
       </c>
-      <c r="T59" s="40">
-        <f t="shared" si="44"/>
+      <c r="T61" s="29">
+        <f t="shared" si="98"/>
         <v>14410</v>
       </c>
-      <c r="U59" s="40">
-        <f>U54+SUM(U55:U58)</f>
+      <c r="U61" s="29">
+        <f>U56+SUM(U57:U60)</f>
         <v>14244</v>
       </c>
-      <c r="Y59" s="40">
-        <f t="shared" ref="Y59" si="45">Y54+SUM(Y55:Y58)</f>
-        <v>0</v>
-      </c>
-      <c r="Z59" s="40">
-        <f t="shared" ref="Z59" si="46">Z54+SUM(Z55:Z58)</f>
-        <v>0</v>
-      </c>
-      <c r="AA59" s="40">
-        <f t="shared" ref="AA59" si="47">AA54+SUM(AA55:AA58)</f>
-        <v>0</v>
-      </c>
-      <c r="AB59" s="40">
-        <f t="shared" ref="AB59" si="48">AB54+SUM(AB55:AB58)</f>
-        <v>0</v>
-      </c>
-      <c r="AC59" s="40">
-        <f t="shared" ref="AC59" si="49">AC54+SUM(AC55:AC58)</f>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="40">
-        <f t="shared" ref="AD59" si="50">AD54+SUM(AD55:AD58)</f>
+      <c r="Z61" s="29">
+        <f t="shared" ref="Z61" si="99">Z56+SUM(Z57:Z60)</f>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="29">
+        <f t="shared" ref="AA61" si="100">AA56+SUM(AA57:AA60)</f>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="29">
+        <f t="shared" ref="AB61" si="101">AB56+SUM(AB57:AB60)</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="29">
+        <f t="shared" ref="AC61" si="102">AC56+SUM(AC57:AC60)</f>
+        <v>15304</v>
+      </c>
+      <c r="AD61" s="29">
+        <f t="shared" ref="AD61" si="103">AD56+SUM(AD57:AD60)</f>
+        <v>23295</v>
+      </c>
+      <c r="AE61" s="29">
+        <f t="shared" ref="AE61" si="104">AE56+SUM(AE57:AE60)</f>
         <v>16848</v>
       </c>
     </row>
-    <row r="60" spans="2:30">
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-    </row>
-    <row r="61" spans="2:30">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:31">
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+    </row>
+    <row r="63" spans="2:31" s="29" customFormat="1">
+      <c r="B63" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="R61" s="40">
+      <c r="I63" s="29">
+        <v>2870</v>
+      </c>
+      <c r="J63" s="29">
+        <v>2870</v>
+      </c>
+      <c r="K63" s="29">
+        <v>2115</v>
+      </c>
+      <c r="L63" s="29">
+        <v>2902</v>
+      </c>
+      <c r="M63" s="29">
+        <v>2920</v>
+      </c>
+      <c r="N63" s="29">
+        <v>3561</v>
+      </c>
+      <c r="R63" s="29">
         <v>9778</v>
       </c>
-      <c r="S61" s="40">
+      <c r="S63" s="29">
         <v>7054</v>
       </c>
-      <c r="T61" s="40">
+      <c r="T63" s="29">
         <v>5243</v>
       </c>
-      <c r="U61" s="40">
+      <c r="U63" s="29">
         <v>4853</v>
       </c>
-      <c r="AD61" s="40">
-        <f>R61</f>
+      <c r="AC63" s="29">
+        <f>J63</f>
+        <v>2870</v>
+      </c>
+      <c r="AD63" s="29">
+        <f t="shared" ref="AD63" si="105">AC63+N63</f>
+        <v>6431</v>
+      </c>
+      <c r="AE63" s="29">
+        <f>R63</f>
         <v>9778</v>
       </c>
     </row>
-    <row r="62" spans="2:30">
-      <c r="B62" s="1" t="s">
+    <row r="64" spans="2:31">
+      <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="40">
-        <f t="shared" ref="C62:T62" si="51">C61+C59</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="40">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="40">
-        <f t="shared" si="51"/>
+      <c r="C64" s="29">
+        <f t="shared" ref="C64:T64" si="106">C63+C61</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="29">
+        <f t="shared" si="106"/>
+        <v>2870</v>
+      </c>
+      <c r="J64" s="29">
+        <f t="shared" si="106"/>
+        <v>18174</v>
+      </c>
+      <c r="K64" s="29">
+        <f t="shared" si="106"/>
+        <v>18929</v>
+      </c>
+      <c r="L64" s="29">
+        <f t="shared" si="106"/>
+        <v>20014</v>
+      </c>
+      <c r="M64" s="29">
+        <f t="shared" si="106"/>
+        <v>18421</v>
+      </c>
+      <c r="N64" s="29">
+        <f t="shared" si="106"/>
+        <v>19310</v>
+      </c>
+      <c r="O64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="29">
+        <f t="shared" si="106"/>
         <v>26626</v>
       </c>
-      <c r="S62" s="40">
-        <f t="shared" si="51"/>
+      <c r="S64" s="29">
+        <f t="shared" si="106"/>
         <v>22980</v>
       </c>
-      <c r="T62" s="40">
-        <f t="shared" si="51"/>
+      <c r="T64" s="29">
+        <f t="shared" si="106"/>
         <v>19653</v>
       </c>
-      <c r="U62" s="40">
-        <f>U61+U59</f>
+      <c r="U64" s="29">
+        <f>U63+U61</f>
         <v>19097</v>
       </c>
-      <c r="Y62" s="40">
-        <f t="shared" ref="Y62" si="52">Y61+Y59</f>
-        <v>0</v>
-      </c>
-      <c r="Z62" s="40">
-        <f t="shared" ref="Z62" si="53">Z61+Z59</f>
-        <v>0</v>
-      </c>
-      <c r="AA62" s="40">
-        <f t="shared" ref="AA62" si="54">AA61+AA59</f>
-        <v>0</v>
-      </c>
-      <c r="AB62" s="40">
-        <f t="shared" ref="AB62" si="55">AB61+AB59</f>
-        <v>0</v>
-      </c>
-      <c r="AC62" s="40">
-        <f t="shared" ref="AC62" si="56">AC61+AC59</f>
-        <v>0</v>
-      </c>
-      <c r="AD62" s="40">
-        <f t="shared" ref="AD62" si="57">AD61+AD59</f>
+      <c r="Z64" s="29">
+        <f t="shared" ref="Z64" si="107">Z63+Z61</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="29">
+        <f t="shared" ref="AA64" si="108">AA63+AA61</f>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="29">
+        <f t="shared" ref="AB64" si="109">AB63+AB61</f>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="29">
+        <f t="shared" ref="AC64" si="110">AC63+AC61</f>
+        <v>18174</v>
+      </c>
+      <c r="AD64" s="29">
+        <f t="shared" ref="AD64" si="111">AD63+AD61</f>
+        <v>29726</v>
+      </c>
+      <c r="AE64" s="29">
+        <f t="shared" ref="AE64" si="112">AE63+AE61</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="63" spans="2:30">
-      <c r="U63" s="40"/>
-    </row>
-    <row r="64" spans="2:30">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="1:31">
+      <c r="U65" s="29"/>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R64" s="40">
-        <f>R47-R59</f>
+      <c r="J66" s="29">
+        <f>J47-J61</f>
+        <v>2870</v>
+      </c>
+      <c r="K66" s="29">
+        <f t="shared" ref="K66" si="113">K47-K61</f>
+        <v>2115</v>
+      </c>
+      <c r="L66" s="29">
+        <f t="shared" ref="L66" si="114">L47-L61</f>
+        <v>2902</v>
+      </c>
+      <c r="M66" s="29">
+        <f>M47-M61</f>
+        <v>2740</v>
+      </c>
+      <c r="N66" s="29">
+        <f>N47-N61</f>
+        <v>3561</v>
+      </c>
+      <c r="R66" s="29">
+        <f>R47-R61</f>
         <v>9778</v>
       </c>
-      <c r="S64" s="40">
-        <f>S47-S59</f>
+      <c r="S66" s="29">
+        <f>S47-S61</f>
         <v>7054</v>
       </c>
-      <c r="T64" s="40">
-        <f>T47-T59</f>
+      <c r="T66" s="29">
+        <f>T47-T61</f>
         <v>5243</v>
       </c>
-      <c r="U64" s="40">
-        <f>U47-U59</f>
+      <c r="U66" s="29">
+        <f>U47-U61</f>
         <v>4853</v>
       </c>
-      <c r="AD64" s="40">
-        <f>AD47-AD59</f>
+      <c r="AC66" s="29">
+        <f t="shared" ref="AC66:AD66" si="115">AC47-AC61</f>
+        <v>2870</v>
+      </c>
+      <c r="AD66" s="29">
+        <f t="shared" ref="AD66:AE66" si="116">AD47-AD61</f>
+        <v>11438</v>
+      </c>
+      <c r="AE66" s="29">
+        <f>AE47-AE61</f>
         <v>9778</v>
       </c>
     </row>
-    <row r="65" spans="2:30">
-      <c r="B65" s="1" t="s">
+    <row r="67" spans="1:31">
+      <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R65" s="1">
-        <f>R64/R22</f>
+      <c r="J67" s="1">
+        <f>J66/J22</f>
+        <v>3.5563816604708798</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" ref="K67" si="117">K66/K22</f>
+        <v>2.808764940239044</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" ref="L67" si="118">L66/L22</f>
+        <v>4.1280227596017074</v>
+      </c>
+      <c r="M67" s="1">
+        <f>M66/M22</f>
+        <v>3.9367816091954024</v>
+      </c>
+      <c r="N67" s="1">
+        <f>N66/N22</f>
+        <v>5.1758720930232558</v>
+      </c>
+      <c r="R67" s="1">
+        <f>R66/R22</f>
         <v>16.135313531353134</v>
       </c>
-      <c r="S65" s="1">
-        <f>S64/S22</f>
+      <c r="S67" s="1">
+        <f>S66/S22</f>
         <v>12.017035775127768</v>
       </c>
-      <c r="T65" s="1">
-        <f>T64/T22</f>
+      <c r="T67" s="1">
+        <f>T66/T22</f>
         <v>9.4298561151079134</v>
       </c>
-      <c r="U65" s="1">
-        <f>U64/U22</f>
+      <c r="U67" s="1">
+        <f>U66/U22</f>
         <v>8.9429996037272659</v>
       </c>
-      <c r="AD65" s="1">
-        <f>AD64/AD22</f>
+      <c r="AC67" s="1">
+        <f t="shared" ref="AC67" si="119">AC66/AC22</f>
+        <v>3.3804475853945819</v>
+      </c>
+      <c r="AD67" s="1">
+        <f t="shared" ref="AD67" si="120">AD66/AD22</f>
+        <v>16.109859154929577</v>
+      </c>
+      <c r="AE67" s="1">
+        <f>AE66/AE22</f>
         <v>14.996932515337424</v>
       </c>
     </row>
-    <row r="67" spans="2:30" s="45" customFormat="1">
-      <c r="B67" s="45" t="s">
+    <row r="69" spans="1:31" s="34" customFormat="1">
+      <c r="B69" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="R67" s="46">
+      <c r="C69" s="35">
+        <f t="shared" ref="C69:I69" si="121">C35+C36</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="35">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="35">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="35">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="35">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="35">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="35">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="35">
+        <f>J35+J36</f>
+        <v>2751</v>
+      </c>
+      <c r="K69" s="35">
+        <f t="shared" ref="K69:M69" si="122">K35+K36</f>
+        <v>4430</v>
+      </c>
+      <c r="L69" s="35">
+        <f t="shared" si="122"/>
+        <v>5303</v>
+      </c>
+      <c r="M69" s="35">
+        <f t="shared" si="122"/>
+        <v>3660</v>
+      </c>
+      <c r="N69" s="35">
+        <f>N35+N36</f>
+        <v>3826</v>
+      </c>
+      <c r="R69" s="35">
         <f>R35+R36</f>
         <v>7323</v>
       </c>
-      <c r="S67" s="46">
-        <f t="shared" ref="S67:T67" si="58">S35+S36</f>
+      <c r="S69" s="35">
+        <f t="shared" ref="S69" si="123">S35+S36</f>
         <v>5569</v>
       </c>
-      <c r="T67" s="46">
-        <f t="shared" ref="T67:U67" si="59">T35+T36</f>
+      <c r="T69" s="35">
+        <f t="shared" ref="T69" si="124">T35+T36</f>
         <v>3225</v>
       </c>
-      <c r="U67" s="46">
+      <c r="U69" s="35">
         <f>U35+U36</f>
         <v>3494</v>
       </c>
-      <c r="AD67" s="46">
-        <f>AD35+AD36</f>
+      <c r="AC69" s="35">
+        <f t="shared" ref="AC69:AD69" si="125">AC35+AC36</f>
+        <v>2751</v>
+      </c>
+      <c r="AD69" s="35">
+        <f t="shared" ref="AD69:AE69" si="126">AD35+AD36</f>
+        <v>3826</v>
+      </c>
+      <c r="AE69" s="35">
+        <f>AE35+AE36</f>
         <v>7323</v>
       </c>
     </row>
-    <row r="68" spans="2:30" s="45" customFormat="1">
-      <c r="B68" s="45" t="s">
+    <row r="70" spans="1:31" s="34" customFormat="1">
+      <c r="B70" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="R68" s="46">
-        <f>R49+R57</f>
+      <c r="C70" s="35">
+        <f t="shared" ref="C70:I70" si="127">C49+C59</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="35">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="35">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="35">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="35">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="35">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="35">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="35">
+        <f>J49+J59</f>
+        <v>7758</v>
+      </c>
+      <c r="K70" s="35">
+        <f t="shared" ref="K70:M70" si="128">K49+K59</f>
+        <v>8739</v>
+      </c>
+      <c r="L70" s="35">
+        <f t="shared" si="128"/>
+        <v>8677</v>
+      </c>
+      <c r="M70" s="35">
+        <f t="shared" si="128"/>
+        <v>7755</v>
+      </c>
+      <c r="N70" s="35">
+        <f>N49+N59</f>
+        <v>7763</v>
+      </c>
+      <c r="R70" s="35">
+        <f>R49+R59</f>
         <v>9082</v>
       </c>
-      <c r="S68" s="46">
-        <f t="shared" ref="S68:T68" si="60">S49+S57</f>
+      <c r="S70" s="35">
+        <f t="shared" ref="S70" si="129">S49+S59</f>
         <v>8333</v>
       </c>
-      <c r="T68" s="46">
-        <f t="shared" ref="T68:U68" si="61">T49+T57</f>
+      <c r="T70" s="35">
+        <f t="shared" ref="T70" si="130">T49+T59</f>
         <v>7728</v>
       </c>
-      <c r="U68" s="46">
-        <f>U49+U57</f>
+      <c r="U70" s="35">
+        <f>U49+U59</f>
         <v>7729</v>
       </c>
-      <c r="AD68" s="46">
-        <f>AD49+AD57</f>
+      <c r="AC70" s="35">
+        <f t="shared" ref="AC70:AD70" si="131">AC49+AC59</f>
+        <v>7758</v>
+      </c>
+      <c r="AD70" s="35">
+        <f t="shared" ref="AD70:AE70" si="132">AD49+AD59</f>
+        <v>7763</v>
+      </c>
+      <c r="AE70" s="35">
+        <f>AE49+AE59</f>
         <v>9082</v>
       </c>
     </row>
-    <row r="69" spans="2:30">
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:31">
+      <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R69" s="40">
-        <f>R67-R68</f>
+      <c r="C71" s="29">
+        <f t="shared" ref="C71" si="133">C69-C70</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="29">
+        <f t="shared" ref="D71" si="134">D69-D70</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="29">
+        <f t="shared" ref="E71" si="135">E69-E70</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="29">
+        <f t="shared" ref="F71" si="136">F69-F70</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="29">
+        <f t="shared" ref="G71" si="137">G69-G70</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="29">
+        <f t="shared" ref="H71" si="138">H69-H70</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="29">
+        <f t="shared" ref="I71" si="139">I69-I70</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="29">
+        <f>J69-J70</f>
+        <v>-5007</v>
+      </c>
+      <c r="K71" s="29">
+        <f t="shared" ref="K71:M71" si="140">K69-K70</f>
+        <v>-4309</v>
+      </c>
+      <c r="L71" s="29">
+        <f t="shared" si="140"/>
+        <v>-3374</v>
+      </c>
+      <c r="M71" s="29">
+        <f t="shared" si="140"/>
+        <v>-4095</v>
+      </c>
+      <c r="N71" s="29">
+        <f>N69-N70</f>
+        <v>-3937</v>
+      </c>
+      <c r="R71" s="29">
+        <f>R69-R70</f>
         <v>-1759</v>
       </c>
-      <c r="S69" s="40">
-        <f t="shared" ref="S69" si="62">S67-S68</f>
+      <c r="S71" s="29">
+        <f t="shared" ref="S71" si="141">S69-S70</f>
         <v>-2764</v>
       </c>
-      <c r="T69" s="40">
-        <f t="shared" ref="T69" si="63">T67-T68</f>
+      <c r="T71" s="29">
+        <f t="shared" ref="T71" si="142">T69-T70</f>
         <v>-4503</v>
       </c>
-      <c r="U69" s="40">
-        <f>U67-U68</f>
+      <c r="U71" s="29">
+        <f>U69-U70</f>
         <v>-4235</v>
       </c>
-      <c r="AD69" s="40">
-        <f>AD67-AD68</f>
+      <c r="AC71" s="29">
+        <f t="shared" ref="AC71" si="143">AC69-AC70</f>
+        <v>-5007</v>
+      </c>
+      <c r="AD71" s="29">
+        <f t="shared" ref="AD71" si="144">AD69-AD70</f>
+        <v>-3937</v>
+      </c>
+      <c r="AE71" s="29">
+        <f>AE69-AE70</f>
         <v>-1759</v>
       </c>
     </row>
-    <row r="71" spans="2:30">
-      <c r="B71" s="1" t="s">
+    <row r="73" spans="1:31">
+      <c r="B73" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="I73" s="1">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="J73" s="1">
+        <v>34.56</v>
+      </c>
+      <c r="K73" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="L73" s="1">
+        <v>50.61</v>
+      </c>
+      <c r="M73" s="1">
+        <v>50.42</v>
+      </c>
+      <c r="N73" s="1">
+        <v>48.78</v>
+      </c>
+      <c r="Q73" s="1">
         <v>68.209999999999994</v>
       </c>
-      <c r="R71" s="1">
+      <c r="R73" s="1">
         <v>65.27</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S73" s="1">
         <v>56.43</v>
       </c>
-      <c r="T71" s="1">
+      <c r="T73" s="1">
         <v>41.26</v>
       </c>
-      <c r="U71" s="1">
+      <c r="U73" s="1">
         <v>36.619999999999997</v>
       </c>
-      <c r="AD71" s="1">
-        <f>R71</f>
+      <c r="AC73" s="1">
+        <f>J73</f>
+        <v>34.56</v>
+      </c>
+      <c r="AD73" s="1">
+        <f>N73</f>
+        <v>48.78</v>
+      </c>
+      <c r="AE73" s="1">
+        <f>R73</f>
         <v>65.27</v>
       </c>
     </row>
-    <row r="72" spans="2:30">
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:31">
+      <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="37">
-        <f>Q71*Q22</f>
+      <c r="J74" s="5">
+        <f>J73*J22</f>
+        <v>27889.920000000002</v>
+      </c>
+      <c r="K74" s="5">
+        <f t="shared" ref="K74" si="145">K73*K22</f>
+        <v>21761.7</v>
+      </c>
+      <c r="L74" s="5">
+        <f t="shared" ref="L74" si="146">L73*L22</f>
+        <v>35578.83</v>
+      </c>
+      <c r="M74" s="5">
+        <f t="shared" ref="M74" si="147">M73*M22</f>
+        <v>35092.32</v>
+      </c>
+      <c r="N74" s="5">
+        <f>N73*N22</f>
+        <v>33560.639999999999</v>
+      </c>
+      <c r="Q74" s="5">
+        <f>Q73*Q22</f>
         <v>44882.179999999993</v>
       </c>
-      <c r="R72" s="37">
-        <f>R71*R22</f>
+      <c r="R74" s="5">
+        <f>R73*R22</f>
         <v>39553.619999999995</v>
       </c>
-      <c r="S72" s="37">
-        <f t="shared" ref="S72:T72" si="64">S71*S22</f>
+      <c r="S74" s="5">
+        <f t="shared" ref="S74:T74" si="148">S73*S22</f>
         <v>33124.409999999996</v>
       </c>
-      <c r="T72" s="37">
-        <f t="shared" si="64"/>
+      <c r="T74" s="5">
+        <f t="shared" si="148"/>
         <v>22940.559999999998</v>
       </c>
-      <c r="U72" s="37">
-        <f>U71*U22</f>
+      <c r="U74" s="5">
+        <f>U73*U22</f>
         <v>19872.175765939999</v>
       </c>
-      <c r="AD72" s="37">
-        <f>AD71*AD22</f>
+      <c r="AC74" s="5">
+        <f t="shared" ref="AC74" si="149">AC73*AC22</f>
+        <v>29341.440000000002</v>
+      </c>
+      <c r="AD74" s="5">
+        <f t="shared" ref="AD74" si="150">AD73*AD22</f>
+        <v>34633.800000000003</v>
+      </c>
+      <c r="AE74" s="5">
+        <f>AE73*AE22</f>
         <v>42556.04</v>
       </c>
     </row>
-    <row r="73" spans="2:30">
-      <c r="B73" s="1" t="s">
+    <row r="75" spans="1:31">
+      <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q73" s="37">
-        <f>Q72-Q69</f>
+      <c r="J75" s="5">
+        <f>J74-J71</f>
+        <v>32896.92</v>
+      </c>
+      <c r="K75" s="5">
+        <f t="shared" ref="K75" si="151">K74-K71</f>
+        <v>26070.7</v>
+      </c>
+      <c r="L75" s="5">
+        <f t="shared" ref="L75" si="152">L74-L71</f>
+        <v>38952.83</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" ref="M75" si="153">M74-M71</f>
+        <v>39187.32</v>
+      </c>
+      <c r="N75" s="5">
+        <f>N74-N71</f>
+        <v>37497.64</v>
+      </c>
+      <c r="Q75" s="5">
+        <f>Q74-Q71</f>
         <v>44882.179999999993</v>
       </c>
-      <c r="R73" s="37">
-        <f>R72-R69</f>
+      <c r="R75" s="5">
+        <f>R74-R71</f>
         <v>41312.619999999995</v>
       </c>
-      <c r="S73" s="37">
-        <f t="shared" ref="S73:T73" si="65">S72-S69</f>
+      <c r="S75" s="5">
+        <f t="shared" ref="S75:T75" si="154">S74-S71</f>
         <v>35888.409999999996</v>
       </c>
-      <c r="T73" s="37">
-        <f t="shared" si="65"/>
+      <c r="T75" s="5">
+        <f t="shared" si="154"/>
         <v>27443.559999999998</v>
       </c>
-      <c r="U73" s="37">
-        <f>U72-U69</f>
+      <c r="U75" s="5">
+        <f>U74-U71</f>
         <v>24107.175765939999</v>
       </c>
-      <c r="AD73" s="37">
-        <f>AD72-AD69</f>
+      <c r="AC75" s="5">
+        <f t="shared" ref="AC75" si="155">AC74-AC71</f>
+        <v>34348.44</v>
+      </c>
+      <c r="AD75" s="5">
+        <f t="shared" ref="AD75" si="156">AD74-AD71</f>
+        <v>38570.800000000003</v>
+      </c>
+      <c r="AE75" s="5">
+        <f>AE74-AE71</f>
         <v>44315.040000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:30" s="49" customFormat="1">
-      <c r="B75" s="49" t="s">
+    <row r="77" spans="1:31" s="38" customFormat="1">
+      <c r="A77" s="39">
+        <f>AVERAGE(C77:U77)</f>
+        <v>7.9678076930657182</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="R75" s="49">
-        <f>R71/R65</f>
+      <c r="J77" s="38">
+        <f>J73/J67</f>
+        <v>9.7177421602787462</v>
+      </c>
+      <c r="K77" s="38">
+        <f t="shared" ref="K77" si="157">K73/K67</f>
+        <v>10.289219858156027</v>
+      </c>
+      <c r="L77" s="38">
+        <f t="shared" ref="L77:M77" si="158">L73/L67</f>
+        <v>12.26010682288077</v>
+      </c>
+      <c r="M77" s="38">
+        <f t="shared" si="158"/>
+        <v>12.807416058394161</v>
+      </c>
+      <c r="N77" s="38">
+        <f>N73/N67</f>
+        <v>9.4244987363100261</v>
+      </c>
+      <c r="R77" s="38">
+        <f>R73/R67</f>
         <v>4.0451646553487421</v>
       </c>
-      <c r="S75" s="49">
-        <f>S71/S65</f>
+      <c r="S77" s="38">
+        <f>S73/S67</f>
         <v>4.695833569605897</v>
       </c>
-      <c r="T75" s="49">
-        <f>T71/T65</f>
+      <c r="T77" s="38">
+        <f>T73/T67</f>
         <v>4.3754644287621591</v>
       </c>
-      <c r="U75" s="49">
-        <f>U71/U65</f>
+      <c r="U77" s="38">
+        <f>U73/U67</f>
         <v>4.0948229478549347</v>
       </c>
-      <c r="AD75" s="49">
-        <f>AD71/AD65</f>
+      <c r="AC77" s="38">
+        <f t="shared" ref="AC77:AD77" si="159">AC73/AC67</f>
+        <v>10.223498257839722</v>
+      </c>
+      <c r="AD77" s="38">
+        <f t="shared" ref="AD77:AE77" si="160">AD73/AD67</f>
+        <v>3.0279594334673896</v>
+      </c>
+      <c r="AE77" s="38">
+        <f>AE73/AE67</f>
         <v>4.3522233585600327</v>
       </c>
     </row>
-    <row r="76" spans="2:30">
-      <c r="B76" s="1" t="s">
+    <row r="78" spans="1:31">
+      <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD76" s="49">
-        <f>AD72/AD4</f>
+      <c r="AC78" s="38">
+        <f t="shared" ref="AC78:AD78" si="161">AC74/AC4</f>
+        <v>3.2049634079737852</v>
+      </c>
+      <c r="AD78" s="38">
+        <f t="shared" ref="AD78:AE78" si="162">AD74/AD4</f>
+        <v>3.2328759451134137</v>
+      </c>
+      <c r="AE78" s="38">
+        <f>AE74/AE4</f>
         <v>4.0840729366602684</v>
       </c>
     </row>
-    <row r="77" spans="2:30">
-      <c r="B77" s="1" t="s">
+    <row r="79" spans="1:31">
+      <c r="B79" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD77" s="49">
-        <f>AD73/AD4</f>
+      <c r="AC79" s="38">
+        <f t="shared" ref="AC79:AD79" si="163">AC75/AC4</f>
+        <v>3.7518776624795196</v>
+      </c>
+      <c r="AD79" s="38">
+        <f t="shared" ref="AD79:AE79" si="164">AD75/AD4</f>
+        <v>3.6003733781387104</v>
+      </c>
+      <c r="AE79" s="38">
+        <f>AE75/AE4</f>
         <v>4.2528829174664109</v>
       </c>
     </row>
-    <row r="78" spans="2:30">
-      <c r="B78" s="1" t="s">
+    <row r="80" spans="1:31">
+      <c r="B80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD78" s="49">
-        <f>AD71/AD21</f>
+      <c r="AC80" s="38">
+        <f t="shared" ref="AC80:AD80" si="165">AC73/AC21</f>
+        <v>16.428577827547596</v>
+      </c>
+      <c r="AD80" s="38">
+        <f t="shared" ref="AD80:AE80" si="166">AD73/AD21</f>
+        <v>6.1114875595553206</v>
+      </c>
+      <c r="AE80" s="38">
+        <f>AE73/AE21</f>
         <v>3.1272810111699001</v>
       </c>
     </row>
-    <row r="79" spans="2:30">
-      <c r="B79" s="1" t="s">
+    <row r="81" spans="2:31">
+      <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AD79" s="49">
-        <f>AD73/AD20</f>
+      <c r="AC81" s="38">
+        <f t="shared" ref="AC81:AD81" si="167">AC75/AC20</f>
+        <v>19.232049272116463</v>
+      </c>
+      <c r="AD81" s="38">
+        <f t="shared" ref="AD81:AE81" si="168">AD75/AD20</f>
+        <v>6.8062113993294515</v>
+      </c>
+      <c r="AE81" s="38">
+        <f>AE75/AE20</f>
         <v>3.2565432098765434</v>
       </c>
     </row>
-    <row r="80" spans="2:30">
-      <c r="B80" s="1" t="s">
+    <row r="82" spans="2:31">
+      <c r="B82" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4414,14 +6237,20 @@
     <hyperlink ref="T1" r:id="rId2" xr:uid="{6A192FE3-6C0F-4DBB-A224-38F31257B5EE}"/>
     <hyperlink ref="S1" r:id="rId3" xr:uid="{5ED5459B-BD86-4BA7-A2DC-F8B34520EBBD}"/>
     <hyperlink ref="R1" r:id="rId4" xr:uid="{C4C49680-5B89-411F-8EB7-99308651B6F0}"/>
-    <hyperlink ref="AD1" r:id="rId5" xr:uid="{02AA5235-6A5F-4EFE-9939-09C66FA4C968}"/>
+    <hyperlink ref="AE1" r:id="rId5" xr:uid="{02AA5235-6A5F-4EFE-9939-09C66FA4C968}"/>
+    <hyperlink ref="N1" r:id="rId6" xr:uid="{0568B661-4E92-9D48-A872-D956A7EA9DB6}"/>
+    <hyperlink ref="AD1" r:id="rId7" xr:uid="{22A87107-1FE4-204B-9C07-8FE8E6C6EC9E}"/>
+    <hyperlink ref="M1" r:id="rId8" xr:uid="{9650ADDB-E1E0-8647-BABB-B7854A0392A2}"/>
+    <hyperlink ref="L1" r:id="rId9" xr:uid="{340F312E-E78C-194B-9379-10264A294398}"/>
+    <hyperlink ref="K1" r:id="rId10" xr:uid="{1EA5DAD6-79CA-2A4B-AA8F-3E57311BFB07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="AD4" formulaRange="1"/>
-    <ignoredError sqref="AD5:AD19" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AD54 AD39" formula="1"/>
+    <ignoredError sqref="AE4 AD4:AD5 AC4:AC5 AC20:AC22" formulaRange="1"/>
+    <ignoredError sqref="AE5:AE11 AE14:AE15 AE17 AE19 AD6:AD11 AD14:AD19 AC6:AC19" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AD39:AE39 AD56:AD61 AC39:AC62 AC64" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39854FD0-ACC5-5D45-8CE2-558BE3BDFEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4799475-D736-4BDB-891E-820D2053BF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
   <si>
     <t>$EBAY</t>
   </si>
@@ -417,6 +407,18 @@
   </si>
   <si>
     <t>FY15</t>
+  </si>
+  <si>
+    <t>Q117</t>
+  </si>
+  <si>
+    <t>Q217</t>
+  </si>
+  <si>
+    <t>Q317</t>
+  </si>
+  <si>
+    <t>Q417</t>
   </si>
 </sst>
 </file>
@@ -700,25 +702,10 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,6 +718,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,13 +823,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -871,13 +873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -923,7 +925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1211,7 +1213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1222,12 +1224,12 @@
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -1241,22 +1243,22 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="G5" s="40" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="3" t="s">
@@ -1281,10 +1283,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="5">
-        <f>'Financial Model'!U22</f>
+        <f>'Financial Model'!Y22</f>
         <v>542.659087</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="23" t="str">
+        <f>$C$28</f>
+        <v>Q322</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1319,10 +1324,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5">
-        <f>'Financial Model'!U69</f>
+        <f>'Financial Model'!Y69</f>
         <v>3494</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="23" t="str">
+        <f t="shared" ref="D9:D11" si="0">$C$28</f>
+        <v>Q322</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1338,10 +1346,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <f>'Financial Model'!U70</f>
+        <f>'Financial Model'!Y70</f>
         <v>7729</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
       <c r="G10" s="13"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1360,7 +1371,10 @@
         <f>C9-C10</f>
         <v>-4235</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
       <c r="G11" s="13"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1413,11 +1427,11 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1432,10 +1446,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="50"/>
       <c r="G16" s="13"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1450,10 +1464,10 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="50"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1466,8 +1480,8 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="7"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1482,10 +1496,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="43"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1519,11 +1533,11 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1538,10 +1552,10 @@
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="50"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1556,10 +1570,10 @@
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="49">
         <v>1995</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="50"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1574,10 +1588,10 @@
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="49">
         <v>1998</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="50"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1604,8 +1618,8 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="9"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1624,7 +1638,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="36">
-        <f>'Financial Model'!U3</f>
+        <f>'Financial Model'!Y3</f>
         <v>37561</v>
       </c>
       <c r="G28" s="13"/>
@@ -1641,10 +1655,10 @@
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="45"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -1656,76 +1670,71 @@
       <c r="O29" s="16"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="43">
-        <f>C6/'Financial Model'!U67</f>
+      <c r="C33" s="40">
+        <f>C6/'Financial Model'!Y67</f>
         <v>4.5599912565134968</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="43">
-        <f>C8/SUM('Financial Model'!R4:U4)</f>
+      <c r="C34" s="40">
+        <f>C8/SUM('Financial Model'!V4:Y4)</f>
         <v>2.235768596469994</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="41"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="43">
-        <f>C12/SUM('Financial Model'!R4:U4)</f>
+      <c r="C35" s="40">
+        <f>C12/SUM('Financial Model'!V4:Y4)</f>
         <v>2.663632811462922</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="43">
-        <f>C6/SUM('Financial Model'!R21:U21)</f>
+      <c r="C36" s="40">
+        <f>C6/SUM('Financial Model'!V21:Y21)</f>
         <v>-347.03384754378123</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="43">
-        <f>C12/SUM('Financial Model'!R20:U20)</f>
+      <c r="C37" s="40">
+        <f>C12/SUM('Financial Model'!V20:Y20)</f>
         <v>941.59419885214288</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1741,6 +1750,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{D9973FEA-B39E-4DD3-8417-80042015C44B}"/>
@@ -1756,369 +1770,423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DA9FF5-18B2-4F1B-8BED-7AF64467FA45}">
-  <dimension ref="A1:AP82"/>
+  <dimension ref="A1:AT82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:AE2"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" s="20" customFormat="1">
+    <row r="1" spans="2:46" s="20" customFormat="1">
       <c r="C1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="I1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="J1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="O1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AF1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AH1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AI1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AL1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AM1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AN1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AO1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AP1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AR1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AS1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AT1" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:42" s="22" customFormat="1">
+    <row r="2" spans="2:46" s="22" customFormat="1">
       <c r="B2" s="21"/>
-      <c r="G2" s="27">
+      <c r="E2" s="27">
+        <v>43008</v>
+      </c>
+      <c r="F2" s="27">
+        <v>43100</v>
+      </c>
+      <c r="I2" s="27">
+        <v>43373</v>
+      </c>
+      <c r="J2" s="27">
+        <v>43465</v>
+      </c>
+      <c r="K2" s="27">
         <v>43555</v>
       </c>
-      <c r="H2" s="27">
+      <c r="L2" s="27">
         <v>43646</v>
       </c>
-      <c r="I2" s="27">
+      <c r="M2" s="27">
         <v>43738</v>
       </c>
-      <c r="J2" s="27">
+      <c r="N2" s="27">
         <v>43830</v>
       </c>
-      <c r="K2" s="27">
+      <c r="O2" s="27">
         <v>43921</v>
       </c>
-      <c r="L2" s="27">
+      <c r="P2" s="27">
         <v>44012</v>
       </c>
-      <c r="M2" s="27">
+      <c r="Q2" s="27">
         <v>44104</v>
       </c>
-      <c r="N2" s="27">
+      <c r="R2" s="27">
         <v>44196</v>
       </c>
-      <c r="O2" s="27">
+      <c r="S2" s="27">
         <v>44286</v>
       </c>
-      <c r="P2" s="27">
+      <c r="T2" s="27">
         <v>44377</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="U2" s="27">
         <v>44469</v>
       </c>
-      <c r="R2" s="27">
+      <c r="V2" s="27">
         <v>44561</v>
       </c>
-      <c r="S2" s="27">
+      <c r="W2" s="27">
         <v>44651</v>
       </c>
-      <c r="T2" s="27">
+      <c r="X2" s="27">
         <v>44742</v>
       </c>
-      <c r="U2" s="27">
+      <c r="Y2" s="27">
         <v>44834</v>
       </c>
-      <c r="AC2" s="27">
-        <f>J2</f>
+      <c r="AG2" s="27">
+        <f>N2</f>
         <v>43830</v>
       </c>
-      <c r="AD2" s="27">
-        <f>N2</f>
+      <c r="AH2" s="27">
+        <f>R2</f>
         <v>44196</v>
       </c>
-      <c r="AE2" s="27">
+      <c r="AI2" s="27">
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="2:42" s="22" customFormat="1">
+    <row r="3" spans="2:46" s="22" customFormat="1">
       <c r="B3" s="21"/>
-      <c r="K3" s="26">
+      <c r="I3" s="26">
+        <v>11232</v>
+      </c>
+      <c r="J3" s="26">
+        <v>47119</v>
+      </c>
+      <c r="O3" s="26">
         <v>47209</v>
       </c>
-      <c r="L3" s="26">
+      <c r="P3" s="26">
         <v>46935</v>
       </c>
-      <c r="M3" s="26">
+      <c r="Q3" s="26">
         <v>47027</v>
       </c>
-      <c r="N3" s="26">
+      <c r="R3" s="26">
         <v>37653</v>
       </c>
-      <c r="R3" s="26">
+      <c r="V3" s="26">
         <v>44958</v>
       </c>
-      <c r="S3" s="26">
+      <c r="W3" s="26">
         <v>38108</v>
       </c>
-      <c r="T3" s="26">
+      <c r="X3" s="26">
         <v>37834</v>
       </c>
-      <c r="U3" s="26">
+      <c r="Y3" s="26">
         <v>37561</v>
       </c>
-      <c r="AD3" s="26">
-        <f>N3</f>
+      <c r="AH3" s="26">
+        <f>R3</f>
         <v>37653</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AI3" s="26">
         <v>44958</v>
       </c>
     </row>
-    <row r="4" spans="2:42" s="2" customFormat="1">
+    <row r="4" spans="2:46" s="2" customFormat="1">
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28">
+      <c r="E4" s="28">
+        <v>2498</v>
+      </c>
+      <c r="F4" s="28">
+        <v>2707</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <v>2649</v>
+      </c>
+      <c r="J4" s="28">
+        <v>2877</v>
+      </c>
+      <c r="K4" s="28">
         <v>2413</v>
       </c>
-      <c r="H4" s="28">
+      <c r="L4" s="28">
         <v>2423</v>
       </c>
-      <c r="I4" s="28">
+      <c r="M4" s="28">
         <v>2083</v>
       </c>
-      <c r="J4" s="28">
+      <c r="N4" s="28">
         <v>2236</v>
       </c>
-      <c r="K4" s="28">
+      <c r="O4" s="28">
         <v>2374</v>
       </c>
-      <c r="L4" s="28">
+      <c r="P4" s="28">
         <v>2865</v>
       </c>
-      <c r="M4" s="28">
+      <c r="Q4" s="28">
         <v>2606</v>
       </c>
-      <c r="N4" s="28">
+      <c r="R4" s="28">
         <v>2868</v>
       </c>
-      <c r="O4" s="28">
+      <c r="S4" s="28">
         <v>2638</v>
       </c>
-      <c r="P4" s="28">
+      <c r="T4" s="28">
         <v>2668</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="U4" s="28">
         <v>2501</v>
       </c>
-      <c r="R4" s="28">
+      <c r="V4" s="28">
         <v>2613</v>
       </c>
-      <c r="S4" s="28">
+      <c r="W4" s="28">
         <v>2483</v>
       </c>
-      <c r="T4" s="28">
+      <c r="X4" s="28">
         <v>2422</v>
       </c>
-      <c r="U4" s="28">
+      <c r="Y4" s="28">
         <v>2380</v>
       </c>
-      <c r="AC4" s="28">
-        <f>SUM(G4:J4)</f>
+      <c r="AG4" s="28">
+        <f>SUM(K4:N4)</f>
         <v>9155</v>
       </c>
-      <c r="AD4" s="28">
-        <f>SUM(K4:N4)</f>
+      <c r="AH4" s="28">
+        <f>SUM(O4:R4)</f>
         <v>10713</v>
       </c>
-      <c r="AE4" s="28">
-        <f>SUM(O4:R4)</f>
+      <c r="AI4" s="28">
+        <f>SUM(S4:V4)</f>
         <v>10420</v>
       </c>
     </row>
-    <row r="5" spans="2:42">
+    <row r="5" spans="2:46">
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29">
+      <c r="E5" s="29">
+        <v>557</v>
+      </c>
+      <c r="F5" s="29">
+        <v>590</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29">
+        <v>608</v>
+      </c>
+      <c r="J5" s="29">
+        <v>618</v>
+      </c>
+      <c r="K5" s="29">
         <v>539</v>
       </c>
-      <c r="H5" s="29">
+      <c r="L5" s="29">
         <v>553</v>
       </c>
-      <c r="I5" s="29">
+      <c r="M5" s="29">
         <v>530</v>
       </c>
-      <c r="J5" s="29">
+      <c r="N5" s="29">
         <v>556</v>
       </c>
-      <c r="K5" s="29">
+      <c r="O5" s="29">
         <v>526</v>
       </c>
-      <c r="L5" s="29">
+      <c r="P5" s="29">
         <v>598</v>
       </c>
-      <c r="M5" s="29">
+      <c r="Q5" s="29">
         <v>656</v>
       </c>
-      <c r="N5" s="29">
+      <c r="R5" s="29">
         <v>742</v>
       </c>
-      <c r="O5" s="29">
+      <c r="S5" s="29">
         <v>606</v>
       </c>
-      <c r="P5" s="29">
+      <c r="T5" s="29">
         <v>672</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="U5" s="29">
         <v>678</v>
       </c>
-      <c r="R5" s="29">
+      <c r="V5" s="29">
         <v>694</v>
       </c>
-      <c r="S5" s="29">
+      <c r="W5" s="29">
         <v>689</v>
       </c>
-      <c r="T5" s="29">
+      <c r="X5" s="29">
         <v>663</v>
       </c>
-      <c r="U5" s="29">
+      <c r="Y5" s="29">
         <v>647</v>
       </c>
-      <c r="AC5" s="29">
-        <f>SUM(G5:J5)</f>
+      <c r="AG5" s="29">
+        <f>SUM(K5:N5)</f>
         <v>2178</v>
       </c>
-      <c r="AD5" s="29">
-        <f>SUM(K5:N5)</f>
+      <c r="AH5" s="29">
+        <f>SUM(O5:R5)</f>
         <v>2522</v>
       </c>
-      <c r="AE5" s="29">
-        <f>SUM(O5:R5)</f>
+      <c r="AI5" s="29">
+        <f>SUM(S5:V5)</f>
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="2:42" s="2" customFormat="1">
+    <row r="6" spans="2:46" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="28">
-        <f t="shared" ref="C6:T6" si="0">C4-C5</f>
+        <f t="shared" ref="C6:F6" si="0">C4-C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="28">
@@ -2127,615 +2195,723 @@
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1941</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2117</v>
       </c>
       <c r="G6" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G6:X6" si="1">G4-G5</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" si="1"/>
+        <v>2259</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" si="1"/>
         <v>1874</v>
       </c>
-      <c r="H6" s="28">
-        <f t="shared" si="0"/>
+      <c r="L6" s="28">
+        <f t="shared" si="1"/>
         <v>1870</v>
       </c>
-      <c r="I6" s="28">
-        <f t="shared" si="0"/>
+      <c r="M6" s="28">
+        <f t="shared" si="1"/>
         <v>1553</v>
       </c>
-      <c r="J6" s="28">
-        <f t="shared" si="0"/>
+      <c r="N6" s="28">
+        <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="K6" s="28">
-        <f t="shared" si="0"/>
+      <c r="O6" s="28">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
-      <c r="L6" s="28">
-        <f t="shared" si="0"/>
+      <c r="P6" s="28">
+        <f t="shared" si="1"/>
         <v>2267</v>
       </c>
-      <c r="M6" s="28">
-        <f t="shared" si="0"/>
+      <c r="Q6" s="28">
+        <f t="shared" si="1"/>
         <v>1950</v>
       </c>
-      <c r="N6" s="28">
-        <f t="shared" si="0"/>
+      <c r="R6" s="28">
+        <f t="shared" si="1"/>
         <v>2126</v>
       </c>
-      <c r="O6" s="28">
-        <f t="shared" si="0"/>
+      <c r="S6" s="28">
+        <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="P6" s="28">
-        <f t="shared" si="0"/>
+      <c r="T6" s="28">
+        <f t="shared" si="1"/>
         <v>1996</v>
       </c>
-      <c r="Q6" s="28">
-        <f t="shared" si="0"/>
+      <c r="U6" s="28">
+        <f t="shared" si="1"/>
         <v>1823</v>
       </c>
-      <c r="R6" s="28">
-        <f t="shared" si="0"/>
+      <c r="V6" s="28">
+        <f t="shared" si="1"/>
         <v>1919</v>
       </c>
-      <c r="S6" s="28">
-        <f t="shared" si="0"/>
+      <c r="W6" s="28">
+        <f t="shared" si="1"/>
         <v>1794</v>
       </c>
-      <c r="T6" s="28">
-        <f t="shared" si="0"/>
+      <c r="X6" s="28">
+        <f t="shared" si="1"/>
         <v>1759</v>
       </c>
-      <c r="U6" s="28">
-        <f>U4-U5</f>
+      <c r="Y6" s="28">
+        <f>Y4-Y5</f>
         <v>1733</v>
       </c>
-      <c r="AC6" s="28">
-        <f>AC4-AC5</f>
+      <c r="AG6" s="28">
+        <f>AG4-AG5</f>
         <v>6977</v>
       </c>
-      <c r="AD6" s="28">
-        <f>AD4-AD5</f>
+      <c r="AH6" s="28">
+        <f>AH4-AH5</f>
         <v>8191</v>
       </c>
-      <c r="AE6" s="28">
-        <f>AE4-AE5</f>
+      <c r="AI6" s="28">
+        <f>AI4-AI5</f>
         <v>7770</v>
       </c>
     </row>
-    <row r="7" spans="2:42">
+    <row r="7" spans="2:46">
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="E7" s="29">
+        <v>719</v>
+      </c>
+      <c r="F7" s="29">
+        <v>784</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29">
+        <v>852</v>
+      </c>
+      <c r="J7" s="29">
+        <v>945</v>
+      </c>
+      <c r="K7" s="29">
         <v>647</v>
       </c>
-      <c r="H7" s="29">
+      <c r="L7" s="29">
         <v>688</v>
       </c>
-      <c r="I7" s="29">
+      <c r="M7" s="29">
         <v>577</v>
       </c>
-      <c r="J7" s="29">
+      <c r="N7" s="29">
         <v>637</v>
       </c>
-      <c r="K7" s="29">
+      <c r="O7" s="29">
         <v>607</v>
       </c>
-      <c r="L7" s="29">
+      <c r="P7" s="29">
         <v>716</v>
       </c>
-      <c r="M7" s="29">
+      <c r="Q7" s="29">
         <v>660</v>
       </c>
-      <c r="N7" s="29">
+      <c r="R7" s="29">
         <v>804</v>
       </c>
-      <c r="O7" s="29">
+      <c r="S7" s="29">
         <v>546</v>
       </c>
-      <c r="P7" s="29">
+      <c r="T7" s="29">
         <v>559</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="U7" s="29">
         <v>496</v>
       </c>
-      <c r="R7" s="29">
+      <c r="V7" s="29">
         <v>569</v>
       </c>
-      <c r="S7" s="29">
+      <c r="W7" s="29">
         <v>478</v>
       </c>
-      <c r="T7" s="29">
+      <c r="X7" s="29">
         <v>566</v>
       </c>
-      <c r="U7" s="29">
+      <c r="Y7" s="29">
         <v>538</v>
       </c>
-      <c r="AC7" s="29">
-        <f t="shared" ref="AC7:AC11" si="1">SUM(G7:J7)</f>
+      <c r="AG7" s="29">
+        <f t="shared" ref="AG7:AG11" si="2">SUM(K7:N7)</f>
         <v>2549</v>
       </c>
-      <c r="AD7" s="29">
-        <f t="shared" ref="AD7:AD11" si="2">SUM(K7:N7)</f>
+      <c r="AH7" s="29">
+        <f t="shared" ref="AH7:AH11" si="3">SUM(O7:R7)</f>
         <v>2787</v>
       </c>
-      <c r="AE7" s="29">
-        <f>SUM(O7:R7)</f>
+      <c r="AI7" s="29">
+        <f>SUM(S7:V7)</f>
         <v>2170</v>
       </c>
     </row>
-    <row r="8" spans="2:42">
+    <row r="8" spans="2:46">
       <c r="B8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29">
+      <c r="E8" s="29">
+        <v>316</v>
+      </c>
+      <c r="F8" s="29">
+        <v>317</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29">
+        <v>307</v>
+      </c>
+      <c r="J8" s="29">
+        <v>292</v>
+      </c>
+      <c r="K8" s="29">
         <v>272</v>
       </c>
-      <c r="H8" s="29">
+      <c r="L8" s="29">
         <v>295</v>
       </c>
-      <c r="I8" s="29">
+      <c r="M8" s="29">
         <v>243</v>
       </c>
-      <c r="J8" s="29">
+      <c r="N8" s="29">
         <v>241</v>
       </c>
-      <c r="K8" s="29">
+      <c r="O8" s="29">
         <v>267</v>
       </c>
-      <c r="L8" s="29">
+      <c r="P8" s="29">
         <v>308</v>
       </c>
-      <c r="M8" s="29">
+      <c r="Q8" s="29">
         <v>287</v>
       </c>
-      <c r="N8" s="29">
+      <c r="R8" s="29">
         <v>299</v>
       </c>
-      <c r="O8" s="29">
+      <c r="S8" s="29">
         <v>304</v>
       </c>
-      <c r="P8" s="29">
+      <c r="T8" s="29">
         <v>350</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="U8" s="29">
         <v>334</v>
       </c>
-      <c r="R8" s="29">
+      <c r="V8" s="29">
         <v>337</v>
       </c>
-      <c r="S8" s="29">
+      <c r="W8" s="29">
         <v>301</v>
       </c>
-      <c r="T8" s="29">
+      <c r="X8" s="29">
         <v>344</v>
       </c>
-      <c r="U8" s="29">
+      <c r="Y8" s="29">
         <v>345</v>
       </c>
-      <c r="AC8" s="29">
-        <f t="shared" si="1"/>
+      <c r="AG8" s="29">
+        <f t="shared" si="2"/>
         <v>1051</v>
       </c>
-      <c r="AD8" s="29">
-        <f t="shared" si="2"/>
+      <c r="AH8" s="29">
+        <f t="shared" si="3"/>
         <v>1161</v>
       </c>
-      <c r="AE8" s="29">
-        <f t="shared" ref="AE8:AE11" si="3">SUM(O8:R8)</f>
+      <c r="AI8" s="29">
+        <f t="shared" ref="AI8:AI11" si="4">SUM(S8:V8)</f>
         <v>1325</v>
       </c>
     </row>
-    <row r="9" spans="2:42">
+    <row r="9" spans="2:46">
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="E9" s="29">
+        <v>254</v>
+      </c>
+      <c r="F9" s="29">
+        <v>264</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29">
+        <v>248</v>
+      </c>
+      <c r="J9" s="29">
+        <v>245</v>
+      </c>
+      <c r="K9" s="29">
         <v>284</v>
       </c>
-      <c r="H9" s="29">
+      <c r="L9" s="29">
         <v>256</v>
       </c>
-      <c r="I9" s="29">
+      <c r="M9" s="29">
         <v>250</v>
       </c>
-      <c r="J9" s="29">
+      <c r="N9" s="29">
         <v>249</v>
       </c>
-      <c r="K9" s="29">
+      <c r="O9" s="29">
         <v>234</v>
       </c>
-      <c r="L9" s="29">
+      <c r="P9" s="29">
         <v>320</v>
       </c>
-      <c r="M9" s="29">
+      <c r="Q9" s="29">
         <v>258</v>
       </c>
-      <c r="N9" s="29">
+      <c r="R9" s="29">
         <v>253</v>
       </c>
-      <c r="O9" s="29">
+      <c r="S9" s="29">
         <v>246</v>
       </c>
-      <c r="P9" s="29">
+      <c r="T9" s="29">
         <v>250</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="U9" s="29">
         <v>219</v>
       </c>
-      <c r="R9" s="29">
+      <c r="V9" s="29">
         <v>206</v>
       </c>
-      <c r="S9" s="29">
+      <c r="W9" s="29">
         <v>226</v>
       </c>
-      <c r="T9" s="29">
+      <c r="X9" s="29">
         <v>237</v>
       </c>
-      <c r="U9" s="29">
+      <c r="Y9" s="29">
         <v>212</v>
       </c>
-      <c r="AC9" s="29">
-        <f t="shared" si="1"/>
+      <c r="AG9" s="29">
+        <f t="shared" si="2"/>
         <v>1039</v>
       </c>
-      <c r="AD9" s="29">
-        <f t="shared" si="2"/>
+      <c r="AH9" s="29">
+        <f t="shared" si="3"/>
         <v>1065</v>
       </c>
-      <c r="AE9" s="29">
-        <f t="shared" si="3"/>
+      <c r="AI9" s="29">
+        <f t="shared" si="4"/>
         <v>921</v>
       </c>
     </row>
-    <row r="10" spans="2:42">
+    <row r="10" spans="2:46">
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
+      <c r="E10" s="29">
+        <v>68</v>
+      </c>
+      <c r="F10" s="29">
+        <v>79</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29">
+        <v>65</v>
+      </c>
+      <c r="J10" s="29">
+        <v>83</v>
+      </c>
+      <c r="K10" s="29">
         <v>67</v>
       </c>
-      <c r="H10" s="29">
+      <c r="L10" s="29">
         <v>63</v>
       </c>
-      <c r="I10" s="29">
+      <c r="M10" s="29">
         <v>68</v>
       </c>
-      <c r="J10" s="29">
+      <c r="N10" s="29">
         <v>68</v>
       </c>
-      <c r="K10" s="29">
+      <c r="O10" s="29">
         <v>102</v>
       </c>
-      <c r="L10" s="29">
+      <c r="P10" s="29">
         <v>93</v>
       </c>
-      <c r="M10" s="29">
+      <c r="Q10" s="29">
         <v>60</v>
       </c>
-      <c r="N10" s="29">
+      <c r="R10" s="29">
         <v>86</v>
       </c>
-      <c r="O10" s="29">
+      <c r="S10" s="29">
         <v>88</v>
       </c>
-      <c r="P10" s="29">
+      <c r="T10" s="29">
         <v>103</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="U10" s="29">
         <v>112</v>
       </c>
-      <c r="R10" s="29">
+      <c r="V10" s="29">
         <v>119</v>
       </c>
-      <c r="S10" s="29">
+      <c r="W10" s="29">
         <v>96</v>
       </c>
-      <c r="T10" s="29">
+      <c r="X10" s="29">
         <v>86</v>
       </c>
-      <c r="U10" s="29">
+      <c r="Y10" s="29">
         <v>69</v>
       </c>
-      <c r="AC10" s="29">
-        <f t="shared" si="1"/>
+      <c r="AG10" s="29">
+        <f t="shared" si="2"/>
         <v>266</v>
       </c>
-      <c r="AD10" s="29">
-        <f t="shared" si="2"/>
+      <c r="AH10" s="29">
+        <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="AE10" s="29">
-        <f t="shared" si="3"/>
+      <c r="AI10" s="29">
+        <f t="shared" si="4"/>
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="2:42">
+    <row r="11" spans="2:46">
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29">
+      <c r="E11" s="29">
+        <v>10</v>
+      </c>
+      <c r="F11" s="29">
+        <v>10</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29">
+        <v>13</v>
+      </c>
+      <c r="J11" s="29">
+        <v>13</v>
+      </c>
+      <c r="K11" s="29">
         <v>11</v>
       </c>
-      <c r="H11" s="29">
+      <c r="L11" s="29">
         <v>10</v>
       </c>
-      <c r="I11" s="29">
+      <c r="M11" s="29">
         <v>7</v>
-      </c>
-      <c r="J11" s="29">
-        <v>7</v>
-      </c>
-      <c r="K11" s="29">
-        <v>9</v>
-      </c>
-      <c r="L11" s="29">
-        <v>9</v>
-      </c>
-      <c r="M11" s="29">
-        <v>6</v>
       </c>
       <c r="N11" s="29">
         <v>7</v>
       </c>
       <c r="O11" s="29">
+        <v>9</v>
+      </c>
+      <c r="P11" s="29">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>6</v>
+      </c>
+      <c r="R11" s="29">
         <v>7</v>
       </c>
-      <c r="P11" s="29">
+      <c r="S11" s="29">
+        <v>7</v>
+      </c>
+      <c r="T11" s="29">
         <v>2</v>
       </c>
-      <c r="Q11" s="29">
-        <v>0</v>
-      </c>
-      <c r="R11" s="29">
-        <v>0</v>
-      </c>
-      <c r="S11" s="29">
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="29">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
         <v>1</v>
       </c>
-      <c r="T11" s="29">
+      <c r="X11" s="29">
         <v>1</v>
       </c>
-      <c r="U11" s="29">
+      <c r="Y11" s="29">
         <v>1</v>
       </c>
-      <c r="AC11" s="29">
-        <f t="shared" si="1"/>
+      <c r="AG11" s="29">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="AD11" s="29">
-        <f t="shared" si="2"/>
+      <c r="AH11" s="29">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="AE11" s="29">
-        <f t="shared" si="3"/>
+      <c r="AI11" s="29">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:42">
+    <row r="12" spans="2:46">
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="29">
-        <f t="shared" ref="C12:T12" si="4">SUM(C7:C11)</f>
+        <f t="shared" ref="C12:F12" si="5">SUM(C7:C11)</f>
         <v>0</v>
       </c>
       <c r="D12" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1367</v>
       </c>
       <c r="F12" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1454</v>
       </c>
       <c r="G12" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G12:X12" si="6">SUM(G7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="6"/>
+        <v>1485</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="6"/>
+        <v>1578</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="6"/>
         <v>1281</v>
       </c>
-      <c r="H12" s="29">
-        <f t="shared" si="4"/>
+      <c r="L12" s="29">
+        <f t="shared" si="6"/>
         <v>1312</v>
       </c>
-      <c r="I12" s="29">
-        <f t="shared" si="4"/>
+      <c r="M12" s="29">
+        <f t="shared" si="6"/>
         <v>1145</v>
       </c>
-      <c r="J12" s="29">
-        <f t="shared" si="4"/>
+      <c r="N12" s="29">
+        <f t="shared" si="6"/>
         <v>1202</v>
       </c>
-      <c r="K12" s="29">
-        <f t="shared" si="4"/>
+      <c r="O12" s="29">
+        <f t="shared" si="6"/>
         <v>1219</v>
       </c>
-      <c r="L12" s="29">
-        <f t="shared" si="4"/>
+      <c r="P12" s="29">
+        <f t="shared" si="6"/>
         <v>1446</v>
       </c>
-      <c r="M12" s="29">
-        <f t="shared" si="4"/>
+      <c r="Q12" s="29">
+        <f t="shared" si="6"/>
         <v>1271</v>
       </c>
-      <c r="N12" s="29">
-        <f t="shared" si="4"/>
+      <c r="R12" s="29">
+        <f t="shared" si="6"/>
         <v>1449</v>
       </c>
-      <c r="O12" s="29">
-        <f t="shared" si="4"/>
+      <c r="S12" s="29">
+        <f t="shared" si="6"/>
         <v>1191</v>
       </c>
-      <c r="P12" s="29">
-        <f t="shared" si="4"/>
+      <c r="T12" s="29">
+        <f t="shared" si="6"/>
         <v>1264</v>
       </c>
-      <c r="Q12" s="29">
-        <f t="shared" si="4"/>
+      <c r="U12" s="29">
+        <f t="shared" si="6"/>
         <v>1161</v>
       </c>
-      <c r="R12" s="29">
-        <f t="shared" si="4"/>
+      <c r="V12" s="29">
+        <f t="shared" si="6"/>
         <v>1231</v>
       </c>
-      <c r="S12" s="29">
-        <f t="shared" si="4"/>
+      <c r="W12" s="29">
+        <f t="shared" si="6"/>
         <v>1102</v>
       </c>
-      <c r="T12" s="29">
-        <f t="shared" si="4"/>
+      <c r="X12" s="29">
+        <f t="shared" si="6"/>
         <v>1234</v>
       </c>
-      <c r="U12" s="29">
-        <f>SUM(U7:U11)</f>
+      <c r="Y12" s="29">
+        <f>SUM(Y7:Y11)</f>
         <v>1165</v>
       </c>
-      <c r="AC12" s="29">
-        <f t="shared" ref="AC12" si="5">SUM(AC7:AC11)</f>
+      <c r="AG12" s="29">
+        <f t="shared" ref="AG12" si="7">SUM(AG7:AG11)</f>
         <v>4940</v>
       </c>
-      <c r="AD12" s="29">
-        <f t="shared" ref="AD12" si="6">SUM(AD7:AD11)</f>
+      <c r="AH12" s="29">
+        <f t="shared" ref="AH12" si="8">SUM(AH7:AH11)</f>
         <v>5385</v>
       </c>
-      <c r="AE12" s="29">
-        <f>SUM(AE7:AE11)</f>
+      <c r="AI12" s="29">
+        <f>SUM(AI7:AI11)</f>
         <v>4847</v>
       </c>
     </row>
-    <row r="13" spans="2:42" s="2" customFormat="1">
+    <row r="13" spans="2:46" s="2" customFormat="1">
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="28">
-        <f t="shared" ref="C13:T13" si="7">C6-C12</f>
+        <f t="shared" ref="C13:F13" si="9">C6-C12</f>
         <v>0</v>
       </c>
       <c r="D13" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E13" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>574</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>663</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G13:X13" si="10">G6-G12</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="10"/>
+        <v>556</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="10"/>
+        <v>681</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="10"/>
         <v>593</v>
       </c>
-      <c r="H13" s="28">
-        <f t="shared" si="7"/>
+      <c r="L13" s="28">
+        <f t="shared" si="10"/>
         <v>558</v>
       </c>
-      <c r="I13" s="28">
-        <f t="shared" si="7"/>
+      <c r="M13" s="28">
+        <f t="shared" si="10"/>
         <v>408</v>
       </c>
-      <c r="J13" s="28">
-        <f t="shared" si="7"/>
+      <c r="N13" s="28">
+        <f t="shared" si="10"/>
         <v>478</v>
       </c>
-      <c r="K13" s="28">
-        <f t="shared" si="7"/>
+      <c r="O13" s="28">
+        <f t="shared" si="10"/>
         <v>629</v>
       </c>
-      <c r="L13" s="28">
-        <f t="shared" si="7"/>
+      <c r="P13" s="28">
+        <f t="shared" si="10"/>
         <v>821</v>
       </c>
-      <c r="M13" s="28">
-        <f t="shared" si="7"/>
+      <c r="Q13" s="28">
+        <f t="shared" si="10"/>
         <v>679</v>
       </c>
-      <c r="N13" s="28">
-        <f t="shared" si="7"/>
+      <c r="R13" s="28">
+        <f t="shared" si="10"/>
         <v>677</v>
       </c>
-      <c r="O13" s="28">
-        <f t="shared" si="7"/>
+      <c r="S13" s="28">
+        <f t="shared" si="10"/>
         <v>841</v>
       </c>
-      <c r="P13" s="28">
-        <f t="shared" si="7"/>
+      <c r="T13" s="28">
+        <f t="shared" si="10"/>
         <v>732</v>
       </c>
-      <c r="Q13" s="28">
-        <f t="shared" si="7"/>
+      <c r="U13" s="28">
+        <f t="shared" si="10"/>
         <v>662</v>
       </c>
-      <c r="R13" s="28">
-        <f t="shared" si="7"/>
+      <c r="V13" s="28">
+        <f t="shared" si="10"/>
         <v>688</v>
       </c>
-      <c r="S13" s="28">
-        <f t="shared" si="7"/>
+      <c r="W13" s="28">
+        <f t="shared" si="10"/>
         <v>692</v>
       </c>
-      <c r="T13" s="28">
-        <f t="shared" si="7"/>
+      <c r="X13" s="28">
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
-      <c r="U13" s="28">
-        <f>U6-U12</f>
+      <c r="Y13" s="28">
+        <f>Y6-Y12</f>
         <v>568</v>
       </c>
-      <c r="AC13" s="28">
-        <f t="shared" ref="AC13" si="8">AC6-AC12</f>
+      <c r="AG13" s="28">
+        <f t="shared" ref="AG13" si="11">AG6-AG12</f>
         <v>2037</v>
       </c>
-      <c r="AD13" s="28">
-        <f t="shared" ref="AD13" si="9">AD6-AD12</f>
+      <c r="AH13" s="28">
+        <f t="shared" ref="AH13" si="12">AH6-AH12</f>
         <v>2806</v>
       </c>
-      <c r="AE13" s="28">
-        <f>AE6-AE12</f>
+      <c r="AI13" s="28">
+        <f>AI6-AI12</f>
         <v>2923</v>
       </c>
     </row>
-    <row r="14" spans="2:42">
+    <row r="14" spans="2:46">
       <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <v>0</v>
-      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="29">
         <v>0</v>
       </c>
@@ -2755,784 +2931,920 @@
         <v>0</v>
       </c>
       <c r="O14" s="29">
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0</v>
+      </c>
+      <c r="S14" s="29">
         <v>-36</v>
       </c>
-      <c r="P14" s="29">
+      <c r="T14" s="29">
         <v>-273</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="U14" s="29">
         <v>-181</v>
       </c>
-      <c r="R14" s="29">
+      <c r="V14" s="29">
         <v>-1875</v>
       </c>
-      <c r="S14" s="29">
+      <c r="W14" s="29">
         <v>-2291</v>
       </c>
-      <c r="T14" s="29">
+      <c r="X14" s="29">
         <v>-1221</v>
       </c>
-      <c r="U14" s="29">
+      <c r="Y14" s="29">
         <v>-593</v>
       </c>
-      <c r="AC14" s="29">
-        <f t="shared" ref="AC14:AC15" si="10">SUM(G14:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="29">
-        <f t="shared" ref="AD14:AD19" si="11">SUM(K14:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="29">
-        <f t="shared" ref="AE14:AE15" si="12">SUM(O14:R14)</f>
+      <c r="AG14" s="29">
+        <f t="shared" ref="AG14:AG15" si="13">SUM(K14:N14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="29">
+        <f t="shared" ref="AH14:AH19" si="14">SUM(O14:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="29">
+        <f t="shared" ref="AI14:AI15" si="15">SUM(S14:V14)</f>
         <v>-2365</v>
       </c>
     </row>
-    <row r="15" spans="2:42">
+    <row r="15" spans="2:46">
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29">
+      <c r="E15" s="29">
+        <v>120</v>
+      </c>
+      <c r="F15" s="29">
+        <v>-102</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29">
+        <v>392</v>
+      </c>
+      <c r="J15" s="29">
+        <v>-165</v>
+      </c>
+      <c r="K15" s="29">
         <v>64</v>
       </c>
-      <c r="H15" s="29">
+      <c r="L15" s="29">
         <v>-51</v>
       </c>
-      <c r="I15" s="29">
+      <c r="M15" s="29">
         <v>-142</v>
       </c>
-      <c r="J15" s="29">
+      <c r="N15" s="29">
         <v>16</v>
       </c>
-      <c r="K15" s="29">
+      <c r="O15" s="29">
         <v>2</v>
       </c>
-      <c r="L15" s="29">
+      <c r="P15" s="29">
         <v>182</v>
       </c>
-      <c r="M15" s="29">
+      <c r="Q15" s="29">
         <v>95</v>
       </c>
-      <c r="N15" s="29">
+      <c r="R15" s="29">
         <v>432</v>
       </c>
-      <c r="O15" s="29">
+      <c r="S15" s="29">
         <v>-81</v>
       </c>
-      <c r="P15" s="29">
+      <c r="T15" s="29">
         <v>-58</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="U15" s="29">
         <v>-47</v>
       </c>
-      <c r="R15" s="29">
+      <c r="V15" s="29">
         <v>26</v>
       </c>
-      <c r="S15" s="29">
+      <c r="W15" s="29">
         <v>-50</v>
       </c>
-      <c r="T15" s="29">
+      <c r="X15" s="29">
         <v>-31</v>
       </c>
-      <c r="U15" s="29">
+      <c r="Y15" s="29">
         <v>-29</v>
       </c>
-      <c r="AC15" s="29">
-        <f t="shared" si="10"/>
+      <c r="AG15" s="29">
+        <f t="shared" si="13"/>
         <v>-113</v>
       </c>
-      <c r="AD15" s="29">
-        <f t="shared" si="11"/>
+      <c r="AH15" s="29">
+        <f t="shared" si="14"/>
         <v>711</v>
       </c>
-      <c r="AE15" s="29">
-        <f t="shared" si="12"/>
+      <c r="AI15" s="29">
+        <f t="shared" si="15"/>
         <v>-160</v>
       </c>
     </row>
-    <row r="16" spans="2:42">
+    <row r="16" spans="2:46">
       <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" ref="C16:T16" si="13">C13+C14+C15</f>
+        <f t="shared" ref="C16:F16" si="16">C13+C14+C15</f>
         <v>0</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>694</v>
       </c>
       <c r="F16" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>561</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G16:X16" si="17">G13+G14+G15</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
+        <f t="shared" si="17"/>
+        <v>948</v>
+      </c>
+      <c r="J16" s="29">
+        <f>J13+J14+J15</f>
+        <v>516</v>
+      </c>
+      <c r="K16" s="29">
+        <f t="shared" si="17"/>
         <v>657</v>
       </c>
-      <c r="H16" s="29">
-        <f t="shared" si="13"/>
+      <c r="L16" s="29">
+        <f t="shared" si="17"/>
         <v>507</v>
       </c>
-      <c r="I16" s="29">
-        <f t="shared" si="13"/>
+      <c r="M16" s="29">
+        <f t="shared" si="17"/>
         <v>266</v>
       </c>
-      <c r="J16" s="29">
-        <f t="shared" si="13"/>
+      <c r="N16" s="29">
+        <f t="shared" si="17"/>
         <v>494</v>
       </c>
-      <c r="K16" s="29">
-        <f t="shared" si="13"/>
+      <c r="O16" s="29">
+        <f t="shared" si="17"/>
         <v>631</v>
       </c>
-      <c r="L16" s="29">
-        <f t="shared" si="13"/>
+      <c r="P16" s="29">
+        <f t="shared" si="17"/>
         <v>1003</v>
       </c>
-      <c r="M16" s="29">
-        <f>M13+M14+M15</f>
+      <c r="Q16" s="29">
+        <f>Q13+Q14+Q15</f>
         <v>774</v>
       </c>
-      <c r="N16" s="29">
-        <f t="shared" si="13"/>
+      <c r="R16" s="29">
+        <f t="shared" si="17"/>
         <v>1109</v>
       </c>
-      <c r="O16" s="29">
-        <f t="shared" si="13"/>
+      <c r="S16" s="29">
+        <f t="shared" si="17"/>
         <v>724</v>
       </c>
-      <c r="P16" s="29">
-        <f t="shared" si="13"/>
+      <c r="T16" s="29">
+        <f t="shared" si="17"/>
         <v>401</v>
       </c>
-      <c r="Q16" s="29">
-        <f t="shared" si="13"/>
+      <c r="U16" s="29">
+        <f t="shared" si="17"/>
         <v>434</v>
       </c>
-      <c r="R16" s="29">
-        <f t="shared" si="13"/>
+      <c r="V16" s="29">
+        <f t="shared" si="17"/>
         <v>-1161</v>
       </c>
-      <c r="S16" s="29">
-        <f t="shared" si="13"/>
+      <c r="W16" s="29">
+        <f t="shared" si="17"/>
         <v>-1649</v>
       </c>
-      <c r="T16" s="29">
-        <f t="shared" si="13"/>
+      <c r="X16" s="29">
+        <f t="shared" si="17"/>
         <v>-727</v>
       </c>
-      <c r="U16" s="29">
-        <f>U13+U14+U15</f>
+      <c r="Y16" s="29">
+        <f>Y13+Y14+Y15</f>
         <v>-54</v>
       </c>
-      <c r="AC16" s="29">
-        <f t="shared" ref="AC16:AD16" si="14">AC13+AC14+AC15</f>
+      <c r="AG16" s="29">
+        <f t="shared" ref="AG16:AH16" si="18">AG13+AG14+AG15</f>
         <v>1924</v>
       </c>
-      <c r="AD16" s="29">
-        <f t="shared" si="14"/>
+      <c r="AH16" s="29">
+        <f t="shared" si="18"/>
         <v>3517</v>
       </c>
-      <c r="AE16" s="29">
-        <f>AE13+AE14+AE15</f>
+      <c r="AI16" s="29">
+        <f>AI13+AI14+AI15</f>
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:35">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29">
+      <c r="E17" s="29">
+        <v>-174</v>
+      </c>
+      <c r="F17" s="29">
+        <v>-3158</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29">
+        <v>-228</v>
+      </c>
+      <c r="J17" s="29">
+        <v>247</v>
+      </c>
+      <c r="K17" s="29">
         <v>-141</v>
       </c>
-      <c r="H17" s="29">
+      <c r="L17" s="29">
         <v>-107</v>
       </c>
-      <c r="I17" s="29">
+      <c r="M17" s="29">
         <v>-56</v>
       </c>
-      <c r="J17" s="29">
+      <c r="N17" s="29">
         <v>-25</v>
       </c>
-      <c r="K17" s="29">
+      <c r="O17" s="29">
         <v>-146</v>
       </c>
-      <c r="L17" s="29">
+      <c r="P17" s="29">
         <v>-263</v>
       </c>
-      <c r="M17" s="29">
+      <c r="Q17" s="29">
         <v>-153</v>
       </c>
-      <c r="N17" s="29">
+      <c r="R17" s="29">
         <v>-328</v>
       </c>
-      <c r="O17" s="29">
+      <c r="S17" s="29">
         <v>-156</v>
       </c>
-      <c r="P17" s="29">
+      <c r="T17" s="29">
         <v>-107</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="U17" s="29">
         <v>-151</v>
       </c>
-      <c r="R17" s="29">
+      <c r="V17" s="29">
         <v>268</v>
       </c>
-      <c r="S17" s="29">
+      <c r="W17" s="29">
         <v>310</v>
       </c>
-      <c r="T17" s="29">
+      <c r="X17" s="29">
         <v>191</v>
       </c>
-      <c r="U17" s="29">
+      <c r="Y17" s="29">
         <v>-16</v>
       </c>
-      <c r="AC17" s="29">
-        <f t="shared" ref="AC17" si="15">SUM(G17:J17)</f>
+      <c r="AG17" s="29">
+        <f t="shared" ref="AG17" si="19">SUM(K17:N17)</f>
         <v>-329</v>
       </c>
-      <c r="AD17" s="29">
-        <f t="shared" si="11"/>
+      <c r="AH17" s="29">
+        <f t="shared" si="14"/>
         <v>-890</v>
       </c>
-      <c r="AE17" s="29">
-        <f t="shared" ref="AE17" si="16">SUM(O17:R17)</f>
+      <c r="AI17" s="29">
+        <f t="shared" ref="AI17" si="20">SUM(S17:V17)</f>
         <v>-146</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="2:35">
       <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="29">
-        <f t="shared" ref="C18:T18" si="17">C16+C17</f>
+        <f t="shared" ref="C18:G18" si="21">C16+C17</f>
         <v>0</v>
       </c>
       <c r="D18" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E18" s="29">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>520</v>
       </c>
       <c r="F18" s="29">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>-2597</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="G18:X18" si="22">G16+G17</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="22"/>
+        <v>720</v>
+      </c>
+      <c r="J18" s="29">
+        <f t="shared" si="22"/>
+        <v>763</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="22"/>
         <v>516</v>
       </c>
-      <c r="H18" s="29">
-        <f t="shared" si="17"/>
+      <c r="L18" s="29">
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
-      <c r="I18" s="29">
-        <f t="shared" si="17"/>
+      <c r="M18" s="29">
+        <f t="shared" si="22"/>
         <v>210</v>
       </c>
-      <c r="J18" s="29">
-        <f t="shared" si="17"/>
+      <c r="N18" s="29">
+        <f t="shared" si="22"/>
         <v>469</v>
       </c>
-      <c r="K18" s="29">
-        <f t="shared" si="17"/>
+      <c r="O18" s="29">
+        <f t="shared" si="22"/>
         <v>485</v>
       </c>
-      <c r="L18" s="29">
-        <f t="shared" si="17"/>
+      <c r="P18" s="29">
+        <f t="shared" si="22"/>
         <v>740</v>
       </c>
-      <c r="M18" s="29">
-        <f t="shared" si="17"/>
+      <c r="Q18" s="29">
+        <f t="shared" si="22"/>
         <v>621</v>
       </c>
-      <c r="N18" s="29">
-        <f t="shared" si="17"/>
+      <c r="R18" s="29">
+        <f t="shared" si="22"/>
         <v>781</v>
       </c>
-      <c r="O18" s="29">
-        <f t="shared" si="17"/>
+      <c r="S18" s="29">
+        <f t="shared" si="22"/>
         <v>568</v>
       </c>
-      <c r="P18" s="29">
-        <f t="shared" si="17"/>
+      <c r="T18" s="29">
+        <f t="shared" si="22"/>
         <v>294</v>
       </c>
-      <c r="Q18" s="29">
-        <f t="shared" si="17"/>
+      <c r="U18" s="29">
+        <f t="shared" si="22"/>
         <v>283</v>
       </c>
-      <c r="R18" s="29">
-        <f t="shared" si="17"/>
+      <c r="V18" s="29">
+        <f t="shared" si="22"/>
         <v>-893</v>
       </c>
-      <c r="S18" s="29">
-        <f t="shared" si="17"/>
+      <c r="W18" s="29">
+        <f t="shared" si="22"/>
         <v>-1339</v>
       </c>
-      <c r="T18" s="29">
-        <f t="shared" si="17"/>
+      <c r="X18" s="29">
+        <f t="shared" si="22"/>
         <v>-536</v>
       </c>
-      <c r="U18" s="29">
-        <f>U16+U17</f>
+      <c r="Y18" s="29">
+        <f>Y16+Y17</f>
         <v>-70</v>
       </c>
-      <c r="AC18" s="29">
-        <f t="shared" ref="AC18:AD18" si="18">AC16+AC17</f>
+      <c r="AG18" s="29">
+        <f t="shared" ref="AG18:AH18" si="23">AG16+AG17</f>
         <v>1595</v>
       </c>
-      <c r="AD18" s="29">
-        <f t="shared" si="18"/>
+      <c r="AH18" s="29">
+        <f t="shared" si="23"/>
         <v>2627</v>
       </c>
-      <c r="AE18" s="29">
-        <f>AE16+AE17</f>
+      <c r="AI18" s="29">
+        <f>AI16+AI17</f>
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="2:35">
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="29">
+        <v>-4</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29">
+        <v>-3</v>
+      </c>
+      <c r="K19" s="29">
         <v>2</v>
       </c>
-      <c r="H19" s="29">
+      <c r="L19" s="29">
         <v>2</v>
       </c>
-      <c r="I19" s="29">
+      <c r="M19" s="29">
         <v>100</v>
       </c>
-      <c r="J19" s="29">
+      <c r="N19" s="29">
         <v>87</v>
       </c>
-      <c r="K19" s="29">
+      <c r="O19" s="29">
         <v>2927</v>
       </c>
-      <c r="L19" s="29">
+      <c r="P19" s="29">
         <v>6</v>
       </c>
-      <c r="M19" s="29">
+      <c r="Q19" s="29">
         <v>43</v>
       </c>
-      <c r="N19" s="29">
+      <c r="R19" s="29">
         <v>64</v>
       </c>
-      <c r="O19" s="29">
+      <c r="S19" s="29">
         <v>73</v>
       </c>
-      <c r="P19" s="29">
+      <c r="T19" s="29">
         <v>10440</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="U19" s="29">
         <v>-19</v>
       </c>
-      <c r="R19" s="29">
+      <c r="V19" s="29">
         <v>2862</v>
       </c>
-      <c r="S19" s="29">
+      <c r="W19" s="29">
         <v>-2</v>
       </c>
-      <c r="T19" s="29">
+      <c r="X19" s="29">
         <v>5</v>
       </c>
-      <c r="U19" s="29">
+      <c r="Y19" s="29">
         <v>1</v>
       </c>
-      <c r="AC19" s="29">
-        <f t="shared" ref="AC19" si="19">SUM(G19:J19)</f>
+      <c r="AG19" s="29">
+        <f t="shared" ref="AG19" si="24">SUM(K19:N19)</f>
         <v>191</v>
       </c>
-      <c r="AD19" s="29">
-        <f t="shared" si="11"/>
+      <c r="AH19" s="29">
+        <f t="shared" si="14"/>
         <v>3040</v>
       </c>
-      <c r="AE19" s="29">
-        <f t="shared" ref="AE19" si="20">SUM(O19:R19)</f>
+      <c r="AI19" s="29">
+        <f t="shared" ref="AI19" si="25">SUM(S19:V19)</f>
         <v>13356</v>
       </c>
     </row>
-    <row r="20" spans="2:31" s="2" customFormat="1">
+    <row r="20" spans="2:35" s="2" customFormat="1">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" ref="C20:T20" si="21">C18+C19</f>
+        <f t="shared" ref="C20:G20" si="26">C18+C19</f>
         <v>0</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>520</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-2601</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="G20:X20" si="27">G18+G19</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="27"/>
+        <v>721</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="27"/>
+        <v>760</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="27"/>
         <v>518</v>
       </c>
-      <c r="H20" s="28">
-        <f t="shared" si="21"/>
+      <c r="L20" s="28">
+        <f t="shared" si="27"/>
         <v>402</v>
       </c>
-      <c r="I20" s="28">
-        <f t="shared" si="21"/>
+      <c r="M20" s="28">
+        <f t="shared" si="27"/>
         <v>310</v>
       </c>
-      <c r="J20" s="28">
-        <f t="shared" si="21"/>
+      <c r="N20" s="28">
+        <f t="shared" si="27"/>
         <v>556</v>
       </c>
-      <c r="K20" s="28">
-        <f t="shared" si="21"/>
+      <c r="O20" s="28">
+        <f t="shared" si="27"/>
         <v>3412</v>
       </c>
-      <c r="L20" s="28">
-        <f t="shared" si="21"/>
+      <c r="P20" s="28">
+        <f t="shared" si="27"/>
         <v>746</v>
       </c>
-      <c r="M20" s="28">
-        <f t="shared" si="21"/>
+      <c r="Q20" s="28">
+        <f t="shared" si="27"/>
         <v>664</v>
       </c>
-      <c r="N20" s="28">
-        <f t="shared" si="21"/>
+      <c r="R20" s="28">
+        <f t="shared" si="27"/>
         <v>845</v>
       </c>
-      <c r="O20" s="28">
-        <f t="shared" si="21"/>
+      <c r="S20" s="28">
+        <f t="shared" si="27"/>
         <v>641</v>
       </c>
-      <c r="P20" s="28">
-        <f t="shared" si="21"/>
+      <c r="T20" s="28">
+        <f t="shared" si="27"/>
         <v>10734</v>
       </c>
-      <c r="Q20" s="28">
-        <f t="shared" si="21"/>
+      <c r="U20" s="28">
+        <f t="shared" si="27"/>
         <v>264</v>
       </c>
-      <c r="R20" s="28">
-        <f t="shared" si="21"/>
+      <c r="V20" s="28">
+        <f t="shared" si="27"/>
         <v>1969</v>
       </c>
-      <c r="S20" s="28">
-        <f t="shared" si="21"/>
+      <c r="W20" s="28">
+        <f t="shared" si="27"/>
         <v>-1341</v>
       </c>
-      <c r="T20" s="28">
-        <f t="shared" si="21"/>
+      <c r="X20" s="28">
+        <f t="shared" si="27"/>
         <v>-531</v>
       </c>
-      <c r="U20" s="28">
-        <f>U18+U19</f>
+      <c r="Y20" s="28">
+        <f>Y18+Y19</f>
         <v>-69</v>
       </c>
-      <c r="AC20" s="28">
-        <f t="shared" ref="AC20:AD20" si="22">AC18+AC19</f>
+      <c r="AG20" s="28">
+        <f t="shared" ref="AG20:AH20" si="28">AG18+AG19</f>
         <v>1786</v>
       </c>
-      <c r="AD20" s="28">
-        <f t="shared" si="22"/>
+      <c r="AH20" s="28">
+        <f t="shared" si="28"/>
         <v>5667</v>
       </c>
-      <c r="AE20" s="28">
-        <f>AE18+AE19</f>
+      <c r="AI20" s="28">
+        <f>AI18+AI19</f>
         <v>13608</v>
       </c>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="2:35">
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30">
-        <f t="shared" ref="G21:J21" si="23">G20/G22</f>
+      <c r="E21" s="30">
+        <f t="shared" ref="E21:F21" si="29">E20/E22</f>
+        <v>0.4896421845574388</v>
+      </c>
+      <c r="F21" s="30">
+        <f t="shared" si="29"/>
+        <v>-2.5130434782608697</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30">
+        <f t="shared" ref="I21:N21" si="30">I20/I22</f>
+        <v>0.74024640657084184</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="30"/>
         <v>0.5755555555555556</v>
       </c>
-      <c r="H21" s="30">
-        <f t="shared" si="23"/>
+      <c r="L21" s="30">
+        <f t="shared" si="30"/>
         <v>0.46744186046511627</v>
       </c>
-      <c r="I21" s="30">
-        <f t="shared" si="23"/>
+      <c r="M21" s="30">
+        <f t="shared" si="30"/>
         <v>0.37349397590361444</v>
       </c>
-      <c r="J21" s="30">
-        <f t="shared" si="23"/>
+      <c r="N21" s="30">
+        <f t="shared" si="30"/>
         <v>0.68897149938042135</v>
       </c>
-      <c r="K21" s="30">
-        <f t="shared" ref="K21:U21" si="24">K20/K22</f>
+      <c r="O21" s="30">
+        <f t="shared" ref="O21:Y21" si="31">O20/O22</f>
         <v>4.5312084993359898</v>
       </c>
-      <c r="L21" s="30">
-        <f t="shared" si="24"/>
+      <c r="P21" s="30">
+        <f t="shared" si="31"/>
         <v>1.0611664295874823</v>
       </c>
-      <c r="M21" s="30">
-        <f t="shared" si="24"/>
+      <c r="Q21" s="30">
+        <f t="shared" si="31"/>
         <v>0.95402298850574707</v>
       </c>
-      <c r="N21" s="30">
-        <f t="shared" si="24"/>
+      <c r="R21" s="30">
+        <f t="shared" si="31"/>
         <v>1.2281976744186047</v>
       </c>
-      <c r="O21" s="30">
-        <f t="shared" si="24"/>
+      <c r="S21" s="30">
+        <f t="shared" si="31"/>
         <v>0.94126284875183552</v>
       </c>
-      <c r="P21" s="30">
-        <f t="shared" si="24"/>
+      <c r="T21" s="30">
+        <f t="shared" si="31"/>
         <v>15.925816023738873</v>
       </c>
-      <c r="Q21" s="30">
-        <f t="shared" si="24"/>
+      <c r="U21" s="30">
+        <f t="shared" si="31"/>
         <v>0.40121580547112462</v>
       </c>
-      <c r="R21" s="30">
-        <f t="shared" si="24"/>
+      <c r="V21" s="30">
+        <f t="shared" si="31"/>
         <v>3.2491749174917492</v>
       </c>
-      <c r="S21" s="30">
-        <f t="shared" si="24"/>
+      <c r="W21" s="30">
+        <f t="shared" si="31"/>
         <v>-2.2844974446337307</v>
       </c>
-      <c r="T21" s="30">
-        <f t="shared" si="24"/>
+      <c r="X21" s="30">
+        <f t="shared" si="31"/>
         <v>-0.95503597122302153</v>
       </c>
-      <c r="U21" s="30">
-        <f t="shared" si="24"/>
+      <c r="Y21" s="30">
+        <f t="shared" si="31"/>
         <v>-0.12715165313356303</v>
       </c>
-      <c r="AC21" s="30">
-        <f>AC20/AC22</f>
+      <c r="AG21" s="30">
+        <f>AG20/AG22</f>
         <v>2.1036513545347466</v>
       </c>
-      <c r="AD21" s="30">
-        <f>AD20/AD22</f>
+      <c r="AH21" s="30">
+        <f>AH20/AH22</f>
         <v>7.9816901408450702</v>
       </c>
-      <c r="AE21" s="30">
-        <f>AE20/AE22</f>
+      <c r="AI21" s="30">
+        <f>AI20/AI22</f>
         <v>20.871165644171779</v>
       </c>
     </row>
-    <row r="22" spans="2:31" s="29" customFormat="1">
+    <row r="22" spans="2:35" s="29" customFormat="1">
       <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="29">
+      <c r="E22" s="29">
+        <v>1062</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1035</v>
+      </c>
+      <c r="I22" s="29">
+        <v>974</v>
+      </c>
+      <c r="J22" s="29">
+        <v>950</v>
+      </c>
+      <c r="K22" s="29">
         <v>900</v>
       </c>
-      <c r="H22" s="29">
+      <c r="L22" s="29">
         <v>860</v>
       </c>
-      <c r="I22" s="29">
+      <c r="M22" s="29">
         <v>830</v>
       </c>
-      <c r="J22" s="29">
+      <c r="N22" s="29">
         <v>807</v>
       </c>
-      <c r="K22" s="29">
+      <c r="O22" s="29">
         <v>753</v>
       </c>
-      <c r="L22" s="29">
+      <c r="P22" s="29">
         <v>703</v>
       </c>
-      <c r="M22" s="29">
+      <c r="Q22" s="29">
         <v>696</v>
       </c>
-      <c r="N22" s="29">
+      <c r="R22" s="29">
         <v>688</v>
       </c>
-      <c r="O22" s="29">
+      <c r="S22" s="29">
         <v>681</v>
       </c>
-      <c r="P22" s="29">
+      <c r="T22" s="29">
         <v>674</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="U22" s="29">
         <v>658</v>
       </c>
-      <c r="R22" s="29">
+      <c r="V22" s="29">
         <v>606</v>
       </c>
-      <c r="S22" s="29">
+      <c r="W22" s="29">
         <v>587</v>
       </c>
-      <c r="T22" s="29">
+      <c r="X22" s="29">
         <v>556</v>
       </c>
-      <c r="U22" s="29">
+      <c r="Y22" s="29">
         <v>542.659087</v>
       </c>
-      <c r="AC22" s="29">
+      <c r="AG22" s="29">
         <v>849</v>
       </c>
-      <c r="AD22" s="29">
+      <c r="AH22" s="29">
         <v>710</v>
       </c>
-      <c r="AE22" s="29">
+      <c r="AI22" s="29">
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="2:31" s="2" customFormat="1">
+    <row r="24" spans="2:35" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="31">
-        <f>K4/G4-1</f>
+      <c r="I24" s="31">
+        <f t="shared" ref="I24:J24" si="32">I4/E4-1</f>
+        <v>6.0448358686949533E-2</v>
+      </c>
+      <c r="J24" s="31">
+        <f t="shared" si="32"/>
+        <v>6.2800147765053493E-2</v>
+      </c>
+      <c r="N24" s="31">
+        <f t="shared" ref="N24" si="33">N4/J4-1</f>
+        <v>-0.22280152937087239</v>
+      </c>
+      <c r="O24" s="31">
+        <f>O4/K4-1</f>
         <v>-1.6162453377538299E-2</v>
       </c>
-      <c r="L24" s="31">
-        <f>L4/H4-1</f>
+      <c r="P24" s="31">
+        <f>P4/L4-1</f>
         <v>0.18241848947585648</v>
-      </c>
-      <c r="M24" s="31">
-        <f>M4/I4-1</f>
-        <v>0.25108017282765238</v>
-      </c>
-      <c r="N24" s="31">
-        <f>N4/J4-1</f>
-        <v>0.28264758497316644</v>
-      </c>
-      <c r="O24" s="31">
-        <f t="shared" ref="O24:P24" si="25">O4/K4-1</f>
-        <v>0.11120471777590568</v>
-      </c>
-      <c r="P24" s="31">
-        <f t="shared" si="25"/>
-        <v>-6.8760907504363034E-2</v>
       </c>
       <c r="Q24" s="31">
         <f>Q4/M4-1</f>
-        <v>-4.0291634689178846E-2</v>
+        <v>0.25108017282765238</v>
       </c>
       <c r="R24" s="31">
         <f>R4/N4-1</f>
-        <v>-8.8912133891213441E-2</v>
+        <v>0.28264758497316644</v>
       </c>
       <c r="S24" s="31">
-        <f>S4/O4-1</f>
-        <v>-5.8756633813495052E-2</v>
+        <f t="shared" ref="S24:T24" si="34">S4/O4-1</f>
+        <v>0.11120471777590568</v>
       </c>
       <c r="T24" s="31">
-        <f>T4/P4-1</f>
-        <v>-9.2203898050974509E-2</v>
+        <f t="shared" si="34"/>
+        <v>-6.8760907504363034E-2</v>
       </c>
       <c r="U24" s="31">
         <f>U4/Q4-1</f>
+        <v>-4.0291634689178846E-2</v>
+      </c>
+      <c r="V24" s="31">
+        <f>V4/R4-1</f>
+        <v>-8.8912133891213441E-2</v>
+      </c>
+      <c r="W24" s="31">
+        <f>W4/S4-1</f>
+        <v>-5.8756633813495052E-2</v>
+      </c>
+      <c r="X24" s="31">
+        <f>X4/T4-1</f>
+        <v>-9.2203898050974509E-2</v>
+      </c>
+      <c r="Y24" s="31">
+        <f>Y4/U4-1</f>
         <v>-4.8380647740903671E-2</v>
       </c>
-      <c r="AD24" s="31">
-        <f>AD4/AC4-1</f>
+      <c r="AH24" s="31">
+        <f>AH4/AG4-1</f>
         <v>0.17018022938285093</v>
       </c>
-      <c r="AE24" s="31">
-        <f>AE4/AD4-1</f>
+      <c r="AI24" s="31">
+        <f>AI4/AH4-1</f>
         <v>-2.7349948660505885E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="2:35">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="32">
-        <f t="shared" ref="H25:J25" si="26">H4/G4-1</f>
+      <c r="F25" s="32">
+        <f t="shared" ref="F25" si="35">F4/E4-1</f>
+        <v>8.3666933546837408E-2</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" ref="J25:K25" si="36">J4/I4-1</f>
+        <v>8.6070215175537923E-2</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" si="36"/>
+        <v>-0.1612791101842197</v>
+      </c>
+      <c r="L25" s="32">
+        <f t="shared" ref="L25:N25" si="37">L4/K4-1</f>
         <v>4.1442188147533532E-3</v>
       </c>
-      <c r="I25" s="32">
-        <f t="shared" si="26"/>
+      <c r="M25" s="32">
+        <f t="shared" si="37"/>
         <v>-0.14032191498142799</v>
       </c>
-      <c r="J25" s="32">
-        <f t="shared" si="26"/>
+      <c r="N25" s="32">
+        <f t="shared" si="37"/>
         <v>7.3451752280364824E-2</v>
       </c>
-      <c r="K25" s="32">
-        <f t="shared" ref="K25:L25" si="27">K4/J4-1</f>
+      <c r="O25" s="32">
+        <f t="shared" ref="O25:P25" si="38">O4/N4-1</f>
         <v>6.1717352415026738E-2</v>
       </c>
-      <c r="L25" s="32">
-        <f t="shared" si="27"/>
+      <c r="P25" s="32">
+        <f t="shared" si="38"/>
         <v>0.20682392586352139</v>
       </c>
-      <c r="M25" s="32">
-        <f t="shared" ref="M25:S25" si="28">M4/L4-1</f>
+      <c r="Q25" s="32">
+        <f t="shared" ref="Q25:W25" si="39">Q4/P4-1</f>
         <v>-9.0401396160558423E-2</v>
       </c>
-      <c r="N25" s="32">
-        <f t="shared" si="28"/>
+      <c r="R25" s="32">
+        <f t="shared" si="39"/>
         <v>0.10053722179585578</v>
       </c>
-      <c r="O25" s="32">
-        <f t="shared" si="28"/>
+      <c r="S25" s="32">
+        <f t="shared" si="39"/>
         <v>-8.0195258019525761E-2</v>
       </c>
-      <c r="P25" s="32">
-        <f t="shared" si="28"/>
+      <c r="T25" s="32">
+        <f t="shared" si="39"/>
         <v>1.1372251705837666E-2</v>
       </c>
-      <c r="Q25" s="32">
-        <f t="shared" si="28"/>
+      <c r="U25" s="32">
+        <f t="shared" si="39"/>
         <v>-6.2593703148425828E-2</v>
       </c>
-      <c r="R25" s="32">
-        <f t="shared" si="28"/>
+      <c r="V25" s="32">
+        <f t="shared" si="39"/>
         <v>4.4782087165133877E-2</v>
       </c>
-      <c r="S25" s="32">
-        <f t="shared" si="28"/>
+      <c r="W25" s="32">
+        <f t="shared" si="39"/>
         <v>-4.9751243781094523E-2</v>
       </c>
-      <c r="T25" s="32">
-        <f>T4/S4-1</f>
+      <c r="X25" s="32">
+        <f>X4/W4-1</f>
         <v>-2.4567055980668551E-2</v>
       </c>
-      <c r="U25" s="32">
-        <f>U4/T4-1</f>
+      <c r="Y25" s="32">
+        <f>Y4/X4-1</f>
         <v>-1.7341040462427793E-2</v>
-      </c>
-      <c r="Z25" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA25" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB25" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC25" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="AD25" s="19" t="s">
         <v>123</v>
@@ -3540,1105 +3852,1299 @@
       <c r="AE25" s="19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="2:31">
+      <c r="AF25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI25" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="32">
-        <f t="shared" ref="G27" si="29">G6/G4</f>
+      <c r="E27" s="32">
+        <f t="shared" ref="E27:F27" si="40">E6/E4</f>
+        <v>0.77702161729383512</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="40"/>
+        <v>0.78204654599187295</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" ref="I27:J27" si="41">I6/I4</f>
+        <v>0.77047942619856546</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" ref="J27:K27" si="42">J6/J4</f>
+        <v>0.78519290928050056</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="42"/>
         <v>0.77662660588479071</v>
       </c>
-      <c r="H27" s="32">
-        <f t="shared" ref="H27" si="30">H6/H4</f>
+      <c r="L27" s="32">
+        <f t="shared" ref="L27" si="43">L6/L4</f>
         <v>0.77177053239785387</v>
       </c>
-      <c r="I27" s="32">
-        <f t="shared" ref="I27:J27" si="31">I6/I4</f>
+      <c r="M27" s="32">
+        <f t="shared" ref="M27:N27" si="44">M6/M4</f>
         <v>0.74555928948631778</v>
       </c>
-      <c r="J27" s="32">
-        <f t="shared" si="31"/>
+      <c r="N27" s="32">
+        <f t="shared" si="44"/>
         <v>0.75134168157423975</v>
       </c>
-      <c r="K27" s="32">
-        <f t="shared" ref="K27" si="32">K6/K4</f>
+      <c r="O27" s="32">
+        <f t="shared" ref="O27" si="45">O6/O4</f>
         <v>0.77843302443133955</v>
       </c>
-      <c r="L27" s="32">
-        <f t="shared" ref="L27" si="33">L6/L4</f>
+      <c r="P27" s="32">
+        <f t="shared" ref="P27" si="46">P6/P4</f>
         <v>0.79127399650959862</v>
       </c>
-      <c r="M27" s="32">
-        <f t="shared" ref="M27" si="34">M6/M4</f>
+      <c r="Q27" s="32">
+        <f t="shared" ref="Q27" si="47">Q6/Q4</f>
         <v>0.7482732156561781</v>
       </c>
-      <c r="N27" s="32">
-        <f t="shared" ref="N27:O27" si="35">N6/N4</f>
+      <c r="R27" s="32">
+        <f t="shared" ref="R27:S27" si="48">R6/R4</f>
         <v>0.74128312412831243</v>
       </c>
-      <c r="O27" s="32">
-        <f t="shared" si="35"/>
+      <c r="S27" s="32">
+        <f t="shared" si="48"/>
         <v>0.77028051554207733</v>
-      </c>
-      <c r="P27" s="32">
-        <f>P6/P4</f>
-        <v>0.74812593703148422</v>
-      </c>
-      <c r="Q27" s="32">
-        <f>Q6/Q4</f>
-        <v>0.72890843662534988</v>
-      </c>
-      <c r="R27" s="32">
-        <f t="shared" ref="R27" si="36">R6/R4</f>
-        <v>0.73440489858400304</v>
-      </c>
-      <c r="S27" s="32">
-        <f t="shared" ref="S27" si="37">S6/S4</f>
-        <v>0.72251308900523559</v>
       </c>
       <c r="T27" s="32">
         <f>T6/T4</f>
-        <v>0.72625928984310484</v>
+        <v>0.74812593703148422</v>
       </c>
       <c r="U27" s="32">
         <f>U6/U4</f>
+        <v>0.72890843662534988</v>
+      </c>
+      <c r="V27" s="32">
+        <f t="shared" ref="V27" si="49">V6/V4</f>
+        <v>0.73440489858400304</v>
+      </c>
+      <c r="W27" s="32">
+        <f t="shared" ref="W27" si="50">W6/W4</f>
+        <v>0.72251308900523559</v>
+      </c>
+      <c r="X27" s="32">
+        <f>X6/X4</f>
+        <v>0.72625928984310484</v>
+      </c>
+      <c r="Y27" s="32">
+        <f>Y6/Y4</f>
         <v>0.72815126050420165</v>
       </c>
-      <c r="AC27" s="32">
-        <f t="shared" ref="AC27:AD27" si="38">AC6/AC4</f>
+      <c r="AG27" s="32">
+        <f t="shared" ref="AG27" si="51">AG6/AG4</f>
         <v>0.76209721463681046</v>
       </c>
-      <c r="AD27" s="32">
-        <f t="shared" ref="AD27:AE27" si="39">AD6/AD4</f>
+      <c r="AH27" s="32">
+        <f t="shared" ref="AH27" si="52">AH6/AH4</f>
         <v>0.76458508354335852</v>
       </c>
-      <c r="AE27" s="32">
-        <f>AE6/AE4</f>
+      <c r="AI27" s="32">
+        <f>AI6/AI4</f>
         <v>0.74568138195777356</v>
       </c>
     </row>
-    <row r="28" spans="2:31">
+    <row r="28" spans="2:35">
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="32">
-        <f t="shared" ref="G28" si="40">G13/G4</f>
+      <c r="E28" s="32">
+        <f t="shared" ref="E28:F28" si="53">E13/E4</f>
+        <v>0.22978382706164932</v>
+      </c>
+      <c r="F28" s="32">
+        <f t="shared" si="53"/>
+        <v>0.24492057628370889</v>
+      </c>
+      <c r="I28" s="32">
+        <f t="shared" ref="I28:J28" si="54">I13/I4</f>
+        <v>0.20989052472631181</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" ref="J28:K28" si="55">J13/J4</f>
+        <v>0.23670490093847757</v>
+      </c>
+      <c r="K28" s="32">
+        <f t="shared" si="55"/>
         <v>0.24575217571487776</v>
       </c>
-      <c r="H28" s="32">
-        <f t="shared" ref="H28" si="41">H13/H4</f>
+      <c r="L28" s="32">
+        <f t="shared" ref="L28" si="56">L13/L4</f>
         <v>0.2302930251754024</v>
       </c>
-      <c r="I28" s="32">
-        <f t="shared" ref="I28:J28" si="42">I13/I4</f>
+      <c r="M28" s="32">
+        <f t="shared" ref="M28:N28" si="57">M13/M4</f>
         <v>0.19587133941430629</v>
       </c>
-      <c r="J28" s="32">
-        <f t="shared" si="42"/>
+      <c r="N28" s="32">
+        <f t="shared" si="57"/>
         <v>0.21377459749552774</v>
       </c>
-      <c r="K28" s="32">
-        <f t="shared" ref="K28" si="43">K13/K4</f>
+      <c r="O28" s="32">
+        <f t="shared" ref="O28" si="58">O13/O4</f>
         <v>0.26495366470092668</v>
       </c>
-      <c r="L28" s="32">
-        <f t="shared" ref="L28" si="44">L13/L4</f>
+      <c r="P28" s="32">
+        <f t="shared" ref="P28" si="59">P13/P4</f>
         <v>0.28656195462478184</v>
       </c>
-      <c r="M28" s="32">
-        <f t="shared" ref="M28" si="45">M13/M4</f>
+      <c r="Q28" s="32">
+        <f t="shared" ref="Q28" si="60">Q13/Q4</f>
         <v>0.26055257099002305</v>
       </c>
-      <c r="N28" s="32">
-        <f t="shared" ref="N28:O28" si="46">N13/N4</f>
+      <c r="R28" s="32">
+        <f t="shared" ref="R28:S28" si="61">R13/R4</f>
         <v>0.23605299860529985</v>
       </c>
-      <c r="O28" s="32">
-        <f t="shared" si="46"/>
+      <c r="S28" s="32">
+        <f t="shared" si="61"/>
         <v>0.31880212282031845</v>
-      </c>
-      <c r="P28" s="32">
-        <f>P13/P4</f>
-        <v>0.27436281859070466</v>
-      </c>
-      <c r="Q28" s="32">
-        <f>Q13/Q4</f>
-        <v>0.2646941223510596</v>
-      </c>
-      <c r="R28" s="32">
-        <f t="shared" ref="R28" si="47">R13/R4</f>
-        <v>0.26329889016456182</v>
-      </c>
-      <c r="S28" s="32">
-        <f t="shared" ref="S28" si="48">S13/S4</f>
-        <v>0.27869512686266612</v>
       </c>
       <c r="T28" s="32">
         <f>T13/T4</f>
-        <v>0.21676300578034682</v>
+        <v>0.27436281859070466</v>
       </c>
       <c r="U28" s="32">
         <f>U13/U4</f>
+        <v>0.2646941223510596</v>
+      </c>
+      <c r="V28" s="32">
+        <f t="shared" ref="V28" si="62">V13/V4</f>
+        <v>0.26329889016456182</v>
+      </c>
+      <c r="W28" s="32">
+        <f t="shared" ref="W28" si="63">W13/W4</f>
+        <v>0.27869512686266612</v>
+      </c>
+      <c r="X28" s="32">
+        <f>X13/X4</f>
+        <v>0.21676300578034682</v>
+      </c>
+      <c r="Y28" s="32">
+        <f>Y13/Y4</f>
         <v>0.23865546218487396</v>
       </c>
-      <c r="AC28" s="32">
-        <f t="shared" ref="AC28:AD28" si="49">AC13/AC4</f>
+      <c r="AG28" s="32">
+        <f t="shared" ref="AG28" si="64">AG13/AG4</f>
         <v>0.2225013653741125</v>
       </c>
-      <c r="AD28" s="32">
-        <f t="shared" ref="AD28:AE28" si="50">AD13/AD4</f>
+      <c r="AH28" s="32">
+        <f t="shared" ref="AH28" si="65">AH13/AH4</f>
         <v>0.26192476430504996</v>
       </c>
-      <c r="AE28" s="32">
-        <f>AE13/AE4</f>
+      <c r="AI28" s="32">
+        <f>AI13/AI4</f>
         <v>0.28051823416506716</v>
       </c>
     </row>
-    <row r="29" spans="2:31">
+    <row r="29" spans="2:35">
       <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="32">
-        <f t="shared" ref="G29" si="51">G20/G4</f>
+      <c r="E29" s="32">
+        <f t="shared" ref="E29:F29" si="66">E20/E4</f>
+        <v>0.20816653322658127</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" si="66"/>
+        <v>-0.96084226080531954</v>
+      </c>
+      <c r="I29" s="32">
+        <f t="shared" ref="I29:J29" si="67">I20/I4</f>
+        <v>0.27217818044545111</v>
+      </c>
+      <c r="J29" s="32">
+        <f t="shared" ref="J29:K29" si="68">J20/J4</f>
+        <v>0.26416405978449775</v>
+      </c>
+      <c r="K29" s="32">
+        <f t="shared" si="68"/>
         <v>0.21467053460422711</v>
       </c>
-      <c r="H29" s="32">
-        <f t="shared" ref="H29" si="52">H20/H4</f>
+      <c r="L29" s="32">
+        <f t="shared" ref="L29" si="69">L20/L4</f>
         <v>0.16591002888980602</v>
       </c>
-      <c r="I29" s="32">
-        <f t="shared" ref="I29:J29" si="53">I20/I4</f>
+      <c r="M29" s="32">
+        <f t="shared" ref="M29:N29" si="70">M20/M4</f>
         <v>0.14882381180988957</v>
       </c>
-      <c r="J29" s="32">
-        <f t="shared" si="53"/>
+      <c r="N29" s="32">
+        <f t="shared" si="70"/>
         <v>0.24865831842576028</v>
       </c>
-      <c r="K29" s="32">
-        <f t="shared" ref="K29" si="54">K20/K4</f>
+      <c r="O29" s="32">
+        <f t="shared" ref="O29" si="71">O20/O4</f>
         <v>1.4372367312552654</v>
       </c>
-      <c r="L29" s="32">
-        <f t="shared" ref="L29" si="55">L20/L4</f>
+      <c r="P29" s="32">
+        <f t="shared" ref="P29" si="72">P20/P4</f>
         <v>0.26038394415357768</v>
       </c>
-      <c r="M29" s="32">
-        <f t="shared" ref="M29" si="56">M20/M4</f>
+      <c r="Q29" s="32">
+        <f t="shared" ref="Q29" si="73">Q20/Q4</f>
         <v>0.25479662317728319</v>
       </c>
-      <c r="N29" s="32">
-        <f t="shared" ref="N29:O29" si="57">N20/N4</f>
+      <c r="R29" s="32">
+        <f t="shared" ref="R29:S29" si="74">R20/R4</f>
         <v>0.29463040446304045</v>
       </c>
-      <c r="O29" s="32">
-        <f t="shared" si="57"/>
+      <c r="S29" s="32">
+        <f t="shared" si="74"/>
         <v>0.24298711144806673</v>
-      </c>
-      <c r="P29" s="32">
-        <f>P20/P4</f>
-        <v>4.0232383808095955</v>
-      </c>
-      <c r="Q29" s="32">
-        <f>Q20/Q4</f>
-        <v>0.10555777688924431</v>
-      </c>
-      <c r="R29" s="32">
-        <f t="shared" ref="R29" si="58">R20/R4</f>
-        <v>0.75353999234596247</v>
-      </c>
-      <c r="S29" s="32">
-        <f t="shared" ref="S29" si="59">S20/S4</f>
-        <v>-0.54007249295207416</v>
       </c>
       <c r="T29" s="32">
         <f>T20/T4</f>
-        <v>-0.21924029727497935</v>
+        <v>4.0232383808095955</v>
       </c>
       <c r="U29" s="32">
         <f>U20/U4</f>
+        <v>0.10555777688924431</v>
+      </c>
+      <c r="V29" s="32">
+        <f t="shared" ref="V29" si="75">V20/V4</f>
+        <v>0.75353999234596247</v>
+      </c>
+      <c r="W29" s="32">
+        <f t="shared" ref="W29" si="76">W20/W4</f>
+        <v>-0.54007249295207416</v>
+      </c>
+      <c r="X29" s="32">
+        <f>X20/X4</f>
+        <v>-0.21924029727497935</v>
+      </c>
+      <c r="Y29" s="32">
+        <f>Y20/Y4</f>
         <v>-2.8991596638655463E-2</v>
       </c>
-      <c r="AC29" s="32">
-        <f t="shared" ref="AC29:AD29" si="60">AC20/AC4</f>
+      <c r="AG29" s="32">
+        <f t="shared" ref="AG29" si="77">AG20/AG4</f>
         <v>0.19508465319497542</v>
       </c>
-      <c r="AD29" s="32">
-        <f t="shared" ref="AD29:AE29" si="61">AD20/AD4</f>
+      <c r="AH29" s="32">
+        <f t="shared" ref="AH29" si="78">AH20/AH4</f>
         <v>0.52898347801736212</v>
       </c>
-      <c r="AE29" s="32">
-        <f>AE20/AE4</f>
+      <c r="AI29" s="32">
+        <f>AI20/AI4</f>
         <v>1.3059500959692898</v>
       </c>
     </row>
-    <row r="30" spans="2:31">
+    <row r="30" spans="2:35">
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="32">
-        <f t="shared" ref="G30" si="62">ABS(G17)/ABS(G16)</f>
+      <c r="E30" s="32">
+        <f t="shared" ref="E30:F30" si="79">ABS(E17)/ABS(E16)</f>
+        <v>0.25072046109510088</v>
+      </c>
+      <c r="F30" s="32">
+        <f t="shared" si="79"/>
+        <v>5.6292335115864525</v>
+      </c>
+      <c r="I30" s="32">
+        <f t="shared" ref="I30:J30" si="80">ABS(I17)/ABS(I16)</f>
+        <v>0.24050632911392406</v>
+      </c>
+      <c r="J30" s="32">
+        <f t="shared" ref="J30:K30" si="81">ABS(J17)/ABS(J16)</f>
+        <v>0.47868217054263568</v>
+      </c>
+      <c r="K30" s="32">
+        <f t="shared" si="81"/>
         <v>0.21461187214611871</v>
       </c>
-      <c r="H30" s="32">
-        <f t="shared" ref="H30" si="63">ABS(H17)/ABS(H16)</f>
+      <c r="L30" s="32">
+        <f t="shared" ref="L30" si="82">ABS(L17)/ABS(L16)</f>
         <v>0.21104536489151873</v>
       </c>
-      <c r="I30" s="32">
-        <f t="shared" ref="I30:J30" si="64">ABS(I17)/ABS(I16)</f>
+      <c r="M30" s="32">
+        <f t="shared" ref="M30:N30" si="83">ABS(M17)/ABS(M16)</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="J30" s="32">
-        <f t="shared" si="64"/>
+      <c r="N30" s="32">
+        <f t="shared" si="83"/>
         <v>5.0607287449392711E-2</v>
       </c>
-      <c r="K30" s="32">
-        <f t="shared" ref="K30" si="65">ABS(K17)/ABS(K16)</f>
+      <c r="O30" s="32">
+        <f t="shared" ref="O30" si="84">ABS(O17)/ABS(O16)</f>
         <v>0.23137876386687797</v>
       </c>
-      <c r="L30" s="32">
-        <f t="shared" ref="L30" si="66">ABS(L17)/ABS(L16)</f>
+      <c r="P30" s="32">
+        <f t="shared" ref="P30" si="85">ABS(P17)/ABS(P16)</f>
         <v>0.26221335992023931</v>
       </c>
-      <c r="M30" s="32">
-        <f t="shared" ref="M30" si="67">ABS(M17)/ABS(M16)</f>
+      <c r="Q30" s="32">
+        <f t="shared" ref="Q30" si="86">ABS(Q17)/ABS(Q16)</f>
         <v>0.19767441860465115</v>
       </c>
-      <c r="N30" s="32">
-        <f t="shared" ref="N30:O30" si="68">ABS(N17)/ABS(N16)</f>
+      <c r="R30" s="32">
+        <f t="shared" ref="R30:S30" si="87">ABS(R17)/ABS(R16)</f>
         <v>0.29576194770063119</v>
       </c>
-      <c r="O30" s="32">
-        <f t="shared" si="68"/>
+      <c r="S30" s="32">
+        <f t="shared" si="87"/>
         <v>0.21546961325966851</v>
-      </c>
-      <c r="P30" s="32">
-        <f>ABS(P17)/ABS(P16)</f>
-        <v>0.26683291770573564</v>
-      </c>
-      <c r="Q30" s="32">
-        <f>ABS(Q17)/ABS(Q16)</f>
-        <v>0.34792626728110598</v>
-      </c>
-      <c r="R30" s="32">
-        <f t="shared" ref="R30" si="69">ABS(R17)/ABS(R16)</f>
-        <v>0.23083548664944015</v>
-      </c>
-      <c r="S30" s="32">
-        <f t="shared" ref="S30" si="70">ABS(S17)/ABS(S16)</f>
-        <v>0.18799272286234081</v>
       </c>
       <c r="T30" s="32">
         <f>ABS(T17)/ABS(T16)</f>
-        <v>0.2627235213204952</v>
+        <v>0.26683291770573564</v>
       </c>
       <c r="U30" s="32">
         <f>ABS(U17)/ABS(U16)</f>
+        <v>0.34792626728110598</v>
+      </c>
+      <c r="V30" s="32">
+        <f t="shared" ref="V30" si="88">ABS(V17)/ABS(V16)</f>
+        <v>0.23083548664944015</v>
+      </c>
+      <c r="W30" s="32">
+        <f t="shared" ref="W30" si="89">ABS(W17)/ABS(W16)</f>
+        <v>0.18799272286234081</v>
+      </c>
+      <c r="X30" s="32">
+        <f>ABS(X17)/ABS(X16)</f>
+        <v>0.2627235213204952</v>
+      </c>
+      <c r="Y30" s="32">
+        <f>ABS(Y17)/ABS(Y16)</f>
         <v>0.29629629629629628</v>
       </c>
-      <c r="AC30" s="32">
-        <f t="shared" ref="AC30:AD30" si="71">ABS(AC17)/ABS(AC16)</f>
+      <c r="AG30" s="32">
+        <f t="shared" ref="AG30" si="90">ABS(AG17)/ABS(AG16)</f>
         <v>0.17099792099792099</v>
       </c>
-      <c r="AD30" s="32">
-        <f t="shared" ref="AD30:AE30" si="72">ABS(AD17)/ABS(AD16)</f>
+      <c r="AH30" s="32">
+        <f t="shared" ref="AH30" si="91">ABS(AH17)/ABS(AH16)</f>
         <v>0.25305658231447259</v>
       </c>
-      <c r="AE30" s="32">
-        <f>ABS(AE17)/ABS(AE16)</f>
+      <c r="AI30" s="32">
+        <f>ABS(AI17)/ABS(AI16)</f>
         <v>0.36683417085427134</v>
       </c>
     </row>
-    <row r="32" spans="2:31">
-      <c r="Q32" s="29"/>
-    </row>
-    <row r="34" spans="2:31">
+    <row r="32" spans="2:35">
+      <c r="U32" s="29"/>
+    </row>
+    <row r="34" spans="2:35">
       <c r="B34" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:31" s="2" customFormat="1">
+    <row r="35" spans="2:35" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="F35" s="28">
+        <v>2120</v>
+      </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28">
+      <c r="I35" s="28">
+        <v>2086</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28">
         <v>901</v>
       </c>
-      <c r="K35" s="28">
+      <c r="O35" s="28">
         <v>880</v>
       </c>
-      <c r="L35" s="28">
+      <c r="P35" s="28">
         <v>1006</v>
       </c>
-      <c r="M35" s="28">
+      <c r="Q35" s="28">
         <v>963</v>
       </c>
-      <c r="N35" s="28">
+      <c r="R35" s="28">
         <v>1428</v>
       </c>
-      <c r="R35" s="28">
+      <c r="V35" s="28">
         <v>1379</v>
       </c>
-      <c r="S35" s="28">
+      <c r="W35" s="28">
         <v>1798</v>
       </c>
-      <c r="T35" s="28">
+      <c r="X35" s="28">
         <v>1742</v>
       </c>
-      <c r="U35" s="28">
+      <c r="Y35" s="28">
         <v>2037</v>
       </c>
-      <c r="AC35" s="28">
-        <f>J35</f>
+      <c r="AG35" s="28">
+        <f>N35</f>
         <v>901</v>
       </c>
-      <c r="AD35" s="28">
-        <f>N35</f>
+      <c r="AH35" s="28">
+        <f>R35</f>
         <v>1428</v>
       </c>
-      <c r="AE35" s="28">
-        <f>R35</f>
+      <c r="AI35" s="28">
+        <f>V35</f>
         <v>1379</v>
       </c>
     </row>
-    <row r="36" spans="2:31" s="2" customFormat="1">
+    <row r="36" spans="2:35" s="2" customFormat="1">
       <c r="B36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="28">
+        <v>3743</v>
+      </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28">
+      <c r="I36" s="28">
+        <v>2752</v>
+      </c>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28">
         <v>1850</v>
       </c>
-      <c r="K36" s="28">
+      <c r="O36" s="28">
         <v>3550</v>
       </c>
-      <c r="L36" s="28">
+      <c r="P36" s="28">
         <v>4297</v>
       </c>
-      <c r="M36" s="28">
+      <c r="Q36" s="28">
         <v>2697</v>
       </c>
-      <c r="N36" s="28">
+      <c r="R36" s="28">
         <v>2398</v>
       </c>
-      <c r="R36" s="28">
+      <c r="V36" s="28">
         <v>5944</v>
       </c>
-      <c r="S36" s="28">
+      <c r="W36" s="28">
         <v>3771</v>
       </c>
-      <c r="T36" s="28">
+      <c r="X36" s="28">
         <v>1483</v>
       </c>
-      <c r="U36" s="28">
+      <c r="Y36" s="28">
         <v>1457</v>
       </c>
-      <c r="AC36" s="28">
-        <f>J36</f>
+      <c r="AG36" s="28">
+        <f>N36</f>
         <v>1850</v>
       </c>
-      <c r="AD36" s="28">
-        <f>N36</f>
+      <c r="AH36" s="28">
+        <f>R36</f>
         <v>2398</v>
       </c>
-      <c r="AE36" s="28">
-        <f>R36</f>
+      <c r="AI36" s="28">
+        <f>V36</f>
         <v>5944</v>
       </c>
     </row>
-    <row r="37" spans="2:31">
+    <row r="37" spans="2:35">
       <c r="B37" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="F37" s="29">
+        <v>696</v>
+      </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29">
+      <c r="I37" s="29">
+        <v>761</v>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29">
         <v>555</v>
       </c>
-      <c r="K37" s="29">
+      <c r="O37" s="29">
         <v>635</v>
       </c>
-      <c r="L37" s="29">
+      <c r="P37" s="29">
         <v>845</v>
       </c>
-      <c r="M37" s="29">
+      <c r="Q37" s="29">
         <v>477</v>
       </c>
-      <c r="N37" s="29">
+      <c r="R37" s="29">
         <v>412</v>
       </c>
-      <c r="R37" s="29">
+      <c r="V37" s="29">
         <v>681</v>
       </c>
-      <c r="S37" s="29">
+      <c r="W37" s="29">
         <v>626</v>
       </c>
-      <c r="T37" s="29">
+      <c r="X37" s="29">
         <v>605</v>
       </c>
-      <c r="U37" s="29">
+      <c r="Y37" s="29">
         <v>633</v>
       </c>
-      <c r="AC37" s="29">
-        <f>J37</f>
+      <c r="AG37" s="29">
+        <f>N37</f>
         <v>555</v>
       </c>
-      <c r="AD37" s="29">
-        <f>AC37+N37</f>
+      <c r="AH37" s="29">
+        <f>AG37+R37</f>
         <v>967</v>
       </c>
-      <c r="AE37" s="29">
-        <f>R37</f>
+      <c r="AI37" s="29">
+        <f>V37</f>
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="2:31">
+    <row r="38" spans="2:35">
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="F38" s="29">
+        <v>1185</v>
+      </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29">
+      <c r="I38" s="29">
+        <v>1364</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29">
         <f>1064+141+195</f>
         <v>1400</v>
       </c>
-      <c r="K38" s="29">
+      <c r="O38" s="29">
         <v>1183</v>
       </c>
-      <c r="L38" s="29">
+      <c r="P38" s="29">
         <v>1246</v>
       </c>
-      <c r="M38" s="29">
+      <c r="Q38" s="29">
         <f>1486+1116</f>
         <v>2602</v>
       </c>
-      <c r="N38" s="29">
+      <c r="R38" s="29">
         <f>1764+1188</f>
         <v>2952</v>
       </c>
-      <c r="R38" s="29">
+      <c r="V38" s="29">
         <v>1107</v>
       </c>
-      <c r="S38" s="29">
+      <c r="W38" s="29">
         <v>1154</v>
       </c>
-      <c r="T38" s="29">
+      <c r="X38" s="29">
         <v>1237</v>
       </c>
-      <c r="U38" s="29">
+      <c r="Y38" s="29">
         <v>1162</v>
       </c>
-      <c r="AC38" s="29">
-        <f>J38</f>
+      <c r="AG38" s="29">
+        <f>N38</f>
         <v>1400</v>
       </c>
-      <c r="AD38" s="29">
-        <f t="shared" ref="AD38:AD46" si="73">AC38+N38</f>
+      <c r="AH38" s="29">
+        <f t="shared" ref="AH38:AH46" si="92">AG38+R38</f>
         <v>4352</v>
       </c>
-      <c r="AE38" s="29">
-        <f>R38</f>
+      <c r="AI38" s="29">
+        <f>V38</f>
         <v>1107</v>
       </c>
     </row>
-    <row r="39" spans="2:31">
+    <row r="39" spans="2:35">
       <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="29">
-        <f t="shared" ref="C39:T39" si="74">SUM(C35:C38)</f>
+        <f t="shared" ref="C39:G39" si="93">SUM(C35:C38)</f>
         <v>0</v>
       </c>
       <c r="D39" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="E39" si="94">SUM(E35:E38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="29">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f>SUM(F35:F38)</f>
+        <v>7744</v>
       </c>
       <c r="G39" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="G39:X39" si="95">SUM(G35:G38)</f>
         <v>0</v>
       </c>
       <c r="H39" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="I39" s="29">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="95"/>
+        <v>6963</v>
       </c>
       <c r="J39" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="29">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="29">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="29">
+        <f t="shared" si="95"/>
         <v>4706</v>
       </c>
-      <c r="K39" s="29">
-        <f t="shared" si="74"/>
+      <c r="O39" s="29">
+        <f t="shared" si="95"/>
         <v>6248</v>
       </c>
-      <c r="L39" s="29">
-        <f t="shared" si="74"/>
+      <c r="P39" s="29">
+        <f t="shared" si="95"/>
         <v>7394</v>
       </c>
-      <c r="M39" s="29">
-        <f t="shared" si="74"/>
+      <c r="Q39" s="29">
+        <f t="shared" si="95"/>
         <v>6739</v>
       </c>
-      <c r="N39" s="29">
-        <f t="shared" si="74"/>
+      <c r="R39" s="29">
+        <f t="shared" si="95"/>
         <v>7190</v>
       </c>
-      <c r="O39" s="29">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="29">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="29">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="29">
-        <f t="shared" si="74"/>
+      <c r="S39" s="29">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="29">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="29">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="29">
+        <f t="shared" si="95"/>
         <v>9111</v>
       </c>
-      <c r="S39" s="29">
-        <f t="shared" si="74"/>
+      <c r="W39" s="29">
+        <f t="shared" si="95"/>
         <v>7349</v>
       </c>
-      <c r="T39" s="29">
-        <f t="shared" si="74"/>
+      <c r="X39" s="29">
+        <f t="shared" si="95"/>
         <v>5067</v>
       </c>
-      <c r="U39" s="29">
-        <f>SUM(U35:U38)</f>
+      <c r="Y39" s="29">
+        <f>SUM(Y35:Y38)</f>
         <v>5289</v>
       </c>
-      <c r="Z39" s="29">
-        <f t="shared" ref="Z39" si="75">SUM(Z35:Z38)</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="29">
-        <f t="shared" ref="AA39" si="76">SUM(AA35:AA38)</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="29">
-        <f t="shared" ref="AB39" si="77">SUM(AB35:AB38)</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="29">
-        <f t="shared" ref="AC39" si="78">SUM(AC35:AC38)</f>
+      <c r="AD39" s="29">
+        <f t="shared" ref="AD39" si="96">SUM(AD35:AD38)</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="29">
+        <f t="shared" ref="AE39" si="97">SUM(AE35:AE38)</f>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="29">
+        <f t="shared" ref="AF39" si="98">SUM(AF35:AF38)</f>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="29">
+        <f t="shared" ref="AG39" si="99">SUM(AG35:AG38)</f>
         <v>4706</v>
       </c>
-      <c r="AD39" s="29">
-        <f t="shared" ref="AD39" si="79">SUM(AD35:AD38)</f>
+      <c r="AH39" s="29">
+        <f t="shared" ref="AH39" si="100">SUM(AH35:AH38)</f>
         <v>9145</v>
       </c>
-      <c r="AE39" s="29">
-        <f t="shared" ref="AE39" si="80">SUM(AE35:AE38)</f>
+      <c r="AI39" s="29">
+        <f t="shared" ref="AI39" si="101">SUM(AI35:AI38)</f>
         <v>9111</v>
       </c>
     </row>
-    <row r="40" spans="2:31">
+    <row r="40" spans="2:35">
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="F40" s="29">
+        <v>6331</v>
+      </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29">
+      <c r="I40" s="29">
+        <v>4276</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29">
         <v>1275</v>
       </c>
-      <c r="K40" s="29">
+      <c r="O40" s="29">
         <v>1077</v>
       </c>
-      <c r="L40" s="29">
+      <c r="P40" s="29">
         <v>832</v>
       </c>
-      <c r="M40" s="29">
+      <c r="Q40" s="29">
         <v>663</v>
       </c>
-      <c r="N40" s="29">
+      <c r="R40" s="29">
         <v>833</v>
       </c>
-      <c r="R40" s="29">
+      <c r="V40" s="29">
         <v>2575</v>
       </c>
-      <c r="S40" s="29">
+      <c r="W40" s="29">
         <v>2213</v>
       </c>
-      <c r="T40" s="29">
+      <c r="X40" s="29">
         <v>2146</v>
       </c>
-      <c r="U40" s="29">
+      <c r="Y40" s="29">
         <v>1971</v>
       </c>
-      <c r="AC40" s="29">
-        <f t="shared" ref="AC40:AC46" si="81">J40</f>
+      <c r="AG40" s="29">
+        <f t="shared" ref="AG40:AG46" si="102">N40</f>
         <v>1275</v>
       </c>
-      <c r="AD40" s="29">
-        <f t="shared" si="73"/>
+      <c r="AH40" s="29">
+        <f t="shared" si="92"/>
         <v>2108</v>
       </c>
-      <c r="AE40" s="29">
-        <f t="shared" ref="AE40:AE60" si="82">R40</f>
+      <c r="AI40" s="29">
+        <f t="shared" ref="AI40:AI60" si="103">V40</f>
         <v>2575</v>
       </c>
     </row>
-    <row r="41" spans="2:31">
+    <row r="41" spans="2:35">
       <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="F41" s="29">
+        <v>1597</v>
+      </c>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29">
+      <c r="I41" s="29">
+        <v>1580</v>
+      </c>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29">
         <v>1460</v>
       </c>
-      <c r="K41" s="29">
+      <c r="O41" s="29">
         <v>1409</v>
       </c>
-      <c r="L41" s="29">
+      <c r="P41" s="29">
         <v>1364</v>
       </c>
-      <c r="M41" s="29">
+      <c r="Q41" s="29">
         <v>1301</v>
       </c>
-      <c r="N41" s="29">
+      <c r="R41" s="29">
         <v>1358</v>
       </c>
-      <c r="R41" s="29">
+      <c r="V41" s="29">
         <v>1236</v>
       </c>
-      <c r="S41" s="29">
+      <c r="W41" s="29">
         <v>1192</v>
       </c>
-      <c r="T41" s="29">
+      <c r="X41" s="29">
         <v>1173</v>
       </c>
-      <c r="U41" s="29">
+      <c r="Y41" s="29">
         <v>1194</v>
       </c>
-      <c r="AC41" s="29">
-        <f t="shared" si="81"/>
+      <c r="AG41" s="29">
+        <f t="shared" si="102"/>
         <v>1460</v>
       </c>
-      <c r="AD41" s="29">
-        <f t="shared" si="73"/>
+      <c r="AH41" s="29">
+        <f t="shared" si="92"/>
         <v>2818</v>
       </c>
-      <c r="AE41" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI41" s="29">
+        <f t="shared" si="103"/>
         <v>1236</v>
       </c>
     </row>
-    <row r="42" spans="2:31">
+    <row r="42" spans="2:35">
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="F42" s="29">
+        <f>4773+69</f>
+        <v>4842</v>
+      </c>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29">
+      <c r="I42" s="29">
+        <f>106+5170</f>
+        <v>5276</v>
+      </c>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29">
         <f>39+4533</f>
         <v>4572</v>
       </c>
-      <c r="K42" s="29">
+      <c r="O42" s="29">
         <f>50+4850</f>
         <v>4900</v>
       </c>
-      <c r="L42" s="29">
+      <c r="P42" s="29">
         <f>4910+56</f>
         <v>4966</v>
       </c>
-      <c r="M42" s="29">
+      <c r="Q42" s="29">
         <f>19+4357</f>
         <v>4376</v>
       </c>
-      <c r="N42" s="29">
+      <c r="R42" s="29">
         <f>12+4675</f>
         <v>4687</v>
       </c>
-      <c r="R42" s="29">
+      <c r="V42" s="29">
         <v>4178</v>
       </c>
-      <c r="S42" s="29">
+      <c r="W42" s="29">
         <v>4141</v>
       </c>
-      <c r="T42" s="29">
+      <c r="X42" s="29">
         <v>4113</v>
       </c>
-      <c r="U42" s="29">
+      <c r="Y42" s="29">
         <v>4058</v>
       </c>
-      <c r="AC42" s="29">
-        <f t="shared" si="81"/>
+      <c r="AG42" s="29">
+        <f t="shared" si="102"/>
         <v>4572</v>
       </c>
-      <c r="AD42" s="29">
-        <f t="shared" si="73"/>
+      <c r="AH42" s="29">
+        <f t="shared" si="92"/>
         <v>9259</v>
       </c>
-      <c r="AE42" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI42" s="29">
+        <f t="shared" si="103"/>
         <v>4178</v>
       </c>
     </row>
-    <row r="43" spans="2:31">
+    <row r="43" spans="2:35">
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="F43" s="29">
+        <v>0</v>
+      </c>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29">
+      <c r="I43" s="29">
+        <v>0</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29">
         <v>583</v>
       </c>
-      <c r="K43" s="29">
+      <c r="O43" s="29">
         <v>598</v>
       </c>
-      <c r="L43" s="29">
+      <c r="P43" s="29">
         <v>536</v>
       </c>
-      <c r="M43" s="29">
+      <c r="Q43" s="29">
         <v>499</v>
       </c>
-      <c r="N43" s="29">
+      <c r="R43" s="29">
         <v>509</v>
       </c>
-      <c r="R43" s="29">
+      <c r="V43" s="29">
         <v>289</v>
       </c>
-      <c r="S43" s="29">
+      <c r="W43" s="29">
         <v>570</v>
       </c>
-      <c r="T43" s="29">
+      <c r="X43" s="29">
         <v>541</v>
       </c>
-      <c r="U43" s="29">
+      <c r="Y43" s="29">
         <v>527</v>
       </c>
-      <c r="AC43" s="29">
-        <f t="shared" si="81"/>
+      <c r="AG43" s="29">
+        <f t="shared" si="102"/>
         <v>583</v>
       </c>
-      <c r="AD43" s="29">
-        <f t="shared" si="73"/>
+      <c r="AH43" s="29">
+        <f t="shared" si="92"/>
         <v>1092</v>
       </c>
-      <c r="AE43" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI43" s="29">
+        <f t="shared" si="103"/>
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="2:31">
+    <row r="44" spans="2:35">
       <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="F44" s="29">
+        <v>5199</v>
+      </c>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29">
+      <c r="I44" s="29">
+        <v>4992</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29">
         <v>3980</v>
       </c>
-      <c r="K44" s="29">
+      <c r="O44" s="29">
         <v>4287</v>
       </c>
-      <c r="L44" s="29">
+      <c r="P44" s="29">
         <v>4203</v>
       </c>
-      <c r="M44" s="29">
+      <c r="Q44" s="29">
         <v>3749</v>
       </c>
-      <c r="N44" s="29">
+      <c r="R44" s="29">
         <v>3537</v>
       </c>
-      <c r="R44" s="29">
+      <c r="V44" s="29">
         <v>3255</v>
       </c>
-      <c r="S44" s="29">
+      <c r="W44" s="29">
         <v>3224</v>
       </c>
-      <c r="T44" s="29">
+      <c r="X44" s="29">
         <v>3227</v>
       </c>
-      <c r="U44" s="29">
+      <c r="Y44" s="29">
         <v>3144</v>
       </c>
-      <c r="AC44" s="29">
-        <f t="shared" si="81"/>
+      <c r="AG44" s="29">
+        <f t="shared" si="102"/>
         <v>3980</v>
       </c>
-      <c r="AD44" s="29">
-        <f t="shared" si="73"/>
+      <c r="AH44" s="29">
+        <f t="shared" si="92"/>
         <v>7517</v>
       </c>
-      <c r="AE44" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI44" s="29">
+        <f t="shared" si="103"/>
         <v>3255</v>
       </c>
     </row>
-    <row r="45" spans="2:31">
+    <row r="45" spans="2:35">
       <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="F45" s="29">
+        <v>0</v>
+      </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29">
-        <v>0</v>
-      </c>
-      <c r="K45" s="29">
-        <v>0</v>
-      </c>
-      <c r="L45" s="29">
-        <v>0</v>
-      </c>
-      <c r="M45" s="29">
-        <v>0</v>
-      </c>
+      <c r="I45" s="29">
+        <v>0</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="29">
         <v>0</v>
       </c>
+      <c r="O45" s="29">
+        <v>0</v>
+      </c>
+      <c r="P45" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="29">
+        <v>0</v>
+      </c>
       <c r="R45" s="29">
+        <v>0</v>
+      </c>
+      <c r="V45" s="29">
         <v>5391</v>
       </c>
-      <c r="S45" s="29">
+      <c r="W45" s="29">
         <v>3748</v>
       </c>
-      <c r="T45" s="29">
+      <c r="X45" s="29">
         <v>2919</v>
       </c>
-      <c r="U45" s="29">
+      <c r="Y45" s="29">
         <v>2417</v>
       </c>
-      <c r="AC45" s="29">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="29">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="29">
-        <f t="shared" si="82"/>
+      <c r="AG45" s="29">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="29">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="29">
+        <f t="shared" si="103"/>
         <v>5391</v>
       </c>
     </row>
-    <row r="46" spans="2:31">
+    <row r="46" spans="2:35">
       <c r="B46" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="F46" s="29">
+        <v>273</v>
+      </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29">
+      <c r="I46" s="29">
+        <v>565</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29">
         <f>133+306+878+281</f>
         <v>1598</v>
       </c>
-      <c r="K46" s="29">
+      <c r="O46" s="29">
         <v>410</v>
       </c>
-      <c r="L46" s="29">
+      <c r="P46" s="29">
         <v>719</v>
       </c>
-      <c r="M46" s="29">
+      <c r="Q46" s="29">
         <v>914</v>
       </c>
-      <c r="N46" s="29">
+      <c r="R46" s="29">
         <f>1051+145</f>
         <v>1196</v>
       </c>
-      <c r="R46" s="29">
+      <c r="V46" s="29">
         <v>591</v>
       </c>
-      <c r="S46" s="29">
+      <c r="W46" s="29">
         <v>543</v>
       </c>
-      <c r="T46" s="29">
+      <c r="X46" s="29">
         <v>467</v>
       </c>
-      <c r="U46" s="29">
+      <c r="Y46" s="29">
         <v>497</v>
       </c>
-      <c r="AC46" s="29">
-        <f t="shared" si="81"/>
+      <c r="AG46" s="29">
+        <f t="shared" si="102"/>
         <v>1598</v>
       </c>
-      <c r="AD46" s="29">
-        <f t="shared" si="73"/>
+      <c r="AH46" s="29">
+        <f t="shared" si="92"/>
         <v>2794</v>
       </c>
-      <c r="AE46" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI46" s="29">
+        <f t="shared" si="103"/>
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="2:31">
+    <row r="47" spans="2:35">
       <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="29">
-        <f t="shared" ref="C47:T47" si="83">C39+SUM(C40:C46)</f>
+        <f t="shared" ref="C47:G47" si="104">C39+SUM(C40:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="E47" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="E47" si="105">E39+SUM(E40:E46)</f>
         <v>0</v>
       </c>
       <c r="F47" s="29">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f>F39+SUM(F40:F46)</f>
+        <v>25986</v>
       </c>
       <c r="G47" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="G47:X47" si="106">G39+SUM(G40:G46)</f>
         <v>0</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="I47" s="29">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="106"/>
+        <v>23652</v>
       </c>
       <c r="J47" s="29">
-        <f t="shared" si="83"/>
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="29">
+        <f t="shared" si="106"/>
         <v>18174</v>
       </c>
-      <c r="K47" s="29">
-        <f t="shared" si="83"/>
+      <c r="O47" s="29">
+        <f t="shared" si="106"/>
         <v>18929</v>
       </c>
-      <c r="L47" s="29">
-        <f t="shared" si="83"/>
+      <c r="P47" s="29">
+        <f t="shared" si="106"/>
         <v>20014</v>
       </c>
-      <c r="M47" s="29">
-        <f t="shared" si="83"/>
+      <c r="Q47" s="29">
+        <f t="shared" si="106"/>
         <v>18241</v>
       </c>
-      <c r="N47" s="29">
-        <f t="shared" si="83"/>
+      <c r="R47" s="29">
+        <f t="shared" si="106"/>
         <v>19310</v>
       </c>
-      <c r="O47" s="29">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="29">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="29">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="29">
-        <f t="shared" si="83"/>
+      <c r="S47" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="29">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="29">
+        <f t="shared" si="106"/>
         <v>26626</v>
       </c>
-      <c r="S47" s="29">
-        <f t="shared" si="83"/>
+      <c r="W47" s="29">
+        <f t="shared" si="106"/>
         <v>22980</v>
       </c>
-      <c r="T47" s="29">
-        <f t="shared" si="83"/>
+      <c r="X47" s="29">
+        <f t="shared" si="106"/>
         <v>19653</v>
       </c>
-      <c r="U47" s="29">
-        <f>U39+SUM(U40:U46)</f>
+      <c r="Y47" s="29">
+        <f>Y39+SUM(Y40:Y46)</f>
         <v>19097</v>
       </c>
-      <c r="Z47" s="29">
-        <f t="shared" ref="Z47" si="84">Z39+SUM(Z40:Z46)</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="29">
-        <f t="shared" ref="AA47" si="85">AA39+SUM(AA40:AA46)</f>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="29">
-        <f t="shared" ref="AB47" si="86">AB39+SUM(AB40:AB46)</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="29">
-        <f t="shared" ref="AC47" si="87">AC39+SUM(AC40:AC46)</f>
+      <c r="AD47" s="29">
+        <f t="shared" ref="AD47" si="107">AD39+SUM(AD40:AD46)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="29">
+        <f t="shared" ref="AE47" si="108">AE39+SUM(AE40:AE46)</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="29">
+        <f t="shared" ref="AF47" si="109">AF39+SUM(AF40:AF46)</f>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="29">
+        <f t="shared" ref="AG47" si="110">AG39+SUM(AG40:AG46)</f>
         <v>18174</v>
       </c>
-      <c r="AD47" s="29">
-        <f t="shared" ref="AD47" si="88">AD39+SUM(AD40:AD46)</f>
+      <c r="AH47" s="29">
+        <f t="shared" ref="AH47" si="111">AH39+SUM(AH40:AH46)</f>
         <v>34733</v>
       </c>
-      <c r="AE47" s="29">
-        <f t="shared" ref="AE47" si="89">AE39+SUM(AE40:AE46)</f>
+      <c r="AI47" s="29">
+        <f t="shared" ref="AI47" si="112">AI39+SUM(AI40:AI46)</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="48" spans="2:31">
+    <row r="48" spans="2:35">
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -4651,1606 +5157,1941 @@
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="AE48" s="29"/>
-    </row>
-    <row r="49" spans="2:31" s="2" customFormat="1">
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="AI48" s="29"/>
+    </row>
+    <row r="49" spans="2:35" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="F49" s="28">
+        <v>781</v>
+      </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28">
+      <c r="I49" s="28">
+        <v>1546</v>
+      </c>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28">
         <v>1020</v>
       </c>
-      <c r="K49" s="28">
+      <c r="O49" s="28">
         <v>1015</v>
       </c>
-      <c r="L49" s="28">
+      <c r="P49" s="28">
         <v>516</v>
       </c>
-      <c r="M49" s="28">
+      <c r="Q49" s="28">
         <v>17</v>
       </c>
-      <c r="N49" s="28">
+      <c r="R49" s="28">
         <v>18</v>
       </c>
-      <c r="R49" s="28">
+      <c r="V49" s="28">
         <v>1355</v>
       </c>
-      <c r="S49" s="28">
+      <c r="W49" s="28">
         <v>1755</v>
       </c>
-      <c r="T49" s="28">
+      <c r="X49" s="28">
         <v>1149</v>
       </c>
-      <c r="U49" s="28">
+      <c r="Y49" s="28">
         <v>1150</v>
       </c>
-      <c r="AC49" s="28">
-        <f>J49</f>
+      <c r="AG49" s="28">
+        <f>N49</f>
         <v>1020</v>
       </c>
-      <c r="AD49" s="28">
-        <f>N49</f>
+      <c r="AH49" s="28">
+        <f>R49</f>
         <v>18</v>
       </c>
-      <c r="AE49" s="28">
-        <f>R49</f>
+      <c r="AI49" s="28">
+        <f>V49</f>
         <v>1355</v>
       </c>
     </row>
-    <row r="50" spans="2:31">
+    <row r="50" spans="2:35">
       <c r="B50" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="F50" s="29">
+        <v>330</v>
+      </c>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29">
+      <c r="I50" s="29">
+        <v>225</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29">
         <v>229</v>
       </c>
-      <c r="K50" s="29">
+      <c r="O50" s="29">
         <v>268</v>
       </c>
-      <c r="L50" s="29">
+      <c r="P50" s="29">
         <v>305</v>
       </c>
-      <c r="M50" s="29">
+      <c r="Q50" s="29">
         <v>307</v>
       </c>
-      <c r="N50" s="29">
+      <c r="R50" s="29">
         <v>332</v>
       </c>
-      <c r="R50" s="29">
+      <c r="V50" s="29">
         <v>262</v>
       </c>
-      <c r="S50" s="29">
+      <c r="W50" s="29">
         <v>245</v>
       </c>
-      <c r="T50" s="29">
+      <c r="X50" s="29">
         <v>249</v>
       </c>
-      <c r="U50" s="29">
+      <c r="Y50" s="29">
         <v>224</v>
       </c>
-      <c r="AC50" s="29">
-        <f t="shared" ref="AC50:AC60" si="90">J50</f>
+      <c r="AG50" s="29">
+        <f t="shared" ref="AG50:AG60" si="113">N50</f>
         <v>229</v>
       </c>
-      <c r="AD50" s="29">
-        <f>AC50+N50</f>
+      <c r="AH50" s="29">
+        <f t="shared" ref="AH50:AH55" si="114">AG50+R50</f>
         <v>561</v>
       </c>
-      <c r="AE50" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI50" s="29">
+        <f t="shared" si="103"/>
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:31">
+    <row r="51" spans="2:35">
       <c r="B51" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="F51" s="29">
+        <v>137</v>
+      </c>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29">
+      <c r="I51" s="1">
+        <v>163</v>
+      </c>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29">
         <v>2097</v>
       </c>
-      <c r="K51" s="29">
+      <c r="O51" s="29">
         <v>2175</v>
       </c>
-      <c r="L51" s="29">
+      <c r="P51" s="29">
         <v>2440</v>
       </c>
-      <c r="M51" s="1">
+      <c r="Q51" s="1">
         <v>105</v>
       </c>
-      <c r="N51" s="29">
+      <c r="R51" s="29">
         <v>2910</v>
       </c>
-      <c r="R51" s="29">
+      <c r="V51" s="29">
         <v>707</v>
       </c>
-      <c r="S51" s="29">
+      <c r="W51" s="29">
         <v>652</v>
       </c>
-      <c r="T51" s="29">
+      <c r="X51" s="29">
         <v>604</v>
       </c>
-      <c r="U51" s="29">
+      <c r="Y51" s="29">
         <v>649</v>
       </c>
-      <c r="AC51" s="29">
-        <f t="shared" si="90"/>
+      <c r="AG51" s="29">
+        <f t="shared" si="113"/>
         <v>2097</v>
       </c>
-      <c r="AD51" s="29">
-        <f>AC51+N51</f>
+      <c r="AH51" s="29">
+        <f t="shared" si="114"/>
         <v>5007</v>
       </c>
-      <c r="AE51" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI51" s="29">
+        <f t="shared" si="103"/>
         <v>707</v>
       </c>
     </row>
-    <row r="52" spans="2:31">
+    <row r="52" spans="2:35">
       <c r="B52" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="F52" s="29">
+        <v>2134</v>
+      </c>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29">
+      <c r="I52" s="29">
+        <v>1989</v>
+      </c>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29">
         <v>129</v>
       </c>
-      <c r="K52" s="29">
+      <c r="O52" s="29">
         <v>108</v>
       </c>
-      <c r="L52" s="29">
+      <c r="P52" s="29">
         <v>103</v>
       </c>
-      <c r="M52" s="29">
+      <c r="Q52" s="29">
         <v>2536</v>
       </c>
-      <c r="N52" s="29">
+      <c r="R52" s="29">
         <v>110</v>
       </c>
-      <c r="R52" s="29">
+      <c r="V52" s="29">
         <v>1927</v>
       </c>
-      <c r="S52" s="29">
+      <c r="W52" s="29">
         <v>1851</v>
       </c>
-      <c r="T52" s="29">
+      <c r="X52" s="29">
         <v>1735</v>
       </c>
-      <c r="U52" s="29">
+      <c r="Y52" s="29">
         <v>1765</v>
       </c>
-      <c r="AC52" s="29">
-        <f t="shared" si="90"/>
+      <c r="AG52" s="29">
+        <f t="shared" si="113"/>
         <v>129</v>
       </c>
-      <c r="AD52" s="29">
-        <f>AC52+N52</f>
+      <c r="AH52" s="29">
+        <f t="shared" si="114"/>
         <v>239</v>
       </c>
-      <c r="AE52" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI52" s="29">
+        <f t="shared" si="103"/>
         <v>1927</v>
       </c>
     </row>
-    <row r="53" spans="2:31">
+    <row r="53" spans="2:35">
       <c r="B53" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="F53" s="29">
+        <v>177</v>
+      </c>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29">
+      <c r="I53" s="29">
+        <v>83</v>
+      </c>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29">
         <v>169</v>
       </c>
-      <c r="K53" s="29">
+      <c r="O53" s="29">
         <v>1107</v>
       </c>
-      <c r="L53" s="29">
+      <c r="P53" s="29">
         <v>1328</v>
       </c>
-      <c r="M53" s="29">
+      <c r="Q53" s="29">
         <v>379</v>
       </c>
-      <c r="N53" s="29">
+      <c r="R53" s="29">
         <v>180</v>
       </c>
-      <c r="R53" s="29">
+      <c r="V53" s="29">
         <v>371</v>
       </c>
-      <c r="S53" s="29">
+      <c r="W53" s="29">
         <v>479</v>
       </c>
-      <c r="T53" s="29">
+      <c r="X53" s="29">
         <v>235</v>
       </c>
-      <c r="U53" s="29">
+      <c r="Y53" s="29">
         <v>186</v>
       </c>
-      <c r="AC53" s="29">
-        <f t="shared" si="90"/>
+      <c r="AG53" s="29">
+        <f t="shared" si="113"/>
         <v>169</v>
       </c>
-      <c r="AD53" s="29">
-        <f>AC53+N53</f>
+      <c r="AH53" s="29">
+        <f t="shared" si="114"/>
         <v>349</v>
       </c>
-      <c r="AE53" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI53" s="29">
+        <f t="shared" si="103"/>
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:31">
+    <row r="54" spans="2:35">
       <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="29">
+        <v>0</v>
+      </c>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29">
+      <c r="I54" s="29">
+        <v>0</v>
+      </c>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29">
         <v>259</v>
       </c>
-      <c r="K54" s="29">
-        <v>0</v>
-      </c>
-      <c r="L54" s="29">
-        <v>0</v>
-      </c>
-      <c r="M54" s="29">
-        <v>0</v>
-      </c>
-      <c r="N54" s="29">
+      <c r="O54" s="29">
+        <v>0</v>
+      </c>
+      <c r="P54" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="29">
         <v>0</v>
       </c>
       <c r="R54" s="29">
         <v>0</v>
       </c>
-      <c r="S54" s="29">
-        <v>0</v>
-      </c>
-      <c r="T54" s="29">
-        <v>0</v>
-      </c>
-      <c r="U54" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="29">
-        <f t="shared" si="90"/>
+      <c r="V54" s="29">
+        <v>0</v>
+      </c>
+      <c r="W54" s="29">
+        <v>0</v>
+      </c>
+      <c r="X54" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="29">
+        <f t="shared" si="113"/>
         <v>259</v>
       </c>
-      <c r="AD54" s="29">
-        <f>AC54+N54</f>
+      <c r="AH54" s="29">
+        <f t="shared" si="114"/>
         <v>259</v>
       </c>
-      <c r="AE54" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31">
+      <c r="AI54" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35">
       <c r="B55" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="F55" s="29">
+        <v>0</v>
+      </c>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29">
+      <c r="I55" s="29">
+        <v>0</v>
+      </c>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29">
         <v>163</v>
       </c>
-      <c r="K55" s="29">
-        <v>0</v>
-      </c>
-      <c r="L55" s="29">
-        <v>0</v>
-      </c>
-      <c r="M55" s="29">
+      <c r="O55" s="29">
+        <v>0</v>
+      </c>
+      <c r="P55" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="29">
         <v>496</v>
       </c>
-      <c r="N55" s="29">
+      <c r="R55" s="29">
         <v>452</v>
       </c>
-      <c r="R55" s="29">
-        <v>0</v>
-      </c>
-      <c r="S55" s="29">
-        <v>0</v>
-      </c>
-      <c r="T55" s="29">
-        <v>0</v>
-      </c>
-      <c r="U55" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="29">
-        <f t="shared" si="90"/>
+      <c r="V55" s="29">
+        <v>0</v>
+      </c>
+      <c r="W55" s="29">
+        <v>0</v>
+      </c>
+      <c r="X55" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="29">
+        <f t="shared" si="113"/>
         <v>163</v>
       </c>
-      <c r="AD55" s="29">
-        <f>AC55+N55</f>
+      <c r="AH55" s="29">
+        <f t="shared" si="114"/>
         <v>615</v>
       </c>
-      <c r="AE55" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31">
+      <c r="AI55" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35">
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="29">
-        <f>SUM(C49:C55)</f>
+        <f t="shared" ref="C56:F56" si="115">SUM(C49:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="29">
-        <f t="shared" ref="D56:U56" si="91">SUM(D49:D55)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="E56" s="29">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="E56" si="116">SUM(E49:E55)</f>
         <v>0</v>
       </c>
       <c r="F56" s="29">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f>SUM(F49:F55)</f>
+        <v>3559</v>
       </c>
       <c r="G56" s="29">
-        <f t="shared" si="91"/>
+        <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="H56:Y56" si="117">SUM(H49:H55)</f>
         <v>0</v>
       </c>
       <c r="I56" s="29">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>4006</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="91"/>
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="29">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="29">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="29">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="29">
+        <f t="shared" si="117"/>
         <v>4066</v>
       </c>
-      <c r="K56" s="29">
-        <f t="shared" si="91"/>
+      <c r="O56" s="29">
+        <f t="shared" si="117"/>
         <v>4673</v>
       </c>
-      <c r="L56" s="29">
-        <f t="shared" si="91"/>
+      <c r="P56" s="29">
+        <f t="shared" si="117"/>
         <v>4692</v>
       </c>
-      <c r="M56" s="29">
-        <f t="shared" si="91"/>
+      <c r="Q56" s="29">
+        <f t="shared" si="117"/>
         <v>3840</v>
       </c>
-      <c r="N56" s="29">
-        <f t="shared" si="91"/>
+      <c r="R56" s="29">
+        <f t="shared" si="117"/>
         <v>4002</v>
       </c>
-      <c r="O56" s="29">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="29">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="29">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="29">
-        <f t="shared" si="91"/>
+      <c r="S56" s="29">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="29">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="29">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="29">
+        <f t="shared" si="117"/>
         <v>4622</v>
       </c>
-      <c r="S56" s="29">
-        <f t="shared" si="91"/>
+      <c r="W56" s="29">
+        <f t="shared" si="117"/>
         <v>4982</v>
       </c>
-      <c r="T56" s="29">
-        <f t="shared" si="91"/>
+      <c r="X56" s="29">
+        <f t="shared" si="117"/>
         <v>3972</v>
       </c>
-      <c r="U56" s="29">
-        <f t="shared" si="91"/>
+      <c r="Y56" s="29">
+        <f t="shared" si="117"/>
         <v>3974</v>
       </c>
-      <c r="Z56" s="29">
-        <f t="shared" ref="Z56" si="92">SUM(Z49:Z55)</f>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="29">
-        <f t="shared" ref="AA56" si="93">SUM(AA49:AA55)</f>
-        <v>0</v>
-      </c>
-      <c r="AB56" s="29">
-        <f t="shared" ref="AB56" si="94">SUM(AB49:AB55)</f>
-        <v>0</v>
-      </c>
-      <c r="AC56" s="29">
-        <f t="shared" ref="AC56" si="95">SUM(AC49:AC55)</f>
+      <c r="AD56" s="29">
+        <f t="shared" ref="AD56" si="118">SUM(AD49:AD55)</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="29">
+        <f t="shared" ref="AE56" si="119">SUM(AE49:AE55)</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="29">
+        <f t="shared" ref="AF56" si="120">SUM(AF49:AF55)</f>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="29">
+        <f t="shared" ref="AG56" si="121">SUM(AG49:AG55)</f>
         <v>4066</v>
       </c>
-      <c r="AD56" s="29">
-        <f t="shared" ref="AD56" si="96">SUM(AD49:AD55)</f>
+      <c r="AH56" s="29">
+        <f t="shared" ref="AH56" si="122">SUM(AH49:AH55)</f>
         <v>7048</v>
       </c>
-      <c r="AE56" s="29">
-        <f t="shared" ref="AE56" si="97">SUM(AE49:AE55)</f>
+      <c r="AI56" s="29">
+        <f t="shared" ref="AI56" si="123">SUM(AI49:AI55)</f>
         <v>4622</v>
       </c>
     </row>
-    <row r="57" spans="2:31">
+    <row r="57" spans="2:35">
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29">
+      <c r="I57" s="29">
+        <v>0</v>
+      </c>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29">
         <v>461</v>
       </c>
-      <c r="K57" s="29">
+      <c r="O57" s="29">
         <v>456</v>
       </c>
-      <c r="L57" s="29">
+      <c r="P57" s="29">
         <v>411</v>
       </c>
-      <c r="M57" s="29">
+      <c r="Q57" s="29">
         <v>379</v>
       </c>
-      <c r="N57" s="29">
+      <c r="R57" s="29">
         <v>380</v>
       </c>
-      <c r="R57" s="29">
+      <c r="V57" s="29">
         <v>200</v>
       </c>
-      <c r="S57" s="29">
+      <c r="W57" s="29">
         <v>481</v>
       </c>
-      <c r="T57" s="29">
+      <c r="X57" s="29">
         <v>448</v>
       </c>
-      <c r="U57" s="29">
+      <c r="Y57" s="29">
         <v>432</v>
       </c>
-      <c r="AC57" s="29">
-        <f t="shared" si="90"/>
+      <c r="AG57" s="29">
+        <f t="shared" si="113"/>
         <v>461</v>
       </c>
-      <c r="AD57" s="29">
-        <f>AC57+N57</f>
+      <c r="AH57" s="29">
+        <f>AG57+R57</f>
         <v>841</v>
       </c>
-      <c r="AE57" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI57" s="29">
+        <f t="shared" si="103"/>
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="2:31">
+    <row r="58" spans="2:35">
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="F58" s="29">
+        <v>3424</v>
+      </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29">
+      <c r="I58" s="29">
+        <v>3316</v>
+      </c>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29">
         <v>2355</v>
       </c>
-      <c r="K58" s="29">
+      <c r="O58" s="29">
         <v>2619</v>
       </c>
-      <c r="L58" s="29">
+      <c r="P58" s="29">
         <v>2584</v>
       </c>
-      <c r="M58" s="29">
+      <c r="Q58" s="29">
         <v>2280</v>
       </c>
-      <c r="N58" s="29">
+      <c r="R58" s="29">
         <v>2359</v>
       </c>
-      <c r="R58" s="29">
+      <c r="V58" s="29">
         <v>3116</v>
       </c>
-      <c r="S58" s="29">
+      <c r="W58" s="29">
         <v>2701</v>
       </c>
-      <c r="T58" s="29">
+      <c r="X58" s="29">
         <v>2400</v>
       </c>
-      <c r="U58" s="29">
+      <c r="Y58" s="29">
         <v>2231</v>
       </c>
-      <c r="AC58" s="29">
-        <f t="shared" si="90"/>
+      <c r="AG58" s="29">
+        <f t="shared" si="113"/>
         <v>2355</v>
       </c>
-      <c r="AD58" s="29">
-        <f>AC58+N58</f>
+      <c r="AH58" s="29">
+        <f>AG58+R58</f>
         <v>4714</v>
       </c>
-      <c r="AE58" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI58" s="29">
+        <f t="shared" si="103"/>
         <v>3116</v>
       </c>
     </row>
-    <row r="59" spans="2:31" s="2" customFormat="1">
+    <row r="59" spans="2:35" s="2" customFormat="1">
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="F59" s="29">
+        <v>9234</v>
+      </c>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28">
+      <c r="I59" s="28">
+        <v>7661</v>
+      </c>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28">
         <v>6738</v>
       </c>
-      <c r="K59" s="28">
+      <c r="O59" s="28">
         <v>7724</v>
       </c>
-      <c r="L59" s="28">
+      <c r="P59" s="28">
         <v>8161</v>
       </c>
-      <c r="M59" s="28">
+      <c r="Q59" s="28">
         <v>7738</v>
       </c>
-      <c r="N59" s="28">
+      <c r="R59" s="28">
         <v>7745</v>
       </c>
-      <c r="R59" s="28">
+      <c r="V59" s="28">
         <v>7727</v>
       </c>
-      <c r="S59" s="28">
+      <c r="W59" s="28">
         <v>6578</v>
       </c>
-      <c r="T59" s="28">
+      <c r="X59" s="28">
         <v>6579</v>
       </c>
-      <c r="U59" s="28">
+      <c r="Y59" s="28">
         <v>6579</v>
       </c>
-      <c r="AC59" s="28">
-        <f>J59</f>
+      <c r="AG59" s="28">
+        <f>N59</f>
         <v>6738</v>
       </c>
-      <c r="AD59" s="28">
-        <f>N59</f>
+      <c r="AH59" s="28">
+        <f>R59</f>
         <v>7745</v>
       </c>
-      <c r="AE59" s="28">
-        <f>R59</f>
+      <c r="AI59" s="28">
+        <f>V59</f>
         <v>7727</v>
       </c>
     </row>
-    <row r="60" spans="2:31">
+    <row r="60" spans="2:35">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="F60" s="29">
+        <v>1720</v>
+      </c>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29">
+      <c r="I60" s="29">
+        <v>1740</v>
+      </c>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29">
         <f>26+305+1353</f>
         <v>1684</v>
       </c>
-      <c r="K60" s="29">
+      <c r="O60" s="29">
         <v>1342</v>
       </c>
-      <c r="L60" s="29">
+      <c r="P60" s="29">
         <v>1264</v>
       </c>
-      <c r="M60" s="29">
+      <c r="Q60" s="29">
         <v>1264</v>
       </c>
-      <c r="N60" s="29">
+      <c r="R60" s="29">
         <v>1263</v>
       </c>
-      <c r="R60" s="29">
+      <c r="V60" s="29">
         <v>1183</v>
       </c>
-      <c r="S60" s="29">
+      <c r="W60" s="29">
         <v>1184</v>
       </c>
-      <c r="T60" s="29">
+      <c r="X60" s="29">
         <v>1011</v>
       </c>
-      <c r="U60" s="29">
+      <c r="Y60" s="29">
         <v>1028</v>
       </c>
-      <c r="AC60" s="29">
-        <f t="shared" si="90"/>
+      <c r="AG60" s="29">
+        <f t="shared" si="113"/>
         <v>1684</v>
       </c>
-      <c r="AD60" s="29">
-        <f>AC60+N60</f>
+      <c r="AH60" s="29">
+        <f>AG60+R60</f>
         <v>2947</v>
       </c>
-      <c r="AE60" s="29">
-        <f t="shared" si="82"/>
+      <c r="AI60" s="29">
+        <f t="shared" si="103"/>
         <v>1183</v>
       </c>
     </row>
-    <row r="61" spans="2:31">
+    <row r="61" spans="2:35">
       <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="29">
-        <f t="shared" ref="C61:T61" si="98">C56+SUM(C57:C60)</f>
+        <f t="shared" ref="C61:G61" si="124">C56+SUM(C57:C60)</f>
         <v>0</v>
       </c>
       <c r="D61" s="29">
-        <f t="shared" si="98"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="E61" si="125">E56+SUM(E57:E60)</f>
         <v>0</v>
       </c>
       <c r="F61" s="29">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>F56+SUM(F57:F60)</f>
+        <v>17937</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="G61:X61" si="126">G56+SUM(G57:G60)</f>
         <v>0</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="98"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="I61" s="29">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f t="shared" si="126"/>
+        <v>16723</v>
       </c>
       <c r="J61" s="29">
-        <f t="shared" si="98"/>
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="29">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="29">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="29">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="29">
+        <f t="shared" si="126"/>
         <v>15304</v>
       </c>
-      <c r="K61" s="29">
-        <f t="shared" si="98"/>
+      <c r="O61" s="29">
+        <f t="shared" si="126"/>
         <v>16814</v>
       </c>
-      <c r="L61" s="29">
-        <f t="shared" si="98"/>
+      <c r="P61" s="29">
+        <f t="shared" si="126"/>
         <v>17112</v>
       </c>
-      <c r="M61" s="29">
-        <f t="shared" si="98"/>
+      <c r="Q61" s="29">
+        <f t="shared" si="126"/>
         <v>15501</v>
       </c>
-      <c r="N61" s="29">
-        <f t="shared" si="98"/>
+      <c r="R61" s="29">
+        <f t="shared" si="126"/>
         <v>15749</v>
       </c>
-      <c r="O61" s="29">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="29">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="29">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="29">
-        <f t="shared" si="98"/>
+      <c r="S61" s="29">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="29">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="29">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="29">
+        <f t="shared" si="126"/>
         <v>16848</v>
       </c>
-      <c r="S61" s="29">
-        <f t="shared" si="98"/>
+      <c r="W61" s="29">
+        <f t="shared" si="126"/>
         <v>15926</v>
       </c>
-      <c r="T61" s="29">
-        <f t="shared" si="98"/>
+      <c r="X61" s="29">
+        <f t="shared" si="126"/>
         <v>14410</v>
       </c>
-      <c r="U61" s="29">
-        <f>U56+SUM(U57:U60)</f>
+      <c r="Y61" s="29">
+        <f>Y56+SUM(Y57:Y60)</f>
         <v>14244</v>
       </c>
-      <c r="Z61" s="29">
-        <f t="shared" ref="Z61" si="99">Z56+SUM(Z57:Z60)</f>
-        <v>0</v>
-      </c>
-      <c r="AA61" s="29">
-        <f t="shared" ref="AA61" si="100">AA56+SUM(AA57:AA60)</f>
-        <v>0</v>
-      </c>
-      <c r="AB61" s="29">
-        <f t="shared" ref="AB61" si="101">AB56+SUM(AB57:AB60)</f>
-        <v>0</v>
-      </c>
-      <c r="AC61" s="29">
-        <f t="shared" ref="AC61" si="102">AC56+SUM(AC57:AC60)</f>
+      <c r="AD61" s="29">
+        <f t="shared" ref="AD61" si="127">AD56+SUM(AD57:AD60)</f>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="29">
+        <f t="shared" ref="AE61" si="128">AE56+SUM(AE57:AE60)</f>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="29">
+        <f t="shared" ref="AF61" si="129">AF56+SUM(AF57:AF60)</f>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="29">
+        <f t="shared" ref="AG61" si="130">AG56+SUM(AG57:AG60)</f>
         <v>15304</v>
       </c>
-      <c r="AD61" s="29">
-        <f t="shared" ref="AD61" si="103">AD56+SUM(AD57:AD60)</f>
+      <c r="AH61" s="29">
+        <f t="shared" ref="AH61" si="131">AH56+SUM(AH57:AH60)</f>
         <v>23295</v>
       </c>
-      <c r="AE61" s="29">
-        <f t="shared" ref="AE61" si="104">AE56+SUM(AE57:AE60)</f>
+      <c r="AI61" s="29">
+        <f t="shared" ref="AI61" si="132">AI56+SUM(AI57:AI60)</f>
         <v>16848</v>
       </c>
     </row>
-    <row r="62" spans="2:31">
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-    </row>
-    <row r="63" spans="2:31" s="29" customFormat="1">
+    <row r="62" spans="2:35">
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+    </row>
+    <row r="63" spans="2:35" s="29" customFormat="1">
       <c r="B63" s="29" t="s">
         <v>118</v>
       </c>
+      <c r="F63" s="29">
+        <v>8049</v>
+      </c>
       <c r="I63" s="29">
+        <v>6929</v>
+      </c>
+      <c r="M63" s="29">
         <v>2870</v>
       </c>
-      <c r="J63" s="29">
+      <c r="N63" s="29">
         <v>2870</v>
       </c>
-      <c r="K63" s="29">
+      <c r="O63" s="29">
         <v>2115</v>
       </c>
-      <c r="L63" s="29">
+      <c r="P63" s="29">
         <v>2902</v>
       </c>
-      <c r="M63" s="29">
+      <c r="Q63" s="29">
         <v>2920</v>
       </c>
-      <c r="N63" s="29">
+      <c r="R63" s="29">
         <v>3561</v>
       </c>
-      <c r="R63" s="29">
+      <c r="V63" s="29">
         <v>9778</v>
       </c>
-      <c r="S63" s="29">
+      <c r="W63" s="29">
         <v>7054</v>
       </c>
-      <c r="T63" s="29">
+      <c r="X63" s="29">
         <v>5243</v>
       </c>
-      <c r="U63" s="29">
+      <c r="Y63" s="29">
         <v>4853</v>
       </c>
-      <c r="AC63" s="29">
-        <f>J63</f>
+      <c r="AG63" s="29">
+        <f>N63</f>
         <v>2870</v>
       </c>
-      <c r="AD63" s="29">
-        <f t="shared" ref="AD63" si="105">AC63+N63</f>
+      <c r="AH63" s="29">
+        <f t="shared" ref="AH63" si="133">AG63+R63</f>
         <v>6431</v>
       </c>
-      <c r="AE63" s="29">
-        <f>R63</f>
+      <c r="AI63" s="29">
+        <f>V63</f>
         <v>9778</v>
       </c>
     </row>
-    <row r="64" spans="2:31">
+    <row r="64" spans="2:35">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="29">
-        <f t="shared" ref="C64:T64" si="106">C63+C61</f>
+        <f t="shared" ref="C64:G64" si="134">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="E64" si="135">E63+E61</f>
         <v>0</v>
       </c>
       <c r="F64" s="29">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f>F63+F61</f>
+        <v>25986</v>
       </c>
       <c r="G64" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="G64:X64" si="136">G63+G61</f>
         <v>0</v>
       </c>
       <c r="H64" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="I64" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
+        <v>23652</v>
+      </c>
+      <c r="J64" s="29">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="29">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="29">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="29">
+        <f t="shared" si="136"/>
         <v>2870</v>
       </c>
-      <c r="J64" s="29">
-        <f t="shared" si="106"/>
+      <c r="N64" s="29">
+        <f t="shared" si="136"/>
         <v>18174</v>
       </c>
-      <c r="K64" s="29">
-        <f t="shared" si="106"/>
+      <c r="O64" s="29">
+        <f t="shared" si="136"/>
         <v>18929</v>
       </c>
-      <c r="L64" s="29">
-        <f t="shared" si="106"/>
+      <c r="P64" s="29">
+        <f t="shared" si="136"/>
         <v>20014</v>
       </c>
-      <c r="M64" s="29">
-        <f t="shared" si="106"/>
+      <c r="Q64" s="29">
+        <f t="shared" si="136"/>
         <v>18421</v>
       </c>
-      <c r="N64" s="29">
-        <f t="shared" si="106"/>
+      <c r="R64" s="29">
+        <f t="shared" si="136"/>
         <v>19310</v>
       </c>
-      <c r="O64" s="29">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="29">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="29">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="29">
-        <f t="shared" si="106"/>
+      <c r="S64" s="29">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="29">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="29">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="29">
+        <f t="shared" si="136"/>
         <v>26626</v>
       </c>
-      <c r="S64" s="29">
-        <f t="shared" si="106"/>
+      <c r="W64" s="29">
+        <f t="shared" si="136"/>
         <v>22980</v>
       </c>
-      <c r="T64" s="29">
-        <f t="shared" si="106"/>
+      <c r="X64" s="29">
+        <f t="shared" si="136"/>
         <v>19653</v>
       </c>
-      <c r="U64" s="29">
-        <f>U63+U61</f>
+      <c r="Y64" s="29">
+        <f>Y63+Y61</f>
         <v>19097</v>
       </c>
-      <c r="Z64" s="29">
-        <f t="shared" ref="Z64" si="107">Z63+Z61</f>
-        <v>0</v>
-      </c>
-      <c r="AA64" s="29">
-        <f t="shared" ref="AA64" si="108">AA63+AA61</f>
-        <v>0</v>
-      </c>
-      <c r="AB64" s="29">
-        <f t="shared" ref="AB64" si="109">AB63+AB61</f>
-        <v>0</v>
-      </c>
-      <c r="AC64" s="29">
-        <f t="shared" ref="AC64" si="110">AC63+AC61</f>
+      <c r="AD64" s="29">
+        <f t="shared" ref="AD64" si="137">AD63+AD61</f>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="29">
+        <f t="shared" ref="AE64" si="138">AE63+AE61</f>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="29">
+        <f t="shared" ref="AF64" si="139">AF63+AF61</f>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="29">
+        <f t="shared" ref="AG64" si="140">AG63+AG61</f>
         <v>18174</v>
       </c>
-      <c r="AD64" s="29">
-        <f t="shared" ref="AD64" si="111">AD63+AD61</f>
+      <c r="AH64" s="29">
+        <f t="shared" ref="AH64" si="141">AH63+AH61</f>
         <v>29726</v>
       </c>
-      <c r="AE64" s="29">
-        <f t="shared" ref="AE64" si="112">AE63+AE61</f>
+      <c r="AI64" s="29">
+        <f t="shared" ref="AI64" si="142">AI63+AI61</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
-      <c r="U65" s="29"/>
-    </row>
-    <row r="66" spans="1:31">
+    <row r="65" spans="1:35">
+      <c r="Y65" s="29"/>
+    </row>
+    <row r="66" spans="1:35">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J66" s="29">
-        <f>J47-J61</f>
-        <v>2870</v>
-      </c>
-      <c r="K66" s="29">
-        <f t="shared" ref="K66" si="113">K47-K61</f>
-        <v>2115</v>
-      </c>
-      <c r="L66" s="29">
-        <f t="shared" ref="L66" si="114">L47-L61</f>
-        <v>2902</v>
-      </c>
-      <c r="M66" s="29">
-        <f>M47-M61</f>
-        <v>2740</v>
+      <c r="F66" s="29">
+        <f>F47-F61</f>
+        <v>8049</v>
+      </c>
+      <c r="I66" s="29">
+        <f>I47-I61</f>
+        <v>6929</v>
       </c>
       <c r="N66" s="29">
         <f>N47-N61</f>
-        <v>3561</v>
+        <v>2870</v>
+      </c>
+      <c r="O66" s="29">
+        <f t="shared" ref="O66" si="143">O47-O61</f>
+        <v>2115</v>
+      </c>
+      <c r="P66" s="29">
+        <f t="shared" ref="P66" si="144">P47-P61</f>
+        <v>2902</v>
+      </c>
+      <c r="Q66" s="29">
+        <f>Q47-Q61</f>
+        <v>2740</v>
       </c>
       <c r="R66" s="29">
         <f>R47-R61</f>
+        <v>3561</v>
+      </c>
+      <c r="V66" s="29">
+        <f>V47-V61</f>
         <v>9778</v>
       </c>
-      <c r="S66" s="29">
-        <f>S47-S61</f>
+      <c r="W66" s="29">
+        <f>W47-W61</f>
         <v>7054</v>
       </c>
-      <c r="T66" s="29">
-        <f>T47-T61</f>
+      <c r="X66" s="29">
+        <f>X47-X61</f>
         <v>5243</v>
       </c>
-      <c r="U66" s="29">
-        <f>U47-U61</f>
+      <c r="Y66" s="29">
+        <f>Y47-Y61</f>
         <v>4853</v>
       </c>
-      <c r="AC66" s="29">
-        <f t="shared" ref="AC66:AD66" si="115">AC47-AC61</f>
+      <c r="AG66" s="29">
+        <f t="shared" ref="AG66" si="145">AG47-AG61</f>
         <v>2870</v>
       </c>
-      <c r="AD66" s="29">
-        <f t="shared" ref="AD66:AE66" si="116">AD47-AD61</f>
+      <c r="AH66" s="29">
+        <f t="shared" ref="AH66" si="146">AH47-AH61</f>
         <v>11438</v>
       </c>
-      <c r="AE66" s="29">
-        <f>AE47-AE61</f>
+      <c r="AI66" s="29">
+        <f>AI47-AI61</f>
         <v>9778</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:35">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J67" s="1">
-        <f>J66/J22</f>
-        <v>3.5563816604708798</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" ref="K67" si="117">K66/K22</f>
-        <v>2.808764940239044</v>
-      </c>
-      <c r="L67" s="1">
-        <f t="shared" ref="L67" si="118">L66/L22</f>
-        <v>4.1280227596017074</v>
-      </c>
-      <c r="M67" s="1">
-        <f>M66/M22</f>
-        <v>3.9367816091954024</v>
+      <c r="F67" s="1">
+        <f>F66/E22</f>
+        <v>7.5790960451977405</v>
+      </c>
+      <c r="I67" s="1">
+        <f>I66/I22</f>
+        <v>7.113963039014374</v>
       </c>
       <c r="N67" s="1">
         <f>N66/N22</f>
-        <v>5.1758720930232558</v>
+        <v>3.5563816604708798</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" ref="O67" si="147">O66/O22</f>
+        <v>2.808764940239044</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" ref="P67" si="148">P66/P22</f>
+        <v>4.1280227596017074</v>
+      </c>
+      <c r="Q67" s="1">
+        <f>Q66/Q22</f>
+        <v>3.9367816091954024</v>
       </c>
       <c r="R67" s="1">
         <f>R66/R22</f>
+        <v>5.1758720930232558</v>
+      </c>
+      <c r="V67" s="1">
+        <f>V66/V22</f>
         <v>16.135313531353134</v>
       </c>
-      <c r="S67" s="1">
-        <f>S66/S22</f>
+      <c r="W67" s="1">
+        <f>W66/W22</f>
         <v>12.017035775127768</v>
       </c>
-      <c r="T67" s="1">
-        <f>T66/T22</f>
+      <c r="X67" s="1">
+        <f>X66/X22</f>
         <v>9.4298561151079134</v>
       </c>
-      <c r="U67" s="1">
-        <f>U66/U22</f>
+      <c r="Y67" s="1">
+        <f>Y66/Y22</f>
         <v>8.9429996037272659</v>
       </c>
-      <c r="AC67" s="1">
-        <f t="shared" ref="AC67" si="119">AC66/AC22</f>
+      <c r="AG67" s="1">
+        <f t="shared" ref="AG67" si="149">AG66/AG22</f>
         <v>3.3804475853945819</v>
       </c>
-      <c r="AD67" s="1">
-        <f t="shared" ref="AD67" si="120">AD66/AD22</f>
+      <c r="AH67" s="1">
+        <f t="shared" ref="AH67" si="150">AH66/AH22</f>
         <v>16.109859154929577</v>
       </c>
-      <c r="AE67" s="1">
-        <f>AE66/AE22</f>
+      <c r="AI67" s="1">
+        <f>AI66/AI22</f>
         <v>14.996932515337424</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="34" customFormat="1">
+    <row r="69" spans="1:35" s="34" customFormat="1">
       <c r="B69" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="35">
-        <f t="shared" ref="C69:I69" si="121">C35+C36</f>
+        <f t="shared" ref="C69:G69" si="151">C35+C36</f>
         <v>0</v>
       </c>
       <c r="D69" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="E69" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="E69" si="152">E35+E36</f>
         <v>0</v>
       </c>
       <c r="F69" s="35">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f>F35+F36</f>
+        <v>5863</v>
       </c>
       <c r="G69" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="G69:M69" si="153">G35+G36</f>
         <v>0</v>
       </c>
       <c r="H69" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="I69" s="35">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" si="153"/>
+        <v>4838</v>
       </c>
       <c r="J69" s="35">
-        <f>J35+J36</f>
-        <v>2751</v>
+        <f t="shared" si="153"/>
+        <v>0</v>
       </c>
       <c r="K69" s="35">
-        <f t="shared" ref="K69:M69" si="122">K35+K36</f>
-        <v>4430</v>
+        <f t="shared" si="153"/>
+        <v>0</v>
       </c>
       <c r="L69" s="35">
-        <f t="shared" si="122"/>
-        <v>5303</v>
+        <f t="shared" si="153"/>
+        <v>0</v>
       </c>
       <c r="M69" s="35">
-        <f t="shared" si="122"/>
-        <v>3660</v>
+        <f t="shared" si="153"/>
+        <v>0</v>
       </c>
       <c r="N69" s="35">
         <f>N35+N36</f>
-        <v>3826</v>
+        <v>2751</v>
+      </c>
+      <c r="O69" s="35">
+        <f t="shared" ref="O69:Q69" si="154">O35+O36</f>
+        <v>4430</v>
+      </c>
+      <c r="P69" s="35">
+        <f t="shared" si="154"/>
+        <v>5303</v>
+      </c>
+      <c r="Q69" s="35">
+        <f t="shared" si="154"/>
+        <v>3660</v>
       </c>
       <c r="R69" s="35">
         <f>R35+R36</f>
+        <v>3826</v>
+      </c>
+      <c r="S69" s="35">
+        <f t="shared" ref="S69:U69" si="155">S35+S36</f>
+        <v>0</v>
+      </c>
+      <c r="T69" s="35">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="35">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="35">
+        <f>V35+V36</f>
         <v>7323</v>
       </c>
-      <c r="S69" s="35">
-        <f t="shared" ref="S69" si="123">S35+S36</f>
+      <c r="W69" s="35">
+        <f t="shared" ref="W69" si="156">W35+W36</f>
         <v>5569</v>
       </c>
-      <c r="T69" s="35">
-        <f t="shared" ref="T69" si="124">T35+T36</f>
+      <c r="X69" s="35">
+        <f t="shared" ref="X69" si="157">X35+X36</f>
         <v>3225</v>
       </c>
-      <c r="U69" s="35">
-        <f>U35+U36</f>
+      <c r="Y69" s="35">
+        <f>Y35+Y36</f>
         <v>3494</v>
       </c>
-      <c r="AC69" s="35">
-        <f t="shared" ref="AC69:AD69" si="125">AC35+AC36</f>
+      <c r="AG69" s="35">
+        <f t="shared" ref="AG69" si="158">AG35+AG36</f>
         <v>2751</v>
       </c>
-      <c r="AD69" s="35">
-        <f t="shared" ref="AD69:AE69" si="126">AD35+AD36</f>
+      <c r="AH69" s="35">
+        <f t="shared" ref="AH69" si="159">AH35+AH36</f>
         <v>3826</v>
       </c>
-      <c r="AE69" s="35">
-        <f>AE35+AE36</f>
+      <c r="AI69" s="35">
+        <f>AI35+AI36</f>
         <v>7323</v>
       </c>
     </row>
-    <row r="70" spans="1:31" s="34" customFormat="1">
+    <row r="70" spans="1:35" s="34" customFormat="1">
       <c r="B70" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="35">
-        <f t="shared" ref="C70:I70" si="127">C49+C59</f>
+        <f t="shared" ref="C70:G70" si="160">C49+C59</f>
         <v>0</v>
       </c>
       <c r="D70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="E70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" ref="E70" si="161">E49+E59</f>
         <v>0</v>
       </c>
       <c r="F70" s="35">
-        <f t="shared" si="127"/>
-        <v>0</v>
+        <f>F49+F59</f>
+        <v>10015</v>
       </c>
       <c r="G70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" ref="G70:M70" si="162">G49+G59</f>
         <v>0</v>
       </c>
       <c r="H70" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="I70" s="35">
-        <f t="shared" si="127"/>
-        <v>0</v>
+        <f t="shared" si="162"/>
+        <v>9207</v>
       </c>
       <c r="J70" s="35">
-        <f>J49+J59</f>
-        <v>7758</v>
+        <f t="shared" si="162"/>
+        <v>0</v>
       </c>
       <c r="K70" s="35">
-        <f t="shared" ref="K70:M70" si="128">K49+K59</f>
-        <v>8739</v>
+        <f t="shared" si="162"/>
+        <v>0</v>
       </c>
       <c r="L70" s="35">
-        <f t="shared" si="128"/>
-        <v>8677</v>
+        <f t="shared" si="162"/>
+        <v>0</v>
       </c>
       <c r="M70" s="35">
-        <f t="shared" si="128"/>
-        <v>7755</v>
+        <f t="shared" si="162"/>
+        <v>0</v>
       </c>
       <c r="N70" s="35">
         <f>N49+N59</f>
-        <v>7763</v>
+        <v>7758</v>
+      </c>
+      <c r="O70" s="35">
+        <f t="shared" ref="O70:Q70" si="163">O49+O59</f>
+        <v>8739</v>
+      </c>
+      <c r="P70" s="35">
+        <f t="shared" si="163"/>
+        <v>8677</v>
+      </c>
+      <c r="Q70" s="35">
+        <f t="shared" si="163"/>
+        <v>7755</v>
       </c>
       <c r="R70" s="35">
         <f>R49+R59</f>
+        <v>7763</v>
+      </c>
+      <c r="S70" s="35">
+        <f t="shared" ref="S70:U70" si="164">S49+S59</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="35">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="35">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="35">
+        <f>V49+V59</f>
         <v>9082</v>
       </c>
-      <c r="S70" s="35">
-        <f t="shared" ref="S70" si="129">S49+S59</f>
+      <c r="W70" s="35">
+        <f t="shared" ref="W70" si="165">W49+W59</f>
         <v>8333</v>
       </c>
-      <c r="T70" s="35">
-        <f t="shared" ref="T70" si="130">T49+T59</f>
+      <c r="X70" s="35">
+        <f t="shared" ref="X70" si="166">X49+X59</f>
         <v>7728</v>
       </c>
-      <c r="U70" s="35">
-        <f>U49+U59</f>
+      <c r="Y70" s="35">
+        <f>Y49+Y59</f>
         <v>7729</v>
       </c>
-      <c r="AC70" s="35">
-        <f t="shared" ref="AC70:AD70" si="131">AC49+AC59</f>
+      <c r="AG70" s="35">
+        <f t="shared" ref="AG70" si="167">AG49+AG59</f>
         <v>7758</v>
       </c>
-      <c r="AD70" s="35">
-        <f t="shared" ref="AD70:AE70" si="132">AD49+AD59</f>
+      <c r="AH70" s="35">
+        <f t="shared" ref="AH70" si="168">AH49+AH59</f>
         <v>7763</v>
       </c>
-      <c r="AE70" s="35">
-        <f>AE49+AE59</f>
+      <c r="AI70" s="35">
+        <f>AI49+AI59</f>
         <v>9082</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:35">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="29">
-        <f t="shared" ref="C71" si="133">C69-C70</f>
+        <f t="shared" ref="C71:G71" si="169">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="29">
-        <f t="shared" ref="D71" si="134">D69-D70</f>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="E71" s="29">
-        <f t="shared" ref="E71" si="135">E69-E70</f>
+        <f t="shared" ref="E71" si="170">E69-E70</f>
         <v>0</v>
       </c>
       <c r="F71" s="29">
-        <f t="shared" ref="F71" si="136">F69-F70</f>
-        <v>0</v>
+        <f t="shared" ref="F71" si="171">F69-F70</f>
+        <v>-4152</v>
       </c>
       <c r="G71" s="29">
-        <f t="shared" ref="G71" si="137">G69-G70</f>
+        <f t="shared" ref="G71" si="172">G69-G70</f>
         <v>0</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" ref="H71" si="138">H69-H70</f>
+        <f t="shared" ref="H71" si="173">H69-H70</f>
         <v>0</v>
       </c>
       <c r="I71" s="29">
-        <f t="shared" ref="I71" si="139">I69-I70</f>
-        <v>0</v>
+        <f t="shared" ref="I71" si="174">I69-I70</f>
+        <v>-4369</v>
       </c>
       <c r="J71" s="29">
-        <f>J69-J70</f>
-        <v>-5007</v>
+        <f t="shared" ref="J71" si="175">J69-J70</f>
+        <v>0</v>
       </c>
       <c r="K71" s="29">
-        <f t="shared" ref="K71:M71" si="140">K69-K70</f>
-        <v>-4309</v>
+        <f t="shared" ref="K71" si="176">K69-K70</f>
+        <v>0</v>
       </c>
       <c r="L71" s="29">
-        <f t="shared" si="140"/>
-        <v>-3374</v>
+        <f t="shared" ref="L71" si="177">L69-L70</f>
+        <v>0</v>
       </c>
       <c r="M71" s="29">
-        <f t="shared" si="140"/>
-        <v>-4095</v>
+        <f t="shared" ref="M71" si="178">M69-M70</f>
+        <v>0</v>
       </c>
       <c r="N71" s="29">
         <f>N69-N70</f>
-        <v>-3937</v>
+        <v>-5007</v>
+      </c>
+      <c r="O71" s="29">
+        <f t="shared" ref="O71:Q71" si="179">O69-O70</f>
+        <v>-4309</v>
+      </c>
+      <c r="P71" s="29">
+        <f t="shared" si="179"/>
+        <v>-3374</v>
+      </c>
+      <c r="Q71" s="29">
+        <f t="shared" si="179"/>
+        <v>-4095</v>
       </c>
       <c r="R71" s="29">
         <f>R69-R70</f>
+        <v>-3937</v>
+      </c>
+      <c r="S71" s="29">
+        <f t="shared" ref="S71:U71" si="180">S69-S70</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="29">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="29">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="29">
+        <f>V69-V70</f>
         <v>-1759</v>
       </c>
-      <c r="S71" s="29">
-        <f t="shared" ref="S71" si="141">S69-S70</f>
+      <c r="W71" s="29">
+        <f t="shared" ref="W71" si="181">W69-W70</f>
         <v>-2764</v>
       </c>
-      <c r="T71" s="29">
-        <f t="shared" ref="T71" si="142">T69-T70</f>
+      <c r="X71" s="29">
+        <f t="shared" ref="X71" si="182">X69-X70</f>
         <v>-4503</v>
       </c>
-      <c r="U71" s="29">
-        <f>U69-U70</f>
+      <c r="Y71" s="29">
+        <f>Y69-Y70</f>
         <v>-4235</v>
       </c>
-      <c r="AC71" s="29">
-        <f t="shared" ref="AC71" si="143">AC69-AC70</f>
+      <c r="AG71" s="29">
+        <f t="shared" ref="AG71" si="183">AG69-AG70</f>
         <v>-5007</v>
       </c>
-      <c r="AD71" s="29">
-        <f t="shared" ref="AD71" si="144">AD69-AD70</f>
+      <c r="AH71" s="29">
+        <f t="shared" ref="AH71" si="184">AH69-AH70</f>
         <v>-3937</v>
       </c>
-      <c r="AE71" s="29">
-        <f>AE69-AE70</f>
+      <c r="AI71" s="29">
+        <f>AI69-AI70</f>
         <v>-1759</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:35">
       <c r="B73" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="E73" s="1">
+        <v>36.26</v>
+      </c>
+      <c r="F73" s="1">
+        <v>35.58</v>
+      </c>
       <c r="I73" s="1">
+        <v>31.13</v>
+      </c>
+      <c r="J73" s="1">
+        <v>26.46</v>
+      </c>
+      <c r="M73" s="1">
         <v>37.520000000000003</v>
       </c>
-      <c r="J73" s="1">
+      <c r="N73" s="1">
         <v>34.56</v>
       </c>
-      <c r="K73" s="1">
+      <c r="O73" s="1">
         <v>28.9</v>
       </c>
-      <c r="L73" s="1">
+      <c r="P73" s="1">
         <v>50.61</v>
       </c>
-      <c r="M73" s="1">
+      <c r="Q73" s="1">
         <v>50.42</v>
       </c>
-      <c r="N73" s="1">
+      <c r="R73" s="1">
         <v>48.78</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="U73" s="1">
         <v>68.209999999999994</v>
       </c>
-      <c r="R73" s="1">
+      <c r="V73" s="1">
         <v>65.27</v>
       </c>
-      <c r="S73" s="1">
+      <c r="W73" s="1">
         <v>56.43</v>
       </c>
-      <c r="T73" s="1">
+      <c r="X73" s="1">
         <v>41.26</v>
       </c>
-      <c r="U73" s="1">
+      <c r="Y73" s="1">
         <v>36.619999999999997</v>
       </c>
-      <c r="AC73" s="1">
-        <f>J73</f>
+      <c r="AG73" s="1">
+        <f>N73</f>
         <v>34.56</v>
       </c>
-      <c r="AD73" s="1">
-        <f>N73</f>
+      <c r="AH73" s="1">
+        <f>R73</f>
         <v>48.78</v>
       </c>
-      <c r="AE73" s="1">
-        <f>R73</f>
+      <c r="AI73" s="1">
+        <f>V73</f>
         <v>65.27</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:35">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
+        <f t="shared" ref="F74" si="185">F73*F22</f>
+        <v>36825.299999999996</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" ref="I74:J74" si="186">I73*I22</f>
+        <v>30320.62</v>
+      </c>
       <c r="J74" s="5">
-        <f>J73*J22</f>
-        <v>27889.920000000002</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" ref="K74" si="145">K73*K22</f>
-        <v>21761.7</v>
-      </c>
-      <c r="L74" s="5">
-        <f t="shared" ref="L74" si="146">L73*L22</f>
-        <v>35578.83</v>
-      </c>
-      <c r="M74" s="5">
-        <f t="shared" ref="M74" si="147">M73*M22</f>
-        <v>35092.32</v>
+        <f t="shared" si="186"/>
+        <v>25137</v>
       </c>
       <c r="N74" s="5">
         <f>N73*N22</f>
-        <v>33560.639999999999</v>
+        <v>27889.920000000002</v>
+      </c>
+      <c r="O74" s="5">
+        <f t="shared" ref="O74" si="187">O73*O22</f>
+        <v>21761.7</v>
+      </c>
+      <c r="P74" s="5">
+        <f t="shared" ref="P74" si="188">P73*P22</f>
+        <v>35578.83</v>
       </c>
       <c r="Q74" s="5">
-        <f>Q73*Q22</f>
-        <v>44882.179999999993</v>
+        <f t="shared" ref="Q74" si="189">Q73*Q22</f>
+        <v>35092.32</v>
       </c>
       <c r="R74" s="5">
         <f>R73*R22</f>
-        <v>39553.619999999995</v>
-      </c>
-      <c r="S74" s="5">
-        <f t="shared" ref="S74:T74" si="148">S73*S22</f>
-        <v>33124.409999999996</v>
-      </c>
-      <c r="T74" s="5">
-        <f t="shared" si="148"/>
-        <v>22940.559999999998</v>
+        <v>33560.639999999999</v>
       </c>
       <c r="U74" s="5">
         <f>U73*U22</f>
+        <v>44882.179999999993</v>
+      </c>
+      <c r="V74" s="5">
+        <f>V73*V22</f>
+        <v>39553.619999999995</v>
+      </c>
+      <c r="W74" s="5">
+        <f t="shared" ref="W74:X74" si="190">W73*W22</f>
+        <v>33124.409999999996</v>
+      </c>
+      <c r="X74" s="5">
+        <f t="shared" si="190"/>
+        <v>22940.559999999998</v>
+      </c>
+      <c r="Y74" s="5">
+        <f>Y73*Y22</f>
         <v>19872.175765939999</v>
       </c>
-      <c r="AC74" s="5">
-        <f t="shared" ref="AC74" si="149">AC73*AC22</f>
+      <c r="AG74" s="5">
+        <f t="shared" ref="AG74" si="191">AG73*AG22</f>
         <v>29341.440000000002</v>
       </c>
-      <c r="AD74" s="5">
-        <f t="shared" ref="AD74" si="150">AD73*AD22</f>
+      <c r="AH74" s="5">
+        <f t="shared" ref="AH74" si="192">AH73*AH22</f>
         <v>34633.800000000003</v>
       </c>
-      <c r="AE74" s="5">
-        <f>AE73*AE22</f>
+      <c r="AI74" s="5">
+        <f>AI73*AI22</f>
         <v>42556.04</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:35">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
+        <f t="shared" ref="F75" si="193">F74-G71</f>
+        <v>36825.299999999996</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" ref="I75:J75" si="194">I74-I71</f>
+        <v>34689.619999999995</v>
+      </c>
       <c r="J75" s="5">
-        <f>J74-J71</f>
-        <v>32896.92</v>
-      </c>
-      <c r="K75" s="5">
-        <f t="shared" ref="K75" si="151">K74-K71</f>
-        <v>26070.7</v>
-      </c>
-      <c r="L75" s="5">
-        <f t="shared" ref="L75" si="152">L74-L71</f>
-        <v>38952.83</v>
-      </c>
-      <c r="M75" s="5">
-        <f t="shared" ref="M75" si="153">M74-M71</f>
-        <v>39187.32</v>
+        <f t="shared" si="194"/>
+        <v>25137</v>
       </c>
       <c r="N75" s="5">
         <f>N74-N71</f>
-        <v>37497.64</v>
+        <v>32896.92</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" ref="O75" si="195">O74-O71</f>
+        <v>26070.7</v>
+      </c>
+      <c r="P75" s="5">
+        <f t="shared" ref="P75" si="196">P74-P71</f>
+        <v>38952.83</v>
       </c>
       <c r="Q75" s="5">
-        <f>Q74-Q71</f>
-        <v>44882.179999999993</v>
+        <f t="shared" ref="Q75" si="197">Q74-Q71</f>
+        <v>39187.32</v>
       </c>
       <c r="R75" s="5">
         <f>R74-R71</f>
-        <v>41312.619999999995</v>
-      </c>
-      <c r="S75" s="5">
-        <f t="shared" ref="S75:T75" si="154">S74-S71</f>
-        <v>35888.409999999996</v>
-      </c>
-      <c r="T75" s="5">
-        <f t="shared" si="154"/>
-        <v>27443.559999999998</v>
+        <v>37497.64</v>
       </c>
       <c r="U75" s="5">
         <f>U74-U71</f>
+        <v>44882.179999999993</v>
+      </c>
+      <c r="V75" s="5">
+        <f>V74-V71</f>
+        <v>41312.619999999995</v>
+      </c>
+      <c r="W75" s="5">
+        <f t="shared" ref="W75:X75" si="198">W74-W71</f>
+        <v>35888.409999999996</v>
+      </c>
+      <c r="X75" s="5">
+        <f t="shared" si="198"/>
+        <v>27443.559999999998</v>
+      </c>
+      <c r="Y75" s="5">
+        <f>Y74-Y71</f>
         <v>24107.175765939999</v>
       </c>
-      <c r="AC75" s="5">
-        <f t="shared" ref="AC75" si="155">AC74-AC71</f>
+      <c r="AG75" s="5">
+        <f t="shared" ref="AG75" si="199">AG74-AG71</f>
         <v>34348.44</v>
       </c>
-      <c r="AD75" s="5">
-        <f t="shared" ref="AD75" si="156">AD74-AD71</f>
+      <c r="AH75" s="5">
+        <f t="shared" ref="AH75" si="200">AH74-AH71</f>
         <v>38570.800000000003</v>
       </c>
-      <c r="AE75" s="5">
-        <f>AE74-AE71</f>
+      <c r="AI75" s="5">
+        <f>AI74-AI71</f>
         <v>44315.040000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:31" s="38" customFormat="1">
+    <row r="77" spans="1:35" s="38" customFormat="1">
       <c r="A77" s="39">
-        <f>AVERAGE(C77:U77)</f>
-        <v>7.9678076930657182</v>
+        <f>AVERAGE(G77:Y77)</f>
+        <v>7.6086170522048091</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J77" s="38">
-        <f>J73/J67</f>
-        <v>9.7177421602787462</v>
-      </c>
-      <c r="K77" s="38">
-        <f t="shared" ref="K77" si="157">K73/K67</f>
-        <v>10.289219858156027</v>
-      </c>
-      <c r="L77" s="38">
-        <f t="shared" ref="L77:M77" si="158">L73/L67</f>
-        <v>12.26010682288077</v>
-      </c>
-      <c r="M77" s="38">
-        <f t="shared" si="158"/>
-        <v>12.807416058394161</v>
+      <c r="F77" s="38">
+        <f>F73/F67</f>
+        <v>4.6944912411479685</v>
+      </c>
+      <c r="I77" s="38">
+        <f>I73/I67</f>
+        <v>4.3759012844566314</v>
       </c>
       <c r="N77" s="38">
         <f>N73/N67</f>
-        <v>9.4244987363100261</v>
+        <v>9.7177421602787462</v>
+      </c>
+      <c r="O77" s="38">
+        <f t="shared" ref="O77" si="201">O73/O67</f>
+        <v>10.289219858156027</v>
+      </c>
+      <c r="P77" s="38">
+        <f t="shared" ref="P77:Q77" si="202">P73/P67</f>
+        <v>12.26010682288077</v>
+      </c>
+      <c r="Q77" s="38">
+        <f t="shared" si="202"/>
+        <v>12.807416058394161</v>
       </c>
       <c r="R77" s="38">
         <f>R73/R67</f>
+        <v>9.4244987363100261</v>
+      </c>
+      <c r="V77" s="38">
+        <f>V73/V67</f>
         <v>4.0451646553487421</v>
       </c>
-      <c r="S77" s="38">
-        <f>S73/S67</f>
+      <c r="W77" s="38">
+        <f>W73/W67</f>
         <v>4.695833569605897</v>
       </c>
-      <c r="T77" s="38">
-        <f>T73/T67</f>
+      <c r="X77" s="38">
+        <f>X73/X67</f>
         <v>4.3754644287621591</v>
       </c>
-      <c r="U77" s="38">
-        <f>U73/U67</f>
+      <c r="Y77" s="38">
+        <f>Y73/Y67</f>
         <v>4.0948229478549347</v>
       </c>
-      <c r="AC77" s="38">
-        <f t="shared" ref="AC77:AD77" si="159">AC73/AC67</f>
+      <c r="AG77" s="38">
+        <f t="shared" ref="AG77" si="203">AG73/AG67</f>
         <v>10.223498257839722</v>
       </c>
-      <c r="AD77" s="38">
-        <f t="shared" ref="AD77:AE77" si="160">AD73/AD67</f>
+      <c r="AH77" s="38">
+        <f t="shared" ref="AH77" si="204">AH73/AH67</f>
         <v>3.0279594334673896</v>
       </c>
-      <c r="AE77" s="38">
-        <f>AE73/AE67</f>
+      <c r="AI77" s="38">
+        <f>AI73/AI67</f>
         <v>4.3522233585600327</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:35">
       <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC78" s="38">
-        <f t="shared" ref="AC78:AD78" si="161">AC74/AC4</f>
+      <c r="AG78" s="38">
+        <f t="shared" ref="AG78" si="205">AG74/AG4</f>
         <v>3.2049634079737852</v>
       </c>
-      <c r="AD78" s="38">
-        <f t="shared" ref="AD78:AE78" si="162">AD74/AD4</f>
+      <c r="AH78" s="38">
+        <f t="shared" ref="AH78" si="206">AH74/AH4</f>
         <v>3.2328759451134137</v>
       </c>
-      <c r="AE78" s="38">
-        <f>AE74/AE4</f>
+      <c r="AI78" s="38">
+        <f>AI74/AI4</f>
         <v>4.0840729366602684</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:35">
       <c r="B79" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC79" s="38">
-        <f t="shared" ref="AC79:AD79" si="163">AC75/AC4</f>
+      <c r="AG79" s="38">
+        <f t="shared" ref="AG79" si="207">AG75/AG4</f>
         <v>3.7518776624795196</v>
       </c>
-      <c r="AD79" s="38">
-        <f t="shared" ref="AD79:AE79" si="164">AD75/AD4</f>
+      <c r="AH79" s="38">
+        <f t="shared" ref="AH79" si="208">AH75/AH4</f>
         <v>3.6003733781387104</v>
       </c>
-      <c r="AE79" s="38">
-        <f>AE75/AE4</f>
+      <c r="AI79" s="38">
+        <f>AI75/AI4</f>
         <v>4.2528829174664109</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:35" s="38" customFormat="1">
+      <c r="A80" s="39">
+        <f>AVERAGE(G80:Y80)</f>
+        <v>-18.081502924599494</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AC80" s="38">
-        <f t="shared" ref="AC80:AD80" si="165">AC73/AC21</f>
+      <c r="N80" s="38">
+        <f t="shared" ref="N80" si="209">N73/SUM(K21:N21)</f>
+        <v>16.414442706508094</v>
+      </c>
+      <c r="O80" s="38">
+        <f t="shared" ref="O80" si="210">O73/SUM(L21:O21)</f>
+        <v>4.7680989418995381</v>
+      </c>
+      <c r="P80" s="38">
+        <f t="shared" ref="P80" si="211">P73/SUM(M21:P21)</f>
+        <v>7.6049907925668574</v>
+      </c>
+      <c r="Q80" s="38">
+        <f t="shared" ref="Q80" si="212">Q73/SUM(N21:Q21)</f>
+        <v>6.9685453631242744</v>
+      </c>
+      <c r="R80" s="38">
+        <f t="shared" ref="R80" si="213">R73/SUM(O21:R21)</f>
+        <v>6.2742813338289967</v>
+      </c>
+      <c r="V80" s="38">
+        <f t="shared" ref="V80:X80" si="214">V73/SUM(S21:V21)</f>
+        <v>3.181191505918596</v>
+      </c>
+      <c r="W80" s="38">
+        <f t="shared" si="214"/>
+        <v>3.2634136402727529</v>
+      </c>
+      <c r="X80" s="38">
+        <f t="shared" si="214"/>
+        <v>100.42416013144638</v>
+      </c>
+      <c r="Y80" s="38">
+        <f>Y73/SUM(V21:Y21)</f>
+        <v>-311.63265073696095</v>
+      </c>
+      <c r="AG80" s="38">
+        <f t="shared" ref="AG80" si="215">AG73/AG21</f>
         <v>16.428577827547596</v>
       </c>
-      <c r="AD80" s="38">
-        <f t="shared" ref="AD80:AE80" si="166">AD73/AD21</f>
+      <c r="AH80" s="38">
+        <f t="shared" ref="AH80" si="216">AH73/AH21</f>
         <v>6.1114875595553206</v>
       </c>
-      <c r="AE80" s="38">
-        <f>AE73/AE21</f>
+      <c r="AI80" s="38">
+        <f>AI73/AI21</f>
         <v>3.1272810111699001</v>
       </c>
     </row>
-    <row r="81" spans="2:31">
+    <row r="81" spans="2:35">
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC81" s="38">
-        <f t="shared" ref="AC81:AD81" si="167">AC75/AC20</f>
+      <c r="AG81" s="38">
+        <f t="shared" ref="AG81" si="217">AG75/AG20</f>
         <v>19.232049272116463</v>
       </c>
-      <c r="AD81" s="38">
-        <f t="shared" ref="AD81:AE81" si="168">AD75/AD20</f>
+      <c r="AH81" s="38">
+        <f t="shared" ref="AH81" si="218">AH75/AH20</f>
         <v>6.8062113993294515</v>
       </c>
-      <c r="AE81" s="38">
-        <f>AE75/AE20</f>
+      <c r="AI81" s="38">
+        <f>AI75/AI20</f>
         <v>3.2565432098765434</v>
       </c>
     </row>
-    <row r="82" spans="2:31">
+    <row r="82" spans="2:35">
       <c r="B82" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" r:id="rId1" xr:uid="{49F1DD79-8698-4944-99B0-7BC1D2FB2359}"/>
-    <hyperlink ref="T1" r:id="rId2" xr:uid="{6A192FE3-6C0F-4DBB-A224-38F31257B5EE}"/>
-    <hyperlink ref="S1" r:id="rId3" xr:uid="{5ED5459B-BD86-4BA7-A2DC-F8B34520EBBD}"/>
-    <hyperlink ref="R1" r:id="rId4" xr:uid="{C4C49680-5B89-411F-8EB7-99308651B6F0}"/>
-    <hyperlink ref="AE1" r:id="rId5" xr:uid="{02AA5235-6A5F-4EFE-9939-09C66FA4C968}"/>
-    <hyperlink ref="N1" r:id="rId6" xr:uid="{0568B661-4E92-9D48-A872-D956A7EA9DB6}"/>
-    <hyperlink ref="AD1" r:id="rId7" xr:uid="{22A87107-1FE4-204B-9C07-8FE8E6C6EC9E}"/>
-    <hyperlink ref="M1" r:id="rId8" xr:uid="{9650ADDB-E1E0-8647-BABB-B7854A0392A2}"/>
-    <hyperlink ref="L1" r:id="rId9" xr:uid="{340F312E-E78C-194B-9379-10264A294398}"/>
-    <hyperlink ref="K1" r:id="rId10" xr:uid="{1EA5DAD6-79CA-2A4B-AA8F-3E57311BFB07}"/>
+    <hyperlink ref="Y1" r:id="rId1" xr:uid="{49F1DD79-8698-4944-99B0-7BC1D2FB2359}"/>
+    <hyperlink ref="X1" r:id="rId2" xr:uid="{6A192FE3-6C0F-4DBB-A224-38F31257B5EE}"/>
+    <hyperlink ref="W1" r:id="rId3" xr:uid="{5ED5459B-BD86-4BA7-A2DC-F8B34520EBBD}"/>
+    <hyperlink ref="V1" r:id="rId4" xr:uid="{C4C49680-5B89-411F-8EB7-99308651B6F0}"/>
+    <hyperlink ref="AI1" r:id="rId5" xr:uid="{02AA5235-6A5F-4EFE-9939-09C66FA4C968}"/>
+    <hyperlink ref="R1" r:id="rId6" xr:uid="{0568B661-4E92-9D48-A872-D956A7EA9DB6}"/>
+    <hyperlink ref="AH1" r:id="rId7" xr:uid="{22A87107-1FE4-204B-9C07-8FE8E6C6EC9E}"/>
+    <hyperlink ref="Q1" r:id="rId8" xr:uid="{9650ADDB-E1E0-8647-BABB-B7854A0392A2}"/>
+    <hyperlink ref="P1" r:id="rId9" xr:uid="{340F312E-E78C-194B-9379-10264A294398}"/>
+    <hyperlink ref="O1" r:id="rId10" xr:uid="{1EA5DAD6-79CA-2A4B-AA8F-3E57311BFB07}"/>
+    <hyperlink ref="J1" r:id="rId11" xr:uid="{EF452910-C63D-4FF7-8AD7-D1F12358F554}"/>
+    <hyperlink ref="AF1" r:id="rId12" xr:uid="{8F2D3DE9-165E-481D-BCBB-939394C8E023}"/>
+    <hyperlink ref="I1" r:id="rId13" xr:uid="{A65B4E57-B629-4D2D-A351-F5B7A1FB252A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId14"/>
   <ignoredErrors>
-    <ignoredError sqref="AE4 AD4:AD5 AC4:AC5 AC20:AC22" formulaRange="1"/>
-    <ignoredError sqref="AE5:AE11 AE14:AE15 AE17 AE19 AD6:AD11 AD14:AD19 AC6:AC19" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AD39:AE39 AD56:AD61 AC39:AC62 AC64" formula="1"/>
+    <ignoredError sqref="AI4 AH4:AH5 AG4:AG5 AG20:AG22" formulaRange="1"/>
+    <ignoredError sqref="AI5:AI11 AI14:AI15 AI17 AI19 AH6:AH11 AH14:AH19 AG6:AG19" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AH39:AI39 AH56:AH61 AG39:AG62 AG64" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4799475-D736-4BDB-891E-820D2053BF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C441FE-2F08-4280-8884-41BA9102D64A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
   <si>
     <t>$EBAY</t>
   </si>
@@ -702,10 +702,25 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,21 +733,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1224,7 +1224,7 @@
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1243,22 +1243,22 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="G5" s="46" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="G5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="3" t="s">
@@ -1427,11 +1427,11 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1446,10 +1446,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="46"/>
       <c r="G16" s="13"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1464,10 +1464,10 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="46"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1480,8 +1480,8 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="7"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1496,10 +1496,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="48"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1533,11 +1533,11 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1552,10 +1552,10 @@
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="46"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1570,10 +1570,10 @@
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="45">
         <v>1995</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="46"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1588,10 +1588,10 @@
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="45">
         <v>1998</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="46"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1618,8 +1618,8 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="9"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1655,10 +1655,10 @@
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="50"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -1670,71 +1670,76 @@
       <c r="O29" s="16"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="43">
         <f>C6/'Financial Model'!Y67</f>
         <v>4.5599912565134968</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="43">
         <f>C8/SUM('Financial Model'!V4:Y4)</f>
         <v>2.235768596469994</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="44"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="43">
         <f>C12/SUM('Financial Model'!V4:Y4)</f>
         <v>2.663632811462922</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="44"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="43">
         <f>C6/SUM('Financial Model'!V21:Y21)</f>
         <v>-347.03384754378123</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="43">
         <f>C12/SUM('Financial Model'!V20:Y20)</f>
         <v>941.59419885214288</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1750,11 +1755,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{D9973FEA-B39E-4DD3-8417-80042015C44B}"/>
@@ -1773,10 +1773,10 @@
   <dimension ref="A1:AT82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9:V22"/>
+      <selection pane="bottomRight" activeCell="AB77" sqref="AB77:AB81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1799,10 +1799,10 @@
       <c r="F1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="25" t="s">
@@ -1862,7 +1862,7 @@
       <c r="AC1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="25" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="20" t="s">
@@ -1916,12 +1916,24 @@
     </row>
     <row r="2" spans="2:46" s="22" customFormat="1">
       <c r="B2" s="21"/>
+      <c r="C2" s="27">
+        <v>42825</v>
+      </c>
+      <c r="D2" s="27">
+        <v>42916</v>
+      </c>
       <c r="E2" s="27">
         <v>43008</v>
       </c>
       <c r="F2" s="27">
         <v>43100</v>
       </c>
+      <c r="G2" s="27">
+        <v>43190</v>
+      </c>
+      <c r="H2" s="27">
+        <v>43281</v>
+      </c>
       <c r="I2" s="27">
         <v>43373</v>
       </c>
@@ -1972,6 +1984,20 @@
       </c>
       <c r="Y2" s="27">
         <v>44834</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>42369</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>42735</v>
+      </c>
+      <c r="AE2" s="27">
+        <f>F2</f>
+        <v>43100</v>
+      </c>
+      <c r="AF2" s="27">
+        <f>J2</f>
+        <v>43465</v>
       </c>
       <c r="AG2" s="27">
         <f>N2</f>
@@ -1987,6 +2013,12 @@
     </row>
     <row r="3" spans="2:46" s="22" customFormat="1">
       <c r="B3" s="21"/>
+      <c r="G3" s="26">
+        <v>45748</v>
+      </c>
+      <c r="H3" s="26">
+        <v>43282</v>
+      </c>
       <c r="I3" s="26">
         <v>11232</v>
       </c>
@@ -2016,6 +2048,13 @@
       </c>
       <c r="Y3" s="26">
         <v>37561</v>
+      </c>
+      <c r="AD3" s="26">
+        <v>45658</v>
+      </c>
+      <c r="AF3" s="26">
+        <f>J3</f>
+        <v>47119</v>
       </c>
       <c r="AH3" s="26">
         <f>R3</f>
@@ -2029,16 +2068,24 @@
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="28">
+        <v>2303</v>
+      </c>
+      <c r="D4" s="28">
+        <v>2419</v>
+      </c>
       <c r="E4" s="28">
         <v>2498</v>
       </c>
       <c r="F4" s="28">
         <v>2707</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="28">
+        <v>2580</v>
+      </c>
+      <c r="H4" s="28">
+        <v>2640</v>
+      </c>
       <c r="I4" s="28">
         <v>2649</v>
       </c>
@@ -2089,6 +2136,20 @@
       </c>
       <c r="Y4" s="28">
         <v>2380</v>
+      </c>
+      <c r="AC4" s="28">
+        <v>8592</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>8979</v>
+      </c>
+      <c r="AE4" s="28">
+        <f>SUM(C4:F4)</f>
+        <v>9927</v>
+      </c>
+      <c r="AF4" s="28">
+        <f>SUM(G4:J4)</f>
+        <v>10746</v>
       </c>
       <c r="AG4" s="28">
         <f>SUM(K4:N4)</f>
@@ -2107,16 +2168,24 @@
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="29">
+        <v>514</v>
+      </c>
+      <c r="D5" s="29">
+        <v>560</v>
+      </c>
       <c r="E5" s="29">
         <v>557</v>
       </c>
       <c r="F5" s="29">
         <v>590</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="29">
+        <v>559</v>
+      </c>
+      <c r="H5" s="29">
+        <v>597</v>
+      </c>
       <c r="I5" s="29">
         <v>608</v>
       </c>
@@ -2167,6 +2236,20 @@
       </c>
       <c r="Y5" s="29">
         <v>647</v>
+      </c>
+      <c r="AC5" s="29">
+        <v>1771</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>2007</v>
+      </c>
+      <c r="AE5" s="29">
+        <f>SUM(C5:F5)</f>
+        <v>2221</v>
+      </c>
+      <c r="AF5" s="29">
+        <f>SUM(G5:J5)</f>
+        <v>2382</v>
       </c>
       <c r="AG5" s="29">
         <f>SUM(K5:N5)</f>
@@ -2187,11 +2270,11 @@
       </c>
       <c r="C6" s="28">
         <f t="shared" ref="C6:F6" si="0">C4-C5</f>
-        <v>0</v>
+        <v>1789</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
@@ -2203,11 +2286,11 @@
       </c>
       <c r="G6" s="28">
         <f t="shared" ref="G6:X6" si="1">G4-G5</f>
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="H6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" si="1"/>
@@ -2277,6 +2360,22 @@
         <f>Y4-Y5</f>
         <v>1733</v>
       </c>
+      <c r="AC6" s="28">
+        <f t="shared" ref="AC6" si="2">AC4-AC5</f>
+        <v>6821</v>
+      </c>
+      <c r="AD6" s="28">
+        <f t="shared" ref="AD6" si="3">AD4-AD5</f>
+        <v>6972</v>
+      </c>
+      <c r="AE6" s="28">
+        <f t="shared" ref="AE6:AF6" si="4">AE4-AE5</f>
+        <v>7706</v>
+      </c>
+      <c r="AF6" s="28">
+        <f t="shared" si="4"/>
+        <v>8364</v>
+      </c>
       <c r="AG6" s="28">
         <f>AG4-AG5</f>
         <v>6977</v>
@@ -2294,16 +2393,24 @@
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="29">
+        <v>648</v>
+      </c>
+      <c r="D7" s="29">
+        <v>727</v>
+      </c>
       <c r="E7" s="29">
         <v>719</v>
       </c>
       <c r="F7" s="29">
         <v>784</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="29">
+        <v>756</v>
+      </c>
+      <c r="H7" s="29">
+        <v>838</v>
+      </c>
       <c r="I7" s="29">
         <v>852</v>
       </c>
@@ -2355,12 +2462,26 @@
       <c r="Y7" s="29">
         <v>538</v>
       </c>
+      <c r="AC7" s="29">
+        <v>2267</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>2368</v>
+      </c>
+      <c r="AE7" s="29">
+        <f t="shared" ref="AE7:AE11" si="5">SUM(F7:I7)</f>
+        <v>3230</v>
+      </c>
+      <c r="AF7" s="29">
+        <f t="shared" ref="AF7:AF11" si="6">SUM(G7:J7)</f>
+        <v>3391</v>
+      </c>
       <c r="AG7" s="29">
-        <f t="shared" ref="AG7:AG11" si="2">SUM(K7:N7)</f>
+        <f t="shared" ref="AG7:AG11" si="7">SUM(K7:N7)</f>
         <v>2549</v>
       </c>
       <c r="AH7" s="29">
-        <f t="shared" ref="AH7:AH11" si="3">SUM(O7:R7)</f>
+        <f t="shared" ref="AH7:AH11" si="8">SUM(O7:R7)</f>
         <v>2787</v>
       </c>
       <c r="AI7" s="29">
@@ -2372,16 +2493,24 @@
       <c r="B8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="29">
+        <v>278</v>
+      </c>
+      <c r="D8" s="29">
+        <v>313</v>
+      </c>
       <c r="E8" s="29">
         <v>316</v>
       </c>
       <c r="F8" s="29">
         <v>317</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="29">
+        <v>334</v>
+      </c>
+      <c r="H8" s="29">
+        <v>352</v>
+      </c>
       <c r="I8" s="29">
         <v>307</v>
       </c>
@@ -2433,16 +2562,30 @@
       <c r="Y8" s="29">
         <v>345</v>
       </c>
+      <c r="AC8" s="29">
+        <v>923</v>
+      </c>
+      <c r="AD8" s="29">
+        <v>1114</v>
+      </c>
+      <c r="AE8" s="29">
+        <f t="shared" si="5"/>
+        <v>1310</v>
+      </c>
+      <c r="AF8" s="29">
+        <f t="shared" si="6"/>
+        <v>1285</v>
+      </c>
       <c r="AG8" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1051</v>
       </c>
       <c r="AH8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1161</v>
       </c>
       <c r="AI8" s="29">
-        <f t="shared" ref="AI8:AI11" si="4">SUM(S8:V8)</f>
+        <f t="shared" ref="AI8:AI11" si="9">SUM(S8:V8)</f>
         <v>1325</v>
       </c>
     </row>
@@ -2450,16 +2593,24 @@
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="29">
+        <v>245</v>
+      </c>
+      <c r="D9" s="29">
+        <v>267</v>
+      </c>
       <c r="E9" s="29">
         <v>254</v>
       </c>
       <c r="F9" s="29">
         <v>264</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="29">
+        <v>270</v>
+      </c>
+      <c r="H9" s="29">
+        <v>368</v>
+      </c>
       <c r="I9" s="29">
         <v>248</v>
       </c>
@@ -2511,16 +2662,30 @@
       <c r="Y9" s="29">
         <v>212</v>
       </c>
+      <c r="AC9" s="29">
+        <v>1122</v>
+      </c>
+      <c r="AD9" s="29">
+        <v>900</v>
+      </c>
+      <c r="AE9" s="29">
+        <f t="shared" si="5"/>
+        <v>1150</v>
+      </c>
+      <c r="AF9" s="29">
+        <f t="shared" si="6"/>
+        <v>1131</v>
+      </c>
       <c r="AG9" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1039</v>
       </c>
       <c r="AH9" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1065</v>
       </c>
       <c r="AI9" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>921</v>
       </c>
     </row>
@@ -2528,16 +2693,24 @@
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="29">
+        <v>62</v>
+      </c>
+      <c r="D10" s="29">
+        <v>63</v>
+      </c>
       <c r="E10" s="29">
         <v>68</v>
       </c>
       <c r="F10" s="29">
         <v>79</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="29">
+        <v>72</v>
+      </c>
+      <c r="H10" s="29">
+        <v>66</v>
+      </c>
       <c r="I10" s="29">
         <v>65</v>
       </c>
@@ -2589,16 +2762,30 @@
       <c r="Y10" s="29">
         <v>69</v>
       </c>
+      <c r="AC10" s="29">
+        <v>271</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>231</v>
+      </c>
+      <c r="AE10" s="29">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="AF10" s="29">
+        <f t="shared" si="6"/>
+        <v>286</v>
+      </c>
       <c r="AG10" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>266</v>
       </c>
       <c r="AH10" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>341</v>
       </c>
       <c r="AI10" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>422</v>
       </c>
     </row>
@@ -2606,16 +2793,24 @@
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="29">
+        <v>9</v>
+      </c>
+      <c r="D11" s="29">
+        <v>9</v>
+      </c>
       <c r="E11" s="29">
         <v>10</v>
       </c>
       <c r="F11" s="29">
         <v>10</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="29">
+        <v>10</v>
+      </c>
+      <c r="H11" s="29">
+        <v>13</v>
+      </c>
       <c r="I11" s="29">
         <v>13</v>
       </c>
@@ -2667,16 +2862,30 @@
       <c r="Y11" s="29">
         <v>1</v>
       </c>
+      <c r="AC11" s="29">
+        <v>41</v>
+      </c>
+      <c r="AD11" s="29">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="29">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="AF11" s="29">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
       <c r="AG11" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AH11" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AI11" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
     </row>
@@ -2685,103 +2894,119 @@
         <v>80</v>
       </c>
       <c r="C12" s="29">
-        <f t="shared" ref="C12:F12" si="5">SUM(C7:C11)</f>
-        <v>0</v>
+        <f t="shared" ref="C12:F12" si="10">SUM(C7:C11)</f>
+        <v>1242</v>
       </c>
       <c r="D12" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1379</v>
       </c>
       <c r="E12" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1367</v>
       </c>
       <c r="F12" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1454</v>
       </c>
       <c r="G12" s="29">
-        <f t="shared" ref="G12:X12" si="6">SUM(G7:G11)</f>
-        <v>0</v>
+        <f t="shared" ref="G12:X12" si="11">SUM(G7:G11)</f>
+        <v>1442</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1637</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1485</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1578</v>
       </c>
       <c r="K12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1281</v>
       </c>
       <c r="L12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1312</v>
       </c>
       <c r="M12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1145</v>
       </c>
       <c r="N12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1202</v>
       </c>
       <c r="O12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1219</v>
       </c>
       <c r="P12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1446</v>
       </c>
       <c r="Q12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1271</v>
       </c>
       <c r="R12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1449</v>
       </c>
       <c r="S12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1191</v>
       </c>
       <c r="T12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1264</v>
       </c>
       <c r="U12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1161</v>
       </c>
       <c r="V12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1231</v>
       </c>
       <c r="W12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1102</v>
       </c>
       <c r="X12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1234</v>
       </c>
       <c r="Y12" s="29">
         <f>SUM(Y7:Y11)</f>
         <v>1165</v>
       </c>
+      <c r="AC12" s="29">
+        <f t="shared" ref="AC12:AE12" si="12">SUM(AC7:AC11)</f>
+        <v>4624</v>
+      </c>
+      <c r="AD12" s="29">
+        <f t="shared" si="12"/>
+        <v>4647</v>
+      </c>
+      <c r="AE12" s="29">
+        <f t="shared" ref="AE12:AG12" si="13">SUM(AE7:AE11)</f>
+        <v>6018</v>
+      </c>
+      <c r="AF12" s="29">
+        <f t="shared" si="13"/>
+        <v>6142</v>
+      </c>
       <c r="AG12" s="29">
-        <f t="shared" ref="AG12" si="7">SUM(AG7:AG11)</f>
+        <f t="shared" si="13"/>
         <v>4940</v>
       </c>
       <c r="AH12" s="29">
-        <f t="shared" ref="AH12" si="8">SUM(AH7:AH11)</f>
+        <f t="shared" ref="AH12" si="14">SUM(AH7:AH11)</f>
         <v>5385</v>
       </c>
       <c r="AI12" s="29">
@@ -2794,103 +3019,119 @@
         <v>81</v>
       </c>
       <c r="C13" s="28">
-        <f t="shared" ref="C13:F13" si="9">C6-C12</f>
-        <v>0</v>
+        <f t="shared" ref="C13:F13" si="15">C6-C12</f>
+        <v>547</v>
       </c>
       <c r="D13" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>480</v>
       </c>
       <c r="E13" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>574</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>663</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" ref="G13:X13" si="10">G6-G12</f>
-        <v>0</v>
+        <f t="shared" ref="G13:X13" si="16">G6-G12</f>
+        <v>579</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>406</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>556</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>681</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>593</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>558</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>408</v>
       </c>
       <c r="N13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>478</v>
       </c>
       <c r="O13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>629</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>821</v>
       </c>
       <c r="Q13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>679</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>677</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>841</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>732</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>662</v>
       </c>
       <c r="V13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>688</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>692</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>525</v>
       </c>
       <c r="Y13" s="28">
         <f>Y6-Y12</f>
         <v>568</v>
       </c>
+      <c r="AC13" s="28">
+        <f t="shared" ref="AC13:AE13" si="17">AC6-AC12</f>
+        <v>2197</v>
+      </c>
+      <c r="AD13" s="28">
+        <f t="shared" si="17"/>
+        <v>2325</v>
+      </c>
+      <c r="AE13" s="28">
+        <f t="shared" ref="AE13:AG13" si="18">AE6-AE12</f>
+        <v>1688</v>
+      </c>
+      <c r="AF13" s="28">
+        <f t="shared" si="18"/>
+        <v>2222</v>
+      </c>
       <c r="AG13" s="28">
-        <f t="shared" ref="AG13" si="11">AG6-AG12</f>
+        <f t="shared" si="18"/>
         <v>2037</v>
       </c>
       <c r="AH13" s="28">
-        <f t="shared" ref="AH13" si="12">AH6-AH12</f>
+        <f t="shared" ref="AH13" si="19">AH6-AH12</f>
         <v>2806</v>
       </c>
       <c r="AI13" s="28">
@@ -2902,16 +3143,24 @@
       <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
       <c r="E14" s="29">
         <v>0</v>
       </c>
       <c r="F14" s="29">
         <v>0</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
       <c r="I14" s="29">
         <v>0</v>
       </c>
@@ -2963,16 +3212,30 @@
       <c r="Y14" s="29">
         <v>-593</v>
       </c>
+      <c r="AC14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="29">
+        <f t="shared" ref="AE14:AF15" si="20">SUM(F14:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="29">
+        <f t="shared" ref="AF14:AF15" si="21">SUM(G14:J14)</f>
+        <v>0</v>
+      </c>
       <c r="AG14" s="29">
-        <f t="shared" ref="AG14:AG15" si="13">SUM(K14:N14)</f>
+        <f t="shared" ref="AG14:AG15" si="22">SUM(K14:N14)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="29">
-        <f t="shared" ref="AH14:AH19" si="14">SUM(O14:R14)</f>
+        <f t="shared" ref="AH14:AH19" si="23">SUM(O14:R14)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="29">
-        <f t="shared" ref="AI14:AI15" si="15">SUM(S14:V14)</f>
+        <f t="shared" ref="AI14:AI15" si="24">SUM(S14:V14)</f>
         <v>-2365</v>
       </c>
     </row>
@@ -2980,16 +3243,24 @@
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="29">
+        <v>11</v>
+      </c>
+      <c r="D15" s="29">
+        <v>-18</v>
+      </c>
       <c r="E15" s="29">
         <v>120</v>
       </c>
       <c r="F15" s="29">
         <v>-102</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="29">
+        <v>-32</v>
+      </c>
+      <c r="H15" s="29">
+        <v>301</v>
+      </c>
       <c r="I15" s="29">
         <v>392</v>
       </c>
@@ -3041,16 +3312,30 @@
       <c r="Y15" s="29">
         <v>-29</v>
       </c>
+      <c r="AC15" s="29">
+        <v>209</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>1326</v>
+      </c>
+      <c r="AE15" s="29">
+        <f t="shared" si="20"/>
+        <v>559</v>
+      </c>
+      <c r="AF15" s="29">
+        <f t="shared" si="21"/>
+        <v>496</v>
+      </c>
       <c r="AG15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>-113</v>
       </c>
       <c r="AH15" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>711</v>
       </c>
       <c r="AI15" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>-160</v>
       </c>
     </row>
@@ -3059,31 +3344,31 @@
         <v>83</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" ref="C16:F16" si="16">C13+C14+C15</f>
-        <v>0</v>
+        <f t="shared" ref="C16:F16" si="25">C13+C14+C15</f>
+        <v>558</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>462</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>694</v>
       </c>
       <c r="F16" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>561</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" ref="G16:X16" si="17">G13+G14+G15</f>
-        <v>0</v>
+        <f t="shared" ref="G16:X16" si="26">G13+G14+G15</f>
+        <v>547</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>707</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>948</v>
       </c>
       <c r="J16" s="29">
@@ -3091,27 +3376,27 @@
         <v>516</v>
       </c>
       <c r="K16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>657</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>507</v>
       </c>
       <c r="M16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>266</v>
       </c>
       <c r="N16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>494</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>631</v>
       </c>
       <c r="P16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1003</v>
       </c>
       <c r="Q16" s="29">
@@ -3119,43 +3404,59 @@
         <v>774</v>
       </c>
       <c r="R16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1109</v>
       </c>
       <c r="S16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>724</v>
       </c>
       <c r="T16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>401</v>
       </c>
       <c r="U16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>434</v>
       </c>
       <c r="V16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1161</v>
       </c>
       <c r="W16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1649</v>
       </c>
       <c r="X16" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-727</v>
       </c>
       <c r="Y16" s="29">
         <f>Y13+Y14+Y15</f>
         <v>-54</v>
       </c>
+      <c r="AC16" s="29">
+        <f t="shared" ref="AC16:AH16" si="27">AC13+AC14+AC15</f>
+        <v>2406</v>
+      </c>
+      <c r="AD16" s="29">
+        <f t="shared" si="27"/>
+        <v>3651</v>
+      </c>
+      <c r="AE16" s="29">
+        <f t="shared" si="27"/>
+        <v>2247</v>
+      </c>
+      <c r="AF16" s="29">
+        <f t="shared" si="27"/>
+        <v>2718</v>
+      </c>
       <c r="AG16" s="29">
-        <f t="shared" ref="AG16:AH16" si="18">AG13+AG14+AG15</f>
+        <f t="shared" si="27"/>
         <v>1924</v>
       </c>
       <c r="AH16" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>3517</v>
       </c>
       <c r="AI16" s="29">
@@ -3167,16 +3468,24 @@
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="29">
+        <v>477</v>
+      </c>
+      <c r="D17" s="29">
+        <v>-433</v>
+      </c>
       <c r="E17" s="29">
         <v>-174</v>
       </c>
       <c r="F17" s="29">
         <v>-3158</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="29">
+        <v>-140</v>
+      </c>
+      <c r="H17" s="29">
+        <v>-69</v>
+      </c>
       <c r="I17" s="29">
         <v>-228</v>
       </c>
@@ -3228,16 +3537,30 @@
       <c r="Y17" s="29">
         <v>-16</v>
       </c>
+      <c r="AC17" s="29">
+        <v>-459</v>
+      </c>
+      <c r="AD17" s="29">
+        <v>3634</v>
+      </c>
+      <c r="AE17" s="29">
+        <f t="shared" ref="AE17" si="28">SUM(F17:I17)</f>
+        <v>-3595</v>
+      </c>
+      <c r="AF17" s="29">
+        <f t="shared" ref="AF17" si="29">SUM(G17:J17)</f>
+        <v>-190</v>
+      </c>
       <c r="AG17" s="29">
-        <f t="shared" ref="AG17" si="19">SUM(K17:N17)</f>
+        <f t="shared" ref="AG17" si="30">SUM(K17:N17)</f>
         <v>-329</v>
       </c>
       <c r="AH17" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-890</v>
       </c>
       <c r="AI17" s="29">
-        <f t="shared" ref="AI17" si="20">SUM(S17:V17)</f>
+        <f t="shared" ref="AI17" si="31">SUM(S17:V17)</f>
         <v>-146</v>
       </c>
     </row>
@@ -3246,103 +3569,119 @@
         <v>85</v>
       </c>
       <c r="C18" s="29">
-        <f t="shared" ref="C18:G18" si="21">C16+C17</f>
-        <v>0</v>
+        <f t="shared" ref="C18:F18" si="32">C16+C17</f>
+        <v>1035</v>
       </c>
       <c r="D18" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>29</v>
       </c>
       <c r="E18" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>520</v>
       </c>
       <c r="F18" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-2597</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" ref="G18:X18" si="22">G16+G17</f>
-        <v>0</v>
+        <f t="shared" ref="G18:X18" si="33">G16+G17</f>
+        <v>407</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>638</v>
       </c>
       <c r="I18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>720</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>763</v>
       </c>
       <c r="K18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>516</v>
       </c>
       <c r="L18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>400</v>
       </c>
       <c r="M18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>210</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>469</v>
       </c>
       <c r="O18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>485</v>
       </c>
       <c r="P18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>740</v>
       </c>
       <c r="Q18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>621</v>
       </c>
       <c r="R18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>781</v>
       </c>
       <c r="S18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>568</v>
       </c>
       <c r="T18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>294</v>
       </c>
       <c r="U18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>283</v>
       </c>
       <c r="V18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>-893</v>
       </c>
       <c r="W18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>-1339</v>
       </c>
       <c r="X18" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>-536</v>
       </c>
       <c r="Y18" s="29">
         <f>Y16+Y17</f>
         <v>-70</v>
       </c>
+      <c r="AC18" s="29">
+        <f t="shared" ref="AC18:AH18" si="34">AC16+AC17</f>
+        <v>1947</v>
+      </c>
+      <c r="AD18" s="29">
+        <f t="shared" si="34"/>
+        <v>7285</v>
+      </c>
+      <c r="AE18" s="29">
+        <f t="shared" si="34"/>
+        <v>-1348</v>
+      </c>
+      <c r="AF18" s="29">
+        <f t="shared" si="34"/>
+        <v>2528</v>
+      </c>
       <c r="AG18" s="29">
-        <f t="shared" ref="AG18:AH18" si="23">AG16+AG17</f>
+        <f t="shared" si="34"/>
         <v>1595</v>
       </c>
       <c r="AH18" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>2627</v>
       </c>
       <c r="AI18" s="29">
@@ -3354,16 +3693,24 @@
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="29">
+        <v>0</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
       <c r="E19" s="29">
         <v>0</v>
       </c>
       <c r="F19" s="29">
         <v>-4</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>4</v>
+      </c>
       <c r="I19" s="29">
         <v>1</v>
       </c>
@@ -3415,16 +3762,30 @@
       <c r="Y19" s="29">
         <v>1</v>
       </c>
+      <c r="AC19" s="29">
+        <v>-222</v>
+      </c>
+      <c r="AD19" s="29">
+        <v>-19</v>
+      </c>
+      <c r="AE19" s="29">
+        <f t="shared" ref="AE19" si="35">SUM(F19:I19)</f>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="29">
+        <f t="shared" ref="AF19" si="36">SUM(G19:J19)</f>
+        <v>2</v>
+      </c>
       <c r="AG19" s="29">
-        <f t="shared" ref="AG19" si="24">SUM(K19:N19)</f>
+        <f t="shared" ref="AG19" si="37">SUM(K19:N19)</f>
         <v>191</v>
       </c>
       <c r="AH19" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3040</v>
       </c>
       <c r="AI19" s="29">
-        <f t="shared" ref="AI19" si="25">SUM(S19:V19)</f>
+        <f t="shared" ref="AI19" si="38">SUM(S19:V19)</f>
         <v>13356</v>
       </c>
     </row>
@@ -3433,103 +3794,119 @@
         <v>71</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" ref="C20:G20" si="26">C18+C19</f>
-        <v>0</v>
+        <f t="shared" ref="C20:F20" si="39">C18+C19</f>
+        <v>1035</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>29</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>520</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>-2601</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" ref="G20:X20" si="27">G18+G19</f>
-        <v>0</v>
+        <f t="shared" ref="G20:X20" si="40">G18+G19</f>
+        <v>407</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>642</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>721</v>
       </c>
       <c r="J20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>760</v>
       </c>
       <c r="K20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>518</v>
       </c>
       <c r="L20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>402</v>
       </c>
       <c r="M20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>310</v>
       </c>
       <c r="N20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>556</v>
       </c>
       <c r="O20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>3412</v>
       </c>
       <c r="P20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>746</v>
       </c>
       <c r="Q20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>664</v>
       </c>
       <c r="R20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>845</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>641</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>10734</v>
       </c>
       <c r="U20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>264</v>
       </c>
       <c r="V20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1969</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>-1341</v>
       </c>
       <c r="X20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>-531</v>
       </c>
       <c r="Y20" s="28">
         <f>Y18+Y19</f>
         <v>-69</v>
       </c>
+      <c r="AC20" s="28">
+        <f t="shared" ref="AC20:AH20" si="41">AC18+AC19</f>
+        <v>1725</v>
+      </c>
+      <c r="AD20" s="28">
+        <f t="shared" si="41"/>
+        <v>7266</v>
+      </c>
+      <c r="AE20" s="28">
+        <f t="shared" si="41"/>
+        <v>-1347</v>
+      </c>
+      <c r="AF20" s="28">
+        <f t="shared" si="41"/>
+        <v>2530</v>
+      </c>
       <c r="AG20" s="28">
-        <f t="shared" ref="AG20:AH20" si="28">AG18+AG19</f>
+        <f t="shared" si="41"/>
         <v>1786</v>
       </c>
       <c r="AH20" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>5667</v>
       </c>
       <c r="AI20" s="28">
@@ -3541,85 +3918,113 @@
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="30">
+        <f t="shared" ref="C21:F21" si="42">C20/C22</f>
+        <v>0.95567867036011078</v>
+      </c>
+      <c r="D21" s="30">
+        <f t="shared" si="42"/>
+        <v>2.6951672862453532E-2</v>
+      </c>
       <c r="E21" s="30">
-        <f t="shared" ref="E21:F21" si="29">E20/E22</f>
+        <f t="shared" si="42"/>
         <v>0.4896421845574388</v>
       </c>
       <c r="F21" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>-2.5130434782608697</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="30">
+        <f t="shared" ref="G21:N21" si="43">G20/G22</f>
+        <v>0.402970297029703</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="43"/>
+        <v>0.64717741935483875</v>
+      </c>
       <c r="I21" s="30">
-        <f t="shared" ref="I21:N21" si="30">I20/I22</f>
+        <f t="shared" si="43"/>
         <v>0.74024640657084184</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.8</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.5755555555555556</v>
       </c>
       <c r="L21" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.46744186046511627</v>
       </c>
       <c r="M21" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.37349397590361444</v>
       </c>
       <c r="N21" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.68897149938042135</v>
       </c>
       <c r="O21" s="30">
-        <f t="shared" ref="O21:Y21" si="31">O20/O22</f>
+        <f t="shared" ref="O21:Y21" si="44">O20/O22</f>
         <v>4.5312084993359898</v>
       </c>
       <c r="P21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.0611664295874823</v>
       </c>
       <c r="Q21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.95402298850574707</v>
       </c>
       <c r="R21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.2281976744186047</v>
       </c>
       <c r="S21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.94126284875183552</v>
       </c>
       <c r="T21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>15.925816023738873</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.40121580547112462</v>
       </c>
       <c r="V21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>3.2491749174917492</v>
       </c>
       <c r="W21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>-2.2844974446337307</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>-0.95503597122302153</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>-0.12715165313356303</v>
+      </c>
+      <c r="AC21" s="30">
+        <f t="shared" ref="AC21" si="45">AC20/AC22</f>
+        <v>1.4279801324503312</v>
+      </c>
+      <c r="AD21" s="30">
+        <f t="shared" ref="AD21" si="46">AD20/AD22</f>
+        <v>6.4130626654898499</v>
+      </c>
+      <c r="AE21" s="30">
+        <f t="shared" ref="AE21:AF21" si="47">AE20/AE22</f>
+        <v>-1.3014492753623188</v>
+      </c>
+      <c r="AF21" s="30">
+        <f t="shared" si="47"/>
+        <v>2.6631578947368419</v>
       </c>
       <c r="AG21" s="30">
         <f>AG20/AG22</f>
@@ -3638,12 +4043,24 @@
       <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C22" s="29">
+        <v>1083</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1076</v>
+      </c>
       <c r="E22" s="29">
         <v>1062</v>
       </c>
       <c r="F22" s="29">
         <v>1035</v>
       </c>
+      <c r="G22" s="29">
+        <v>1010</v>
+      </c>
+      <c r="H22" s="29">
+        <v>992</v>
+      </c>
       <c r="I22" s="29">
         <v>974</v>
       </c>
@@ -3694,6 +4111,20 @@
       </c>
       <c r="Y22" s="29">
         <v>542.659087</v>
+      </c>
+      <c r="AC22" s="29">
+        <v>1208</v>
+      </c>
+      <c r="AD22" s="29">
+        <v>1133</v>
+      </c>
+      <c r="AE22" s="29">
+        <f>F22</f>
+        <v>1035</v>
+      </c>
+      <c r="AF22" s="29">
+        <f>J22</f>
+        <v>950</v>
       </c>
       <c r="AG22" s="29">
         <v>849</v>
@@ -3709,16 +4140,36 @@
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="G24" s="31">
+        <f t="shared" ref="G24:J24" si="48">G4/C4-1</f>
+        <v>0.12027789839339986</v>
+      </c>
+      <c r="H24" s="31">
+        <f t="shared" si="48"/>
+        <v>9.1360066143034269E-2</v>
+      </c>
       <c r="I24" s="31">
-        <f t="shared" ref="I24:J24" si="32">I4/E4-1</f>
+        <f t="shared" si="48"/>
         <v>6.0448358686949533E-2</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>6.2800147765053493E-2</v>
       </c>
+      <c r="K24" s="31">
+        <f t="shared" ref="K24" si="49">K4/G4-1</f>
+        <v>-6.4728682170542617E-2</v>
+      </c>
+      <c r="L24" s="31">
+        <f t="shared" ref="L24" si="50">L4/H4-1</f>
+        <v>-8.2196969696969657E-2</v>
+      </c>
+      <c r="M24" s="31">
+        <f t="shared" ref="M24" si="51">M4/I4-1</f>
+        <v>-0.21366553416383538</v>
+      </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24" si="33">N4/J4-1</f>
+        <f t="shared" ref="N24" si="52">N4/J4-1</f>
         <v>-0.22280152937087239</v>
       </c>
       <c r="O24" s="31">
@@ -3738,11 +4189,11 @@
         <v>0.28264758497316644</v>
       </c>
       <c r="S24" s="31">
-        <f t="shared" ref="S24:T24" si="34">S4/O4-1</f>
+        <f t="shared" ref="S24:T24" si="53">S4/O4-1</f>
         <v>0.11120471777590568</v>
       </c>
       <c r="T24" s="31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>-6.8760907504363034E-2</v>
       </c>
       <c r="U24" s="31">
@@ -3765,6 +4216,22 @@
         <f>Y4/U4-1</f>
         <v>-4.8380647740903671E-2</v>
       </c>
+      <c r="AD24" s="31">
+        <f t="shared" ref="AD24:AH24" si="54">AD4/AC4-1</f>
+        <v>4.5041899441340849E-2</v>
+      </c>
+      <c r="AE24" s="31">
+        <f t="shared" si="54"/>
+        <v>0.10557968593384559</v>
+      </c>
+      <c r="AF24" s="31">
+        <f t="shared" si="54"/>
+        <v>8.2502266545784186E-2</v>
+      </c>
+      <c r="AG24" s="31">
+        <f t="shared" si="54"/>
+        <v>-0.14805509026614549</v>
+      </c>
       <c r="AH24" s="31">
         <f>AH4/AG4-1</f>
         <v>0.17018022938285093</v>
@@ -3778,64 +4245,84 @@
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D25" s="32">
+        <f t="shared" ref="D25" si="55">D4/C4-1</f>
+        <v>5.0369083803734283E-2</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" ref="E25" si="56">E4/D4-1</f>
+        <v>3.2658123191401378E-2</v>
+      </c>
       <c r="F25" s="32">
-        <f t="shared" ref="F25" si="35">F4/E4-1</f>
+        <f t="shared" ref="E25:F25" si="57">F4/E4-1</f>
         <v>8.3666933546837408E-2</v>
       </c>
+      <c r="G25" s="32">
+        <f t="shared" ref="G25" si="58">G4/F4-1</f>
+        <v>-4.691540450683418E-2</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" ref="H25" si="59">H4/G4-1</f>
+        <v>2.3255813953488413E-2</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" ref="I25:K25" si="60">I4/H4-1</f>
+        <v>3.4090909090909172E-3</v>
+      </c>
       <c r="J25" s="32">
-        <f t="shared" ref="J25:K25" si="36">J4/I4-1</f>
+        <f t="shared" si="60"/>
         <v>8.6070215175537923E-2</v>
       </c>
       <c r="K25" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="60"/>
         <v>-0.1612791101842197</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" ref="L25:N25" si="37">L4/K4-1</f>
+        <f t="shared" ref="L25:N25" si="61">L4/K4-1</f>
         <v>4.1442188147533532E-3</v>
       </c>
       <c r="M25" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>-0.14032191498142799</v>
       </c>
       <c r="N25" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>7.3451752280364824E-2</v>
       </c>
       <c r="O25" s="32">
-        <f t="shared" ref="O25:P25" si="38">O4/N4-1</f>
+        <f t="shared" ref="O25:P25" si="62">O4/N4-1</f>
         <v>6.1717352415026738E-2</v>
       </c>
       <c r="P25" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="62"/>
         <v>0.20682392586352139</v>
       </c>
       <c r="Q25" s="32">
-        <f t="shared" ref="Q25:W25" si="39">Q4/P4-1</f>
+        <f t="shared" ref="Q25:W25" si="63">Q4/P4-1</f>
         <v>-9.0401396160558423E-2</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>0.10053722179585578</v>
       </c>
       <c r="S25" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>-8.0195258019525761E-2</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>1.1372251705837666E-2</v>
       </c>
       <c r="U25" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>-6.2593703148425828E-2</v>
       </c>
       <c r="V25" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>4.4782087165133877E-2</v>
       </c>
       <c r="W25" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>-4.9751243781094523E-2</v>
       </c>
       <c r="X25" s="32">
@@ -3846,6 +4333,9 @@
         <f>Y4/X4-1</f>
         <v>-1.7341040462427793E-2</v>
       </c>
+      <c r="AC25" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="AD25" s="19" t="s">
         <v>123</v>
       </c>
@@ -3869,56 +4359,72 @@
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C27" s="32">
+        <f t="shared" ref="C27:H27" si="64">C6/C4</f>
+        <v>0.77681285280069479</v>
+      </c>
+      <c r="D27" s="32">
+        <f t="shared" si="64"/>
+        <v>0.76849937990905337</v>
+      </c>
       <c r="E27" s="32">
-        <f t="shared" ref="E27:F27" si="40">E6/E4</f>
+        <f t="shared" si="64"/>
         <v>0.77702161729383512</v>
       </c>
       <c r="F27" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="64"/>
         <v>0.78204654599187295</v>
       </c>
+      <c r="G27" s="32">
+        <f t="shared" si="64"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" ref="H27:I27" si="65">H6/H4</f>
+        <v>0.77386363636363631</v>
+      </c>
       <c r="I27" s="32">
-        <f t="shared" ref="I27:J27" si="41">I6/I4</f>
+        <f t="shared" si="65"/>
         <v>0.77047942619856546</v>
       </c>
       <c r="J27" s="32">
-        <f t="shared" ref="J27:K27" si="42">J6/J4</f>
+        <f t="shared" ref="J27:K27" si="66">J6/J4</f>
         <v>0.78519290928050056</v>
       </c>
       <c r="K27" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="66"/>
         <v>0.77662660588479071</v>
       </c>
       <c r="L27" s="32">
-        <f t="shared" ref="L27" si="43">L6/L4</f>
+        <f t="shared" ref="L27" si="67">L6/L4</f>
         <v>0.77177053239785387</v>
       </c>
       <c r="M27" s="32">
-        <f t="shared" ref="M27:N27" si="44">M6/M4</f>
+        <f t="shared" ref="M27:N27" si="68">M6/M4</f>
         <v>0.74555928948631778</v>
       </c>
       <c r="N27" s="32">
-        <f t="shared" si="44"/>
+        <f t="shared" si="68"/>
         <v>0.75134168157423975</v>
       </c>
       <c r="O27" s="32">
-        <f t="shared" ref="O27" si="45">O6/O4</f>
+        <f t="shared" ref="O27" si="69">O6/O4</f>
         <v>0.77843302443133955</v>
       </c>
       <c r="P27" s="32">
-        <f t="shared" ref="P27" si="46">P6/P4</f>
+        <f t="shared" ref="P27" si="70">P6/P4</f>
         <v>0.79127399650959862</v>
       </c>
       <c r="Q27" s="32">
-        <f t="shared" ref="Q27" si="47">Q6/Q4</f>
+        <f t="shared" ref="Q27" si="71">Q6/Q4</f>
         <v>0.7482732156561781</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" ref="R27:S27" si="48">R6/R4</f>
+        <f t="shared" ref="R27:S27" si="72">R6/R4</f>
         <v>0.74128312412831243</v>
       </c>
       <c r="S27" s="32">
-        <f t="shared" si="48"/>
+        <f t="shared" si="72"/>
         <v>0.77028051554207733</v>
       </c>
       <c r="T27" s="32">
@@ -3930,11 +4436,11 @@
         <v>0.72890843662534988</v>
       </c>
       <c r="V27" s="32">
-        <f t="shared" ref="V27" si="49">V6/V4</f>
+        <f t="shared" ref="V27" si="73">V6/V4</f>
         <v>0.73440489858400304</v>
       </c>
       <c r="W27" s="32">
-        <f t="shared" ref="W27" si="50">W6/W4</f>
+        <f t="shared" ref="W27" si="74">W6/W4</f>
         <v>0.72251308900523559</v>
       </c>
       <c r="X27" s="32">
@@ -3945,12 +4451,28 @@
         <f>Y6/Y4</f>
         <v>0.72815126050420165</v>
       </c>
+      <c r="AC27" s="32">
+        <f t="shared" ref="AC27:AE27" si="75">AC6/AC4</f>
+        <v>0.79387802607076352</v>
+      </c>
+      <c r="AD27" s="32">
+        <f t="shared" si="75"/>
+        <v>0.77647844971600399</v>
+      </c>
+      <c r="AE27" s="32">
+        <f t="shared" ref="AE27:AG27" si="76">AE6/AE4</f>
+        <v>0.77626674725496125</v>
+      </c>
+      <c r="AF27" s="32">
+        <f t="shared" si="76"/>
+        <v>0.77833612506979344</v>
+      </c>
       <c r="AG27" s="32">
-        <f t="shared" ref="AG27" si="51">AG6/AG4</f>
+        <f t="shared" si="76"/>
         <v>0.76209721463681046</v>
       </c>
       <c r="AH27" s="32">
-        <f t="shared" ref="AH27" si="52">AH6/AH4</f>
+        <f t="shared" ref="AH27" si="77">AH6/AH4</f>
         <v>0.76458508354335852</v>
       </c>
       <c r="AI27" s="32">
@@ -3962,56 +4484,72 @@
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C28" s="32">
+        <f t="shared" ref="C28:H28" si="78">C13/C4</f>
+        <v>0.23751628310898829</v>
+      </c>
+      <c r="D28" s="32">
+        <f t="shared" si="78"/>
+        <v>0.19842910293509713</v>
+      </c>
       <c r="E28" s="32">
-        <f t="shared" ref="E28:F28" si="53">E13/E4</f>
+        <f t="shared" si="78"/>
         <v>0.22978382706164932</v>
       </c>
       <c r="F28" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="78"/>
         <v>0.24492057628370889</v>
       </c>
+      <c r="G28" s="32">
+        <f t="shared" si="78"/>
+        <v>0.22441860465116278</v>
+      </c>
+      <c r="H28" s="32">
+        <f t="shared" ref="H28:I28" si="79">H13/H4</f>
+        <v>0.15378787878787878</v>
+      </c>
       <c r="I28" s="32">
-        <f t="shared" ref="I28:J28" si="54">I13/I4</f>
+        <f t="shared" si="79"/>
         <v>0.20989052472631181</v>
       </c>
       <c r="J28" s="32">
-        <f t="shared" ref="J28:K28" si="55">J13/J4</f>
+        <f t="shared" ref="J28:K28" si="80">J13/J4</f>
         <v>0.23670490093847757</v>
       </c>
       <c r="K28" s="32">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.24575217571487776</v>
       </c>
       <c r="L28" s="32">
-        <f t="shared" ref="L28" si="56">L13/L4</f>
+        <f t="shared" ref="L28" si="81">L13/L4</f>
         <v>0.2302930251754024</v>
       </c>
       <c r="M28" s="32">
-        <f t="shared" ref="M28:N28" si="57">M13/M4</f>
+        <f t="shared" ref="M28:N28" si="82">M13/M4</f>
         <v>0.19587133941430629</v>
       </c>
       <c r="N28" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="82"/>
         <v>0.21377459749552774</v>
       </c>
       <c r="O28" s="32">
-        <f t="shared" ref="O28" si="58">O13/O4</f>
+        <f t="shared" ref="O28" si="83">O13/O4</f>
         <v>0.26495366470092668</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" ref="P28" si="59">P13/P4</f>
+        <f t="shared" ref="P28" si="84">P13/P4</f>
         <v>0.28656195462478184</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" ref="Q28" si="60">Q13/Q4</f>
+        <f t="shared" ref="Q28" si="85">Q13/Q4</f>
         <v>0.26055257099002305</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" ref="R28:S28" si="61">R13/R4</f>
+        <f t="shared" ref="R28:S28" si="86">R13/R4</f>
         <v>0.23605299860529985</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>0.31880212282031845</v>
       </c>
       <c r="T28" s="32">
@@ -4023,11 +4561,11 @@
         <v>0.2646941223510596</v>
       </c>
       <c r="V28" s="32">
-        <f t="shared" ref="V28" si="62">V13/V4</f>
+        <f t="shared" ref="V28" si="87">V13/V4</f>
         <v>0.26329889016456182</v>
       </c>
       <c r="W28" s="32">
-        <f t="shared" ref="W28" si="63">W13/W4</f>
+        <f t="shared" ref="W28" si="88">W13/W4</f>
         <v>0.27869512686266612</v>
       </c>
       <c r="X28" s="32">
@@ -4038,12 +4576,28 @@
         <f>Y13/Y4</f>
         <v>0.23865546218487396</v>
       </c>
+      <c r="AC28" s="32">
+        <f t="shared" ref="AC28:AE28" si="89">AC13/AC4</f>
+        <v>0.25570297951582865</v>
+      </c>
+      <c r="AD28" s="32">
+        <f t="shared" si="89"/>
+        <v>0.25893752088205813</v>
+      </c>
+      <c r="AE28" s="32">
+        <f t="shared" ref="AE28:AG28" si="90">AE13/AE4</f>
+        <v>0.17004130150095698</v>
+      </c>
+      <c r="AF28" s="32">
+        <f t="shared" si="90"/>
+        <v>0.20677461380978968</v>
+      </c>
       <c r="AG28" s="32">
-        <f t="shared" ref="AG28" si="64">AG13/AG4</f>
+        <f t="shared" si="90"/>
         <v>0.2225013653741125</v>
       </c>
       <c r="AH28" s="32">
-        <f t="shared" ref="AH28" si="65">AH13/AH4</f>
+        <f t="shared" ref="AH28" si="91">AH13/AH4</f>
         <v>0.26192476430504996</v>
       </c>
       <c r="AI28" s="32">
@@ -4055,56 +4609,72 @@
       <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C29" s="32">
+        <f t="shared" ref="C29:H29" si="92">C20/C4</f>
+        <v>0.44941380807642206</v>
+      </c>
+      <c r="D29" s="32">
+        <f t="shared" si="92"/>
+        <v>1.1988424968995453E-2</v>
+      </c>
       <c r="E29" s="32">
-        <f t="shared" ref="E29:F29" si="66">E20/E4</f>
+        <f t="shared" si="92"/>
         <v>0.20816653322658127</v>
       </c>
       <c r="F29" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="92"/>
         <v>-0.96084226080531954</v>
       </c>
+      <c r="G29" s="32">
+        <f t="shared" si="92"/>
+        <v>0.15775193798449613</v>
+      </c>
+      <c r="H29" s="32">
+        <f t="shared" ref="H29:I29" si="93">H20/H4</f>
+        <v>0.24318181818181819</v>
+      </c>
       <c r="I29" s="32">
-        <f t="shared" ref="I29:J29" si="67">I20/I4</f>
+        <f t="shared" si="93"/>
         <v>0.27217818044545111</v>
       </c>
       <c r="J29" s="32">
-        <f t="shared" ref="J29:K29" si="68">J20/J4</f>
+        <f t="shared" ref="J29:K29" si="94">J20/J4</f>
         <v>0.26416405978449775</v>
       </c>
       <c r="K29" s="32">
-        <f t="shared" si="68"/>
+        <f t="shared" si="94"/>
         <v>0.21467053460422711</v>
       </c>
       <c r="L29" s="32">
-        <f t="shared" ref="L29" si="69">L20/L4</f>
+        <f t="shared" ref="L29" si="95">L20/L4</f>
         <v>0.16591002888980602</v>
       </c>
       <c r="M29" s="32">
-        <f t="shared" ref="M29:N29" si="70">M20/M4</f>
+        <f t="shared" ref="M29:N29" si="96">M20/M4</f>
         <v>0.14882381180988957</v>
       </c>
       <c r="N29" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="96"/>
         <v>0.24865831842576028</v>
       </c>
       <c r="O29" s="32">
-        <f t="shared" ref="O29" si="71">O20/O4</f>
+        <f t="shared" ref="O29" si="97">O20/O4</f>
         <v>1.4372367312552654</v>
       </c>
       <c r="P29" s="32">
-        <f t="shared" ref="P29" si="72">P20/P4</f>
+        <f t="shared" ref="P29" si="98">P20/P4</f>
         <v>0.26038394415357768</v>
       </c>
       <c r="Q29" s="32">
-        <f t="shared" ref="Q29" si="73">Q20/Q4</f>
+        <f t="shared" ref="Q29" si="99">Q20/Q4</f>
         <v>0.25479662317728319</v>
       </c>
       <c r="R29" s="32">
-        <f t="shared" ref="R29:S29" si="74">R20/R4</f>
+        <f t="shared" ref="R29:S29" si="100">R20/R4</f>
         <v>0.29463040446304045</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="100"/>
         <v>0.24298711144806673</v>
       </c>
       <c r="T29" s="32">
@@ -4116,11 +4686,11 @@
         <v>0.10555777688924431</v>
       </c>
       <c r="V29" s="32">
-        <f t="shared" ref="V29" si="75">V20/V4</f>
+        <f t="shared" ref="V29" si="101">V20/V4</f>
         <v>0.75353999234596247</v>
       </c>
       <c r="W29" s="32">
-        <f t="shared" ref="W29" si="76">W20/W4</f>
+        <f t="shared" ref="W29" si="102">W20/W4</f>
         <v>-0.54007249295207416</v>
       </c>
       <c r="X29" s="32">
@@ -4131,12 +4701,28 @@
         <f>Y20/Y4</f>
         <v>-2.8991596638655463E-2</v>
       </c>
+      <c r="AC29" s="32">
+        <f t="shared" ref="AC29:AE29" si="103">AC20/AC4</f>
+        <v>0.20076815642458101</v>
+      </c>
+      <c r="AD29" s="32">
+        <f t="shared" si="103"/>
+        <v>0.80922151687270294</v>
+      </c>
+      <c r="AE29" s="32">
+        <f t="shared" ref="AE29:AG29" si="104">AE20/AE4</f>
+        <v>-0.13569054094892716</v>
+      </c>
+      <c r="AF29" s="32">
+        <f t="shared" si="104"/>
+        <v>0.23543644146659223</v>
+      </c>
       <c r="AG29" s="32">
-        <f t="shared" ref="AG29" si="77">AG20/AG4</f>
+        <f t="shared" si="104"/>
         <v>0.19508465319497542</v>
       </c>
       <c r="AH29" s="32">
-        <f t="shared" ref="AH29" si="78">AH20/AH4</f>
+        <f t="shared" ref="AH29" si="105">AH20/AH4</f>
         <v>0.52898347801736212</v>
       </c>
       <c r="AI29" s="32">
@@ -4148,56 +4734,72 @@
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="C30" s="32">
+        <f t="shared" ref="C30:H30" si="106">ABS(C17)/ABS(C16)</f>
+        <v>0.85483870967741937</v>
+      </c>
+      <c r="D30" s="32">
+        <f t="shared" si="106"/>
+        <v>0.93722943722943719</v>
+      </c>
       <c r="E30" s="32">
-        <f t="shared" ref="E30:F30" si="79">ABS(E17)/ABS(E16)</f>
+        <f t="shared" si="106"/>
         <v>0.25072046109510088</v>
       </c>
       <c r="F30" s="32">
-        <f t="shared" si="79"/>
+        <f t="shared" si="106"/>
         <v>5.6292335115864525</v>
       </c>
+      <c r="G30" s="32">
+        <f t="shared" si="106"/>
+        <v>0.25594149908592323</v>
+      </c>
+      <c r="H30" s="32">
+        <f t="shared" ref="H30:I30" si="107">ABS(H17)/ABS(H16)</f>
+        <v>9.7595473833097593E-2</v>
+      </c>
       <c r="I30" s="32">
-        <f t="shared" ref="I30:J30" si="80">ABS(I17)/ABS(I16)</f>
+        <f t="shared" si="107"/>
         <v>0.24050632911392406</v>
       </c>
       <c r="J30" s="32">
-        <f t="shared" ref="J30:K30" si="81">ABS(J17)/ABS(J16)</f>
+        <f t="shared" ref="J30:K30" si="108">ABS(J17)/ABS(J16)</f>
         <v>0.47868217054263568</v>
       </c>
       <c r="K30" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="108"/>
         <v>0.21461187214611871</v>
       </c>
       <c r="L30" s="32">
-        <f t="shared" ref="L30" si="82">ABS(L17)/ABS(L16)</f>
+        <f t="shared" ref="L30" si="109">ABS(L17)/ABS(L16)</f>
         <v>0.21104536489151873</v>
       </c>
       <c r="M30" s="32">
-        <f t="shared" ref="M30:N30" si="83">ABS(M17)/ABS(M16)</f>
+        <f t="shared" ref="M30:N30" si="110">ABS(M17)/ABS(M16)</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="N30" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="110"/>
         <v>5.0607287449392711E-2</v>
       </c>
       <c r="O30" s="32">
-        <f t="shared" ref="O30" si="84">ABS(O17)/ABS(O16)</f>
+        <f t="shared" ref="O30" si="111">ABS(O17)/ABS(O16)</f>
         <v>0.23137876386687797</v>
       </c>
       <c r="P30" s="32">
-        <f t="shared" ref="P30" si="85">ABS(P17)/ABS(P16)</f>
+        <f t="shared" ref="P30" si="112">ABS(P17)/ABS(P16)</f>
         <v>0.26221335992023931</v>
       </c>
       <c r="Q30" s="32">
-        <f t="shared" ref="Q30" si="86">ABS(Q17)/ABS(Q16)</f>
+        <f t="shared" ref="Q30" si="113">ABS(Q17)/ABS(Q16)</f>
         <v>0.19767441860465115</v>
       </c>
       <c r="R30" s="32">
-        <f t="shared" ref="R30:S30" si="87">ABS(R17)/ABS(R16)</f>
+        <f t="shared" ref="R30:S30" si="114">ABS(R17)/ABS(R16)</f>
         <v>0.29576194770063119</v>
       </c>
       <c r="S30" s="32">
-        <f t="shared" si="87"/>
+        <f t="shared" si="114"/>
         <v>0.21546961325966851</v>
       </c>
       <c r="T30" s="32">
@@ -4209,11 +4811,11 @@
         <v>0.34792626728110598</v>
       </c>
       <c r="V30" s="32">
-        <f t="shared" ref="V30" si="88">ABS(V17)/ABS(V16)</f>
+        <f t="shared" ref="V30" si="115">ABS(V17)/ABS(V16)</f>
         <v>0.23083548664944015</v>
       </c>
       <c r="W30" s="32">
-        <f t="shared" ref="W30" si="89">ABS(W17)/ABS(W16)</f>
+        <f t="shared" ref="W30" si="116">ABS(W17)/ABS(W16)</f>
         <v>0.18799272286234081</v>
       </c>
       <c r="X30" s="32">
@@ -4224,12 +4826,28 @@
         <f>ABS(Y17)/ABS(Y16)</f>
         <v>0.29629629629629628</v>
       </c>
+      <c r="AC30" s="32">
+        <f t="shared" ref="AC30:AE30" si="117">ABS(AC17)/ABS(AC16)</f>
+        <v>0.19077306733167082</v>
+      </c>
+      <c r="AD30" s="32">
+        <f t="shared" si="117"/>
+        <v>0.99534374144070115</v>
+      </c>
+      <c r="AE30" s="32">
+        <f t="shared" ref="AE30:AG30" si="118">ABS(AE17)/ABS(AE16)</f>
+        <v>1.5999109924343569</v>
+      </c>
+      <c r="AF30" s="32">
+        <f t="shared" si="118"/>
+        <v>6.9904341427520236E-2</v>
+      </c>
       <c r="AG30" s="32">
-        <f t="shared" ref="AG30" si="90">ABS(AG17)/ABS(AG16)</f>
+        <f t="shared" si="118"/>
         <v>0.17099792099792099</v>
       </c>
       <c r="AH30" s="32">
-        <f t="shared" ref="AH30" si="91">ABS(AH17)/ABS(AH16)</f>
+        <f t="shared" ref="AH30" si="119">ABS(AH17)/ABS(AH16)</f>
         <v>0.25305658231447259</v>
       </c>
       <c r="AI30" s="32">
@@ -4254,12 +4872,18 @@
       <c r="F35" s="28">
         <v>2120</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="28">
+        <v>2527</v>
+      </c>
+      <c r="H35" s="28">
+        <v>1619</v>
+      </c>
       <c r="I35" s="28">
         <v>2086</v>
       </c>
-      <c r="J35" s="28"/>
+      <c r="J35" s="28">
+        <v>2202</v>
+      </c>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
@@ -4290,6 +4914,20 @@
       <c r="Y35" s="28">
         <v>2037</v>
       </c>
+      <c r="AC35" s="28">
+        <v>1832</v>
+      </c>
+      <c r="AD35" s="28">
+        <v>1816</v>
+      </c>
+      <c r="AE35" s="28">
+        <f>F35</f>
+        <v>2120</v>
+      </c>
+      <c r="AF35" s="28">
+        <f>J35</f>
+        <v>2202</v>
+      </c>
       <c r="AG35" s="28">
         <f>N35</f>
         <v>901</v>
@@ -4312,12 +4950,18 @@
       <c r="F36" s="28">
         <v>3743</v>
       </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="G36" s="28">
+        <v>2279</v>
+      </c>
+      <c r="H36" s="28">
+        <v>2388</v>
+      </c>
       <c r="I36" s="28">
         <v>2752</v>
       </c>
-      <c r="J36" s="28"/>
+      <c r="J36" s="28">
+        <v>2713</v>
+      </c>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -4348,6 +4992,20 @@
       <c r="Y36" s="28">
         <v>1457</v>
       </c>
+      <c r="AC36" s="28">
+        <v>4299</v>
+      </c>
+      <c r="AD36" s="28">
+        <v>5333</v>
+      </c>
+      <c r="AE36" s="28">
+        <f>F36</f>
+        <v>3743</v>
+      </c>
+      <c r="AF36" s="28">
+        <f>J36</f>
+        <v>2713</v>
+      </c>
       <c r="AG36" s="28">
         <f>N36</f>
         <v>1850</v>
@@ -4370,12 +5028,18 @@
       <c r="F37" s="29">
         <v>696</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="G37" s="29">
+        <v>683</v>
+      </c>
+      <c r="H37" s="29">
+        <v>745</v>
+      </c>
       <c r="I37" s="29">
         <v>761</v>
       </c>
-      <c r="J37" s="29"/>
+      <c r="J37" s="29">
+        <v>712</v>
+      </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -4406,6 +5070,20 @@
       <c r="Y37" s="29">
         <v>633</v>
       </c>
+      <c r="AC37" s="29">
+        <v>619</v>
+      </c>
+      <c r="AD37" s="29">
+        <v>592</v>
+      </c>
+      <c r="AE37" s="29">
+        <f>F37</f>
+        <v>696</v>
+      </c>
+      <c r="AF37" s="29">
+        <f>J37</f>
+        <v>712</v>
+      </c>
       <c r="AG37" s="29">
         <f>N37</f>
         <v>555</v>
@@ -4428,12 +5106,18 @@
       <c r="F38" s="29">
         <v>1185</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="G38" s="29">
+        <v>1274</v>
+      </c>
+      <c r="H38" s="29">
+        <v>1432</v>
+      </c>
       <c r="I38" s="29">
         <v>1364</v>
       </c>
-      <c r="J38" s="29"/>
+      <c r="J38" s="29">
+        <v>1499</v>
+      </c>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
@@ -4467,12 +5151,26 @@
       <c r="Y38" s="29">
         <v>1162</v>
       </c>
+      <c r="AC38" s="29">
+        <v>1154</v>
+      </c>
+      <c r="AD38" s="29">
+        <v>1134</v>
+      </c>
+      <c r="AE38" s="29">
+        <f>F38</f>
+        <v>1185</v>
+      </c>
+      <c r="AF38" s="29">
+        <f>J38</f>
+        <v>1499</v>
+      </c>
       <c r="AG38" s="29">
         <f>N38</f>
         <v>1400</v>
       </c>
       <c r="AH38" s="29">
-        <f t="shared" ref="AH38:AH46" si="92">AG38+R38</f>
+        <f t="shared" ref="AH38:AH46" si="120">AG38+R38</f>
         <v>4352</v>
       </c>
       <c r="AI38" s="29">
@@ -4485,15 +5183,15 @@
         <v>98</v>
       </c>
       <c r="C39" s="29">
-        <f t="shared" ref="C39:G39" si="93">SUM(C35:C38)</f>
+        <f t="shared" ref="C39:D39" si="121">SUM(C35:C38)</f>
         <v>0</v>
       </c>
       <c r="D39" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" ref="E39" si="94">SUM(E35:E38)</f>
+        <f t="shared" ref="E39" si="122">SUM(E35:E38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="29">
@@ -4501,103 +5199,107 @@
         <v>7744</v>
       </c>
       <c r="G39" s="29">
-        <f t="shared" ref="G39:X39" si="95">SUM(G35:G38)</f>
-        <v>0</v>
+        <f t="shared" ref="G39:X39" si="123">SUM(G35:G38)</f>
+        <v>6763</v>
       </c>
       <c r="H39" s="29">
-        <f t="shared" si="95"/>
-        <v>0</v>
+        <f t="shared" si="123"/>
+        <v>6184</v>
       </c>
       <c r="I39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>6963</v>
       </c>
       <c r="J39" s="29">
-        <f t="shared" si="95"/>
-        <v>0</v>
+        <f t="shared" si="123"/>
+        <v>7126</v>
       </c>
       <c r="K39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="N39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>4706</v>
       </c>
       <c r="O39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>6248</v>
       </c>
       <c r="P39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>7394</v>
       </c>
       <c r="Q39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>6739</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>7190</v>
       </c>
       <c r="S39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="T39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="U39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="V39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>9111</v>
       </c>
       <c r="W39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>7349</v>
       </c>
       <c r="X39" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>5067</v>
       </c>
       <c r="Y39" s="29">
         <f>SUM(Y35:Y38)</f>
         <v>5289</v>
       </c>
+      <c r="AC39" s="29">
+        <f t="shared" ref="AC39:AD39" si="124">SUM(AC35:AC38)</f>
+        <v>7904</v>
+      </c>
       <c r="AD39" s="29">
-        <f t="shared" ref="AD39" si="96">SUM(AD35:AD38)</f>
-        <v>0</v>
+        <f t="shared" si="124"/>
+        <v>8875</v>
       </c>
       <c r="AE39" s="29">
-        <f t="shared" ref="AE39" si="97">SUM(AE35:AE38)</f>
-        <v>0</v>
+        <f t="shared" ref="AE39" si="125">SUM(AE35:AE38)</f>
+        <v>7744</v>
       </c>
       <c r="AF39" s="29">
-        <f t="shared" ref="AF39" si="98">SUM(AF35:AF38)</f>
-        <v>0</v>
+        <f t="shared" ref="AF39" si="126">SUM(AF35:AF38)</f>
+        <v>7126</v>
       </c>
       <c r="AG39" s="29">
-        <f t="shared" ref="AG39" si="99">SUM(AG35:AG38)</f>
+        <f t="shared" ref="AG39" si="127">SUM(AG35:AG38)</f>
         <v>4706</v>
       </c>
       <c r="AH39" s="29">
-        <f t="shared" ref="AH39" si="100">SUM(AH35:AH38)</f>
+        <f t="shared" ref="AH39" si="128">SUM(AH35:AH38)</f>
         <v>9145</v>
       </c>
       <c r="AI39" s="29">
-        <f t="shared" ref="AI39" si="101">SUM(AI35:AI38)</f>
+        <f t="shared" ref="AI39" si="129">SUM(AI35:AI38)</f>
         <v>9111</v>
       </c>
     </row>
@@ -4611,12 +5313,18 @@
       <c r="F40" s="29">
         <v>6331</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="G40" s="29">
+        <v>5919</v>
+      </c>
+      <c r="H40" s="29">
+        <v>5418</v>
+      </c>
       <c r="I40" s="29">
         <v>4276</v>
       </c>
-      <c r="J40" s="29"/>
+      <c r="J40" s="29">
+        <v>3778</v>
+      </c>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
@@ -4647,16 +5355,30 @@
       <c r="Y40" s="29">
         <v>1971</v>
       </c>
+      <c r="AC40" s="29">
+        <v>3391</v>
+      </c>
+      <c r="AD40" s="29">
+        <v>3969</v>
+      </c>
+      <c r="AE40" s="29">
+        <f t="shared" ref="AE40:AE46" si="130">F40</f>
+        <v>6331</v>
+      </c>
+      <c r="AF40" s="29">
+        <f t="shared" ref="AF40:AF46" si="131">J40</f>
+        <v>3778</v>
+      </c>
       <c r="AG40" s="29">
-        <f t="shared" ref="AG40:AG46" si="102">N40</f>
+        <f t="shared" ref="AG40:AG46" si="132">N40</f>
         <v>1275</v>
       </c>
       <c r="AH40" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>2108</v>
       </c>
       <c r="AI40" s="29">
-        <f t="shared" ref="AI40:AI60" si="103">V40</f>
+        <f t="shared" ref="AI40:AI60" si="133">V40</f>
         <v>2575</v>
       </c>
     </row>
@@ -4670,12 +5392,18 @@
       <c r="F41" s="29">
         <v>1597</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="G41" s="29">
+        <v>1548</v>
+      </c>
+      <c r="H41" s="29">
+        <v>1576</v>
+      </c>
       <c r="I41" s="29">
         <v>1580</v>
       </c>
-      <c r="J41" s="29"/>
+      <c r="J41" s="29">
+        <v>1597</v>
+      </c>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -4706,16 +5434,30 @@
       <c r="Y41" s="29">
         <v>1194</v>
       </c>
+      <c r="AC41" s="29">
+        <v>1554</v>
+      </c>
+      <c r="AD41" s="29">
+        <v>1516</v>
+      </c>
+      <c r="AE41" s="29">
+        <f t="shared" si="130"/>
+        <v>1597</v>
+      </c>
+      <c r="AF41" s="29">
+        <f t="shared" si="131"/>
+        <v>1597</v>
+      </c>
       <c r="AG41" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="132"/>
         <v>1460</v>
       </c>
       <c r="AH41" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>2818</v>
       </c>
       <c r="AI41" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>1236</v>
       </c>
     </row>
@@ -4730,13 +5472,22 @@
         <f>4773+69</f>
         <v>4842</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="G42" s="29">
+        <f>53+4815</f>
+        <v>4868</v>
+      </c>
+      <c r="H42" s="29">
+        <f>5199+123</f>
+        <v>5322</v>
+      </c>
       <c r="I42" s="29">
         <f>106+5170</f>
         <v>5276</v>
       </c>
-      <c r="J42" s="29"/>
+      <c r="J42" s="29">
+        <f>5160+92</f>
+        <v>5252</v>
+      </c>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
@@ -4772,16 +5523,32 @@
       <c r="Y42" s="29">
         <v>4058</v>
       </c>
+      <c r="AC42" s="29">
+        <f>4451+90</f>
+        <v>4541</v>
+      </c>
+      <c r="AD42" s="29">
+        <f>4501+102</f>
+        <v>4603</v>
+      </c>
+      <c r="AE42" s="29">
+        <f t="shared" si="130"/>
+        <v>4842</v>
+      </c>
+      <c r="AF42" s="29">
+        <f t="shared" si="131"/>
+        <v>5252</v>
+      </c>
       <c r="AG42" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="132"/>
         <v>4572</v>
       </c>
       <c r="AH42" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>9259</v>
       </c>
       <c r="AI42" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>4178</v>
       </c>
     </row>
@@ -4795,12 +5562,18 @@
       <c r="F43" s="29">
         <v>0</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="G43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="29">
+        <v>0</v>
+      </c>
       <c r="I43" s="29">
         <v>0</v>
       </c>
-      <c r="J43" s="29"/>
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
@@ -4831,16 +5604,30 @@
       <c r="Y43" s="29">
         <v>527</v>
       </c>
+      <c r="AC43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="29">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="29">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
       <c r="AG43" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="132"/>
         <v>583</v>
       </c>
       <c r="AH43" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>1092</v>
       </c>
       <c r="AI43" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>289</v>
       </c>
     </row>
@@ -4854,12 +5641,18 @@
       <c r="F44" s="29">
         <v>5199</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="G44" s="29">
+        <v>5166</v>
+      </c>
+      <c r="H44" s="29">
+        <v>5052</v>
+      </c>
       <c r="I44" s="29">
         <v>4992</v>
       </c>
-      <c r="J44" s="29"/>
+      <c r="J44" s="29">
+        <v>4792</v>
+      </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -4890,16 +5683,30 @@
       <c r="Y44" s="29">
         <v>3144</v>
       </c>
+      <c r="AC44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="29">
+        <v>4608</v>
+      </c>
+      <c r="AE44" s="29">
+        <f t="shared" si="130"/>
+        <v>5199</v>
+      </c>
+      <c r="AF44" s="29">
+        <f t="shared" si="131"/>
+        <v>4792</v>
+      </c>
       <c r="AG44" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="132"/>
         <v>3980</v>
       </c>
       <c r="AH44" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>7517</v>
       </c>
       <c r="AI44" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>3255</v>
       </c>
     </row>
@@ -4913,12 +5720,18 @@
       <c r="F45" s="29">
         <v>0</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="29">
+        <v>0</v>
+      </c>
       <c r="I45" s="29">
         <v>0</v>
       </c>
-      <c r="J45" s="29"/>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
@@ -4949,16 +5762,30 @@
       <c r="Y45" s="29">
         <v>2417</v>
       </c>
+      <c r="AC45" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="29">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="29">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
       <c r="AG45" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AH45" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AI45" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>5391</v>
       </c>
     </row>
@@ -4972,12 +5799,18 @@
       <c r="F46" s="29">
         <v>273</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="G46" s="29">
+        <v>291</v>
+      </c>
+      <c r="H46" s="29">
+        <v>436</v>
+      </c>
       <c r="I46" s="29">
         <v>565</v>
       </c>
-      <c r="J46" s="29"/>
+      <c r="J46" s="29">
+        <v>274</v>
+      </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
@@ -5010,16 +5843,30 @@
       <c r="Y46" s="29">
         <v>497</v>
       </c>
+      <c r="AC46" s="29">
+        <v>365</v>
+      </c>
+      <c r="AD46" s="29">
+        <v>276</v>
+      </c>
+      <c r="AE46" s="29">
+        <f t="shared" si="130"/>
+        <v>273</v>
+      </c>
+      <c r="AF46" s="29">
+        <f t="shared" si="131"/>
+        <v>274</v>
+      </c>
       <c r="AG46" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="132"/>
         <v>1598</v>
       </c>
       <c r="AH46" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>2794</v>
       </c>
       <c r="AI46" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>591</v>
       </c>
     </row>
@@ -5028,15 +5875,15 @@
         <v>106</v>
       </c>
       <c r="C47" s="29">
-        <f t="shared" ref="C47:G47" si="104">C39+SUM(C40:C46)</f>
+        <f t="shared" ref="C47:D47" si="134">C39+SUM(C40:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="29">
-        <f t="shared" si="104"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="E47" s="29">
-        <f t="shared" ref="E47" si="105">E39+SUM(E40:E46)</f>
+        <f t="shared" ref="E47" si="135">E39+SUM(E40:E46)</f>
         <v>0</v>
       </c>
       <c r="F47" s="29">
@@ -5044,103 +5891,107 @@
         <v>25986</v>
       </c>
       <c r="G47" s="29">
-        <f t="shared" ref="G47:X47" si="106">G39+SUM(G40:G46)</f>
-        <v>0</v>
+        <f t="shared" ref="G47:X47" si="136">G39+SUM(G40:G46)</f>
+        <v>24555</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f t="shared" si="136"/>
+        <v>23988</v>
       </c>
       <c r="I47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>23652</v>
       </c>
       <c r="J47" s="29">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f t="shared" si="136"/>
+        <v>22819</v>
       </c>
       <c r="K47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="L47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="M47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="N47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>18174</v>
       </c>
       <c r="O47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>18929</v>
       </c>
       <c r="P47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>20014</v>
       </c>
       <c r="Q47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>18241</v>
       </c>
       <c r="R47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>19310</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="T47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="U47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="V47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>26626</v>
       </c>
       <c r="W47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>22980</v>
       </c>
       <c r="X47" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="136"/>
         <v>19653</v>
       </c>
       <c r="Y47" s="29">
         <f>Y39+SUM(Y40:Y46)</f>
         <v>19097</v>
       </c>
+      <c r="AC47" s="29">
+        <f t="shared" ref="AC47:AD47" si="137">AC39+SUM(AC40:AC46)</f>
+        <v>17755</v>
+      </c>
       <c r="AD47" s="29">
-        <f t="shared" ref="AD47" si="107">AD39+SUM(AD40:AD46)</f>
-        <v>0</v>
+        <f t="shared" si="137"/>
+        <v>23847</v>
       </c>
       <c r="AE47" s="29">
-        <f t="shared" ref="AE47" si="108">AE39+SUM(AE40:AE46)</f>
-        <v>0</v>
+        <f t="shared" ref="AE47" si="138">AE39+SUM(AE40:AE46)</f>
+        <v>25986</v>
       </c>
       <c r="AF47" s="29">
-        <f t="shared" ref="AF47" si="109">AF39+SUM(AF40:AF46)</f>
-        <v>0</v>
+        <f t="shared" ref="AF47" si="139">AF39+SUM(AF40:AF46)</f>
+        <v>22819</v>
       </c>
       <c r="AG47" s="29">
-        <f t="shared" ref="AG47" si="110">AG39+SUM(AG40:AG46)</f>
+        <f t="shared" ref="AG47" si="140">AG39+SUM(AG40:AG46)</f>
         <v>18174</v>
       </c>
       <c r="AH47" s="29">
-        <f t="shared" ref="AH47" si="111">AH39+SUM(AH40:AH46)</f>
+        <f t="shared" ref="AH47" si="141">AH39+SUM(AH40:AH46)</f>
         <v>34733</v>
       </c>
       <c r="AI47" s="29">
-        <f t="shared" ref="AI47" si="112">AI39+SUM(AI40:AI46)</f>
+        <f t="shared" ref="AI47" si="142">AI39+SUM(AI40:AI46)</f>
         <v>26626</v>
       </c>
     </row>
@@ -5165,6 +6016,8 @@
       <c r="W48" s="29"/>
       <c r="X48" s="29"/>
       <c r="Y48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
       <c r="AI48" s="29"/>
     </row>
     <row r="49" spans="2:35" s="2" customFormat="1">
@@ -5177,12 +6030,18 @@
       <c r="F49" s="28">
         <v>781</v>
       </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
+      <c r="G49" s="28">
+        <v>20</v>
+      </c>
+      <c r="H49" s="28">
+        <v>3</v>
+      </c>
       <c r="I49" s="28">
         <v>1546</v>
       </c>
-      <c r="J49" s="28"/>
+      <c r="J49" s="28">
+        <v>1546</v>
+      </c>
       <c r="K49" s="28"/>
       <c r="L49" s="28"/>
       <c r="M49" s="28"/>
@@ -5213,6 +6072,20 @@
       <c r="Y49" s="28">
         <v>1150</v>
       </c>
+      <c r="AC49" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="28">
+        <v>1451</v>
+      </c>
+      <c r="AE49" s="28">
+        <f>F49</f>
+        <v>781</v>
+      </c>
+      <c r="AF49" s="28">
+        <f>J49</f>
+        <v>1546</v>
+      </c>
       <c r="AG49" s="28">
         <f>N49</f>
         <v>1020</v>
@@ -5236,12 +6109,18 @@
       <c r="F50" s="29">
         <v>330</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="G50" s="29">
+        <v>252</v>
+      </c>
+      <c r="H50" s="29">
+        <v>253</v>
+      </c>
       <c r="I50" s="29">
         <v>225</v>
       </c>
-      <c r="J50" s="29"/>
+      <c r="J50" s="29">
+        <v>286</v>
+      </c>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -5272,16 +6151,30 @@
       <c r="Y50" s="29">
         <v>224</v>
       </c>
+      <c r="AC50" s="29">
+        <v>349</v>
+      </c>
+      <c r="AD50" s="29">
+        <v>283</v>
+      </c>
+      <c r="AE50" s="29">
+        <f t="shared" ref="AE50:AE60" si="143">F50</f>
+        <v>330</v>
+      </c>
+      <c r="AF50" s="29">
+        <f t="shared" ref="AF50:AF60" si="144">J50</f>
+        <v>286</v>
+      </c>
       <c r="AG50" s="29">
-        <f t="shared" ref="AG50:AG60" si="113">N50</f>
+        <f t="shared" ref="AG50:AG60" si="145">N50</f>
         <v>229</v>
       </c>
       <c r="AH50" s="29">
-        <f t="shared" ref="AH50:AH55" si="114">AG50+R50</f>
+        <f t="shared" ref="AH50:AH55" si="146">AG50+R50</f>
         <v>561</v>
       </c>
       <c r="AI50" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>262</v>
       </c>
     </row>
@@ -5295,12 +6188,18 @@
       <c r="F51" s="29">
         <v>137</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="G51" s="29">
+        <v>1918</v>
+      </c>
+      <c r="H51" s="29">
+        <v>151</v>
+      </c>
       <c r="I51" s="1">
         <v>163</v>
       </c>
-      <c r="J51" s="29"/>
+      <c r="J51" s="29">
+        <v>170</v>
+      </c>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
@@ -5331,16 +6230,30 @@
       <c r="Y51" s="29">
         <v>649</v>
       </c>
+      <c r="AC51" s="29">
+        <v>106</v>
+      </c>
+      <c r="AD51" s="29">
+        <v>110</v>
+      </c>
+      <c r="AE51" s="29">
+        <f t="shared" si="143"/>
+        <v>137</v>
+      </c>
+      <c r="AF51" s="29">
+        <f t="shared" si="144"/>
+        <v>170</v>
+      </c>
       <c r="AG51" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>2097</v>
       </c>
       <c r="AH51" s="29">
-        <f t="shared" si="114"/>
+        <f t="shared" si="146"/>
         <v>5007</v>
       </c>
       <c r="AI51" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>707</v>
       </c>
     </row>
@@ -5354,12 +6267,18 @@
       <c r="F52" s="29">
         <v>2134</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="G52" s="29">
+        <v>142</v>
+      </c>
+      <c r="H52" s="29">
+        <v>2117</v>
+      </c>
       <c r="I52" s="29">
         <v>1989</v>
       </c>
-      <c r="J52" s="29"/>
+      <c r="J52" s="29">
+        <v>2335</v>
+      </c>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
@@ -5390,16 +6309,30 @@
       <c r="Y52" s="29">
         <v>1765</v>
       </c>
+      <c r="AC52" s="29">
+        <v>1736</v>
+      </c>
+      <c r="AD52" s="29">
+        <v>1893</v>
+      </c>
+      <c r="AE52" s="29">
+        <f t="shared" si="143"/>
+        <v>2134</v>
+      </c>
+      <c r="AF52" s="29">
+        <f t="shared" si="144"/>
+        <v>2335</v>
+      </c>
       <c r="AG52" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>129</v>
       </c>
       <c r="AH52" s="29">
-        <f t="shared" si="114"/>
+        <f t="shared" si="146"/>
         <v>239</v>
       </c>
       <c r="AI52" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>1927</v>
       </c>
     </row>
@@ -5413,12 +6346,18 @@
       <c r="F53" s="29">
         <v>177</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="G53" s="29">
+        <v>236</v>
+      </c>
+      <c r="H53" s="29">
+        <v>84</v>
+      </c>
       <c r="I53" s="29">
         <v>83</v>
       </c>
-      <c r="J53" s="29"/>
+      <c r="J53" s="29">
+        <v>117</v>
+      </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
@@ -5449,16 +6388,30 @@
       <c r="Y53" s="29">
         <v>186</v>
       </c>
+      <c r="AC53" s="29">
+        <v>72</v>
+      </c>
+      <c r="AD53" s="29">
+        <v>110</v>
+      </c>
+      <c r="AE53" s="29">
+        <f t="shared" si="143"/>
+        <v>177</v>
+      </c>
+      <c r="AF53" s="29">
+        <f t="shared" si="144"/>
+        <v>117</v>
+      </c>
       <c r="AG53" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>169</v>
       </c>
       <c r="AH53" s="29">
-        <f t="shared" si="114"/>
+        <f t="shared" si="146"/>
         <v>349</v>
       </c>
       <c r="AI53" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>371</v>
       </c>
     </row>
@@ -5472,12 +6425,18 @@
       <c r="F54" s="29">
         <v>0</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="G54" s="29">
+        <v>0</v>
+      </c>
+      <c r="H54" s="29">
+        <v>0</v>
+      </c>
       <c r="I54" s="29">
         <v>0</v>
       </c>
-      <c r="J54" s="29"/>
+      <c r="J54" s="29">
+        <v>0</v>
+      </c>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
@@ -5508,12 +6467,26 @@
       <c r="Y54" s="29">
         <v>0</v>
       </c>
+      <c r="AC54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="29">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="29">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="AG54" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>259</v>
       </c>
       <c r="AH54" s="29">
-        <f t="shared" si="114"/>
+        <f t="shared" si="146"/>
         <v>259</v>
       </c>
       <c r="AI54" s="29">
@@ -5530,12 +6503,18 @@
       <c r="F55" s="29">
         <v>0</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="G55" s="29">
+        <v>0</v>
+      </c>
+      <c r="H55" s="29">
+        <v>0</v>
+      </c>
       <c r="I55" s="29">
         <v>0</v>
       </c>
-      <c r="J55" s="29"/>
+      <c r="J55" s="29">
+        <v>0</v>
+      </c>
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
@@ -5566,12 +6545,26 @@
       <c r="Y55" s="29">
         <v>0</v>
       </c>
+      <c r="AC55" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="29">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="29">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="AG55" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>163</v>
       </c>
       <c r="AH55" s="29">
-        <f t="shared" si="114"/>
+        <f t="shared" si="146"/>
         <v>615</v>
       </c>
       <c r="AI55" s="29">
@@ -5583,15 +6576,15 @@
         <v>112</v>
       </c>
       <c r="C56" s="29">
-        <f t="shared" ref="C56:F56" si="115">SUM(C49:C55)</f>
+        <f t="shared" ref="C56:D56" si="147">SUM(C49:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="E56" s="29">
-        <f t="shared" ref="E56" si="116">SUM(E49:E55)</f>
+        <f t="shared" ref="E56" si="148">SUM(E49:E55)</f>
         <v>0</v>
       </c>
       <c r="F56" s="29">
@@ -5600,102 +6593,106 @@
       </c>
       <c r="G56" s="29">
         <f>SUM(G49:G55)</f>
-        <v>0</v>
+        <v>2568</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" ref="H56:Y56" si="117">SUM(H49:H55)</f>
-        <v>0</v>
+        <f t="shared" ref="H56:Y56" si="149">SUM(H49:H55)</f>
+        <v>2608</v>
       </c>
       <c r="I56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>4006</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="117"/>
-        <v>0</v>
+        <f t="shared" si="149"/>
+        <v>4454</v>
       </c>
       <c r="K56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="L56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="M56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="N56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>4066</v>
       </c>
       <c r="O56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>4673</v>
       </c>
       <c r="P56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>4692</v>
       </c>
       <c r="Q56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>3840</v>
       </c>
       <c r="R56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>4002</v>
       </c>
       <c r="S56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="T56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="U56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>4622</v>
       </c>
       <c r="W56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>4982</v>
       </c>
       <c r="X56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>3972</v>
       </c>
       <c r="Y56" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="149"/>
         <v>3974</v>
       </c>
+      <c r="AC56" s="29">
+        <f t="shared" ref="AC56:AD56" si="150">SUM(AC49:AC55)</f>
+        <v>2263</v>
+      </c>
       <c r="AD56" s="29">
-        <f t="shared" ref="AD56" si="118">SUM(AD49:AD55)</f>
-        <v>0</v>
+        <f t="shared" si="150"/>
+        <v>3847</v>
       </c>
       <c r="AE56" s="29">
-        <f t="shared" ref="AE56" si="119">SUM(AE49:AE55)</f>
-        <v>0</v>
+        <f t="shared" ref="AE56" si="151">SUM(AE49:AE55)</f>
+        <v>3559</v>
       </c>
       <c r="AF56" s="29">
-        <f t="shared" ref="AF56" si="120">SUM(AF49:AF55)</f>
-        <v>0</v>
+        <f t="shared" ref="AF56" si="152">SUM(AF49:AF55)</f>
+        <v>4454</v>
       </c>
       <c r="AG56" s="29">
-        <f t="shared" ref="AG56" si="121">SUM(AG49:AG55)</f>
+        <f t="shared" ref="AG56" si="153">SUM(AG49:AG55)</f>
         <v>4066</v>
       </c>
       <c r="AH56" s="29">
-        <f t="shared" ref="AH56" si="122">SUM(AH49:AH55)</f>
+        <f t="shared" ref="AH56" si="154">SUM(AH49:AH55)</f>
         <v>7048</v>
       </c>
       <c r="AI56" s="29">
-        <f t="shared" ref="AI56" si="123">SUM(AI49:AI55)</f>
+        <f t="shared" ref="AI56" si="155">SUM(AI49:AI55)</f>
         <v>4622</v>
       </c>
     </row>
@@ -5709,12 +6706,18 @@
       <c r="F57" s="1">
         <v>0</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="G57" s="29">
+        <v>0</v>
+      </c>
+      <c r="H57" s="29">
+        <v>0</v>
+      </c>
       <c r="I57" s="29">
         <v>0</v>
       </c>
-      <c r="J57" s="29"/>
+      <c r="J57" s="29">
+        <v>0</v>
+      </c>
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
@@ -5745,8 +6748,22 @@
       <c r="Y57" s="29">
         <v>432</v>
       </c>
+      <c r="AC57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="29">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="29">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="AG57" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>461</v>
       </c>
       <c r="AH57" s="29">
@@ -5754,7 +6771,7 @@
         <v>841</v>
       </c>
       <c r="AI57" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>200</v>
       </c>
     </row>
@@ -5768,12 +6785,18 @@
       <c r="F58" s="29">
         <v>3424</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="G58" s="29">
+        <v>3314</v>
+      </c>
+      <c r="H58" s="29">
+        <v>3290</v>
+      </c>
       <c r="I58" s="29">
         <v>3316</v>
       </c>
-      <c r="J58" s="29"/>
+      <c r="J58" s="29">
+        <v>2925</v>
+      </c>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
@@ -5804,8 +6827,22 @@
       <c r="Y58" s="29">
         <v>2231</v>
       </c>
+      <c r="AC58" s="29">
+        <v>2092</v>
+      </c>
+      <c r="AD58" s="29">
+        <v>1888</v>
+      </c>
+      <c r="AE58" s="29">
+        <f t="shared" si="143"/>
+        <v>3424</v>
+      </c>
+      <c r="AF58" s="29">
+        <f t="shared" si="144"/>
+        <v>2925</v>
+      </c>
       <c r="AG58" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>2355</v>
       </c>
       <c r="AH58" s="29">
@@ -5813,7 +6850,7 @@
         <v>4714</v>
       </c>
       <c r="AI58" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>3116</v>
       </c>
     </row>
@@ -5827,12 +6864,18 @@
       <c r="F59" s="29">
         <v>9234</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
+      <c r="G59" s="28">
+        <v>9208</v>
+      </c>
+      <c r="H59" s="28">
+        <v>9201</v>
+      </c>
       <c r="I59" s="28">
         <v>7661</v>
       </c>
-      <c r="J59" s="28"/>
+      <c r="J59" s="28">
+        <v>7685</v>
+      </c>
       <c r="K59" s="28"/>
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
@@ -5863,6 +6906,20 @@
       <c r="Y59" s="28">
         <v>6579</v>
       </c>
+      <c r="AC59" s="28">
+        <v>6749</v>
+      </c>
+      <c r="AD59" s="28">
+        <v>7509</v>
+      </c>
+      <c r="AE59" s="28">
+        <f>F59</f>
+        <v>9234</v>
+      </c>
+      <c r="AF59" s="28">
+        <f>J59</f>
+        <v>7685</v>
+      </c>
       <c r="AG59" s="28">
         <f>N59</f>
         <v>6738</v>
@@ -5886,12 +6943,18 @@
       <c r="F60" s="29">
         <v>1720</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="G60" s="29">
+        <v>1869</v>
+      </c>
+      <c r="H60" s="29">
+        <v>1743</v>
+      </c>
       <c r="I60" s="29">
         <v>1740</v>
       </c>
-      <c r="J60" s="29"/>
+      <c r="J60" s="29">
+        <v>1474</v>
+      </c>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
@@ -5923,8 +6986,22 @@
       <c r="Y60" s="29">
         <v>1028</v>
       </c>
+      <c r="AC60" s="29">
+        <v>75</v>
+      </c>
+      <c r="AD60" s="29">
+        <v>64</v>
+      </c>
+      <c r="AE60" s="29">
+        <f t="shared" si="143"/>
+        <v>1720</v>
+      </c>
+      <c r="AF60" s="29">
+        <f t="shared" si="144"/>
+        <v>1474</v>
+      </c>
       <c r="AG60" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="145"/>
         <v>1684</v>
       </c>
       <c r="AH60" s="29">
@@ -5932,7 +7009,7 @@
         <v>2947</v>
       </c>
       <c r="AI60" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="133"/>
         <v>1183</v>
       </c>
     </row>
@@ -5941,15 +7018,15 @@
         <v>117</v>
       </c>
       <c r="C61" s="29">
-        <f t="shared" ref="C61:G61" si="124">C56+SUM(C57:C60)</f>
+        <f t="shared" ref="C61:D61" si="156">C56+SUM(C57:C60)</f>
         <v>0</v>
       </c>
       <c r="D61" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" ref="E61" si="125">E56+SUM(E57:E60)</f>
+        <f t="shared" ref="E61" si="157">E56+SUM(E57:E60)</f>
         <v>0</v>
       </c>
       <c r="F61" s="29">
@@ -5957,103 +7034,107 @@
         <v>17937</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" ref="G61:X61" si="126">G56+SUM(G57:G60)</f>
-        <v>0</v>
+        <f t="shared" ref="G61:X61" si="158">G56+SUM(G57:G60)</f>
+        <v>16959</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="126"/>
-        <v>0</v>
+        <f t="shared" si="158"/>
+        <v>16842</v>
       </c>
       <c r="I61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>16723</v>
       </c>
       <c r="J61" s="29">
-        <f t="shared" si="126"/>
-        <v>0</v>
+        <f t="shared" si="158"/>
+        <v>16538</v>
       </c>
       <c r="K61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="L61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="M61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="N61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>15304</v>
       </c>
       <c r="O61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>16814</v>
       </c>
       <c r="P61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>17112</v>
       </c>
       <c r="Q61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>15501</v>
       </c>
       <c r="R61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>15749</v>
       </c>
       <c r="S61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="T61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="U61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>16848</v>
       </c>
       <c r="W61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>15926</v>
       </c>
       <c r="X61" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="158"/>
         <v>14410</v>
       </c>
       <c r="Y61" s="29">
         <f>Y56+SUM(Y57:Y60)</f>
         <v>14244</v>
       </c>
+      <c r="AC61" s="29">
+        <f t="shared" ref="AC61:AD61" si="159">AC56+SUM(AC57:AC60)</f>
+        <v>11179</v>
+      </c>
       <c r="AD61" s="29">
-        <f t="shared" ref="AD61" si="127">AD56+SUM(AD57:AD60)</f>
-        <v>0</v>
+        <f t="shared" si="159"/>
+        <v>13308</v>
       </c>
       <c r="AE61" s="29">
-        <f t="shared" ref="AE61" si="128">AE56+SUM(AE57:AE60)</f>
-        <v>0</v>
+        <f t="shared" ref="AE61" si="160">AE56+SUM(AE57:AE60)</f>
+        <v>17937</v>
       </c>
       <c r="AF61" s="29">
-        <f t="shared" ref="AF61" si="129">AF56+SUM(AF57:AF60)</f>
-        <v>0</v>
+        <f t="shared" ref="AF61" si="161">AF56+SUM(AF57:AF60)</f>
+        <v>16538</v>
       </c>
       <c r="AG61" s="29">
-        <f t="shared" ref="AG61" si="130">AG56+SUM(AG57:AG60)</f>
+        <f t="shared" ref="AG61" si="162">AG56+SUM(AG57:AG60)</f>
         <v>15304</v>
       </c>
       <c r="AH61" s="29">
-        <f t="shared" ref="AH61" si="131">AH56+SUM(AH57:AH60)</f>
+        <f t="shared" ref="AH61" si="163">AH56+SUM(AH57:AH60)</f>
         <v>23295</v>
       </c>
       <c r="AI61" s="29">
-        <f t="shared" ref="AI61" si="132">AI56+SUM(AI57:AI60)</f>
+        <f t="shared" ref="AI61" si="164">AI56+SUM(AI57:AI60)</f>
         <v>16848</v>
       </c>
     </row>
@@ -6062,6 +7143,8 @@
       <c r="W62" s="29"/>
       <c r="X62" s="29"/>
       <c r="Y62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
     </row>
     <row r="63" spans="2:35" s="29" customFormat="1">
       <c r="B63" s="29" t="s">
@@ -6070,9 +7153,18 @@
       <c r="F63" s="29">
         <v>8049</v>
       </c>
+      <c r="G63" s="29">
+        <v>7596</v>
+      </c>
+      <c r="H63" s="29">
+        <v>7146</v>
+      </c>
       <c r="I63" s="29">
         <v>6929</v>
       </c>
+      <c r="J63" s="29">
+        <v>6281</v>
+      </c>
       <c r="M63" s="29">
         <v>2870</v>
       </c>
@@ -6102,13 +7194,27 @@
       </c>
       <c r="Y63" s="29">
         <v>4853</v>
+      </c>
+      <c r="AC63" s="29">
+        <v>6576</v>
+      </c>
+      <c r="AD63" s="29">
+        <v>10539</v>
+      </c>
+      <c r="AE63" s="29">
+        <f t="shared" ref="AE63" si="165">F63</f>
+        <v>8049</v>
+      </c>
+      <c r="AF63" s="29">
+        <f t="shared" ref="AF63" si="166">J63</f>
+        <v>6281</v>
       </c>
       <c r="AG63" s="29">
         <f>N63</f>
         <v>2870</v>
       </c>
       <c r="AH63" s="29">
-        <f t="shared" ref="AH63" si="133">AG63+R63</f>
+        <f t="shared" ref="AH63" si="167">AG63+R63</f>
         <v>6431</v>
       </c>
       <c r="AI63" s="29">
@@ -6121,15 +7227,15 @@
         <v>119</v>
       </c>
       <c r="C64" s="29">
-        <f t="shared" ref="C64:G64" si="134">C63+C61</f>
+        <f t="shared" ref="C64:D64" si="168">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" ref="E64" si="135">E63+E61</f>
+        <f t="shared" ref="E64" si="169">E63+E61</f>
         <v>0</v>
       </c>
       <c r="F64" s="29">
@@ -6137,103 +7243,107 @@
         <v>25986</v>
       </c>
       <c r="G64" s="29">
-        <f t="shared" ref="G64:X64" si="136">G63+G61</f>
-        <v>0</v>
+        <f t="shared" ref="G64:X64" si="170">G63+G61</f>
+        <v>24555</v>
       </c>
       <c r="H64" s="29">
-        <f t="shared" si="136"/>
-        <v>0</v>
+        <f t="shared" si="170"/>
+        <v>23988</v>
       </c>
       <c r="I64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>23652</v>
       </c>
       <c r="J64" s="29">
-        <f t="shared" si="136"/>
-        <v>0</v>
+        <f t="shared" si="170"/>
+        <v>22819</v>
       </c>
       <c r="K64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="L64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="M64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>2870</v>
       </c>
       <c r="N64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>18174</v>
       </c>
       <c r="O64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>18929</v>
       </c>
       <c r="P64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>20014</v>
       </c>
       <c r="Q64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>18421</v>
       </c>
       <c r="R64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>19310</v>
       </c>
       <c r="S64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="T64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="U64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="V64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>26626</v>
       </c>
       <c r="W64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>22980</v>
       </c>
       <c r="X64" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="170"/>
         <v>19653</v>
       </c>
       <c r="Y64" s="29">
         <f>Y63+Y61</f>
         <v>19097</v>
       </c>
+      <c r="AC64" s="29">
+        <f t="shared" ref="AC64:AD64" si="171">AC63+AC61</f>
+        <v>17755</v>
+      </c>
       <c r="AD64" s="29">
-        <f t="shared" ref="AD64" si="137">AD63+AD61</f>
-        <v>0</v>
+        <f t="shared" si="171"/>
+        <v>23847</v>
       </c>
       <c r="AE64" s="29">
-        <f t="shared" ref="AE64" si="138">AE63+AE61</f>
-        <v>0</v>
+        <f t="shared" ref="AE64" si="172">AE63+AE61</f>
+        <v>25986</v>
       </c>
       <c r="AF64" s="29">
-        <f t="shared" ref="AF64" si="139">AF63+AF61</f>
-        <v>0</v>
+        <f t="shared" ref="AF64" si="173">AF63+AF61</f>
+        <v>22819</v>
       </c>
       <c r="AG64" s="29">
-        <f t="shared" ref="AG64" si="140">AG63+AG61</f>
+        <f t="shared" ref="AG64" si="174">AG63+AG61</f>
         <v>18174</v>
       </c>
       <c r="AH64" s="29">
-        <f t="shared" ref="AH64" si="141">AH63+AH61</f>
+        <f t="shared" ref="AH64" si="175">AH63+AH61</f>
         <v>29726</v>
       </c>
       <c r="AI64" s="29">
-        <f t="shared" ref="AI64" si="142">AI63+AI61</f>
+        <f t="shared" ref="AI64" si="176">AI63+AI61</f>
         <v>26626</v>
       </c>
     </row>
@@ -6248,20 +7358,32 @@
         <f>F47-F61</f>
         <v>8049</v>
       </c>
+      <c r="G66" s="29">
+        <f t="shared" ref="G66:H66" si="177">G47-G61</f>
+        <v>7596</v>
+      </c>
+      <c r="H66" s="29">
+        <f t="shared" ref="H66:I66" si="178">H47-H61</f>
+        <v>7146</v>
+      </c>
       <c r="I66" s="29">
         <f>I47-I61</f>
         <v>6929</v>
       </c>
+      <c r="J66" s="29">
+        <f t="shared" ref="J66" si="179">J47-J61</f>
+        <v>6281</v>
+      </c>
       <c r="N66" s="29">
         <f>N47-N61</f>
         <v>2870</v>
       </c>
       <c r="O66" s="29">
-        <f t="shared" ref="O66" si="143">O47-O61</f>
+        <f t="shared" ref="O66" si="180">O47-O61</f>
         <v>2115</v>
       </c>
       <c r="P66" s="29">
-        <f t="shared" ref="P66" si="144">P47-P61</f>
+        <f t="shared" ref="P66" si="181">P47-P61</f>
         <v>2902</v>
       </c>
       <c r="Q66" s="29">
@@ -6288,12 +7410,28 @@
         <f>Y47-Y61</f>
         <v>4853</v>
       </c>
+      <c r="AC66" s="29">
+        <f t="shared" ref="AC66:AE66" si="182">AC47-AC61</f>
+        <v>6576</v>
+      </c>
+      <c r="AD66" s="29">
+        <f t="shared" si="182"/>
+        <v>10539</v>
+      </c>
+      <c r="AE66" s="29">
+        <f t="shared" ref="AE66:AF66" si="183">AE47-AE61</f>
+        <v>8049</v>
+      </c>
+      <c r="AF66" s="29">
+        <f t="shared" ref="AF66:AG66" si="184">AF47-AF61</f>
+        <v>6281</v>
+      </c>
       <c r="AG66" s="29">
-        <f t="shared" ref="AG66" si="145">AG47-AG61</f>
+        <f t="shared" si="184"/>
         <v>2870</v>
       </c>
       <c r="AH66" s="29">
-        <f t="shared" ref="AH66" si="146">AH47-AH61</f>
+        <f t="shared" ref="AH66" si="185">AH47-AH61</f>
         <v>11438</v>
       </c>
       <c r="AI66" s="29">
@@ -6309,20 +7447,32 @@
         <f>F66/E22</f>
         <v>7.5790960451977405</v>
       </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67" si="186">G66/G22</f>
+        <v>7.5207920792079204</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67" si="187">H66/H22</f>
+        <v>7.2036290322580649</v>
+      </c>
       <c r="I67" s="1">
         <f>I66/I22</f>
         <v>7.113963039014374</v>
       </c>
+      <c r="J67" s="1">
+        <f t="shared" ref="J67" si="188">J66/J22</f>
+        <v>6.6115789473684208</v>
+      </c>
       <c r="N67" s="1">
         <f>N66/N22</f>
         <v>3.5563816604708798</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67" si="147">O66/O22</f>
+        <f t="shared" ref="O67" si="189">O66/O22</f>
         <v>2.808764940239044</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="148">P66/P22</f>
+        <f t="shared" ref="P67" si="190">P66/P22</f>
         <v>4.1280227596017074</v>
       </c>
       <c r="Q67" s="1">
@@ -6349,12 +7499,28 @@
         <f>Y66/Y22</f>
         <v>8.9429996037272659</v>
       </c>
+      <c r="AC67" s="1">
+        <f t="shared" ref="AC67:AE67" si="191">AC66/AC22</f>
+        <v>5.443708609271523</v>
+      </c>
+      <c r="AD67" s="1">
+        <f t="shared" si="191"/>
+        <v>9.301853486319505</v>
+      </c>
+      <c r="AE67" s="1">
+        <f t="shared" ref="AE67:AF67" si="192">AE66/AE22</f>
+        <v>7.7768115942028988</v>
+      </c>
+      <c r="AF67" s="1">
+        <f t="shared" ref="AF67:AG67" si="193">AF66/AF22</f>
+        <v>6.6115789473684208</v>
+      </c>
       <c r="AG67" s="1">
-        <f t="shared" ref="AG67" si="149">AG66/AG22</f>
+        <f t="shared" si="193"/>
         <v>3.3804475853945819</v>
       </c>
       <c r="AH67" s="1">
-        <f t="shared" ref="AH67" si="150">AH66/AH22</f>
+        <f t="shared" ref="AH67" si="194">AH66/AH22</f>
         <v>16.109859154929577</v>
       </c>
       <c r="AI67" s="1">
@@ -6367,15 +7533,15 @@
         <v>6</v>
       </c>
       <c r="C69" s="35">
-        <f t="shared" ref="C69:G69" si="151">C35+C36</f>
+        <f t="shared" ref="C69:D69" si="195">C35+C36</f>
         <v>0</v>
       </c>
       <c r="D69" s="35">
-        <f t="shared" si="151"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="E69" s="35">
-        <f t="shared" ref="E69" si="152">E35+E36</f>
+        <f t="shared" ref="E69" si="196">E35+E36</f>
         <v>0</v>
       </c>
       <c r="F69" s="35">
@@ -6383,31 +7549,31 @@
         <v>5863</v>
       </c>
       <c r="G69" s="35">
-        <f t="shared" ref="G69:M69" si="153">G35+G36</f>
-        <v>0</v>
+        <f t="shared" ref="G69:M69" si="197">G35+G36</f>
+        <v>4806</v>
       </c>
       <c r="H69" s="35">
-        <f t="shared" si="153"/>
-        <v>0</v>
+        <f t="shared" si="197"/>
+        <v>4007</v>
       </c>
       <c r="I69" s="35">
-        <f t="shared" si="153"/>
+        <f t="shared" si="197"/>
         <v>4838</v>
       </c>
       <c r="J69" s="35">
-        <f t="shared" si="153"/>
-        <v>0</v>
+        <f t="shared" si="197"/>
+        <v>4915</v>
       </c>
       <c r="K69" s="35">
-        <f t="shared" si="153"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="L69" s="35">
-        <f t="shared" si="153"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="M69" s="35">
-        <f t="shared" si="153"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="N69" s="35">
@@ -6415,15 +7581,15 @@
         <v>2751</v>
       </c>
       <c r="O69" s="35">
-        <f t="shared" ref="O69:Q69" si="154">O35+O36</f>
+        <f t="shared" ref="O69:Q69" si="198">O35+O36</f>
         <v>4430</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="154"/>
+        <f t="shared" si="198"/>
         <v>5303</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="154"/>
+        <f t="shared" si="198"/>
         <v>3660</v>
       </c>
       <c r="R69" s="35">
@@ -6431,15 +7597,15 @@
         <v>3826</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" ref="S69:U69" si="155">S35+S36</f>
+        <f t="shared" ref="S69:U69" si="199">S35+S36</f>
         <v>0</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="155"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="155"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="V69" s="35">
@@ -6447,23 +7613,39 @@
         <v>7323</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" ref="W69" si="156">W35+W36</f>
+        <f t="shared" ref="W69" si="200">W35+W36</f>
         <v>5569</v>
       </c>
       <c r="X69" s="35">
-        <f t="shared" ref="X69" si="157">X35+X36</f>
+        <f t="shared" ref="X69" si="201">X35+X36</f>
         <v>3225</v>
       </c>
       <c r="Y69" s="35">
         <f>Y35+Y36</f>
         <v>3494</v>
       </c>
+      <c r="AC69" s="35">
+        <f t="shared" ref="AC69:AE69" si="202">AC35+AC36</f>
+        <v>6131</v>
+      </c>
+      <c r="AD69" s="35">
+        <f t="shared" si="202"/>
+        <v>7149</v>
+      </c>
+      <c r="AE69" s="35">
+        <f t="shared" ref="AE69:AF69" si="203">AE35+AE36</f>
+        <v>5863</v>
+      </c>
+      <c r="AF69" s="35">
+        <f t="shared" ref="AF69:AG69" si="204">AF35+AF36</f>
+        <v>4915</v>
+      </c>
       <c r="AG69" s="35">
-        <f t="shared" ref="AG69" si="158">AG35+AG36</f>
+        <f t="shared" si="204"/>
         <v>2751</v>
       </c>
       <c r="AH69" s="35">
-        <f t="shared" ref="AH69" si="159">AH35+AH36</f>
+        <f t="shared" ref="AH69" si="205">AH35+AH36</f>
         <v>3826</v>
       </c>
       <c r="AI69" s="35">
@@ -6476,15 +7658,15 @@
         <v>7</v>
       </c>
       <c r="C70" s="35">
-        <f t="shared" ref="C70:G70" si="160">C49+C59</f>
+        <f t="shared" ref="C70:D70" si="206">C49+C59</f>
         <v>0</v>
       </c>
       <c r="D70" s="35">
-        <f t="shared" si="160"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="E70" s="35">
-        <f t="shared" ref="E70" si="161">E49+E59</f>
+        <f t="shared" ref="E70" si="207">E49+E59</f>
         <v>0</v>
       </c>
       <c r="F70" s="35">
@@ -6492,31 +7674,31 @@
         <v>10015</v>
       </c>
       <c r="G70" s="35">
-        <f t="shared" ref="G70:M70" si="162">G49+G59</f>
-        <v>0</v>
+        <f t="shared" ref="G70:M70" si="208">G49+G59</f>
+        <v>9228</v>
       </c>
       <c r="H70" s="35">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>9204</v>
       </c>
       <c r="I70" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="208"/>
         <v>9207</v>
       </c>
       <c r="J70" s="35">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>9231</v>
       </c>
       <c r="K70" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="L70" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="M70" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="N70" s="35">
@@ -6524,15 +7706,15 @@
         <v>7758</v>
       </c>
       <c r="O70" s="35">
-        <f t="shared" ref="O70:Q70" si="163">O49+O59</f>
+        <f t="shared" ref="O70:Q70" si="209">O49+O59</f>
         <v>8739</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="163"/>
+        <f t="shared" si="209"/>
         <v>8677</v>
       </c>
       <c r="Q70" s="35">
-        <f t="shared" si="163"/>
+        <f t="shared" si="209"/>
         <v>7755</v>
       </c>
       <c r="R70" s="35">
@@ -6540,15 +7722,15 @@
         <v>7763</v>
       </c>
       <c r="S70" s="35">
-        <f t="shared" ref="S70:U70" si="164">S49+S59</f>
+        <f t="shared" ref="S70:U70" si="210">S49+S59</f>
         <v>0</v>
       </c>
       <c r="T70" s="35">
-        <f t="shared" si="164"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="U70" s="35">
-        <f t="shared" si="164"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="V70" s="35">
@@ -6556,23 +7738,39 @@
         <v>9082</v>
       </c>
       <c r="W70" s="35">
-        <f t="shared" ref="W70" si="165">W49+W59</f>
+        <f t="shared" ref="W70" si="211">W49+W59</f>
         <v>8333</v>
       </c>
       <c r="X70" s="35">
-        <f t="shared" ref="X70" si="166">X49+X59</f>
+        <f t="shared" ref="X70" si="212">X49+X59</f>
         <v>7728</v>
       </c>
       <c r="Y70" s="35">
         <f>Y49+Y59</f>
         <v>7729</v>
       </c>
+      <c r="AC70" s="35">
+        <f t="shared" ref="AC70:AE70" si="213">AC49+AC59</f>
+        <v>6749</v>
+      </c>
+      <c r="AD70" s="35">
+        <f t="shared" si="213"/>
+        <v>8960</v>
+      </c>
+      <c r="AE70" s="35">
+        <f t="shared" ref="AE70:AF70" si="214">AE49+AE59</f>
+        <v>10015</v>
+      </c>
+      <c r="AF70" s="35">
+        <f t="shared" ref="AF70:AG70" si="215">AF49+AF59</f>
+        <v>9231</v>
+      </c>
       <c r="AG70" s="35">
-        <f t="shared" ref="AG70" si="167">AG49+AG59</f>
+        <f t="shared" si="215"/>
         <v>7758</v>
       </c>
       <c r="AH70" s="35">
-        <f t="shared" ref="AH70" si="168">AH49+AH59</f>
+        <f t="shared" ref="AH70" si="216">AH49+AH59</f>
         <v>7763</v>
       </c>
       <c r="AI70" s="35">
@@ -6585,47 +7783,47 @@
         <v>8</v>
       </c>
       <c r="C71" s="29">
-        <f t="shared" ref="C71:G71" si="169">C69-C70</f>
+        <f t="shared" ref="C71:D71" si="217">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="29">
-        <f t="shared" si="169"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="E71" s="29">
-        <f t="shared" ref="E71" si="170">E69-E70</f>
+        <f t="shared" ref="E71" si="218">E69-E70</f>
         <v>0</v>
       </c>
       <c r="F71" s="29">
-        <f t="shared" ref="F71" si="171">F69-F70</f>
+        <f t="shared" ref="F71" si="219">F69-F70</f>
         <v>-4152</v>
       </c>
       <c r="G71" s="29">
-        <f t="shared" ref="G71" si="172">G69-G70</f>
-        <v>0</v>
+        <f t="shared" ref="G71" si="220">G69-G70</f>
+        <v>-4422</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" ref="H71" si="173">H69-H70</f>
-        <v>0</v>
+        <f t="shared" ref="H71" si="221">H69-H70</f>
+        <v>-5197</v>
       </c>
       <c r="I71" s="29">
-        <f t="shared" ref="I71" si="174">I69-I70</f>
+        <f t="shared" ref="I71" si="222">I69-I70</f>
         <v>-4369</v>
       </c>
       <c r="J71" s="29">
-        <f t="shared" ref="J71" si="175">J69-J70</f>
-        <v>0</v>
+        <f t="shared" ref="J71" si="223">J69-J70</f>
+        <v>-4316</v>
       </c>
       <c r="K71" s="29">
-        <f t="shared" ref="K71" si="176">K69-K70</f>
+        <f t="shared" ref="K71" si="224">K69-K70</f>
         <v>0</v>
       </c>
       <c r="L71" s="29">
-        <f t="shared" ref="L71" si="177">L69-L70</f>
+        <f t="shared" ref="L71" si="225">L69-L70</f>
         <v>0</v>
       </c>
       <c r="M71" s="29">
-        <f t="shared" ref="M71" si="178">M69-M70</f>
+        <f t="shared" ref="M71" si="226">M69-M70</f>
         <v>0</v>
       </c>
       <c r="N71" s="29">
@@ -6633,15 +7831,15 @@
         <v>-5007</v>
       </c>
       <c r="O71" s="29">
-        <f t="shared" ref="O71:Q71" si="179">O69-O70</f>
+        <f t="shared" ref="O71:Q71" si="227">O69-O70</f>
         <v>-4309</v>
       </c>
       <c r="P71" s="29">
-        <f t="shared" si="179"/>
+        <f t="shared" si="227"/>
         <v>-3374</v>
       </c>
       <c r="Q71" s="29">
-        <f t="shared" si="179"/>
+        <f t="shared" si="227"/>
         <v>-4095</v>
       </c>
       <c r="R71" s="29">
@@ -6649,15 +7847,15 @@
         <v>-3937</v>
       </c>
       <c r="S71" s="29">
-        <f t="shared" ref="S71:U71" si="180">S69-S70</f>
+        <f t="shared" ref="S71:U71" si="228">S69-S70</f>
         <v>0</v>
       </c>
       <c r="T71" s="29">
-        <f t="shared" si="180"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="U71" s="29">
-        <f t="shared" si="180"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="V71" s="29">
@@ -6665,23 +7863,39 @@
         <v>-1759</v>
       </c>
       <c r="W71" s="29">
-        <f t="shared" ref="W71" si="181">W69-W70</f>
+        <f t="shared" ref="W71" si="229">W69-W70</f>
         <v>-2764</v>
       </c>
       <c r="X71" s="29">
-        <f t="shared" ref="X71" si="182">X69-X70</f>
+        <f t="shared" ref="X71" si="230">X69-X70</f>
         <v>-4503</v>
       </c>
       <c r="Y71" s="29">
         <f>Y69-Y70</f>
         <v>-4235</v>
       </c>
+      <c r="AC71" s="29">
+        <f t="shared" ref="AC71:AE71" si="231">AC69-AC70</f>
+        <v>-618</v>
+      </c>
+      <c r="AD71" s="29">
+        <f t="shared" si="231"/>
+        <v>-1811</v>
+      </c>
+      <c r="AE71" s="29">
+        <f t="shared" ref="AE71:AF71" si="232">AE69-AE70</f>
+        <v>-4152</v>
+      </c>
+      <c r="AF71" s="29">
+        <f t="shared" ref="AF71:AG71" si="233">AF69-AF70</f>
+        <v>-4316</v>
+      </c>
       <c r="AG71" s="29">
-        <f t="shared" ref="AG71" si="183">AG69-AG70</f>
+        <f t="shared" si="233"/>
         <v>-5007</v>
       </c>
       <c r="AH71" s="29">
-        <f t="shared" ref="AH71" si="184">AH69-AH70</f>
+        <f t="shared" ref="AH71" si="234">AH69-AH70</f>
         <v>-3937</v>
       </c>
       <c r="AI71" s="29">
@@ -6693,20 +7907,38 @@
       <c r="B73" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C73" s="1">
+        <v>31.65</v>
+      </c>
+      <c r="D73" s="1">
+        <v>32.92</v>
+      </c>
       <c r="E73" s="1">
         <v>36.26</v>
       </c>
       <c r="F73" s="1">
         <v>35.58</v>
       </c>
+      <c r="G73" s="1">
+        <v>37.93</v>
+      </c>
+      <c r="H73" s="1">
+        <v>34.18</v>
+      </c>
       <c r="I73" s="1">
         <v>31.13</v>
       </c>
       <c r="J73" s="1">
         <v>26.46</v>
       </c>
+      <c r="K73" s="1">
+        <v>35.14</v>
+      </c>
+      <c r="L73" s="1">
+        <v>37.520000000000003</v>
+      </c>
       <c r="M73" s="1">
-        <v>37.520000000000003</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="N73" s="1">
         <v>34.56</v>
@@ -6723,6 +7955,12 @@
       <c r="R73" s="1">
         <v>48.78</v>
       </c>
+      <c r="S73" s="1">
+        <v>59.63</v>
+      </c>
+      <c r="T73" s="1">
+        <v>68.58</v>
+      </c>
       <c r="U73" s="1">
         <v>68.209999999999994</v>
       </c>
@@ -6737,6 +7975,20 @@
       </c>
       <c r="Y73" s="1">
         <v>36.619999999999997</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>25.91</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>27.99</v>
+      </c>
+      <c r="AE73" s="30">
+        <f t="shared" ref="AE73" si="235">F73</f>
+        <v>35.58</v>
+      </c>
+      <c r="AF73" s="30">
+        <f t="shared" ref="AF73" si="236">J73</f>
+        <v>26.46</v>
       </c>
       <c r="AG73" s="1">
         <f>N73</f>
@@ -6755,38 +8007,77 @@
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="C74" s="5">
+        <f t="shared" ref="C74:T74" si="237">C73*C22</f>
+        <v>34276.949999999997</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="237"/>
+        <v>35421.919999999998</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="237"/>
+        <v>38508.119999999995</v>
+      </c>
       <c r="F74" s="5">
-        <f t="shared" ref="F74" si="185">F73*F22</f>
+        <f t="shared" si="237"/>
         <v>36825.299999999996</v>
       </c>
+      <c r="G74" s="5">
+        <f t="shared" si="237"/>
+        <v>38309.300000000003</v>
+      </c>
+      <c r="H74" s="5">
+        <f t="shared" si="237"/>
+        <v>33906.559999999998</v>
+      </c>
       <c r="I74" s="5">
-        <f t="shared" ref="I74:J74" si="186">I73*I22</f>
+        <f t="shared" si="237"/>
         <v>30320.62</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="237"/>
         <v>25137</v>
       </c>
+      <c r="K74" s="5">
+        <f t="shared" si="237"/>
+        <v>31626</v>
+      </c>
+      <c r="L74" s="5">
+        <f t="shared" si="237"/>
+        <v>32267.200000000004</v>
+      </c>
+      <c r="M74" s="5">
+        <f t="shared" si="237"/>
+        <v>30842.799999999996</v>
+      </c>
       <c r="N74" s="5">
-        <f>N73*N22</f>
+        <f t="shared" si="237"/>
         <v>27889.920000000002</v>
       </c>
       <c r="O74" s="5">
-        <f t="shared" ref="O74" si="187">O73*O22</f>
+        <f t="shared" si="237"/>
         <v>21761.7</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" ref="P74" si="188">P73*P22</f>
+        <f t="shared" si="237"/>
         <v>35578.83</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" ref="Q74" si="189">Q73*Q22</f>
+        <f t="shared" si="237"/>
         <v>35092.32</v>
       </c>
       <c r="R74" s="5">
-        <f>R73*R22</f>
+        <f t="shared" si="237"/>
         <v>33560.639999999999</v>
+      </c>
+      <c r="S74" s="5">
+        <f t="shared" si="237"/>
+        <v>40608.03</v>
+      </c>
+      <c r="T74" s="5">
+        <f t="shared" si="237"/>
+        <v>46222.92</v>
       </c>
       <c r="U74" s="5">
         <f>U73*U22</f>
@@ -6797,23 +8088,39 @@
         <v>39553.619999999995</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" ref="W74:X74" si="190">W73*W22</f>
+        <f t="shared" ref="W74:X74" si="238">W73*W22</f>
         <v>33124.409999999996</v>
       </c>
       <c r="X74" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="238"/>
         <v>22940.559999999998</v>
       </c>
       <c r="Y74" s="5">
         <f>Y73*Y22</f>
         <v>19872.175765939999</v>
       </c>
+      <c r="AC74" s="5">
+        <f t="shared" ref="AC74:AE74" si="239">AC73*AC22</f>
+        <v>31299.279999999999</v>
+      </c>
+      <c r="AD74" s="5">
+        <f t="shared" si="239"/>
+        <v>31712.67</v>
+      </c>
+      <c r="AE74" s="5">
+        <f t="shared" ref="AE74:AF74" si="240">AE73*AE22</f>
+        <v>36825.299999999996</v>
+      </c>
+      <c r="AF74" s="5">
+        <f t="shared" ref="AF74:AG74" si="241">AF73*AF22</f>
+        <v>25137</v>
+      </c>
       <c r="AG74" s="5">
-        <f t="shared" ref="AG74" si="191">AG73*AG22</f>
+        <f t="shared" si="241"/>
         <v>29341.440000000002</v>
       </c>
       <c r="AH74" s="5">
-        <f t="shared" ref="AH74" si="192">AH73*AH22</f>
+        <f t="shared" ref="AH74" si="242">AH73*AH22</f>
         <v>34633.800000000003</v>
       </c>
       <c r="AI74" s="5">
@@ -6827,31 +8134,39 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5">
-        <f t="shared" ref="F75" si="193">F74-G71</f>
-        <v>36825.299999999996</v>
+        <f t="shared" ref="F75" si="243">F74-G71</f>
+        <v>41247.299999999996</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" ref="G75:H75" si="244">G74-G71</f>
+        <v>42731.3</v>
+      </c>
+      <c r="H75" s="5">
+        <f t="shared" ref="H75:I75" si="245">H74-H71</f>
+        <v>39103.56</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" ref="I75:J75" si="194">I74-I71</f>
+        <f t="shared" ref="I75:J75" si="246">I74-I71</f>
         <v>34689.619999999995</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="194"/>
-        <v>25137</v>
+        <f t="shared" si="246"/>
+        <v>29453</v>
       </c>
       <c r="N75" s="5">
         <f>N74-N71</f>
         <v>32896.92</v>
       </c>
       <c r="O75" s="5">
-        <f t="shared" ref="O75" si="195">O74-O71</f>
+        <f t="shared" ref="O75" si="247">O74-O71</f>
         <v>26070.7</v>
       </c>
       <c r="P75" s="5">
-        <f t="shared" ref="P75" si="196">P74-P71</f>
+        <f t="shared" ref="P75" si="248">P74-P71</f>
         <v>38952.83</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" ref="Q75" si="197">Q74-Q71</f>
+        <f t="shared" ref="Q75" si="249">Q74-Q71</f>
         <v>39187.32</v>
       </c>
       <c r="R75" s="5">
@@ -6867,23 +8182,39 @@
         <v>41312.619999999995</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" ref="W75:X75" si="198">W74-W71</f>
+        <f t="shared" ref="W75:X75" si="250">W74-W71</f>
         <v>35888.409999999996</v>
       </c>
       <c r="X75" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="250"/>
         <v>27443.559999999998</v>
       </c>
       <c r="Y75" s="5">
         <f>Y74-Y71</f>
         <v>24107.175765939999</v>
       </c>
+      <c r="AC75" s="5">
+        <f t="shared" ref="AC75:AE75" si="251">AC74-AC71</f>
+        <v>31917.279999999999</v>
+      </c>
+      <c r="AD75" s="5">
+        <f t="shared" si="251"/>
+        <v>33523.67</v>
+      </c>
+      <c r="AE75" s="5">
+        <f t="shared" ref="AE75:AF75" si="252">AE74-AE71</f>
+        <v>40977.299999999996</v>
+      </c>
+      <c r="AF75" s="5">
+        <f t="shared" ref="AF75:AG75" si="253">AF74-AF71</f>
+        <v>29453</v>
+      </c>
       <c r="AG75" s="5">
-        <f t="shared" ref="AG75" si="199">AG74-AG71</f>
+        <f t="shared" si="253"/>
         <v>34348.44</v>
       </c>
       <c r="AH75" s="5">
-        <f t="shared" ref="AH75" si="200">AH74-AH71</f>
+        <f t="shared" ref="AH75" si="254">AH74-AH71</f>
         <v>38570.800000000003</v>
       </c>
       <c r="AI75" s="5">
@@ -6894,7 +8225,7 @@
     <row r="77" spans="1:35" s="38" customFormat="1">
       <c r="A77" s="39">
         <f>AVERAGE(G77:Y77)</f>
-        <v>7.6086170522048091</v>
+        <v>6.9135709765197264</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>64</v>
@@ -6903,24 +8234,36 @@
         <f>F73/F67</f>
         <v>4.6944912411479685</v>
       </c>
+      <c r="G77" s="38">
+        <f t="shared" ref="G77:H77" si="255">G73/G67</f>
+        <v>5.0433517640863617</v>
+      </c>
+      <c r="H77" s="38">
+        <f t="shared" ref="H77:I77" si="256">H73/H67</f>
+        <v>4.744830674503218</v>
+      </c>
       <c r="I77" s="38">
         <f>I73/I67</f>
         <v>4.3759012844566314</v>
       </c>
+      <c r="J77" s="38">
+        <f>J73/J67</f>
+        <v>4.0020697341187708</v>
+      </c>
       <c r="N77" s="38">
         <f>N73/N67</f>
         <v>9.7177421602787462</v>
       </c>
       <c r="O77" s="38">
-        <f t="shared" ref="O77" si="201">O73/O67</f>
+        <f t="shared" ref="O77" si="257">O73/O67</f>
         <v>10.289219858156027</v>
       </c>
       <c r="P77" s="38">
-        <f t="shared" ref="P77:Q77" si="202">P73/P67</f>
+        <f t="shared" ref="P77:Q77" si="258">P73/P67</f>
         <v>12.26010682288077</v>
       </c>
       <c r="Q77" s="38">
-        <f t="shared" si="202"/>
+        <f t="shared" si="258"/>
         <v>12.807416058394161</v>
       </c>
       <c r="R77" s="38">
@@ -6943,12 +8286,32 @@
         <f>Y73/Y67</f>
         <v>4.0948229478549347</v>
       </c>
+      <c r="AB77" s="39">
+        <f>AVERAGE(AC77:AI77)</f>
+        <v>4.8499415907579078</v>
+      </c>
+      <c r="AC77" s="38">
+        <f t="shared" ref="AC77:AE77" si="259">AC73/AC67</f>
+        <v>4.7596228710462292</v>
+      </c>
+      <c r="AD77" s="38">
+        <f t="shared" si="259"/>
+        <v>3.009077711357814</v>
+      </c>
+      <c r="AE77" s="38">
+        <f t="shared" ref="AE77:AF77" si="260">AE73/AE67</f>
+        <v>4.5751397689153928</v>
+      </c>
+      <c r="AF77" s="38">
+        <f t="shared" ref="AF77:AG77" si="261">AF73/AF67</f>
+        <v>4.0020697341187708</v>
+      </c>
       <c r="AG77" s="38">
-        <f t="shared" ref="AG77" si="203">AG73/AG67</f>
+        <f t="shared" si="261"/>
         <v>10.223498257839722</v>
       </c>
       <c r="AH77" s="38">
-        <f t="shared" ref="AH77" si="204">AH73/AH67</f>
+        <f t="shared" ref="AH77" si="262">AH73/AH67</f>
         <v>3.0279594334673896</v>
       </c>
       <c r="AI77" s="38">
@@ -6957,15 +8320,119 @@
       </c>
     </row>
     <row r="78" spans="1:35">
+      <c r="A78" s="39">
+        <f>AVERAGE(G78:Y78)</f>
+        <v>3.197187519156873</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="F78" s="38">
+        <f t="shared" ref="F78:X78" si="263">F74/SUM(C4:F4)</f>
+        <v>3.7096101541251127</v>
+      </c>
+      <c r="G78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.7543414347314781</v>
+      </c>
+      <c r="H78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.252427817745803</v>
+      </c>
+      <c r="I78" s="38">
+        <f t="shared" si="263"/>
+        <v>2.866927004538578</v>
+      </c>
+      <c r="J78" s="38">
+        <f t="shared" si="263"/>
+        <v>2.3391959798994977</v>
+      </c>
+      <c r="K78" s="38">
+        <f t="shared" si="263"/>
+        <v>2.9895075148879857</v>
+      </c>
+      <c r="L78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.1139934375603171</v>
+      </c>
+      <c r="M78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.1485095957533682</v>
+      </c>
+      <c r="N78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.0464139814309124</v>
+      </c>
+      <c r="O78" s="38">
+        <f t="shared" si="263"/>
+        <v>2.3871983326020185</v>
+      </c>
+      <c r="P78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.7224136848713121</v>
+      </c>
+      <c r="Q78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.4810356115464733</v>
+      </c>
+      <c r="R78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.1327023242789136</v>
+      </c>
+      <c r="S78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.6993741459415141</v>
+      </c>
+      <c r="T78" s="38">
+        <f t="shared" si="263"/>
+        <v>4.2878404452690164</v>
+      </c>
+      <c r="U78" s="38">
+        <f t="shared" si="263"/>
+        <v>4.2044196721311469</v>
+      </c>
+      <c r="V78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.7959328214971206</v>
+      </c>
+      <c r="W78" s="38">
+        <f t="shared" si="263"/>
+        <v>3.2269274232830001</v>
+      </c>
+      <c r="X78" s="38">
+        <f t="shared" si="263"/>
+        <v>2.2897055594370692</v>
+      </c>
+      <c r="Y78" s="38">
+        <f>Y74/SUM(V4:Y4)</f>
+        <v>2.0076960765750655</v>
+      </c>
+      <c r="AB78" s="39">
+        <f t="shared" ref="AB78:AB81" si="264">AVERAGE(AC78:AI78)</f>
+        <v>3.3922041867436059</v>
+      </c>
+      <c r="AC78" s="38">
+        <f t="shared" ref="AC78:AE78" si="265">AC74/AC4</f>
+        <v>3.6428398510242084</v>
+      </c>
+      <c r="AD78" s="38">
+        <f t="shared" si="265"/>
+        <v>3.5318710324089539</v>
+      </c>
+      <c r="AE78" s="38">
+        <f t="shared" ref="AE78:AF78" si="266">AE74/AE4</f>
+        <v>3.7096101541251127</v>
+      </c>
+      <c r="AF78" s="38">
+        <f t="shared" ref="AF78:AG78" si="267">AF74/AF4</f>
+        <v>2.3391959798994977</v>
+      </c>
       <c r="AG78" s="38">
-        <f t="shared" ref="AG78" si="205">AG74/AG4</f>
+        <f t="shared" si="267"/>
         <v>3.2049634079737852</v>
       </c>
       <c r="AH78" s="38">
-        <f t="shared" ref="AH78" si="206">AH74/AH4</f>
+        <f t="shared" ref="AH78" si="268">AH74/AH4</f>
         <v>3.2328759451134137</v>
       </c>
       <c r="AI78" s="38">
@@ -6977,12 +8444,32 @@
       <c r="B79" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AB79" s="39">
+        <f t="shared" si="264"/>
+        <v>3.7031660365898795</v>
+      </c>
+      <c r="AC79" s="38">
+        <f t="shared" ref="AC79:AE79" si="269">AC75/AC4</f>
+        <v>3.7147672253258843</v>
+      </c>
+      <c r="AD79" s="38">
+        <f t="shared" si="269"/>
+        <v>3.7335638712551509</v>
+      </c>
+      <c r="AE79" s="38">
+        <f t="shared" ref="AE79:AF79" si="270">AE75/AE4</f>
+        <v>4.1278634028407373</v>
+      </c>
+      <c r="AF79" s="38">
+        <f t="shared" ref="AF79:AG79" si="271">AF75/AF4</f>
+        <v>2.7408337986227433</v>
+      </c>
       <c r="AG79" s="38">
-        <f t="shared" ref="AG79" si="207">AG75/AG4</f>
+        <f t="shared" si="271"/>
         <v>3.7518776624795196</v>
       </c>
       <c r="AH79" s="38">
-        <f t="shared" ref="AH79" si="208">AH75/AH4</f>
+        <f t="shared" ref="AH79" si="272">AH75/AH4</f>
         <v>3.6003733781387104</v>
       </c>
       <c r="AI79" s="38">
@@ -6993,53 +8480,117 @@
     <row r="80" spans="1:35" s="38" customFormat="1">
       <c r="A80" s="39">
         <f>AVERAGE(G80:Y80)</f>
-        <v>-18.081502924599494</v>
+        <v>-9.9459851224596605</v>
       </c>
       <c r="B80" s="38" t="s">
         <v>67</v>
       </c>
+      <c r="F80" s="38">
+        <f t="shared" ref="F80" si="273">F73/SUM(C21:F21)</f>
+        <v>-34.186196284168958</v>
+      </c>
+      <c r="G80" s="38">
+        <f t="shared" ref="G80" si="274">G73/SUM(D21:G21)</f>
+        <v>-23.803258337409265</v>
+      </c>
+      <c r="H80" s="38">
+        <f t="shared" ref="H80" si="275">H73/SUM(E21:H21)</f>
+        <v>-35.119316071931394</v>
+      </c>
+      <c r="I80" s="38">
+        <f t="shared" ref="I80" si="276">I73/SUM(F21:I21)</f>
+        <v>-43.077600182512285</v>
+      </c>
+      <c r="J80" s="38">
+        <f t="shared" ref="J80" si="277">J73/SUM(G21:J21)</f>
+        <v>10.214661840651397</v>
+      </c>
+      <c r="K80" s="38">
+        <f t="shared" ref="K80" si="278">K73/SUM(H21:K21)</f>
+        <v>12.718154987157886</v>
+      </c>
+      <c r="L80" s="38">
+        <f t="shared" ref="L80" si="279">L73/SUM(I21:L21)</f>
+        <v>14.524374227423833</v>
+      </c>
+      <c r="M80" s="38">
+        <f t="shared" ref="M80" si="280">M73/SUM(J21:M21)</f>
+        <v>16.765235423602924</v>
+      </c>
       <c r="N80" s="38">
-        <f t="shared" ref="N80" si="209">N73/SUM(K21:N21)</f>
+        <f t="shared" ref="N80" si="281">N73/SUM(K21:N21)</f>
         <v>16.414442706508094</v>
       </c>
       <c r="O80" s="38">
-        <f t="shared" ref="O80" si="210">O73/SUM(L21:O21)</f>
+        <f t="shared" ref="O80" si="282">O73/SUM(L21:O21)</f>
         <v>4.7680989418995381</v>
       </c>
       <c r="P80" s="38">
-        <f t="shared" ref="P80" si="211">P73/SUM(M21:P21)</f>
+        <f t="shared" ref="P80" si="283">P73/SUM(M21:P21)</f>
         <v>7.6049907925668574</v>
       </c>
       <c r="Q80" s="38">
-        <f t="shared" ref="Q80" si="212">Q73/SUM(N21:Q21)</f>
+        <f t="shared" ref="Q80" si="284">Q73/SUM(N21:Q21)</f>
         <v>6.9685453631242744</v>
       </c>
       <c r="R80" s="38">
-        <f t="shared" ref="R80" si="213">R73/SUM(O21:R21)</f>
+        <f t="shared" ref="R80" si="285">R73/SUM(O21:R21)</f>
         <v>6.2742813338289967</v>
       </c>
+      <c r="S80" s="38">
+        <f t="shared" ref="S80" si="286">S73/SUM(P21:S21)</f>
+        <v>14.249698502138768</v>
+      </c>
+      <c r="T80" s="38">
+        <f t="shared" ref="T80" si="287">T73/SUM(Q21:T21)</f>
+        <v>3.600132376127589</v>
+      </c>
+      <c r="U80" s="38">
+        <f t="shared" ref="U80" si="288">U73/SUM(R21:U21)</f>
+        <v>3.6877262294124424</v>
+      </c>
       <c r="V80" s="38">
-        <f t="shared" ref="V80:X80" si="214">V73/SUM(S21:V21)</f>
+        <f t="shared" ref="V80" si="289">V73/SUM(S21:V21)</f>
         <v>3.181191505918596</v>
       </c>
       <c r="W80" s="38">
-        <f t="shared" si="214"/>
+        <f t="shared" ref="W80" si="290">W73/SUM(T21:W21)</f>
         <v>3.2634136402727529</v>
       </c>
       <c r="X80" s="38">
-        <f t="shared" si="214"/>
+        <f t="shared" ref="X80" si="291">X73/SUM(U21:X21)</f>
         <v>100.42416013144638</v>
       </c>
       <c r="Y80" s="38">
-        <f>Y73/SUM(V21:Y21)</f>
+        <f t="shared" ref="Y80" si="292">Y73/SUM(V21:Y21)</f>
         <v>-311.63265073696095</v>
       </c>
+      <c r="AB80" s="39">
+        <f t="shared" si="264"/>
+        <v>4.3961723137688082</v>
+      </c>
+      <c r="AC80" s="38">
+        <f t="shared" ref="AC80:AE80" si="293">AC73/AC21</f>
+        <v>18.144510144927537</v>
+      </c>
+      <c r="AD80" s="38">
+        <f t="shared" si="293"/>
+        <v>4.3645293146160196</v>
+      </c>
+      <c r="AE80" s="38">
+        <f t="shared" ref="AE80:AF80" si="294">AE73/AE21</f>
+        <v>-27.338752783964363</v>
+      </c>
+      <c r="AF80" s="38">
+        <f t="shared" ref="AF80:AG80" si="295">AF73/AF21</f>
+        <v>9.9355731225296449</v>
+      </c>
       <c r="AG80" s="38">
-        <f t="shared" ref="AG80" si="215">AG73/AG21</f>
+        <f t="shared" si="295"/>
         <v>16.428577827547596</v>
       </c>
       <c r="AH80" s="38">
-        <f t="shared" ref="AH80" si="216">AH73/AH21</f>
+        <f t="shared" ref="AH80" si="296">AH73/AH21</f>
         <v>6.1114875595553206</v>
       </c>
       <c r="AI80" s="38">
@@ -7051,12 +8602,32 @@
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="AB81" s="39">
+        <f t="shared" si="264"/>
+        <v>4.8045273010515652</v>
+      </c>
+      <c r="AC81" s="38">
+        <f t="shared" ref="AC81:AE81" si="297">AC75/AC20</f>
+        <v>18.502771014492755</v>
+      </c>
+      <c r="AD81" s="38">
+        <f t="shared" si="297"/>
+        <v>4.6137723644371045</v>
+      </c>
+      <c r="AE81" s="38">
+        <f t="shared" ref="AE81:AF81" si="298">AE75/AE20</f>
+        <v>-30.421158129175943</v>
+      </c>
+      <c r="AF81" s="38">
+        <f t="shared" ref="AF81:AG81" si="299">AF75/AF20</f>
+        <v>11.641501976284585</v>
+      </c>
       <c r="AG81" s="38">
-        <f t="shared" ref="AG81" si="217">AG75/AG20</f>
+        <f t="shared" si="299"/>
         <v>19.232049272116463</v>
       </c>
       <c r="AH81" s="38">
-        <f t="shared" ref="AH81" si="218">AH75/AH20</f>
+        <f t="shared" ref="AH81" si="300">AH75/AH20</f>
         <v>6.8062113993294515</v>
       </c>
       <c r="AI81" s="38">
@@ -7084,14 +8655,17 @@
     <hyperlink ref="J1" r:id="rId11" xr:uid="{EF452910-C63D-4FF7-8AD7-D1F12358F554}"/>
     <hyperlink ref="AF1" r:id="rId12" xr:uid="{8F2D3DE9-165E-481D-BCBB-939394C8E023}"/>
     <hyperlink ref="I1" r:id="rId13" xr:uid="{A65B4E57-B629-4D2D-A351-F5B7A1FB252A}"/>
+    <hyperlink ref="H1" r:id="rId14" xr:uid="{3FE2498B-421B-4084-A2F7-E2F5929440C6}"/>
+    <hyperlink ref="G1" r:id="rId15" xr:uid="{478E0185-6005-4167-BAB4-BB4F0CF78C16}"/>
+    <hyperlink ref="AD1" r:id="rId16" xr:uid="{B3E42245-C17E-41B0-B7FE-22B9926644BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId14"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId17"/>
   <ignoredErrors>
-    <ignoredError sqref="AI4 AH4:AH5 AG4:AG5 AG20:AG22" formulaRange="1"/>
-    <ignoredError sqref="AI5:AI11 AI14:AI15 AI17 AI19 AH6:AH11 AH14:AH19 AG6:AG19" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AH39:AI39 AH56:AH61 AG39:AG62 AG64" formula="1"/>
+    <ignoredError sqref="AI4 AH4:AH5 AG4:AG5 AG22 AF4:AF5 AE4:AE5 F78:Y78" formulaRange="1"/>
+    <ignoredError sqref="AI5:AI11 AI14:AI15 AI17 AI19 AH6:AH11 AH14:AH19 AG7:AG11 AG14:AG15 AG19 AG17 AE7:AF11 AF6 AE14:AF15 AF12:AF13 AE17:AF17 AF16 AE19:AF19 AF18" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AH39:AI39 AH56:AH61 AG39:AG62 AG64 AG6 AF35:AF56 AE39:AE62 AE16 AE18" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C441FE-2F08-4280-8884-41BA9102D64A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1DA25-1906-4ABB-B791-C2CDF8245C3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
   <si>
     <t>$EBAY</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Q417</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,8 +510,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -702,25 +727,10 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +744,38 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -847,8 +889,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13744575" y="9525"/>
-          <a:ext cx="0" cy="13696950"/>
+          <a:off x="16363950" y="9525"/>
+          <a:ext cx="0" cy="14020800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1243,22 +1285,22 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="G5" s="40" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="3" t="s">
@@ -1427,11 +1469,11 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1446,10 +1488,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="50"/>
       <c r="G16" s="13"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1464,10 +1506,10 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="50"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1480,8 +1522,8 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="7"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1496,10 +1538,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="43"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1533,11 +1575,11 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1552,10 +1594,10 @@
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="50"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1570,10 +1612,10 @@
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="49">
         <v>1995</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="50"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1588,10 +1630,10 @@
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="49">
         <v>1998</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="50"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1618,8 +1660,8 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="9"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1655,10 +1697,10 @@
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="45"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -1670,76 +1712,71 @@
       <c r="O29" s="16"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="40">
         <f>C6/'Financial Model'!Y67</f>
         <v>4.5599912565134968</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="40">
         <f>C8/SUM('Financial Model'!V4:Y4)</f>
         <v>2.235768596469994</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="41"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="40">
         <f>C12/SUM('Financial Model'!V4:Y4)</f>
         <v>2.663632811462922</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="40">
         <f>C6/SUM('Financial Model'!V21:Y21)</f>
         <v>-347.03384754378123</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="40">
         <f>C12/SUM('Financial Model'!V20:Y20)</f>
         <v>941.59419885214288</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1755,6 +1792,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{D9973FEA-B39E-4DD3-8417-80042015C44B}"/>
@@ -1773,17 +1815,21 @@
   <dimension ref="A1:AT82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB77" sqref="AB77:AB81"/>
+      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="9.140625" style="51"/>
+    <col min="27" max="35" width="9.140625" style="1"/>
+    <col min="36" max="36" width="9.140625" style="51"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:46" s="20" customFormat="1">
@@ -1856,7 +1902,7 @@
       <c r="Y1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="52" t="s">
         <v>41</v>
       </c>
       <c r="AC1" s="20" t="s">
@@ -1880,7 +1926,7 @@
       <c r="AI1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="52" t="s">
         <v>48</v>
       </c>
       <c r="AK1" s="20" t="s">
@@ -1985,6 +2031,9 @@
       <c r="Y2" s="27">
         <v>44834</v>
       </c>
+      <c r="Z2" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="AC2" s="27">
         <v>42369</v>
       </c>
@@ -2009,6 +2058,9 @@
       </c>
       <c r="AI2" s="27">
         <v>44561</v>
+      </c>
+      <c r="AJ2" s="53" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:46" s="22" customFormat="1">
@@ -2049,6 +2101,7 @@
       <c r="Y3" s="26">
         <v>37561</v>
       </c>
+      <c r="Z3" s="53"/>
       <c r="AD3" s="26">
         <v>45658</v>
       </c>
@@ -2063,6 +2116,7 @@
       <c r="AI3" s="26">
         <v>44958</v>
       </c>
+      <c r="AJ3" s="53"/>
     </row>
     <row r="4" spans="2:46" s="2" customFormat="1">
       <c r="B4" s="2" t="s">
@@ -2137,6 +2191,10 @@
       <c r="Y4" s="28">
         <v>2380</v>
       </c>
+      <c r="Z4" s="58">
+        <f>Y4*(1+Z25)</f>
+        <v>2356.1999999999998</v>
+      </c>
       <c r="AC4" s="28">
         <v>8592</v>
       </c>
@@ -2163,6 +2221,10 @@
         <f>SUM(S4:V4)</f>
         <v>10420</v>
       </c>
+      <c r="AJ4" s="58">
+        <f>SUM(W4:Z4)</f>
+        <v>9641.2000000000007</v>
+      </c>
     </row>
     <row r="5" spans="2:46">
       <c r="B5" s="1" t="s">
@@ -2237,6 +2299,10 @@
       <c r="Y5" s="29">
         <v>647</v>
       </c>
+      <c r="Z5" s="55">
+        <f>Z4*(1-Z27)</f>
+        <v>636.17399999999998</v>
+      </c>
       <c r="AC5" s="29">
         <v>1771</v>
       </c>
@@ -2263,6 +2329,10 @@
         <f>SUM(S5:V5)</f>
         <v>2650</v>
       </c>
+      <c r="AJ5" s="55">
+        <f>SUM(W5:Z5)</f>
+        <v>2635.174</v>
+      </c>
     </row>
     <row r="6" spans="2:46" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
@@ -2360,6 +2430,10 @@
         <f>Y4-Y5</f>
         <v>1733</v>
       </c>
+      <c r="Z6" s="58">
+        <f>Z4-Z5</f>
+        <v>1720.0259999999998</v>
+      </c>
       <c r="AC6" s="28">
         <f t="shared" ref="AC6" si="2">AC4-AC5</f>
         <v>6821</v>
@@ -2388,6 +2462,10 @@
         <f>AI4-AI5</f>
         <v>7770</v>
       </c>
+      <c r="AJ6" s="58">
+        <f>AJ4-AJ5</f>
+        <v>7006.0260000000007</v>
+      </c>
     </row>
     <row r="7" spans="2:46">
       <c r="B7" s="1" t="s">
@@ -2462,6 +2540,10 @@
       <c r="Y7" s="29">
         <v>538</v>
       </c>
+      <c r="Z7" s="55">
+        <f>Z4*0.23</f>
+        <v>541.92599999999993</v>
+      </c>
       <c r="AC7" s="29">
         <v>2267</v>
       </c>
@@ -2488,6 +2570,10 @@
         <f>SUM(S7:V7)</f>
         <v>2170</v>
       </c>
+      <c r="AJ7" s="55">
+        <f t="shared" ref="AJ7:AJ11" si="9">SUM(W7:Z7)</f>
+        <v>2123.9259999999999</v>
+      </c>
     </row>
     <row r="8" spans="2:46">
       <c r="B8" s="1" t="s">
@@ -2562,6 +2648,10 @@
       <c r="Y8" s="29">
         <v>345</v>
       </c>
+      <c r="Z8" s="55">
+        <f>Z4*0.141</f>
+        <v>332.22419999999994</v>
+      </c>
       <c r="AC8" s="29">
         <v>923</v>
       </c>
@@ -2585,8 +2675,12 @@
         <v>1161</v>
       </c>
       <c r="AI8" s="29">
-        <f t="shared" ref="AI8:AI11" si="9">SUM(S8:V8)</f>
+        <f t="shared" ref="AI8:AI11" si="10">SUM(S8:V8)</f>
         <v>1325</v>
+      </c>
+      <c r="AJ8" s="55">
+        <f t="shared" si="9"/>
+        <v>1322.2241999999999</v>
       </c>
     </row>
     <row r="9" spans="2:46">
@@ -2662,6 +2756,10 @@
       <c r="Y9" s="29">
         <v>212</v>
       </c>
+      <c r="Z9" s="55">
+        <f>Z4*0.085</f>
+        <v>200.27699999999999</v>
+      </c>
       <c r="AC9" s="29">
         <v>1122</v>
       </c>
@@ -2685,8 +2783,12 @@
         <v>1065</v>
       </c>
       <c r="AI9" s="29">
+        <f t="shared" si="10"/>
+        <v>921</v>
+      </c>
+      <c r="AJ9" s="55">
         <f t="shared" si="9"/>
-        <v>921</v>
+        <v>875.27700000000004</v>
       </c>
     </row>
     <row r="10" spans="2:46">
@@ -2762,6 +2864,10 @@
       <c r="Y10" s="29">
         <v>69</v>
       </c>
+      <c r="Z10" s="55">
+        <f>Z4*0.03</f>
+        <v>70.685999999999993</v>
+      </c>
       <c r="AC10" s="29">
         <v>271</v>
       </c>
@@ -2785,8 +2891,12 @@
         <v>341</v>
       </c>
       <c r="AI10" s="29">
+        <f t="shared" si="10"/>
+        <v>422</v>
+      </c>
+      <c r="AJ10" s="55">
         <f t="shared" si="9"/>
-        <v>422</v>
+        <v>321.68599999999998</v>
       </c>
     </row>
     <row r="11" spans="2:46">
@@ -2862,6 +2972,10 @@
       <c r="Y11" s="29">
         <v>1</v>
       </c>
+      <c r="Z11" s="55">
+        <f>AVERAGE(V11:Y11)</f>
+        <v>0.75</v>
+      </c>
       <c r="AC11" s="29">
         <v>41</v>
       </c>
@@ -2885,8 +2999,12 @@
         <v>31</v>
       </c>
       <c r="AI11" s="29">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="55">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="2:46">
@@ -2894,250 +3012,266 @@
         <v>80</v>
       </c>
       <c r="C12" s="29">
-        <f t="shared" ref="C12:F12" si="10">SUM(C7:C11)</f>
+        <f t="shared" ref="C12:F12" si="11">SUM(C7:C11)</f>
         <v>1242</v>
       </c>
       <c r="D12" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1379</v>
       </c>
       <c r="E12" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1367</v>
       </c>
       <c r="F12" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1454</v>
       </c>
       <c r="G12" s="29">
-        <f t="shared" ref="G12:X12" si="11">SUM(G7:G11)</f>
+        <f t="shared" ref="G12:X12" si="12">SUM(G7:G11)</f>
         <v>1442</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1637</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1485</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1578</v>
       </c>
       <c r="K12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1281</v>
       </c>
       <c r="L12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1312</v>
       </c>
       <c r="M12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1145</v>
       </c>
       <c r="N12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1202</v>
       </c>
       <c r="O12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1219</v>
       </c>
       <c r="P12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1446</v>
       </c>
       <c r="Q12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1271</v>
       </c>
       <c r="R12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1449</v>
       </c>
       <c r="S12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1191</v>
       </c>
       <c r="T12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1264</v>
       </c>
       <c r="U12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1161</v>
       </c>
       <c r="V12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1231</v>
       </c>
       <c r="W12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1102</v>
       </c>
       <c r="X12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1234</v>
       </c>
       <c r="Y12" s="29">
         <f>SUM(Y7:Y11)</f>
         <v>1165</v>
       </c>
+      <c r="Z12" s="55">
+        <f>SUM(Z7:Z11)</f>
+        <v>1145.8631999999998</v>
+      </c>
       <c r="AC12" s="29">
-        <f t="shared" ref="AC12:AE12" si="12">SUM(AC7:AC11)</f>
+        <f t="shared" ref="AC12:AD12" si="13">SUM(AC7:AC11)</f>
         <v>4624</v>
       </c>
       <c r="AD12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4647</v>
       </c>
       <c r="AE12" s="29">
-        <f t="shared" ref="AE12:AG12" si="13">SUM(AE7:AE11)</f>
+        <f t="shared" ref="AE12:AG12" si="14">SUM(AE7:AE11)</f>
         <v>6018</v>
       </c>
       <c r="AF12" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6142</v>
       </c>
       <c r="AG12" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4940</v>
       </c>
       <c r="AH12" s="29">
-        <f t="shared" ref="AH12" si="14">SUM(AH7:AH11)</f>
+        <f t="shared" ref="AH12" si="15">SUM(AH7:AH11)</f>
         <v>5385</v>
       </c>
       <c r="AI12" s="29">
         <f>SUM(AI7:AI11)</f>
         <v>4847</v>
       </c>
+      <c r="AJ12" s="55">
+        <f>SUM(AJ7:AJ11)</f>
+        <v>4646.8631999999998</v>
+      </c>
     </row>
     <row r="13" spans="2:46" s="2" customFormat="1">
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="28">
-        <f t="shared" ref="C13:F13" si="15">C6-C12</f>
+        <f t="shared" ref="C13:F13" si="16">C6-C12</f>
         <v>547</v>
       </c>
       <c r="D13" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>480</v>
       </c>
       <c r="E13" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>574</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>663</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" ref="G13:X13" si="16">G6-G12</f>
+        <f t="shared" ref="G13:X13" si="17">G6-G12</f>
         <v>579</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>406</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>556</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>681</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>593</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>558</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>408</v>
       </c>
       <c r="N13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>478</v>
       </c>
       <c r="O13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>629</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>821</v>
       </c>
       <c r="Q13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>679</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>677</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>841</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>732</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>662</v>
       </c>
       <c r="V13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>688</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>692</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>525</v>
       </c>
       <c r="Y13" s="28">
         <f>Y6-Y12</f>
         <v>568</v>
       </c>
+      <c r="Z13" s="58">
+        <f>Z6-Z12</f>
+        <v>574.16280000000006</v>
+      </c>
       <c r="AC13" s="28">
-        <f t="shared" ref="AC13:AE13" si="17">AC6-AC12</f>
+        <f t="shared" ref="AC13:AD13" si="18">AC6-AC12</f>
         <v>2197</v>
       </c>
       <c r="AD13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2325</v>
       </c>
       <c r="AE13" s="28">
-        <f t="shared" ref="AE13:AG13" si="18">AE6-AE12</f>
+        <f t="shared" ref="AE13:AG13" si="19">AE6-AE12</f>
         <v>1688</v>
       </c>
       <c r="AF13" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2222</v>
       </c>
       <c r="AG13" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2037</v>
       </c>
       <c r="AH13" s="28">
-        <f t="shared" ref="AH13" si="19">AH6-AH12</f>
+        <f t="shared" ref="AH13" si="20">AH6-AH12</f>
         <v>2806</v>
       </c>
       <c r="AI13" s="28">
         <f>AI6-AI12</f>
         <v>2923</v>
       </c>
+      <c r="AJ13" s="58">
+        <f>AJ6-AJ12</f>
+        <v>2359.162800000001</v>
+      </c>
     </row>
     <row r="14" spans="2:46">
       <c r="B14" s="1" t="s">
@@ -3212,6 +3346,9 @@
       <c r="Y14" s="29">
         <v>-593</v>
       </c>
+      <c r="Z14" s="55">
+        <v>-700</v>
+      </c>
       <c r="AC14" s="29">
         <v>0</v>
       </c>
@@ -3219,24 +3356,28 @@
         <v>0</v>
       </c>
       <c r="AE14" s="29">
-        <f t="shared" ref="AE14:AF15" si="20">SUM(F14:I14)</f>
+        <f t="shared" ref="AE14:AE15" si="21">SUM(F14:I14)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="29">
-        <f t="shared" ref="AF14:AF15" si="21">SUM(G14:J14)</f>
+        <f t="shared" ref="AF14:AF15" si="22">SUM(G14:J14)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="29">
-        <f t="shared" ref="AG14:AG15" si="22">SUM(K14:N14)</f>
+        <f t="shared" ref="AG14:AG15" si="23">SUM(K14:N14)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="29">
-        <f t="shared" ref="AH14:AH19" si="23">SUM(O14:R14)</f>
+        <f t="shared" ref="AH14:AH19" si="24">SUM(O14:R14)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="29">
-        <f t="shared" ref="AI14:AI15" si="24">SUM(S14:V14)</f>
+        <f t="shared" ref="AI14:AI15" si="25">SUM(S14:V14)</f>
         <v>-2365</v>
+      </c>
+      <c r="AJ14" s="55">
+        <f t="shared" ref="AJ14:AJ19" si="26">SUM(W14:Z14)</f>
+        <v>-4805</v>
       </c>
     </row>
     <row r="15" spans="2:46">
@@ -3312,6 +3453,10 @@
       <c r="Y15" s="29">
         <v>-29</v>
       </c>
+      <c r="Z15" s="55">
+        <f>AVERAGE(V15:Y15)</f>
+        <v>-21</v>
+      </c>
       <c r="AC15" s="29">
         <v>209</v>
       </c>
@@ -3319,24 +3464,28 @@
         <v>1326</v>
       </c>
       <c r="AE15" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>559</v>
       </c>
       <c r="AF15" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>496</v>
       </c>
       <c r="AG15" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-113</v>
       </c>
       <c r="AH15" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>711</v>
       </c>
       <c r="AI15" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-160</v>
+      </c>
+      <c r="AJ15" s="55">
+        <f t="shared" si="26"/>
+        <v>-131</v>
       </c>
     </row>
     <row r="16" spans="2:46">
@@ -3344,31 +3493,31 @@
         <v>83</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" ref="C16:F16" si="25">C13+C14+C15</f>
+        <f t="shared" ref="C16:F16" si="27">C13+C14+C15</f>
         <v>558</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>462</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>694</v>
       </c>
       <c r="F16" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>561</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" ref="G16:X16" si="26">G13+G14+G15</f>
+        <f t="shared" ref="G16:X16" si="28">G13+G14+G15</f>
         <v>547</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>707</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>948</v>
       </c>
       <c r="J16" s="29">
@@ -3376,27 +3525,27 @@
         <v>516</v>
       </c>
       <c r="K16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>657</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>507</v>
       </c>
       <c r="M16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>266</v>
       </c>
       <c r="N16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>494</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>631</v>
       </c>
       <c r="P16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1003</v>
       </c>
       <c r="Q16" s="29">
@@ -3404,67 +3553,75 @@
         <v>774</v>
       </c>
       <c r="R16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1109</v>
       </c>
       <c r="S16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>724</v>
       </c>
       <c r="T16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>401</v>
       </c>
       <c r="U16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>434</v>
       </c>
       <c r="V16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1161</v>
       </c>
       <c r="W16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1649</v>
       </c>
       <c r="X16" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-727</v>
       </c>
       <c r="Y16" s="29">
         <f>Y13+Y14+Y15</f>
         <v>-54</v>
       </c>
+      <c r="Z16" s="55">
+        <f>Z13+Z14+Z15</f>
+        <v>-146.83719999999994</v>
+      </c>
       <c r="AC16" s="29">
-        <f t="shared" ref="AC16:AH16" si="27">AC13+AC14+AC15</f>
+        <f t="shared" ref="AC16:AH16" si="29">AC13+AC14+AC15</f>
         <v>2406</v>
       </c>
       <c r="AD16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3651</v>
       </c>
       <c r="AE16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2247</v>
       </c>
       <c r="AF16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2718</v>
       </c>
       <c r="AG16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1924</v>
       </c>
       <c r="AH16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3517</v>
       </c>
       <c r="AI16" s="29">
         <f>AI13+AI14+AI15</f>
         <v>398</v>
       </c>
-    </row>
-    <row r="17" spans="2:35">
+      <c r="AJ16" s="55">
+        <f>AJ13+AJ14+AJ15</f>
+        <v>-2576.837199999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
@@ -3537,6 +3694,10 @@
       <c r="Y17" s="29">
         <v>-16</v>
       </c>
+      <c r="Z17" s="55">
+        <f>AVERAGE(V17:Y17)</f>
+        <v>188.25</v>
+      </c>
       <c r="AC17" s="29">
         <v>-459</v>
       </c>
@@ -3544,152 +3705,164 @@
         <v>3634</v>
       </c>
       <c r="AE17" s="29">
-        <f t="shared" ref="AE17" si="28">SUM(F17:I17)</f>
+        <f t="shared" ref="AE17" si="30">SUM(F17:I17)</f>
         <v>-3595</v>
       </c>
       <c r="AF17" s="29">
-        <f t="shared" ref="AF17" si="29">SUM(G17:J17)</f>
+        <f t="shared" ref="AF17" si="31">SUM(G17:J17)</f>
         <v>-190</v>
       </c>
       <c r="AG17" s="29">
-        <f t="shared" ref="AG17" si="30">SUM(K17:N17)</f>
+        <f t="shared" ref="AG17" si="32">SUM(K17:N17)</f>
         <v>-329</v>
       </c>
       <c r="AH17" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-890</v>
       </c>
       <c r="AI17" s="29">
-        <f t="shared" ref="AI17" si="31">SUM(S17:V17)</f>
+        <f t="shared" ref="AI17" si="33">SUM(S17:V17)</f>
         <v>-146</v>
       </c>
-    </row>
-    <row r="18" spans="2:35">
+      <c r="AJ17" s="55">
+        <f t="shared" si="26"/>
+        <v>673.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36">
       <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="29">
-        <f t="shared" ref="C18:F18" si="32">C16+C17</f>
+        <f t="shared" ref="C18:F18" si="34">C16+C17</f>
         <v>1035</v>
       </c>
       <c r="D18" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>29</v>
       </c>
       <c r="E18" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>520</v>
       </c>
       <c r="F18" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-2597</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" ref="G18:X18" si="33">G16+G17</f>
+        <f t="shared" ref="G18:X18" si="35">G16+G17</f>
         <v>407</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>638</v>
       </c>
       <c r="I18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>720</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>763</v>
       </c>
       <c r="K18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>516</v>
       </c>
       <c r="L18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>400</v>
       </c>
       <c r="M18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>210</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>469</v>
       </c>
       <c r="O18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>485</v>
       </c>
       <c r="P18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>740</v>
       </c>
       <c r="Q18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>621</v>
       </c>
       <c r="R18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>781</v>
       </c>
       <c r="S18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>568</v>
       </c>
       <c r="T18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>294</v>
       </c>
       <c r="U18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>283</v>
       </c>
       <c r="V18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-893</v>
       </c>
       <c r="W18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1339</v>
       </c>
       <c r="X18" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-536</v>
       </c>
       <c r="Y18" s="29">
         <f>Y16+Y17</f>
         <v>-70</v>
       </c>
+      <c r="Z18" s="55">
+        <f>Z16+Z17</f>
+        <v>41.412800000000061</v>
+      </c>
       <c r="AC18" s="29">
-        <f t="shared" ref="AC18:AH18" si="34">AC16+AC17</f>
+        <f t="shared" ref="AC18:AH18" si="36">AC16+AC17</f>
         <v>1947</v>
       </c>
       <c r="AD18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7285</v>
       </c>
       <c r="AE18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-1348</v>
       </c>
       <c r="AF18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2528</v>
       </c>
       <c r="AG18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1595</v>
       </c>
       <c r="AH18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2627</v>
       </c>
       <c r="AI18" s="29">
         <f>AI16+AI17</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="2:35">
+      <c r="AJ18" s="55">
+        <f>AJ16+AJ17</f>
+        <v>-1903.587199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36">
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
@@ -3762,6 +3935,9 @@
       <c r="Y19" s="29">
         <v>1</v>
       </c>
+      <c r="Z19" s="55">
+        <v>2</v>
+      </c>
       <c r="AC19" s="29">
         <v>-222</v>
       </c>
@@ -3769,261 +3945,277 @@
         <v>-19</v>
       </c>
       <c r="AE19" s="29">
-        <f t="shared" ref="AE19" si="35">SUM(F19:I19)</f>
+        <f t="shared" ref="AE19" si="37">SUM(F19:I19)</f>
         <v>1</v>
       </c>
       <c r="AF19" s="29">
-        <f t="shared" ref="AF19" si="36">SUM(G19:J19)</f>
+        <f t="shared" ref="AF19" si="38">SUM(G19:J19)</f>
         <v>2</v>
       </c>
       <c r="AG19" s="29">
-        <f t="shared" ref="AG19" si="37">SUM(K19:N19)</f>
+        <f t="shared" ref="AG19" si="39">SUM(K19:N19)</f>
         <v>191</v>
       </c>
       <c r="AH19" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3040</v>
       </c>
       <c r="AI19" s="29">
-        <f t="shared" ref="AI19" si="38">SUM(S19:V19)</f>
+        <f t="shared" ref="AI19" si="40">SUM(S19:V19)</f>
         <v>13356</v>
       </c>
-    </row>
-    <row r="20" spans="2:35" s="2" customFormat="1">
+      <c r="AJ19" s="55">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" s="2" customFormat="1">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" ref="C20:F20" si="39">C18+C19</f>
+        <f t="shared" ref="C20:F20" si="41">C18+C19</f>
         <v>1035</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>29</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>520</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-2601</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" ref="G20:X20" si="40">G18+G19</f>
+        <f t="shared" ref="G20:X20" si="42">G18+G19</f>
         <v>407</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>642</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>721</v>
       </c>
       <c r="J20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>760</v>
       </c>
       <c r="K20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>518</v>
       </c>
       <c r="L20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>402</v>
       </c>
       <c r="M20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>310</v>
       </c>
       <c r="N20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>556</v>
       </c>
       <c r="O20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3412</v>
       </c>
       <c r="P20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>746</v>
       </c>
       <c r="Q20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>664</v>
       </c>
       <c r="R20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>845</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>641</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10734</v>
       </c>
       <c r="U20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>264</v>
       </c>
       <c r="V20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1969</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1341</v>
       </c>
       <c r="X20" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-531</v>
       </c>
       <c r="Y20" s="28">
         <f>Y18+Y19</f>
         <v>-69</v>
       </c>
+      <c r="Z20" s="58">
+        <f>Z18+Z19</f>
+        <v>43.412800000000061</v>
+      </c>
       <c r="AC20" s="28">
-        <f t="shared" ref="AC20:AH20" si="41">AC18+AC19</f>
+        <f t="shared" ref="AC20:AH20" si="43">AC18+AC19</f>
         <v>1725</v>
       </c>
       <c r="AD20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7266</v>
       </c>
       <c r="AE20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1347</v>
       </c>
       <c r="AF20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2530</v>
       </c>
       <c r="AG20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1786</v>
       </c>
       <c r="AH20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5667</v>
       </c>
       <c r="AI20" s="28">
         <f>AI18+AI19</f>
         <v>13608</v>
       </c>
-    </row>
-    <row r="21" spans="2:35">
+      <c r="AJ20" s="58">
+        <f>AJ18+AJ19</f>
+        <v>-1897.587199999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36">
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="30">
-        <f t="shared" ref="C21:F21" si="42">C20/C22</f>
+        <f t="shared" ref="C21:F21" si="44">C20/C22</f>
         <v>0.95567867036011078</v>
       </c>
       <c r="D21" s="30">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.6951672862453532E-2</v>
       </c>
       <c r="E21" s="30">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.4896421845574388</v>
       </c>
       <c r="F21" s="30">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.5130434782608697</v>
       </c>
       <c r="G21" s="30">
-        <f t="shared" ref="G21:N21" si="43">G20/G22</f>
+        <f t="shared" ref="G21:N21" si="45">G20/G22</f>
         <v>0.402970297029703</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.64717741935483875</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.74024640657084184</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.8</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.5755555555555556</v>
       </c>
       <c r="L21" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.46744186046511627</v>
       </c>
       <c r="M21" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.37349397590361444</v>
       </c>
       <c r="N21" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.68897149938042135</v>
       </c>
       <c r="O21" s="30">
-        <f t="shared" ref="O21:Y21" si="44">O20/O22</f>
+        <f t="shared" ref="O21:Y21" si="46">O20/O22</f>
         <v>4.5312084993359898</v>
       </c>
       <c r="P21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0611664295874823</v>
       </c>
       <c r="Q21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.95402298850574707</v>
       </c>
       <c r="R21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.2281976744186047</v>
       </c>
       <c r="S21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.94126284875183552</v>
       </c>
       <c r="T21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>15.925816023738873</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.40121580547112462</v>
       </c>
       <c r="V21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3.2491749174917492</v>
       </c>
       <c r="W21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-2.2844974446337307</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-0.95503597122302153</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-0.12715165313356303</v>
       </c>
+      <c r="Z21" s="59">
+        <f>Z20/Z22</f>
+        <v>8.0000134596474676E-2</v>
+      </c>
       <c r="AC21" s="30">
-        <f t="shared" ref="AC21" si="45">AC20/AC22</f>
+        <f t="shared" ref="AC21" si="47">AC20/AC22</f>
         <v>1.4279801324503312</v>
       </c>
       <c r="AD21" s="30">
-        <f t="shared" ref="AD21" si="46">AD20/AD22</f>
+        <f t="shared" ref="AD21" si="48">AD20/AD22</f>
         <v>6.4130626654898499</v>
       </c>
       <c r="AE21" s="30">
-        <f t="shared" ref="AE21:AF21" si="47">AE20/AE22</f>
+        <f t="shared" ref="AE21:AF21" si="49">AE20/AE22</f>
         <v>-1.3014492753623188</v>
       </c>
       <c r="AF21" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.6631578947368419</v>
       </c>
       <c r="AG21" s="30">
@@ -4038,8 +4230,12 @@
         <f>AI20/AI22</f>
         <v>20.871165644171779</v>
       </c>
-    </row>
-    <row r="22" spans="2:35" s="29" customFormat="1">
+      <c r="AJ21" s="59">
+        <f>AJ20/AJ22</f>
+        <v>-3.496831151378101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" s="29" customFormat="1">
       <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
@@ -4110,6 +4306,10 @@
         <v>556</v>
       </c>
       <c r="Y22" s="29">
+        <v>542.659087</v>
+      </c>
+      <c r="Z22" s="55">
+        <f>Y22</f>
         <v>542.659087</v>
       </c>
       <c r="AC22" s="29">
@@ -4135,41 +4335,45 @@
       <c r="AI22" s="29">
         <v>652</v>
       </c>
-    </row>
-    <row r="24" spans="2:35" s="2" customFormat="1">
+      <c r="AJ22" s="55">
+        <f>Z22</f>
+        <v>542.659087</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G24" s="31">
-        <f t="shared" ref="G24:J24" si="48">G4/C4-1</f>
+        <f t="shared" ref="G24:J24" si="50">G4/C4-1</f>
         <v>0.12027789839339986</v>
       </c>
       <c r="H24" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.1360066143034269E-2</v>
       </c>
       <c r="I24" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>6.0448358686949533E-2</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>6.2800147765053493E-2</v>
       </c>
       <c r="K24" s="31">
-        <f t="shared" ref="K24" si="49">K4/G4-1</f>
+        <f t="shared" ref="K24" si="51">K4/G4-1</f>
         <v>-6.4728682170542617E-2</v>
       </c>
       <c r="L24" s="31">
-        <f t="shared" ref="L24" si="50">L4/H4-1</f>
+        <f t="shared" ref="L24" si="52">L4/H4-1</f>
         <v>-8.2196969696969657E-2</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" ref="M24" si="51">M4/I4-1</f>
+        <f t="shared" ref="M24" si="53">M4/I4-1</f>
         <v>-0.21366553416383538</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24" si="52">N4/J4-1</f>
+        <f t="shared" ref="N24" si="54">N4/J4-1</f>
         <v>-0.22280152937087239</v>
       </c>
       <c r="O24" s="31">
@@ -4189,11 +4393,11 @@
         <v>0.28264758497316644</v>
       </c>
       <c r="S24" s="31">
-        <f t="shared" ref="S24:T24" si="53">S4/O4-1</f>
+        <f t="shared" ref="S24:T24" si="55">S4/O4-1</f>
         <v>0.11120471777590568</v>
       </c>
       <c r="T24" s="31">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-6.8760907504363034E-2</v>
       </c>
       <c r="U24" s="31">
@@ -4216,20 +4420,24 @@
         <f>Y4/U4-1</f>
         <v>-4.8380647740903671E-2</v>
       </c>
+      <c r="Z24" s="60">
+        <f>Z4/V4-1</f>
+        <v>-9.8277841561423718E-2</v>
+      </c>
       <c r="AD24" s="31">
-        <f t="shared" ref="AD24:AH24" si="54">AD4/AC4-1</f>
+        <f t="shared" ref="AD24:AG24" si="56">AD4/AC4-1</f>
         <v>4.5041899441340849E-2</v>
       </c>
       <c r="AE24" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.10557968593384559</v>
       </c>
       <c r="AF24" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>8.2502266545784186E-2</v>
       </c>
       <c r="AG24" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-0.14805509026614549</v>
       </c>
       <c r="AH24" s="31">
@@ -4240,89 +4448,93 @@
         <f>AI4/AH4-1</f>
         <v>-2.7349948660505885E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:35">
+      <c r="AJ24" s="60">
+        <f>AJ4/AI4-1</f>
+        <v>-7.4740882917466389E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="32">
-        <f t="shared" ref="D25" si="55">D4/C4-1</f>
+        <f t="shared" ref="D25" si="57">D4/C4-1</f>
         <v>5.0369083803734283E-2</v>
       </c>
       <c r="E25" s="32">
-        <f t="shared" ref="E25" si="56">E4/D4-1</f>
+        <f t="shared" ref="E25" si="58">E4/D4-1</f>
         <v>3.2658123191401378E-2</v>
       </c>
       <c r="F25" s="32">
-        <f t="shared" ref="E25:F25" si="57">F4/E4-1</f>
+        <f t="shared" ref="F25" si="59">F4/E4-1</f>
         <v>8.3666933546837408E-2</v>
       </c>
       <c r="G25" s="32">
-        <f t="shared" ref="G25" si="58">G4/F4-1</f>
+        <f t="shared" ref="G25" si="60">G4/F4-1</f>
         <v>-4.691540450683418E-2</v>
       </c>
       <c r="H25" s="32">
-        <f t="shared" ref="H25" si="59">H4/G4-1</f>
+        <f t="shared" ref="H25" si="61">H4/G4-1</f>
         <v>2.3255813953488413E-2</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" ref="I25:K25" si="60">I4/H4-1</f>
+        <f t="shared" ref="I25:K25" si="62">I4/H4-1</f>
         <v>3.4090909090909172E-3</v>
       </c>
       <c r="J25" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>8.6070215175537923E-2</v>
       </c>
       <c r="K25" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>-0.1612791101842197</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" ref="L25:N25" si="61">L4/K4-1</f>
+        <f t="shared" ref="L25:N25" si="63">L4/K4-1</f>
         <v>4.1442188147533532E-3</v>
       </c>
       <c r="M25" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>-0.14032191498142799</v>
       </c>
       <c r="N25" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.3451752280364824E-2</v>
       </c>
       <c r="O25" s="32">
-        <f t="shared" ref="O25:P25" si="62">O4/N4-1</f>
+        <f t="shared" ref="O25:P25" si="64">O4/N4-1</f>
         <v>6.1717352415026738E-2</v>
       </c>
       <c r="P25" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0.20682392586352139</v>
       </c>
       <c r="Q25" s="32">
-        <f t="shared" ref="Q25:W25" si="63">Q4/P4-1</f>
+        <f t="shared" ref="Q25:W25" si="65">Q4/P4-1</f>
         <v>-9.0401396160558423E-2</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.10053722179585578</v>
       </c>
       <c r="S25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-8.0195258019525761E-2</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.1372251705837666E-2</v>
       </c>
       <c r="U25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-6.2593703148425828E-2</v>
       </c>
       <c r="V25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>4.4782087165133877E-2</v>
       </c>
       <c r="W25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-4.9751243781094523E-2</v>
       </c>
       <c r="X25" s="32">
@@ -4333,6 +4545,9 @@
         <f>Y4/X4-1</f>
         <v>-1.7341040462427793E-2</v>
       </c>
+      <c r="Z25" s="56">
+        <v>-0.01</v>
+      </c>
       <c r="AC25" s="19" t="s">
         <v>123</v>
       </c>
@@ -4354,77 +4569,80 @@
       <c r="AI25" s="19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="2:35">
+      <c r="AJ25" s="61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="32">
-        <f t="shared" ref="C27:H27" si="64">C6/C4</f>
+        <f t="shared" ref="C27:G27" si="66">C6/C4</f>
         <v>0.77681285280069479</v>
       </c>
       <c r="D27" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.76849937990905337</v>
       </c>
       <c r="E27" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.77702161729383512</v>
       </c>
       <c r="F27" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.78204654599187295</v>
       </c>
       <c r="G27" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="H27" s="32">
-        <f t="shared" ref="H27:I27" si="65">H6/H4</f>
+        <f t="shared" ref="H27:I27" si="67">H6/H4</f>
         <v>0.77386363636363631</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.77047942619856546</v>
       </c>
       <c r="J27" s="32">
-        <f t="shared" ref="J27:K27" si="66">J6/J4</f>
+        <f t="shared" ref="J27:K27" si="68">J6/J4</f>
         <v>0.78519290928050056</v>
       </c>
       <c r="K27" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.77662660588479071</v>
       </c>
       <c r="L27" s="32">
-        <f t="shared" ref="L27" si="67">L6/L4</f>
+        <f t="shared" ref="L27" si="69">L6/L4</f>
         <v>0.77177053239785387</v>
       </c>
       <c r="M27" s="32">
-        <f t="shared" ref="M27:N27" si="68">M6/M4</f>
+        <f t="shared" ref="M27:N27" si="70">M6/M4</f>
         <v>0.74555928948631778</v>
       </c>
       <c r="N27" s="32">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.75134168157423975</v>
       </c>
       <c r="O27" s="32">
-        <f t="shared" ref="O27" si="69">O6/O4</f>
+        <f t="shared" ref="O27" si="71">O6/O4</f>
         <v>0.77843302443133955</v>
       </c>
       <c r="P27" s="32">
-        <f t="shared" ref="P27" si="70">P6/P4</f>
+        <f t="shared" ref="P27" si="72">P6/P4</f>
         <v>0.79127399650959862</v>
       </c>
       <c r="Q27" s="32">
-        <f t="shared" ref="Q27" si="71">Q6/Q4</f>
+        <f t="shared" ref="Q27" si="73">Q6/Q4</f>
         <v>0.7482732156561781</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" ref="R27:S27" si="72">R6/R4</f>
+        <f t="shared" ref="R27:S27" si="74">R6/R4</f>
         <v>0.74128312412831243</v>
       </c>
       <c r="S27" s="32">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.77028051554207733</v>
       </c>
       <c r="T27" s="32">
@@ -4436,11 +4654,11 @@
         <v>0.72890843662534988</v>
       </c>
       <c r="V27" s="32">
-        <f t="shared" ref="V27" si="73">V6/V4</f>
+        <f t="shared" ref="V27" si="75">V6/V4</f>
         <v>0.73440489858400304</v>
       </c>
       <c r="W27" s="32">
-        <f t="shared" ref="W27" si="74">W6/W4</f>
+        <f t="shared" ref="W27" si="76">W6/W4</f>
         <v>0.72251308900523559</v>
       </c>
       <c r="X27" s="32">
@@ -4451,105 +4669,112 @@
         <f>Y6/Y4</f>
         <v>0.72815126050420165</v>
       </c>
+      <c r="Z27" s="56">
+        <v>0.73</v>
+      </c>
       <c r="AC27" s="32">
-        <f t="shared" ref="AC27:AE27" si="75">AC6/AC4</f>
+        <f t="shared" ref="AC27:AD27" si="77">AC6/AC4</f>
         <v>0.79387802607076352</v>
       </c>
       <c r="AD27" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.77647844971600399</v>
       </c>
       <c r="AE27" s="32">
-        <f t="shared" ref="AE27:AG27" si="76">AE6/AE4</f>
+        <f t="shared" ref="AE27:AG27" si="78">AE6/AE4</f>
         <v>0.77626674725496125</v>
       </c>
       <c r="AF27" s="32">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.77833612506979344</v>
       </c>
       <c r="AG27" s="32">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.76209721463681046</v>
       </c>
       <c r="AH27" s="32">
-        <f t="shared" ref="AH27" si="77">AH6/AH4</f>
+        <f t="shared" ref="AH27" si="79">AH6/AH4</f>
         <v>0.76458508354335852</v>
       </c>
       <c r="AI27" s="32">
         <f>AI6/AI4</f>
         <v>0.74568138195777356</v>
       </c>
-    </row>
-    <row r="28" spans="2:35">
+      <c r="AJ27" s="56">
+        <f>AJ6/AJ4</f>
+        <v>0.72667572501348388</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36">
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="32">
-        <f t="shared" ref="C28:H28" si="78">C13/C4</f>
+        <f t="shared" ref="C28:G28" si="80">C13/C4</f>
         <v>0.23751628310898829</v>
       </c>
       <c r="D28" s="32">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.19842910293509713</v>
       </c>
       <c r="E28" s="32">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.22978382706164932</v>
       </c>
       <c r="F28" s="32">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.24492057628370889</v>
       </c>
       <c r="G28" s="32">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.22441860465116278</v>
       </c>
       <c r="H28" s="32">
-        <f t="shared" ref="H28:I28" si="79">H13/H4</f>
+        <f t="shared" ref="H28:I28" si="81">H13/H4</f>
         <v>0.15378787878787878</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.20989052472631181</v>
       </c>
       <c r="J28" s="32">
-        <f t="shared" ref="J28:K28" si="80">J13/J4</f>
+        <f t="shared" ref="J28:K28" si="82">J13/J4</f>
         <v>0.23670490093847757</v>
       </c>
       <c r="K28" s="32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.24575217571487776</v>
       </c>
       <c r="L28" s="32">
-        <f t="shared" ref="L28" si="81">L13/L4</f>
+        <f t="shared" ref="L28" si="83">L13/L4</f>
         <v>0.2302930251754024</v>
       </c>
       <c r="M28" s="32">
-        <f t="shared" ref="M28:N28" si="82">M13/M4</f>
+        <f t="shared" ref="M28:N28" si="84">M13/M4</f>
         <v>0.19587133941430629</v>
       </c>
       <c r="N28" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.21377459749552774</v>
       </c>
       <c r="O28" s="32">
-        <f t="shared" ref="O28" si="83">O13/O4</f>
+        <f t="shared" ref="O28" si="85">O13/O4</f>
         <v>0.26495366470092668</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" ref="P28" si="84">P13/P4</f>
+        <f t="shared" ref="P28" si="86">P13/P4</f>
         <v>0.28656195462478184</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" ref="Q28" si="85">Q13/Q4</f>
+        <f t="shared" ref="Q28" si="87">Q13/Q4</f>
         <v>0.26055257099002305</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" ref="R28:S28" si="86">R13/R4</f>
+        <f t="shared" ref="R28:S28" si="88">R13/R4</f>
         <v>0.23605299860529985</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.31880212282031845</v>
       </c>
       <c r="T28" s="32">
@@ -4561,11 +4786,11 @@
         <v>0.2646941223510596</v>
       </c>
       <c r="V28" s="32">
-        <f t="shared" ref="V28" si="87">V13/V4</f>
+        <f t="shared" ref="V28" si="89">V13/V4</f>
         <v>0.26329889016456182</v>
       </c>
       <c r="W28" s="32">
-        <f t="shared" ref="W28" si="88">W13/W4</f>
+        <f t="shared" ref="W28" si="90">W13/W4</f>
         <v>0.27869512686266612</v>
       </c>
       <c r="X28" s="32">
@@ -4576,105 +4801,113 @@
         <f>Y13/Y4</f>
         <v>0.23865546218487396</v>
       </c>
+      <c r="Z28" s="56">
+        <f>Z13/Z4</f>
+        <v>0.24368169085816149</v>
+      </c>
       <c r="AC28" s="32">
-        <f t="shared" ref="AC28:AE28" si="89">AC13/AC4</f>
+        <f t="shared" ref="AC28:AD28" si="91">AC13/AC4</f>
         <v>0.25570297951582865</v>
       </c>
       <c r="AD28" s="32">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>0.25893752088205813</v>
       </c>
       <c r="AE28" s="32">
-        <f t="shared" ref="AE28:AG28" si="90">AE13/AE4</f>
+        <f t="shared" ref="AE28:AG28" si="92">AE13/AE4</f>
         <v>0.17004130150095698</v>
       </c>
       <c r="AF28" s="32">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0.20677461380978968</v>
       </c>
       <c r="AG28" s="32">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0.2225013653741125</v>
       </c>
       <c r="AH28" s="32">
-        <f t="shared" ref="AH28" si="91">AH13/AH4</f>
+        <f t="shared" ref="AH28" si="93">AH13/AH4</f>
         <v>0.26192476430504996</v>
       </c>
       <c r="AI28" s="32">
         <f>AI13/AI4</f>
         <v>0.28051823416506716</v>
       </c>
-    </row>
-    <row r="29" spans="2:35">
+      <c r="AJ28" s="56">
+        <f>AJ13/AJ4</f>
+        <v>0.24469597145583546</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36">
       <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="32">
-        <f t="shared" ref="C29:H29" si="92">C20/C4</f>
+        <f t="shared" ref="C29:G29" si="94">C20/C4</f>
         <v>0.44941380807642206</v>
       </c>
       <c r="D29" s="32">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1.1988424968995453E-2</v>
       </c>
       <c r="E29" s="32">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>0.20816653322658127</v>
       </c>
       <c r="F29" s="32">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-0.96084226080531954</v>
       </c>
       <c r="G29" s="32">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>0.15775193798449613</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" ref="H29:I29" si="93">H20/H4</f>
+        <f t="shared" ref="H29:I29" si="95">H20/H4</f>
         <v>0.24318181818181819</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.27217818044545111</v>
       </c>
       <c r="J29" s="32">
-        <f t="shared" ref="J29:K29" si="94">J20/J4</f>
+        <f t="shared" ref="J29:K29" si="96">J20/J4</f>
         <v>0.26416405978449775</v>
       </c>
       <c r="K29" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.21467053460422711</v>
       </c>
       <c r="L29" s="32">
-        <f t="shared" ref="L29" si="95">L20/L4</f>
+        <f t="shared" ref="L29" si="97">L20/L4</f>
         <v>0.16591002888980602</v>
       </c>
       <c r="M29" s="32">
-        <f t="shared" ref="M29:N29" si="96">M20/M4</f>
+        <f t="shared" ref="M29:N29" si="98">M20/M4</f>
         <v>0.14882381180988957</v>
       </c>
       <c r="N29" s="32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.24865831842576028</v>
       </c>
       <c r="O29" s="32">
-        <f t="shared" ref="O29" si="97">O20/O4</f>
+        <f t="shared" ref="O29" si="99">O20/O4</f>
         <v>1.4372367312552654</v>
       </c>
       <c r="P29" s="32">
-        <f t="shared" ref="P29" si="98">P20/P4</f>
+        <f t="shared" ref="P29" si="100">P20/P4</f>
         <v>0.26038394415357768</v>
       </c>
       <c r="Q29" s="32">
-        <f t="shared" ref="Q29" si="99">Q20/Q4</f>
+        <f t="shared" ref="Q29" si="101">Q20/Q4</f>
         <v>0.25479662317728319</v>
       </c>
       <c r="R29" s="32">
-        <f t="shared" ref="R29:S29" si="100">R20/R4</f>
+        <f t="shared" ref="R29:S29" si="102">R20/R4</f>
         <v>0.29463040446304045</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>0.24298711144806673</v>
       </c>
       <c r="T29" s="32">
@@ -4686,11 +4919,11 @@
         <v>0.10555777688924431</v>
       </c>
       <c r="V29" s="32">
-        <f t="shared" ref="V29" si="101">V20/V4</f>
+        <f t="shared" ref="V29" si="103">V20/V4</f>
         <v>0.75353999234596247</v>
       </c>
       <c r="W29" s="32">
-        <f t="shared" ref="W29" si="102">W20/W4</f>
+        <f t="shared" ref="W29" si="104">W20/W4</f>
         <v>-0.54007249295207416</v>
       </c>
       <c r="X29" s="32">
@@ -4701,105 +4934,113 @@
         <f>Y20/Y4</f>
         <v>-2.8991596638655463E-2</v>
       </c>
+      <c r="Z29" s="56">
+        <f>Z20/Z4</f>
+        <v>1.8424921483745041E-2</v>
+      </c>
       <c r="AC29" s="32">
-        <f t="shared" ref="AC29:AE29" si="103">AC20/AC4</f>
+        <f t="shared" ref="AC29:AD29" si="105">AC20/AC4</f>
         <v>0.20076815642458101</v>
       </c>
       <c r="AD29" s="32">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>0.80922151687270294</v>
       </c>
       <c r="AE29" s="32">
-        <f t="shared" ref="AE29:AG29" si="104">AE20/AE4</f>
+        <f t="shared" ref="AE29:AG29" si="106">AE20/AE4</f>
         <v>-0.13569054094892716</v>
       </c>
       <c r="AF29" s="32">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>0.23543644146659223</v>
       </c>
       <c r="AG29" s="32">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>0.19508465319497542</v>
       </c>
       <c r="AH29" s="32">
-        <f t="shared" ref="AH29" si="105">AH20/AH4</f>
+        <f t="shared" ref="AH29" si="107">AH20/AH4</f>
         <v>0.52898347801736212</v>
       </c>
       <c r="AI29" s="32">
         <f>AI20/AI4</f>
         <v>1.3059500959692898</v>
       </c>
-    </row>
-    <row r="30" spans="2:35">
+      <c r="AJ29" s="56">
+        <f>AJ20/AJ4</f>
+        <v>-0.19682064473302066</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36">
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="32">
-        <f t="shared" ref="C30:H30" si="106">ABS(C17)/ABS(C16)</f>
+        <f t="shared" ref="C30:G30" si="108">ABS(C17)/ABS(C16)</f>
         <v>0.85483870967741937</v>
       </c>
       <c r="D30" s="32">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.93722943722943719</v>
       </c>
       <c r="E30" s="32">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.25072046109510088</v>
       </c>
       <c r="F30" s="32">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>5.6292335115864525</v>
       </c>
       <c r="G30" s="32">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.25594149908592323</v>
       </c>
       <c r="H30" s="32">
-        <f t="shared" ref="H30:I30" si="107">ABS(H17)/ABS(H16)</f>
+        <f t="shared" ref="H30:I30" si="109">ABS(H17)/ABS(H16)</f>
         <v>9.7595473833097593E-2</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0.24050632911392406</v>
       </c>
       <c r="J30" s="32">
-        <f t="shared" ref="J30:K30" si="108">ABS(J17)/ABS(J16)</f>
+        <f t="shared" ref="J30:K30" si="110">ABS(J17)/ABS(J16)</f>
         <v>0.47868217054263568</v>
       </c>
       <c r="K30" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>0.21461187214611871</v>
       </c>
       <c r="L30" s="32">
-        <f t="shared" ref="L30" si="109">ABS(L17)/ABS(L16)</f>
+        <f t="shared" ref="L30" si="111">ABS(L17)/ABS(L16)</f>
         <v>0.21104536489151873</v>
       </c>
       <c r="M30" s="32">
-        <f t="shared" ref="M30:N30" si="110">ABS(M17)/ABS(M16)</f>
+        <f t="shared" ref="M30:N30" si="112">ABS(M17)/ABS(M16)</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="N30" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>5.0607287449392711E-2</v>
       </c>
       <c r="O30" s="32">
-        <f t="shared" ref="O30" si="111">ABS(O17)/ABS(O16)</f>
+        <f t="shared" ref="O30" si="113">ABS(O17)/ABS(O16)</f>
         <v>0.23137876386687797</v>
       </c>
       <c r="P30" s="32">
-        <f t="shared" ref="P30" si="112">ABS(P17)/ABS(P16)</f>
+        <f t="shared" ref="P30" si="114">ABS(P17)/ABS(P16)</f>
         <v>0.26221335992023931</v>
       </c>
       <c r="Q30" s="32">
-        <f t="shared" ref="Q30" si="113">ABS(Q17)/ABS(Q16)</f>
+        <f t="shared" ref="Q30" si="115">ABS(Q17)/ABS(Q16)</f>
         <v>0.19767441860465115</v>
       </c>
       <c r="R30" s="32">
-        <f t="shared" ref="R30:S30" si="114">ABS(R17)/ABS(R16)</f>
+        <f t="shared" ref="R30:S30" si="116">ABS(R17)/ABS(R16)</f>
         <v>0.29576194770063119</v>
       </c>
       <c r="S30" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>0.21546961325966851</v>
       </c>
       <c r="T30" s="32">
@@ -4811,11 +5052,11 @@
         <v>0.34792626728110598</v>
       </c>
       <c r="V30" s="32">
-        <f t="shared" ref="V30" si="115">ABS(V17)/ABS(V16)</f>
+        <f t="shared" ref="V30" si="117">ABS(V17)/ABS(V16)</f>
         <v>0.23083548664944015</v>
       </c>
       <c r="W30" s="32">
-        <f t="shared" ref="W30" si="116">ABS(W17)/ABS(W16)</f>
+        <f t="shared" ref="W30" si="118">ABS(W17)/ABS(W16)</f>
         <v>0.18799272286234081</v>
       </c>
       <c r="X30" s="32">
@@ -4826,44 +5067,52 @@
         <f>ABS(Y17)/ABS(Y16)</f>
         <v>0.29629629629629628</v>
       </c>
+      <c r="Z30" s="56">
+        <f>ABS(Z17)/ABS(Z16)</f>
+        <v>1.2820320736162232</v>
+      </c>
       <c r="AC30" s="32">
-        <f t="shared" ref="AC30:AE30" si="117">ABS(AC17)/ABS(AC16)</f>
+        <f t="shared" ref="AC30:AD30" si="119">ABS(AC17)/ABS(AC16)</f>
         <v>0.19077306733167082</v>
       </c>
       <c r="AD30" s="32">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>0.99534374144070115</v>
       </c>
       <c r="AE30" s="32">
-        <f t="shared" ref="AE30:AG30" si="118">ABS(AE17)/ABS(AE16)</f>
+        <f t="shared" ref="AE30:AG30" si="120">ABS(AE17)/ABS(AE16)</f>
         <v>1.5999109924343569</v>
       </c>
       <c r="AF30" s="32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>6.9904341427520236E-2</v>
       </c>
       <c r="AG30" s="32">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0.17099792099792099</v>
       </c>
       <c r="AH30" s="32">
-        <f t="shared" ref="AH30" si="119">ABS(AH17)/ABS(AH16)</f>
+        <f t="shared" ref="AH30" si="121">ABS(AH17)/ABS(AH16)</f>
         <v>0.25305658231447259</v>
       </c>
       <c r="AI30" s="32">
         <f>ABS(AI17)/ABS(AI16)</f>
         <v>0.36683417085427134</v>
       </c>
-    </row>
-    <row r="32" spans="2:35">
+      <c r="AJ30" s="56">
+        <f>ABS(AJ17)/ABS(AJ16)</f>
+        <v>0.26126990094678865</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36">
       <c r="U32" s="29"/>
     </row>
-    <row r="34" spans="2:35">
+    <row r="34" spans="2:36">
       <c r="B34" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:35" s="2" customFormat="1">
+    <row r="35" spans="2:36" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -4914,6 +5163,7 @@
       <c r="Y35" s="28">
         <v>2037</v>
       </c>
+      <c r="Z35" s="54"/>
       <c r="AC35" s="28">
         <v>1832</v>
       </c>
@@ -4940,8 +5190,9 @@
         <f>V35</f>
         <v>1379</v>
       </c>
-    </row>
-    <row r="36" spans="2:35" s="2" customFormat="1">
+      <c r="AJ35" s="54"/>
+    </row>
+    <row r="36" spans="2:36" s="2" customFormat="1">
       <c r="B36" s="2" t="s">
         <v>95</v>
       </c>
@@ -4992,6 +5243,7 @@
       <c r="Y36" s="28">
         <v>1457</v>
       </c>
+      <c r="Z36" s="54"/>
       <c r="AC36" s="28">
         <v>4299</v>
       </c>
@@ -5018,8 +5270,9 @@
         <f>V36</f>
         <v>5944</v>
       </c>
-    </row>
-    <row r="37" spans="2:35">
+      <c r="AJ36" s="54"/>
+    </row>
+    <row r="37" spans="2:36">
       <c r="B37" s="1" t="s">
         <v>96</v>
       </c>
@@ -5097,7 +5350,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="2:35">
+    <row r="38" spans="2:36">
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
@@ -5170,7 +5423,7 @@
         <v>1400</v>
       </c>
       <c r="AH38" s="29">
-        <f t="shared" ref="AH38:AH46" si="120">AG38+R38</f>
+        <f t="shared" ref="AH38:AH46" si="122">AG38+R38</f>
         <v>4352</v>
       </c>
       <c r="AI38" s="29">
@@ -5178,20 +5431,20 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="39" spans="2:35">
+    <row r="39" spans="2:36">
       <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="29">
-        <f t="shared" ref="C39:D39" si="121">SUM(C35:C38)</f>
+        <f t="shared" ref="C39:D39" si="123">SUM(C35:C38)</f>
         <v>0</v>
       </c>
       <c r="D39" s="29">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" ref="E39" si="122">SUM(E35:E38)</f>
+        <f t="shared" ref="E39" si="124">SUM(E35:E38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="29">
@@ -5199,75 +5452,75 @@
         <v>7744</v>
       </c>
       <c r="G39" s="29">
-        <f t="shared" ref="G39:X39" si="123">SUM(G35:G38)</f>
+        <f t="shared" ref="G39:X39" si="125">SUM(G35:G38)</f>
         <v>6763</v>
       </c>
       <c r="H39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6184</v>
       </c>
       <c r="I39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6963</v>
       </c>
       <c r="J39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>7126</v>
       </c>
       <c r="K39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="L39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>4706</v>
       </c>
       <c r="O39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6248</v>
       </c>
       <c r="P39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>7394</v>
       </c>
       <c r="Q39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6739</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>7190</v>
       </c>
       <c r="S39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="U39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="V39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>9111</v>
       </c>
       <c r="W39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>7349</v>
       </c>
       <c r="X39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>5067</v>
       </c>
       <c r="Y39" s="29">
@@ -5275,35 +5528,35 @@
         <v>5289</v>
       </c>
       <c r="AC39" s="29">
-        <f t="shared" ref="AC39:AD39" si="124">SUM(AC35:AC38)</f>
+        <f t="shared" ref="AC39:AD39" si="126">SUM(AC35:AC38)</f>
         <v>7904</v>
       </c>
       <c r="AD39" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>8875</v>
       </c>
       <c r="AE39" s="29">
-        <f t="shared" ref="AE39" si="125">SUM(AE35:AE38)</f>
+        <f t="shared" ref="AE39" si="127">SUM(AE35:AE38)</f>
         <v>7744</v>
       </c>
       <c r="AF39" s="29">
-        <f t="shared" ref="AF39" si="126">SUM(AF35:AF38)</f>
+        <f t="shared" ref="AF39" si="128">SUM(AF35:AF38)</f>
         <v>7126</v>
       </c>
       <c r="AG39" s="29">
-        <f t="shared" ref="AG39" si="127">SUM(AG35:AG38)</f>
+        <f t="shared" ref="AG39" si="129">SUM(AG35:AG38)</f>
         <v>4706</v>
       </c>
       <c r="AH39" s="29">
-        <f t="shared" ref="AH39" si="128">SUM(AH35:AH38)</f>
+        <f t="shared" ref="AH39" si="130">SUM(AH35:AH38)</f>
         <v>9145</v>
       </c>
       <c r="AI39" s="29">
-        <f t="shared" ref="AI39" si="129">SUM(AI35:AI38)</f>
+        <f t="shared" ref="AI39" si="131">SUM(AI35:AI38)</f>
         <v>9111</v>
       </c>
     </row>
-    <row r="40" spans="2:35">
+    <row r="40" spans="2:36">
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
@@ -5362,27 +5615,27 @@
         <v>3969</v>
       </c>
       <c r="AE40" s="29">
-        <f t="shared" ref="AE40:AE46" si="130">F40</f>
+        <f t="shared" ref="AE40:AE46" si="132">F40</f>
         <v>6331</v>
       </c>
       <c r="AF40" s="29">
-        <f t="shared" ref="AF40:AF46" si="131">J40</f>
+        <f t="shared" ref="AF40:AF46" si="133">J40</f>
         <v>3778</v>
       </c>
       <c r="AG40" s="29">
-        <f t="shared" ref="AG40:AG46" si="132">N40</f>
+        <f t="shared" ref="AG40:AG46" si="134">N40</f>
         <v>1275</v>
       </c>
       <c r="AH40" s="29">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2108</v>
       </c>
       <c r="AI40" s="29">
-        <f t="shared" ref="AI40:AI60" si="133">V40</f>
+        <f t="shared" ref="AI40:AI60" si="135">V40</f>
         <v>2575</v>
       </c>
     </row>
-    <row r="41" spans="2:35">
+    <row r="41" spans="2:36">
       <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
@@ -5441,27 +5694,27 @@
         <v>1516</v>
       </c>
       <c r="AE41" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>1597</v>
       </c>
       <c r="AF41" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>1597</v>
       </c>
       <c r="AG41" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>1460</v>
       </c>
       <c r="AH41" s="29">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2818</v>
       </c>
       <c r="AI41" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1236</v>
       </c>
     </row>
-    <row r="42" spans="2:35">
+    <row r="42" spans="2:36">
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
@@ -5532,27 +5785,27 @@
         <v>4603</v>
       </c>
       <c r="AE42" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>4842</v>
       </c>
       <c r="AF42" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>5252</v>
       </c>
       <c r="AG42" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>4572</v>
       </c>
       <c r="AH42" s="29">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>9259</v>
       </c>
       <c r="AI42" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>4178</v>
       </c>
     </row>
-    <row r="43" spans="2:35">
+    <row r="43" spans="2:36">
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
@@ -5611,27 +5864,27 @@
         <v>0</v>
       </c>
       <c r="AE43" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AF43" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="AG43" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>583</v>
       </c>
       <c r="AH43" s="29">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1092</v>
       </c>
       <c r="AI43" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="2:35">
+    <row r="44" spans="2:36">
       <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
@@ -5690,27 +5943,27 @@
         <v>4608</v>
       </c>
       <c r="AE44" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>5199</v>
       </c>
       <c r="AF44" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>4792</v>
       </c>
       <c r="AG44" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>3980</v>
       </c>
       <c r="AH44" s="29">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>7517</v>
       </c>
       <c r="AI44" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>3255</v>
       </c>
     </row>
-    <row r="45" spans="2:35">
+    <row r="45" spans="2:36">
       <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
@@ -5769,27 +6022,27 @@
         <v>0</v>
       </c>
       <c r="AE45" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AF45" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="AG45" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AH45" s="29">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AI45" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>5391</v>
       </c>
     </row>
-    <row r="46" spans="2:35">
+    <row r="46" spans="2:36">
       <c r="B46" s="1" t="s">
         <v>105</v>
       </c>
@@ -5850,40 +6103,40 @@
         <v>276</v>
       </c>
       <c r="AE46" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>273</v>
       </c>
       <c r="AF46" s="29">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>274</v>
       </c>
       <c r="AG46" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>1598</v>
       </c>
       <c r="AH46" s="29">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2794</v>
       </c>
       <c r="AI46" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="2:35">
+    <row r="47" spans="2:36">
       <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="29">
-        <f t="shared" ref="C47:D47" si="134">C39+SUM(C40:C46)</f>
+        <f t="shared" ref="C47:D47" si="136">C39+SUM(C40:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="E47" s="29">
-        <f t="shared" ref="E47" si="135">E39+SUM(E40:E46)</f>
+        <f t="shared" ref="E47" si="137">E39+SUM(E40:E46)</f>
         <v>0</v>
       </c>
       <c r="F47" s="29">
@@ -5891,75 +6144,75 @@
         <v>25986</v>
       </c>
       <c r="G47" s="29">
-        <f t="shared" ref="G47:X47" si="136">G39+SUM(G40:G46)</f>
+        <f t="shared" ref="G47:X47" si="138">G39+SUM(G40:G46)</f>
         <v>24555</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>23988</v>
       </c>
       <c r="I47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>23652</v>
       </c>
       <c r="J47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>22819</v>
       </c>
       <c r="K47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="M47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="N47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>18174</v>
       </c>
       <c r="O47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>18929</v>
       </c>
       <c r="P47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>20014</v>
       </c>
       <c r="Q47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>18241</v>
       </c>
       <c r="R47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>19310</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="T47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="U47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="V47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>26626</v>
       </c>
       <c r="W47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>22980</v>
       </c>
       <c r="X47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>19653</v>
       </c>
       <c r="Y47" s="29">
@@ -5967,35 +6220,35 @@
         <v>19097</v>
       </c>
       <c r="AC47" s="29">
-        <f t="shared" ref="AC47:AD47" si="137">AC39+SUM(AC40:AC46)</f>
+        <f t="shared" ref="AC47:AD47" si="139">AC39+SUM(AC40:AC46)</f>
         <v>17755</v>
       </c>
       <c r="AD47" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>23847</v>
       </c>
       <c r="AE47" s="29">
-        <f t="shared" ref="AE47" si="138">AE39+SUM(AE40:AE46)</f>
+        <f t="shared" ref="AE47" si="140">AE39+SUM(AE40:AE46)</f>
         <v>25986</v>
       </c>
       <c r="AF47" s="29">
-        <f t="shared" ref="AF47" si="139">AF39+SUM(AF40:AF46)</f>
+        <f t="shared" ref="AF47" si="141">AF39+SUM(AF40:AF46)</f>
         <v>22819</v>
       </c>
       <c r="AG47" s="29">
-        <f t="shared" ref="AG47" si="140">AG39+SUM(AG40:AG46)</f>
+        <f t="shared" ref="AG47" si="142">AG39+SUM(AG40:AG46)</f>
         <v>18174</v>
       </c>
       <c r="AH47" s="29">
-        <f t="shared" ref="AH47" si="141">AH39+SUM(AH40:AH46)</f>
+        <f t="shared" ref="AH47" si="143">AH39+SUM(AH40:AH46)</f>
         <v>34733</v>
       </c>
       <c r="AI47" s="29">
-        <f t="shared" ref="AI47" si="142">AI39+SUM(AI40:AI46)</f>
+        <f t="shared" ref="AI47" si="144">AI39+SUM(AI40:AI46)</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="48" spans="2:35">
+    <row r="48" spans="2:36">
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -6020,7 +6273,7 @@
       <c r="AD48" s="29"/>
       <c r="AI48" s="29"/>
     </row>
-    <row r="49" spans="2:35" s="2" customFormat="1">
+    <row r="49" spans="2:36" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
@@ -6072,6 +6325,7 @@
       <c r="Y49" s="28">
         <v>1150</v>
       </c>
+      <c r="Z49" s="54"/>
       <c r="AC49" s="28">
         <v>0</v>
       </c>
@@ -6098,8 +6352,9 @@
         <f>V49</f>
         <v>1355</v>
       </c>
-    </row>
-    <row r="50" spans="2:35">
+      <c r="AJ49" s="54"/>
+    </row>
+    <row r="50" spans="2:36">
       <c r="B50" s="1" t="s">
         <v>108</v>
       </c>
@@ -6158,27 +6413,27 @@
         <v>283</v>
       </c>
       <c r="AE50" s="29">
-        <f t="shared" ref="AE50:AE60" si="143">F50</f>
+        <f t="shared" ref="AE50:AE60" si="145">F50</f>
         <v>330</v>
       </c>
       <c r="AF50" s="29">
-        <f t="shared" ref="AF50:AF60" si="144">J50</f>
+        <f t="shared" ref="AF50:AF60" si="146">J50</f>
         <v>286</v>
       </c>
       <c r="AG50" s="29">
-        <f t="shared" ref="AG50:AG60" si="145">N50</f>
+        <f t="shared" ref="AG50:AG60" si="147">N50</f>
         <v>229</v>
       </c>
       <c r="AH50" s="29">
-        <f t="shared" ref="AH50:AH55" si="146">AG50+R50</f>
+        <f t="shared" ref="AH50:AH55" si="148">AG50+R50</f>
         <v>561</v>
       </c>
       <c r="AI50" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:35">
+    <row r="51" spans="2:36">
       <c r="B51" s="1" t="s">
         <v>109</v>
       </c>
@@ -6237,27 +6492,27 @@
         <v>110</v>
       </c>
       <c r="AE51" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>137</v>
       </c>
       <c r="AF51" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>170</v>
       </c>
       <c r="AG51" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2097</v>
       </c>
       <c r="AH51" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>5007</v>
       </c>
       <c r="AI51" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>707</v>
       </c>
     </row>
-    <row r="52" spans="2:35">
+    <row r="52" spans="2:36">
       <c r="B52" s="1" t="s">
         <v>110</v>
       </c>
@@ -6316,27 +6571,27 @@
         <v>1893</v>
       </c>
       <c r="AE52" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>2134</v>
       </c>
       <c r="AF52" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>2335</v>
       </c>
       <c r="AG52" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>129</v>
       </c>
       <c r="AH52" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>239</v>
       </c>
       <c r="AI52" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1927</v>
       </c>
     </row>
-    <row r="53" spans="2:35">
+    <row r="53" spans="2:36">
       <c r="B53" s="1" t="s">
         <v>111</v>
       </c>
@@ -6395,27 +6650,27 @@
         <v>110</v>
       </c>
       <c r="AE53" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>177</v>
       </c>
       <c r="AF53" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>117</v>
       </c>
       <c r="AG53" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>169</v>
       </c>
       <c r="AH53" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>349</v>
       </c>
       <c r="AI53" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:35">
+    <row r="54" spans="2:36">
       <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
@@ -6474,26 +6729,26 @@
         <v>0</v>
       </c>
       <c r="AE54" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AF54" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AG54" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>259</v>
       </c>
       <c r="AH54" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>259</v>
       </c>
       <c r="AI54" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:35">
+    <row r="55" spans="2:36">
       <c r="B55" s="1" t="s">
         <v>125</v>
       </c>
@@ -6552,39 +6807,39 @@
         <v>0</v>
       </c>
       <c r="AE55" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AF55" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AG55" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>163</v>
       </c>
       <c r="AH55" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>615</v>
       </c>
       <c r="AI55" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:35">
+    <row r="56" spans="2:36">
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="29">
-        <f t="shared" ref="C56:D56" si="147">SUM(C49:C55)</f>
+        <f t="shared" ref="C56:D56" si="149">SUM(C49:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="E56" s="29">
-        <f t="shared" ref="E56" si="148">SUM(E49:E55)</f>
+        <f t="shared" ref="E56" si="150">SUM(E49:E55)</f>
         <v>0</v>
       </c>
       <c r="F56" s="29">
@@ -6596,107 +6851,107 @@
         <v>2568</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" ref="H56:Y56" si="149">SUM(H49:H55)</f>
+        <f t="shared" ref="H56:Y56" si="151">SUM(H49:H55)</f>
         <v>2608</v>
       </c>
       <c r="I56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4006</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4454</v>
       </c>
       <c r="K56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="L56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="M56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="N56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4066</v>
       </c>
       <c r="O56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4673</v>
       </c>
       <c r="P56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4692</v>
       </c>
       <c r="Q56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>3840</v>
       </c>
       <c r="R56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4002</v>
       </c>
       <c r="S56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="T56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="U56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4622</v>
       </c>
       <c r="W56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>4982</v>
       </c>
       <c r="X56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>3972</v>
       </c>
       <c r="Y56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>3974</v>
       </c>
       <c r="AC56" s="29">
-        <f t="shared" ref="AC56:AD56" si="150">SUM(AC49:AC55)</f>
+        <f t="shared" ref="AC56:AD56" si="152">SUM(AC49:AC55)</f>
         <v>2263</v>
       </c>
       <c r="AD56" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>3847</v>
       </c>
       <c r="AE56" s="29">
-        <f t="shared" ref="AE56" si="151">SUM(AE49:AE55)</f>
+        <f t="shared" ref="AE56" si="153">SUM(AE49:AE55)</f>
         <v>3559</v>
       </c>
       <c r="AF56" s="29">
-        <f t="shared" ref="AF56" si="152">SUM(AF49:AF55)</f>
+        <f t="shared" ref="AF56" si="154">SUM(AF49:AF55)</f>
         <v>4454</v>
       </c>
       <c r="AG56" s="29">
-        <f t="shared" ref="AG56" si="153">SUM(AG49:AG55)</f>
+        <f t="shared" ref="AG56" si="155">SUM(AG49:AG55)</f>
         <v>4066</v>
       </c>
       <c r="AH56" s="29">
-        <f t="shared" ref="AH56" si="154">SUM(AH49:AH55)</f>
+        <f t="shared" ref="AH56" si="156">SUM(AH49:AH55)</f>
         <v>7048</v>
       </c>
       <c r="AI56" s="29">
-        <f t="shared" ref="AI56" si="155">SUM(AI49:AI55)</f>
+        <f t="shared" ref="AI56" si="157">SUM(AI49:AI55)</f>
         <v>4622</v>
       </c>
     </row>
-    <row r="57" spans="2:35">
+    <row r="57" spans="2:36">
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
@@ -6755,15 +7010,15 @@
         <v>0</v>
       </c>
       <c r="AE57" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AF57" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AG57" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>461</v>
       </c>
       <c r="AH57" s="29">
@@ -6771,11 +7026,11 @@
         <v>841</v>
       </c>
       <c r="AI57" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="2:35">
+    <row r="58" spans="2:36">
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
@@ -6834,15 +7089,15 @@
         <v>1888</v>
       </c>
       <c r="AE58" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>3424</v>
       </c>
       <c r="AF58" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>2925</v>
       </c>
       <c r="AG58" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2355</v>
       </c>
       <c r="AH58" s="29">
@@ -6850,11 +7105,11 @@
         <v>4714</v>
       </c>
       <c r="AI58" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>3116</v>
       </c>
     </row>
-    <row r="59" spans="2:35" s="2" customFormat="1">
+    <row r="59" spans="2:36" s="2" customFormat="1">
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
@@ -6906,6 +7161,7 @@
       <c r="Y59" s="28">
         <v>6579</v>
       </c>
+      <c r="Z59" s="54"/>
       <c r="AC59" s="28">
         <v>6749</v>
       </c>
@@ -6932,8 +7188,9 @@
         <f>V59</f>
         <v>7727</v>
       </c>
-    </row>
-    <row r="60" spans="2:35">
+      <c r="AJ59" s="54"/>
+    </row>
+    <row r="60" spans="2:36">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -6993,15 +7250,15 @@
         <v>64</v>
       </c>
       <c r="AE60" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>1720</v>
       </c>
       <c r="AF60" s="29">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>1474</v>
       </c>
       <c r="AG60" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>1684</v>
       </c>
       <c r="AH60" s="29">
@@ -7009,24 +7266,24 @@
         <v>2947</v>
       </c>
       <c r="AI60" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>1183</v>
       </c>
     </row>
-    <row r="61" spans="2:35">
+    <row r="61" spans="2:36">
       <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="29">
-        <f t="shared" ref="C61:D61" si="156">C56+SUM(C57:C60)</f>
+        <f t="shared" ref="C61:D61" si="158">C56+SUM(C57:C60)</f>
         <v>0</v>
       </c>
       <c r="D61" s="29">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" ref="E61" si="157">E56+SUM(E57:E60)</f>
+        <f t="shared" ref="E61" si="159">E56+SUM(E57:E60)</f>
         <v>0</v>
       </c>
       <c r="F61" s="29">
@@ -7034,75 +7291,75 @@
         <v>17937</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" ref="G61:X61" si="158">G56+SUM(G57:G60)</f>
+        <f t="shared" ref="G61:X61" si="160">G56+SUM(G57:G60)</f>
         <v>16959</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>16842</v>
       </c>
       <c r="I61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>16723</v>
       </c>
       <c r="J61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>16538</v>
       </c>
       <c r="K61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="N61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15304</v>
       </c>
       <c r="O61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>16814</v>
       </c>
       <c r="P61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>17112</v>
       </c>
       <c r="Q61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15501</v>
       </c>
       <c r="R61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15749</v>
       </c>
       <c r="S61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="T61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="U61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>16848</v>
       </c>
       <c r="W61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15926</v>
       </c>
       <c r="X61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>14410</v>
       </c>
       <c r="Y61" s="29">
@@ -7110,35 +7367,35 @@
         <v>14244</v>
       </c>
       <c r="AC61" s="29">
-        <f t="shared" ref="AC61:AD61" si="159">AC56+SUM(AC57:AC60)</f>
+        <f t="shared" ref="AC61:AD61" si="161">AC56+SUM(AC57:AC60)</f>
         <v>11179</v>
       </c>
       <c r="AD61" s="29">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>13308</v>
       </c>
       <c r="AE61" s="29">
-        <f t="shared" ref="AE61" si="160">AE56+SUM(AE57:AE60)</f>
+        <f t="shared" ref="AE61" si="162">AE56+SUM(AE57:AE60)</f>
         <v>17937</v>
       </c>
       <c r="AF61" s="29">
-        <f t="shared" ref="AF61" si="161">AF56+SUM(AF57:AF60)</f>
+        <f t="shared" ref="AF61" si="163">AF56+SUM(AF57:AF60)</f>
         <v>16538</v>
       </c>
       <c r="AG61" s="29">
-        <f t="shared" ref="AG61" si="162">AG56+SUM(AG57:AG60)</f>
+        <f t="shared" ref="AG61" si="164">AG56+SUM(AG57:AG60)</f>
         <v>15304</v>
       </c>
       <c r="AH61" s="29">
-        <f t="shared" ref="AH61" si="163">AH56+SUM(AH57:AH60)</f>
+        <f t="shared" ref="AH61" si="165">AH56+SUM(AH57:AH60)</f>
         <v>23295</v>
       </c>
       <c r="AI61" s="29">
-        <f t="shared" ref="AI61" si="164">AI56+SUM(AI57:AI60)</f>
+        <f t="shared" ref="AI61" si="166">AI56+SUM(AI57:AI60)</f>
         <v>16848</v>
       </c>
     </row>
-    <row r="62" spans="2:35">
+    <row r="62" spans="2:36">
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
       <c r="X62" s="29"/>
@@ -7146,7 +7403,7 @@
       <c r="AC62" s="29"/>
       <c r="AD62" s="29"/>
     </row>
-    <row r="63" spans="2:35" s="29" customFormat="1">
+    <row r="63" spans="2:36" s="29" customFormat="1">
       <c r="B63" s="29" t="s">
         <v>118</v>
       </c>
@@ -7195,6 +7452,7 @@
       <c r="Y63" s="29">
         <v>4853</v>
       </c>
+      <c r="Z63" s="55"/>
       <c r="AC63" s="29">
         <v>6576</v>
       </c>
@@ -7202,11 +7460,11 @@
         <v>10539</v>
       </c>
       <c r="AE63" s="29">
-        <f t="shared" ref="AE63" si="165">F63</f>
+        <f t="shared" ref="AE63" si="167">F63</f>
         <v>8049</v>
       </c>
       <c r="AF63" s="29">
-        <f t="shared" ref="AF63" si="166">J63</f>
+        <f t="shared" ref="AF63" si="168">J63</f>
         <v>6281</v>
       </c>
       <c r="AG63" s="29">
@@ -7214,28 +7472,29 @@
         <v>2870</v>
       </c>
       <c r="AH63" s="29">
-        <f t="shared" ref="AH63" si="167">AG63+R63</f>
+        <f t="shared" ref="AH63" si="169">AG63+R63</f>
         <v>6431</v>
       </c>
       <c r="AI63" s="29">
         <f>V63</f>
         <v>9778</v>
       </c>
-    </row>
-    <row r="64" spans="2:35">
+      <c r="AJ63" s="55"/>
+    </row>
+    <row r="64" spans="2:36">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="29">
-        <f t="shared" ref="C64:D64" si="168">C63+C61</f>
+        <f t="shared" ref="C64:D64" si="170">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="29">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" ref="E64" si="169">E63+E61</f>
+        <f t="shared" ref="E64" si="171">E63+E61</f>
         <v>0</v>
       </c>
       <c r="F64" s="29">
@@ -7243,75 +7502,75 @@
         <v>25986</v>
       </c>
       <c r="G64" s="29">
-        <f t="shared" ref="G64:X64" si="170">G63+G61</f>
+        <f t="shared" ref="G64:X64" si="172">G63+G61</f>
         <v>24555</v>
       </c>
       <c r="H64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>23988</v>
       </c>
       <c r="I64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>23652</v>
       </c>
       <c r="J64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>22819</v>
       </c>
       <c r="K64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="L64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="M64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>2870</v>
       </c>
       <c r="N64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>18174</v>
       </c>
       <c r="O64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>18929</v>
       </c>
       <c r="P64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>20014</v>
       </c>
       <c r="Q64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>18421</v>
       </c>
       <c r="R64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>19310</v>
       </c>
       <c r="S64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="T64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="U64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="V64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>26626</v>
       </c>
       <c r="W64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>22980</v>
       </c>
       <c r="X64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>19653</v>
       </c>
       <c r="Y64" s="29">
@@ -7319,38 +7578,38 @@
         <v>19097</v>
       </c>
       <c r="AC64" s="29">
-        <f t="shared" ref="AC64:AD64" si="171">AC63+AC61</f>
+        <f t="shared" ref="AC64:AD64" si="173">AC63+AC61</f>
         <v>17755</v>
       </c>
       <c r="AD64" s="29">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>23847</v>
       </c>
       <c r="AE64" s="29">
-        <f t="shared" ref="AE64" si="172">AE63+AE61</f>
+        <f t="shared" ref="AE64" si="174">AE63+AE61</f>
         <v>25986</v>
       </c>
       <c r="AF64" s="29">
-        <f t="shared" ref="AF64" si="173">AF63+AF61</f>
+        <f t="shared" ref="AF64" si="175">AF63+AF61</f>
         <v>22819</v>
       </c>
       <c r="AG64" s="29">
-        <f t="shared" ref="AG64" si="174">AG63+AG61</f>
+        <f t="shared" ref="AG64" si="176">AG63+AG61</f>
         <v>18174</v>
       </c>
       <c r="AH64" s="29">
-        <f t="shared" ref="AH64" si="175">AH63+AH61</f>
+        <f t="shared" ref="AH64" si="177">AH63+AH61</f>
         <v>29726</v>
       </c>
       <c r="AI64" s="29">
-        <f t="shared" ref="AI64" si="176">AI63+AI61</f>
+        <f t="shared" ref="AI64" si="178">AI63+AI61</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:36">
       <c r="Y65" s="29"/>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:36">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
@@ -7359,11 +7618,11 @@
         <v>8049</v>
       </c>
       <c r="G66" s="29">
-        <f t="shared" ref="G66:H66" si="177">G47-G61</f>
+        <f t="shared" ref="G66" si="179">G47-G61</f>
         <v>7596</v>
       </c>
       <c r="H66" s="29">
-        <f t="shared" ref="H66:I66" si="178">H47-H61</f>
+        <f t="shared" ref="H66" si="180">H47-H61</f>
         <v>7146</v>
       </c>
       <c r="I66" s="29">
@@ -7371,7 +7630,7 @@
         <v>6929</v>
       </c>
       <c r="J66" s="29">
-        <f t="shared" ref="J66" si="179">J47-J61</f>
+        <f t="shared" ref="J66" si="181">J47-J61</f>
         <v>6281</v>
       </c>
       <c r="N66" s="29">
@@ -7379,11 +7638,11 @@
         <v>2870</v>
       </c>
       <c r="O66" s="29">
-        <f t="shared" ref="O66" si="180">O47-O61</f>
+        <f t="shared" ref="O66" si="182">O47-O61</f>
         <v>2115</v>
       </c>
       <c r="P66" s="29">
-        <f t="shared" ref="P66" si="181">P47-P61</f>
+        <f t="shared" ref="P66" si="183">P47-P61</f>
         <v>2902</v>
       </c>
       <c r="Q66" s="29">
@@ -7411,27 +7670,27 @@
         <v>4853</v>
       </c>
       <c r="AC66" s="29">
-        <f t="shared" ref="AC66:AE66" si="182">AC47-AC61</f>
+        <f t="shared" ref="AC66:AD66" si="184">AC47-AC61</f>
         <v>6576</v>
       </c>
       <c r="AD66" s="29">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>10539</v>
       </c>
       <c r="AE66" s="29">
-        <f t="shared" ref="AE66:AF66" si="183">AE47-AE61</f>
+        <f t="shared" ref="AE66" si="185">AE47-AE61</f>
         <v>8049</v>
       </c>
       <c r="AF66" s="29">
-        <f t="shared" ref="AF66:AG66" si="184">AF47-AF61</f>
+        <f t="shared" ref="AF66:AG66" si="186">AF47-AF61</f>
         <v>6281</v>
       </c>
       <c r="AG66" s="29">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>2870</v>
       </c>
       <c r="AH66" s="29">
-        <f t="shared" ref="AH66" si="185">AH47-AH61</f>
+        <f t="shared" ref="AH66" si="187">AH47-AH61</f>
         <v>11438</v>
       </c>
       <c r="AI66" s="29">
@@ -7439,7 +7698,7 @@
         <v>9778</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:36">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
@@ -7448,11 +7707,11 @@
         <v>7.5790960451977405</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67" si="186">G66/G22</f>
+        <f t="shared" ref="G67" si="188">G66/G22</f>
         <v>7.5207920792079204</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67" si="187">H66/H22</f>
+        <f t="shared" ref="H67" si="189">H66/H22</f>
         <v>7.2036290322580649</v>
       </c>
       <c r="I67" s="1">
@@ -7460,7 +7719,7 @@
         <v>7.113963039014374</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67" si="188">J66/J22</f>
+        <f t="shared" ref="J67" si="190">J66/J22</f>
         <v>6.6115789473684208</v>
       </c>
       <c r="N67" s="1">
@@ -7468,11 +7727,11 @@
         <v>3.5563816604708798</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67" si="189">O66/O22</f>
+        <f t="shared" ref="O67" si="191">O66/O22</f>
         <v>2.808764940239044</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="190">P66/P22</f>
+        <f t="shared" ref="P67" si="192">P66/P22</f>
         <v>4.1280227596017074</v>
       </c>
       <c r="Q67" s="1">
@@ -7500,27 +7759,27 @@
         <v>8.9429996037272659</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" ref="AC67:AE67" si="191">AC66/AC22</f>
+        <f t="shared" ref="AC67:AD67" si="193">AC66/AC22</f>
         <v>5.443708609271523</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>9.301853486319505</v>
       </c>
       <c r="AE67" s="1">
-        <f t="shared" ref="AE67:AF67" si="192">AE66/AE22</f>
+        <f t="shared" ref="AE67" si="194">AE66/AE22</f>
         <v>7.7768115942028988</v>
       </c>
       <c r="AF67" s="1">
-        <f t="shared" ref="AF67:AG67" si="193">AF66/AF22</f>
+        <f t="shared" ref="AF67:AG67" si="195">AF66/AF22</f>
         <v>6.6115789473684208</v>
       </c>
       <c r="AG67" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>3.3804475853945819</v>
       </c>
       <c r="AH67" s="1">
-        <f t="shared" ref="AH67" si="194">AH66/AH22</f>
+        <f t="shared" ref="AH67" si="196">AH66/AH22</f>
         <v>16.109859154929577</v>
       </c>
       <c r="AI67" s="1">
@@ -7528,20 +7787,20 @@
         <v>14.996932515337424</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="34" customFormat="1">
+    <row r="69" spans="1:36" s="34" customFormat="1">
       <c r="B69" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="35">
-        <f t="shared" ref="C69:D69" si="195">C35+C36</f>
+        <f t="shared" ref="C69:D69" si="197">C35+C36</f>
         <v>0</v>
       </c>
       <c r="D69" s="35">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="E69" s="35">
-        <f t="shared" ref="E69" si="196">E35+E36</f>
+        <f t="shared" ref="E69" si="198">E35+E36</f>
         <v>0</v>
       </c>
       <c r="F69" s="35">
@@ -7549,31 +7808,31 @@
         <v>5863</v>
       </c>
       <c r="G69" s="35">
-        <f t="shared" ref="G69:M69" si="197">G35+G36</f>
+        <f t="shared" ref="G69:M69" si="199">G35+G36</f>
         <v>4806</v>
       </c>
       <c r="H69" s="35">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>4007</v>
       </c>
       <c r="I69" s="35">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>4838</v>
       </c>
       <c r="J69" s="35">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>4915</v>
       </c>
       <c r="K69" s="35">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="L69" s="35">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="M69" s="35">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="N69" s="35">
@@ -7581,15 +7840,15 @@
         <v>2751</v>
       </c>
       <c r="O69" s="35">
-        <f t="shared" ref="O69:Q69" si="198">O35+O36</f>
+        <f t="shared" ref="O69:Q69" si="200">O35+O36</f>
         <v>4430</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>5303</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>3660</v>
       </c>
       <c r="R69" s="35">
@@ -7597,15 +7856,15 @@
         <v>3826</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" ref="S69:U69" si="199">S35+S36</f>
+        <f t="shared" ref="S69:U69" si="201">S35+S36</f>
         <v>0</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="V69" s="35">
@@ -7613,60 +7872,62 @@
         <v>7323</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" ref="W69" si="200">W35+W36</f>
+        <f t="shared" ref="W69" si="202">W35+W36</f>
         <v>5569</v>
       </c>
       <c r="X69" s="35">
-        <f t="shared" ref="X69" si="201">X35+X36</f>
+        <f t="shared" ref="X69" si="203">X35+X36</f>
         <v>3225</v>
       </c>
       <c r="Y69" s="35">
         <f>Y35+Y36</f>
         <v>3494</v>
       </c>
+      <c r="Z69" s="51"/>
       <c r="AC69" s="35">
-        <f t="shared" ref="AC69:AE69" si="202">AC35+AC36</f>
+        <f t="shared" ref="AC69:AD69" si="204">AC35+AC36</f>
         <v>6131</v>
       </c>
       <c r="AD69" s="35">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>7149</v>
       </c>
       <c r="AE69" s="35">
-        <f t="shared" ref="AE69:AF69" si="203">AE35+AE36</f>
+        <f t="shared" ref="AE69" si="205">AE35+AE36</f>
         <v>5863</v>
       </c>
       <c r="AF69" s="35">
-        <f t="shared" ref="AF69:AG69" si="204">AF35+AF36</f>
+        <f t="shared" ref="AF69:AG69" si="206">AF35+AF36</f>
         <v>4915</v>
       </c>
       <c r="AG69" s="35">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>2751</v>
       </c>
       <c r="AH69" s="35">
-        <f t="shared" ref="AH69" si="205">AH35+AH36</f>
+        <f t="shared" ref="AH69" si="207">AH35+AH36</f>
         <v>3826</v>
       </c>
       <c r="AI69" s="35">
         <f>AI35+AI36</f>
         <v>7323</v>
       </c>
-    </row>
-    <row r="70" spans="1:35" s="34" customFormat="1">
+      <c r="AJ69" s="51"/>
+    </row>
+    <row r="70" spans="1:36" s="34" customFormat="1">
       <c r="B70" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="35">
-        <f t="shared" ref="C70:D70" si="206">C49+C59</f>
+        <f t="shared" ref="C70:D70" si="208">C49+C59</f>
         <v>0</v>
       </c>
       <c r="D70" s="35">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="E70" s="35">
-        <f t="shared" ref="E70" si="207">E49+E59</f>
+        <f t="shared" ref="E70" si="209">E49+E59</f>
         <v>0</v>
       </c>
       <c r="F70" s="35">
@@ -7674,31 +7935,31 @@
         <v>10015</v>
       </c>
       <c r="G70" s="35">
-        <f t="shared" ref="G70:M70" si="208">G49+G59</f>
+        <f t="shared" ref="G70:M70" si="210">G49+G59</f>
         <v>9228</v>
       </c>
       <c r="H70" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>9204</v>
       </c>
       <c r="I70" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>9207</v>
       </c>
       <c r="J70" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>9231</v>
       </c>
       <c r="K70" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="L70" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="M70" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="N70" s="35">
@@ -7706,15 +7967,15 @@
         <v>7758</v>
       </c>
       <c r="O70" s="35">
-        <f t="shared" ref="O70:Q70" si="209">O49+O59</f>
+        <f t="shared" ref="O70:Q70" si="211">O49+O59</f>
         <v>8739</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>8677</v>
       </c>
       <c r="Q70" s="35">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>7755</v>
       </c>
       <c r="R70" s="35">
@@ -7722,15 +7983,15 @@
         <v>7763</v>
       </c>
       <c r="S70" s="35">
-        <f t="shared" ref="S70:U70" si="210">S49+S59</f>
+        <f t="shared" ref="S70:U70" si="212">S49+S59</f>
         <v>0</v>
       </c>
       <c r="T70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="U70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="V70" s="35">
@@ -7738,92 +7999,94 @@
         <v>9082</v>
       </c>
       <c r="W70" s="35">
-        <f t="shared" ref="W70" si="211">W49+W59</f>
+        <f t="shared" ref="W70" si="213">W49+W59</f>
         <v>8333</v>
       </c>
       <c r="X70" s="35">
-        <f t="shared" ref="X70" si="212">X49+X59</f>
+        <f t="shared" ref="X70" si="214">X49+X59</f>
         <v>7728</v>
       </c>
       <c r="Y70" s="35">
         <f>Y49+Y59</f>
         <v>7729</v>
       </c>
+      <c r="Z70" s="51"/>
       <c r="AC70" s="35">
-        <f t="shared" ref="AC70:AE70" si="213">AC49+AC59</f>
+        <f t="shared" ref="AC70:AD70" si="215">AC49+AC59</f>
         <v>6749</v>
       </c>
       <c r="AD70" s="35">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>8960</v>
       </c>
       <c r="AE70" s="35">
-        <f t="shared" ref="AE70:AF70" si="214">AE49+AE59</f>
+        <f t="shared" ref="AE70" si="216">AE49+AE59</f>
         <v>10015</v>
       </c>
       <c r="AF70" s="35">
-        <f t="shared" ref="AF70:AG70" si="215">AF49+AF59</f>
+        <f t="shared" ref="AF70:AG70" si="217">AF49+AF59</f>
         <v>9231</v>
       </c>
       <c r="AG70" s="35">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>7758</v>
       </c>
       <c r="AH70" s="35">
-        <f t="shared" ref="AH70" si="216">AH49+AH59</f>
+        <f t="shared" ref="AH70" si="218">AH49+AH59</f>
         <v>7763</v>
       </c>
       <c r="AI70" s="35">
         <f>AI49+AI59</f>
         <v>9082</v>
       </c>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AJ70" s="51"/>
+    </row>
+    <row r="71" spans="1:36">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="29">
-        <f t="shared" ref="C71:D71" si="217">C69-C70</f>
+        <f t="shared" ref="C71:D71" si="219">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="29">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="E71" s="29">
-        <f t="shared" ref="E71" si="218">E69-E70</f>
+        <f t="shared" ref="E71" si="220">E69-E70</f>
         <v>0</v>
       </c>
       <c r="F71" s="29">
-        <f t="shared" ref="F71" si="219">F69-F70</f>
+        <f t="shared" ref="F71" si="221">F69-F70</f>
         <v>-4152</v>
       </c>
       <c r="G71" s="29">
-        <f t="shared" ref="G71" si="220">G69-G70</f>
+        <f t="shared" ref="G71" si="222">G69-G70</f>
         <v>-4422</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" ref="H71" si="221">H69-H70</f>
+        <f t="shared" ref="H71" si="223">H69-H70</f>
         <v>-5197</v>
       </c>
       <c r="I71" s="29">
-        <f t="shared" ref="I71" si="222">I69-I70</f>
+        <f t="shared" ref="I71" si="224">I69-I70</f>
         <v>-4369</v>
       </c>
       <c r="J71" s="29">
-        <f t="shared" ref="J71" si="223">J69-J70</f>
+        <f t="shared" ref="J71" si="225">J69-J70</f>
         <v>-4316</v>
       </c>
       <c r="K71" s="29">
-        <f t="shared" ref="K71" si="224">K69-K70</f>
+        <f t="shared" ref="K71" si="226">K69-K70</f>
         <v>0</v>
       </c>
       <c r="L71" s="29">
-        <f t="shared" ref="L71" si="225">L69-L70</f>
+        <f t="shared" ref="L71" si="227">L69-L70</f>
         <v>0</v>
       </c>
       <c r="M71" s="29">
-        <f t="shared" ref="M71" si="226">M69-M70</f>
+        <f t="shared" ref="M71" si="228">M69-M70</f>
         <v>0</v>
       </c>
       <c r="N71" s="29">
@@ -7831,15 +8094,15 @@
         <v>-5007</v>
       </c>
       <c r="O71" s="29">
-        <f t="shared" ref="O71:Q71" si="227">O69-O70</f>
+        <f t="shared" ref="O71:Q71" si="229">O69-O70</f>
         <v>-4309</v>
       </c>
       <c r="P71" s="29">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>-3374</v>
       </c>
       <c r="Q71" s="29">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>-4095</v>
       </c>
       <c r="R71" s="29">
@@ -7847,15 +8110,15 @@
         <v>-3937</v>
       </c>
       <c r="S71" s="29">
-        <f t="shared" ref="S71:U71" si="228">S69-S70</f>
+        <f t="shared" ref="S71:U71" si="230">S69-S70</f>
         <v>0</v>
       </c>
       <c r="T71" s="29">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>0</v>
       </c>
       <c r="U71" s="29">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>0</v>
       </c>
       <c r="V71" s="29">
@@ -7863,11 +8126,11 @@
         <v>-1759</v>
       </c>
       <c r="W71" s="29">
-        <f t="shared" ref="W71" si="229">W69-W70</f>
+        <f t="shared" ref="W71" si="231">W69-W70</f>
         <v>-2764</v>
       </c>
       <c r="X71" s="29">
-        <f t="shared" ref="X71" si="230">X69-X70</f>
+        <f t="shared" ref="X71" si="232">X69-X70</f>
         <v>-4503</v>
       </c>
       <c r="Y71" s="29">
@@ -7875,27 +8138,27 @@
         <v>-4235</v>
       </c>
       <c r="AC71" s="29">
-        <f t="shared" ref="AC71:AE71" si="231">AC69-AC70</f>
+        <f t="shared" ref="AC71:AD71" si="233">AC69-AC70</f>
         <v>-618</v>
       </c>
       <c r="AD71" s="29">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>-1811</v>
       </c>
       <c r="AE71" s="29">
-        <f t="shared" ref="AE71:AF71" si="232">AE69-AE70</f>
+        <f t="shared" ref="AE71" si="234">AE69-AE70</f>
         <v>-4152</v>
       </c>
       <c r="AF71" s="29">
-        <f t="shared" ref="AF71:AG71" si="233">AF69-AF70</f>
+        <f t="shared" ref="AF71:AG71" si="235">AF69-AF70</f>
         <v>-4316</v>
       </c>
       <c r="AG71" s="29">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>-5007</v>
       </c>
       <c r="AH71" s="29">
-        <f t="shared" ref="AH71" si="234">AH69-AH70</f>
+        <f t="shared" ref="AH71" si="236">AH69-AH70</f>
         <v>-3937</v>
       </c>
       <c r="AI71" s="29">
@@ -7903,7 +8166,7 @@
         <v>-1759</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:36">
       <c r="B73" s="1" t="s">
         <v>122</v>
       </c>
@@ -7983,11 +8246,11 @@
         <v>27.99</v>
       </c>
       <c r="AE73" s="30">
-        <f t="shared" ref="AE73" si="235">F73</f>
+        <f t="shared" ref="AE73" si="237">F73</f>
         <v>35.58</v>
       </c>
       <c r="AF73" s="30">
-        <f t="shared" ref="AF73" si="236">J73</f>
+        <f t="shared" ref="AF73" si="238">J73</f>
         <v>26.46</v>
       </c>
       <c r="AG73" s="1">
@@ -8003,80 +8266,80 @@
         <v>65.27</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:36">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" ref="C74:T74" si="237">C73*C22</f>
+        <f t="shared" ref="C74:T74" si="239">C73*C22</f>
         <v>34276.949999999997</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>35421.919999999998</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>38508.119999999995</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>36825.299999999996</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>38309.300000000003</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>33906.559999999998</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>30320.62</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>25137</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>31626</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>32267.200000000004</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>30842.799999999996</v>
       </c>
       <c r="N74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>27889.920000000002</v>
       </c>
       <c r="O74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>21761.7</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>35578.83</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>35092.32</v>
       </c>
       <c r="R74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>33560.639999999999</v>
       </c>
       <c r="S74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>40608.03</v>
       </c>
       <c r="T74" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>46222.92</v>
       </c>
       <c r="U74" s="5">
@@ -8088,11 +8351,11 @@
         <v>39553.619999999995</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" ref="W74:X74" si="238">W73*W22</f>
+        <f t="shared" ref="W74:X74" si="240">W73*W22</f>
         <v>33124.409999999996</v>
       </c>
       <c r="X74" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>22940.559999999998</v>
       </c>
       <c r="Y74" s="5">
@@ -8100,27 +8363,27 @@
         <v>19872.175765939999</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" ref="AC74:AE74" si="239">AC73*AC22</f>
+        <f t="shared" ref="AC74:AD74" si="241">AC73*AC22</f>
         <v>31299.279999999999</v>
       </c>
       <c r="AD74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>31712.67</v>
       </c>
       <c r="AE74" s="5">
-        <f t="shared" ref="AE74:AF74" si="240">AE73*AE22</f>
+        <f t="shared" ref="AE74" si="242">AE73*AE22</f>
         <v>36825.299999999996</v>
       </c>
       <c r="AF74" s="5">
-        <f t="shared" ref="AF74:AG74" si="241">AF73*AF22</f>
+        <f t="shared" ref="AF74:AG74" si="243">AF73*AF22</f>
         <v>25137</v>
       </c>
       <c r="AG74" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v>29341.440000000002</v>
       </c>
       <c r="AH74" s="5">
-        <f t="shared" ref="AH74" si="242">AH73*AH22</f>
+        <f t="shared" ref="AH74" si="244">AH73*AH22</f>
         <v>34633.800000000003</v>
       </c>
       <c r="AI74" s="5">
@@ -8128,29 +8391,29 @@
         <v>42556.04</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:36">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5">
-        <f t="shared" ref="F75" si="243">F74-G71</f>
+        <f t="shared" ref="F75" si="245">F74-G71</f>
         <v>41247.299999999996</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" ref="G75:H75" si="244">G74-G71</f>
+        <f t="shared" ref="G75" si="246">G74-G71</f>
         <v>42731.3</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" ref="H75:I75" si="245">H74-H71</f>
+        <f t="shared" ref="H75" si="247">H74-H71</f>
         <v>39103.56</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" ref="I75:J75" si="246">I74-I71</f>
+        <f t="shared" ref="I75:J75" si="248">I74-I71</f>
         <v>34689.619999999995</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>29453</v>
       </c>
       <c r="N75" s="5">
@@ -8158,15 +8421,15 @@
         <v>32896.92</v>
       </c>
       <c r="O75" s="5">
-        <f t="shared" ref="O75" si="247">O74-O71</f>
+        <f t="shared" ref="O75" si="249">O74-O71</f>
         <v>26070.7</v>
       </c>
       <c r="P75" s="5">
-        <f t="shared" ref="P75" si="248">P74-P71</f>
+        <f t="shared" ref="P75" si="250">P74-P71</f>
         <v>38952.83</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" ref="Q75" si="249">Q74-Q71</f>
+        <f t="shared" ref="Q75" si="251">Q74-Q71</f>
         <v>39187.32</v>
       </c>
       <c r="R75" s="5">
@@ -8182,11 +8445,11 @@
         <v>41312.619999999995</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" ref="W75:X75" si="250">W74-W71</f>
+        <f t="shared" ref="W75:X75" si="252">W74-W71</f>
         <v>35888.409999999996</v>
       </c>
       <c r="X75" s="5">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>27443.559999999998</v>
       </c>
       <c r="Y75" s="5">
@@ -8194,27 +8457,27 @@
         <v>24107.175765939999</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" ref="AC75:AE75" si="251">AC74-AC71</f>
+        <f t="shared" ref="AC75:AD75" si="253">AC74-AC71</f>
         <v>31917.279999999999</v>
       </c>
       <c r="AD75" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>33523.67</v>
       </c>
       <c r="AE75" s="5">
-        <f t="shared" ref="AE75:AF75" si="252">AE74-AE71</f>
+        <f t="shared" ref="AE75" si="254">AE74-AE71</f>
         <v>40977.299999999996</v>
       </c>
       <c r="AF75" s="5">
-        <f t="shared" ref="AF75:AG75" si="253">AF74-AF71</f>
+        <f t="shared" ref="AF75:AG75" si="255">AF74-AF71</f>
         <v>29453</v>
       </c>
       <c r="AG75" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="255"/>
         <v>34348.44</v>
       </c>
       <c r="AH75" s="5">
-        <f t="shared" ref="AH75" si="254">AH74-AH71</f>
+        <f t="shared" ref="AH75" si="256">AH74-AH71</f>
         <v>38570.800000000003</v>
       </c>
       <c r="AI75" s="5">
@@ -8222,7 +8485,7 @@
         <v>44315.040000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="38" customFormat="1">
+    <row r="77" spans="1:36" s="38" customFormat="1">
       <c r="A77" s="39">
         <f>AVERAGE(G77:Y77)</f>
         <v>6.9135709765197264</v>
@@ -8235,11 +8498,11 @@
         <v>4.6944912411479685</v>
       </c>
       <c r="G77" s="38">
-        <f t="shared" ref="G77:H77" si="255">G73/G67</f>
+        <f t="shared" ref="G77" si="257">G73/G67</f>
         <v>5.0433517640863617</v>
       </c>
       <c r="H77" s="38">
-        <f t="shared" ref="H77:I77" si="256">H73/H67</f>
+        <f t="shared" ref="H77" si="258">H73/H67</f>
         <v>4.744830674503218</v>
       </c>
       <c r="I77" s="38">
@@ -8255,15 +8518,15 @@
         <v>9.7177421602787462</v>
       </c>
       <c r="O77" s="38">
-        <f t="shared" ref="O77" si="257">O73/O67</f>
+        <f t="shared" ref="O77" si="259">O73/O67</f>
         <v>10.289219858156027</v>
       </c>
       <c r="P77" s="38">
-        <f t="shared" ref="P77:Q77" si="258">P73/P67</f>
+        <f t="shared" ref="P77:Q77" si="260">P73/P67</f>
         <v>12.26010682288077</v>
       </c>
       <c r="Q77" s="38">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>12.807416058394161</v>
       </c>
       <c r="R77" s="38">
@@ -8286,40 +8549,42 @@
         <f>Y73/Y67</f>
         <v>4.0948229478549347</v>
       </c>
+      <c r="Z77" s="57"/>
       <c r="AB77" s="39">
         <f>AVERAGE(AC77:AI77)</f>
         <v>4.8499415907579078</v>
       </c>
       <c r="AC77" s="38">
-        <f t="shared" ref="AC77:AE77" si="259">AC73/AC67</f>
+        <f t="shared" ref="AC77:AD77" si="261">AC73/AC67</f>
         <v>4.7596228710462292</v>
       </c>
       <c r="AD77" s="38">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>3.009077711357814</v>
       </c>
       <c r="AE77" s="38">
-        <f t="shared" ref="AE77:AF77" si="260">AE73/AE67</f>
+        <f t="shared" ref="AE77" si="262">AE73/AE67</f>
         <v>4.5751397689153928</v>
       </c>
       <c r="AF77" s="38">
-        <f t="shared" ref="AF77:AG77" si="261">AF73/AF67</f>
+        <f t="shared" ref="AF77:AG77" si="263">AF73/AF67</f>
         <v>4.0020697341187708</v>
       </c>
       <c r="AG77" s="38">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>10.223498257839722</v>
       </c>
       <c r="AH77" s="38">
-        <f t="shared" ref="AH77" si="262">AH73/AH67</f>
+        <f t="shared" ref="AH77" si="264">AH73/AH67</f>
         <v>3.0279594334673896</v>
       </c>
       <c r="AI77" s="38">
         <f>AI73/AI67</f>
         <v>4.3522233585600327</v>
       </c>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="AJ77" s="57"/>
+    </row>
+    <row r="78" spans="1:36">
       <c r="A78" s="39">
         <f>AVERAGE(G78:Y78)</f>
         <v>3.197187519156873</v>
@@ -8328,79 +8593,79 @@
         <v>65</v>
       </c>
       <c r="F78" s="38">
-        <f t="shared" ref="F78:X78" si="263">F74/SUM(C4:F4)</f>
+        <f t="shared" ref="F78:X78" si="265">F74/SUM(C4:F4)</f>
         <v>3.7096101541251127</v>
       </c>
       <c r="G78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.7543414347314781</v>
       </c>
       <c r="H78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.252427817745803</v>
       </c>
       <c r="I78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>2.866927004538578</v>
       </c>
       <c r="J78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>2.3391959798994977</v>
       </c>
       <c r="K78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>2.9895075148879857</v>
       </c>
       <c r="L78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.1139934375603171</v>
       </c>
       <c r="M78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.1485095957533682</v>
       </c>
       <c r="N78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.0464139814309124</v>
       </c>
       <c r="O78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>2.3871983326020185</v>
       </c>
       <c r="P78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.7224136848713121</v>
       </c>
       <c r="Q78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.4810356115464733</v>
       </c>
       <c r="R78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.1327023242789136</v>
       </c>
       <c r="S78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.6993741459415141</v>
       </c>
       <c r="T78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>4.2878404452690164</v>
       </c>
       <c r="U78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>4.2044196721311469</v>
       </c>
       <c r="V78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.7959328214971206</v>
       </c>
       <c r="W78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>3.2269274232830001</v>
       </c>
       <c r="X78" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>2.2897055594370692</v>
       </c>
       <c r="Y78" s="38">
@@ -8408,31 +8673,31 @@
         <v>2.0076960765750655</v>
       </c>
       <c r="AB78" s="39">
-        <f t="shared" ref="AB78:AB81" si="264">AVERAGE(AC78:AI78)</f>
+        <f t="shared" ref="AB78:AB81" si="266">AVERAGE(AC78:AI78)</f>
         <v>3.3922041867436059</v>
       </c>
       <c r="AC78" s="38">
-        <f t="shared" ref="AC78:AE78" si="265">AC74/AC4</f>
+        <f t="shared" ref="AC78:AD78" si="267">AC74/AC4</f>
         <v>3.6428398510242084</v>
       </c>
       <c r="AD78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>3.5318710324089539</v>
       </c>
       <c r="AE78" s="38">
-        <f t="shared" ref="AE78:AF78" si="266">AE74/AE4</f>
+        <f t="shared" ref="AE78" si="268">AE74/AE4</f>
         <v>3.7096101541251127</v>
       </c>
       <c r="AF78" s="38">
-        <f t="shared" ref="AF78:AG78" si="267">AF74/AF4</f>
+        <f t="shared" ref="AF78:AG78" si="269">AF74/AF4</f>
         <v>2.3391959798994977</v>
       </c>
       <c r="AG78" s="38">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>3.2049634079737852</v>
       </c>
       <c r="AH78" s="38">
-        <f t="shared" ref="AH78" si="268">AH74/AH4</f>
+        <f t="shared" ref="AH78" si="270">AH74/AH4</f>
         <v>3.2328759451134137</v>
       </c>
       <c r="AI78" s="38">
@@ -8440,36 +8705,36 @@
         <v>4.0840729366602684</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:36">
       <c r="B79" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AB79" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>3.7031660365898795</v>
       </c>
       <c r="AC79" s="38">
-        <f t="shared" ref="AC79:AE79" si="269">AC75/AC4</f>
+        <f t="shared" ref="AC79:AD79" si="271">AC75/AC4</f>
         <v>3.7147672253258843</v>
       </c>
       <c r="AD79" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="271"/>
         <v>3.7335638712551509</v>
       </c>
       <c r="AE79" s="38">
-        <f t="shared" ref="AE79:AF79" si="270">AE75/AE4</f>
+        <f t="shared" ref="AE79" si="272">AE75/AE4</f>
         <v>4.1278634028407373</v>
       </c>
       <c r="AF79" s="38">
-        <f t="shared" ref="AF79:AG79" si="271">AF75/AF4</f>
+        <f t="shared" ref="AF79:AG79" si="273">AF75/AF4</f>
         <v>2.7408337986227433</v>
       </c>
       <c r="AG79" s="38">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>3.7518776624795196</v>
       </c>
       <c r="AH79" s="38">
-        <f t="shared" ref="AH79" si="272">AH75/AH4</f>
+        <f t="shared" ref="AH79" si="274">AH75/AH4</f>
         <v>3.6003733781387104</v>
       </c>
       <c r="AI79" s="38">
@@ -8477,7 +8742,7 @@
         <v>4.2528829174664109</v>
       </c>
     </row>
-    <row r="80" spans="1:35" s="38" customFormat="1">
+    <row r="80" spans="1:36" s="38" customFormat="1">
       <c r="A80" s="39">
         <f>AVERAGE(G80:Y80)</f>
         <v>-9.9459851224596605</v>
@@ -8486,148 +8751,150 @@
         <v>67</v>
       </c>
       <c r="F80" s="38">
-        <f t="shared" ref="F80" si="273">F73/SUM(C21:F21)</f>
+        <f t="shared" ref="F80" si="275">F73/SUM(C21:F21)</f>
         <v>-34.186196284168958</v>
       </c>
       <c r="G80" s="38">
-        <f t="shared" ref="G80" si="274">G73/SUM(D21:G21)</f>
+        <f t="shared" ref="G80" si="276">G73/SUM(D21:G21)</f>
         <v>-23.803258337409265</v>
       </c>
       <c r="H80" s="38">
-        <f t="shared" ref="H80" si="275">H73/SUM(E21:H21)</f>
+        <f t="shared" ref="H80" si="277">H73/SUM(E21:H21)</f>
         <v>-35.119316071931394</v>
       </c>
       <c r="I80" s="38">
-        <f t="shared" ref="I80" si="276">I73/SUM(F21:I21)</f>
+        <f t="shared" ref="I80" si="278">I73/SUM(F21:I21)</f>
         <v>-43.077600182512285</v>
       </c>
       <c r="J80" s="38">
-        <f t="shared" ref="J80" si="277">J73/SUM(G21:J21)</f>
+        <f t="shared" ref="J80" si="279">J73/SUM(G21:J21)</f>
         <v>10.214661840651397</v>
       </c>
       <c r="K80" s="38">
-        <f t="shared" ref="K80" si="278">K73/SUM(H21:K21)</f>
+        <f t="shared" ref="K80" si="280">K73/SUM(H21:K21)</f>
         <v>12.718154987157886</v>
       </c>
       <c r="L80" s="38">
-        <f t="shared" ref="L80" si="279">L73/SUM(I21:L21)</f>
+        <f t="shared" ref="L80" si="281">L73/SUM(I21:L21)</f>
         <v>14.524374227423833</v>
       </c>
       <c r="M80" s="38">
-        <f t="shared" ref="M80" si="280">M73/SUM(J21:M21)</f>
+        <f t="shared" ref="M80" si="282">M73/SUM(J21:M21)</f>
         <v>16.765235423602924</v>
       </c>
       <c r="N80" s="38">
-        <f t="shared" ref="N80" si="281">N73/SUM(K21:N21)</f>
+        <f t="shared" ref="N80" si="283">N73/SUM(K21:N21)</f>
         <v>16.414442706508094</v>
       </c>
       <c r="O80" s="38">
-        <f t="shared" ref="O80" si="282">O73/SUM(L21:O21)</f>
+        <f t="shared" ref="O80" si="284">O73/SUM(L21:O21)</f>
         <v>4.7680989418995381</v>
       </c>
       <c r="P80" s="38">
-        <f t="shared" ref="P80" si="283">P73/SUM(M21:P21)</f>
+        <f t="shared" ref="P80" si="285">P73/SUM(M21:P21)</f>
         <v>7.6049907925668574</v>
       </c>
       <c r="Q80" s="38">
-        <f t="shared" ref="Q80" si="284">Q73/SUM(N21:Q21)</f>
+        <f t="shared" ref="Q80" si="286">Q73/SUM(N21:Q21)</f>
         <v>6.9685453631242744</v>
       </c>
       <c r="R80" s="38">
-        <f t="shared" ref="R80" si="285">R73/SUM(O21:R21)</f>
+        <f t="shared" ref="R80" si="287">R73/SUM(O21:R21)</f>
         <v>6.2742813338289967</v>
       </c>
       <c r="S80" s="38">
-        <f t="shared" ref="S80" si="286">S73/SUM(P21:S21)</f>
+        <f t="shared" ref="S80" si="288">S73/SUM(P21:S21)</f>
         <v>14.249698502138768</v>
       </c>
       <c r="T80" s="38">
-        <f t="shared" ref="T80" si="287">T73/SUM(Q21:T21)</f>
+        <f t="shared" ref="T80" si="289">T73/SUM(Q21:T21)</f>
         <v>3.600132376127589</v>
       </c>
       <c r="U80" s="38">
-        <f t="shared" ref="U80" si="288">U73/SUM(R21:U21)</f>
+        <f t="shared" ref="U80" si="290">U73/SUM(R21:U21)</f>
         <v>3.6877262294124424</v>
       </c>
       <c r="V80" s="38">
-        <f t="shared" ref="V80" si="289">V73/SUM(S21:V21)</f>
+        <f t="shared" ref="V80" si="291">V73/SUM(S21:V21)</f>
         <v>3.181191505918596</v>
       </c>
       <c r="W80" s="38">
-        <f t="shared" ref="W80" si="290">W73/SUM(T21:W21)</f>
+        <f t="shared" ref="W80" si="292">W73/SUM(T21:W21)</f>
         <v>3.2634136402727529</v>
       </c>
       <c r="X80" s="38">
-        <f t="shared" ref="X80" si="291">X73/SUM(U21:X21)</f>
+        <f t="shared" ref="X80" si="293">X73/SUM(U21:X21)</f>
         <v>100.42416013144638</v>
       </c>
       <c r="Y80" s="38">
-        <f t="shared" ref="Y80" si="292">Y73/SUM(V21:Y21)</f>
+        <f t="shared" ref="Y80" si="294">Y73/SUM(V21:Y21)</f>
         <v>-311.63265073696095</v>
       </c>
+      <c r="Z80" s="57"/>
       <c r="AB80" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>4.3961723137688082</v>
       </c>
       <c r="AC80" s="38">
-        <f t="shared" ref="AC80:AE80" si="293">AC73/AC21</f>
+        <f t="shared" ref="AC80:AD80" si="295">AC73/AC21</f>
         <v>18.144510144927537</v>
       </c>
       <c r="AD80" s="38">
-        <f t="shared" si="293"/>
+        <f t="shared" si="295"/>
         <v>4.3645293146160196</v>
       </c>
       <c r="AE80" s="38">
-        <f t="shared" ref="AE80:AF80" si="294">AE73/AE21</f>
+        <f t="shared" ref="AE80" si="296">AE73/AE21</f>
         <v>-27.338752783964363</v>
       </c>
       <c r="AF80" s="38">
-        <f t="shared" ref="AF80:AG80" si="295">AF73/AF21</f>
+        <f t="shared" ref="AF80:AG80" si="297">AF73/AF21</f>
         <v>9.9355731225296449</v>
       </c>
       <c r="AG80" s="38">
-        <f t="shared" si="295"/>
+        <f t="shared" si="297"/>
         <v>16.428577827547596</v>
       </c>
       <c r="AH80" s="38">
-        <f t="shared" ref="AH80" si="296">AH73/AH21</f>
+        <f t="shared" ref="AH80" si="298">AH73/AH21</f>
         <v>6.1114875595553206</v>
       </c>
       <c r="AI80" s="38">
         <f>AI73/AI21</f>
         <v>3.1272810111699001</v>
       </c>
+      <c r="AJ80" s="57"/>
     </row>
     <row r="81" spans="2:35">
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AB81" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>4.8045273010515652</v>
       </c>
       <c r="AC81" s="38">
-        <f t="shared" ref="AC81:AE81" si="297">AC75/AC20</f>
+        <f t="shared" ref="AC81:AD81" si="299">AC75/AC20</f>
         <v>18.502771014492755</v>
       </c>
       <c r="AD81" s="38">
-        <f t="shared" si="297"/>
+        <f t="shared" si="299"/>
         <v>4.6137723644371045</v>
       </c>
       <c r="AE81" s="38">
-        <f t="shared" ref="AE81:AF81" si="298">AE75/AE20</f>
+        <f t="shared" ref="AE81" si="300">AE75/AE20</f>
         <v>-30.421158129175943</v>
       </c>
       <c r="AF81" s="38">
-        <f t="shared" ref="AF81:AG81" si="299">AF75/AF20</f>
+        <f t="shared" ref="AF81:AG81" si="301">AF75/AF20</f>
         <v>11.641501976284585</v>
       </c>
       <c r="AG81" s="38">
-        <f t="shared" si="299"/>
+        <f t="shared" si="301"/>
         <v>19.232049272116463</v>
       </c>
       <c r="AH81" s="38">
-        <f t="shared" ref="AH81" si="300">AH75/AH20</f>
+        <f t="shared" ref="AH81" si="302">AH75/AH20</f>
         <v>6.8062113993294515</v>
       </c>
       <c r="AI81" s="38">
@@ -8662,9 +8929,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId17"/>
   <ignoredErrors>
-    <ignoredError sqref="AI4 AH4:AH5 AG4:AG5 AG22 AF4:AF5 AE4:AE5 F78:Y78" formulaRange="1"/>
-    <ignoredError sqref="AI5:AI11 AI14:AI15 AI17 AI19 AH6:AH11 AH14:AH19 AG7:AG11 AG14:AG15 AG19 AG17 AE7:AF11 AF6 AE14:AF15 AF12:AF13 AE17:AF17 AF16 AE19:AF19 AF18" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AH39:AI39 AH56:AH61 AG39:AG62 AG64 AG6 AF35:AF56 AE39:AE62 AE16 AE18" formula="1"/>
+    <ignoredError sqref="AI4 AH4:AH5 AG4:AG5 AG22 AF4:AF5 AE4:AE5 F78:Y78 Z11 Z15 AJ14" formulaRange="1"/>
+    <ignoredError sqref="AI5:AI11 AI14:AI15 AH6:AH11 AH14:AH19 AG7:AG11 AG14:AG15 AG19 AG17 AE7:AF11 AF6 AE14:AF15 AF12:AF13 AE17:AF17 AF16 AE19:AF19 AF18 Z17 AI19:AJ19 AI17" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AH39:AI39 AH56:AH61 AG39:AG62 AG64 AG6 AF35:AF56 AE39:AE62 AE16 AE18 Z16 AJ6 AJ20:AJ22 AJ16:AJ18 AI16 AI18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId18"/>
 </worksheet>

--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1DA25-1906-4ABB-B791-C2CDF8245C3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F9FCB-AC2A-4853-B678-D0FB47C286A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
@@ -727,39 +727,6 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -776,6 +743,39 @@
     <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,22 +1285,22 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="G5" s="46" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="G5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="3" t="s">
@@ -1469,11 +1469,11 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1488,10 +1488,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="57"/>
       <c r="G16" s="13"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1506,10 +1506,10 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="57"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1522,8 +1522,8 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="7"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1538,10 +1538,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="59"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1575,11 +1575,11 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1594,10 +1594,10 @@
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="57"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1612,10 +1612,10 @@
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="56">
         <v>1995</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="57"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1630,10 +1630,10 @@
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="56">
         <v>1998</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="57"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1660,8 +1660,8 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="9"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1697,10 +1697,10 @@
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="61"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -1712,71 +1712,76 @@
       <c r="O29" s="16"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="54">
         <f>C6/'Financial Model'!Y67</f>
         <v>4.5599912565134968</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="54">
         <f>C8/SUM('Financial Model'!V4:Y4)</f>
         <v>2.235768596469994</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="54">
         <f>C12/SUM('Financial Model'!V4:Y4)</f>
         <v>2.663632811462922</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="54">
         <f>C6/SUM('Financial Model'!V21:Y21)</f>
         <v>-347.03384754378123</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="54">
         <f>C12/SUM('Financial Model'!V20:Y20)</f>
         <v>941.59419885214288</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1792,11 +1797,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{D9973FEA-B39E-4DD3-8417-80042015C44B}"/>
@@ -1815,10 +1815,10 @@
   <dimension ref="A1:AT82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6:AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1826,9 +1826,9 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="9.140625" style="51"/>
+    <col min="26" max="26" width="9.140625" style="40"/>
     <col min="27" max="35" width="9.140625" style="1"/>
-    <col min="36" max="36" width="9.140625" style="51"/>
+    <col min="36" max="36" width="9.140625" style="40"/>
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1902,7 +1902,7 @@
       <c r="Y1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="52" t="s">
+      <c r="Z1" s="41" t="s">
         <v>41</v>
       </c>
       <c r="AC1" s="20" t="s">
@@ -1926,7 +1926,7 @@
       <c r="AI1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="52" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="AK1" s="20" t="s">
@@ -2031,7 +2031,7 @@
       <c r="Y2" s="27">
         <v>44834</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="42" t="s">
         <v>131</v>
       </c>
       <c r="AC2" s="27">
@@ -2059,7 +2059,7 @@
       <c r="AI2" s="27">
         <v>44561</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="Y3" s="26">
         <v>37561</v>
       </c>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="42"/>
       <c r="AD3" s="26">
         <v>45658</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="AI3" s="26">
         <v>44958</v>
       </c>
-      <c r="AJ3" s="53"/>
+      <c r="AJ3" s="42"/>
     </row>
     <row r="4" spans="2:46" s="2" customFormat="1">
       <c r="B4" s="2" t="s">
@@ -2191,7 +2191,7 @@
       <c r="Y4" s="28">
         <v>2380</v>
       </c>
-      <c r="Z4" s="58">
+      <c r="Z4" s="47">
         <f>Y4*(1+Z25)</f>
         <v>2356.1999999999998</v>
       </c>
@@ -2221,9 +2221,49 @@
         <f>SUM(S4:V4)</f>
         <v>10420</v>
       </c>
-      <c r="AJ4" s="58">
+      <c r="AJ4" s="47">
         <f>SUM(W4:Z4)</f>
         <v>9641.2000000000007</v>
+      </c>
+      <c r="AK4" s="28">
+        <f>AJ4*1*(1+AK24)</f>
+        <v>9255.5519999999997</v>
+      </c>
+      <c r="AL4" s="28">
+        <f t="shared" ref="AL4:AT4" si="0">AK4*1*(1+AL24)</f>
+        <v>9348.1075199999996</v>
+      </c>
+      <c r="AM4" s="28">
+        <f t="shared" si="0"/>
+        <v>9628.5507455999996</v>
+      </c>
+      <c r="AN4" s="28">
+        <f t="shared" si="0"/>
+        <v>9917.4072679679994</v>
+      </c>
+      <c r="AO4" s="28">
+        <f t="shared" si="0"/>
+        <v>10214.92948600704</v>
+      </c>
+      <c r="AP4" s="28">
+        <f t="shared" si="0"/>
+        <v>10521.377370587252</v>
+      </c>
+      <c r="AQ4" s="28">
+        <f t="shared" si="0"/>
+        <v>10837.01869170487</v>
+      </c>
+      <c r="AR4" s="28">
+        <f t="shared" si="0"/>
+        <v>11162.129252456018</v>
+      </c>
+      <c r="AS4" s="28">
+        <f t="shared" si="0"/>
+        <v>11496.993130029698</v>
+      </c>
+      <c r="AT4" s="28">
+        <f t="shared" si="0"/>
+        <v>11841.902923930589</v>
       </c>
     </row>
     <row r="5" spans="2:46">
@@ -2299,7 +2339,7 @@
       <c r="Y5" s="29">
         <v>647</v>
       </c>
-      <c r="Z5" s="55">
+      <c r="Z5" s="44">
         <f>Z4*(1-Z27)</f>
         <v>636.17399999999998</v>
       </c>
@@ -2329,9 +2369,49 @@
         <f>SUM(S5:V5)</f>
         <v>2650</v>
       </c>
-      <c r="AJ5" s="55">
+      <c r="AJ5" s="44">
         <f>SUM(W5:Z5)</f>
         <v>2635.174</v>
+      </c>
+      <c r="AK5" s="29">
+        <f>AK4*(1-AK27)</f>
+        <v>2498.9990400000002</v>
+      </c>
+      <c r="AL5" s="29">
+        <f t="shared" ref="AL5:AT5" si="1">AL4*(1-AL27)</f>
+        <v>2523.9890304</v>
+      </c>
+      <c r="AM5" s="29">
+        <f t="shared" si="1"/>
+        <v>2503.4231938560001</v>
+      </c>
+      <c r="AN5" s="29">
+        <f t="shared" si="1"/>
+        <v>2479.3518169919998</v>
+      </c>
+      <c r="AO5" s="29">
+        <f t="shared" si="1"/>
+        <v>2553.7323715017601</v>
+      </c>
+      <c r="AP5" s="29">
+        <f t="shared" si="1"/>
+        <v>2630.3443426468129</v>
+      </c>
+      <c r="AQ5" s="29">
+        <f t="shared" si="1"/>
+        <v>2709.2546729262176</v>
+      </c>
+      <c r="AR5" s="29">
+        <f t="shared" si="1"/>
+        <v>2790.5323131140044</v>
+      </c>
+      <c r="AS5" s="29">
+        <f t="shared" si="1"/>
+        <v>2874.2482825074244</v>
+      </c>
+      <c r="AT5" s="29">
+        <f t="shared" si="1"/>
+        <v>2960.4757309826473</v>
       </c>
     </row>
     <row r="6" spans="2:46" s="2" customFormat="1">
@@ -2339,115 +2419,115 @@
         <v>74</v>
       </c>
       <c r="C6" s="28">
-        <f t="shared" ref="C6:F6" si="0">C4-C5</f>
+        <f t="shared" ref="C6:F6" si="2">C4-C5</f>
         <v>1789</v>
       </c>
       <c r="D6" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1859</v>
       </c>
       <c r="E6" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1941</v>
       </c>
       <c r="F6" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2117</v>
       </c>
       <c r="G6" s="28">
-        <f t="shared" ref="G6:X6" si="1">G4-G5</f>
+        <f t="shared" ref="G6:X6" si="3">G4-G5</f>
         <v>2021</v>
       </c>
       <c r="H6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
       <c r="I6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2041</v>
       </c>
       <c r="J6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2259</v>
       </c>
       <c r="K6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1874</v>
       </c>
       <c r="L6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1870</v>
       </c>
       <c r="M6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1553</v>
       </c>
       <c r="N6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1680</v>
       </c>
       <c r="O6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1848</v>
       </c>
       <c r="P6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2267</v>
       </c>
       <c r="Q6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1950</v>
       </c>
       <c r="R6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2126</v>
       </c>
       <c r="S6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2032</v>
       </c>
       <c r="T6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="U6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1823</v>
       </c>
       <c r="V6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1919</v>
       </c>
       <c r="W6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1794</v>
       </c>
       <c r="X6" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1759</v>
       </c>
       <c r="Y6" s="28">
         <f>Y4-Y5</f>
         <v>1733</v>
       </c>
-      <c r="Z6" s="58">
+      <c r="Z6" s="47">
         <f>Z4-Z5</f>
         <v>1720.0259999999998</v>
       </c>
       <c r="AC6" s="28">
-        <f t="shared" ref="AC6" si="2">AC4-AC5</f>
+        <f t="shared" ref="AC6" si="4">AC4-AC5</f>
         <v>6821</v>
       </c>
       <c r="AD6" s="28">
-        <f t="shared" ref="AD6" si="3">AD4-AD5</f>
+        <f t="shared" ref="AD6" si="5">AD4-AD5</f>
         <v>6972</v>
       </c>
       <c r="AE6" s="28">
-        <f t="shared" ref="AE6:AF6" si="4">AE4-AE5</f>
+        <f t="shared" ref="AE6:AF6" si="6">AE4-AE5</f>
         <v>7706</v>
       </c>
       <c r="AF6" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8364</v>
       </c>
       <c r="AG6" s="28">
@@ -2462,9 +2542,49 @@
         <f>AI4-AI5</f>
         <v>7770</v>
       </c>
-      <c r="AJ6" s="58">
+      <c r="AJ6" s="47">
         <f>AJ4-AJ5</f>
         <v>7006.0260000000007</v>
+      </c>
+      <c r="AK6" s="28">
+        <f t="shared" ref="AK6:AT6" si="7">AK4-AK5</f>
+        <v>6756.5529599999991</v>
+      </c>
+      <c r="AL6" s="28">
+        <f t="shared" si="7"/>
+        <v>6824.1184895999995</v>
+      </c>
+      <c r="AM6" s="28">
+        <f t="shared" si="7"/>
+        <v>7125.127551743999</v>
+      </c>
+      <c r="AN6" s="28">
+        <f t="shared" si="7"/>
+        <v>7438.0554509759995</v>
+      </c>
+      <c r="AO6" s="28">
+        <f t="shared" si="7"/>
+        <v>7661.1971145052803</v>
+      </c>
+      <c r="AP6" s="28">
+        <f t="shared" si="7"/>
+        <v>7891.0330279404388</v>
+      </c>
+      <c r="AQ6" s="28">
+        <f t="shared" si="7"/>
+        <v>8127.7640187786528</v>
+      </c>
+      <c r="AR6" s="28">
+        <f t="shared" si="7"/>
+        <v>8371.5969393420128</v>
+      </c>
+      <c r="AS6" s="28">
+        <f t="shared" si="7"/>
+        <v>8622.7448475222736</v>
+      </c>
+      <c r="AT6" s="28">
+        <f t="shared" si="7"/>
+        <v>8881.4271929479419</v>
       </c>
     </row>
     <row r="7" spans="2:46">
@@ -2540,7 +2660,7 @@
       <c r="Y7" s="29">
         <v>538</v>
       </c>
-      <c r="Z7" s="55">
+      <c r="Z7" s="44">
         <f>Z4*0.23</f>
         <v>541.92599999999993</v>
       </c>
@@ -2551,27 +2671,27 @@
         <v>2368</v>
       </c>
       <c r="AE7" s="29">
-        <f t="shared" ref="AE7:AE11" si="5">SUM(F7:I7)</f>
+        <f t="shared" ref="AE7:AE11" si="8">SUM(F7:I7)</f>
         <v>3230</v>
       </c>
       <c r="AF7" s="29">
-        <f t="shared" ref="AF7:AF11" si="6">SUM(G7:J7)</f>
+        <f t="shared" ref="AF7:AF11" si="9">SUM(G7:J7)</f>
         <v>3391</v>
       </c>
       <c r="AG7" s="29">
-        <f t="shared" ref="AG7:AG11" si="7">SUM(K7:N7)</f>
+        <f t="shared" ref="AG7:AG11" si="10">SUM(K7:N7)</f>
         <v>2549</v>
       </c>
       <c r="AH7" s="29">
-        <f t="shared" ref="AH7:AH11" si="8">SUM(O7:R7)</f>
+        <f t="shared" ref="AH7:AH11" si="11">SUM(O7:R7)</f>
         <v>2787</v>
       </c>
       <c r="AI7" s="29">
         <f>SUM(S7:V7)</f>
         <v>2170</v>
       </c>
-      <c r="AJ7" s="55">
-        <f t="shared" ref="AJ7:AJ11" si="9">SUM(W7:Z7)</f>
+      <c r="AJ7" s="44">
+        <f t="shared" ref="AJ7:AJ11" si="12">SUM(W7:Z7)</f>
         <v>2123.9259999999999</v>
       </c>
     </row>
@@ -2648,7 +2768,7 @@
       <c r="Y8" s="29">
         <v>345</v>
       </c>
-      <c r="Z8" s="55">
+      <c r="Z8" s="44">
         <f>Z4*0.141</f>
         <v>332.22419999999994</v>
       </c>
@@ -2659,27 +2779,27 @@
         <v>1114</v>
       </c>
       <c r="AE8" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1310</v>
       </c>
       <c r="AF8" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1285</v>
       </c>
       <c r="AG8" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1051</v>
       </c>
       <c r="AH8" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1161</v>
       </c>
       <c r="AI8" s="29">
-        <f t="shared" ref="AI8:AI11" si="10">SUM(S8:V8)</f>
+        <f t="shared" ref="AI8:AI11" si="13">SUM(S8:V8)</f>
         <v>1325</v>
       </c>
-      <c r="AJ8" s="55">
-        <f t="shared" si="9"/>
+      <c r="AJ8" s="44">
+        <f t="shared" si="12"/>
         <v>1322.2241999999999</v>
       </c>
     </row>
@@ -2756,7 +2876,7 @@
       <c r="Y9" s="29">
         <v>212</v>
       </c>
-      <c r="Z9" s="55">
+      <c r="Z9" s="44">
         <f>Z4*0.085</f>
         <v>200.27699999999999</v>
       </c>
@@ -2767,27 +2887,27 @@
         <v>900</v>
       </c>
       <c r="AE9" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1150</v>
       </c>
       <c r="AF9" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1131</v>
       </c>
       <c r="AG9" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1039</v>
       </c>
       <c r="AH9" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1065</v>
       </c>
       <c r="AI9" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>921</v>
       </c>
-      <c r="AJ9" s="55">
-        <f t="shared" si="9"/>
+      <c r="AJ9" s="44">
+        <f t="shared" si="12"/>
         <v>875.27700000000004</v>
       </c>
     </row>
@@ -2864,7 +2984,7 @@
       <c r="Y10" s="29">
         <v>69</v>
       </c>
-      <c r="Z10" s="55">
+      <c r="Z10" s="44">
         <f>Z4*0.03</f>
         <v>70.685999999999993</v>
       </c>
@@ -2875,27 +2995,27 @@
         <v>231</v>
       </c>
       <c r="AE10" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>282</v>
       </c>
       <c r="AF10" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>286</v>
       </c>
       <c r="AG10" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>266</v>
       </c>
       <c r="AH10" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>341</v>
       </c>
       <c r="AI10" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>422</v>
       </c>
-      <c r="AJ10" s="55">
-        <f t="shared" si="9"/>
+      <c r="AJ10" s="44">
+        <f t="shared" si="12"/>
         <v>321.68599999999998</v>
       </c>
     </row>
@@ -2972,7 +3092,7 @@
       <c r="Y11" s="29">
         <v>1</v>
       </c>
-      <c r="Z11" s="55">
+      <c r="Z11" s="44">
         <f>AVERAGE(V11:Y11)</f>
         <v>0.75</v>
       </c>
@@ -2983,27 +3103,27 @@
         <v>34</v>
       </c>
       <c r="AE11" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AF11" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="AG11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="AH11" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="AI11" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="AJ11" s="55">
-        <f t="shared" si="9"/>
+      <c r="AJ11" s="44">
+        <f t="shared" si="12"/>
         <v>3.75</v>
       </c>
     </row>
@@ -3012,130 +3132,130 @@
         <v>80</v>
       </c>
       <c r="C12" s="29">
-        <f t="shared" ref="C12:F12" si="11">SUM(C7:C11)</f>
+        <f t="shared" ref="C12:F12" si="14">SUM(C7:C11)</f>
         <v>1242</v>
       </c>
       <c r="D12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1379</v>
       </c>
       <c r="E12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1367</v>
       </c>
       <c r="F12" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1454</v>
       </c>
       <c r="G12" s="29">
-        <f t="shared" ref="G12:X12" si="12">SUM(G7:G11)</f>
+        <f t="shared" ref="G12:X12" si="15">SUM(G7:G11)</f>
         <v>1442</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1637</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1485</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1578</v>
       </c>
       <c r="K12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1281</v>
       </c>
       <c r="L12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1312</v>
       </c>
       <c r="M12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1145</v>
       </c>
       <c r="N12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202</v>
       </c>
       <c r="O12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1219</v>
       </c>
       <c r="P12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1446</v>
       </c>
       <c r="Q12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1271</v>
       </c>
       <c r="R12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1449</v>
       </c>
       <c r="S12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1191</v>
       </c>
       <c r="T12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1264</v>
       </c>
       <c r="U12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1161</v>
       </c>
       <c r="V12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1231</v>
       </c>
       <c r="W12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1102</v>
       </c>
       <c r="X12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1234</v>
       </c>
       <c r="Y12" s="29">
         <f>SUM(Y7:Y11)</f>
         <v>1165</v>
       </c>
-      <c r="Z12" s="55">
+      <c r="Z12" s="44">
         <f>SUM(Z7:Z11)</f>
         <v>1145.8631999999998</v>
       </c>
       <c r="AC12" s="29">
-        <f t="shared" ref="AC12:AD12" si="13">SUM(AC7:AC11)</f>
+        <f t="shared" ref="AC12:AD12" si="16">SUM(AC7:AC11)</f>
         <v>4624</v>
       </c>
       <c r="AD12" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4647</v>
       </c>
       <c r="AE12" s="29">
-        <f t="shared" ref="AE12:AG12" si="14">SUM(AE7:AE11)</f>
+        <f t="shared" ref="AE12:AG12" si="17">SUM(AE7:AE11)</f>
         <v>6018</v>
       </c>
       <c r="AF12" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6142</v>
       </c>
       <c r="AG12" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4940</v>
       </c>
       <c r="AH12" s="29">
-        <f t="shared" ref="AH12" si="15">SUM(AH7:AH11)</f>
+        <f t="shared" ref="AH12" si="18">SUM(AH7:AH11)</f>
         <v>5385</v>
       </c>
       <c r="AI12" s="29">
         <f>SUM(AI7:AI11)</f>
         <v>4847</v>
       </c>
-      <c r="AJ12" s="55">
+      <c r="AJ12" s="44">
         <f>SUM(AJ7:AJ11)</f>
         <v>4646.8631999999998</v>
       </c>
@@ -3145,130 +3265,130 @@
         <v>81</v>
       </c>
       <c r="C13" s="28">
-        <f t="shared" ref="C13:F13" si="16">C6-C12</f>
+        <f t="shared" ref="C13:F13" si="19">C6-C12</f>
         <v>547</v>
       </c>
       <c r="D13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>480</v>
       </c>
       <c r="E13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>574</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>663</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" ref="G13:X13" si="17">G6-G12</f>
+        <f t="shared" ref="G13:X13" si="20">G6-G12</f>
         <v>579</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>406</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>556</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>681</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>593</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>558</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>408</v>
       </c>
       <c r="N13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>478</v>
       </c>
       <c r="O13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>629</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>821</v>
       </c>
       <c r="Q13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>679</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>677</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>841</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>732</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>662</v>
       </c>
       <c r="V13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>688</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>692</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>525</v>
       </c>
       <c r="Y13" s="28">
         <f>Y6-Y12</f>
         <v>568</v>
       </c>
-      <c r="Z13" s="58">
+      <c r="Z13" s="47">
         <f>Z6-Z12</f>
         <v>574.16280000000006</v>
       </c>
       <c r="AC13" s="28">
-        <f t="shared" ref="AC13:AD13" si="18">AC6-AC12</f>
+        <f t="shared" ref="AC13:AD13" si="21">AC6-AC12</f>
         <v>2197</v>
       </c>
       <c r="AD13" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2325</v>
       </c>
       <c r="AE13" s="28">
-        <f t="shared" ref="AE13:AG13" si="19">AE6-AE12</f>
+        <f t="shared" ref="AE13:AG13" si="22">AE6-AE12</f>
         <v>1688</v>
       </c>
       <c r="AF13" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2222</v>
       </c>
       <c r="AG13" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2037</v>
       </c>
       <c r="AH13" s="28">
-        <f t="shared" ref="AH13" si="20">AH6-AH12</f>
+        <f t="shared" ref="AH13" si="23">AH6-AH12</f>
         <v>2806</v>
       </c>
       <c r="AI13" s="28">
         <f>AI6-AI12</f>
         <v>2923</v>
       </c>
-      <c r="AJ13" s="58">
+      <c r="AJ13" s="47">
         <f>AJ6-AJ12</f>
         <v>2359.162800000001</v>
       </c>
@@ -3346,7 +3466,7 @@
       <c r="Y14" s="29">
         <v>-593</v>
       </c>
-      <c r="Z14" s="55">
+      <c r="Z14" s="44">
         <v>-700</v>
       </c>
       <c r="AC14" s="29">
@@ -3356,27 +3476,27 @@
         <v>0</v>
       </c>
       <c r="AE14" s="29">
-        <f t="shared" ref="AE14:AE15" si="21">SUM(F14:I14)</f>
+        <f t="shared" ref="AE14:AE15" si="24">SUM(F14:I14)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="29">
-        <f t="shared" ref="AF14:AF15" si="22">SUM(G14:J14)</f>
+        <f t="shared" ref="AF14:AF15" si="25">SUM(G14:J14)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="29">
-        <f t="shared" ref="AG14:AG15" si="23">SUM(K14:N14)</f>
+        <f t="shared" ref="AG14:AG15" si="26">SUM(K14:N14)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="29">
-        <f t="shared" ref="AH14:AH19" si="24">SUM(O14:R14)</f>
+        <f t="shared" ref="AH14:AH19" si="27">SUM(O14:R14)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="29">
-        <f t="shared" ref="AI14:AI15" si="25">SUM(S14:V14)</f>
+        <f t="shared" ref="AI14:AI15" si="28">SUM(S14:V14)</f>
         <v>-2365</v>
       </c>
-      <c r="AJ14" s="55">
-        <f t="shared" ref="AJ14:AJ19" si="26">SUM(W14:Z14)</f>
+      <c r="AJ14" s="44">
+        <f t="shared" ref="AJ14:AJ19" si="29">SUM(W14:Z14)</f>
         <v>-4805</v>
       </c>
     </row>
@@ -3453,7 +3573,7 @@
       <c r="Y15" s="29">
         <v>-29</v>
       </c>
-      <c r="Z15" s="55">
+      <c r="Z15" s="44">
         <f>AVERAGE(V15:Y15)</f>
         <v>-21</v>
       </c>
@@ -3464,27 +3584,27 @@
         <v>1326</v>
       </c>
       <c r="AE15" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>559</v>
       </c>
       <c r="AF15" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>496</v>
       </c>
       <c r="AG15" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-113</v>
       </c>
       <c r="AH15" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>711</v>
       </c>
       <c r="AI15" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-160</v>
       </c>
-      <c r="AJ15" s="55">
-        <f t="shared" si="26"/>
+      <c r="AJ15" s="44">
+        <f t="shared" si="29"/>
         <v>-131</v>
       </c>
     </row>
@@ -3493,31 +3613,31 @@
         <v>83</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" ref="C16:F16" si="27">C13+C14+C15</f>
+        <f t="shared" ref="C16:F16" si="30">C13+C14+C15</f>
         <v>558</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>462</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>694</v>
       </c>
       <c r="F16" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>561</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" ref="G16:X16" si="28">G13+G14+G15</f>
+        <f t="shared" ref="G16:X16" si="31">G13+G14+G15</f>
         <v>547</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>707</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>948</v>
       </c>
       <c r="J16" s="29">
@@ -3525,27 +3645,27 @@
         <v>516</v>
       </c>
       <c r="K16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>657</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>507</v>
       </c>
       <c r="M16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>266</v>
       </c>
       <c r="N16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>494</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>631</v>
       </c>
       <c r="P16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1003</v>
       </c>
       <c r="Q16" s="29">
@@ -3553,75 +3673,75 @@
         <v>774</v>
       </c>
       <c r="R16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1109</v>
       </c>
       <c r="S16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>724</v>
       </c>
       <c r="T16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>401</v>
       </c>
       <c r="U16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>434</v>
       </c>
       <c r="V16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1161</v>
       </c>
       <c r="W16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1649</v>
       </c>
       <c r="X16" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-727</v>
       </c>
       <c r="Y16" s="29">
         <f>Y13+Y14+Y15</f>
         <v>-54</v>
       </c>
-      <c r="Z16" s="55">
+      <c r="Z16" s="44">
         <f>Z13+Z14+Z15</f>
         <v>-146.83719999999994</v>
       </c>
       <c r="AC16" s="29">
-        <f t="shared" ref="AC16:AH16" si="29">AC13+AC14+AC15</f>
+        <f t="shared" ref="AC16:AH16" si="32">AC13+AC14+AC15</f>
         <v>2406</v>
       </c>
       <c r="AD16" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3651</v>
       </c>
       <c r="AE16" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2247</v>
       </c>
       <c r="AF16" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2718</v>
       </c>
       <c r="AG16" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1924</v>
       </c>
       <c r="AH16" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3517</v>
       </c>
       <c r="AI16" s="29">
         <f>AI13+AI14+AI15</f>
         <v>398</v>
       </c>
-      <c r="AJ16" s="55">
+      <c r="AJ16" s="44">
         <f>AJ13+AJ14+AJ15</f>
         <v>-2576.837199999999</v>
       </c>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:46">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
@@ -3694,7 +3814,7 @@
       <c r="Y17" s="29">
         <v>-16</v>
       </c>
-      <c r="Z17" s="55">
+      <c r="Z17" s="44">
         <f>AVERAGE(V17:Y17)</f>
         <v>188.25</v>
       </c>
@@ -3705,164 +3825,164 @@
         <v>3634</v>
       </c>
       <c r="AE17" s="29">
-        <f t="shared" ref="AE17" si="30">SUM(F17:I17)</f>
+        <f t="shared" ref="AE17" si="33">SUM(F17:I17)</f>
         <v>-3595</v>
       </c>
       <c r="AF17" s="29">
-        <f t="shared" ref="AF17" si="31">SUM(G17:J17)</f>
+        <f t="shared" ref="AF17" si="34">SUM(G17:J17)</f>
         <v>-190</v>
       </c>
       <c r="AG17" s="29">
-        <f t="shared" ref="AG17" si="32">SUM(K17:N17)</f>
+        <f t="shared" ref="AG17" si="35">SUM(K17:N17)</f>
         <v>-329</v>
       </c>
       <c r="AH17" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-890</v>
       </c>
       <c r="AI17" s="29">
-        <f t="shared" ref="AI17" si="33">SUM(S17:V17)</f>
+        <f t="shared" ref="AI17" si="36">SUM(S17:V17)</f>
         <v>-146</v>
       </c>
-      <c r="AJ17" s="55">
-        <f t="shared" si="26"/>
+      <c r="AJ17" s="44">
+        <f t="shared" si="29"/>
         <v>673.25</v>
       </c>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:46">
       <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="29">
-        <f t="shared" ref="C18:F18" si="34">C16+C17</f>
+        <f t="shared" ref="C18:F18" si="37">C16+C17</f>
         <v>1035</v>
       </c>
       <c r="D18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>29</v>
       </c>
       <c r="E18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>520</v>
       </c>
       <c r="F18" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-2597</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" ref="G18:X18" si="35">G16+G17</f>
+        <f t="shared" ref="G18:X18" si="38">G16+G17</f>
         <v>407</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>638</v>
       </c>
       <c r="I18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>720</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>763</v>
       </c>
       <c r="K18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>516</v>
       </c>
       <c r="L18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>400</v>
       </c>
       <c r="M18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>210</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>469</v>
       </c>
       <c r="O18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>485</v>
       </c>
       <c r="P18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>740</v>
       </c>
       <c r="Q18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>621</v>
       </c>
       <c r="R18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>781</v>
       </c>
       <c r="S18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>568</v>
       </c>
       <c r="T18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>294</v>
       </c>
       <c r="U18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>283</v>
       </c>
       <c r="V18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-893</v>
       </c>
       <c r="W18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-1339</v>
       </c>
       <c r="X18" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-536</v>
       </c>
       <c r="Y18" s="29">
         <f>Y16+Y17</f>
         <v>-70</v>
       </c>
-      <c r="Z18" s="55">
+      <c r="Z18" s="44">
         <f>Z16+Z17</f>
         <v>41.412800000000061</v>
       </c>
       <c r="AC18" s="29">
-        <f t="shared" ref="AC18:AH18" si="36">AC16+AC17</f>
+        <f t="shared" ref="AC18:AH18" si="39">AC16+AC17</f>
         <v>1947</v>
       </c>
       <c r="AD18" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>7285</v>
       </c>
       <c r="AE18" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1348</v>
       </c>
       <c r="AF18" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2528</v>
       </c>
       <c r="AG18" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1595</v>
       </c>
       <c r="AH18" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2627</v>
       </c>
       <c r="AI18" s="29">
         <f>AI16+AI17</f>
         <v>252</v>
       </c>
-      <c r="AJ18" s="55">
+      <c r="AJ18" s="44">
         <f>AJ16+AJ17</f>
         <v>-1903.587199999999</v>
       </c>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:46">
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
@@ -3935,7 +4055,7 @@
       <c r="Y19" s="29">
         <v>1</v>
       </c>
-      <c r="Z19" s="55">
+      <c r="Z19" s="44">
         <v>2</v>
       </c>
       <c r="AC19" s="29">
@@ -3945,277 +4065,277 @@
         <v>-19</v>
       </c>
       <c r="AE19" s="29">
-        <f t="shared" ref="AE19" si="37">SUM(F19:I19)</f>
+        <f t="shared" ref="AE19" si="40">SUM(F19:I19)</f>
         <v>1</v>
       </c>
       <c r="AF19" s="29">
-        <f t="shared" ref="AF19" si="38">SUM(G19:J19)</f>
+        <f t="shared" ref="AF19" si="41">SUM(G19:J19)</f>
         <v>2</v>
       </c>
       <c r="AG19" s="29">
-        <f t="shared" ref="AG19" si="39">SUM(K19:N19)</f>
+        <f t="shared" ref="AG19" si="42">SUM(K19:N19)</f>
         <v>191</v>
       </c>
       <c r="AH19" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3040</v>
       </c>
       <c r="AI19" s="29">
-        <f t="shared" ref="AI19" si="40">SUM(S19:V19)</f>
+        <f t="shared" ref="AI19" si="43">SUM(S19:V19)</f>
         <v>13356</v>
       </c>
-      <c r="AJ19" s="55">
-        <f t="shared" si="26"/>
+      <c r="AJ19" s="44">
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:36" s="2" customFormat="1">
+    <row r="20" spans="2:46" s="2" customFormat="1">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" ref="C20:F20" si="41">C18+C19</f>
+        <f t="shared" ref="C20:F20" si="44">C18+C19</f>
         <v>1035</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>29</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>520</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-2601</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" ref="G20:X20" si="42">G18+G19</f>
+        <f t="shared" ref="G20:X20" si="45">G18+G19</f>
         <v>407</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>642</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>721</v>
       </c>
       <c r="J20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>760</v>
       </c>
       <c r="K20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>518</v>
       </c>
       <c r="L20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>402</v>
       </c>
       <c r="M20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>310</v>
       </c>
       <c r="N20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>556</v>
       </c>
       <c r="O20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>3412</v>
       </c>
       <c r="P20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>746</v>
       </c>
       <c r="Q20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>664</v>
       </c>
       <c r="R20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>845</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>641</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>10734</v>
       </c>
       <c r="U20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>264</v>
       </c>
       <c r="V20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1969</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1341</v>
       </c>
       <c r="X20" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-531</v>
       </c>
       <c r="Y20" s="28">
         <f>Y18+Y19</f>
         <v>-69</v>
       </c>
-      <c r="Z20" s="58">
+      <c r="Z20" s="47">
         <f>Z18+Z19</f>
         <v>43.412800000000061</v>
       </c>
       <c r="AC20" s="28">
-        <f t="shared" ref="AC20:AH20" si="43">AC18+AC19</f>
+        <f t="shared" ref="AC20:AH20" si="46">AC18+AC19</f>
         <v>1725</v>
       </c>
       <c r="AD20" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>7266</v>
       </c>
       <c r="AE20" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-1347</v>
       </c>
       <c r="AF20" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2530</v>
       </c>
       <c r="AG20" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1786</v>
       </c>
       <c r="AH20" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>5667</v>
       </c>
       <c r="AI20" s="28">
         <f>AI18+AI19</f>
         <v>13608</v>
       </c>
-      <c r="AJ20" s="58">
+      <c r="AJ20" s="47">
         <f>AJ18+AJ19</f>
         <v>-1897.587199999999</v>
       </c>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:46">
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="30">
-        <f t="shared" ref="C21:F21" si="44">C20/C22</f>
+        <f t="shared" ref="C21:F21" si="47">C20/C22</f>
         <v>0.95567867036011078</v>
       </c>
       <c r="D21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2.6951672862453532E-2</v>
       </c>
       <c r="E21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.4896421845574388</v>
       </c>
       <c r="F21" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-2.5130434782608697</v>
       </c>
       <c r="G21" s="30">
-        <f t="shared" ref="G21:N21" si="45">G20/G22</f>
+        <f t="shared" ref="G21:N21" si="48">G20/G22</f>
         <v>0.402970297029703</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.64717741935483875</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.74024640657084184</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.8</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.5755555555555556</v>
       </c>
       <c r="L21" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.46744186046511627</v>
       </c>
       <c r="M21" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.37349397590361444</v>
       </c>
       <c r="N21" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.68897149938042135</v>
       </c>
       <c r="O21" s="30">
-        <f t="shared" ref="O21:Y21" si="46">O20/O22</f>
+        <f t="shared" ref="O21:Y21" si="49">O20/O22</f>
         <v>4.5312084993359898</v>
       </c>
       <c r="P21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1.0611664295874823</v>
       </c>
       <c r="Q21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.95402298850574707</v>
       </c>
       <c r="R21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1.2281976744186047</v>
       </c>
       <c r="S21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.94126284875183552</v>
       </c>
       <c r="T21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>15.925816023738873</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.40121580547112462</v>
       </c>
       <c r="V21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3.2491749174917492</v>
       </c>
       <c r="W21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-2.2844974446337307</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.95503597122302153</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.12715165313356303</v>
       </c>
-      <c r="Z21" s="59">
+      <c r="Z21" s="48">
         <f>Z20/Z22</f>
         <v>8.0000134596474676E-2</v>
       </c>
       <c r="AC21" s="30">
-        <f t="shared" ref="AC21" si="47">AC20/AC22</f>
+        <f t="shared" ref="AC21" si="50">AC20/AC22</f>
         <v>1.4279801324503312</v>
       </c>
       <c r="AD21" s="30">
-        <f t="shared" ref="AD21" si="48">AD20/AD22</f>
+        <f t="shared" ref="AD21" si="51">AD20/AD22</f>
         <v>6.4130626654898499</v>
       </c>
       <c r="AE21" s="30">
-        <f t="shared" ref="AE21:AF21" si="49">AE20/AE22</f>
+        <f t="shared" ref="AE21:AF21" si="52">AE20/AE22</f>
         <v>-1.3014492753623188</v>
       </c>
       <c r="AF21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2.6631578947368419</v>
       </c>
       <c r="AG21" s="30">
@@ -4230,12 +4350,12 @@
         <f>AI20/AI22</f>
         <v>20.871165644171779</v>
       </c>
-      <c r="AJ21" s="59">
+      <c r="AJ21" s="48">
         <f>AJ20/AJ22</f>
         <v>-3.496831151378101</v>
       </c>
     </row>
-    <row r="22" spans="2:36" s="29" customFormat="1">
+    <row r="22" spans="2:46" s="29" customFormat="1">
       <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
@@ -4308,7 +4428,7 @@
       <c r="Y22" s="29">
         <v>542.659087</v>
       </c>
-      <c r="Z22" s="55">
+      <c r="Z22" s="44">
         <f>Y22</f>
         <v>542.659087</v>
       </c>
@@ -4335,45 +4455,45 @@
       <c r="AI22" s="29">
         <v>652</v>
       </c>
-      <c r="AJ22" s="55">
+      <c r="AJ22" s="44">
         <f>Z22</f>
         <v>542.659087</v>
       </c>
     </row>
-    <row r="24" spans="2:36" s="2" customFormat="1">
+    <row r="24" spans="2:46" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G24" s="31">
-        <f t="shared" ref="G24:J24" si="50">G4/C4-1</f>
+        <f t="shared" ref="G24:J24" si="53">G4/C4-1</f>
         <v>0.12027789839339986</v>
       </c>
       <c r="H24" s="31">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>9.1360066143034269E-2</v>
       </c>
       <c r="I24" s="31">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>6.0448358686949533E-2</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>6.2800147765053493E-2</v>
       </c>
       <c r="K24" s="31">
-        <f t="shared" ref="K24" si="51">K4/G4-1</f>
+        <f t="shared" ref="K24" si="54">K4/G4-1</f>
         <v>-6.4728682170542617E-2</v>
       </c>
       <c r="L24" s="31">
-        <f t="shared" ref="L24" si="52">L4/H4-1</f>
+        <f t="shared" ref="L24" si="55">L4/H4-1</f>
         <v>-8.2196969696969657E-2</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" ref="M24" si="53">M4/I4-1</f>
+        <f t="shared" ref="M24" si="56">M4/I4-1</f>
         <v>-0.21366553416383538</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24" si="54">N4/J4-1</f>
+        <f t="shared" ref="N24" si="57">N4/J4-1</f>
         <v>-0.22280152937087239</v>
       </c>
       <c r="O24" s="31">
@@ -4393,51 +4513,51 @@
         <v>0.28264758497316644</v>
       </c>
       <c r="S24" s="31">
-        <f t="shared" ref="S24:T24" si="55">S4/O4-1</f>
+        <f t="shared" ref="S24:T24" si="58">S4/O4-1</f>
         <v>0.11120471777590568</v>
       </c>
       <c r="T24" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>-6.8760907504363034E-2</v>
       </c>
       <c r="U24" s="31">
-        <f>U4/Q4-1</f>
+        <f t="shared" ref="U24:Z24" si="59">U4/Q4-1</f>
         <v>-4.0291634689178846E-2</v>
       </c>
       <c r="V24" s="31">
-        <f>V4/R4-1</f>
+        <f t="shared" si="59"/>
         <v>-8.8912133891213441E-2</v>
       </c>
       <c r="W24" s="31">
-        <f>W4/S4-1</f>
+        <f t="shared" si="59"/>
         <v>-5.8756633813495052E-2</v>
       </c>
       <c r="X24" s="31">
-        <f>X4/T4-1</f>
+        <f t="shared" si="59"/>
         <v>-9.2203898050974509E-2</v>
       </c>
       <c r="Y24" s="31">
-        <f>Y4/U4-1</f>
+        <f t="shared" si="59"/>
         <v>-4.8380647740903671E-2</v>
       </c>
-      <c r="Z24" s="60">
-        <f>Z4/V4-1</f>
+      <c r="Z24" s="49">
+        <f t="shared" si="59"/>
         <v>-9.8277841561423718E-2</v>
       </c>
       <c r="AD24" s="31">
-        <f t="shared" ref="AD24:AG24" si="56">AD4/AC4-1</f>
+        <f t="shared" ref="AD24:AG24" si="60">AD4/AC4-1</f>
         <v>4.5041899441340849E-2</v>
       </c>
       <c r="AE24" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.10557968593384559</v>
       </c>
       <c r="AF24" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>8.2502266545784186E-2</v>
       </c>
       <c r="AG24" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-0.14805509026614549</v>
       </c>
       <c r="AH24" s="31">
@@ -4448,93 +4568,123 @@
         <f>AI4/AH4-1</f>
         <v>-2.7349948660505885E-2</v>
       </c>
-      <c r="AJ24" s="60">
+      <c r="AJ24" s="49">
         <f>AJ4/AI4-1</f>
         <v>-7.4740882917466389E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:36">
+      <c r="AK24" s="31">
+        <v>-0.04</v>
+      </c>
+      <c r="AL24" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AM24" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AN24" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AO24" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AP24" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AQ24" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AR24" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AS24" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="AT24" s="31">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="32">
-        <f t="shared" ref="D25" si="57">D4/C4-1</f>
+        <f t="shared" ref="D25" si="61">D4/C4-1</f>
         <v>5.0369083803734283E-2</v>
       </c>
       <c r="E25" s="32">
-        <f t="shared" ref="E25" si="58">E4/D4-1</f>
+        <f t="shared" ref="E25" si="62">E4/D4-1</f>
         <v>3.2658123191401378E-2</v>
       </c>
       <c r="F25" s="32">
-        <f t="shared" ref="F25" si="59">F4/E4-1</f>
+        <f t="shared" ref="F25" si="63">F4/E4-1</f>
         <v>8.3666933546837408E-2</v>
       </c>
       <c r="G25" s="32">
-        <f t="shared" ref="G25" si="60">G4/F4-1</f>
+        <f t="shared" ref="G25" si="64">G4/F4-1</f>
         <v>-4.691540450683418E-2</v>
       </c>
       <c r="H25" s="32">
-        <f t="shared" ref="H25" si="61">H4/G4-1</f>
+        <f t="shared" ref="H25" si="65">H4/G4-1</f>
         <v>2.3255813953488413E-2</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" ref="I25:K25" si="62">I4/H4-1</f>
+        <f t="shared" ref="I25:K25" si="66">I4/H4-1</f>
         <v>3.4090909090909172E-3</v>
       </c>
       <c r="J25" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>8.6070215175537923E-2</v>
       </c>
       <c r="K25" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>-0.1612791101842197</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" ref="L25:N25" si="63">L4/K4-1</f>
+        <f t="shared" ref="L25:N25" si="67">L4/K4-1</f>
         <v>4.1442188147533532E-3</v>
       </c>
       <c r="M25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-0.14032191498142799</v>
       </c>
       <c r="N25" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>7.3451752280364824E-2</v>
       </c>
       <c r="O25" s="32">
-        <f t="shared" ref="O25:P25" si="64">O4/N4-1</f>
+        <f t="shared" ref="O25:P25" si="68">O4/N4-1</f>
         <v>6.1717352415026738E-2</v>
       </c>
       <c r="P25" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0.20682392586352139</v>
       </c>
       <c r="Q25" s="32">
-        <f t="shared" ref="Q25:W25" si="65">Q4/P4-1</f>
+        <f t="shared" ref="Q25:W25" si="69">Q4/P4-1</f>
         <v>-9.0401396160558423E-2</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.10053722179585578</v>
       </c>
       <c r="S25" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-8.0195258019525761E-2</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1.1372251705837666E-2</v>
       </c>
       <c r="U25" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-6.2593703148425828E-2</v>
       </c>
       <c r="V25" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>4.4782087165133877E-2</v>
       </c>
       <c r="W25" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-4.9751243781094523E-2</v>
       </c>
       <c r="X25" s="32">
@@ -4545,7 +4695,7 @@
         <f>Y4/X4-1</f>
         <v>-1.7341040462427793E-2</v>
       </c>
-      <c r="Z25" s="56">
+      <c r="Z25" s="45">
         <v>-0.01</v>
       </c>
       <c r="AC25" s="19" t="s">
@@ -4569,80 +4719,80 @@
       <c r="AI25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AJ25" s="61" t="s">
+      <c r="AJ25" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:46">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="32">
-        <f t="shared" ref="C27:G27" si="66">C6/C4</f>
+        <f t="shared" ref="C27:G27" si="70">C6/C4</f>
         <v>0.77681285280069479</v>
       </c>
       <c r="D27" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.76849937990905337</v>
       </c>
       <c r="E27" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.77702161729383512</v>
       </c>
       <c r="F27" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.78204654599187295</v>
       </c>
       <c r="G27" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="H27" s="32">
-        <f t="shared" ref="H27:I27" si="67">H6/H4</f>
+        <f t="shared" ref="H27:I27" si="71">H6/H4</f>
         <v>0.77386363636363631</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.77047942619856546</v>
       </c>
       <c r="J27" s="32">
-        <f t="shared" ref="J27:K27" si="68">J6/J4</f>
+        <f t="shared" ref="J27:K27" si="72">J6/J4</f>
         <v>0.78519290928050056</v>
       </c>
       <c r="K27" s="32">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.77662660588479071</v>
       </c>
       <c r="L27" s="32">
-        <f t="shared" ref="L27" si="69">L6/L4</f>
+        <f t="shared" ref="L27" si="73">L6/L4</f>
         <v>0.77177053239785387</v>
       </c>
       <c r="M27" s="32">
-        <f t="shared" ref="M27:N27" si="70">M6/M4</f>
+        <f t="shared" ref="M27:N27" si="74">M6/M4</f>
         <v>0.74555928948631778</v>
       </c>
       <c r="N27" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.75134168157423975</v>
       </c>
       <c r="O27" s="32">
-        <f t="shared" ref="O27" si="71">O6/O4</f>
+        <f t="shared" ref="O27" si="75">O6/O4</f>
         <v>0.77843302443133955</v>
       </c>
       <c r="P27" s="32">
-        <f t="shared" ref="P27" si="72">P6/P4</f>
+        <f t="shared" ref="P27" si="76">P6/P4</f>
         <v>0.79127399650959862</v>
       </c>
       <c r="Q27" s="32">
-        <f t="shared" ref="Q27" si="73">Q6/Q4</f>
+        <f t="shared" ref="Q27" si="77">Q6/Q4</f>
         <v>0.7482732156561781</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" ref="R27:S27" si="74">R6/R4</f>
+        <f t="shared" ref="R27:S27" si="78">R6/R4</f>
         <v>0.74128312412831243</v>
       </c>
       <c r="S27" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0.77028051554207733</v>
       </c>
       <c r="T27" s="32">
@@ -4654,11 +4804,11 @@
         <v>0.72890843662534988</v>
       </c>
       <c r="V27" s="32">
-        <f t="shared" ref="V27" si="75">V6/V4</f>
+        <f t="shared" ref="V27" si="79">V6/V4</f>
         <v>0.73440489858400304</v>
       </c>
       <c r="W27" s="32">
-        <f t="shared" ref="W27" si="76">W6/W4</f>
+        <f t="shared" ref="W27" si="80">W6/W4</f>
         <v>0.72251308900523559</v>
       </c>
       <c r="X27" s="32">
@@ -4669,112 +4819,142 @@
         <f>Y6/Y4</f>
         <v>0.72815126050420165</v>
       </c>
-      <c r="Z27" s="56">
+      <c r="Z27" s="45">
         <v>0.73</v>
       </c>
       <c r="AC27" s="32">
-        <f t="shared" ref="AC27:AD27" si="77">AC6/AC4</f>
+        <f t="shared" ref="AC27:AD27" si="81">AC6/AC4</f>
         <v>0.79387802607076352</v>
       </c>
       <c r="AD27" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.77647844971600399</v>
       </c>
       <c r="AE27" s="32">
-        <f t="shared" ref="AE27:AG27" si="78">AE6/AE4</f>
+        <f t="shared" ref="AE27:AG27" si="82">AE6/AE4</f>
         <v>0.77626674725496125</v>
       </c>
       <c r="AF27" s="32">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0.77833612506979344</v>
       </c>
       <c r="AG27" s="32">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0.76209721463681046</v>
       </c>
       <c r="AH27" s="32">
-        <f t="shared" ref="AH27" si="79">AH6/AH4</f>
+        <f t="shared" ref="AH27" si="83">AH6/AH4</f>
         <v>0.76458508354335852</v>
       </c>
       <c r="AI27" s="32">
         <f>AI6/AI4</f>
         <v>0.74568138195777356</v>
       </c>
-      <c r="AJ27" s="56">
+      <c r="AJ27" s="45">
         <f>AJ6/AJ4</f>
         <v>0.72667572501348388</v>
       </c>
-    </row>
-    <row r="28" spans="2:36">
+      <c r="AK27" s="32">
+        <v>0.73</v>
+      </c>
+      <c r="AL27" s="32">
+        <v>0.73</v>
+      </c>
+      <c r="AM27" s="32">
+        <v>0.74</v>
+      </c>
+      <c r="AN27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AO27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AP27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AQ27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AR27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AS27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AT27" s="32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46">
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="32">
-        <f t="shared" ref="C28:G28" si="80">C13/C4</f>
+        <f t="shared" ref="C28:G28" si="84">C13/C4</f>
         <v>0.23751628310898829</v>
       </c>
       <c r="D28" s="32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.19842910293509713</v>
       </c>
       <c r="E28" s="32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.22978382706164932</v>
       </c>
       <c r="F28" s="32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.24492057628370889</v>
       </c>
       <c r="G28" s="32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.22441860465116278</v>
       </c>
       <c r="H28" s="32">
-        <f t="shared" ref="H28:I28" si="81">H13/H4</f>
+        <f t="shared" ref="H28:I28" si="85">H13/H4</f>
         <v>0.15378787878787878</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.20989052472631181</v>
       </c>
       <c r="J28" s="32">
-        <f t="shared" ref="J28:K28" si="82">J13/J4</f>
+        <f t="shared" ref="J28:K28" si="86">J13/J4</f>
         <v>0.23670490093847757</v>
       </c>
       <c r="K28" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.24575217571487776</v>
       </c>
       <c r="L28" s="32">
-        <f t="shared" ref="L28" si="83">L13/L4</f>
+        <f t="shared" ref="L28" si="87">L13/L4</f>
         <v>0.2302930251754024</v>
       </c>
       <c r="M28" s="32">
-        <f t="shared" ref="M28:N28" si="84">M13/M4</f>
+        <f t="shared" ref="M28:N28" si="88">M13/M4</f>
         <v>0.19587133941430629</v>
       </c>
       <c r="N28" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.21377459749552774</v>
       </c>
       <c r="O28" s="32">
-        <f t="shared" ref="O28" si="85">O13/O4</f>
+        <f t="shared" ref="O28" si="89">O13/O4</f>
         <v>0.26495366470092668</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" ref="P28" si="86">P13/P4</f>
+        <f t="shared" ref="P28" si="90">P13/P4</f>
         <v>0.28656195462478184</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" ref="Q28" si="87">Q13/Q4</f>
+        <f t="shared" ref="Q28" si="91">Q13/Q4</f>
         <v>0.26055257099002305</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" ref="R28:S28" si="88">R13/R4</f>
+        <f t="shared" ref="R28:S28" si="92">R13/R4</f>
         <v>0.23605299860529985</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0.31880212282031845</v>
       </c>
       <c r="T28" s="32">
@@ -4786,11 +4966,11 @@
         <v>0.2646941223510596</v>
       </c>
       <c r="V28" s="32">
-        <f t="shared" ref="V28" si="89">V13/V4</f>
+        <f t="shared" ref="V28" si="93">V13/V4</f>
         <v>0.26329889016456182</v>
       </c>
       <c r="W28" s="32">
-        <f t="shared" ref="W28" si="90">W13/W4</f>
+        <f t="shared" ref="W28" si="94">W13/W4</f>
         <v>0.27869512686266612</v>
       </c>
       <c r="X28" s="32">
@@ -4801,113 +4981,113 @@
         <f>Y13/Y4</f>
         <v>0.23865546218487396</v>
       </c>
-      <c r="Z28" s="56">
+      <c r="Z28" s="45">
         <f>Z13/Z4</f>
         <v>0.24368169085816149</v>
       </c>
       <c r="AC28" s="32">
-        <f t="shared" ref="AC28:AD28" si="91">AC13/AC4</f>
+        <f t="shared" ref="AC28:AD28" si="95">AC13/AC4</f>
         <v>0.25570297951582865</v>
       </c>
       <c r="AD28" s="32">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>0.25893752088205813</v>
       </c>
       <c r="AE28" s="32">
-        <f t="shared" ref="AE28:AG28" si="92">AE13/AE4</f>
+        <f t="shared" ref="AE28:AG28" si="96">AE13/AE4</f>
         <v>0.17004130150095698</v>
       </c>
       <c r="AF28" s="32">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0.20677461380978968</v>
       </c>
       <c r="AG28" s="32">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>0.2225013653741125</v>
       </c>
       <c r="AH28" s="32">
-        <f t="shared" ref="AH28" si="93">AH13/AH4</f>
+        <f t="shared" ref="AH28" si="97">AH13/AH4</f>
         <v>0.26192476430504996</v>
       </c>
       <c r="AI28" s="32">
         <f>AI13/AI4</f>
         <v>0.28051823416506716</v>
       </c>
-      <c r="AJ28" s="56">
+      <c r="AJ28" s="45">
         <f>AJ13/AJ4</f>
         <v>0.24469597145583546</v>
       </c>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:46">
       <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="32">
-        <f t="shared" ref="C29:G29" si="94">C20/C4</f>
+        <f t="shared" ref="C29:G29" si="98">C20/C4</f>
         <v>0.44941380807642206</v>
       </c>
       <c r="D29" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>1.1988424968995453E-2</v>
       </c>
       <c r="E29" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.20816653322658127</v>
       </c>
       <c r="F29" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.96084226080531954</v>
       </c>
       <c r="G29" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.15775193798449613</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" ref="H29:I29" si="95">H20/H4</f>
+        <f t="shared" ref="H29:I29" si="99">H20/H4</f>
         <v>0.24318181818181819</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.27217818044545111</v>
       </c>
       <c r="J29" s="32">
-        <f t="shared" ref="J29:K29" si="96">J20/J4</f>
+        <f t="shared" ref="J29:K29" si="100">J20/J4</f>
         <v>0.26416405978449775</v>
       </c>
       <c r="K29" s="32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.21467053460422711</v>
       </c>
       <c r="L29" s="32">
-        <f t="shared" ref="L29" si="97">L20/L4</f>
+        <f t="shared" ref="L29" si="101">L20/L4</f>
         <v>0.16591002888980602</v>
       </c>
       <c r="M29" s="32">
-        <f t="shared" ref="M29:N29" si="98">M20/M4</f>
+        <f t="shared" ref="M29:N29" si="102">M20/M4</f>
         <v>0.14882381180988957</v>
       </c>
       <c r="N29" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.24865831842576028</v>
       </c>
       <c r="O29" s="32">
-        <f t="shared" ref="O29" si="99">O20/O4</f>
+        <f t="shared" ref="O29" si="103">O20/O4</f>
         <v>1.4372367312552654</v>
       </c>
       <c r="P29" s="32">
-        <f t="shared" ref="P29" si="100">P20/P4</f>
+        <f t="shared" ref="P29" si="104">P20/P4</f>
         <v>0.26038394415357768</v>
       </c>
       <c r="Q29" s="32">
-        <f t="shared" ref="Q29" si="101">Q20/Q4</f>
+        <f t="shared" ref="Q29" si="105">Q20/Q4</f>
         <v>0.25479662317728319</v>
       </c>
       <c r="R29" s="32">
-        <f t="shared" ref="R29:S29" si="102">R20/R4</f>
+        <f t="shared" ref="R29:S29" si="106">R20/R4</f>
         <v>0.29463040446304045</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>0.24298711144806673</v>
       </c>
       <c r="T29" s="32">
@@ -4919,11 +5099,11 @@
         <v>0.10555777688924431</v>
       </c>
       <c r="V29" s="32">
-        <f t="shared" ref="V29" si="103">V20/V4</f>
+        <f t="shared" ref="V29" si="107">V20/V4</f>
         <v>0.75353999234596247</v>
       </c>
       <c r="W29" s="32">
-        <f t="shared" ref="W29" si="104">W20/W4</f>
+        <f t="shared" ref="W29" si="108">W20/W4</f>
         <v>-0.54007249295207416</v>
       </c>
       <c r="X29" s="32">
@@ -4934,113 +5114,113 @@
         <f>Y20/Y4</f>
         <v>-2.8991596638655463E-2</v>
       </c>
-      <c r="Z29" s="56">
+      <c r="Z29" s="45">
         <f>Z20/Z4</f>
         <v>1.8424921483745041E-2</v>
       </c>
       <c r="AC29" s="32">
-        <f t="shared" ref="AC29:AD29" si="105">AC20/AC4</f>
+        <f t="shared" ref="AC29:AD29" si="109">AC20/AC4</f>
         <v>0.20076815642458101</v>
       </c>
       <c r="AD29" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>0.80922151687270294</v>
       </c>
       <c r="AE29" s="32">
-        <f t="shared" ref="AE29:AG29" si="106">AE20/AE4</f>
+        <f t="shared" ref="AE29:AG29" si="110">AE20/AE4</f>
         <v>-0.13569054094892716</v>
       </c>
       <c r="AF29" s="32">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>0.23543644146659223</v>
       </c>
       <c r="AG29" s="32">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>0.19508465319497542</v>
       </c>
       <c r="AH29" s="32">
-        <f t="shared" ref="AH29" si="107">AH20/AH4</f>
+        <f t="shared" ref="AH29" si="111">AH20/AH4</f>
         <v>0.52898347801736212</v>
       </c>
       <c r="AI29" s="32">
         <f>AI20/AI4</f>
         <v>1.3059500959692898</v>
       </c>
-      <c r="AJ29" s="56">
+      <c r="AJ29" s="45">
         <f>AJ20/AJ4</f>
         <v>-0.19682064473302066</v>
       </c>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:46">
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="32">
-        <f t="shared" ref="C30:G30" si="108">ABS(C17)/ABS(C16)</f>
+        <f t="shared" ref="C30:G30" si="112">ABS(C17)/ABS(C16)</f>
         <v>0.85483870967741937</v>
       </c>
       <c r="D30" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.93722943722943719</v>
       </c>
       <c r="E30" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.25072046109510088</v>
       </c>
       <c r="F30" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>5.6292335115864525</v>
       </c>
       <c r="G30" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.25594149908592323</v>
       </c>
       <c r="H30" s="32">
-        <f t="shared" ref="H30:I30" si="109">ABS(H17)/ABS(H16)</f>
+        <f t="shared" ref="H30:I30" si="113">ABS(H17)/ABS(H16)</f>
         <v>9.7595473833097593E-2</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.24050632911392406</v>
       </c>
       <c r="J30" s="32">
-        <f t="shared" ref="J30:K30" si="110">ABS(J17)/ABS(J16)</f>
+        <f t="shared" ref="J30:K30" si="114">ABS(J17)/ABS(J16)</f>
         <v>0.47868217054263568</v>
       </c>
       <c r="K30" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>0.21461187214611871</v>
       </c>
       <c r="L30" s="32">
-        <f t="shared" ref="L30" si="111">ABS(L17)/ABS(L16)</f>
+        <f t="shared" ref="L30" si="115">ABS(L17)/ABS(L16)</f>
         <v>0.21104536489151873</v>
       </c>
       <c r="M30" s="32">
-        <f t="shared" ref="M30:N30" si="112">ABS(M17)/ABS(M16)</f>
+        <f t="shared" ref="M30:N30" si="116">ABS(M17)/ABS(M16)</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="N30" s="32">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>5.0607287449392711E-2</v>
       </c>
       <c r="O30" s="32">
-        <f t="shared" ref="O30" si="113">ABS(O17)/ABS(O16)</f>
+        <f t="shared" ref="O30" si="117">ABS(O17)/ABS(O16)</f>
         <v>0.23137876386687797</v>
       </c>
       <c r="P30" s="32">
-        <f t="shared" ref="P30" si="114">ABS(P17)/ABS(P16)</f>
+        <f t="shared" ref="P30" si="118">ABS(P17)/ABS(P16)</f>
         <v>0.26221335992023931</v>
       </c>
       <c r="Q30" s="32">
-        <f t="shared" ref="Q30" si="115">ABS(Q17)/ABS(Q16)</f>
+        <f t="shared" ref="Q30" si="119">ABS(Q17)/ABS(Q16)</f>
         <v>0.19767441860465115</v>
       </c>
       <c r="R30" s="32">
-        <f t="shared" ref="R30:S30" si="116">ABS(R17)/ABS(R16)</f>
+        <f t="shared" ref="R30:S30" si="120">ABS(R17)/ABS(R16)</f>
         <v>0.29576194770063119</v>
       </c>
       <c r="S30" s="32">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0.21546961325966851</v>
       </c>
       <c r="T30" s="32">
@@ -5052,11 +5232,11 @@
         <v>0.34792626728110598</v>
       </c>
       <c r="V30" s="32">
-        <f t="shared" ref="V30" si="117">ABS(V17)/ABS(V16)</f>
+        <f t="shared" ref="V30" si="121">ABS(V17)/ABS(V16)</f>
         <v>0.23083548664944015</v>
       </c>
       <c r="W30" s="32">
-        <f t="shared" ref="W30" si="118">ABS(W17)/ABS(W16)</f>
+        <f t="shared" ref="W30" si="122">ABS(W17)/ABS(W16)</f>
         <v>0.18799272286234081</v>
       </c>
       <c r="X30" s="32">
@@ -5067,44 +5247,44 @@
         <f>ABS(Y17)/ABS(Y16)</f>
         <v>0.29629629629629628</v>
       </c>
-      <c r="Z30" s="56">
+      <c r="Z30" s="45">
         <f>ABS(Z17)/ABS(Z16)</f>
         <v>1.2820320736162232</v>
       </c>
       <c r="AC30" s="32">
-        <f t="shared" ref="AC30:AD30" si="119">ABS(AC17)/ABS(AC16)</f>
+        <f t="shared" ref="AC30:AD30" si="123">ABS(AC17)/ABS(AC16)</f>
         <v>0.19077306733167082</v>
       </c>
       <c r="AD30" s="32">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>0.99534374144070115</v>
       </c>
       <c r="AE30" s="32">
-        <f t="shared" ref="AE30:AG30" si="120">ABS(AE17)/ABS(AE16)</f>
+        <f t="shared" ref="AE30:AG30" si="124">ABS(AE17)/ABS(AE16)</f>
         <v>1.5999109924343569</v>
       </c>
       <c r="AF30" s="32">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>6.9904341427520236E-2</v>
       </c>
       <c r="AG30" s="32">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>0.17099792099792099</v>
       </c>
       <c r="AH30" s="32">
-        <f t="shared" ref="AH30" si="121">ABS(AH17)/ABS(AH16)</f>
+        <f t="shared" ref="AH30" si="125">ABS(AH17)/ABS(AH16)</f>
         <v>0.25305658231447259</v>
       </c>
       <c r="AI30" s="32">
         <f>ABS(AI17)/ABS(AI16)</f>
         <v>0.36683417085427134</v>
       </c>
-      <c r="AJ30" s="56">
+      <c r="AJ30" s="45">
         <f>ABS(AJ17)/ABS(AJ16)</f>
         <v>0.26126990094678865</v>
       </c>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:46">
       <c r="U32" s="29"/>
     </row>
     <row r="34" spans="2:36">
@@ -5163,7 +5343,7 @@
       <c r="Y35" s="28">
         <v>2037</v>
       </c>
-      <c r="Z35" s="54"/>
+      <c r="Z35" s="43"/>
       <c r="AC35" s="28">
         <v>1832</v>
       </c>
@@ -5190,7 +5370,7 @@
         <f>V35</f>
         <v>1379</v>
       </c>
-      <c r="AJ35" s="54"/>
+      <c r="AJ35" s="43"/>
     </row>
     <row r="36" spans="2:36" s="2" customFormat="1">
       <c r="B36" s="2" t="s">
@@ -5243,7 +5423,7 @@
       <c r="Y36" s="28">
         <v>1457</v>
       </c>
-      <c r="Z36" s="54"/>
+      <c r="Z36" s="43"/>
       <c r="AC36" s="28">
         <v>4299</v>
       </c>
@@ -5270,7 +5450,7 @@
         <f>V36</f>
         <v>5944</v>
       </c>
-      <c r="AJ36" s="54"/>
+      <c r="AJ36" s="43"/>
     </row>
     <row r="37" spans="2:36">
       <c r="B37" s="1" t="s">
@@ -5423,7 +5603,7 @@
         <v>1400</v>
       </c>
       <c r="AH38" s="29">
-        <f t="shared" ref="AH38:AH46" si="122">AG38+R38</f>
+        <f t="shared" ref="AH38:AH46" si="126">AG38+R38</f>
         <v>4352</v>
       </c>
       <c r="AI38" s="29">
@@ -5436,15 +5616,15 @@
         <v>98</v>
       </c>
       <c r="C39" s="29">
-        <f t="shared" ref="C39:D39" si="123">SUM(C35:C38)</f>
+        <f t="shared" ref="C39:D39" si="127">SUM(C35:C38)</f>
         <v>0</v>
       </c>
       <c r="D39" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" ref="E39" si="124">SUM(E35:E38)</f>
+        <f t="shared" ref="E39" si="128">SUM(E35:E38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="29">
@@ -5452,75 +5632,75 @@
         <v>7744</v>
       </c>
       <c r="G39" s="29">
-        <f t="shared" ref="G39:X39" si="125">SUM(G35:G38)</f>
+        <f t="shared" ref="G39:X39" si="129">SUM(G35:G38)</f>
         <v>6763</v>
       </c>
       <c r="H39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>6184</v>
       </c>
       <c r="I39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>6963</v>
       </c>
       <c r="J39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>7126</v>
       </c>
       <c r="K39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="N39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>4706</v>
       </c>
       <c r="O39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>6248</v>
       </c>
       <c r="P39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>7394</v>
       </c>
       <c r="Q39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>6739</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>7190</v>
       </c>
       <c r="S39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="T39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="U39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="V39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>9111</v>
       </c>
       <c r="W39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>7349</v>
       </c>
       <c r="X39" s="29">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>5067</v>
       </c>
       <c r="Y39" s="29">
@@ -5528,31 +5708,31 @@
         <v>5289</v>
       </c>
       <c r="AC39" s="29">
-        <f t="shared" ref="AC39:AD39" si="126">SUM(AC35:AC38)</f>
+        <f t="shared" ref="AC39:AD39" si="130">SUM(AC35:AC38)</f>
         <v>7904</v>
       </c>
       <c r="AD39" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>8875</v>
       </c>
       <c r="AE39" s="29">
-        <f t="shared" ref="AE39" si="127">SUM(AE35:AE38)</f>
+        <f t="shared" ref="AE39" si="131">SUM(AE35:AE38)</f>
         <v>7744</v>
       </c>
       <c r="AF39" s="29">
-        <f t="shared" ref="AF39" si="128">SUM(AF35:AF38)</f>
+        <f t="shared" ref="AF39" si="132">SUM(AF35:AF38)</f>
         <v>7126</v>
       </c>
       <c r="AG39" s="29">
-        <f t="shared" ref="AG39" si="129">SUM(AG35:AG38)</f>
+        <f t="shared" ref="AG39" si="133">SUM(AG35:AG38)</f>
         <v>4706</v>
       </c>
       <c r="AH39" s="29">
-        <f t="shared" ref="AH39" si="130">SUM(AH35:AH38)</f>
+        <f t="shared" ref="AH39" si="134">SUM(AH35:AH38)</f>
         <v>9145</v>
       </c>
       <c r="AI39" s="29">
-        <f t="shared" ref="AI39" si="131">SUM(AI35:AI38)</f>
+        <f t="shared" ref="AI39" si="135">SUM(AI35:AI38)</f>
         <v>9111</v>
       </c>
     </row>
@@ -5615,23 +5795,23 @@
         <v>3969</v>
       </c>
       <c r="AE40" s="29">
-        <f t="shared" ref="AE40:AE46" si="132">F40</f>
+        <f t="shared" ref="AE40:AE46" si="136">F40</f>
         <v>6331</v>
       </c>
       <c r="AF40" s="29">
-        <f t="shared" ref="AF40:AF46" si="133">J40</f>
+        <f t="shared" ref="AF40:AF46" si="137">J40</f>
         <v>3778</v>
       </c>
       <c r="AG40" s="29">
-        <f t="shared" ref="AG40:AG46" si="134">N40</f>
+        <f t="shared" ref="AG40:AG46" si="138">N40</f>
         <v>1275</v>
       </c>
       <c r="AH40" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>2108</v>
       </c>
       <c r="AI40" s="29">
-        <f t="shared" ref="AI40:AI60" si="135">V40</f>
+        <f t="shared" ref="AI40:AI60" si="139">V40</f>
         <v>2575</v>
       </c>
     </row>
@@ -5694,23 +5874,23 @@
         <v>1516</v>
       </c>
       <c r="AE41" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>1597</v>
       </c>
       <c r="AF41" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>1597</v>
       </c>
       <c r="AG41" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>1460</v>
       </c>
       <c r="AH41" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>2818</v>
       </c>
       <c r="AI41" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1236</v>
       </c>
     </row>
@@ -5785,23 +5965,23 @@
         <v>4603</v>
       </c>
       <c r="AE42" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>4842</v>
       </c>
       <c r="AF42" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>5252</v>
       </c>
       <c r="AG42" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>4572</v>
       </c>
       <c r="AH42" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>9259</v>
       </c>
       <c r="AI42" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>4178</v>
       </c>
     </row>
@@ -5864,23 +6044,23 @@
         <v>0</v>
       </c>
       <c r="AE43" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AF43" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AG43" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>583</v>
       </c>
       <c r="AH43" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>1092</v>
       </c>
       <c r="AI43" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>289</v>
       </c>
     </row>
@@ -5943,23 +6123,23 @@
         <v>4608</v>
       </c>
       <c r="AE44" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>5199</v>
       </c>
       <c r="AF44" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>4792</v>
       </c>
       <c r="AG44" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>3980</v>
       </c>
       <c r="AH44" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>7517</v>
       </c>
       <c r="AI44" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>3255</v>
       </c>
     </row>
@@ -6022,23 +6202,23 @@
         <v>0</v>
       </c>
       <c r="AE45" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AF45" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AG45" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AH45" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AI45" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>5391</v>
       </c>
     </row>
@@ -6103,23 +6283,23 @@
         <v>276</v>
       </c>
       <c r="AE46" s="29">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>273</v>
       </c>
       <c r="AF46" s="29">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>274</v>
       </c>
       <c r="AG46" s="29">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>1598</v>
       </c>
       <c r="AH46" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>2794</v>
       </c>
       <c r="AI46" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>591</v>
       </c>
     </row>
@@ -6128,15 +6308,15 @@
         <v>106</v>
       </c>
       <c r="C47" s="29">
-        <f t="shared" ref="C47:D47" si="136">C39+SUM(C40:C46)</f>
+        <f t="shared" ref="C47:D47" si="140">C39+SUM(C40:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="E47" s="29">
-        <f t="shared" ref="E47" si="137">E39+SUM(E40:E46)</f>
+        <f t="shared" ref="E47" si="141">E39+SUM(E40:E46)</f>
         <v>0</v>
       </c>
       <c r="F47" s="29">
@@ -6144,75 +6324,75 @@
         <v>25986</v>
       </c>
       <c r="G47" s="29">
-        <f t="shared" ref="G47:X47" si="138">G39+SUM(G40:G46)</f>
+        <f t="shared" ref="G47:X47" si="142">G39+SUM(G40:G46)</f>
         <v>24555</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>23988</v>
       </c>
       <c r="I47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>23652</v>
       </c>
       <c r="J47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>22819</v>
       </c>
       <c r="K47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="N47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>18174</v>
       </c>
       <c r="O47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>18929</v>
       </c>
       <c r="P47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>20014</v>
       </c>
       <c r="Q47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>18241</v>
       </c>
       <c r="R47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>19310</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="U47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="V47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>26626</v>
       </c>
       <c r="W47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>22980</v>
       </c>
       <c r="X47" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>19653</v>
       </c>
       <c r="Y47" s="29">
@@ -6220,31 +6400,31 @@
         <v>19097</v>
       </c>
       <c r="AC47" s="29">
-        <f t="shared" ref="AC47:AD47" si="139">AC39+SUM(AC40:AC46)</f>
+        <f t="shared" ref="AC47:AD47" si="143">AC39+SUM(AC40:AC46)</f>
         <v>17755</v>
       </c>
       <c r="AD47" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>23847</v>
       </c>
       <c r="AE47" s="29">
-        <f t="shared" ref="AE47" si="140">AE39+SUM(AE40:AE46)</f>
+        <f t="shared" ref="AE47" si="144">AE39+SUM(AE40:AE46)</f>
         <v>25986</v>
       </c>
       <c r="AF47" s="29">
-        <f t="shared" ref="AF47" si="141">AF39+SUM(AF40:AF46)</f>
+        <f t="shared" ref="AF47" si="145">AF39+SUM(AF40:AF46)</f>
         <v>22819</v>
       </c>
       <c r="AG47" s="29">
-        <f t="shared" ref="AG47" si="142">AG39+SUM(AG40:AG46)</f>
+        <f t="shared" ref="AG47" si="146">AG39+SUM(AG40:AG46)</f>
         <v>18174</v>
       </c>
       <c r="AH47" s="29">
-        <f t="shared" ref="AH47" si="143">AH39+SUM(AH40:AH46)</f>
+        <f t="shared" ref="AH47" si="147">AH39+SUM(AH40:AH46)</f>
         <v>34733</v>
       </c>
       <c r="AI47" s="29">
-        <f t="shared" ref="AI47" si="144">AI39+SUM(AI40:AI46)</f>
+        <f t="shared" ref="AI47" si="148">AI39+SUM(AI40:AI46)</f>
         <v>26626</v>
       </c>
     </row>
@@ -6325,7 +6505,7 @@
       <c r="Y49" s="28">
         <v>1150</v>
       </c>
-      <c r="Z49" s="54"/>
+      <c r="Z49" s="43"/>
       <c r="AC49" s="28">
         <v>0</v>
       </c>
@@ -6352,7 +6532,7 @@
         <f>V49</f>
         <v>1355</v>
       </c>
-      <c r="AJ49" s="54"/>
+      <c r="AJ49" s="43"/>
     </row>
     <row r="50" spans="2:36">
       <c r="B50" s="1" t="s">
@@ -6413,23 +6593,23 @@
         <v>283</v>
       </c>
       <c r="AE50" s="29">
-        <f t="shared" ref="AE50:AE60" si="145">F50</f>
+        <f t="shared" ref="AE50:AE60" si="149">F50</f>
         <v>330</v>
       </c>
       <c r="AF50" s="29">
-        <f t="shared" ref="AF50:AF60" si="146">J50</f>
+        <f t="shared" ref="AF50:AF60" si="150">J50</f>
         <v>286</v>
       </c>
       <c r="AG50" s="29">
-        <f t="shared" ref="AG50:AG60" si="147">N50</f>
+        <f t="shared" ref="AG50:AG60" si="151">N50</f>
         <v>229</v>
       </c>
       <c r="AH50" s="29">
-        <f t="shared" ref="AH50:AH55" si="148">AG50+R50</f>
+        <f t="shared" ref="AH50:AH55" si="152">AG50+R50</f>
         <v>561</v>
       </c>
       <c r="AI50" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>262</v>
       </c>
     </row>
@@ -6492,23 +6672,23 @@
         <v>110</v>
       </c>
       <c r="AE51" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>137</v>
       </c>
       <c r="AF51" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>170</v>
       </c>
       <c r="AG51" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2097</v>
       </c>
       <c r="AH51" s="29">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>5007</v>
       </c>
       <c r="AI51" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>707</v>
       </c>
     </row>
@@ -6571,23 +6751,23 @@
         <v>1893</v>
       </c>
       <c r="AE52" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>2134</v>
       </c>
       <c r="AF52" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>2335</v>
       </c>
       <c r="AG52" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>129</v>
       </c>
       <c r="AH52" s="29">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>239</v>
       </c>
       <c r="AI52" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1927</v>
       </c>
     </row>
@@ -6650,23 +6830,23 @@
         <v>110</v>
       </c>
       <c r="AE53" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>177</v>
       </c>
       <c r="AF53" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>117</v>
       </c>
       <c r="AG53" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>169</v>
       </c>
       <c r="AH53" s="29">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>349</v>
       </c>
       <c r="AI53" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>371</v>
       </c>
     </row>
@@ -6729,19 +6909,19 @@
         <v>0</v>
       </c>
       <c r="AE54" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AF54" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AG54" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>259</v>
       </c>
       <c r="AH54" s="29">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>259</v>
       </c>
       <c r="AI54" s="29">
@@ -6807,19 +6987,19 @@
         <v>0</v>
       </c>
       <c r="AE55" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AF55" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AG55" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>163</v>
       </c>
       <c r="AH55" s="29">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>615</v>
       </c>
       <c r="AI55" s="29">
@@ -6831,15 +7011,15 @@
         <v>112</v>
       </c>
       <c r="C56" s="29">
-        <f t="shared" ref="C56:D56" si="149">SUM(C49:C55)</f>
+        <f t="shared" ref="C56:D56" si="153">SUM(C49:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="E56" s="29">
-        <f t="shared" ref="E56" si="150">SUM(E49:E55)</f>
+        <f t="shared" ref="E56" si="154">SUM(E49:E55)</f>
         <v>0</v>
       </c>
       <c r="F56" s="29">
@@ -6851,103 +7031,103 @@
         <v>2568</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" ref="H56:Y56" si="151">SUM(H49:H55)</f>
+        <f t="shared" ref="H56:Y56" si="155">SUM(H49:H55)</f>
         <v>2608</v>
       </c>
       <c r="I56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4006</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4454</v>
       </c>
       <c r="K56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="L56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="M56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="N56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4066</v>
       </c>
       <c r="O56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4673</v>
       </c>
       <c r="P56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4692</v>
       </c>
       <c r="Q56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>3840</v>
       </c>
       <c r="R56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4002</v>
       </c>
       <c r="S56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="T56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="U56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4622</v>
       </c>
       <c r="W56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>4982</v>
       </c>
       <c r="X56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>3972</v>
       </c>
       <c r="Y56" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>3974</v>
       </c>
       <c r="AC56" s="29">
-        <f t="shared" ref="AC56:AD56" si="152">SUM(AC49:AC55)</f>
+        <f t="shared" ref="AC56:AD56" si="156">SUM(AC49:AC55)</f>
         <v>2263</v>
       </c>
       <c r="AD56" s="29">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>3847</v>
       </c>
       <c r="AE56" s="29">
-        <f t="shared" ref="AE56" si="153">SUM(AE49:AE55)</f>
+        <f t="shared" ref="AE56" si="157">SUM(AE49:AE55)</f>
         <v>3559</v>
       </c>
       <c r="AF56" s="29">
-        <f t="shared" ref="AF56" si="154">SUM(AF49:AF55)</f>
+        <f t="shared" ref="AF56" si="158">SUM(AF49:AF55)</f>
         <v>4454</v>
       </c>
       <c r="AG56" s="29">
-        <f t="shared" ref="AG56" si="155">SUM(AG49:AG55)</f>
+        <f t="shared" ref="AG56" si="159">SUM(AG49:AG55)</f>
         <v>4066</v>
       </c>
       <c r="AH56" s="29">
-        <f t="shared" ref="AH56" si="156">SUM(AH49:AH55)</f>
+        <f t="shared" ref="AH56" si="160">SUM(AH49:AH55)</f>
         <v>7048</v>
       </c>
       <c r="AI56" s="29">
-        <f t="shared" ref="AI56" si="157">SUM(AI49:AI55)</f>
+        <f t="shared" ref="AI56" si="161">SUM(AI49:AI55)</f>
         <v>4622</v>
       </c>
     </row>
@@ -7010,15 +7190,15 @@
         <v>0</v>
       </c>
       <c r="AE57" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AF57" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AG57" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>461</v>
       </c>
       <c r="AH57" s="29">
@@ -7026,7 +7206,7 @@
         <v>841</v>
       </c>
       <c r="AI57" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>200</v>
       </c>
     </row>
@@ -7089,15 +7269,15 @@
         <v>1888</v>
       </c>
       <c r="AE58" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>3424</v>
       </c>
       <c r="AF58" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>2925</v>
       </c>
       <c r="AG58" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2355</v>
       </c>
       <c r="AH58" s="29">
@@ -7105,7 +7285,7 @@
         <v>4714</v>
       </c>
       <c r="AI58" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>3116</v>
       </c>
     </row>
@@ -7161,7 +7341,7 @@
       <c r="Y59" s="28">
         <v>6579</v>
       </c>
-      <c r="Z59" s="54"/>
+      <c r="Z59" s="43"/>
       <c r="AC59" s="28">
         <v>6749</v>
       </c>
@@ -7188,7 +7368,7 @@
         <f>V59</f>
         <v>7727</v>
       </c>
-      <c r="AJ59" s="54"/>
+      <c r="AJ59" s="43"/>
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="1" t="s">
@@ -7250,15 +7430,15 @@
         <v>64</v>
       </c>
       <c r="AE60" s="29">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>1720</v>
       </c>
       <c r="AF60" s="29">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>1474</v>
       </c>
       <c r="AG60" s="29">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>1684</v>
       </c>
       <c r="AH60" s="29">
@@ -7266,7 +7446,7 @@
         <v>2947</v>
       </c>
       <c r="AI60" s="29">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1183</v>
       </c>
     </row>
@@ -7275,15 +7455,15 @@
         <v>117</v>
       </c>
       <c r="C61" s="29">
-        <f t="shared" ref="C61:D61" si="158">C56+SUM(C57:C60)</f>
+        <f t="shared" ref="C61:D61" si="162">C56+SUM(C57:C60)</f>
         <v>0</v>
       </c>
       <c r="D61" s="29">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" ref="E61" si="159">E56+SUM(E57:E60)</f>
+        <f t="shared" ref="E61" si="163">E56+SUM(E57:E60)</f>
         <v>0</v>
       </c>
       <c r="F61" s="29">
@@ -7291,75 +7471,75 @@
         <v>17937</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" ref="G61:X61" si="160">G56+SUM(G57:G60)</f>
+        <f t="shared" ref="G61:X61" si="164">G56+SUM(G57:G60)</f>
         <v>16959</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>16842</v>
       </c>
       <c r="I61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>16723</v>
       </c>
       <c r="J61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>16538</v>
       </c>
       <c r="K61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="L61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="M61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>15304</v>
       </c>
       <c r="O61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>16814</v>
       </c>
       <c r="P61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>17112</v>
       </c>
       <c r="Q61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>15501</v>
       </c>
       <c r="R61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>15749</v>
       </c>
       <c r="S61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="T61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="U61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>16848</v>
       </c>
       <c r="W61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>15926</v>
       </c>
       <c r="X61" s="29">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>14410</v>
       </c>
       <c r="Y61" s="29">
@@ -7367,31 +7547,31 @@
         <v>14244</v>
       </c>
       <c r="AC61" s="29">
-        <f t="shared" ref="AC61:AD61" si="161">AC56+SUM(AC57:AC60)</f>
+        <f t="shared" ref="AC61:AD61" si="165">AC56+SUM(AC57:AC60)</f>
         <v>11179</v>
       </c>
       <c r="AD61" s="29">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>13308</v>
       </c>
       <c r="AE61" s="29">
-        <f t="shared" ref="AE61" si="162">AE56+SUM(AE57:AE60)</f>
+        <f t="shared" ref="AE61" si="166">AE56+SUM(AE57:AE60)</f>
         <v>17937</v>
       </c>
       <c r="AF61" s="29">
-        <f t="shared" ref="AF61" si="163">AF56+SUM(AF57:AF60)</f>
+        <f t="shared" ref="AF61" si="167">AF56+SUM(AF57:AF60)</f>
         <v>16538</v>
       </c>
       <c r="AG61" s="29">
-        <f t="shared" ref="AG61" si="164">AG56+SUM(AG57:AG60)</f>
+        <f t="shared" ref="AG61" si="168">AG56+SUM(AG57:AG60)</f>
         <v>15304</v>
       </c>
       <c r="AH61" s="29">
-        <f t="shared" ref="AH61" si="165">AH56+SUM(AH57:AH60)</f>
+        <f t="shared" ref="AH61" si="169">AH56+SUM(AH57:AH60)</f>
         <v>23295</v>
       </c>
       <c r="AI61" s="29">
-        <f t="shared" ref="AI61" si="166">AI56+SUM(AI57:AI60)</f>
+        <f t="shared" ref="AI61" si="170">AI56+SUM(AI57:AI60)</f>
         <v>16848</v>
       </c>
     </row>
@@ -7452,7 +7632,7 @@
       <c r="Y63" s="29">
         <v>4853</v>
       </c>
-      <c r="Z63" s="55"/>
+      <c r="Z63" s="44"/>
       <c r="AC63" s="29">
         <v>6576</v>
       </c>
@@ -7460,11 +7640,11 @@
         <v>10539</v>
       </c>
       <c r="AE63" s="29">
-        <f t="shared" ref="AE63" si="167">F63</f>
+        <f t="shared" ref="AE63" si="171">F63</f>
         <v>8049</v>
       </c>
       <c r="AF63" s="29">
-        <f t="shared" ref="AF63" si="168">J63</f>
+        <f t="shared" ref="AF63" si="172">J63</f>
         <v>6281</v>
       </c>
       <c r="AG63" s="29">
@@ -7472,29 +7652,29 @@
         <v>2870</v>
       </c>
       <c r="AH63" s="29">
-        <f t="shared" ref="AH63" si="169">AG63+R63</f>
+        <f t="shared" ref="AH63" si="173">AG63+R63</f>
         <v>6431</v>
       </c>
       <c r="AI63" s="29">
         <f>V63</f>
         <v>9778</v>
       </c>
-      <c r="AJ63" s="55"/>
+      <c r="AJ63" s="44"/>
     </row>
     <row r="64" spans="2:36">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="29">
-        <f t="shared" ref="C64:D64" si="170">C63+C61</f>
+        <f t="shared" ref="C64:D64" si="174">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="29">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" ref="E64" si="171">E63+E61</f>
+        <f t="shared" ref="E64" si="175">E63+E61</f>
         <v>0</v>
       </c>
       <c r="F64" s="29">
@@ -7502,75 +7682,75 @@
         <v>25986</v>
       </c>
       <c r="G64" s="29">
-        <f t="shared" ref="G64:X64" si="172">G63+G61</f>
+        <f t="shared" ref="G64:X64" si="176">G63+G61</f>
         <v>24555</v>
       </c>
       <c r="H64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>23988</v>
       </c>
       <c r="I64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>23652</v>
       </c>
       <c r="J64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>22819</v>
       </c>
       <c r="K64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="L64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="M64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>2870</v>
       </c>
       <c r="N64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>18174</v>
       </c>
       <c r="O64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>18929</v>
       </c>
       <c r="P64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>20014</v>
       </c>
       <c r="Q64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>18421</v>
       </c>
       <c r="R64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>19310</v>
       </c>
       <c r="S64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="T64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="U64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="V64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>26626</v>
       </c>
       <c r="W64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>22980</v>
       </c>
       <c r="X64" s="29">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>19653</v>
       </c>
       <c r="Y64" s="29">
@@ -7578,31 +7758,31 @@
         <v>19097</v>
       </c>
       <c r="AC64" s="29">
-        <f t="shared" ref="AC64:AD64" si="173">AC63+AC61</f>
+        <f t="shared" ref="AC64:AD64" si="177">AC63+AC61</f>
         <v>17755</v>
       </c>
       <c r="AD64" s="29">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>23847</v>
       </c>
       <c r="AE64" s="29">
-        <f t="shared" ref="AE64" si="174">AE63+AE61</f>
+        <f t="shared" ref="AE64" si="178">AE63+AE61</f>
         <v>25986</v>
       </c>
       <c r="AF64" s="29">
-        <f t="shared" ref="AF64" si="175">AF63+AF61</f>
+        <f t="shared" ref="AF64" si="179">AF63+AF61</f>
         <v>22819</v>
       </c>
       <c r="AG64" s="29">
-        <f t="shared" ref="AG64" si="176">AG63+AG61</f>
+        <f t="shared" ref="AG64" si="180">AG63+AG61</f>
         <v>18174</v>
       </c>
       <c r="AH64" s="29">
-        <f t="shared" ref="AH64" si="177">AH63+AH61</f>
+        <f t="shared" ref="AH64" si="181">AH63+AH61</f>
         <v>29726</v>
       </c>
       <c r="AI64" s="29">
-        <f t="shared" ref="AI64" si="178">AI63+AI61</f>
+        <f t="shared" ref="AI64" si="182">AI63+AI61</f>
         <v>26626</v>
       </c>
     </row>
@@ -7618,11 +7798,11 @@
         <v>8049</v>
       </c>
       <c r="G66" s="29">
-        <f t="shared" ref="G66" si="179">G47-G61</f>
+        <f t="shared" ref="G66" si="183">G47-G61</f>
         <v>7596</v>
       </c>
       <c r="H66" s="29">
-        <f t="shared" ref="H66" si="180">H47-H61</f>
+        <f t="shared" ref="H66" si="184">H47-H61</f>
         <v>7146</v>
       </c>
       <c r="I66" s="29">
@@ -7630,7 +7810,7 @@
         <v>6929</v>
       </c>
       <c r="J66" s="29">
-        <f t="shared" ref="J66" si="181">J47-J61</f>
+        <f t="shared" ref="J66" si="185">J47-J61</f>
         <v>6281</v>
       </c>
       <c r="N66" s="29">
@@ -7638,11 +7818,11 @@
         <v>2870</v>
       </c>
       <c r="O66" s="29">
-        <f t="shared" ref="O66" si="182">O47-O61</f>
+        <f t="shared" ref="O66" si="186">O47-O61</f>
         <v>2115</v>
       </c>
       <c r="P66" s="29">
-        <f t="shared" ref="P66" si="183">P47-P61</f>
+        <f t="shared" ref="P66" si="187">P47-P61</f>
         <v>2902</v>
       </c>
       <c r="Q66" s="29">
@@ -7670,27 +7850,27 @@
         <v>4853</v>
       </c>
       <c r="AC66" s="29">
-        <f t="shared" ref="AC66:AD66" si="184">AC47-AC61</f>
+        <f t="shared" ref="AC66:AD66" si="188">AC47-AC61</f>
         <v>6576</v>
       </c>
       <c r="AD66" s="29">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>10539</v>
       </c>
       <c r="AE66" s="29">
-        <f t="shared" ref="AE66" si="185">AE47-AE61</f>
+        <f t="shared" ref="AE66" si="189">AE47-AE61</f>
         <v>8049</v>
       </c>
       <c r="AF66" s="29">
-        <f t="shared" ref="AF66:AG66" si="186">AF47-AF61</f>
+        <f t="shared" ref="AF66:AG66" si="190">AF47-AF61</f>
         <v>6281</v>
       </c>
       <c r="AG66" s="29">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>2870</v>
       </c>
       <c r="AH66" s="29">
-        <f t="shared" ref="AH66" si="187">AH47-AH61</f>
+        <f t="shared" ref="AH66" si="191">AH47-AH61</f>
         <v>11438</v>
       </c>
       <c r="AI66" s="29">
@@ -7707,11 +7887,11 @@
         <v>7.5790960451977405</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67" si="188">G66/G22</f>
+        <f t="shared" ref="G67" si="192">G66/G22</f>
         <v>7.5207920792079204</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67" si="189">H66/H22</f>
+        <f t="shared" ref="H67" si="193">H66/H22</f>
         <v>7.2036290322580649</v>
       </c>
       <c r="I67" s="1">
@@ -7719,7 +7899,7 @@
         <v>7.113963039014374</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67" si="190">J66/J22</f>
+        <f t="shared" ref="J67" si="194">J66/J22</f>
         <v>6.6115789473684208</v>
       </c>
       <c r="N67" s="1">
@@ -7727,11 +7907,11 @@
         <v>3.5563816604708798</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67" si="191">O66/O22</f>
+        <f t="shared" ref="O67" si="195">O66/O22</f>
         <v>2.808764940239044</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="192">P66/P22</f>
+        <f t="shared" ref="P67" si="196">P66/P22</f>
         <v>4.1280227596017074</v>
       </c>
       <c r="Q67" s="1">
@@ -7759,27 +7939,27 @@
         <v>8.9429996037272659</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" ref="AC67:AD67" si="193">AC66/AC22</f>
+        <f t="shared" ref="AC67:AD67" si="197">AC66/AC22</f>
         <v>5.443708609271523</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>9.301853486319505</v>
       </c>
       <c r="AE67" s="1">
-        <f t="shared" ref="AE67" si="194">AE66/AE22</f>
+        <f t="shared" ref="AE67" si="198">AE66/AE22</f>
         <v>7.7768115942028988</v>
       </c>
       <c r="AF67" s="1">
-        <f t="shared" ref="AF67:AG67" si="195">AF66/AF22</f>
+        <f t="shared" ref="AF67:AG67" si="199">AF66/AF22</f>
         <v>6.6115789473684208</v>
       </c>
       <c r="AG67" s="1">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>3.3804475853945819</v>
       </c>
       <c r="AH67" s="1">
-        <f t="shared" ref="AH67" si="196">AH66/AH22</f>
+        <f t="shared" ref="AH67" si="200">AH66/AH22</f>
         <v>16.109859154929577</v>
       </c>
       <c r="AI67" s="1">
@@ -7792,15 +7972,15 @@
         <v>6</v>
       </c>
       <c r="C69" s="35">
-        <f t="shared" ref="C69:D69" si="197">C35+C36</f>
+        <f t="shared" ref="C69:D69" si="201">C35+C36</f>
         <v>0</v>
       </c>
       <c r="D69" s="35">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="E69" s="35">
-        <f t="shared" ref="E69" si="198">E35+E36</f>
+        <f t="shared" ref="E69" si="202">E35+E36</f>
         <v>0</v>
       </c>
       <c r="F69" s="35">
@@ -7808,31 +7988,31 @@
         <v>5863</v>
       </c>
       <c r="G69" s="35">
-        <f t="shared" ref="G69:M69" si="199">G35+G36</f>
+        <f t="shared" ref="G69:M69" si="203">G35+G36</f>
         <v>4806</v>
       </c>
       <c r="H69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>4007</v>
       </c>
       <c r="I69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>4838</v>
       </c>
       <c r="J69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>4915</v>
       </c>
       <c r="K69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="L69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="M69" s="35">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="N69" s="35">
@@ -7840,15 +8020,15 @@
         <v>2751</v>
       </c>
       <c r="O69" s="35">
-        <f t="shared" ref="O69:Q69" si="200">O35+O36</f>
+        <f t="shared" ref="O69:Q69" si="204">O35+O36</f>
         <v>4430</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>5303</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>3660</v>
       </c>
       <c r="R69" s="35">
@@ -7856,15 +8036,15 @@
         <v>3826</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" ref="S69:U69" si="201">S35+S36</f>
+        <f t="shared" ref="S69:U69" si="205">S35+S36</f>
         <v>0</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="V69" s="35">
@@ -7872,62 +8052,62 @@
         <v>7323</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" ref="W69" si="202">W35+W36</f>
+        <f t="shared" ref="W69" si="206">W35+W36</f>
         <v>5569</v>
       </c>
       <c r="X69" s="35">
-        <f t="shared" ref="X69" si="203">X35+X36</f>
+        <f t="shared" ref="X69" si="207">X35+X36</f>
         <v>3225</v>
       </c>
       <c r="Y69" s="35">
         <f>Y35+Y36</f>
         <v>3494</v>
       </c>
-      <c r="Z69" s="51"/>
+      <c r="Z69" s="40"/>
       <c r="AC69" s="35">
-        <f t="shared" ref="AC69:AD69" si="204">AC35+AC36</f>
+        <f t="shared" ref="AC69:AD69" si="208">AC35+AC36</f>
         <v>6131</v>
       </c>
       <c r="AD69" s="35">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>7149</v>
       </c>
       <c r="AE69" s="35">
-        <f t="shared" ref="AE69" si="205">AE35+AE36</f>
+        <f t="shared" ref="AE69" si="209">AE35+AE36</f>
         <v>5863</v>
       </c>
       <c r="AF69" s="35">
-        <f t="shared" ref="AF69:AG69" si="206">AF35+AF36</f>
+        <f t="shared" ref="AF69:AG69" si="210">AF35+AF36</f>
         <v>4915</v>
       </c>
       <c r="AG69" s="35">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>2751</v>
       </c>
       <c r="AH69" s="35">
-        <f t="shared" ref="AH69" si="207">AH35+AH36</f>
+        <f t="shared" ref="AH69" si="211">AH35+AH36</f>
         <v>3826</v>
       </c>
       <c r="AI69" s="35">
         <f>AI35+AI36</f>
         <v>7323</v>
       </c>
-      <c r="AJ69" s="51"/>
+      <c r="AJ69" s="40"/>
     </row>
     <row r="70" spans="1:36" s="34" customFormat="1">
       <c r="B70" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="35">
-        <f t="shared" ref="C70:D70" si="208">C49+C59</f>
+        <f t="shared" ref="C70:D70" si="212">C49+C59</f>
         <v>0</v>
       </c>
       <c r="D70" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="E70" s="35">
-        <f t="shared" ref="E70" si="209">E49+E59</f>
+        <f t="shared" ref="E70" si="213">E49+E59</f>
         <v>0</v>
       </c>
       <c r="F70" s="35">
@@ -7935,31 +8115,31 @@
         <v>10015</v>
       </c>
       <c r="G70" s="35">
-        <f t="shared" ref="G70:M70" si="210">G49+G59</f>
+        <f t="shared" ref="G70:M70" si="214">G49+G59</f>
         <v>9228</v>
       </c>
       <c r="H70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>9204</v>
       </c>
       <c r="I70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>9207</v>
       </c>
       <c r="J70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>9231</v>
       </c>
       <c r="K70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="L70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="M70" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="N70" s="35">
@@ -7967,15 +8147,15 @@
         <v>7758</v>
       </c>
       <c r="O70" s="35">
-        <f t="shared" ref="O70:Q70" si="211">O49+O59</f>
+        <f t="shared" ref="O70:Q70" si="215">O49+O59</f>
         <v>8739</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>8677</v>
       </c>
       <c r="Q70" s="35">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>7755</v>
       </c>
       <c r="R70" s="35">
@@ -7983,15 +8163,15 @@
         <v>7763</v>
       </c>
       <c r="S70" s="35">
-        <f t="shared" ref="S70:U70" si="212">S49+S59</f>
+        <f t="shared" ref="S70:U70" si="216">S49+S59</f>
         <v>0</v>
       </c>
       <c r="T70" s="35">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="U70" s="35">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="V70" s="35">
@@ -7999,94 +8179,94 @@
         <v>9082</v>
       </c>
       <c r="W70" s="35">
-        <f t="shared" ref="W70" si="213">W49+W59</f>
+        <f t="shared" ref="W70" si="217">W49+W59</f>
         <v>8333</v>
       </c>
       <c r="X70" s="35">
-        <f t="shared" ref="X70" si="214">X49+X59</f>
+        <f t="shared" ref="X70" si="218">X49+X59</f>
         <v>7728</v>
       </c>
       <c r="Y70" s="35">
         <f>Y49+Y59</f>
         <v>7729</v>
       </c>
-      <c r="Z70" s="51"/>
+      <c r="Z70" s="40"/>
       <c r="AC70" s="35">
-        <f t="shared" ref="AC70:AD70" si="215">AC49+AC59</f>
+        <f t="shared" ref="AC70:AD70" si="219">AC49+AC59</f>
         <v>6749</v>
       </c>
       <c r="AD70" s="35">
-        <f t="shared" si="215"/>
+        <f t="shared" si="219"/>
         <v>8960</v>
       </c>
       <c r="AE70" s="35">
-        <f t="shared" ref="AE70" si="216">AE49+AE59</f>
+        <f t="shared" ref="AE70" si="220">AE49+AE59</f>
         <v>10015</v>
       </c>
       <c r="AF70" s="35">
-        <f t="shared" ref="AF70:AG70" si="217">AF49+AF59</f>
+        <f t="shared" ref="AF70:AG70" si="221">AF49+AF59</f>
         <v>9231</v>
       </c>
       <c r="AG70" s="35">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>7758</v>
       </c>
       <c r="AH70" s="35">
-        <f t="shared" ref="AH70" si="218">AH49+AH59</f>
+        <f t="shared" ref="AH70" si="222">AH49+AH59</f>
         <v>7763</v>
       </c>
       <c r="AI70" s="35">
         <f>AI49+AI59</f>
         <v>9082</v>
       </c>
-      <c r="AJ70" s="51"/>
+      <c r="AJ70" s="40"/>
     </row>
     <row r="71" spans="1:36">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="29">
-        <f t="shared" ref="C71:D71" si="219">C69-C70</f>
+        <f t="shared" ref="C71:D71" si="223">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="29">
-        <f t="shared" si="219"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="E71" s="29">
-        <f t="shared" ref="E71" si="220">E69-E70</f>
+        <f t="shared" ref="E71" si="224">E69-E70</f>
         <v>0</v>
       </c>
       <c r="F71" s="29">
-        <f t="shared" ref="F71" si="221">F69-F70</f>
+        <f t="shared" ref="F71" si="225">F69-F70</f>
         <v>-4152</v>
       </c>
       <c r="G71" s="29">
-        <f t="shared" ref="G71" si="222">G69-G70</f>
+        <f t="shared" ref="G71" si="226">G69-G70</f>
         <v>-4422</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" ref="H71" si="223">H69-H70</f>
+        <f t="shared" ref="H71" si="227">H69-H70</f>
         <v>-5197</v>
       </c>
       <c r="I71" s="29">
-        <f t="shared" ref="I71" si="224">I69-I70</f>
+        <f t="shared" ref="I71" si="228">I69-I70</f>
         <v>-4369</v>
       </c>
       <c r="J71" s="29">
-        <f t="shared" ref="J71" si="225">J69-J70</f>
+        <f t="shared" ref="J71" si="229">J69-J70</f>
         <v>-4316</v>
       </c>
       <c r="K71" s="29">
-        <f t="shared" ref="K71" si="226">K69-K70</f>
+        <f t="shared" ref="K71" si="230">K69-K70</f>
         <v>0</v>
       </c>
       <c r="L71" s="29">
-        <f t="shared" ref="L71" si="227">L69-L70</f>
+        <f t="shared" ref="L71" si="231">L69-L70</f>
         <v>0</v>
       </c>
       <c r="M71" s="29">
-        <f t="shared" ref="M71" si="228">M69-M70</f>
+        <f t="shared" ref="M71" si="232">M69-M70</f>
         <v>0</v>
       </c>
       <c r="N71" s="29">
@@ -8094,15 +8274,15 @@
         <v>-5007</v>
       </c>
       <c r="O71" s="29">
-        <f t="shared" ref="O71:Q71" si="229">O69-O70</f>
+        <f t="shared" ref="O71:Q71" si="233">O69-O70</f>
         <v>-4309</v>
       </c>
       <c r="P71" s="29">
-        <f t="shared" si="229"/>
+        <f t="shared" si="233"/>
         <v>-3374</v>
       </c>
       <c r="Q71" s="29">
-        <f t="shared" si="229"/>
+        <f t="shared" si="233"/>
         <v>-4095</v>
       </c>
       <c r="R71" s="29">
@@ -8110,15 +8290,15 @@
         <v>-3937</v>
       </c>
       <c r="S71" s="29">
-        <f t="shared" ref="S71:U71" si="230">S69-S70</f>
+        <f t="shared" ref="S71:U71" si="234">S69-S70</f>
         <v>0</v>
       </c>
       <c r="T71" s="29">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="U71" s="29">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="V71" s="29">
@@ -8126,11 +8306,11 @@
         <v>-1759</v>
       </c>
       <c r="W71" s="29">
-        <f t="shared" ref="W71" si="231">W69-W70</f>
+        <f t="shared" ref="W71" si="235">W69-W70</f>
         <v>-2764</v>
       </c>
       <c r="X71" s="29">
-        <f t="shared" ref="X71" si="232">X69-X70</f>
+        <f t="shared" ref="X71" si="236">X69-X70</f>
         <v>-4503</v>
       </c>
       <c r="Y71" s="29">
@@ -8138,27 +8318,27 @@
         <v>-4235</v>
       </c>
       <c r="AC71" s="29">
-        <f t="shared" ref="AC71:AD71" si="233">AC69-AC70</f>
+        <f t="shared" ref="AC71:AD71" si="237">AC69-AC70</f>
         <v>-618</v>
       </c>
       <c r="AD71" s="29">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>-1811</v>
       </c>
       <c r="AE71" s="29">
-        <f t="shared" ref="AE71" si="234">AE69-AE70</f>
+        <f t="shared" ref="AE71" si="238">AE69-AE70</f>
         <v>-4152</v>
       </c>
       <c r="AF71" s="29">
-        <f t="shared" ref="AF71:AG71" si="235">AF69-AF70</f>
+        <f t="shared" ref="AF71:AG71" si="239">AF69-AF70</f>
         <v>-4316</v>
       </c>
       <c r="AG71" s="29">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>-5007</v>
       </c>
       <c r="AH71" s="29">
-        <f t="shared" ref="AH71" si="236">AH69-AH70</f>
+        <f t="shared" ref="AH71" si="240">AH69-AH70</f>
         <v>-3937</v>
       </c>
       <c r="AI71" s="29">
@@ -8246,11 +8426,11 @@
         <v>27.99</v>
       </c>
       <c r="AE73" s="30">
-        <f t="shared" ref="AE73" si="237">F73</f>
+        <f t="shared" ref="AE73" si="241">F73</f>
         <v>35.58</v>
       </c>
       <c r="AF73" s="30">
-        <f t="shared" ref="AF73" si="238">J73</f>
+        <f t="shared" ref="AF73" si="242">J73</f>
         <v>26.46</v>
       </c>
       <c r="AG73" s="1">
@@ -8271,75 +8451,75 @@
         <v>5</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" ref="C74:T74" si="239">C73*C22</f>
+        <f t="shared" ref="C74:T74" si="243">C73*C22</f>
         <v>34276.949999999997</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>35421.919999999998</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>38508.119999999995</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>36825.299999999996</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>38309.300000000003</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>33906.559999999998</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>30320.62</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>25137</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>31626</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>32267.200000000004</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>30842.799999999996</v>
       </c>
       <c r="N74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>27889.920000000002</v>
       </c>
       <c r="O74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>21761.7</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>35578.83</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>35092.32</v>
       </c>
       <c r="R74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>33560.639999999999</v>
       </c>
       <c r="S74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>40608.03</v>
       </c>
       <c r="T74" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>46222.92</v>
       </c>
       <c r="U74" s="5">
@@ -8351,11 +8531,11 @@
         <v>39553.619999999995</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" ref="W74:X74" si="240">W73*W22</f>
+        <f t="shared" ref="W74:X74" si="244">W73*W22</f>
         <v>33124.409999999996</v>
       </c>
       <c r="X74" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="244"/>
         <v>22940.559999999998</v>
       </c>
       <c r="Y74" s="5">
@@ -8363,27 +8543,27 @@
         <v>19872.175765939999</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" ref="AC74:AD74" si="241">AC73*AC22</f>
+        <f t="shared" ref="AC74:AD74" si="245">AC73*AC22</f>
         <v>31299.279999999999</v>
       </c>
       <c r="AD74" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>31712.67</v>
       </c>
       <c r="AE74" s="5">
-        <f t="shared" ref="AE74" si="242">AE73*AE22</f>
+        <f t="shared" ref="AE74" si="246">AE73*AE22</f>
         <v>36825.299999999996</v>
       </c>
       <c r="AF74" s="5">
-        <f t="shared" ref="AF74:AG74" si="243">AF73*AF22</f>
+        <f t="shared" ref="AF74:AG74" si="247">AF73*AF22</f>
         <v>25137</v>
       </c>
       <c r="AG74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>29341.440000000002</v>
       </c>
       <c r="AH74" s="5">
-        <f t="shared" ref="AH74" si="244">AH73*AH22</f>
+        <f t="shared" ref="AH74" si="248">AH73*AH22</f>
         <v>34633.800000000003</v>
       </c>
       <c r="AI74" s="5">
@@ -8397,23 +8577,23 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5">
-        <f t="shared" ref="F75" si="245">F74-G71</f>
+        <f t="shared" ref="F75" si="249">F74-G71</f>
         <v>41247.299999999996</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" ref="G75" si="246">G74-G71</f>
+        <f t="shared" ref="G75" si="250">G74-G71</f>
         <v>42731.3</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" ref="H75" si="247">H74-H71</f>
+        <f t="shared" ref="H75" si="251">H74-H71</f>
         <v>39103.56</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" ref="I75:J75" si="248">I74-I71</f>
+        <f t="shared" ref="I75:J75" si="252">I74-I71</f>
         <v>34689.619999999995</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>29453</v>
       </c>
       <c r="N75" s="5">
@@ -8421,15 +8601,15 @@
         <v>32896.92</v>
       </c>
       <c r="O75" s="5">
-        <f t="shared" ref="O75" si="249">O74-O71</f>
+        <f t="shared" ref="O75" si="253">O74-O71</f>
         <v>26070.7</v>
       </c>
       <c r="P75" s="5">
-        <f t="shared" ref="P75" si="250">P74-P71</f>
+        <f t="shared" ref="P75" si="254">P74-P71</f>
         <v>38952.83</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" ref="Q75" si="251">Q74-Q71</f>
+        <f t="shared" ref="Q75" si="255">Q74-Q71</f>
         <v>39187.32</v>
       </c>
       <c r="R75" s="5">
@@ -8445,11 +8625,11 @@
         <v>41312.619999999995</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" ref="W75:X75" si="252">W74-W71</f>
+        <f t="shared" ref="W75:X75" si="256">W74-W71</f>
         <v>35888.409999999996</v>
       </c>
       <c r="X75" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>27443.559999999998</v>
       </c>
       <c r="Y75" s="5">
@@ -8457,27 +8637,27 @@
         <v>24107.175765939999</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" ref="AC75:AD75" si="253">AC74-AC71</f>
+        <f t="shared" ref="AC75:AD75" si="257">AC74-AC71</f>
         <v>31917.279999999999</v>
       </c>
       <c r="AD75" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="257"/>
         <v>33523.67</v>
       </c>
       <c r="AE75" s="5">
-        <f t="shared" ref="AE75" si="254">AE74-AE71</f>
+        <f t="shared" ref="AE75" si="258">AE74-AE71</f>
         <v>40977.299999999996</v>
       </c>
       <c r="AF75" s="5">
-        <f t="shared" ref="AF75:AG75" si="255">AF74-AF71</f>
+        <f t="shared" ref="AF75:AG75" si="259">AF74-AF71</f>
         <v>29453</v>
       </c>
       <c r="AG75" s="5">
-        <f t="shared" si="255"/>
+        <f t="shared" si="259"/>
         <v>34348.44</v>
       </c>
       <c r="AH75" s="5">
-        <f t="shared" ref="AH75" si="256">AH74-AH71</f>
+        <f t="shared" ref="AH75" si="260">AH74-AH71</f>
         <v>38570.800000000003</v>
       </c>
       <c r="AI75" s="5">
@@ -8498,11 +8678,11 @@
         <v>4.6944912411479685</v>
       </c>
       <c r="G77" s="38">
-        <f t="shared" ref="G77" si="257">G73/G67</f>
+        <f t="shared" ref="G77" si="261">G73/G67</f>
         <v>5.0433517640863617</v>
       </c>
       <c r="H77" s="38">
-        <f t="shared" ref="H77" si="258">H73/H67</f>
+        <f t="shared" ref="H77" si="262">H73/H67</f>
         <v>4.744830674503218</v>
       </c>
       <c r="I77" s="38">
@@ -8518,15 +8698,15 @@
         <v>9.7177421602787462</v>
       </c>
       <c r="O77" s="38">
-        <f t="shared" ref="O77" si="259">O73/O67</f>
+        <f t="shared" ref="O77" si="263">O73/O67</f>
         <v>10.289219858156027</v>
       </c>
       <c r="P77" s="38">
-        <f t="shared" ref="P77:Q77" si="260">P73/P67</f>
+        <f t="shared" ref="P77:Q77" si="264">P73/P67</f>
         <v>12.26010682288077</v>
       </c>
       <c r="Q77" s="38">
-        <f t="shared" si="260"/>
+        <f t="shared" si="264"/>
         <v>12.807416058394161</v>
       </c>
       <c r="R77" s="38">
@@ -8549,40 +8729,40 @@
         <f>Y73/Y67</f>
         <v>4.0948229478549347</v>
       </c>
-      <c r="Z77" s="57"/>
+      <c r="Z77" s="46"/>
       <c r="AB77" s="39">
         <f>AVERAGE(AC77:AI77)</f>
         <v>4.8499415907579078</v>
       </c>
       <c r="AC77" s="38">
-        <f t="shared" ref="AC77:AD77" si="261">AC73/AC67</f>
+        <f t="shared" ref="AC77:AD77" si="265">AC73/AC67</f>
         <v>4.7596228710462292</v>
       </c>
       <c r="AD77" s="38">
-        <f t="shared" si="261"/>
+        <f t="shared" si="265"/>
         <v>3.009077711357814</v>
       </c>
       <c r="AE77" s="38">
-        <f t="shared" ref="AE77" si="262">AE73/AE67</f>
+        <f t="shared" ref="AE77" si="266">AE73/AE67</f>
         <v>4.5751397689153928</v>
       </c>
       <c r="AF77" s="38">
-        <f t="shared" ref="AF77:AG77" si="263">AF73/AF67</f>
+        <f t="shared" ref="AF77:AG77" si="267">AF73/AF67</f>
         <v>4.0020697341187708</v>
       </c>
       <c r="AG77" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="267"/>
         <v>10.223498257839722</v>
       </c>
       <c r="AH77" s="38">
-        <f t="shared" ref="AH77" si="264">AH73/AH67</f>
+        <f t="shared" ref="AH77" si="268">AH73/AH67</f>
         <v>3.0279594334673896</v>
       </c>
       <c r="AI77" s="38">
         <f>AI73/AI67</f>
         <v>4.3522233585600327</v>
       </c>
-      <c r="AJ77" s="57"/>
+      <c r="AJ77" s="46"/>
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="39">
@@ -8593,79 +8773,79 @@
         <v>65</v>
       </c>
       <c r="F78" s="38">
-        <f t="shared" ref="F78:X78" si="265">F74/SUM(C4:F4)</f>
+        <f t="shared" ref="F78:X78" si="269">F74/SUM(C4:F4)</f>
         <v>3.7096101541251127</v>
       </c>
       <c r="G78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.7543414347314781</v>
       </c>
       <c r="H78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.252427817745803</v>
       </c>
       <c r="I78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>2.866927004538578</v>
       </c>
       <c r="J78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>2.3391959798994977</v>
       </c>
       <c r="K78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>2.9895075148879857</v>
       </c>
       <c r="L78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.1139934375603171</v>
       </c>
       <c r="M78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.1485095957533682</v>
       </c>
       <c r="N78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.0464139814309124</v>
       </c>
       <c r="O78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>2.3871983326020185</v>
       </c>
       <c r="P78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.7224136848713121</v>
       </c>
       <c r="Q78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.4810356115464733</v>
       </c>
       <c r="R78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.1327023242789136</v>
       </c>
       <c r="S78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.6993741459415141</v>
       </c>
       <c r="T78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>4.2878404452690164</v>
       </c>
       <c r="U78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>4.2044196721311469</v>
       </c>
       <c r="V78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.7959328214971206</v>
       </c>
       <c r="W78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>3.2269274232830001</v>
       </c>
       <c r="X78" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>2.2897055594370692</v>
       </c>
       <c r="Y78" s="38">
@@ -8673,31 +8853,31 @@
         <v>2.0076960765750655</v>
       </c>
       <c r="AB78" s="39">
-        <f t="shared" ref="AB78:AB81" si="266">AVERAGE(AC78:AI78)</f>
+        <f t="shared" ref="AB78:AB81" si="270">AVERAGE(AC78:AI78)</f>
         <v>3.3922041867436059</v>
       </c>
       <c r="AC78" s="38">
-        <f t="shared" ref="AC78:AD78" si="267">AC74/AC4</f>
+        <f t="shared" ref="AC78:AD78" si="271">AC74/AC4</f>
         <v>3.6428398510242084</v>
       </c>
       <c r="AD78" s="38">
-        <f t="shared" si="267"/>
+        <f t="shared" si="271"/>
         <v>3.5318710324089539</v>
       </c>
       <c r="AE78" s="38">
-        <f t="shared" ref="AE78" si="268">AE74/AE4</f>
+        <f t="shared" ref="AE78" si="272">AE74/AE4</f>
         <v>3.7096101541251127</v>
       </c>
       <c r="AF78" s="38">
-        <f t="shared" ref="AF78:AG78" si="269">AF74/AF4</f>
+        <f t="shared" ref="AF78:AG78" si="273">AF74/AF4</f>
         <v>2.3391959798994977</v>
       </c>
       <c r="AG78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>3.2049634079737852</v>
       </c>
       <c r="AH78" s="38">
-        <f t="shared" ref="AH78" si="270">AH74/AH4</f>
+        <f t="shared" ref="AH78" si="274">AH74/AH4</f>
         <v>3.2328759451134137</v>
       </c>
       <c r="AI78" s="38">
@@ -8710,31 +8890,31 @@
         <v>66</v>
       </c>
       <c r="AB79" s="39">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>3.7031660365898795</v>
       </c>
       <c r="AC79" s="38">
-        <f t="shared" ref="AC79:AD79" si="271">AC75/AC4</f>
+        <f t="shared" ref="AC79:AD79" si="275">AC75/AC4</f>
         <v>3.7147672253258843</v>
       </c>
       <c r="AD79" s="38">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>3.7335638712551509</v>
       </c>
       <c r="AE79" s="38">
-        <f t="shared" ref="AE79" si="272">AE75/AE4</f>
+        <f t="shared" ref="AE79" si="276">AE75/AE4</f>
         <v>4.1278634028407373</v>
       </c>
       <c r="AF79" s="38">
-        <f t="shared" ref="AF79:AG79" si="273">AF75/AF4</f>
+        <f t="shared" ref="AF79:AG79" si="277">AF75/AF4</f>
         <v>2.7408337986227433</v>
       </c>
       <c r="AG79" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="277"/>
         <v>3.7518776624795196</v>
       </c>
       <c r="AH79" s="38">
-        <f t="shared" ref="AH79" si="274">AH75/AH4</f>
+        <f t="shared" ref="AH79" si="278">AH75/AH4</f>
         <v>3.6003733781387104</v>
       </c>
       <c r="AI79" s="38">
@@ -8751,150 +8931,150 @@
         <v>67</v>
       </c>
       <c r="F80" s="38">
-        <f t="shared" ref="F80" si="275">F73/SUM(C21:F21)</f>
+        <f t="shared" ref="F80" si="279">F73/SUM(C21:F21)</f>
         <v>-34.186196284168958</v>
       </c>
       <c r="G80" s="38">
-        <f t="shared" ref="G80" si="276">G73/SUM(D21:G21)</f>
+        <f t="shared" ref="G80" si="280">G73/SUM(D21:G21)</f>
         <v>-23.803258337409265</v>
       </c>
       <c r="H80" s="38">
-        <f t="shared" ref="H80" si="277">H73/SUM(E21:H21)</f>
+        <f t="shared" ref="H80" si="281">H73/SUM(E21:H21)</f>
         <v>-35.119316071931394</v>
       </c>
       <c r="I80" s="38">
-        <f t="shared" ref="I80" si="278">I73/SUM(F21:I21)</f>
+        <f t="shared" ref="I80" si="282">I73/SUM(F21:I21)</f>
         <v>-43.077600182512285</v>
       </c>
       <c r="J80" s="38">
-        <f t="shared" ref="J80" si="279">J73/SUM(G21:J21)</f>
+        <f t="shared" ref="J80" si="283">J73/SUM(G21:J21)</f>
         <v>10.214661840651397</v>
       </c>
       <c r="K80" s="38">
-        <f t="shared" ref="K80" si="280">K73/SUM(H21:K21)</f>
+        <f t="shared" ref="K80" si="284">K73/SUM(H21:K21)</f>
         <v>12.718154987157886</v>
       </c>
       <c r="L80" s="38">
-        <f t="shared" ref="L80" si="281">L73/SUM(I21:L21)</f>
+        <f t="shared" ref="L80" si="285">L73/SUM(I21:L21)</f>
         <v>14.524374227423833</v>
       </c>
       <c r="M80" s="38">
-        <f t="shared" ref="M80" si="282">M73/SUM(J21:M21)</f>
+        <f t="shared" ref="M80" si="286">M73/SUM(J21:M21)</f>
         <v>16.765235423602924</v>
       </c>
       <c r="N80" s="38">
-        <f t="shared" ref="N80" si="283">N73/SUM(K21:N21)</f>
+        <f t="shared" ref="N80" si="287">N73/SUM(K21:N21)</f>
         <v>16.414442706508094</v>
       </c>
       <c r="O80" s="38">
-        <f t="shared" ref="O80" si="284">O73/SUM(L21:O21)</f>
+        <f t="shared" ref="O80" si="288">O73/SUM(L21:O21)</f>
         <v>4.7680989418995381</v>
       </c>
       <c r="P80" s="38">
-        <f t="shared" ref="P80" si="285">P73/SUM(M21:P21)</f>
+        <f t="shared" ref="P80" si="289">P73/SUM(M21:P21)</f>
         <v>7.6049907925668574</v>
       </c>
       <c r="Q80" s="38">
-        <f t="shared" ref="Q80" si="286">Q73/SUM(N21:Q21)</f>
+        <f t="shared" ref="Q80" si="290">Q73/SUM(N21:Q21)</f>
         <v>6.9685453631242744</v>
       </c>
       <c r="R80" s="38">
-        <f t="shared" ref="R80" si="287">R73/SUM(O21:R21)</f>
+        <f t="shared" ref="R80" si="291">R73/SUM(O21:R21)</f>
         <v>6.2742813338289967</v>
       </c>
       <c r="S80" s="38">
-        <f t="shared" ref="S80" si="288">S73/SUM(P21:S21)</f>
+        <f t="shared" ref="S80" si="292">S73/SUM(P21:S21)</f>
         <v>14.249698502138768</v>
       </c>
       <c r="T80" s="38">
-        <f t="shared" ref="T80" si="289">T73/SUM(Q21:T21)</f>
+        <f t="shared" ref="T80" si="293">T73/SUM(Q21:T21)</f>
         <v>3.600132376127589</v>
       </c>
       <c r="U80" s="38">
-        <f t="shared" ref="U80" si="290">U73/SUM(R21:U21)</f>
+        <f t="shared" ref="U80" si="294">U73/SUM(R21:U21)</f>
         <v>3.6877262294124424</v>
       </c>
       <c r="V80" s="38">
-        <f t="shared" ref="V80" si="291">V73/SUM(S21:V21)</f>
+        <f t="shared" ref="V80" si="295">V73/SUM(S21:V21)</f>
         <v>3.181191505918596</v>
       </c>
       <c r="W80" s="38">
-        <f t="shared" ref="W80" si="292">W73/SUM(T21:W21)</f>
+        <f t="shared" ref="W80" si="296">W73/SUM(T21:W21)</f>
         <v>3.2634136402727529</v>
       </c>
       <c r="X80" s="38">
-        <f t="shared" ref="X80" si="293">X73/SUM(U21:X21)</f>
+        <f t="shared" ref="X80" si="297">X73/SUM(U21:X21)</f>
         <v>100.42416013144638</v>
       </c>
       <c r="Y80" s="38">
-        <f t="shared" ref="Y80" si="294">Y73/SUM(V21:Y21)</f>
+        <f t="shared" ref="Y80" si="298">Y73/SUM(V21:Y21)</f>
         <v>-311.63265073696095</v>
       </c>
-      <c r="Z80" s="57"/>
+      <c r="Z80" s="46"/>
       <c r="AB80" s="39">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>4.3961723137688082</v>
       </c>
       <c r="AC80" s="38">
-        <f t="shared" ref="AC80:AD80" si="295">AC73/AC21</f>
+        <f t="shared" ref="AC80:AD80" si="299">AC73/AC21</f>
         <v>18.144510144927537</v>
       </c>
       <c r="AD80" s="38">
-        <f t="shared" si="295"/>
+        <f t="shared" si="299"/>
         <v>4.3645293146160196</v>
       </c>
       <c r="AE80" s="38">
-        <f t="shared" ref="AE80" si="296">AE73/AE21</f>
+        <f t="shared" ref="AE80" si="300">AE73/AE21</f>
         <v>-27.338752783964363</v>
       </c>
       <c r="AF80" s="38">
-        <f t="shared" ref="AF80:AG80" si="297">AF73/AF21</f>
+        <f t="shared" ref="AF80:AG80" si="301">AF73/AF21</f>
         <v>9.9355731225296449</v>
       </c>
       <c r="AG80" s="38">
-        <f t="shared" si="297"/>
+        <f t="shared" si="301"/>
         <v>16.428577827547596</v>
       </c>
       <c r="AH80" s="38">
-        <f t="shared" ref="AH80" si="298">AH73/AH21</f>
+        <f t="shared" ref="AH80" si="302">AH73/AH21</f>
         <v>6.1114875595553206</v>
       </c>
       <c r="AI80" s="38">
         <f>AI73/AI21</f>
         <v>3.1272810111699001</v>
       </c>
-      <c r="AJ80" s="57"/>
+      <c r="AJ80" s="46"/>
     </row>
     <row r="81" spans="2:35">
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AB81" s="39">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>4.8045273010515652</v>
       </c>
       <c r="AC81" s="38">
-        <f t="shared" ref="AC81:AD81" si="299">AC75/AC20</f>
+        <f t="shared" ref="AC81:AD81" si="303">AC75/AC20</f>
         <v>18.502771014492755</v>
       </c>
       <c r="AD81" s="38">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>4.6137723644371045</v>
       </c>
       <c r="AE81" s="38">
-        <f t="shared" ref="AE81" si="300">AE75/AE20</f>
+        <f t="shared" ref="AE81" si="304">AE75/AE20</f>
         <v>-30.421158129175943</v>
       </c>
       <c r="AF81" s="38">
-        <f t="shared" ref="AF81:AG81" si="301">AF75/AF20</f>
+        <f t="shared" ref="AF81:AG81" si="305">AF75/AF20</f>
         <v>11.641501976284585</v>
       </c>
       <c r="AG81" s="38">
-        <f t="shared" si="301"/>
+        <f t="shared" si="305"/>
         <v>19.232049272116463</v>
       </c>
       <c r="AH81" s="38">
-        <f t="shared" ref="AH81" si="302">AH75/AH20</f>
+        <f t="shared" ref="AH81" si="306">AH75/AH20</f>
         <v>6.8062113993294515</v>
       </c>
       <c r="AI81" s="38">

--- a/$EBAY.xlsx
+++ b/$EBAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F9FCB-AC2A-4853-B678-D0FB47C286A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA574F7-7DA9-4704-ADC9-EE2CE6B82F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{8FE4497E-8BD6-462D-BAEF-CC6752C949AC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>$EBAY</t>
   </si>
@@ -422,15 +422,37 @@
   </si>
   <si>
     <t>(Projected)</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current Share Price</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -652,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -744,25 +766,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +784,41 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1266,7 +1308,7 @@
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1285,29 +1327,29 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="G5" s="51" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="G5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="59"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>40.78</v>
+        <v>49.5</v>
       </c>
       <c r="D6" s="23"/>
       <c r="G6" s="13"/>
@@ -1348,7 +1390,7 @@
       </c>
       <c r="C8" s="5">
         <f>C6*C7</f>
-        <v>22129.637567860002</v>
+        <v>26861.6248065</v>
       </c>
       <c r="D8" s="23"/>
       <c r="G8" s="13"/>
@@ -1433,7 +1475,7 @@
       </c>
       <c r="C12" s="6">
         <f>C8-C11</f>
-        <v>26364.637567860002</v>
+        <v>31096.6248065</v>
       </c>
       <c r="D12" s="24"/>
       <c r="G12" s="13"/>
@@ -1469,11 +1511,11 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1488,10 +1530,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="61"/>
       <c r="G16" s="13"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1506,10 +1548,10 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="61"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1522,8 +1564,8 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="7"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1538,10 +1580,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="54"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1575,11 +1617,11 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1594,10 +1636,10 @@
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="61"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1612,10 +1654,10 @@
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="60">
         <v>1995</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="61"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1630,10 +1672,10 @@
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="60">
         <v>1998</v>
       </c>
-      <c r="D25" s="57"/>
+      <c r="D25" s="61"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1660,8 +1702,8 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="9"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1697,10 +1739,10 @@
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="61"/>
+      <c r="D29" s="56"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -1712,76 +1754,71 @@
       <c r="O29" s="16"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="51">
         <f>C6/'Financial Model'!Y67</f>
-        <v>4.5599912565134968</v>
-      </c>
-      <c r="D33" s="55"/>
+        <v>5.5350555958170204</v>
+      </c>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="51">
         <f>C8/SUM('Financial Model'!V4:Y4)</f>
-        <v>2.235768596469994</v>
-      </c>
-      <c r="D34" s="55"/>
+        <v>2.7138436862497475</v>
+      </c>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="51">
         <f>C12/SUM('Financial Model'!V4:Y4)</f>
-        <v>2.663632811462922</v>
-      </c>
-      <c r="D35" s="55"/>
+        <v>3.1417079012426754</v>
+      </c>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="51">
         <f>C6/SUM('Financial Model'!V21:Y21)</f>
-        <v>-347.03384754378123</v>
-      </c>
-      <c r="D36" s="55"/>
+        <v>-421.2402023888468</v>
+      </c>
+      <c r="D36" s="52"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="51">
         <f>C12/SUM('Financial Model'!V20:Y20)</f>
-        <v>941.59419885214288</v>
-      </c>
-      <c r="D37" s="55"/>
+        <v>1110.5937430892857</v>
+      </c>
+      <c r="D37" s="52"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1797,6 +1834,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{D9973FEA-B39E-4DD3-8417-80042015C44B}"/>
@@ -1812,13 +1854,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DA9FF5-18B2-4F1B-8BED-7AF64467FA45}">
-  <dimension ref="A1:AT82"/>
+  <dimension ref="A1:CP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK6" sqref="AK6:AT6"/>
+      <selection pane="bottomRight" activeCell="AK28" sqref="AK1:AT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1829,7 +1871,11 @@
     <col min="26" max="26" width="9.140625" style="40"/>
     <col min="27" max="35" width="9.140625" style="1"/>
     <col min="36" max="36" width="9.140625" style="40"/>
-    <col min="37" max="16384" width="9.140625" style="1"/>
+    <col min="37" max="46" width="9.140625" style="34"/>
+    <col min="47" max="47" width="9.140625" style="1"/>
+    <col min="48" max="48" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:46" s="20" customFormat="1">
@@ -1929,34 +1975,34 @@
       <c r="AJ1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AS1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AT1" s="70" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2062,6 +2108,16 @@
       <c r="AJ2" s="42" t="s">
         <v>131</v>
       </c>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
     </row>
     <row r="3" spans="2:46" s="22" customFormat="1">
       <c r="B3" s="21"/>
@@ -2117,6 +2173,16 @@
         <v>44958</v>
       </c>
       <c r="AJ3" s="42"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
     </row>
     <row r="4" spans="2:46" s="2" customFormat="1">
       <c r="B4" s="2" t="s">
@@ -2225,45 +2291,45 @@
         <f>SUM(W4:Z4)</f>
         <v>9641.2000000000007</v>
       </c>
-      <c r="AK4" s="28">
+      <c r="AK4" s="72">
         <f>AJ4*1*(1+AK24)</f>
-        <v>9255.5519999999997</v>
-      </c>
-      <c r="AL4" s="28">
+        <v>9544.7880000000005</v>
+      </c>
+      <c r="AL4" s="72">
         <f t="shared" ref="AL4:AT4" si="0">AK4*1*(1+AL24)</f>
-        <v>9348.1075199999996</v>
-      </c>
-      <c r="AM4" s="28">
+        <v>9640.2358800000002</v>
+      </c>
+      <c r="AM4" s="72">
         <f t="shared" si="0"/>
-        <v>9628.5507455999996</v>
-      </c>
-      <c r="AN4" s="28">
+        <v>9833.0405976000002</v>
+      </c>
+      <c r="AN4" s="72">
         <f t="shared" si="0"/>
-        <v>9917.4072679679994</v>
-      </c>
-      <c r="AO4" s="28">
+        <v>10029.701409552001</v>
+      </c>
+      <c r="AO4" s="72">
         <f t="shared" si="0"/>
-        <v>10214.92948600704</v>
-      </c>
-      <c r="AP4" s="28">
+        <v>10230.295437743041</v>
+      </c>
+      <c r="AP4" s="72">
         <f t="shared" si="0"/>
-        <v>10521.377370587252</v>
-      </c>
-      <c r="AQ4" s="28">
+        <v>10434.901346497902</v>
+      </c>
+      <c r="AQ4" s="72">
         <f t="shared" si="0"/>
-        <v>10837.01869170487</v>
-      </c>
-      <c r="AR4" s="28">
+        <v>10539.25035996288</v>
+      </c>
+      <c r="AR4" s="72">
         <f t="shared" si="0"/>
-        <v>11162.129252456018</v>
-      </c>
-      <c r="AS4" s="28">
+        <v>10644.642863562509</v>
+      </c>
+      <c r="AS4" s="72">
         <f t="shared" si="0"/>
-        <v>11496.993130029698</v>
-      </c>
-      <c r="AT4" s="28">
+        <v>10751.089292198134</v>
+      </c>
+      <c r="AT4" s="72">
         <f t="shared" si="0"/>
-        <v>11841.902923930589</v>
+        <v>10858.600185120116</v>
       </c>
     </row>
     <row r="5" spans="2:46">
@@ -2373,45 +2439,45 @@
         <f>SUM(W5:Z5)</f>
         <v>2635.174</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AK5" s="35">
         <f>AK4*(1-AK27)</f>
-        <v>2498.9990400000002</v>
-      </c>
-      <c r="AL5" s="29">
+        <v>2577.0927600000005</v>
+      </c>
+      <c r="AL5" s="35">
         <f t="shared" ref="AL5:AT5" si="1">AL4*(1-AL27)</f>
-        <v>2523.9890304</v>
-      </c>
-      <c r="AM5" s="29">
+        <v>2602.8636876</v>
+      </c>
+      <c r="AM5" s="35">
         <f t="shared" si="1"/>
-        <v>2503.4231938560001</v>
-      </c>
-      <c r="AN5" s="29">
+        <v>2556.5905553760003</v>
+      </c>
+      <c r="AN5" s="35">
         <f t="shared" si="1"/>
-        <v>2479.3518169919998</v>
-      </c>
-      <c r="AO5" s="29">
+        <v>2507.4253523880002</v>
+      </c>
+      <c r="AO5" s="35">
         <f t="shared" si="1"/>
-        <v>2553.7323715017601</v>
-      </c>
-      <c r="AP5" s="29">
+        <v>2557.5738594357604</v>
+      </c>
+      <c r="AP5" s="35">
         <f t="shared" si="1"/>
-        <v>2630.3443426468129</v>
-      </c>
-      <c r="AQ5" s="29">
+        <v>2608.7253366244754</v>
+      </c>
+      <c r="AQ5" s="35">
         <f t="shared" si="1"/>
-        <v>2709.2546729262176</v>
-      </c>
-      <c r="AR5" s="29">
+        <v>2634.81258999072</v>
+      </c>
+      <c r="AR5" s="35">
         <f t="shared" si="1"/>
-        <v>2790.5323131140044</v>
-      </c>
-      <c r="AS5" s="29">
+        <v>2661.1607158906272</v>
+      </c>
+      <c r="AS5" s="35">
         <f t="shared" si="1"/>
-        <v>2874.2482825074244</v>
-      </c>
-      <c r="AT5" s="29">
+        <v>2687.7723230495335</v>
+      </c>
+      <c r="AT5" s="35">
         <f t="shared" si="1"/>
-        <v>2960.4757309826473</v>
+        <v>2714.6500462800291</v>
       </c>
     </row>
     <row r="6" spans="2:46" s="2" customFormat="1">
@@ -2546,45 +2612,45 @@
         <f>AJ4-AJ5</f>
         <v>7006.0260000000007</v>
       </c>
-      <c r="AK6" s="28">
+      <c r="AK6" s="72">
         <f t="shared" ref="AK6:AT6" si="7">AK4-AK5</f>
-        <v>6756.5529599999991</v>
-      </c>
-      <c r="AL6" s="28">
+        <v>6967.69524</v>
+      </c>
+      <c r="AL6" s="72">
         <f t="shared" si="7"/>
-        <v>6824.1184895999995</v>
-      </c>
-      <c r="AM6" s="28">
+        <v>7037.3721924000001</v>
+      </c>
+      <c r="AM6" s="72">
         <f t="shared" si="7"/>
-        <v>7125.127551743999</v>
-      </c>
-      <c r="AN6" s="28">
+        <v>7276.4500422239998</v>
+      </c>
+      <c r="AN6" s="72">
         <f t="shared" si="7"/>
-        <v>7438.0554509759995</v>
-      </c>
-      <c r="AO6" s="28">
+        <v>7522.276057164001</v>
+      </c>
+      <c r="AO6" s="72">
         <f t="shared" si="7"/>
-        <v>7661.1971145052803</v>
-      </c>
-      <c r="AP6" s="28">
+        <v>7672.7215783072807</v>
+      </c>
+      <c r="AP6" s="72">
         <f t="shared" si="7"/>
-        <v>7891.0330279404388</v>
-      </c>
-      <c r="AQ6" s="28">
+        <v>7826.1760098734267</v>
+      </c>
+      <c r="AQ6" s="72">
         <f t="shared" si="7"/>
-        <v>8127.7640187786528</v>
-      </c>
-      <c r="AR6" s="28">
+        <v>7904.4377699721599</v>
+      </c>
+      <c r="AR6" s="72">
         <f t="shared" si="7"/>
-        <v>8371.5969393420128</v>
-      </c>
-      <c r="AS6" s="28">
+        <v>7983.4821476718816</v>
+      </c>
+      <c r="AS6" s="72">
         <f t="shared" si="7"/>
-        <v>8622.7448475222736</v>
-      </c>
-      <c r="AT6" s="28">
+        <v>8063.3169691486</v>
+      </c>
+      <c r="AT6" s="72">
         <f t="shared" si="7"/>
-        <v>8881.4271929479419</v>
+        <v>8143.9501388400877</v>
       </c>
     </row>
     <row r="7" spans="2:46">
@@ -2694,6 +2760,46 @@
         <f t="shared" ref="AJ7:AJ11" si="12">SUM(W7:Z7)</f>
         <v>2123.9259999999999</v>
       </c>
+      <c r="AK7" s="35">
+        <f>AK4*0.2</f>
+        <v>1908.9576000000002</v>
+      </c>
+      <c r="AL7" s="35">
+        <f t="shared" ref="AL7:AO7" si="13">AL4*0.2</f>
+        <v>1928.047176</v>
+      </c>
+      <c r="AM7" s="35">
+        <f t="shared" si="13"/>
+        <v>1966.6081195200002</v>
+      </c>
+      <c r="AN7" s="35">
+        <f t="shared" si="13"/>
+        <v>2005.9402819104002</v>
+      </c>
+      <c r="AO7" s="35">
+        <f t="shared" si="13"/>
+        <v>2046.0590875486084</v>
+      </c>
+      <c r="AP7" s="35">
+        <f>AP4*0.18</f>
+        <v>1878.2822423696223</v>
+      </c>
+      <c r="AQ7" s="35">
+        <f t="shared" ref="AQ7:AT7" si="14">AQ4*0.18</f>
+        <v>1897.0650647933182</v>
+      </c>
+      <c r="AR7" s="35">
+        <f t="shared" si="14"/>
+        <v>1916.0357154412516</v>
+      </c>
+      <c r="AS7" s="35">
+        <f t="shared" si="14"/>
+        <v>1935.196072595664</v>
+      </c>
+      <c r="AT7" s="35">
+        <f t="shared" si="14"/>
+        <v>1954.5480333216208</v>
+      </c>
     </row>
     <row r="8" spans="2:46">
       <c r="B8" s="1" t="s">
@@ -2795,13 +2901,53 @@
         <v>1161</v>
       </c>
       <c r="AI8" s="29">
-        <f t="shared" ref="AI8:AI11" si="13">SUM(S8:V8)</f>
+        <f t="shared" ref="AI8:AI11" si="15">SUM(S8:V8)</f>
         <v>1325</v>
       </c>
       <c r="AJ8" s="44">
         <f t="shared" si="12"/>
         <v>1322.2241999999999</v>
       </c>
+      <c r="AK8" s="35">
+        <f>AK4*0.2</f>
+        <v>1908.9576000000002</v>
+      </c>
+      <c r="AL8" s="35">
+        <f>AL4*0.15</f>
+        <v>1446.035382</v>
+      </c>
+      <c r="AM8" s="35">
+        <f>AM4*0.11</f>
+        <v>1081.634465736</v>
+      </c>
+      <c r="AN8" s="35">
+        <f>AN4*0.1</f>
+        <v>1002.9701409552001</v>
+      </c>
+      <c r="AO8" s="35">
+        <f t="shared" ref="AO8:AT8" si="16">AO4*0.1</f>
+        <v>1023.0295437743042</v>
+      </c>
+      <c r="AP8" s="35">
+        <f t="shared" si="16"/>
+        <v>1043.4901346497902</v>
+      </c>
+      <c r="AQ8" s="35">
+        <f t="shared" si="16"/>
+        <v>1053.925035996288</v>
+      </c>
+      <c r="AR8" s="35">
+        <f t="shared" si="16"/>
+        <v>1064.464286356251</v>
+      </c>
+      <c r="AS8" s="35">
+        <f t="shared" si="16"/>
+        <v>1075.1089292198135</v>
+      </c>
+      <c r="AT8" s="35">
+        <f t="shared" si="16"/>
+        <v>1085.8600185120117</v>
+      </c>
     </row>
     <row r="9" spans="2:46">
       <c r="B9" s="1" t="s">
@@ -2903,13 +3049,53 @@
         <v>1065</v>
       </c>
       <c r="AI9" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>921</v>
       </c>
       <c r="AJ9" s="44">
         <f t="shared" si="12"/>
         <v>875.27700000000004</v>
       </c>
+      <c r="AK9" s="35">
+        <f>AK4*0.087</f>
+        <v>830.39655600000003</v>
+      </c>
+      <c r="AL9" s="35">
+        <f t="shared" ref="AL9:AT9" si="17">AL4*0.087</f>
+        <v>838.70052155999997</v>
+      </c>
+      <c r="AM9" s="35">
+        <f t="shared" si="17"/>
+        <v>855.47453199119991</v>
+      </c>
+      <c r="AN9" s="35">
+        <f t="shared" si="17"/>
+        <v>872.58402263102403</v>
+      </c>
+      <c r="AO9" s="35">
+        <f t="shared" si="17"/>
+        <v>890.03570308364453</v>
+      </c>
+      <c r="AP9" s="35">
+        <f t="shared" si="17"/>
+        <v>907.83641714531734</v>
+      </c>
+      <c r="AQ9" s="35">
+        <f t="shared" si="17"/>
+        <v>916.91478131677047</v>
+      </c>
+      <c r="AR9" s="35">
+        <f t="shared" si="17"/>
+        <v>926.08392912993816</v>
+      </c>
+      <c r="AS9" s="35">
+        <f t="shared" si="17"/>
+        <v>935.34476842123763</v>
+      </c>
+      <c r="AT9" s="35">
+        <f t="shared" si="17"/>
+        <v>944.69821610545</v>
+      </c>
     </row>
     <row r="10" spans="2:46">
       <c r="B10" s="1" t="s">
@@ -3011,13 +3197,53 @@
         <v>341</v>
       </c>
       <c r="AI10" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>422</v>
       </c>
       <c r="AJ10" s="44">
         <f t="shared" si="12"/>
         <v>321.68599999999998</v>
       </c>
+      <c r="AK10" s="35">
+        <f>AVERAGE(AC10:AJ10)</f>
+        <v>302.58575000000002</v>
+      </c>
+      <c r="AL10" s="35">
+        <f t="shared" ref="AL10:AT10" si="18">AVERAGE(AD10:AK10)</f>
+        <v>306.53396875000004</v>
+      </c>
+      <c r="AM10" s="35">
+        <f t="shared" si="18"/>
+        <v>315.97571484374998</v>
+      </c>
+      <c r="AN10" s="35">
+        <f t="shared" si="18"/>
+        <v>320.22267919921876</v>
+      </c>
+      <c r="AO10" s="35">
+        <f t="shared" si="18"/>
+        <v>324.50051409912112</v>
+      </c>
+      <c r="AP10" s="35">
+        <f t="shared" si="18"/>
+        <v>331.8130783615112</v>
+      </c>
+      <c r="AQ10" s="35">
+        <f t="shared" si="18"/>
+        <v>330.66471315670009</v>
+      </c>
+      <c r="AR10" s="35">
+        <f t="shared" si="18"/>
+        <v>319.24780230128766</v>
+      </c>
+      <c r="AS10" s="35">
+        <f t="shared" si="18"/>
+        <v>318.94302758894861</v>
+      </c>
+      <c r="AT10" s="35">
+        <f t="shared" si="18"/>
+        <v>320.98768728756716</v>
+      </c>
     </row>
     <row r="11" spans="2:46">
       <c r="B11" s="1" t="s">
@@ -3119,104 +3345,144 @@
         <v>31</v>
       </c>
       <c r="AI11" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AJ11" s="44">
         <f t="shared" si="12"/>
         <v>3.75</v>
       </c>
+      <c r="AK11" s="35">
+        <f>AVERAGE(AC11:AJ11)</f>
+        <v>31.09375</v>
+      </c>
+      <c r="AL11" s="35">
+        <f t="shared" ref="AL11:AT11" si="19">AVERAGE(AD11:AK11)</f>
+        <v>29.85546875</v>
+      </c>
+      <c r="AM11" s="35">
+        <f t="shared" si="19"/>
+        <v>29.33740234375</v>
+      </c>
+      <c r="AN11" s="35">
+        <f t="shared" si="19"/>
+        <v>27.25457763671875</v>
+      </c>
+      <c r="AO11" s="35">
+        <f t="shared" si="19"/>
+        <v>24.536399841308594</v>
+      </c>
+      <c r="AP11" s="35">
+        <f t="shared" si="19"/>
+        <v>23.228449821472168</v>
+      </c>
+      <c r="AQ11" s="35">
+        <f t="shared" si="19"/>
+        <v>22.257006049156189</v>
+      </c>
+      <c r="AR11" s="35">
+        <f t="shared" si="19"/>
+        <v>23.914131805300713</v>
+      </c>
+      <c r="AS11" s="35">
+        <f t="shared" si="19"/>
+        <v>26.434648280963302</v>
+      </c>
+      <c r="AT11" s="35">
+        <f t="shared" si="19"/>
+        <v>25.852260566083714</v>
+      </c>
     </row>
     <row r="12" spans="2:46">
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="29">
-        <f t="shared" ref="C12:F12" si="14">SUM(C7:C11)</f>
+        <f t="shared" ref="C12:F12" si="20">SUM(C7:C11)</f>
         <v>1242</v>
       </c>
       <c r="D12" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1379</v>
       </c>
       <c r="E12" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1367</v>
       </c>
       <c r="F12" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1454</v>
       </c>
       <c r="G12" s="29">
-        <f t="shared" ref="G12:X12" si="15">SUM(G7:G11)</f>
+        <f t="shared" ref="G12:X12" si="21">SUM(G7:G11)</f>
         <v>1442</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1637</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1485</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1578</v>
       </c>
       <c r="K12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1281</v>
       </c>
       <c r="L12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1312</v>
       </c>
       <c r="M12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1145</v>
       </c>
       <c r="N12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1202</v>
       </c>
       <c r="O12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1219</v>
       </c>
       <c r="P12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1446</v>
       </c>
       <c r="Q12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1271</v>
       </c>
       <c r="R12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1449</v>
       </c>
       <c r="S12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1191</v>
       </c>
       <c r="T12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1264</v>
       </c>
       <c r="U12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1161</v>
       </c>
       <c r="V12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1231</v>
       </c>
       <c r="W12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1102</v>
       </c>
       <c r="X12" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1234</v>
       </c>
       <c r="Y12" s="29">
@@ -3228,27 +3494,27 @@
         <v>1145.8631999999998</v>
       </c>
       <c r="AC12" s="29">
-        <f t="shared" ref="AC12:AD12" si="16">SUM(AC7:AC11)</f>
+        <f t="shared" ref="AC12:AD12" si="22">SUM(AC7:AC11)</f>
         <v>4624</v>
       </c>
       <c r="AD12" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4647</v>
       </c>
       <c r="AE12" s="29">
-        <f t="shared" ref="AE12:AG12" si="17">SUM(AE7:AE11)</f>
+        <f t="shared" ref="AE12:AG12" si="23">SUM(AE7:AE11)</f>
         <v>6018</v>
       </c>
       <c r="AF12" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>6142</v>
       </c>
       <c r="AG12" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4940</v>
       </c>
       <c r="AH12" s="29">
-        <f t="shared" ref="AH12" si="18">SUM(AH7:AH11)</f>
+        <f t="shared" ref="AH12" si="24">SUM(AH7:AH11)</f>
         <v>5385</v>
       </c>
       <c r="AI12" s="29">
@@ -3259,97 +3525,137 @@
         <f>SUM(AJ7:AJ11)</f>
         <v>4646.8631999999998</v>
       </c>
+      <c r="AK12" s="35">
+        <f t="shared" ref="AK12:AT12" si="25">SUM(AK7:AK11)</f>
+        <v>4981.9912560000002</v>
+      </c>
+      <c r="AL12" s="35">
+        <f t="shared" si="25"/>
+        <v>4549.1725170600002</v>
+      </c>
+      <c r="AM12" s="35">
+        <f t="shared" si="25"/>
+        <v>4249.0302344347001</v>
+      </c>
+      <c r="AN12" s="35">
+        <f t="shared" si="25"/>
+        <v>4228.971702332562</v>
+      </c>
+      <c r="AO12" s="35">
+        <f t="shared" si="25"/>
+        <v>4308.1612483469871</v>
+      </c>
+      <c r="AP12" s="35">
+        <f t="shared" si="25"/>
+        <v>4184.650322347713</v>
+      </c>
+      <c r="AQ12" s="35">
+        <f t="shared" si="25"/>
+        <v>4220.8266013122329</v>
+      </c>
+      <c r="AR12" s="35">
+        <f t="shared" si="25"/>
+        <v>4249.7458650340286</v>
+      </c>
+      <c r="AS12" s="35">
+        <f t="shared" si="25"/>
+        <v>4291.0274461066274</v>
+      </c>
+      <c r="AT12" s="35">
+        <f t="shared" si="25"/>
+        <v>4331.9462157927337</v>
+      </c>
     </row>
     <row r="13" spans="2:46" s="2" customFormat="1">
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="28">
-        <f t="shared" ref="C13:F13" si="19">C6-C12</f>
+        <f t="shared" ref="C13:F13" si="26">C6-C12</f>
         <v>547</v>
       </c>
       <c r="D13" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>480</v>
       </c>
       <c r="E13" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>574</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>663</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" ref="G13:X13" si="20">G6-G12</f>
+        <f t="shared" ref="G13:X13" si="27">G6-G12</f>
         <v>579</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>406</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>556</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>681</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>593</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>558</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>408</v>
       </c>
       <c r="N13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>478</v>
       </c>
       <c r="O13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>629</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>821</v>
       </c>
       <c r="Q13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>679</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>677</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>841</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>732</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>662</v>
       </c>
       <c r="V13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>688</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>692</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>525</v>
       </c>
       <c r="Y13" s="28">
@@ -3361,27 +3667,27 @@
         <v>574.16280000000006</v>
       </c>
       <c r="AC13" s="28">
-        <f t="shared" ref="AC13:AD13" si="21">AC6-AC12</f>
+        <f t="shared" ref="AC13:AD13" si="28">AC6-AC12</f>
         <v>2197</v>
       </c>
       <c r="AD13" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>2325</v>
       </c>
       <c r="AE13" s="28">
-        <f t="shared" ref="AE13:AG13" si="22">AE6-AE12</f>
+        <f t="shared" ref="AE13:AG13" si="29">AE6-AE12</f>
         <v>1688</v>
       </c>
       <c r="AF13" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>2222</v>
       </c>
       <c r="AG13" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>2037</v>
       </c>
       <c r="AH13" s="28">
-        <f t="shared" ref="AH13" si="23">AH6-AH12</f>
+        <f t="shared" ref="AH13" si="30">AH6-AH12</f>
         <v>2806</v>
       </c>
       <c r="AI13" s="28">
@@ -3392,6 +3698,46 @@
         <f>AJ6-AJ12</f>
         <v>2359.162800000001</v>
       </c>
+      <c r="AK13" s="72">
+        <f t="shared" ref="AK13:AT13" si="31">AK6-AK12</f>
+        <v>1985.7039839999998</v>
+      </c>
+      <c r="AL13" s="72">
+        <f t="shared" si="31"/>
+        <v>2488.1996753399999</v>
+      </c>
+      <c r="AM13" s="72">
+        <f t="shared" si="31"/>
+        <v>3027.4198077892997</v>
+      </c>
+      <c r="AN13" s="72">
+        <f t="shared" si="31"/>
+        <v>3293.304354831439</v>
+      </c>
+      <c r="AO13" s="72">
+        <f t="shared" si="31"/>
+        <v>3364.5603299602935</v>
+      </c>
+      <c r="AP13" s="72">
+        <f t="shared" si="31"/>
+        <v>3641.5256875257137</v>
+      </c>
+      <c r="AQ13" s="72">
+        <f t="shared" si="31"/>
+        <v>3683.611168659927</v>
+      </c>
+      <c r="AR13" s="72">
+        <f t="shared" si="31"/>
+        <v>3733.736282637853</v>
+      </c>
+      <c r="AS13" s="72">
+        <f t="shared" si="31"/>
+        <v>3772.2895230419726</v>
+      </c>
+      <c r="AT13" s="72">
+        <f t="shared" si="31"/>
+        <v>3812.003923047354</v>
+      </c>
     </row>
     <row r="14" spans="2:46">
       <c r="B14" s="1" t="s">
@@ -3476,28 +3822,58 @@
         <v>0</v>
       </c>
       <c r="AE14" s="29">
-        <f t="shared" ref="AE14:AE15" si="24">SUM(F14:I14)</f>
+        <f t="shared" ref="AE14:AE15" si="32">SUM(F14:I14)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="29">
-        <f t="shared" ref="AF14:AF15" si="25">SUM(G14:J14)</f>
+        <f t="shared" ref="AF14:AF15" si="33">SUM(G14:J14)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="29">
-        <f t="shared" ref="AG14:AG15" si="26">SUM(K14:N14)</f>
+        <f t="shared" ref="AG14:AG15" si="34">SUM(K14:N14)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="29">
-        <f t="shared" ref="AH14:AH19" si="27">SUM(O14:R14)</f>
+        <f t="shared" ref="AH14:AH19" si="35">SUM(O14:R14)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="29">
-        <f t="shared" ref="AI14:AI15" si="28">SUM(S14:V14)</f>
+        <f t="shared" ref="AI14:AI15" si="36">SUM(S14:V14)</f>
         <v>-2365</v>
       </c>
       <c r="AJ14" s="44">
-        <f t="shared" ref="AJ14:AJ19" si="29">SUM(W14:Z14)</f>
+        <f t="shared" ref="AJ14:AJ19" si="37">SUM(W14:Z14)</f>
         <v>-4805</v>
+      </c>
+      <c r="AK14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="34">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:46">
@@ -3584,28 +3960,68 @@
         <v>1326</v>
       </c>
       <c r="AE15" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>559</v>
       </c>
       <c r="AF15" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>496</v>
       </c>
       <c r="AG15" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>-113</v>
       </c>
       <c r="AH15" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>711</v>
       </c>
       <c r="AI15" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-160</v>
       </c>
       <c r="AJ15" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>-131</v>
+      </c>
+      <c r="AK15" s="35">
+        <f>AVERAGE(AC15:AJ15)</f>
+        <v>362.125</v>
+      </c>
+      <c r="AL15" s="35">
+        <f t="shared" ref="AL15:AT15" si="38">AVERAGE(AD15:AK15)</f>
+        <v>381.265625</v>
+      </c>
+      <c r="AM15" s="35">
+        <f t="shared" si="38"/>
+        <v>263.173828125</v>
+      </c>
+      <c r="AN15" s="35">
+        <f t="shared" si="38"/>
+        <v>226.195556640625</v>
+      </c>
+      <c r="AO15" s="35">
+        <f t="shared" si="38"/>
+        <v>192.47000122070313</v>
+      </c>
+      <c r="AP15" s="35">
+        <f t="shared" si="38"/>
+        <v>230.65375137329102</v>
+      </c>
+      <c r="AQ15" s="35">
+        <f t="shared" si="38"/>
+        <v>170.61047029495239</v>
+      </c>
+      <c r="AR15" s="35">
+        <f t="shared" si="38"/>
+        <v>211.93677908182144</v>
+      </c>
+      <c r="AS15" s="35">
+        <f t="shared" si="38"/>
+        <v>254.80387646704912</v>
+      </c>
+      <c r="AT15" s="35">
+        <f t="shared" si="38"/>
+        <v>241.38873602543026</v>
       </c>
     </row>
     <row r="16" spans="2:46">
@@ -3613,31 +4029,31 @@
         <v>83</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" ref="C16:F16" si="30">C13+C14+C15</f>
+        <f t="shared" ref="C16:F16" si="39">C13+C14+C15</f>
         <v>558</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>462</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>694</v>
       </c>
       <c r="F16" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>561</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" ref="G16:X16" si="31">G13+G14+G15</f>
+        <f t="shared" ref="G16:X16" si="40">G13+G14+G15</f>
         <v>547</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>707</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>948</v>
       </c>
       <c r="J16" s="29">
@@ -3645,27 +4061,27 @@
         <v>516</v>
       </c>
       <c r="K16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>657</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>507</v>
       </c>
       <c r="M16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>266</v>
       </c>
       <c r="N16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>494</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>631</v>
       </c>
       <c r="P16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1003</v>
       </c>
       <c r="Q16" s="29">
@@ -3673,31 +4089,31 @@
         <v>774</v>
       </c>
       <c r="R16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1109</v>
       </c>
       <c r="S16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>724</v>
       </c>
       <c r="T16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>401</v>
       </c>
       <c r="U16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>434</v>
       </c>
       <c r="V16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-1161</v>
       </c>
       <c r="W16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-1649</v>
       </c>
       <c r="X16" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>-727</v>
       </c>
       <c r="Y16" s="29">
@@ -3709,27 +4125,27 @@
         <v>-146.83719999999994</v>
       </c>
       <c r="AC16" s="29">
-        <f t="shared" ref="AC16:AH16" si="32">AC13+AC14+AC15</f>
+        <f t="shared" ref="AC16:AH16" si="41">AC13+AC14+AC15</f>
         <v>2406</v>
       </c>
       <c r="AD16" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>3651</v>
       </c>
       <c r="AE16" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>2247</v>
       </c>
       <c r="AF16" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>2718</v>
       </c>
       <c r="AG16" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>1924</v>
       </c>
       <c r="AH16" s="29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>3517</v>
       </c>
       <c r="AI16" s="29">
@@ -3740,8 +4156,48 @@
         <f>AJ13+AJ14+AJ15</f>
         <v>-2576.837199999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:46">
+      <c r="AK16" s="35">
+        <f t="shared" ref="AK16:AT16" si="42">AK13+AK14+AK15</f>
+        <v>2347.8289839999998</v>
+      </c>
+      <c r="AL16" s="35">
+        <f t="shared" si="42"/>
+        <v>2869.4653003399999</v>
+      </c>
+      <c r="AM16" s="35">
+        <f t="shared" si="42"/>
+        <v>3290.5936359142997</v>
+      </c>
+      <c r="AN16" s="35">
+        <f t="shared" si="42"/>
+        <v>3519.499911472064</v>
+      </c>
+      <c r="AO16" s="35">
+        <f t="shared" si="42"/>
+        <v>3557.0303311809967</v>
+      </c>
+      <c r="AP16" s="35">
+        <f t="shared" si="42"/>
+        <v>3872.1794388990047</v>
+      </c>
+      <c r="AQ16" s="35">
+        <f t="shared" si="42"/>
+        <v>3854.2216389548794</v>
+      </c>
+      <c r="AR16" s="35">
+        <f t="shared" si="42"/>
+        <v>3945.6730617196745</v>
+      </c>
+      <c r="AS16" s="35">
+        <f t="shared" si="42"/>
+        <v>4027.0933995090218</v>
+      </c>
+      <c r="AT16" s="35">
+        <f t="shared" si="42"/>
+        <v>4053.3926590727842</v>
+      </c>
+    </row>
+    <row r="17" spans="2:94">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
@@ -3825,120 +4281,160 @@
         <v>3634</v>
       </c>
       <c r="AE17" s="29">
-        <f t="shared" ref="AE17" si="33">SUM(F17:I17)</f>
+        <f t="shared" ref="AE17" si="43">SUM(F17:I17)</f>
         <v>-3595</v>
       </c>
       <c r="AF17" s="29">
-        <f t="shared" ref="AF17" si="34">SUM(G17:J17)</f>
+        <f t="shared" ref="AF17" si="44">SUM(G17:J17)</f>
         <v>-190</v>
       </c>
       <c r="AG17" s="29">
-        <f t="shared" ref="AG17" si="35">SUM(K17:N17)</f>
+        <f t="shared" ref="AG17" si="45">SUM(K17:N17)</f>
         <v>-329</v>
       </c>
       <c r="AH17" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>-890</v>
       </c>
       <c r="AI17" s="29">
-        <f t="shared" ref="AI17" si="36">SUM(S17:V17)</f>
+        <f t="shared" ref="AI17" si="46">SUM(S17:V17)</f>
         <v>-146</v>
       </c>
       <c r="AJ17" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>673.25</v>
       </c>
-    </row>
-    <row r="18" spans="2:46">
+      <c r="AK17" s="35">
+        <f>-(AK16*AK30)</f>
+        <v>-586.95724599999994</v>
+      </c>
+      <c r="AL17" s="35">
+        <f t="shared" ref="AL17:AT17" si="47">-(AL16*AL30)</f>
+        <v>-717.36632508499997</v>
+      </c>
+      <c r="AM17" s="35">
+        <f t="shared" si="47"/>
+        <v>-822.64840897857493</v>
+      </c>
+      <c r="AN17" s="35">
+        <f t="shared" si="47"/>
+        <v>-879.874977868016</v>
+      </c>
+      <c r="AO17" s="35">
+        <f t="shared" si="47"/>
+        <v>-889.25758279524916</v>
+      </c>
+      <c r="AP17" s="35">
+        <f t="shared" si="47"/>
+        <v>-968.04485972475118</v>
+      </c>
+      <c r="AQ17" s="35">
+        <f t="shared" si="47"/>
+        <v>-963.55540973871985</v>
+      </c>
+      <c r="AR17" s="35">
+        <f t="shared" si="47"/>
+        <v>-986.41826542991862</v>
+      </c>
+      <c r="AS17" s="35">
+        <f t="shared" si="47"/>
+        <v>-1006.7733498772554</v>
+      </c>
+      <c r="AT17" s="35">
+        <f t="shared" si="47"/>
+        <v>-1013.3481647681961</v>
+      </c>
+    </row>
+    <row r="18" spans="2:94">
       <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="29">
-        <f t="shared" ref="C18:F18" si="37">C16+C17</f>
+        <f t="shared" ref="C18:F18" si="48">C16+C17</f>
         <v>1035</v>
       </c>
       <c r="D18" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>29</v>
       </c>
       <c r="E18" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>520</v>
       </c>
       <c r="F18" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-2597</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" ref="G18:X18" si="38">G16+G17</f>
+        <f t="shared" ref="G18:X18" si="49">G16+G17</f>
         <v>407</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>638</v>
       </c>
       <c r="I18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>720</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>763</v>
       </c>
       <c r="K18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>516</v>
       </c>
       <c r="L18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>400</v>
       </c>
       <c r="M18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>210</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>469</v>
       </c>
       <c r="O18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>485</v>
       </c>
       <c r="P18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>740</v>
       </c>
       <c r="Q18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>621</v>
       </c>
       <c r="R18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>781</v>
       </c>
       <c r="S18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>568</v>
       </c>
       <c r="T18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>294</v>
       </c>
       <c r="U18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>283</v>
       </c>
       <c r="V18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>-893</v>
       </c>
       <c r="W18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>-1339</v>
       </c>
       <c r="X18" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>-536</v>
       </c>
       <c r="Y18" s="29">
@@ -3950,27 +4446,27 @@
         <v>41.412800000000061</v>
       </c>
       <c r="AC18" s="29">
-        <f t="shared" ref="AC18:AH18" si="39">AC16+AC17</f>
+        <f t="shared" ref="AC18:AH18" si="50">AC16+AC17</f>
         <v>1947</v>
       </c>
       <c r="AD18" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>7285</v>
       </c>
       <c r="AE18" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>-1348</v>
       </c>
       <c r="AF18" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>2528</v>
       </c>
       <c r="AG18" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>1595</v>
       </c>
       <c r="AH18" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>2627</v>
       </c>
       <c r="AI18" s="29">
@@ -3981,8 +4477,48 @@
         <f>AJ16+AJ17</f>
         <v>-1903.587199999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:46">
+      <c r="AK18" s="35">
+        <f t="shared" ref="AK18:AT18" si="51">AK16+AK17</f>
+        <v>1760.8717379999998</v>
+      </c>
+      <c r="AL18" s="35">
+        <f t="shared" si="51"/>
+        <v>2152.0989752549999</v>
+      </c>
+      <c r="AM18" s="35">
+        <f t="shared" si="51"/>
+        <v>2467.9452269357248</v>
+      </c>
+      <c r="AN18" s="35">
+        <f t="shared" si="51"/>
+        <v>2639.6249336040482</v>
+      </c>
+      <c r="AO18" s="35">
+        <f t="shared" si="51"/>
+        <v>2667.7727483857475</v>
+      </c>
+      <c r="AP18" s="35">
+        <f t="shared" si="51"/>
+        <v>2904.1345791742533</v>
+      </c>
+      <c r="AQ18" s="35">
+        <f t="shared" si="51"/>
+        <v>2890.6662292161595</v>
+      </c>
+      <c r="AR18" s="35">
+        <f t="shared" si="51"/>
+        <v>2959.2547962897561</v>
+      </c>
+      <c r="AS18" s="35">
+        <f t="shared" si="51"/>
+        <v>3020.3200496317663</v>
+      </c>
+      <c r="AT18" s="35">
+        <f t="shared" si="51"/>
+        <v>3040.0444943045882</v>
+      </c>
+    </row>
+    <row r="19" spans="2:94">
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
@@ -4065,120 +4601,150 @@
         <v>-19</v>
       </c>
       <c r="AE19" s="29">
-        <f t="shared" ref="AE19" si="40">SUM(F19:I19)</f>
+        <f t="shared" ref="AE19" si="52">SUM(F19:I19)</f>
         <v>1</v>
       </c>
       <c r="AF19" s="29">
-        <f t="shared" ref="AF19" si="41">SUM(G19:J19)</f>
+        <f t="shared" ref="AF19" si="53">SUM(G19:J19)</f>
         <v>2</v>
       </c>
       <c r="AG19" s="29">
-        <f t="shared" ref="AG19" si="42">SUM(K19:N19)</f>
+        <f t="shared" ref="AG19" si="54">SUM(K19:N19)</f>
         <v>191</v>
       </c>
       <c r="AH19" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>3040</v>
       </c>
       <c r="AI19" s="29">
-        <f t="shared" ref="AI19" si="43">SUM(S19:V19)</f>
+        <f t="shared" ref="AI19" si="55">SUM(S19:V19)</f>
         <v>13356</v>
       </c>
       <c r="AJ19" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:46" s="2" customFormat="1">
+      <c r="AK19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:94" s="2" customFormat="1">
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" ref="C20:F20" si="44">C18+C19</f>
+        <f t="shared" ref="C20:F20" si="56">C18+C19</f>
         <v>1035</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>29</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>520</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>-2601</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" ref="G20:X20" si="45">G18+G19</f>
+        <f t="shared" ref="G20:X20" si="57">G18+G19</f>
         <v>407</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>642</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>721</v>
       </c>
       <c r="J20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>760</v>
       </c>
       <c r="K20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>518</v>
       </c>
       <c r="L20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>402</v>
       </c>
       <c r="M20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>310</v>
       </c>
       <c r="N20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>556</v>
       </c>
       <c r="O20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>3412</v>
       </c>
       <c r="P20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>746</v>
       </c>
       <c r="Q20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>664</v>
       </c>
       <c r="R20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>845</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>641</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>10734</v>
       </c>
       <c r="U20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>264</v>
       </c>
       <c r="V20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>1969</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-1341</v>
       </c>
       <c r="X20" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>-531</v>
       </c>
       <c r="Y20" s="28">
@@ -4190,27 +4756,27 @@
         <v>43.412800000000061</v>
       </c>
       <c r="AC20" s="28">
-        <f t="shared" ref="AC20:AH20" si="46">AC18+AC19</f>
+        <f t="shared" ref="AC20:AH20" si="58">AC18+AC19</f>
         <v>1725</v>
       </c>
       <c r="AD20" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>7266</v>
       </c>
       <c r="AE20" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>-1347</v>
       </c>
       <c r="AF20" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>2530</v>
       </c>
       <c r="AG20" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>1786</v>
       </c>
       <c r="AH20" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>5667</v>
       </c>
       <c r="AI20" s="28">
@@ -4221,101 +4787,333 @@
         <f>AJ18+AJ19</f>
         <v>-1897.587199999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:46">
+      <c r="AK20" s="72">
+        <f t="shared" ref="AK20:AT20" si="59">AK18+AK19</f>
+        <v>1760.8717379999998</v>
+      </c>
+      <c r="AL20" s="72">
+        <f t="shared" si="59"/>
+        <v>2152.0989752549999</v>
+      </c>
+      <c r="AM20" s="72">
+        <f t="shared" si="59"/>
+        <v>2467.9452269357248</v>
+      </c>
+      <c r="AN20" s="72">
+        <f t="shared" si="59"/>
+        <v>2639.6249336040482</v>
+      </c>
+      <c r="AO20" s="72">
+        <f t="shared" si="59"/>
+        <v>2667.7727483857475</v>
+      </c>
+      <c r="AP20" s="72">
+        <f t="shared" si="59"/>
+        <v>2904.1345791742533</v>
+      </c>
+      <c r="AQ20" s="72">
+        <f t="shared" si="59"/>
+        <v>2890.6662292161595</v>
+      </c>
+      <c r="AR20" s="72">
+        <f t="shared" si="59"/>
+        <v>2959.2547962897561</v>
+      </c>
+      <c r="AS20" s="72">
+        <f t="shared" si="59"/>
+        <v>3020.3200496317663</v>
+      </c>
+      <c r="AT20" s="72">
+        <f t="shared" si="59"/>
+        <v>3040.0444943045882</v>
+      </c>
+      <c r="AU20" s="28">
+        <f>AT20*(1+$AW$24)</f>
+        <v>2979.2436044184965</v>
+      </c>
+      <c r="AV20" s="28">
+        <f t="shared" ref="AV20:CP20" si="60">AU20*(1+$AW$24)</f>
+        <v>2919.6587323301264</v>
+      </c>
+      <c r="AW20" s="28">
+        <f t="shared" si="60"/>
+        <v>2861.2655576835236</v>
+      </c>
+      <c r="AX20" s="28">
+        <f t="shared" si="60"/>
+        <v>2804.040246529853</v>
+      </c>
+      <c r="AY20" s="28">
+        <f t="shared" si="60"/>
+        <v>2747.959441599256</v>
+      </c>
+      <c r="AZ20" s="28">
+        <f t="shared" si="60"/>
+        <v>2693.0002527672709</v>
+      </c>
+      <c r="BA20" s="28">
+        <f t="shared" si="60"/>
+        <v>2639.1402477119254</v>
+      </c>
+      <c r="BB20" s="28">
+        <f t="shared" si="60"/>
+        <v>2586.3574427576868</v>
+      </c>
+      <c r="BC20" s="28">
+        <f t="shared" si="60"/>
+        <v>2534.6302939025331</v>
+      </c>
+      <c r="BD20" s="28">
+        <f t="shared" si="60"/>
+        <v>2483.9376880244822</v>
+      </c>
+      <c r="BE20" s="28">
+        <f t="shared" si="60"/>
+        <v>2434.2589342639926</v>
+      </c>
+      <c r="BF20" s="28">
+        <f t="shared" si="60"/>
+        <v>2385.5737555787127</v>
+      </c>
+      <c r="BG20" s="28">
+        <f t="shared" si="60"/>
+        <v>2337.8622804671386</v>
+      </c>
+      <c r="BH20" s="28">
+        <f t="shared" si="60"/>
+        <v>2291.105034857796</v>
+      </c>
+      <c r="BI20" s="28">
+        <f t="shared" si="60"/>
+        <v>2245.2829341606403</v>
+      </c>
+      <c r="BJ20" s="28">
+        <f t="shared" si="60"/>
+        <v>2200.3772754774272</v>
+      </c>
+      <c r="BK20" s="28">
+        <f t="shared" si="60"/>
+        <v>2156.3697299678788</v>
+      </c>
+      <c r="BL20" s="28">
+        <f t="shared" si="60"/>
+        <v>2113.2423353685213</v>
+      </c>
+      <c r="BM20" s="28">
+        <f t="shared" si="60"/>
+        <v>2070.9774886611508</v>
+      </c>
+      <c r="BN20" s="28">
+        <f t="shared" si="60"/>
+        <v>2029.5579388879278</v>
+      </c>
+      <c r="BO20" s="28">
+        <f t="shared" si="60"/>
+        <v>1988.9667801101691</v>
+      </c>
+      <c r="BP20" s="28">
+        <f t="shared" si="60"/>
+        <v>1949.1874445079657</v>
+      </c>
+      <c r="BQ20" s="28">
+        <f t="shared" si="60"/>
+        <v>1910.2036956178063</v>
+      </c>
+      <c r="BR20" s="28">
+        <f t="shared" si="60"/>
+        <v>1871.9996217054502</v>
+      </c>
+      <c r="BS20" s="28">
+        <f t="shared" si="60"/>
+        <v>1834.5596292713412</v>
+      </c>
+      <c r="BT20" s="28">
+        <f t="shared" si="60"/>
+        <v>1797.8684366859143</v>
+      </c>
+      <c r="BU20" s="28">
+        <f t="shared" si="60"/>
+        <v>1761.9110679521959</v>
+      </c>
+      <c r="BV20" s="28">
+        <f t="shared" si="60"/>
+        <v>1726.6728465931519</v>
+      </c>
+      <c r="BW20" s="28">
+        <f t="shared" si="60"/>
+        <v>1692.1393896612888</v>
+      </c>
+      <c r="BX20" s="28">
+        <f t="shared" si="60"/>
+        <v>1658.2966018680629</v>
+      </c>
+      <c r="BY20" s="28">
+        <f t="shared" si="60"/>
+        <v>1625.1306698307017</v>
+      </c>
+      <c r="BZ20" s="28">
+        <f t="shared" si="60"/>
+        <v>1592.6280564340875</v>
+      </c>
+      <c r="CA20" s="28">
+        <f t="shared" si="60"/>
+        <v>1560.7754953054057</v>
+      </c>
+      <c r="CB20" s="28">
+        <f t="shared" si="60"/>
+        <v>1529.5599853992976</v>
+      </c>
+      <c r="CC20" s="28">
+        <f t="shared" si="60"/>
+        <v>1498.9687856913117</v>
+      </c>
+      <c r="CD20" s="28">
+        <f t="shared" si="60"/>
+        <v>1468.9894099774854</v>
+      </c>
+      <c r="CE20" s="28">
+        <f t="shared" si="60"/>
+        <v>1439.6096217779357</v>
+      </c>
+      <c r="CF20" s="28">
+        <f t="shared" si="60"/>
+        <v>1410.817429342377</v>
+      </c>
+      <c r="CG20" s="28">
+        <f t="shared" si="60"/>
+        <v>1382.6010807555294</v>
+      </c>
+      <c r="CH20" s="28">
+        <f t="shared" si="60"/>
+        <v>1354.9490591404187</v>
+      </c>
+      <c r="CI20" s="28">
+        <f t="shared" si="60"/>
+        <v>1327.8500779576104</v>
+      </c>
+      <c r="CJ20" s="28">
+        <f t="shared" si="60"/>
+        <v>1301.2930763984582</v>
+      </c>
+      <c r="CK20" s="28">
+        <f t="shared" si="60"/>
+        <v>1275.2672148704889</v>
+      </c>
+      <c r="CL20" s="28">
+        <f t="shared" si="60"/>
+        <v>1249.7618705730792</v>
+      </c>
+      <c r="CM20" s="28">
+        <f t="shared" si="60"/>
+        <v>1224.7666331616176</v>
+      </c>
+      <c r="CN20" s="28">
+        <f t="shared" si="60"/>
+        <v>1200.2713004983852</v>
+      </c>
+      <c r="CO20" s="28">
+        <f t="shared" si="60"/>
+        <v>1176.2658744884175</v>
+      </c>
+      <c r="CP20" s="28">
+        <f t="shared" si="60"/>
+        <v>1152.740556998649</v>
+      </c>
+    </row>
+    <row r="21" spans="2:94">
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="30">
-        <f t="shared" ref="C21:F21" si="47">C20/C22</f>
+        <f t="shared" ref="C21:F21" si="61">C20/C22</f>
         <v>0.95567867036011078</v>
       </c>
       <c r="D21" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>2.6951672862453532E-2</v>
       </c>
       <c r="E21" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>0.4896421845574388</v>
       </c>
       <c r="F21" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>-2.5130434782608697</v>
       </c>
       <c r="G21" s="30">
-        <f t="shared" ref="G21:N21" si="48">G20/G22</f>
+        <f t="shared" ref="G21:N21" si="62">G20/G22</f>
         <v>0.402970297029703</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.64717741935483875</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.74024640657084184</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.8</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.5755555555555556</v>
       </c>
       <c r="L21" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.46744186046511627</v>
       </c>
       <c r="M21" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.37349397590361444</v>
       </c>
       <c r="N21" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.68897149938042135</v>
       </c>
       <c r="O21" s="30">
-        <f t="shared" ref="O21:Y21" si="49">O20/O22</f>
+        <f t="shared" ref="O21:Y21" si="63">O20/O22</f>
         <v>4.5312084993359898</v>
       </c>
       <c r="P21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>1.0611664295874823</v>
       </c>
       <c r="Q21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>0.95402298850574707</v>
       </c>
       <c r="R21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>1.2281976744186047</v>
       </c>
       <c r="S21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>0.94126284875183552</v>
       </c>
       <c r="T21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>15.925816023738873</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>0.40121580547112462</v>
       </c>
       <c r="V21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>3.2491749174917492</v>
       </c>
       <c r="W21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>-2.2844974446337307</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>-0.95503597122302153</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>-0.12715165313356303</v>
       </c>
       <c r="Z21" s="48">
@@ -4323,19 +5121,19 @@
         <v>8.0000134596474676E-2</v>
       </c>
       <c r="AC21" s="30">
-        <f t="shared" ref="AC21" si="50">AC20/AC22</f>
+        <f t="shared" ref="AC21" si="64">AC20/AC22</f>
         <v>1.4279801324503312</v>
       </c>
       <c r="AD21" s="30">
-        <f t="shared" ref="AD21" si="51">AD20/AD22</f>
+        <f t="shared" ref="AD21" si="65">AD20/AD22</f>
         <v>6.4130626654898499</v>
       </c>
       <c r="AE21" s="30">
-        <f t="shared" ref="AE21:AF21" si="52">AE20/AE22</f>
+        <f t="shared" ref="AE21:AF21" si="66">AE20/AE22</f>
         <v>-1.3014492753623188</v>
       </c>
       <c r="AF21" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>2.6631578947368419</v>
       </c>
       <c r="AG21" s="30">
@@ -4354,8 +5152,48 @@
         <f>AJ20/AJ22</f>
         <v>-3.496831151378101</v>
       </c>
-    </row>
-    <row r="22" spans="2:46" s="29" customFormat="1">
+      <c r="AK21" s="73">
+        <f t="shared" ref="AK21:AT21" si="67">AK20/AK22</f>
+        <v>3.2448949629401485</v>
+      </c>
+      <c r="AL21" s="73">
+        <f t="shared" si="67"/>
+        <v>3.965839745082901</v>
+      </c>
+      <c r="AM21" s="73">
+        <f t="shared" si="67"/>
+        <v>4.5478741369270113</v>
+      </c>
+      <c r="AN21" s="73">
+        <f t="shared" si="67"/>
+        <v>4.8642416515989311</v>
+      </c>
+      <c r="AO21" s="73">
+        <f t="shared" si="67"/>
+        <v>4.9161118136509661</v>
+      </c>
+      <c r="AP21" s="73">
+        <f t="shared" si="67"/>
+        <v>5.3516740965847927</v>
+      </c>
+      <c r="AQ21" s="73">
+        <f t="shared" si="67"/>
+        <v>5.3268549232202567</v>
+      </c>
+      <c r="AR21" s="73">
+        <f t="shared" si="67"/>
+        <v>5.4532483969806922</v>
+      </c>
+      <c r="AS21" s="73">
+        <f t="shared" si="67"/>
+        <v>5.5657780768568728</v>
+      </c>
+      <c r="AT21" s="73">
+        <f t="shared" si="67"/>
+        <v>5.6021258413103627</v>
+      </c>
+    </row>
+    <row r="22" spans="2:94" s="29" customFormat="1">
       <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
@@ -4459,41 +5297,81 @@
         <f>Z22</f>
         <v>542.659087</v>
       </c>
-    </row>
-    <row r="24" spans="2:46" s="2" customFormat="1">
+      <c r="AK22" s="35">
+        <f>AJ22</f>
+        <v>542.659087</v>
+      </c>
+      <c r="AL22" s="35">
+        <f t="shared" ref="AL22:AT22" si="68">AK22</f>
+        <v>542.659087</v>
+      </c>
+      <c r="AM22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+      <c r="AN22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+      <c r="AO22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+      <c r="AP22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+      <c r="AQ22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+      <c r="AR22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+      <c r="AS22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+      <c r="AT22" s="35">
+        <f t="shared" si="68"/>
+        <v>542.659087</v>
+      </c>
+    </row>
+    <row r="24" spans="2:94" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G24" s="31">
-        <f t="shared" ref="G24:J24" si="53">G4/C4-1</f>
+        <f t="shared" ref="G24:J24" si="69">G4/C4-1</f>
         <v>0.12027789839339986</v>
       </c>
       <c r="H24" s="31">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>9.1360066143034269E-2</v>
       </c>
       <c r="I24" s="31">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>6.0448358686949533E-2</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>6.2800147765053493E-2</v>
       </c>
       <c r="K24" s="31">
-        <f t="shared" ref="K24" si="54">K4/G4-1</f>
+        <f t="shared" ref="K24" si="70">K4/G4-1</f>
         <v>-6.4728682170542617E-2</v>
       </c>
       <c r="L24" s="31">
-        <f t="shared" ref="L24" si="55">L4/H4-1</f>
+        <f t="shared" ref="L24" si="71">L4/H4-1</f>
         <v>-8.2196969696969657E-2</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" ref="M24" si="56">M4/I4-1</f>
+        <f t="shared" ref="M24" si="72">M4/I4-1</f>
         <v>-0.21366553416383538</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24" si="57">N4/J4-1</f>
+        <f t="shared" ref="N24" si="73">N4/J4-1</f>
         <v>-0.22280152937087239</v>
       </c>
       <c r="O24" s="31">
@@ -4513,51 +5391,51 @@
         <v>0.28264758497316644</v>
       </c>
       <c r="S24" s="31">
-        <f t="shared" ref="S24:T24" si="58">S4/O4-1</f>
+        <f t="shared" ref="S24:T24" si="74">S4/O4-1</f>
         <v>0.11120471777590568</v>
       </c>
       <c r="T24" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>-6.8760907504363034E-2</v>
       </c>
       <c r="U24" s="31">
-        <f t="shared" ref="U24:Z24" si="59">U4/Q4-1</f>
+        <f t="shared" ref="U24:Z24" si="75">U4/Q4-1</f>
         <v>-4.0291634689178846E-2</v>
       </c>
       <c r="V24" s="31">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>-8.8912133891213441E-2</v>
       </c>
       <c r="W24" s="31">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>-5.8756633813495052E-2</v>
       </c>
       <c r="X24" s="31">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>-9.2203898050974509E-2</v>
       </c>
       <c r="Y24" s="31">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>-4.8380647740903671E-2</v>
       </c>
       <c r="Z24" s="49">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>-9.8277841561423718E-2</v>
       </c>
       <c r="AD24" s="31">
-        <f t="shared" ref="AD24:AG24" si="60">AD4/AC4-1</f>
+        <f t="shared" ref="AD24:AG24" si="76">AD4/AC4-1</f>
         <v>4.5041899441340849E-2</v>
       </c>
       <c r="AE24" s="31">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.10557968593384559</v>
       </c>
       <c r="AF24" s="31">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>8.2502266545784186E-2</v>
       </c>
       <c r="AG24" s="31">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>-0.14805509026614549</v>
       </c>
       <c r="AH24" s="31">
@@ -4572,119 +5450,125 @@
         <f>AJ4/AI4-1</f>
         <v>-7.4740882917466389E-2</v>
       </c>
-      <c r="AK24" s="31">
-        <v>-0.04</v>
-      </c>
-      <c r="AL24" s="31">
+      <c r="AK24" s="74">
+        <v>-0.01</v>
+      </c>
+      <c r="AL24" s="74">
         <v>0.01</v>
       </c>
-      <c r="AM24" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="AN24" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="AO24" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="AP24" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="AQ24" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="AR24" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="AS24" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="AT24" s="31">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="25" spans="2:46">
+      <c r="AM24" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="AN24" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="AO24" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="AP24" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="AQ24" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AR24" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AS24" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AT24" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AV24" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW24" s="65">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="2:94">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="32">
-        <f t="shared" ref="D25" si="61">D4/C4-1</f>
+        <f t="shared" ref="D25" si="77">D4/C4-1</f>
         <v>5.0369083803734283E-2</v>
       </c>
       <c r="E25" s="32">
-        <f t="shared" ref="E25" si="62">E4/D4-1</f>
+        <f t="shared" ref="E25" si="78">E4/D4-1</f>
         <v>3.2658123191401378E-2</v>
       </c>
       <c r="F25" s="32">
-        <f t="shared" ref="F25" si="63">F4/E4-1</f>
+        <f t="shared" ref="F25" si="79">F4/E4-1</f>
         <v>8.3666933546837408E-2</v>
       </c>
       <c r="G25" s="32">
-        <f t="shared" ref="G25" si="64">G4/F4-1</f>
+        <f t="shared" ref="G25" si="80">G4/F4-1</f>
         <v>-4.691540450683418E-2</v>
       </c>
       <c r="H25" s="32">
-        <f t="shared" ref="H25" si="65">H4/G4-1</f>
+        <f t="shared" ref="H25" si="81">H4/G4-1</f>
         <v>2.3255813953488413E-2</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" ref="I25:K25" si="66">I4/H4-1</f>
+        <f t="shared" ref="I25:K25" si="82">I4/H4-1</f>
         <v>3.4090909090909172E-3</v>
       </c>
       <c r="J25" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="82"/>
         <v>8.6070215175537923E-2</v>
       </c>
       <c r="K25" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="82"/>
         <v>-0.1612791101842197</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" ref="L25:N25" si="67">L4/K4-1</f>
+        <f t="shared" ref="L25:N25" si="83">L4/K4-1</f>
         <v>4.1442188147533532E-3</v>
       </c>
       <c r="M25" s="32">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>-0.14032191498142799</v>
       </c>
       <c r="N25" s="32">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>7.3451752280364824E-2</v>
       </c>
       <c r="O25" s="32">
-        <f t="shared" ref="O25:P25" si="68">O4/N4-1</f>
+        <f t="shared" ref="O25:P25" si="84">O4/N4-1</f>
         <v>6.1717352415026738E-2</v>
       </c>
       <c r="P25" s="32">
-        <f t="shared" si="68"/>
+        <f t="shared" si="84"/>
         <v>0.20682392586352139</v>
       </c>
       <c r="Q25" s="32">
-        <f t="shared" ref="Q25:W25" si="69">Q4/P4-1</f>
+        <f t="shared" ref="Q25:W25" si="85">Q4/P4-1</f>
         <v>-9.0401396160558423E-2</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>0.10053722179585578</v>
       </c>
       <c r="S25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>-8.0195258019525761E-2</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>1.1372251705837666E-2</v>
       </c>
       <c r="U25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>-6.2593703148425828E-2</v>
       </c>
       <c r="V25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>4.4782087165133877E-2</v>
       </c>
       <c r="W25" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>-4.9751243781094523E-2</v>
       </c>
       <c r="X25" s="32">
@@ -4722,77 +5606,92 @@
       <c r="AJ25" s="50" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="2:46">
+      <c r="AV25" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW25" s="66">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="2:94">
+      <c r="AV26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW26" s="67">
+        <f>NPV(AW25,AJ20:CP20)</f>
+        <v>26849.116328911601</v>
+      </c>
+    </row>
+    <row r="27" spans="2:94">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="32">
-        <f t="shared" ref="C27:G27" si="70">C6/C4</f>
+        <f t="shared" ref="C27:G27" si="86">C6/C4</f>
         <v>0.77681285280069479</v>
       </c>
       <c r="D27" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>0.76849937990905337</v>
       </c>
       <c r="E27" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>0.77702161729383512</v>
       </c>
       <c r="F27" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>0.78204654599187295</v>
       </c>
       <c r="G27" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="H27" s="32">
-        <f t="shared" ref="H27:I27" si="71">H6/H4</f>
+        <f t="shared" ref="H27:I27" si="87">H6/H4</f>
         <v>0.77386363636363631</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>0.77047942619856546</v>
       </c>
       <c r="J27" s="32">
-        <f t="shared" ref="J27:K27" si="72">J6/J4</f>
+        <f t="shared" ref="J27:K27" si="88">J6/J4</f>
         <v>0.78519290928050056</v>
       </c>
       <c r="K27" s="32">
-        <f t="shared" si="72"/>
+        <f t="shared" si="88"/>
         <v>0.77662660588479071</v>
       </c>
       <c r="L27" s="32">
-        <f t="shared" ref="L27" si="73">L6/L4</f>
+        <f t="shared" ref="L27" si="89">L6/L4</f>
         <v>0.77177053239785387</v>
       </c>
       <c r="M27" s="32">
-        <f t="shared" ref="M27:N27" si="74">M6/M4</f>
+        <f t="shared" ref="M27:N27" si="90">M6/M4</f>
         <v>0.74555928948631778</v>
       </c>
       <c r="N27" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="90"/>
         <v>0.75134168157423975</v>
       </c>
       <c r="O27" s="32">
-        <f t="shared" ref="O27" si="75">O6/O4</f>
+        <f t="shared" ref="O27" si="91">O6/O4</f>
         <v>0.77843302443133955</v>
       </c>
       <c r="P27" s="32">
-        <f t="shared" ref="P27" si="76">P6/P4</f>
+        <f t="shared" ref="P27" si="92">P6/P4</f>
         <v>0.79127399650959862</v>
       </c>
       <c r="Q27" s="32">
-        <f t="shared" ref="Q27" si="77">Q6/Q4</f>
+        <f t="shared" ref="Q27" si="93">Q6/Q4</f>
         <v>0.7482732156561781</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" ref="R27:S27" si="78">R6/R4</f>
+        <f t="shared" ref="R27:S27" si="94">R6/R4</f>
         <v>0.74128312412831243</v>
       </c>
       <c r="S27" s="32">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>0.77028051554207733</v>
       </c>
       <c r="T27" s="32">
@@ -4804,11 +5703,11 @@
         <v>0.72890843662534988</v>
       </c>
       <c r="V27" s="32">
-        <f t="shared" ref="V27" si="79">V6/V4</f>
+        <f t="shared" ref="V27" si="95">V6/V4</f>
         <v>0.73440489858400304</v>
       </c>
       <c r="W27" s="32">
-        <f t="shared" ref="W27" si="80">W6/W4</f>
+        <f t="shared" ref="W27" si="96">W6/W4</f>
         <v>0.72251308900523559</v>
       </c>
       <c r="X27" s="32">
@@ -4823,27 +5722,27 @@
         <v>0.73</v>
       </c>
       <c r="AC27" s="32">
-        <f t="shared" ref="AC27:AD27" si="81">AC6/AC4</f>
+        <f t="shared" ref="AC27:AD27" si="97">AC6/AC4</f>
         <v>0.79387802607076352</v>
       </c>
       <c r="AD27" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>0.77647844971600399</v>
       </c>
       <c r="AE27" s="32">
-        <f t="shared" ref="AE27:AG27" si="82">AE6/AE4</f>
+        <f t="shared" ref="AE27:AG27" si="98">AE6/AE4</f>
         <v>0.77626674725496125</v>
       </c>
       <c r="AF27" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>0.77833612506979344</v>
       </c>
       <c r="AG27" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>0.76209721463681046</v>
       </c>
       <c r="AH27" s="32">
-        <f t="shared" ref="AH27" si="83">AH6/AH4</f>
+        <f t="shared" ref="AH27" si="99">AH6/AH4</f>
         <v>0.76458508354335852</v>
       </c>
       <c r="AI27" s="32">
@@ -4854,107 +5753,114 @@
         <f>AJ6/AJ4</f>
         <v>0.72667572501348388</v>
       </c>
-      <c r="AK27" s="32">
+      <c r="AK27" s="75">
         <v>0.73</v>
       </c>
-      <c r="AL27" s="32">
+      <c r="AL27" s="75">
         <v>0.73</v>
       </c>
-      <c r="AM27" s="32">
+      <c r="AM27" s="75">
         <v>0.74</v>
       </c>
-      <c r="AN27" s="32">
+      <c r="AN27" s="75">
         <v>0.75</v>
       </c>
-      <c r="AO27" s="32">
+      <c r="AO27" s="75">
         <v>0.75</v>
       </c>
-      <c r="AP27" s="32">
+      <c r="AP27" s="75">
         <v>0.75</v>
       </c>
-      <c r="AQ27" s="32">
+      <c r="AQ27" s="75">
         <v>0.75</v>
       </c>
-      <c r="AR27" s="32">
+      <c r="AR27" s="75">
         <v>0.75</v>
       </c>
-      <c r="AS27" s="32">
+      <c r="AS27" s="75">
         <v>0.75</v>
       </c>
-      <c r="AT27" s="32">
+      <c r="AT27" s="75">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="28" spans="2:46">
+      <c r="AV27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW27" s="68">
+        <f>Main!C11</f>
+        <v>-4235</v>
+      </c>
+    </row>
+    <row r="28" spans="2:94">
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="32">
-        <f t="shared" ref="C28:G28" si="84">C13/C4</f>
+        <f t="shared" ref="C28:G28" si="100">C13/C4</f>
         <v>0.23751628310898829</v>
       </c>
       <c r="D28" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>0.19842910293509713</v>
       </c>
       <c r="E28" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>0.22978382706164932</v>
       </c>
       <c r="F28" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>0.24492057628370889</v>
       </c>
       <c r="G28" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>0.22441860465116278</v>
       </c>
       <c r="H28" s="32">
-        <f t="shared" ref="H28:I28" si="85">H13/H4</f>
+        <f t="shared" ref="H28:I28" si="101">H13/H4</f>
         <v>0.15378787878787878</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>0.20989052472631181</v>
       </c>
       <c r="J28" s="32">
-        <f t="shared" ref="J28:K28" si="86">J13/J4</f>
+        <f t="shared" ref="J28:K28" si="102">J13/J4</f>
         <v>0.23670490093847757</v>
       </c>
       <c r="K28" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>0.24575217571487776</v>
       </c>
       <c r="L28" s="32">
-        <f t="shared" ref="L28" si="87">L13/L4</f>
+        <f t="shared" ref="L28" si="103">L13/L4</f>
         <v>0.2302930251754024</v>
       </c>
       <c r="M28" s="32">
-        <f t="shared" ref="M28:N28" si="88">M13/M4</f>
+        <f t="shared" ref="M28:N28" si="104">M13/M4</f>
         <v>0.19587133941430629</v>
       </c>
       <c r="N28" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>0.21377459749552774</v>
       </c>
       <c r="O28" s="32">
-        <f t="shared" ref="O28" si="89">O13/O4</f>
+        <f t="shared" ref="O28" si="105">O13/O4</f>
         <v>0.26495366470092668</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" ref="P28" si="90">P13/P4</f>
+        <f t="shared" ref="P28" si="106">P13/P4</f>
         <v>0.28656195462478184</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" ref="Q28" si="91">Q13/Q4</f>
+        <f t="shared" ref="Q28" si="107">Q13/Q4</f>
         <v>0.26055257099002305</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" ref="R28:S28" si="92">R13/R4</f>
+        <f t="shared" ref="R28:S28" si="108">R13/R4</f>
         <v>0.23605299860529985</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="92"/>
+        <f t="shared" si="108"/>
         <v>0.31880212282031845</v>
       </c>
       <c r="T28" s="32">
@@ -4966,11 +5872,11 @@
         <v>0.2646941223510596</v>
       </c>
       <c r="V28" s="32">
-        <f t="shared" ref="V28" si="93">V13/V4</f>
+        <f t="shared" ref="V28" si="109">V13/V4</f>
         <v>0.26329889016456182</v>
       </c>
       <c r="W28" s="32">
-        <f t="shared" ref="W28" si="94">W13/W4</f>
+        <f t="shared" ref="W28" si="110">W13/W4</f>
         <v>0.27869512686266612</v>
       </c>
       <c r="X28" s="32">
@@ -4986,27 +5892,27 @@
         <v>0.24368169085816149</v>
       </c>
       <c r="AC28" s="32">
-        <f t="shared" ref="AC28:AD28" si="95">AC13/AC4</f>
+        <f t="shared" ref="AC28:AD28" si="111">AC13/AC4</f>
         <v>0.25570297951582865</v>
       </c>
       <c r="AD28" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="111"/>
         <v>0.25893752088205813</v>
       </c>
       <c r="AE28" s="32">
-        <f t="shared" ref="AE28:AG28" si="96">AE13/AE4</f>
+        <f t="shared" ref="AE28:AG28" si="112">AE13/AE4</f>
         <v>0.17004130150095698</v>
       </c>
       <c r="AF28" s="32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="112"/>
         <v>0.20677461380978968</v>
       </c>
       <c r="AG28" s="32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="112"/>
         <v>0.2225013653741125</v>
       </c>
       <c r="AH28" s="32">
-        <f t="shared" ref="AH28" si="97">AH13/AH4</f>
+        <f t="shared" ref="AH28" si="113">AH13/AH4</f>
         <v>0.26192476430504996</v>
       </c>
       <c r="AI28" s="32">
@@ -5017,77 +5923,124 @@
         <f>AJ13/AJ4</f>
         <v>0.24469597145583546</v>
       </c>
-    </row>
-    <row r="29" spans="2:46">
+      <c r="AK28" s="75">
+        <f t="shared" ref="AK28:AT28" si="114">AK13/AK4</f>
+        <v>0.20804065883914863</v>
+      </c>
+      <c r="AL28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.25810568395967504</v>
+      </c>
+      <c r="AM28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.30788236636877281</v>
+      </c>
+      <c r="AN28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.32835517433200856</v>
+      </c>
+      <c r="AO28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.3288820298920484</v>
+      </c>
+      <c r="AP28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.34897557404774704</v>
+      </c>
+      <c r="AQ28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.34951358425390899</v>
+      </c>
+      <c r="AR28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.35076200587421685</v>
+      </c>
+      <c r="AS28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.3508750993054679</v>
+      </c>
+      <c r="AT28" s="75">
+        <f t="shared" si="114"/>
+        <v>0.35105850275904471</v>
+      </c>
+      <c r="AV28" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW28" s="68">
+        <f>AW26-AW27</f>
+        <v>31084.116328911601</v>
+      </c>
+    </row>
+    <row r="29" spans="2:94">
       <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="32">
-        <f t="shared" ref="C29:G29" si="98">C20/C4</f>
+        <f t="shared" ref="C29:G29" si="115">C20/C4</f>
         <v>0.44941380807642206</v>
       </c>
       <c r="D29" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>1.1988424968995453E-2</v>
       </c>
       <c r="E29" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>0.20816653322658127</v>
       </c>
       <c r="F29" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>-0.96084226080531954</v>
       </c>
       <c r="G29" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>0.15775193798449613</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" ref="H29:I29" si="99">H20/H4</f>
+        <f t="shared" ref="H29:I29" si="116">H20/H4</f>
         <v>0.24318181818181819</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>0.27217818044545111</v>
       </c>
       <c r="J29" s="32">
-        <f t="shared" ref="J29:K29" si="100">J20/J4</f>
+        <f t="shared" ref="J29:K29" si="117">J20/J4</f>
         <v>0.26416405978449775</v>
       </c>
       <c r="K29" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>0.21467053460422711</v>
       </c>
       <c r="L29" s="32">
-        <f t="shared" ref="L29" si="101">L20/L4</f>
+        <f t="shared" ref="L29" si="118">L20/L4</f>
         <v>0.16591002888980602</v>
       </c>
       <c r="M29" s="32">
-        <f t="shared" ref="M29:N29" si="102">M20/M4</f>
+        <f t="shared" ref="M29:N29" si="119">M20/M4</f>
         <v>0.14882381180988957</v>
       </c>
       <c r="N29" s="32">
-        <f t="shared" si="102"/>
+        <f t="shared" si="119"/>
         <v>0.24865831842576028</v>
       </c>
       <c r="O29" s="32">
-        <f t="shared" ref="O29" si="103">O20/O4</f>
+        <f t="shared" ref="O29" si="120">O20/O4</f>
         <v>1.4372367312552654</v>
       </c>
       <c r="P29" s="32">
-        <f t="shared" ref="P29" si="104">P20/P4</f>
+        <f t="shared" ref="P29" si="121">P20/P4</f>
         <v>0.26038394415357768</v>
       </c>
       <c r="Q29" s="32">
-        <f t="shared" ref="Q29" si="105">Q20/Q4</f>
+        <f t="shared" ref="Q29" si="122">Q20/Q4</f>
         <v>0.25479662317728319</v>
       </c>
       <c r="R29" s="32">
-        <f t="shared" ref="R29:S29" si="106">R20/R4</f>
+        <f t="shared" ref="R29:S29" si="123">R20/R4</f>
         <v>0.29463040446304045</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>0.24298711144806673</v>
       </c>
       <c r="T29" s="32">
@@ -5099,11 +6052,11 @@
         <v>0.10555777688924431</v>
       </c>
       <c r="V29" s="32">
-        <f t="shared" ref="V29" si="107">V20/V4</f>
+        <f t="shared" ref="V29" si="124">V20/V4</f>
         <v>0.75353999234596247</v>
       </c>
       <c r="W29" s="32">
-        <f t="shared" ref="W29" si="108">W20/W4</f>
+        <f t="shared" ref="W29" si="125">W20/W4</f>
         <v>-0.54007249295207416</v>
       </c>
       <c r="X29" s="32">
@@ -5119,27 +6072,27 @@
         <v>1.8424921483745041E-2</v>
       </c>
       <c r="AC29" s="32">
-        <f t="shared" ref="AC29:AD29" si="109">AC20/AC4</f>
+        <f t="shared" ref="AC29:AD29" si="126">AC20/AC4</f>
         <v>0.20076815642458101</v>
       </c>
       <c r="AD29" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>0.80922151687270294</v>
       </c>
       <c r="AE29" s="32">
-        <f t="shared" ref="AE29:AG29" si="110">AE20/AE4</f>
+        <f t="shared" ref="AE29:AG29" si="127">AE20/AE4</f>
         <v>-0.13569054094892716</v>
       </c>
       <c r="AF29" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.23543644146659223</v>
       </c>
       <c r="AG29" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.19508465319497542</v>
       </c>
       <c r="AH29" s="32">
-        <f t="shared" ref="AH29" si="111">AH20/AH4</f>
+        <f t="shared" ref="AH29" si="128">AH20/AH4</f>
         <v>0.52898347801736212</v>
       </c>
       <c r="AI29" s="32">
@@ -5150,77 +6103,124 @@
         <f>AJ20/AJ4</f>
         <v>-0.19682064473302066</v>
       </c>
-    </row>
-    <row r="30" spans="2:46">
+      <c r="AK29" s="75">
+        <f t="shared" ref="AK29:AT29" si="129">AK20/AK4</f>
+        <v>0.18448515964943377</v>
+      </c>
+      <c r="AL29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.22324131920047996</v>
+      </c>
+      <c r="AM29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.25098495246100061</v>
+      </c>
+      <c r="AN29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.26318080926019843</v>
+      </c>
+      <c r="AO29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.26077181882191064</v>
+      </c>
+      <c r="AP29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.27830973027348471</v>
+      </c>
+      <c r="AQ29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.2742762654351007</v>
+      </c>
+      <c r="AR29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.27800414107076615</v>
+      </c>
+      <c r="AS29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.2809315379627213</v>
+      </c>
+      <c r="AT29" s="75">
+        <f t="shared" si="129"/>
+        <v>0.27996651893219693</v>
+      </c>
+      <c r="AV29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW29" s="69">
+        <f>AW28/Main!C7</f>
+        <v>57.281112716189718</v>
+      </c>
+    </row>
+    <row r="30" spans="2:94">
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="32">
-        <f t="shared" ref="C30:G30" si="112">ABS(C17)/ABS(C16)</f>
+        <f t="shared" ref="C30:G30" si="130">ABS(C17)/ABS(C16)</f>
         <v>0.85483870967741937</v>
       </c>
       <c r="D30" s="32">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>0.93722943722943719</v>
       </c>
       <c r="E30" s="32">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>0.25072046109510088</v>
       </c>
       <c r="F30" s="32">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>5.6292335115864525</v>
       </c>
       <c r="G30" s="32">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>0.25594149908592323</v>
       </c>
       <c r="H30" s="32">
-        <f t="shared" ref="H30:I30" si="113">ABS(H17)/ABS(H16)</f>
+        <f t="shared" ref="H30:I30" si="131">ABS(H17)/ABS(H16)</f>
         <v>9.7595473833097593E-2</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" si="113"/>
+        <f t="shared" si="131"/>
         <v>0.24050632911392406</v>
       </c>
       <c r="J30" s="32">
-        <f t="shared" ref="J30:K30" si="114">ABS(J17)/ABS(J16)</f>
+        <f t="shared" ref="J30:K30" si="132">ABS(J17)/ABS(J16)</f>
         <v>0.47868217054263568</v>
       </c>
       <c r="K30" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="132"/>
         <v>0.21461187214611871</v>
       </c>
       <c r="L30" s="32">
-        <f t="shared" ref="L30" si="115">ABS(L17)/ABS(L16)</f>
+        <f t="shared" ref="L30" si="133">ABS(L17)/ABS(L16)</f>
         <v>0.21104536489151873</v>
       </c>
       <c r="M30" s="32">
-        <f t="shared" ref="M30:N30" si="116">ABS(M17)/ABS(M16)</f>
+        <f t="shared" ref="M30:N30" si="134">ABS(M17)/ABS(M16)</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="N30" s="32">
-        <f t="shared" si="116"/>
+        <f t="shared" si="134"/>
         <v>5.0607287449392711E-2</v>
       </c>
       <c r="O30" s="32">
-        <f t="shared" ref="O30" si="117">ABS(O17)/ABS(O16)</f>
+        <f t="shared" ref="O30" si="135">ABS(O17)/ABS(O16)</f>
         <v>0.23137876386687797</v>
       </c>
       <c r="P30" s="32">
-        <f t="shared" ref="P30" si="118">ABS(P17)/ABS(P16)</f>
+        <f t="shared" ref="P30" si="136">ABS(P17)/ABS(P16)</f>
         <v>0.26221335992023931</v>
       </c>
       <c r="Q30" s="32">
-        <f t="shared" ref="Q30" si="119">ABS(Q17)/ABS(Q16)</f>
+        <f t="shared" ref="Q30" si="137">ABS(Q17)/ABS(Q16)</f>
         <v>0.19767441860465115</v>
       </c>
       <c r="R30" s="32">
-        <f t="shared" ref="R30:S30" si="120">ABS(R17)/ABS(R16)</f>
+        <f t="shared" ref="R30:S30" si="138">ABS(R17)/ABS(R16)</f>
         <v>0.29576194770063119</v>
       </c>
       <c r="S30" s="32">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.21546961325966851</v>
       </c>
       <c r="T30" s="32">
@@ -5232,11 +6232,11 @@
         <v>0.34792626728110598</v>
       </c>
       <c r="V30" s="32">
-        <f t="shared" ref="V30" si="121">ABS(V17)/ABS(V16)</f>
+        <f t="shared" ref="V30" si="139">ABS(V17)/ABS(V16)</f>
         <v>0.23083548664944015</v>
       </c>
       <c r="W30" s="32">
-        <f t="shared" ref="W30" si="122">ABS(W17)/ABS(W16)</f>
+        <f t="shared" ref="W30" si="140">ABS(W17)/ABS(W16)</f>
         <v>0.18799272286234081</v>
       </c>
       <c r="X30" s="32">
@@ -5252,27 +6252,27 @@
         <v>1.2820320736162232</v>
       </c>
       <c r="AC30" s="32">
-        <f t="shared" ref="AC30:AD30" si="123">ABS(AC17)/ABS(AC16)</f>
+        <f t="shared" ref="AC30:AD30" si="141">ABS(AC17)/ABS(AC16)</f>
         <v>0.19077306733167082</v>
       </c>
       <c r="AD30" s="32">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>0.99534374144070115</v>
       </c>
       <c r="AE30" s="32">
-        <f t="shared" ref="AE30:AG30" si="124">ABS(AE17)/ABS(AE16)</f>
+        <f t="shared" ref="AE30:AG30" si="142">ABS(AE17)/ABS(AE16)</f>
         <v>1.5999109924343569</v>
       </c>
       <c r="AF30" s="32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>6.9904341427520236E-2</v>
       </c>
       <c r="AG30" s="32">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0.17099792099792099</v>
       </c>
       <c r="AH30" s="32">
-        <f t="shared" ref="AH30" si="125">ABS(AH17)/ABS(AH16)</f>
+        <f t="shared" ref="AH30" si="143">ABS(AH17)/ABS(AH16)</f>
         <v>0.25305658231447259</v>
       </c>
       <c r="AI30" s="32">
@@ -5283,16 +6283,62 @@
         <f>ABS(AJ17)/ABS(AJ16)</f>
         <v>0.26126990094678865</v>
       </c>
-    </row>
-    <row r="32" spans="2:46">
+      <c r="AK30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AL30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AM30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AN30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AO30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AP30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AQ30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AR30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AS30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AT30" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="AV30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW30" s="63">
+        <f>Main!C6</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:94">
+      <c r="AV31" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW31" s="64">
+        <f>AW29/AW30-1</f>
+        <v>0.15719419628666098</v>
+      </c>
+    </row>
+    <row r="32" spans="2:94">
       <c r="U32" s="29"/>
     </row>
-    <row r="34" spans="2:36">
+    <row r="34" spans="2:46">
       <c r="B34" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:36" s="2" customFormat="1">
+    <row r="35" spans="2:46" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -5371,8 +6417,18 @@
         <v>1379</v>
       </c>
       <c r="AJ35" s="43"/>
-    </row>
-    <row r="36" spans="2:36" s="2" customFormat="1">
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="76"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="76"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="76"/>
+      <c r="AR35" s="76"/>
+      <c r="AS35" s="76"/>
+      <c r="AT35" s="76"/>
+    </row>
+    <row r="36" spans="2:46" s="2" customFormat="1">
       <c r="B36" s="2" t="s">
         <v>95</v>
       </c>
@@ -5451,8 +6507,18 @@
         <v>5944</v>
       </c>
       <c r="AJ36" s="43"/>
-    </row>
-    <row r="37" spans="2:36">
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+    </row>
+    <row r="37" spans="2:46">
       <c r="B37" s="1" t="s">
         <v>96</v>
       </c>
@@ -5530,7 +6596,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="2:36">
+    <row r="38" spans="2:46">
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
@@ -5603,7 +6669,7 @@
         <v>1400</v>
       </c>
       <c r="AH38" s="29">
-        <f t="shared" ref="AH38:AH46" si="126">AG38+R38</f>
+        <f t="shared" ref="AH38:AH46" si="144">AG38+R38</f>
         <v>4352</v>
       </c>
       <c r="AI38" s="29">
@@ -5611,20 +6677,20 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="39" spans="2:36">
+    <row r="39" spans="2:46">
       <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="29">
-        <f t="shared" ref="C39:D39" si="127">SUM(C35:C38)</f>
+        <f t="shared" ref="C39:D39" si="145">SUM(C35:C38)</f>
         <v>0</v>
       </c>
       <c r="D39" s="29">
-        <f t="shared" si="127"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" ref="E39" si="128">SUM(E35:E38)</f>
+        <f t="shared" ref="E39" si="146">SUM(E35:E38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="29">
@@ -5632,75 +6698,75 @@
         <v>7744</v>
       </c>
       <c r="G39" s="29">
-        <f t="shared" ref="G39:X39" si="129">SUM(G35:G38)</f>
+        <f t="shared" ref="G39:X39" si="147">SUM(G35:G38)</f>
         <v>6763</v>
       </c>
       <c r="H39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>6184</v>
       </c>
       <c r="I39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>6963</v>
       </c>
       <c r="J39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>7126</v>
       </c>
       <c r="K39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="L39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="N39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>4706</v>
       </c>
       <c r="O39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>6248</v>
       </c>
       <c r="P39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>7394</v>
       </c>
       <c r="Q39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>6739</v>
       </c>
       <c r="R39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>7190</v>
       </c>
       <c r="S39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="T39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="U39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="V39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>9111</v>
       </c>
       <c r="W39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>7349</v>
       </c>
       <c r="X39" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="147"/>
         <v>5067</v>
       </c>
       <c r="Y39" s="29">
@@ -5708,35 +6774,35 @@
         <v>5289</v>
       </c>
       <c r="AC39" s="29">
-        <f t="shared" ref="AC39:AD39" si="130">SUM(AC35:AC38)</f>
+        <f t="shared" ref="AC39:AD39" si="148">SUM(AC35:AC38)</f>
         <v>7904</v>
       </c>
       <c r="AD39" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="148"/>
         <v>8875</v>
       </c>
       <c r="AE39" s="29">
-        <f t="shared" ref="AE39" si="131">SUM(AE35:AE38)</f>
+        <f t="shared" ref="AE39" si="149">SUM(AE35:AE38)</f>
         <v>7744</v>
       </c>
       <c r="AF39" s="29">
-        <f t="shared" ref="AF39" si="132">SUM(AF35:AF38)</f>
+        <f t="shared" ref="AF39" si="150">SUM(AF35:AF38)</f>
         <v>7126</v>
       </c>
       <c r="AG39" s="29">
-        <f t="shared" ref="AG39" si="133">SUM(AG35:AG38)</f>
+        <f t="shared" ref="AG39" si="151">SUM(AG35:AG38)</f>
         <v>4706</v>
       </c>
       <c r="AH39" s="29">
-        <f t="shared" ref="AH39" si="134">SUM(AH35:AH38)</f>
+        <f t="shared" ref="AH39" si="152">SUM(AH35:AH38)</f>
         <v>9145</v>
       </c>
       <c r="AI39" s="29">
-        <f t="shared" ref="AI39" si="135">SUM(AI35:AI38)</f>
+        <f t="shared" ref="AI39" si="153">SUM(AI35:AI38)</f>
         <v>9111</v>
       </c>
     </row>
-    <row r="40" spans="2:36">
+    <row r="40" spans="2:46">
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
@@ -5795,27 +6861,27 @@
         <v>3969</v>
       </c>
       <c r="AE40" s="29">
-        <f t="shared" ref="AE40:AE46" si="136">F40</f>
+        <f t="shared" ref="AE40:AE46" si="154">F40</f>
         <v>6331</v>
       </c>
       <c r="AF40" s="29">
-        <f t="shared" ref="AF40:AF46" si="137">J40</f>
+        <f t="shared" ref="AF40:AF46" si="155">J40</f>
         <v>3778</v>
       </c>
       <c r="AG40" s="29">
-        <f t="shared" ref="AG40:AG46" si="138">N40</f>
+        <f t="shared" ref="AG40:AG46" si="156">N40</f>
         <v>1275</v>
       </c>
       <c r="AH40" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>2108</v>
       </c>
       <c r="AI40" s="29">
-        <f t="shared" ref="AI40:AI60" si="139">V40</f>
+        <f t="shared" ref="AI40:AI60" si="157">V40</f>
         <v>2575</v>
       </c>
     </row>
-    <row r="41" spans="2:36">
+    <row r="41" spans="2:46">
       <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
@@ -5874,27 +6940,27 @@
         <v>1516</v>
       </c>
       <c r="AE41" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>1597</v>
       </c>
       <c r="AF41" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>1597</v>
       </c>
       <c r="AG41" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>1460</v>
       </c>
       <c r="AH41" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>2818</v>
       </c>
       <c r="AI41" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>1236</v>
       </c>
     </row>
-    <row r="42" spans="2:36">
+    <row r="42" spans="2:46">
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
@@ -5965,27 +7031,27 @@
         <v>4603</v>
       </c>
       <c r="AE42" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>4842</v>
       </c>
       <c r="AF42" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>5252</v>
       </c>
       <c r="AG42" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>4572</v>
       </c>
       <c r="AH42" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>9259</v>
       </c>
       <c r="AI42" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>4178</v>
       </c>
     </row>
-    <row r="43" spans="2:36">
+    <row r="43" spans="2:46">
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
@@ -6044,27 +7110,27 @@
         <v>0</v>
       </c>
       <c r="AE43" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AF43" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="AG43" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>583</v>
       </c>
       <c r="AH43" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>1092</v>
       </c>
       <c r="AI43" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="2:36">
+    <row r="44" spans="2:46">
       <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
@@ -6123,27 +7189,27 @@
         <v>4608</v>
       </c>
       <c r="AE44" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>5199</v>
       </c>
       <c r="AF44" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>4792</v>
       </c>
       <c r="AG44" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>3980</v>
       </c>
       <c r="AH44" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>7517</v>
       </c>
       <c r="AI44" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>3255</v>
       </c>
     </row>
-    <row r="45" spans="2:36">
+    <row r="45" spans="2:46">
       <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
@@ -6202,27 +7268,27 @@
         <v>0</v>
       </c>
       <c r="AE45" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AF45" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="AG45" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="AH45" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="AI45" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>5391</v>
       </c>
     </row>
-    <row r="46" spans="2:36">
+    <row r="46" spans="2:46">
       <c r="B46" s="1" t="s">
         <v>105</v>
       </c>
@@ -6283,40 +7349,40 @@
         <v>276</v>
       </c>
       <c r="AE46" s="29">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>273</v>
       </c>
       <c r="AF46" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>274</v>
       </c>
       <c r="AG46" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>1598</v>
       </c>
       <c r="AH46" s="29">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>2794</v>
       </c>
       <c r="AI46" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="2:36">
+    <row r="47" spans="2:46">
       <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="29">
-        <f t="shared" ref="C47:D47" si="140">C39+SUM(C40:C46)</f>
+        <f t="shared" ref="C47:D47" si="158">C39+SUM(C40:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="29">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="E47" s="29">
-        <f t="shared" ref="E47" si="141">E39+SUM(E40:E46)</f>
+        <f t="shared" ref="E47" si="159">E39+SUM(E40:E46)</f>
         <v>0</v>
       </c>
       <c r="F47" s="29">
@@ -6324,75 +7390,75 @@
         <v>25986</v>
       </c>
       <c r="G47" s="29">
-        <f t="shared" ref="G47:X47" si="142">G39+SUM(G40:G46)</f>
+        <f t="shared" ref="G47:X47" si="160">G39+SUM(G40:G46)</f>
         <v>24555</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>23988</v>
       </c>
       <c r="I47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>23652</v>
       </c>
       <c r="J47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>22819</v>
       </c>
       <c r="K47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="N47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>18174</v>
       </c>
       <c r="O47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>18929</v>
       </c>
       <c r="P47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>20014</v>
       </c>
       <c r="Q47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>18241</v>
       </c>
       <c r="R47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>19310</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="T47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="U47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="V47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>26626</v>
       </c>
       <c r="W47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>22980</v>
       </c>
       <c r="X47" s="29">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>19653</v>
       </c>
       <c r="Y47" s="29">
@@ -6400,35 +7466,35 @@
         <v>19097</v>
       </c>
       <c r="AC47" s="29">
-        <f t="shared" ref="AC47:AD47" si="143">AC39+SUM(AC40:AC46)</f>
+        <f t="shared" ref="AC47:AD47" si="161">AC39+SUM(AC40:AC46)</f>
         <v>17755</v>
       </c>
       <c r="AD47" s="29">
-        <f t="shared" si="143"/>
+        <f t="shared" si="161"/>
         <v>23847</v>
       </c>
       <c r="AE47" s="29">
-        <f t="shared" ref="AE47" si="144">AE39+SUM(AE40:AE46)</f>
+        <f t="shared" ref="AE47" si="162">AE39+SUM(AE40:AE46)</f>
         <v>25986</v>
       </c>
       <c r="AF47" s="29">
-        <f t="shared" ref="AF47" si="145">AF39+SUM(AF40:AF46)</f>
+        <f t="shared" ref="AF47" si="163">AF39+SUM(AF40:AF46)</f>
         <v>22819</v>
       </c>
       <c r="AG47" s="29">
-        <f t="shared" ref="AG47" si="146">AG39+SUM(AG40:AG46)</f>
+        <f t="shared" ref="AG47" si="164">AG39+SUM(AG40:AG46)</f>
         <v>18174</v>
       </c>
       <c r="AH47" s="29">
-        <f t="shared" ref="AH47" si="147">AH39+SUM(AH40:AH46)</f>
+        <f t="shared" ref="AH47" si="165">AH39+SUM(AH40:AH46)</f>
         <v>34733</v>
       </c>
       <c r="AI47" s="29">
-        <f t="shared" ref="AI47" si="148">AI39+SUM(AI40:AI46)</f>
+        <f t="shared" ref="AI47" si="166">AI39+SUM(AI40:AI46)</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="48" spans="2:36">
+    <row r="48" spans="2:46">
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -6453,7 +7519,7 @@
       <c r="AD48" s="29"/>
       <c r="AI48" s="29"/>
     </row>
-    <row r="49" spans="2:36" s="2" customFormat="1">
+    <row r="49" spans="2:46" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
@@ -6533,8 +7599,18 @@
         <v>1355</v>
       </c>
       <c r="AJ49" s="43"/>
-    </row>
-    <row r="50" spans="2:36">
+      <c r="AK49" s="76"/>
+      <c r="AL49" s="76"/>
+      <c r="AM49" s="76"/>
+      <c r="AN49" s="76"/>
+      <c r="AO49" s="76"/>
+      <c r="AP49" s="76"/>
+      <c r="AQ49" s="76"/>
+      <c r="AR49" s="76"/>
+      <c r="AS49" s="76"/>
+      <c r="AT49" s="76"/>
+    </row>
+    <row r="50" spans="2:46">
       <c r="B50" s="1" t="s">
         <v>108</v>
       </c>
@@ -6593,27 +7669,27 @@
         <v>283</v>
       </c>
       <c r="AE50" s="29">
-        <f t="shared" ref="AE50:AE60" si="149">F50</f>
+        <f t="shared" ref="AE50:AE60" si="167">F50</f>
         <v>330</v>
       </c>
       <c r="AF50" s="29">
-        <f t="shared" ref="AF50:AF60" si="150">J50</f>
+        <f t="shared" ref="AF50:AF60" si="168">J50</f>
         <v>286</v>
       </c>
       <c r="AG50" s="29">
-        <f t="shared" ref="AG50:AG60" si="151">N50</f>
+        <f t="shared" ref="AG50:AG60" si="169">N50</f>
         <v>229</v>
       </c>
       <c r="AH50" s="29">
-        <f t="shared" ref="AH50:AH55" si="152">AG50+R50</f>
+        <f t="shared" ref="AH50:AH55" si="170">AG50+R50</f>
         <v>561</v>
       </c>
       <c r="AI50" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:36">
+    <row r="51" spans="2:46">
       <c r="B51" s="1" t="s">
         <v>109</v>
       </c>
@@ -6672,27 +7748,27 @@
         <v>110</v>
       </c>
       <c r="AE51" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>137</v>
       </c>
       <c r="AF51" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>170</v>
       </c>
       <c r="AG51" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>2097</v>
       </c>
       <c r="AH51" s="29">
-        <f t="shared" si="152"/>
+        <f t="shared" si="170"/>
         <v>5007</v>
       </c>
       <c r="AI51" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>707</v>
       </c>
     </row>
-    <row r="52" spans="2:36">
+    <row r="52" spans="2:46">
       <c r="B52" s="1" t="s">
         <v>110</v>
       </c>
@@ -6751,27 +7827,27 @@
         <v>1893</v>
       </c>
       <c r="AE52" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>2134</v>
       </c>
       <c r="AF52" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>2335</v>
       </c>
       <c r="AG52" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>129</v>
       </c>
       <c r="AH52" s="29">
-        <f t="shared" si="152"/>
+        <f t="shared" si="170"/>
         <v>239</v>
       </c>
       <c r="AI52" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>1927</v>
       </c>
     </row>
-    <row r="53" spans="2:36">
+    <row r="53" spans="2:46">
       <c r="B53" s="1" t="s">
         <v>111</v>
       </c>
@@ -6830,27 +7906,27 @@
         <v>110</v>
       </c>
       <c r="AE53" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>177</v>
       </c>
       <c r="AF53" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>117</v>
       </c>
       <c r="AG53" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>169</v>
       </c>
       <c r="AH53" s="29">
-        <f t="shared" si="152"/>
+        <f t="shared" si="170"/>
         <v>349</v>
       </c>
       <c r="AI53" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:36">
+    <row r="54" spans="2:46">
       <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
@@ -6909,26 +7985,26 @@
         <v>0</v>
       </c>
       <c r="AE54" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AF54" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AG54" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>259</v>
       </c>
       <c r="AH54" s="29">
-        <f t="shared" si="152"/>
+        <f t="shared" si="170"/>
         <v>259</v>
       </c>
       <c r="AI54" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:36">
+    <row r="55" spans="2:46">
       <c r="B55" s="1" t="s">
         <v>125</v>
       </c>
@@ -6987,39 +8063,39 @@
         <v>0</v>
       </c>
       <c r="AE55" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AF55" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AG55" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>163</v>
       </c>
       <c r="AH55" s="29">
-        <f t="shared" si="152"/>
+        <f t="shared" si="170"/>
         <v>615</v>
       </c>
       <c r="AI55" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:36">
+    <row r="56" spans="2:46">
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="29">
-        <f t="shared" ref="C56:D56" si="153">SUM(C49:C55)</f>
+        <f t="shared" ref="C56:D56" si="171">SUM(C49:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="29">
-        <f t="shared" si="153"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="E56" s="29">
-        <f t="shared" ref="E56" si="154">SUM(E49:E55)</f>
+        <f t="shared" ref="E56" si="172">SUM(E49:E55)</f>
         <v>0</v>
       </c>
       <c r="F56" s="29">
@@ -7031,107 +8107,107 @@
         <v>2568</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" ref="H56:Y56" si="155">SUM(H49:H55)</f>
+        <f t="shared" ref="H56:Y56" si="173">SUM(H49:H55)</f>
         <v>2608</v>
       </c>
       <c r="I56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4006</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4454</v>
       </c>
       <c r="K56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="L56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="M56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="N56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4066</v>
       </c>
       <c r="O56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4673</v>
       </c>
       <c r="P56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4692</v>
       </c>
       <c r="Q56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>3840</v>
       </c>
       <c r="R56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4002</v>
       </c>
       <c r="S56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="T56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="U56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4622</v>
       </c>
       <c r="W56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>4982</v>
       </c>
       <c r="X56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>3972</v>
       </c>
       <c r="Y56" s="29">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>3974</v>
       </c>
       <c r="AC56" s="29">
-        <f t="shared" ref="AC56:AD56" si="156">SUM(AC49:AC55)</f>
+        <f t="shared" ref="AC56:AD56" si="174">SUM(AC49:AC55)</f>
         <v>2263</v>
       </c>
       <c r="AD56" s="29">
-        <f t="shared" si="156"/>
+        <f t="shared" si="174"/>
         <v>3847</v>
       </c>
       <c r="AE56" s="29">
-        <f t="shared" ref="AE56" si="157">SUM(AE49:AE55)</f>
+        <f t="shared" ref="AE56" si="175">SUM(AE49:AE55)</f>
         <v>3559</v>
       </c>
       <c r="AF56" s="29">
-        <f t="shared" ref="AF56" si="158">SUM(AF49:AF55)</f>
+        <f t="shared" ref="AF56" si="176">SUM(AF49:AF55)</f>
         <v>4454</v>
       </c>
       <c r="AG56" s="29">
-        <f t="shared" ref="AG56" si="159">SUM(AG49:AG55)</f>
+        <f t="shared" ref="AG56" si="177">SUM(AG49:AG55)</f>
         <v>4066</v>
       </c>
       <c r="AH56" s="29">
-        <f t="shared" ref="AH56" si="160">SUM(AH49:AH55)</f>
+        <f t="shared" ref="AH56" si="178">SUM(AH49:AH55)</f>
         <v>7048</v>
       </c>
       <c r="AI56" s="29">
-        <f t="shared" ref="AI56" si="161">SUM(AI49:AI55)</f>
+        <f t="shared" ref="AI56" si="179">SUM(AI49:AI55)</f>
         <v>4622</v>
       </c>
     </row>
-    <row r="57" spans="2:36">
+    <row r="57" spans="2:46">
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
@@ -7190,15 +8266,15 @@
         <v>0</v>
       </c>
       <c r="AE57" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AF57" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AG57" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>461</v>
       </c>
       <c r="AH57" s="29">
@@ -7206,11 +8282,11 @@
         <v>841</v>
       </c>
       <c r="AI57" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="2:36">
+    <row r="58" spans="2:46">
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
@@ -7269,15 +8345,15 @@
         <v>1888</v>
       </c>
       <c r="AE58" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>3424</v>
       </c>
       <c r="AF58" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>2925</v>
       </c>
       <c r="AG58" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>2355</v>
       </c>
       <c r="AH58" s="29">
@@ -7285,11 +8361,11 @@
         <v>4714</v>
       </c>
       <c r="AI58" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>3116</v>
       </c>
     </row>
-    <row r="59" spans="2:36" s="2" customFormat="1">
+    <row r="59" spans="2:46" s="2" customFormat="1">
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
@@ -7369,8 +8445,18 @@
         <v>7727</v>
       </c>
       <c r="AJ59" s="43"/>
-    </row>
-    <row r="60" spans="2:36">
+      <c r="AK59" s="76"/>
+      <c r="AL59" s="76"/>
+      <c r="AM59" s="76"/>
+      <c r="AN59" s="76"/>
+      <c r="AO59" s="76"/>
+      <c r="AP59" s="76"/>
+      <c r="AQ59" s="76"/>
+      <c r="AR59" s="76"/>
+      <c r="AS59" s="76"/>
+      <c r="AT59" s="76"/>
+    </row>
+    <row r="60" spans="2:46">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -7430,15 +8516,15 @@
         <v>64</v>
       </c>
       <c r="AE60" s="29">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>1720</v>
       </c>
       <c r="AF60" s="29">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>1474</v>
       </c>
       <c r="AG60" s="29">
-        <f t="shared" si="151"/>
+        <f t="shared" si="169"/>
         <v>1684</v>
       </c>
       <c r="AH60" s="29">
@@ -7446,24 +8532,24 @@
         <v>2947</v>
       </c>
       <c r="AI60" s="29">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>1183</v>
       </c>
     </row>
-    <row r="61" spans="2:36">
+    <row r="61" spans="2:46">
       <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="29">
-        <f t="shared" ref="C61:D61" si="162">C56+SUM(C57:C60)</f>
+        <f t="shared" ref="C61:D61" si="180">C56+SUM(C57:C60)</f>
         <v>0</v>
       </c>
       <c r="D61" s="29">
-        <f t="shared" si="162"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" ref="E61" si="163">E56+SUM(E57:E60)</f>
+        <f t="shared" ref="E61" si="181">E56+SUM(E57:E60)</f>
         <v>0</v>
       </c>
       <c r="F61" s="29">
@@ -7471,75 +8557,75 @@
         <v>17937</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" ref="G61:X61" si="164">G56+SUM(G57:G60)</f>
+        <f t="shared" ref="G61:X61" si="182">G56+SUM(G57:G60)</f>
         <v>16959</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>16842</v>
       </c>
       <c r="I61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>16723</v>
       </c>
       <c r="J61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>16538</v>
       </c>
       <c r="K61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="L61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="N61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>15304</v>
       </c>
       <c r="O61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>16814</v>
       </c>
       <c r="P61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>17112</v>
       </c>
       <c r="Q61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>15501</v>
       </c>
       <c r="R61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>15749</v>
       </c>
       <c r="S61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="T61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="U61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>16848</v>
       </c>
       <c r="W61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>15926</v>
       </c>
       <c r="X61" s="29">
-        <f t="shared" si="164"/>
+        <f t="shared" si="182"/>
         <v>14410</v>
       </c>
       <c r="Y61" s="29">
@@ -7547,35 +8633,35 @@
         <v>14244</v>
       </c>
       <c r="AC61" s="29">
-        <f t="shared" ref="AC61:AD61" si="165">AC56+SUM(AC57:AC60)</f>
+        <f t="shared" ref="AC61:AD61" si="183">AC56+SUM(AC57:AC60)</f>
         <v>11179</v>
       </c>
       <c r="AD61" s="29">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>13308</v>
       </c>
       <c r="AE61" s="29">
-        <f t="shared" ref="AE61" si="166">AE56+SUM(AE57:AE60)</f>
+        <f t="shared" ref="AE61" si="184">AE56+SUM(AE57:AE60)</f>
         <v>17937</v>
       </c>
       <c r="AF61" s="29">
-        <f t="shared" ref="AF61" si="167">AF56+SUM(AF57:AF60)</f>
+        <f t="shared" ref="AF61" si="185">AF56+SUM(AF57:AF60)</f>
         <v>16538</v>
       </c>
       <c r="AG61" s="29">
-        <f t="shared" ref="AG61" si="168">AG56+SUM(AG57:AG60)</f>
+        <f t="shared" ref="AG61" si="186">AG56+SUM(AG57:AG60)</f>
         <v>15304</v>
       </c>
       <c r="AH61" s="29">
-        <f t="shared" ref="AH61" si="169">AH56+SUM(AH57:AH60)</f>
+        <f t="shared" ref="AH61" si="187">AH56+SUM(AH57:AH60)</f>
         <v>23295</v>
       </c>
       <c r="AI61" s="29">
-        <f t="shared" ref="AI61" si="170">AI56+SUM(AI57:AI60)</f>
+        <f t="shared" ref="AI61" si="188">AI56+SUM(AI57:AI60)</f>
         <v>16848</v>
       </c>
     </row>
-    <row r="62" spans="2:36">
+    <row r="62" spans="2:46">
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
       <c r="X62" s="29"/>
@@ -7583,7 +8669,7 @@
       <c r="AC62" s="29"/>
       <c r="AD62" s="29"/>
     </row>
-    <row r="63" spans="2:36" s="29" customFormat="1">
+    <row r="63" spans="2:46" s="29" customFormat="1">
       <c r="B63" s="29" t="s">
         <v>118</v>
       </c>
@@ -7640,11 +8726,11 @@
         <v>10539</v>
       </c>
       <c r="AE63" s="29">
-        <f t="shared" ref="AE63" si="171">F63</f>
+        <f t="shared" ref="AE63" si="189">F63</f>
         <v>8049</v>
       </c>
       <c r="AF63" s="29">
-        <f t="shared" ref="AF63" si="172">J63</f>
+        <f t="shared" ref="AF63" si="190">J63</f>
         <v>6281</v>
       </c>
       <c r="AG63" s="29">
@@ -7652,7 +8738,7 @@
         <v>2870</v>
       </c>
       <c r="AH63" s="29">
-        <f t="shared" ref="AH63" si="173">AG63+R63</f>
+        <f t="shared" ref="AH63" si="191">AG63+R63</f>
         <v>6431</v>
       </c>
       <c r="AI63" s="29">
@@ -7660,21 +8746,31 @@
         <v>9778</v>
       </c>
       <c r="AJ63" s="44"/>
-    </row>
-    <row r="64" spans="2:36">
+      <c r="AK63" s="35"/>
+      <c r="AL63" s="35"/>
+      <c r="AM63" s="35"/>
+      <c r="AN63" s="35"/>
+      <c r="AO63" s="35"/>
+      <c r="AP63" s="35"/>
+      <c r="AQ63" s="35"/>
+      <c r="AR63" s="35"/>
+      <c r="AS63" s="35"/>
+      <c r="AT63" s="35"/>
+    </row>
+    <row r="64" spans="2:46">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="29">
-        <f t="shared" ref="C64:D64" si="174">C63+C61</f>
+        <f t="shared" ref="C64:D64" si="192">C63+C61</f>
         <v>0</v>
       </c>
       <c r="D64" s="29">
-        <f t="shared" si="174"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" ref="E64" si="175">E63+E61</f>
+        <f t="shared" ref="E64" si="193">E63+E61</f>
         <v>0</v>
       </c>
       <c r="F64" s="29">
@@ -7682,75 +8778,75 @@
         <v>25986</v>
       </c>
       <c r="G64" s="29">
-        <f t="shared" ref="G64:X64" si="176">G63+G61</f>
+        <f t="shared" ref="G64:X64" si="194">G63+G61</f>
         <v>24555</v>
       </c>
       <c r="H64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>23988</v>
       </c>
       <c r="I64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>23652</v>
       </c>
       <c r="J64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>22819</v>
       </c>
       <c r="K64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="L64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="M64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>2870</v>
       </c>
       <c r="N64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>18174</v>
       </c>
       <c r="O64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>18929</v>
       </c>
       <c r="P64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>20014</v>
       </c>
       <c r="Q64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>18421</v>
       </c>
       <c r="R64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>19310</v>
       </c>
       <c r="S64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="T64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="U64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="V64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>26626</v>
       </c>
       <c r="W64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>22980</v>
       </c>
       <c r="X64" s="29">
-        <f t="shared" si="176"/>
+        <f t="shared" si="194"/>
         <v>19653</v>
       </c>
       <c r="Y64" s="29">
@@ -7758,38 +8854,38 @@
         <v>19097</v>
       </c>
       <c r="AC64" s="29">
-        <f t="shared" ref="AC64:AD64" si="177">AC63+AC61</f>
+        <f t="shared" ref="AC64:AD64" si="195">AC63+AC61</f>
         <v>17755</v>
       </c>
       <c r="AD64" s="29">
-        <f t="shared" si="177"/>
+        <f t="shared" si="195"/>
         <v>23847</v>
       </c>
       <c r="AE64" s="29">
-        <f t="shared" ref="AE64" si="178">AE63+AE61</f>
+        <f t="shared" ref="AE64" si="196">AE63+AE61</f>
         <v>25986</v>
       </c>
       <c r="AF64" s="29">
-        <f t="shared" ref="AF64" si="179">AF63+AF61</f>
+        <f t="shared" ref="AF64" si="197">AF63+AF61</f>
         <v>22819</v>
       </c>
       <c r="AG64" s="29">
-        <f t="shared" ref="AG64" si="180">AG63+AG61</f>
+        <f t="shared" ref="AG64" si="198">AG63+AG61</f>
         <v>18174</v>
       </c>
       <c r="AH64" s="29">
-        <f t="shared" ref="AH64" si="181">AH63+AH61</f>
+        <f t="shared" ref="AH64" si="199">AH63+AH61</f>
         <v>29726</v>
       </c>
       <c r="AI64" s="29">
-        <f t="shared" ref="AI64" si="182">AI63+AI61</f>
+        <f t="shared" ref="AI64" si="200">AI63+AI61</f>
         <v>26626</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:46">
       <c r="Y65" s="29"/>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:46">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
@@ -7798,11 +8894,11 @@
         <v>8049</v>
       </c>
       <c r="G66" s="29">
-        <f t="shared" ref="G66" si="183">G47-G61</f>
+        <f t="shared" ref="G66" si="201">G47-G61</f>
         <v>7596</v>
       </c>
       <c r="H66" s="29">
-        <f t="shared" ref="H66" si="184">H47-H61</f>
+        <f t="shared" ref="H66" si="202">H47-H61</f>
         <v>7146</v>
       </c>
       <c r="I66" s="29">
@@ -7810,7 +8906,7 @@
         <v>6929</v>
       </c>
       <c r="J66" s="29">
-        <f t="shared" ref="J66" si="185">J47-J61</f>
+        <f t="shared" ref="J66" si="203">J47-J61</f>
         <v>6281</v>
       </c>
       <c r="N66" s="29">
@@ -7818,11 +8914,11 @@
         <v>2870</v>
       </c>
       <c r="O66" s="29">
-        <f t="shared" ref="O66" si="186">O47-O61</f>
+        <f t="shared" ref="O66" si="204">O47-O61</f>
         <v>2115</v>
       </c>
       <c r="P66" s="29">
-        <f t="shared" ref="P66" si="187">P47-P61</f>
+        <f t="shared" ref="P66" si="205">P47-P61</f>
         <v>2902</v>
       </c>
       <c r="Q66" s="29">
@@ -7850,27 +8946,27 @@
         <v>4853</v>
       </c>
       <c r="AC66" s="29">
-        <f t="shared" ref="AC66:AD66" si="188">AC47-AC61</f>
+        <f t="shared" ref="AC66:AD66" si="206">AC47-AC61</f>
         <v>6576</v>
       </c>
       <c r="AD66" s="29">
-        <f t="shared" si="188"/>
+        <f t="shared" si="206"/>
         <v>10539</v>
       </c>
       <c r="AE66" s="29">
-        <f t="shared" ref="AE66" si="189">AE47-AE61</f>
+        <f t="shared" ref="AE66" si="207">AE47-AE61</f>
         <v>8049</v>
       </c>
       <c r="AF66" s="29">
-        <f t="shared" ref="AF66:AG66" si="190">AF47-AF61</f>
+        <f t="shared" ref="AF66:AG66" si="208">AF47-AF61</f>
         <v>6281</v>
       </c>
       <c r="AG66" s="29">
-        <f t="shared" si="190"/>
+        <f t="shared" si="208"/>
         <v>2870</v>
       </c>
       <c r="AH66" s="29">
-        <f t="shared" ref="AH66" si="191">AH47-AH61</f>
+        <f t="shared" ref="AH66" si="209">AH47-AH61</f>
         <v>11438</v>
       </c>
       <c r="AI66" s="29">
@@ -7878,7 +8974,7 @@
         <v>9778</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:46">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
@@ -7887,11 +8983,11 @@
         <v>7.5790960451977405</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67" si="192">G66/G22</f>
+        <f t="shared" ref="G67" si="210">G66/G22</f>
         <v>7.5207920792079204</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67" si="193">H66/H22</f>
+        <f t="shared" ref="H67" si="211">H66/H22</f>
         <v>7.2036290322580649</v>
       </c>
       <c r="I67" s="1">
@@ -7899,7 +8995,7 @@
         <v>7.113963039014374</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67" si="194">J66/J22</f>
+        <f t="shared" ref="J67" si="212">J66/J22</f>
         <v>6.6115789473684208</v>
       </c>
       <c r="N67" s="1">
@@ -7907,11 +9003,11 @@
         <v>3.5563816604708798</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67" si="195">O66/O22</f>
+        <f t="shared" ref="O67" si="213">O66/O22</f>
         <v>2.808764940239044</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="196">P66/P22</f>
+        <f t="shared" ref="P67" si="214">P66/P22</f>
         <v>4.1280227596017074</v>
       </c>
       <c r="Q67" s="1">
@@ -7939,27 +9035,27 @@
         <v>8.9429996037272659</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" ref="AC67:AD67" si="197">AC66/AC22</f>
+        <f t="shared" ref="AC67:AD67" si="215">AC66/AC22</f>
         <v>5.443708609271523</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" si="197"/>
+        <f t="shared" si="215"/>
         <v>9.301853486319505</v>
       </c>
       <c r="AE67" s="1">
-        <f t="shared" ref="AE67" si="198">AE66/AE22</f>
+        <f t="shared" ref="AE67" si="216">AE66/AE22</f>
         <v>7.7768115942028988</v>
       </c>
       <c r="AF67" s="1">
-        <f t="shared" ref="AF67:AG67" si="199">AF66/AF22</f>
+        <f t="shared" ref="AF67:AG67" si="217">AF66/AF22</f>
         <v>6.6115789473684208</v>
       </c>
       <c r="AG67" s="1">
-        <f t="shared" si="199"/>
+        <f t="shared" si="217"/>
         <v>3.3804475853945819</v>
       </c>
       <c r="AH67" s="1">
-        <f t="shared" ref="AH67" si="200">AH66/AH22</f>
+        <f t="shared" ref="AH67" si="218">AH66/AH22</f>
         <v>16.109859154929577</v>
       </c>
       <c r="AI67" s="1">
@@ -7967,20 +9063,20 @@
         <v>14.996932515337424</v>
       </c>
     </row>
-    <row r="69" spans="1:36" s="34" customFormat="1">
+    <row r="69" spans="1:46" s="34" customFormat="1">
       <c r="B69" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="35">
-        <f t="shared" ref="C69:D69" si="201">C35+C36</f>
+        <f t="shared" ref="C69:D69" si="219">C35+C36</f>
         <v>0</v>
       </c>
       <c r="D69" s="35">
-        <f t="shared" si="201"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="E69" s="35">
-        <f t="shared" ref="E69" si="202">E35+E36</f>
+        <f t="shared" ref="E69" si="220">E35+E36</f>
         <v>0</v>
       </c>
       <c r="F69" s="35">
@@ -7988,31 +9084,31 @@
         <v>5863</v>
       </c>
       <c r="G69" s="35">
-        <f t="shared" ref="G69:M69" si="203">G35+G36</f>
+        <f t="shared" ref="G69:M69" si="221">G35+G36</f>
         <v>4806</v>
       </c>
       <c r="H69" s="35">
-        <f t="shared" si="203"/>
+        <f t="shared" si="221"/>
         <v>4007</v>
       </c>
       <c r="I69" s="35">
-        <f t="shared" si="203"/>
+        <f t="shared" si="221"/>
         <v>4838</v>
       </c>
       <c r="J69" s="35">
-        <f t="shared" si="203"/>
+        <f t="shared" si="221"/>
         <v>4915</v>
       </c>
       <c r="K69" s="35">
-        <f t="shared" si="203"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="L69" s="35">
-        <f t="shared" si="203"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="M69" s="35">
-        <f t="shared" si="203"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="N69" s="35">
@@ -8020,15 +9116,15 @@
         <v>2751</v>
       </c>
       <c r="O69" s="35">
-        <f t="shared" ref="O69:Q69" si="204">O35+O36</f>
+        <f t="shared" ref="O69:Q69" si="222">O35+O36</f>
         <v>4430</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="204"/>
+        <f t="shared" si="222"/>
         <v>5303</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="204"/>
+        <f t="shared" si="222"/>
         <v>3660</v>
       </c>
       <c r="R69" s="35">
@@ -8036,15 +9132,15 @@
         <v>3826</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" ref="S69:U69" si="205">S35+S36</f>
+        <f t="shared" ref="S69:U69" si="223">S35+S36</f>
         <v>0</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="205"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="205"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="V69" s="35">
@@ -8052,11 +9148,11 @@
         <v>7323</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" ref="W69" si="206">W35+W36</f>
+        <f t="shared" ref="W69" si="224">W35+W36</f>
         <v>5569</v>
       </c>
       <c r="X69" s="35">
-        <f t="shared" ref="X69" si="207">X35+X36</f>
+        <f t="shared" ref="X69" si="225">X35+X36</f>
         <v>3225</v>
       </c>
       <c r="Y69" s="35">
@@ -8065,27 +9161,27 @@
       </c>
       <c r="Z69" s="40"/>
       <c r="AC69" s="35">
-        <f t="shared" ref="AC69:AD69" si="208">AC35+AC36</f>
+        <f t="shared" ref="AC69:AD69" si="226">AC35+AC36</f>
         <v>6131</v>
       </c>
       <c r="AD69" s="35">
-        <f t="shared" si="208"/>
+        <f t="shared" si="226"/>
         <v>7149</v>
       </c>
       <c r="AE69" s="35">
-        <f t="shared" ref="AE69" si="209">AE35+AE36</f>
+        <f t="shared" ref="AE69" si="227">AE35+AE36</f>
         <v>5863</v>
       </c>
       <c r="AF69" s="35">
-        <f t="shared" ref="AF69:AG69" si="210">AF35+AF36</f>
+        <f t="shared" ref="AF69:AG69" si="228">AF35+AF36</f>
         <v>4915</v>
       </c>
       <c r="AG69" s="35">
-        <f t="shared" si="210"/>
+        <f t="shared" si="228"/>
         <v>2751</v>
       </c>
       <c r="AH69" s="35">
-        <f t="shared" ref="AH69" si="211">AH35+AH36</f>
+        <f t="shared" ref="AH69" si="229">AH35+AH36</f>
         <v>3826</v>
       </c>
       <c r="AI69" s="35">
@@ -8094,20 +9190,20 @@
       </c>
       <c r="AJ69" s="40"/>
     </row>
-    <row r="70" spans="1:36" s="34" customFormat="1">
+    <row r="70" spans="1:46" s="34" customFormat="1">
       <c r="B70" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="35">
-        <f t="shared" ref="C70:D70" si="212">C49+C59</f>
+        <f t="shared" ref="C70:D70" si="230">C49+C59</f>
         <v>0</v>
       </c>
       <c r="D70" s="35">
-        <f t="shared" si="212"/>
+        <f t="shared" si="230"/>
         <v>0</v>
       </c>
       <c r="E70" s="35">
-        <f t="shared" ref="E70" si="213">E49+E59</f>
+        <f t="shared" ref="E70" si="231">E49+E59</f>
         <v>0</v>
       </c>
       <c r="F70" s="35">
@@ -8115,31 +9211,31 @@
         <v>10015</v>
       </c>
       <c r="G70" s="35">
-        <f t="shared" ref="G70:M70" si="214">G49+G59</f>
+        <f t="shared" ref="G70:M70" si="232">G49+G59</f>
         <v>9228</v>
       </c>
       <c r="H70" s="35">
-        <f t="shared" si="214"/>
+        <f t="shared" si="232"/>
         <v>9204</v>
       </c>
       <c r="I70" s="35">
-        <f t="shared" si="214"/>
+        <f t="shared" si="232"/>
         <v>9207</v>
       </c>
       <c r="J70" s="35">
-        <f t="shared" si="214"/>
+        <f t="shared" si="232"/>
         <v>9231</v>
       </c>
       <c r="K70" s="35">
-        <f t="shared" si="214"/>
+        <f t="shared" si="232"/>
         <v>0</v>
       </c>
       <c r="L70" s="35">
-        <f t="shared" si="214"/>
+        <f t="shared" si="232"/>
         <v>0</v>
       </c>
       <c r="M70" s="35">
-        <f t="shared" si="214"/>
+        <f t="shared" si="232"/>
         <v>0</v>
       </c>
       <c r="N70" s="35">
@@ -8147,15 +9243,15 @@
         <v>7758</v>
       </c>
       <c r="O70" s="35">
-        <f t="shared" ref="O70:Q70" si="215">O49+O59</f>
+        <f t="shared" ref="O70:Q70" si="233">O49+O59</f>
         <v>8739</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="215"/>
+        <f t="shared" si="233"/>
         <v>8677</v>
       </c>
       <c r="Q70" s="35">
-        <f t="shared" si="215"/>
+        <f t="shared" si="233"/>
         <v>7755</v>
       </c>
       <c r="R70" s="35">
@@ -8163,15 +9259,15 @@
         <v>7763</v>
       </c>
       <c r="S70" s="35">
-        <f t="shared" ref="S70:U70" si="216">S49+S59</f>
+        <f t="shared" ref="S70:U70" si="234">S49+S59</f>
         <v>0</v>
       </c>
       <c r="T70" s="35">
-        <f t="shared" si="216"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="U70" s="35">
-        <f t="shared" si="216"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
       <c r="V70" s="35">
@@ -8179,11 +9275,11 @@
         <v>9082</v>
       </c>
       <c r="W70" s="35">
-        <f t="shared" ref="W70" si="217">W49+W59</f>
+        <f t="shared" ref="W70" si="235">W49+W59</f>
         <v>8333</v>
       </c>
       <c r="X70" s="35">
-        <f t="shared" ref="X70" si="218">X49+X59</f>
+        <f t="shared" ref="X70" si="236">X49+X59</f>
         <v>7728</v>
       </c>
       <c r="Y70" s="35">
@@ -8192,27 +9288,27 @@
       </c>
       <c r="Z70" s="40"/>
       <c r="AC70" s="35">
-        <f t="shared" ref="AC70:AD70" si="219">AC49+AC59</f>
+        <f t="shared" ref="AC70:AD70" si="237">AC49+AC59</f>
         <v>6749</v>
       </c>
       <c r="AD70" s="35">
-        <f t="shared" si="219"/>
+        <f t="shared" si="237"/>
         <v>8960</v>
       </c>
       <c r="AE70" s="35">
-        <f t="shared" ref="AE70" si="220">AE49+AE59</f>
+        <f t="shared" ref="AE70" si="238">AE49+AE59</f>
         <v>10015</v>
       </c>
       <c r="AF70" s="35">
-        <f t="shared" ref="AF70:AG70" si="221">AF49+AF59</f>
+        <f t="shared" ref="AF70:AG70" si="239">AF49+AF59</f>
         <v>9231</v>
       </c>
       <c r="AG70" s="35">
-        <f t="shared" si="221"/>
+        <f t="shared" si="239"/>
         <v>7758</v>
       </c>
       <c r="AH70" s="35">
-        <f t="shared" ref="AH70" si="222">AH49+AH59</f>
+        <f t="shared" ref="AH70" si="240">AH49+AH59</f>
         <v>7763</v>
       </c>
       <c r="AI70" s="35">
@@ -8221,52 +9317,52 @@
       </c>
       <c r="AJ70" s="40"/>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:46">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="29">
-        <f t="shared" ref="C71:D71" si="223">C69-C70</f>
+        <f t="shared" ref="C71:D71" si="241">C69-C70</f>
         <v>0</v>
       </c>
       <c r="D71" s="29">
-        <f t="shared" si="223"/>
+        <f t="shared" si="241"/>
         <v>0</v>
       </c>
       <c r="E71" s="29">
-        <f t="shared" ref="E71" si="224">E69-E70</f>
+        <f t="shared" ref="E71" si="242">E69-E70</f>
         <v>0</v>
       </c>
       <c r="F71" s="29">
-        <f t="shared" ref="F71" si="225">F69-F70</f>
+        <f t="shared" ref="F71" si="243">F69-F70</f>
         <v>-4152</v>
       </c>
       <c r="G71" s="29">
-        <f t="shared" ref="G71" si="226">G69-G70</f>
+        <f t="shared" ref="G71" si="244">G69-G70</f>
         <v>-4422</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" ref="H71" si="227">H69-H70</f>
+        <f t="shared" ref="H71" si="245">H69-H70</f>
         <v>-5197</v>
       </c>
       <c r="I71" s="29">
-        <f t="shared" ref="I71" si="228">I69-I70</f>
+        <f t="shared" ref="I71" si="246">I69-I70</f>
         <v>-4369</v>
       </c>
       <c r="J71" s="29">
-        <f t="shared" ref="J71" si="229">J69-J70</f>
+        <f t="shared" ref="J71" si="247">J69-J70</f>
         <v>-4316</v>
       </c>
       <c r="K71" s="29">
-        <f t="shared" ref="K71" si="230">K69-K70</f>
+        <f t="shared" ref="K71" si="248">K69-K70</f>
         <v>0</v>
       </c>
       <c r="L71" s="29">
-        <f t="shared" ref="L71" si="231">L69-L70</f>
+        <f t="shared" ref="L71" si="249">L69-L70</f>
         <v>0</v>
       </c>
       <c r="M71" s="29">
-        <f t="shared" ref="M71" si="232">M69-M70</f>
+        <f t="shared" ref="M71" si="250">M69-M70</f>
         <v>0</v>
       </c>
       <c r="N71" s="29">
@@ -8274,15 +9370,15 @@
         <v>-5007</v>
       </c>
       <c r="O71" s="29">
-        <f t="shared" ref="O71:Q71" si="233">O69-O70</f>
+        <f t="shared" ref="O71:Q71" si="251">O69-O70</f>
         <v>-4309</v>
       </c>
       <c r="P71" s="29">
-        <f t="shared" si="233"/>
+        <f t="shared" si="251"/>
         <v>-3374</v>
       </c>
       <c r="Q71" s="29">
-        <f t="shared" si="233"/>
+        <f t="shared" si="251"/>
         <v>-4095</v>
       </c>
       <c r="R71" s="29">
@@ -8290,15 +9386,15 @@
         <v>-3937</v>
       </c>
       <c r="S71" s="29">
-        <f t="shared" ref="S71:U71" si="234">S69-S70</f>
+        <f t="shared" ref="S71:U71" si="252">S69-S70</f>
         <v>0</v>
       </c>
       <c r="T71" s="29">
-        <f t="shared" si="234"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="U71" s="29">
-        <f t="shared" si="234"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="V71" s="29">
@@ -8306,11 +9402,11 @@
         <v>-1759</v>
       </c>
       <c r="W71" s="29">
-        <f t="shared" ref="W71" si="235">W69-W70</f>
+        <f t="shared" ref="W71" si="253">W69-W70</f>
         <v>-2764</v>
       </c>
       <c r="X71" s="29">
-        <f t="shared" ref="X71" si="236">X69-X70</f>
+        <f t="shared" ref="X71" si="254">X69-X70</f>
         <v>-4503</v>
       </c>
       <c r="Y71" s="29">
@@ -8318,27 +9414,27 @@
         <v>-4235</v>
       </c>
       <c r="AC71" s="29">
-        <f t="shared" ref="AC71:AD71" si="237">AC69-AC70</f>
+        <f t="shared" ref="AC71:AD71" si="255">AC69-AC70</f>
         <v>-618</v>
       </c>
       <c r="AD71" s="29">
-        <f t="shared" si="237"/>
+        <f t="shared" si="255"/>
         <v>-1811</v>
       </c>
       <c r="AE71" s="29">
-        <f t="shared" ref="AE71" si="238">AE69-AE70</f>
+        <f t="shared" ref="AE71" si="256">AE69-AE70</f>
         <v>-4152</v>
       </c>
       <c r="AF71" s="29">
-        <f t="shared" ref="AF71:AG71" si="239">AF69-AF70</f>
+        <f t="shared" ref="AF71:AG71" si="257">AF69-AF70</f>
         <v>-4316</v>
       </c>
       <c r="AG71" s="29">
-        <f t="shared" si="239"/>
+        <f t="shared" si="257"/>
         <v>-5007</v>
       </c>
       <c r="AH71" s="29">
-        <f t="shared" ref="AH71" si="240">AH69-AH70</f>
+        <f t="shared" ref="AH71" si="258">AH69-AH70</f>
         <v>-3937</v>
       </c>
       <c r="AI71" s="29">
@@ -8346,7 +9442,7 @@
         <v>-1759</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:46">
       <c r="B73" s="1" t="s">
         <v>122</v>
       </c>
@@ -8426,11 +9522,11 @@
         <v>27.99</v>
       </c>
       <c r="AE73" s="30">
-        <f t="shared" ref="AE73" si="241">F73</f>
+        <f t="shared" ref="AE73" si="259">F73</f>
         <v>35.58</v>
       </c>
       <c r="AF73" s="30">
-        <f t="shared" ref="AF73" si="242">J73</f>
+        <f t="shared" ref="AF73" si="260">J73</f>
         <v>26.46</v>
       </c>
       <c r="AG73" s="1">
@@ -8446,80 +9542,80 @@
         <v>65.27</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:46">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" ref="C74:T74" si="243">C73*C22</f>
+        <f t="shared" ref="C74:T74" si="261">C73*C22</f>
         <v>34276.949999999997</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>35421.919999999998</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>38508.119999999995</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>36825.299999999996</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>38309.300000000003</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>33906.559999999998</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>30320.62</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>25137</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>31626</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>32267.200000000004</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>30842.799999999996</v>
       </c>
       <c r="N74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>27889.920000000002</v>
       </c>
       <c r="O74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>21761.7</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>35578.83</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>35092.32</v>
       </c>
       <c r="R74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>33560.639999999999</v>
       </c>
       <c r="S74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>40608.03</v>
       </c>
       <c r="T74" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="261"/>
         <v>46222.92</v>
       </c>
       <c r="U74" s="5">
@@ -8531,11 +9627,11 @@
         <v>39553.619999999995</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" ref="W74:X74" si="244">W73*W22</f>
+        <f t="shared" ref="W74:X74" si="262">W73*W22</f>
         <v>33124.409999999996</v>
       </c>
       <c r="X74" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="262"/>
         <v>22940.559999999998</v>
       </c>
       <c r="Y74" s="5">
@@ -8543,27 +9639,27 @@
         <v>19872.175765939999</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" ref="AC74:AD74" si="245">AC73*AC22</f>
+        <f t="shared" ref="AC74:AD74" si="263">AC73*AC22</f>
         <v>31299.279999999999</v>
       </c>
       <c r="AD74" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="263"/>
         <v>31712.67</v>
       </c>
       <c r="AE74" s="5">
-        <f t="shared" ref="AE74" si="246">AE73*AE22</f>
+        <f t="shared" ref="AE74" si="264">AE73*AE22</f>
         <v>36825.299999999996</v>
       </c>
       <c r="AF74" s="5">
-        <f t="shared" ref="AF74:AG74" si="247">AF73*AF22</f>
+        <f t="shared" ref="AF74:AG74" si="265">AF73*AF22</f>
         <v>25137</v>
       </c>
       <c r="AG74" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="265"/>
         <v>29341.440000000002</v>
       </c>
       <c r="AH74" s="5">
-        <f t="shared" ref="AH74" si="248">AH73*AH22</f>
+        <f t="shared" ref="AH74" si="266">AH73*AH22</f>
         <v>34633.800000000003</v>
       </c>
       <c r="AI74" s="5">
@@ -8571,29 +9667,29 @@
         <v>42556.04</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:46">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5">
-        <f t="shared" ref="F75" si="249">F74-G71</f>
+        <f t="shared" ref="F75" si="267">F74-G71</f>
         <v>41247.299999999996</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" ref="G75" si="250">G74-G71</f>
+        <f t="shared" ref="G75" si="268">G74-G71</f>
         <v>42731.3</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" ref="H75" si="251">H74-H71</f>
+        <f t="shared" ref="H75" si="269">H74-H71</f>
         <v>39103.56</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" ref="I75:J75" si="252">I74-I71</f>
+        <f t="shared" ref="I75:J75" si="270">I74-I71</f>
         <v>34689.619999999995</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="270"/>
         <v>29453</v>
       </c>
       <c r="N75" s="5">
@@ -8601,15 +9697,15 @@
         <v>32896.92</v>
       </c>
       <c r="O75" s="5">
-        <f t="shared" ref="O75" si="253">O74-O71</f>
+        <f t="shared" ref="O75" si="271">O74-O71</f>
         <v>26070.7</v>
       </c>
       <c r="P75" s="5">
-        <f t="shared" ref="P75" si="254">P74-P71</f>
+        <f t="shared" ref="P75" si="272">P74-P71</f>
         <v>38952.83</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" ref="Q75" si="255">Q74-Q71</f>
+        <f t="shared" ref="Q75" si="273">Q74-Q71</f>
         <v>39187.32</v>
       </c>
       <c r="R75" s="5">
@@ -8625,11 +9721,11 @@
         <v>41312.619999999995</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" ref="W75:X75" si="256">W74-W71</f>
+        <f t="shared" ref="W75:X75" si="274">W74-W71</f>
         <v>35888.409999999996</v>
       </c>
       <c r="X75" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="274"/>
         <v>27443.559999999998</v>
       </c>
       <c r="Y75" s="5">
@@ -8637,27 +9733,27 @@
         <v>24107.175765939999</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" ref="AC75:AD75" si="257">AC74-AC71</f>
+        <f t="shared" ref="AC75:AD75" si="275">AC74-AC71</f>
         <v>31917.279999999999</v>
       </c>
       <c r="AD75" s="5">
-        <f t="shared" si="257"/>
+        <f t="shared" si="275"/>
         <v>33523.67</v>
       </c>
       <c r="AE75" s="5">
-        <f t="shared" ref="AE75" si="258">AE74-AE71</f>
+        <f t="shared" ref="AE75" si="276">AE74-AE71</f>
         <v>40977.299999999996</v>
       </c>
       <c r="AF75" s="5">
-        <f t="shared" ref="AF75:AG75" si="259">AF74-AF71</f>
+        <f t="shared" ref="AF75:AG75" si="277">AF74-AF71</f>
         <v>29453</v>
       </c>
       <c r="AG75" s="5">
-        <f t="shared" si="259"/>
+        <f t="shared" si="277"/>
         <v>34348.44</v>
       </c>
       <c r="AH75" s="5">
-        <f t="shared" ref="AH75" si="260">AH74-AH71</f>
+        <f t="shared" ref="AH75" si="278">AH74-AH71</f>
         <v>38570.800000000003</v>
       </c>
       <c r="AI75" s="5">
@@ -8665,7 +9761,7 @@
         <v>44315.040000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:36" s="38" customFormat="1">
+    <row r="77" spans="1:46" s="38" customFormat="1">
       <c r="A77" s="39">
         <f>AVERAGE(G77:Y77)</f>
         <v>6.9135709765197264</v>
@@ -8678,11 +9774,11 @@
         <v>4.6944912411479685</v>
       </c>
       <c r="G77" s="38">
-        <f t="shared" ref="G77" si="261">G73/G67</f>
+        <f t="shared" ref="G77" si="279">G73/G67</f>
         <v>5.0433517640863617</v>
       </c>
       <c r="H77" s="38">
-        <f t="shared" ref="H77" si="262">H73/H67</f>
+        <f t="shared" ref="H77" si="280">H73/H67</f>
         <v>4.744830674503218</v>
       </c>
       <c r="I77" s="38">
@@ -8698,15 +9794,15 @@
         <v>9.7177421602787462</v>
       </c>
       <c r="O77" s="38">
-        <f t="shared" ref="O77" si="263">O73/O67</f>
+        <f t="shared" ref="O77" si="281">O73/O67</f>
         <v>10.289219858156027</v>
       </c>
       <c r="P77" s="38">
-        <f t="shared" ref="P77:Q77" si="264">P73/P67</f>
+        <f t="shared" ref="P77:Q77" si="282">P73/P67</f>
         <v>12.26010682288077</v>
       </c>
       <c r="Q77" s="38">
-        <f t="shared" si="264"/>
+        <f t="shared" si="282"/>
         <v>12.807416058394161</v>
       </c>
       <c r="R77" s="38">
@@ -8735,27 +9831,27 @@
         <v>4.8499415907579078</v>
       </c>
       <c r="AC77" s="38">
-        <f t="shared" ref="AC77:AD77" si="265">AC73/AC67</f>
+        <f t="shared" ref="AC77:AD77" si="283">AC73/AC67</f>
         <v>4.7596228710462292</v>
       </c>
       <c r="AD77" s="38">
-        <f t="shared" si="265"/>
+        <f t="shared" si="283"/>
         <v>3.009077711357814</v>
       </c>
       <c r="AE77" s="38">
-        <f t="shared" ref="AE77" si="266">AE73/AE67</f>
+        <f t="shared" ref="AE77" si="284">AE73/AE67</f>
         <v>4.5751397689153928</v>
       </c>
       <c r="AF77" s="38">
-        <f t="shared" ref="AF77:AG77" si="267">AF73/AF67</f>
+        <f t="shared" ref="AF77:AG77" si="285">AF73/AF67</f>
         <v>4.0020697341187708</v>
       </c>
       <c r="AG77" s="38">
-        <f t="shared" si="267"/>
+        <f t="shared" si="285"/>
         <v>10.223498257839722</v>
       </c>
       <c r="AH77" s="38">
-        <f t="shared" ref="AH77" si="268">AH73/AH67</f>
+        <f t="shared" ref="AH77" si="286">AH73/AH67</f>
         <v>3.0279594334673896</v>
       </c>
       <c r="AI77" s="38">
@@ -8763,8 +9859,18 @@
         <v>4.3522233585600327</v>
       </c>
       <c r="AJ77" s="46"/>
-    </row>
-    <row r="78" spans="1:36">
+      <c r="AK77" s="77"/>
+      <c r="AL77" s="77"/>
+      <c r="AM77" s="77"/>
+      <c r="AN77" s="77"/>
+      <c r="AO77" s="77"/>
+      <c r="AP77" s="77"/>
+      <c r="AQ77" s="77"/>
+      <c r="AR77" s="77"/>
+      <c r="AS77" s="77"/>
+      <c r="AT77" s="77"/>
+    </row>
+    <row r="78" spans="1:46">
       <c r="A78" s="39">
         <f>AVERAGE(G78:Y78)</f>
         <v>3.197187519156873</v>
@@ -8773,79 +9879,79 @@
         <v>65</v>
       </c>
       <c r="F78" s="38">
-        <f t="shared" ref="F78:X78" si="269">F74/SUM(C4:F4)</f>
+        <f t="shared" ref="F78:X78" si="287">F74/SUM(C4:F4)</f>
         <v>3.7096101541251127</v>
       </c>
       <c r="G78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.7543414347314781</v>
       </c>
       <c r="H78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.252427817745803</v>
       </c>
       <c r="I78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>2.866927004538578</v>
       </c>
       <c r="J78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>2.3391959798994977</v>
       </c>
       <c r="K78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>2.9895075148879857</v>
       </c>
       <c r="L78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.1139934375603171</v>
       </c>
       <c r="M78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.1485095957533682</v>
       </c>
       <c r="N78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.0464139814309124</v>
       </c>
       <c r="O78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>2.3871983326020185</v>
       </c>
       <c r="P78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.7224136848713121</v>
       </c>
       <c r="Q78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.4810356115464733</v>
       </c>
       <c r="R78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.1327023242789136</v>
       </c>
       <c r="S78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.6993741459415141</v>
       </c>
       <c r="T78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>4.2878404452690164</v>
       </c>
       <c r="U78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>4.2044196721311469</v>
       </c>
       <c r="V78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.7959328214971206</v>
       </c>
       <c r="W78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>3.2269274232830001</v>
       </c>
       <c r="X78" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="287"/>
         <v>2.2897055594370692</v>
       </c>
       <c r="Y78" s="38">
@@ -8853,31 +9959,31 @@
         <v>2.0076960765750655</v>
       </c>
       <c r="AB78" s="39">
-        <f t="shared" ref="AB78:AB81" si="270">AVERAGE(AC78:AI78)</f>
+        <f t="shared" ref="AB78:AB81" si="288">AVERAGE(AC78:AI78)</f>
         <v>3.3922041867436059</v>
       </c>
       <c r="AC78" s="38">
-        <f t="shared" ref="AC78:AD78" si="271">AC74/AC4</f>
+        <f t="shared" ref="AC78:AD78" si="289">AC74/AC4</f>
         <v>3.6428398510242084</v>
       </c>
       <c r="AD78" s="38">
-        <f t="shared" si="271"/>
+        <f t="shared" si="289"/>
         <v>3.5318710324089539</v>
       </c>
       <c r="AE78" s="38">
-        <f t="shared" ref="AE78" si="272">AE74/AE4</f>
+        <f t="shared" ref="AE78" si="290">AE74/AE4</f>
         <v>3.7096101541251127</v>
       </c>
       <c r="AF78" s="38">
-        <f t="shared" ref="AF78:AG78" si="273">AF74/AF4</f>
+        <f t="shared" ref="AF78:AG78" si="291">AF74/AF4</f>
         <v>2.3391959798994977</v>
       </c>
       <c r="AG78" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="291"/>
         <v>3.2049634079737852</v>
       </c>
       <c r="AH78" s="38">
-        <f t="shared" ref="AH78" si="274">AH74/AH4</f>
+        <f t="shared" ref="AH78" si="292">AH74/AH4</f>
         <v>3.2328759451134137</v>
       </c>
       <c r="AI78" s="38">
@@ -8885,36 +9991,36 @@
         <v>4.0840729366602684</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:46">
       <c r="B79" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AB79" s="39">
-        <f t="shared" si="270"/>
+        <f t="shared" si="288"/>
         <v>3.7031660365898795</v>
       </c>
       <c r="AC79" s="38">
-        <f t="shared" ref="AC79:AD79" si="275">AC75/AC4</f>
+        <f t="shared" ref="AC79:AD79" si="293">AC75/AC4</f>
         <v>3.7147672253258843</v>
       </c>
       <c r="AD79" s="38">
-        <f t="shared" si="275"/>
+        <f t="shared" si="293"/>
         <v>3.7335638712551509</v>
       </c>
       <c r="AE79" s="38">
-        <f t="shared" ref="AE79" si="276">AE75/AE4</f>
+        <f t="shared" ref="AE79" si="294">AE75/AE4</f>
         <v>4.1278634028407373</v>
       </c>
       <c r="AF79" s="38">
-        <f t="shared" ref="AF79:AG79" si="277">AF75/AF4</f>
+        <f t="shared" ref="AF79:AG79" si="295">AF75/AF4</f>
         <v>2.7408337986227433</v>
       </c>
       <c r="AG79" s="38">
-        <f t="shared" si="277"/>
+        <f t="shared" si="295"/>
         <v>3.7518776624795196</v>
       </c>
       <c r="AH79" s="38">
-        <f t="shared" ref="AH79" si="278">AH75/AH4</f>
+        <f t="shared" ref="AH79" si="296">AH75/AH4</f>
         <v>3.6003733781387104</v>
       </c>
       <c r="AI79" s="38">
@@ -8922,7 +10028,7 @@
         <v>4.2528829174664109</v>
       </c>
     </row>
-    <row r="80" spans="1:36" s="38" customFormat="1">
+    <row r="80" spans="1:46" s="38" customFormat="1">
       <c r="A80" s="39">
         <f>AVERAGE(G80:Y80)</f>
         <v>-9.9459851224596605</v>
@@ -8931,112 +10037,112 @@
         <v>67</v>
       </c>
       <c r="F80" s="38">
-        <f t="shared" ref="F80" si="279">F73/SUM(C21:F21)</f>
+        <f t="shared" ref="F80" si="297">F73/SUM(C21:F21)</f>
         <v>-34.186196284168958</v>
       </c>
       <c r="G80" s="38">
-        <f t="shared" ref="G80" si="280">G73/SUM(D21:G21)</f>
+        <f t="shared" ref="G80" si="298">G73/SUM(D21:G21)</f>
         <v>-23.803258337409265</v>
       </c>
       <c r="H80" s="38">
-        <f t="shared" ref="H80" si="281">H73/SUM(E21:H21)</f>
+        <f t="shared" ref="H80" si="299">H73/SUM(E21:H21)</f>
         <v>-35.119316071931394</v>
       </c>
       <c r="I80" s="38">
-        <f t="shared" ref="I80" si="282">I73/SUM(F21:I21)</f>
+        <f t="shared" ref="I80" si="300">I73/SUM(F21:I21)</f>
         <v>-43.077600182512285</v>
       </c>
       <c r="J80" s="38">
-        <f t="shared" ref="J80" si="283">J73/SUM(G21:J21)</f>
+        <f t="shared" ref="J80" si="301">J73/SUM(G21:J21)</f>
         <v>10.214661840651397</v>
       </c>
       <c r="K80" s="38">
-        <f t="shared" ref="K80" si="284">K73/SUM(H21:K21)</f>
+        <f t="shared" ref="K80" si="302">K73/SUM(H21:K21)</f>
         <v>12.718154987157886</v>
       </c>
       <c r="L80" s="38">
-        <f t="shared" ref="L80" si="285">L73/SUM(I21:L21)</f>
+        <f t="shared" ref="L80" si="303">L73/SUM(I21:L21)</f>
         <v>14.524374227423833</v>
       </c>
       <c r="M80" s="38">
-        <f t="shared" ref="M80" si="286">M73/SUM(J21:M21)</f>
+        <f t="shared" ref="M80" si="304">M73/SUM(J21:M21)</f>
         <v>16.765235423602924</v>
       </c>
       <c r="N80" s="38">
-        <f t="shared" ref="N80" si="287">N73/SUM(K21:N21)</f>
+        <f t="shared" ref="N80" si="305">N73/SUM(K21:N21)</f>
         <v>16.414442706508094</v>
       </c>
       <c r="O80" s="38">
-        <f t="shared" ref="O80" si="288">O73/SUM(L21:O21)</f>
+        <f t="shared" ref="O80" si="306">O73/SUM(L21:O21)</f>
         <v>4.7680989418995381</v>
       </c>
       <c r="P80" s="38">
-        <f t="shared" ref="P80" si="289">P73/SUM(M21:P21)</f>
+        <f t="shared" ref="P80" si="307">P73/SUM(M21:P21)</f>
         <v>7.6049907925668574</v>
       </c>
       <c r="Q80" s="38">
-        <f t="shared" ref="Q80" si="290">Q73/SUM(N21:Q21)</f>
+        <f t="shared" ref="Q80" si="308">Q73/SUM(N21:Q21)</f>
         <v>6.9685453631242744</v>
       </c>
       <c r="R80" s="38">
-        <f t="shared" ref="R80" si="291">R73/SUM(O21:R21)</f>
+        <f t="shared" ref="R80" si="309">R73/SUM(O21:R21)</f>
         <v>6.2742813338289967</v>
       </c>
       <c r="S80" s="38">
-        <f t="shared" ref="S80" si="292">S73/SUM(P21:S21)</f>
+        <f t="shared" ref="S80" si="310">S73/SUM(P21:S21)</f>
         <v>14.249698502138768</v>
       </c>
       <c r="T80" s="38">
-        <f t="shared" ref="T80" si="293">T73/SUM(Q21:T21)</f>
+        <f t="shared" ref="T80" si="311">T73/SUM(Q21:T21)</f>
         <v>3.600132376127589</v>
       </c>
       <c r="U80" s="38">
-        <f t="shared" ref="U80" si="294">U73/SUM(R21:U21)</f>
+        <f t="shared" ref="U80" si="312">U73/SUM(R21:U21)</f>
         <v>3.6877262294124424</v>
       </c>
       <c r="V80" s="38">
-        <f t="shared" ref="V80" si="295">V73/SUM(S21:V21)</f>
+        <f t="shared" ref="V80" si="313">V73/SUM(S21:V21)</f>
         <v>3.181191505918596</v>
       </c>
       <c r="W80" s="38">
-        <f t="shared" ref="W80" si="296">W73/SUM(T21:W21)</f>
+        <f t="shared" ref="W80" si="314">W73/SUM(T21:W21)</f>
         <v>3.2634136402727529</v>
       </c>
       <c r="X80" s="38">
-        <f t="shared" ref="X80" si="297">X73/SUM(U21:X21)</f>
+        <f t="shared" ref="X80" si="315">X73/SUM(U21:X21)</f>
         <v>100.42416013144638</v>
       </c>
       <c r="Y80" s="38">
-        <f t="shared" ref="Y80" si="298">Y73/SUM(V21:Y21)</f>
+        <f t="shared" ref="Y80" si="316">Y73/SUM(V21:Y21)</f>
         <v>-311.63265073696095</v>
       </c>
       <c r="Z80" s="46"/>
       <c r="AB80" s="39">
-        <f t="shared" si="270"/>
+        <f t="shared" si="288"/>
         <v>4.3961723137688082</v>
       </c>
       <c r="AC80" s="38">
-        <f t="shared" ref="AC80:AD80" si="299">AC73/AC21</f>
+        <f t="shared" ref="AC80:AD80" si="317">AC73/AC21</f>
         <v>18.144510144927537</v>
       </c>
       <c r="AD80" s="38">
-        <f t="shared" si="299"/>
+        <f t="shared" si="317"/>
         <v>4.3645293146160196</v>
       </c>
       <c r="AE80" s="38">
-        <f t="shared" ref="AE80" si="300">AE73/AE21</f>
+        <f t="shared" ref="AE80" si="318">AE73/AE21</f>
         <v>-27.338752783964363</v>
       </c>
       <c r="AF80" s="38">
-        <f t="shared" ref="AF80:AG80" si="301">AF73/AF21</f>
+        <f t="shared" ref="AF80:AG80" si="319">AF73/AF21</f>
         <v>9.9355731225296449</v>
       </c>
       <c r="AG80" s="38">
-        <f t="shared" si="301"/>
+        <f t="shared" si="319"/>
         <v>16.428577827547596</v>
       </c>
       <c r="AH80" s="38">
-        <f t="shared" ref="AH80" si="302">AH73/AH21</f>
+        <f t="shared" ref="AH80" si="320">AH73/AH21</f>
         <v>6.1114875595553206</v>
       </c>
       <c r="AI80" s="38">
@@ -9044,37 +10150,47 @@
         <v>3.1272810111699001</v>
       </c>
       <c r="AJ80" s="46"/>
+      <c r="AK80" s="77"/>
+      <c r="AL80" s="77"/>
+      <c r="AM80" s="77"/>
+      <c r="AN80" s="77"/>
+      <c r="AO80" s="77"/>
+      <c r="AP80" s="77"/>
+      <c r="AQ80" s="77"/>
+      <c r="AR80" s="77"/>
+      <c r="AS80" s="77"/>
+      <c r="AT80" s="77"/>
     </row>
     <row r="81" spans="2:35">
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AB81" s="39">
-        <f t="shared" si="270"/>
+        <f t="shared" si="288"/>
         <v>4.8045273010515652</v>
       </c>
       <c r="AC81" s="38">
-        <f t="shared" ref="AC81:AD81" si="303">AC75/AC20</f>
+        <f t="shared" ref="AC81:AD81" si="321">AC75/AC20</f>
         <v>18.502771014492755</v>
       </c>
       <c r="AD81" s="38">
-        <f t="shared" si="303"/>
+        <f t="shared" si="321"/>
         <v>4.6137723644371045</v>
       </c>
       <c r="AE81" s="38">
-        <f t="shared" ref="AE81" si="304">AE75/AE20</f>
+        <f t="shared" ref="AE81" si="322">AE75/AE20</f>
         <v>-30.421158129175943</v>
       </c>
       <c r="AF81" s="38">
-        <f t="shared" ref="AF81:AG81" si="305">AF75/AF20</f>
+        <f t="shared" ref="AF81:AG81" si="323">AF75/AF20</f>
         <v>11.641501976284585</v>
       </c>
       <c r="AG81" s="38">
-        <f t="shared" si="305"/>
+        <f t="shared" si="323"/>
         <v>19.232049272116463</v>
       </c>
       <c r="AH81" s="38">
-        <f t="shared" ref="AH81" si="306">AH75/AH20</f>
+        <f t="shared" ref="AH81" si="324">AH75/AH20</f>
         <v>6.8062113993294515</v>
       </c>
       <c r="AI81" s="38">
@@ -9110,8 +10226,8 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId17"/>
   <ignoredErrors>
     <ignoredError sqref="AI4 AH4:AH5 AG4:AG5 AG22 AF4:AF5 AE4:AE5 F78:Y78 Z11 Z15 AJ14" formulaRange="1"/>
-    <ignoredError sqref="AI5:AI11 AI14:AI15 AH6:AH11 AH14:AH19 AG7:AG11 AG14:AG15 AG19 AG17 AE7:AF11 AF6 AE14:AF15 AF12:AF13 AE17:AF17 AF16 AE19:AF19 AF18 Z17 AI19:AJ19 AI17" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AH39:AI39 AH56:AH61 AG39:AG62 AG64 AG6 AF35:AF56 AE39:AE62 AE16 AE18 Z16 AJ6 AJ20:AJ22 AJ16:AJ18 AI16 AI18" formula="1"/>
+    <ignoredError sqref="AI5:AI11 AI14:AI15 AH6:AH11 AH14:AH19 AG7:AG11 AG14:AG15 AE7:AF11 AF6 AE14:AF15 AF12:AF13 AE17:AF17 AF16 AE19:AF19 AF18 Z17 AI19:AJ19 AI17 AG17 AG19" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AH39:AI39 AH56:AH61 AG39:AG62 AG64 AG6 AF35:AF56 AE39:AE62 AE16 AE18 Z16 AJ6 AJ20:AJ22 AJ16:AJ18 AI16 AI18 AG16 AG20:AG21 AG18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId18"/>
 </worksheet>
